--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8616F5-BCAB-8140-906C-F4876D3B376A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F22789A-565B-E54C-8D45-488EBC35D2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="2760" windowWidth="46020" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5197" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5197" uniqueCount="1189">
   <si>
     <t>index</t>
   </si>
@@ -2806,15 +2806,6 @@
   </si>
   <si>
     <t>00:e0:4c:68:07:65</t>
-  </si>
-  <si>
-    <t>ada_fan_light</t>
-  </si>
-  <si>
-    <t>edwin_fan_light</t>
-  </si>
-  <si>
-    <t>lounge_fan_light</t>
   </si>
   <si>
     <t>bertram_2_office_temperature</t>
@@ -5306,8 +5297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E272" sqref="E272"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5429,7 +5420,7 @@
         <v>197</v>
       </c>
       <c r="X1" s="45" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="Y1" s="23" t="s">
         <v>195</v>
@@ -5474,25 +5465,25 @@
         <v>701</v>
       </c>
       <c r="AM1" s="23" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AN1" s="23" t="s">
         <v>701</v>
       </c>
       <c r="AO1" s="23" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="AP1" s="23" t="s">
         <v>701</v>
       </c>
       <c r="AQ1" s="23" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="AR1" s="23" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="AS1" s="23" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5527,10 +5518,10 @@
         <v>732</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>725</v>
@@ -5611,25 +5602,25 @@
         <v>169</v>
       </c>
       <c r="AM2" s="26" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="AN2" s="26" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AO2" s="26" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="AP2" s="26" t="s">
         <v>453</v>
       </c>
       <c r="AQ2" s="26" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="AR2" s="28" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="AS2" s="28" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="3" spans="1:45" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5664,10 +5655,10 @@
         <v>729</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>722</v>
@@ -5748,7 +5739,7 @@
         <v>23</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="AN3" s="5" t="s">
         <v>563</v>
@@ -5760,10 +5751,10 @@
         <v>452</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="AS3" s="6" t="s">
         <v>495</v>
@@ -5835,7 +5826,7 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG4" s="8" t="s">
         <v>512</v>
@@ -5944,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="AF5" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG5" s="8" t="s">
         <v>512</v>
@@ -5985,7 +5976,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F6" s="8" t="str">
         <f>IF(ISBLANK(E6), "", Table2[[#This Row],[unique_id]])</f>
@@ -6001,7 +5992,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="10"/>
@@ -6063,7 +6054,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F7" s="8" t="str">
         <f>IF(ISBLANK(E7), "", Table2[[#This Row],[unique_id]])</f>
@@ -6151,7 +6142,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F8" s="8" t="str">
         <f>IF(ISBLANK(E8), "", Table2[[#This Row],[unique_id]])</f>
@@ -6167,7 +6158,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="10"/>
@@ -6229,7 +6220,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F9" s="8" t="str">
         <f>IF(ISBLANK(E9), "", Table2[[#This Row],[unique_id]])</f>
@@ -6317,7 +6308,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F10" s="8" t="str">
         <f>IF(ISBLANK(E10), "", Table2[[#This Row],[unique_id]])</f>
@@ -6395,7 +6386,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F11" s="8" t="str">
         <f>IF(ISBLANK(E11), "", Table2[[#This Row],[unique_id]])</f>
@@ -6477,7 +6468,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F12" s="8" t="str">
         <f>IF(ISBLANK(E12), "", Table2[[#This Row],[unique_id]])</f>
@@ -6556,7 +6547,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F13" s="8" t="str">
         <f>IF(ISBLANK(E13), "", Table2[[#This Row],[unique_id]])</f>
@@ -6645,7 +6636,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F14" s="8" t="str">
         <f>IF(ISBLANK(E14), "", Table2[[#This Row],[unique_id]])</f>
@@ -6724,7 +6715,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F15" s="8" t="str">
         <f>IF(ISBLANK(E15), "", Table2[[#This Row],[unique_id]])</f>
@@ -6813,7 +6804,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F16" s="8" t="str">
         <f>IF(ISBLANK(E16), "", Table2[[#This Row],[unique_id]])</f>
@@ -6892,7 +6883,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F17" s="8" t="str">
         <f>IF(ISBLANK(E17), "", Table2[[#This Row],[unique_id]])</f>
@@ -6981,7 +6972,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F18" s="8" t="str">
         <f>IF(ISBLANK(E18), "", Table2[[#This Row],[unique_id]])</f>
@@ -7059,7 +7050,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F19" s="8" t="str">
         <f>IF(ISBLANK(E19), "", Table2[[#This Row],[unique_id]])</f>
@@ -7141,7 +7132,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F20" s="8" t="str">
         <f>IF(ISBLANK(E20), "", Table2[[#This Row],[unique_id]])</f>
@@ -7219,7 +7210,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="F21" s="8" t="str">
         <f>IF(ISBLANK(E21), "", Table2[[#This Row],[unique_id]])</f>
@@ -7301,7 +7292,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F22" s="8" t="str">
         <f>IF(ISBLANK(E22), "", Table2[[#This Row],[unique_id]])</f>
@@ -7380,7 +7371,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F23" s="8" t="str">
         <f>IF(ISBLANK(E23), "", Table2[[#This Row],[unique_id]])</f>
@@ -7469,7 +7460,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F24" s="8" t="str">
         <f>IF(ISBLANK(E24), "", Table2[[#This Row],[unique_id]])</f>
@@ -7547,7 +7538,7 @@
         <v>27</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F25" s="8" t="str">
         <f>IF(ISBLANK(E25), "", Table2[[#This Row],[unique_id]])</f>
@@ -7673,7 +7664,7 @@
         <v/>
       </c>
       <c r="AF26" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG26" s="8" t="s">
         <v>512</v>
@@ -7776,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="AF27" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG27" s="8" t="s">
         <v>512</v>
@@ -7876,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="AF28" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG28" s="8" t="s">
         <v>512</v>
@@ -7976,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="AF29" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG29" s="8" t="s">
         <v>512</v>
@@ -8076,7 +8067,7 @@
         <v>1</v>
       </c>
       <c r="AF30" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG30" s="8" t="s">
         <v>512</v>
@@ -8176,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="AF31" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG31" s="8" t="s">
         <v>512</v>
@@ -8276,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="AF32" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG32" s="8" t="s">
         <v>512</v>
@@ -8376,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="AF33" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG33" s="8" t="s">
         <v>512</v>
@@ -8713,7 +8704,7 @@
         <v>1</v>
       </c>
       <c r="AF38" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG38" s="8" t="s">
         <v>512</v>
@@ -8754,7 +8745,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F39" s="8" t="str">
         <f>IF(ISBLANK(E39), "", Table2[[#This Row],[unique_id]])</f>
@@ -8837,7 +8828,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F40" s="8" t="str">
         <f>IF(ISBLANK(E40), "", Table2[[#This Row],[unique_id]])</f>
@@ -8920,7 +8911,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F41" s="8" t="str">
         <f>IF(ISBLANK(E41), "", Table2[[#This Row],[unique_id]])</f>
@@ -9002,7 +8993,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F42" s="8" t="str">
         <f>IF(ISBLANK(E42), "", Table2[[#This Row],[unique_id]])</f>
@@ -9085,7 +9076,7 @@
         <v>27</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F43" s="8" t="str">
         <f>IF(ISBLANK(E43), "", Table2[[#This Row],[unique_id]])</f>
@@ -9168,7 +9159,7 @@
         <v>27</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F44" s="8" t="str">
         <f>IF(ISBLANK(E44), "", Table2[[#This Row],[unique_id]])</f>
@@ -9251,7 +9242,7 @@
         <v>27</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F45" s="8" t="str">
         <f>IF(ISBLANK(E45), "", Table2[[#This Row],[unique_id]])</f>
@@ -9333,7 +9324,7 @@
         <v>27</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F46" s="8" t="str">
         <f>IF(ISBLANK(E46), "", Table2[[#This Row],[unique_id]])</f>
@@ -9415,7 +9406,7 @@
         <v>27</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F47" s="8" t="str">
         <f>IF(ISBLANK(E47), "", Table2[[#This Row],[unique_id]])</f>
@@ -9498,7 +9489,7 @@
         <v>27</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F48" s="8" t="str">
         <f>IF(ISBLANK(E48), "", Table2[[#This Row],[unique_id]])</f>
@@ -9642,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="AF49" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG49" s="8" t="s">
         <v>512</v>
@@ -9738,7 +9729,7 @@
         <v>27</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F51" s="8" t="str">
         <f>IF(ISBLANK(E51), "", Table2[[#This Row],[unique_id]])</f>
@@ -9816,7 +9807,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F52" s="8" t="str">
         <f>IF(ISBLANK(E52), "", Table2[[#This Row],[unique_id]])</f>
@@ -9898,7 +9889,7 @@
         <v>27</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F53" s="8" t="str">
         <f>IF(ISBLANK(E53), "", Table2[[#This Row],[unique_id]])</f>
@@ -9980,7 +9971,7 @@
         <v>27</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F54" s="8" t="str">
         <f>IF(ISBLANK(E54), "", Table2[[#This Row],[unique_id]])</f>
@@ -10062,7 +10053,7 @@
         <v>27</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F55" s="8" t="str">
         <f>IF(ISBLANK(E55), "", Table2[[#This Row],[unique_id]])</f>
@@ -10143,7 +10134,7 @@
         <v>27</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F56" s="8" t="str">
         <f>IF(ISBLANK(E56), "", Table2[[#This Row],[unique_id]])</f>
@@ -10225,7 +10216,7 @@
         <v>27</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F57" s="8" t="str">
         <f>IF(ISBLANK(E57), "", Table2[[#This Row],[unique_id]])</f>
@@ -10306,7 +10297,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F58" s="8" t="str">
         <f>IF(ISBLANK(E58), "", Table2[[#This Row],[unique_id]])</f>
@@ -10387,7 +10378,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F59" s="8" t="str">
         <f>IF(ISBLANK(E59), "", Table2[[#This Row],[unique_id]])</f>
@@ -10522,7 +10513,7 @@
         <v>27</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F61" s="8" t="str">
         <f>IF(ISBLANK(E61), "", Table2[[#This Row],[unique_id]])</f>
@@ -10605,7 +10596,7 @@
         <v>27</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F62" s="8" t="str">
         <f>IF(ISBLANK(E62), "", Table2[[#This Row],[unique_id]])</f>
@@ -10688,7 +10679,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F63" s="8" t="str">
         <f>IF(ISBLANK(E63), "", Table2[[#This Row],[unique_id]])</f>
@@ -10771,7 +10762,7 @@
         <v>27</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F64" s="8" t="str">
         <f>IF(ISBLANK(E64), "", Table2[[#This Row],[unique_id]])</f>
@@ -10854,7 +10845,7 @@
         <v>27</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F65" s="8" t="str">
         <f>IF(ISBLANK(E65), "", Table2[[#This Row],[unique_id]])</f>
@@ -10937,7 +10928,7 @@
         <v>27</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F66" s="8" t="str">
         <f>IF(ISBLANK(E66), "", Table2[[#This Row],[unique_id]])</f>
@@ -11074,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="AF67" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG67" s="8" t="s">
         <v>512</v>
@@ -11169,7 +11160,7 @@
         <v>1</v>
       </c>
       <c r="AF68" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG68" s="8" t="s">
         <v>512</v>
@@ -11264,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="AF69" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG69" s="8" t="s">
         <v>512</v>
@@ -11359,7 +11350,7 @@
         <v>1</v>
       </c>
       <c r="AF70" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG70" s="8" t="s">
         <v>512</v>
@@ -11454,7 +11445,7 @@
         <v>1</v>
       </c>
       <c r="AF71" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG71" s="8" t="s">
         <v>512</v>
@@ -11549,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="AF72" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG72" s="8" t="s">
         <v>512</v>
@@ -11644,7 +11635,7 @@
         <v>1</v>
       </c>
       <c r="AF73" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG73" s="8" t="s">
         <v>512</v>
@@ -11739,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="AF74" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG74" s="8" t="s">
         <v>512</v>
@@ -11831,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="AF75" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG75" s="8" t="s">
         <v>512</v>
@@ -11926,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="AF76" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG76" s="8" t="s">
         <v>512</v>
@@ -12021,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="AF77" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG77" s="8" t="s">
         <v>512</v>
@@ -12119,7 +12110,7 @@
         <v>1</v>
       </c>
       <c r="AF78" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG78" s="8" t="s">
         <v>512</v>
@@ -12219,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="AF79" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG79" s="8" t="s">
         <v>512</v>
@@ -12374,7 +12365,7 @@
         <v>1</v>
       </c>
       <c r="AF81" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG81" s="8" t="s">
         <v>512</v>
@@ -12469,7 +12460,7 @@
         <v>1</v>
       </c>
       <c r="AF82" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG82" s="8" t="s">
         <v>512</v>
@@ -12623,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="AF84" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG84" s="8" t="s">
         <v>512</v>
@@ -12778,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="AF86" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG86" s="8" t="s">
         <v>512</v>
@@ -12873,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="AF87" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG87" s="8" t="s">
         <v>512</v>
@@ -12968,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="AF88" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG88" s="8" t="s">
         <v>512</v>
@@ -13009,14 +13000,14 @@
         <v>399</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F89" s="8" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_security</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>400</v>
@@ -13025,7 +13016,7 @@
         <v>132</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>318</v>
@@ -13038,7 +13029,7 @@
       <c r="T89" s="10"/>
       <c r="U89" s="8"/>
       <c r="X89" s="8" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="Z89" s="10"/>
       <c r="AB89" s="8" t="str">
@@ -13054,7 +13045,7 @@
         <v>172</v>
       </c>
       <c r="AM89" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AO89" s="15"/>
       <c r="AP89" s="14"/>
@@ -13124,7 +13115,7 @@
         <v>172</v>
       </c>
       <c r="AM90" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AP90" s="8"/>
       <c r="AQ90" s="8"/>
@@ -13192,7 +13183,7 @@
         <v>172</v>
       </c>
       <c r="AM91" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AP91" s="8"/>
       <c r="AQ91" s="8"/>
@@ -13260,7 +13251,7 @@
         <v>172</v>
       </c>
       <c r="AM92" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AP92" s="8"/>
       <c r="AQ92" s="8"/>
@@ -13277,20 +13268,20 @@
         <v>26</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F93" s="8" t="str">
         <f>IF(ISBLANK(E93), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_secure_back_door_off</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>400</v>
@@ -13299,10 +13290,10 @@
         <v>132</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="O93" s="8"/>
       <c r="P93" s="10"/>
@@ -13312,7 +13303,7 @@
       <c r="T93" s="10"/>
       <c r="U93" s="8"/>
       <c r="X93" s="8" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="Z93" s="10"/>
       <c r="AB93" s="8" t="str">
@@ -13339,20 +13330,20 @@
         <v>26</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="F94" s="8" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_secure_front_door_off</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>400</v>
@@ -13361,10 +13352,10 @@
         <v>132</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="O94" s="8"/>
       <c r="P94" s="10"/>
@@ -13374,7 +13365,7 @@
       <c r="T94" s="10"/>
       <c r="U94" s="8"/>
       <c r="X94" s="8" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="Z94" s="10"/>
       <c r="AB94" s="8" t="str">
@@ -13401,20 +13392,20 @@
         <v>26</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F95" s="8" t="str">
         <f>IF(ISBLANK(E95), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_sleep_on</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>400</v>
@@ -13423,10 +13414,10 @@
         <v>132</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="10"/>
@@ -13463,20 +13454,20 @@
         <v>26</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F96" s="8" t="str">
         <f>IF(ISBLANK(E96), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_sleep_off</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>400</v>
@@ -13485,10 +13476,10 @@
         <v>132</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="O96" s="8"/>
       <c r="P96" s="10"/>
@@ -13498,7 +13489,7 @@
       <c r="T96" s="10"/>
       <c r="U96" s="8"/>
       <c r="X96" s="8" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="Z96" s="10"/>
       <c r="AB96" s="8" t="str">
@@ -13602,7 +13593,7 @@
         <v>132</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>136</v>
@@ -13692,7 +13683,7 @@
         <v>132</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>136</v>
@@ -14053,7 +14044,7 @@
         <v>132</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>136</v>
@@ -14331,11 +14322,11 @@
         <v>137</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>923</v>
+        <v>631</v>
       </c>
       <c r="F107" s="8" t="str">
         <f>IF(ISBLANK(E107), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan_light</v>
+        <v>ada_fan</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>140</v>
@@ -14347,7 +14338,7 @@
         <v>132</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>136</v>
@@ -14415,7 +14406,7 @@
         <v>802</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>136</v>
@@ -14471,7 +14462,7 @@
         <v>130</v>
       </c>
       <c r="AM108" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP108" s="8"/>
       <c r="AQ108" s="8"/>
@@ -14545,7 +14536,7 @@
         <v>130</v>
       </c>
       <c r="AM109" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AO109" s="8" t="s">
         <v>772</v>
@@ -14590,7 +14581,7 @@
         <v>802</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="M110" s="8" t="s">
         <v>136</v>
@@ -14646,7 +14637,7 @@
         <v>127</v>
       </c>
       <c r="AM110" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP110" s="8"/>
       <c r="AQ110" s="8"/>
@@ -14720,7 +14711,7 @@
         <v>127</v>
       </c>
       <c r="AM111" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AO111" s="8" t="s">
         <v>799</v>
@@ -14746,11 +14737,11 @@
         <v>137</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>924</v>
+        <v>632</v>
       </c>
       <c r="F112" s="8" t="str">
         <f>IF(ISBLANK(E112), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan_light</v>
+        <v>edwin_fan</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>199</v>
@@ -14762,7 +14753,7 @@
         <v>132</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="M112" s="8" t="s">
         <v>136</v>
@@ -14830,7 +14821,7 @@
         <v>803</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="M113" s="8" t="s">
         <v>136</v>
@@ -14886,7 +14877,7 @@
         <v>127</v>
       </c>
       <c r="AM113" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP113" s="8"/>
       <c r="AQ113" s="8"/>
@@ -14960,7 +14951,7 @@
         <v>127</v>
       </c>
       <c r="AM114" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AO114" s="8" t="s">
         <v>773</v>
@@ -15002,10 +14993,10 @@
         <v>132</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M115" s="8" t="s">
         <v>136</v>
@@ -15393,10 +15384,10 @@
         <v>132</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="M120" s="8" t="s">
         <v>136</v>
@@ -15932,10 +15923,10 @@
         <v>132</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="M127" s="8" t="s">
         <v>136</v>
@@ -16233,11 +16224,11 @@
         <v>137</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>925</v>
+        <v>634</v>
       </c>
       <c r="F131" s="8" t="str">
         <f>IF(ISBLANK(E131), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan_light</v>
+        <v>lounge_fan</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>200</v>
@@ -16249,7 +16240,7 @@
         <v>132</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="M131" s="8" t="s">
         <v>136</v>
@@ -16278,7 +16269,7 @@
         <v>203</v>
       </c>
       <c r="AM131" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP131" s="8"/>
       <c r="AQ131" s="8"/>
@@ -16320,7 +16311,7 @@
         <v>802</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="M132" s="8" t="s">
         <v>136</v>
@@ -16376,7 +16367,7 @@
         <v>203</v>
       </c>
       <c r="AM132" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP132" s="8"/>
       <c r="AQ132" s="8"/>
@@ -16450,7 +16441,7 @@
         <v>203</v>
       </c>
       <c r="AM133" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AO133" s="8" t="s">
         <v>848</v>
@@ -16492,10 +16483,10 @@
         <v>132</v>
       </c>
       <c r="J134" s="13" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M134" s="8" t="s">
         <v>136</v>
@@ -16793,14 +16784,14 @@
         <v>137</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="F138" s="8" t="str">
         <f>IF(ISBLANK(E138), "", Table2[[#This Row],[unique_id]])</f>
         <v>study_lamp</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>139</v>
@@ -16812,7 +16803,7 @@
         <v>802</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="M138" s="8" t="s">
         <v>136</v>
@@ -16823,7 +16814,7 @@
         <v>757</v>
       </c>
       <c r="R138" s="17" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="S138" s="16" t="s">
         <v>873</v>
@@ -16868,7 +16859,7 @@
         <v>477</v>
       </c>
       <c r="AM138" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP138" s="8"/>
       <c r="AQ138" s="8"/>
@@ -16900,7 +16891,7 @@
         <v>756</v>
       </c>
       <c r="R139" s="17" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="S139" s="16" t="s">
         <v>801</v>
@@ -16942,10 +16933,10 @@
         <v>477</v>
       </c>
       <c r="AM139" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AO139" s="8" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="AP139" s="8"/>
       <c r="AQ139" s="8"/>
@@ -16984,10 +16975,10 @@
         <v>132</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="M140" s="8" t="s">
         <v>136</v>
@@ -17376,7 +17367,7 @@
         <v>132</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="M145" s="8" t="s">
         <v>136</v>
@@ -17466,10 +17457,10 @@
         <v>132</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="M146" s="8" t="s">
         <v>136</v>
@@ -17635,10 +17626,10 @@
         <v>132</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="M148" s="8" t="s">
         <v>136</v>
@@ -17804,7 +17795,7 @@
         <v>132</v>
       </c>
       <c r="J150" s="8" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="M150" s="8" t="s">
         <v>136</v>
@@ -17970,10 +17961,10 @@
         <v>132</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M152" s="8" t="s">
         <v>136</v>
@@ -18139,10 +18130,10 @@
         <v>132</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>136</v>
@@ -18308,10 +18299,10 @@
         <v>132</v>
       </c>
       <c r="J156" s="8" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M156" s="8" t="s">
         <v>136</v>
@@ -18477,7 +18468,7 @@
         <v>132</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>136</v>
@@ -18567,7 +18558,7 @@
         <v>132</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="M159" s="8" t="s">
         <v>136</v>
@@ -18657,7 +18648,7 @@
         <v>132</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>136</v>
@@ -19066,7 +19057,7 @@
         <v>859</v>
       </c>
       <c r="AI165" s="8" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AJ165" s="33" t="s">
         <v>861</v>
@@ -19078,7 +19069,7 @@
         <v>876</v>
       </c>
       <c r="AO165" s="33" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AS165" s="33" t="str">
         <f t="shared" si="14"/>
@@ -19136,7 +19127,7 @@
         <v>859</v>
       </c>
       <c r="AI166" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="AJ166" s="33" t="s">
         <v>861</v>
@@ -19148,7 +19139,7 @@
         <v>876</v>
       </c>
       <c r="AO166" s="33" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AS166" s="33" t="str">
         <f t="shared" si="14"/>
@@ -19206,7 +19197,7 @@
         <v>859</v>
       </c>
       <c r="AI167" s="8" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="AJ167" s="33" t="s">
         <v>861</v>
@@ -19218,7 +19209,7 @@
         <v>876</v>
       </c>
       <c r="AO167" s="33" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AS167" s="33" t="str">
         <f t="shared" si="14"/>
@@ -19276,7 +19267,7 @@
         <v>859</v>
       </c>
       <c r="AI168" s="8" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="AJ168" s="33" t="s">
         <v>861</v>
@@ -19288,7 +19279,7 @@
         <v>876</v>
       </c>
       <c r="AO168" s="33" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AS168" s="33" t="str">
         <f t="shared" si="14"/>
@@ -19325,7 +19316,7 @@
         <v>132</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="M169" s="8" t="s">
         <v>136</v>
@@ -19586,7 +19577,7 @@
         <v>859</v>
       </c>
       <c r="AI172" s="8" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="AJ172" s="33" t="s">
         <v>869</v>
@@ -19598,7 +19589,7 @@
         <v>868</v>
       </c>
       <c r="AO172" s="33" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AS172" s="33" t="str">
         <f t="shared" si="14"/>
@@ -19629,7 +19620,7 @@
         <v>439</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="I173" s="8" t="s">
         <v>132</v>
@@ -19688,7 +19679,7 @@
         <v>700</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="I174" s="8" t="s">
         <v>132</v>
@@ -19762,7 +19753,7 @@
         <v>890</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>134</v>
@@ -19778,7 +19769,7 @@
         <v>697</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="I175" s="8" t="s">
         <v>132</v>
@@ -19853,7 +19844,7 @@
         <v>228</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>134</v>
@@ -19869,7 +19860,7 @@
         <v>419</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="I176" s="8" t="s">
         <v>132</v>
@@ -20690,7 +20681,7 @@
         <v>228</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>27</v>
@@ -20756,7 +20747,7 @@
         <v>890</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D189" s="12" t="s">
         <v>27</v>
@@ -21119,7 +21110,7 @@
       </c>
       <c r="Z194" s="10"/>
       <c r="AB194" s="8" t="str">
-        <f t="shared" ref="AB194:AB225" si="16">IF(ISBLANK(AA194),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C194), "/", E194, "/config"))</f>
+        <f t="shared" ref="AB194:AB202" si="16">IF(ISBLANK(AA194),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C194), "/", E194, "/config"))</f>
         <v/>
       </c>
       <c r="AC194" s="8" t="str">
@@ -22495,7 +22486,7 @@
         <v>228</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>27</v>
@@ -22559,7 +22550,7 @@
         <v>890</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>27</v>
@@ -24399,7 +24390,7 @@
         <v>360</v>
       </c>
       <c r="H247" s="8" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="I247" s="8" t="s">
         <v>365</v>
@@ -24441,26 +24432,26 @@
         <v>haas/entity/sensor/internet/network_internet_uptime/config</v>
       </c>
       <c r="AC247" s="8" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AD247" s="8"/>
       <c r="AE247" s="8">
         <v>1</v>
       </c>
       <c r="AF247" s="37" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AG247" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="AG247" s="8" t="s">
-        <v>1156</v>
-      </c>
       <c r="AH247" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AI247" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AJ247" s="8" t="s">
         <v>1154</v>
-      </c>
-      <c r="AI247" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AJ247" s="8" t="s">
-        <v>1157</v>
       </c>
       <c r="AK247" s="8" t="s">
         <v>345</v>
@@ -24503,7 +24494,7 @@
         <v>338</v>
       </c>
       <c r="H248" s="8" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="I248" s="8" t="s">
         <v>365</v>
@@ -24528,7 +24519,7 @@
         <v>343</v>
       </c>
       <c r="W248" s="8" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="X248" s="8" t="s">
         <v>361</v>
@@ -24547,28 +24538,28 @@
         <v>haas/entity/sensor/internet/network_internet_ping/config</v>
       </c>
       <c r="AC248" s="8" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AD248" s="51" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="AE248" s="8">
         <v>1</v>
       </c>
       <c r="AF248" s="37" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AG248" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="AG248" s="8" t="s">
-        <v>1156</v>
-      </c>
       <c r="AH248" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AI248" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AJ248" s="8" t="s">
         <v>1154</v>
-      </c>
-      <c r="AI248" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AJ248" s="8" t="s">
-        <v>1157</v>
       </c>
       <c r="AK248" s="8" t="s">
         <v>345</v>
@@ -24611,7 +24602,7 @@
         <v>339</v>
       </c>
       <c r="H249" s="8" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="I249" s="8" t="s">
         <v>365</v>
@@ -24636,7 +24627,7 @@
         <v>344</v>
       </c>
       <c r="W249" s="8" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="X249" s="8" t="s">
         <v>363</v>
@@ -24655,28 +24646,28 @@
         <v>haas/entity/sensor/internet/network_internet_upload/config</v>
       </c>
       <c r="AC249" s="8" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AD249" s="51" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="AE249" s="8">
         <v>1</v>
       </c>
       <c r="AF249" s="37" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AG249" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="AG249" s="8" t="s">
-        <v>1156</v>
-      </c>
       <c r="AH249" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AI249" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AJ249" s="8" t="s">
         <v>1154</v>
-      </c>
-      <c r="AI249" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AJ249" s="8" t="s">
-        <v>1157</v>
       </c>
       <c r="AK249" s="8" t="s">
         <v>345</v>
@@ -24719,7 +24710,7 @@
         <v>340</v>
       </c>
       <c r="H250" s="8" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="I250" s="8" t="s">
         <v>365</v>
@@ -24744,7 +24735,7 @@
         <v>344</v>
       </c>
       <c r="W250" s="8" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="X250" s="8" t="s">
         <v>364</v>
@@ -24763,28 +24754,28 @@
         <v>haas/entity/sensor/internet/network_internet_download/config</v>
       </c>
       <c r="AC250" s="8" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AD250" s="51" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="AE250" s="8">
         <v>1</v>
       </c>
       <c r="AF250" s="37" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AG250" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="AG250" s="8" t="s">
-        <v>1156</v>
-      </c>
       <c r="AH250" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AI250" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AJ250" s="8" t="s">
         <v>1154</v>
-      </c>
-      <c r="AI250" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AJ250" s="8" t="s">
-        <v>1157</v>
       </c>
       <c r="AK250" s="8" t="s">
         <v>345</v>
@@ -24817,17 +24808,17 @@
         <v>27</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="F251" s="8" t="str">
         <f>IF(ISBLANK(E251), "", Table2[[#This Row],[unique_id]])</f>
         <v>network_certifcate_expiry</v>
       </c>
       <c r="G251" s="8" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="H251" s="8" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="I251" s="8" t="s">
         <v>365</v>
@@ -24853,7 +24844,7 @@
       </c>
       <c r="W251" s="8"/>
       <c r="X251" s="8" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="Y251" s="8">
         <v>200</v>
@@ -24862,35 +24853,35 @@
         <v>34</v>
       </c>
       <c r="AA251" s="8" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="AB251" s="8" t="str">
         <f t="shared" si="21"/>
         <v>haas/entity/sensor/internet/network_certifcate_expiry/config</v>
       </c>
       <c r="AC251" s="8" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AD251" s="51" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AE251" s="8">
         <v>1</v>
       </c>
       <c r="AF251" s="37" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AG251" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="AG251" s="8" t="s">
-        <v>1156</v>
-      </c>
       <c r="AH251" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AI251" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AJ251" s="8" t="s">
         <v>1154</v>
-      </c>
-      <c r="AI251" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AJ251" s="8" t="s">
-        <v>1157</v>
       </c>
       <c r="AK251" s="8" t="s">
         <v>345</v>
@@ -24923,17 +24914,17 @@
         <v>399</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="F252" s="8" t="str">
         <f>IF(ISBLANK(E252), "", Table2[[#This Row],[unique_id]])</f>
         <v>network_refresh_zigbee_router_lqi</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="H252" s="8" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I252" s="8" t="s">
         <v>365</v>
@@ -24949,7 +24940,7 @@
       <c r="T252" s="10"/>
       <c r="U252" s="8"/>
       <c r="X252" s="8" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="Z252" s="10"/>
       <c r="AB252" s="8" t="str">
@@ -24983,17 +24974,17 @@
         <v>27</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="F253" s="8" t="str">
         <f>IF(ISBLANK(E253), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_driveway_repeater_linkquality_percentage</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H253" s="8" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I253" s="8" t="s">
         <v>365</v>
@@ -25040,17 +25031,17 @@
         <v>27</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="F254" s="8" t="str">
         <f>IF(ISBLANK(E254), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_landing_repeater_linkquality_percentage</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H254" s="8" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I254" s="8" t="s">
         <v>365</v>
@@ -25097,17 +25088,17 @@
         <v>27</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="F255" s="8" t="str">
         <f>IF(ISBLANK(E255), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_garden_repeater_linkquality_percentage</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H255" s="8" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I255" s="8" t="s">
         <v>365</v>
@@ -25148,23 +25139,23 @@
         <v>26</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D256" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="F256" s="8" t="str">
         <f>IF(ISBLANK(E256), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_kitchen_fan_outlet_linkquality_percentage</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="H256" s="8" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I256" s="8" t="s">
         <v>365</v>
@@ -25205,23 +25196,23 @@
         <v>26</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="F257" s="8" t="str">
         <f>IF(ISBLANK(E257), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_deck_fans_outlet_linkquality_percentage</v>
       </c>
       <c r="G257" s="8" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="H257" s="8" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I257" s="8" t="s">
         <v>365</v>
@@ -25262,23 +25253,23 @@
         <v>26</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D258" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="F258" s="8" t="str">
         <f>IF(ISBLANK(E258), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_edwin_wardrobe_outlet_linkquality_percentage</v>
       </c>
       <c r="G258" s="8" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H258" s="8" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I258" s="8" t="s">
         <v>365</v>
@@ -25332,10 +25323,10 @@
         <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G259" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="H259" s="8" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="I259" s="8" t="s">
         <v>365</v>
@@ -25371,7 +25362,7 @@
         <v>1</v>
       </c>
       <c r="AF259" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG259" s="8" t="s">
         <v>512</v>
@@ -25412,17 +25403,17 @@
         <v>27</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F260" s="8" t="str">
         <f>IF(ISBLANK(E260), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_weatherstation_coms_signal_quality_percentage</v>
       </c>
       <c r="G260" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="H260" s="8" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="I260" s="8" t="s">
         <v>365</v>
@@ -25467,7 +25458,7 @@
         <v>439</v>
       </c>
       <c r="H261" s="8" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="I261" s="8" t="s">
         <v>365</v>
@@ -25508,20 +25499,20 @@
         <v>26</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F262" s="8" t="str">
         <f>IF(ISBLANK(E262), "", Table2[[#This Row],[unique_id]])</f>
         <v>back_door_lock_battery</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="H262" s="8" t="s">
         <v>805</v>
@@ -25565,20 +25556,20 @@
         <v>26</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="F263" s="8" t="str">
         <f>IF(ISBLANK(E263), "", Table2[[#This Row],[unique_id]])</f>
         <v>front_door_lock_battery</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="H263" s="8" t="s">
         <v>805</v>
@@ -25628,14 +25619,14 @@
         <v>27</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F264" s="8" t="str">
         <f>IF(ISBLANK(E264), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_back_door_sensor_battery_last</v>
       </c>
       <c r="G264" s="8" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="H264" s="8" t="s">
         <v>805</v>
@@ -25685,14 +25676,14 @@
         <v>27</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="F265" s="8" t="str">
         <f>IF(ISBLANK(E265), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_front_door_sensor_battery_last</v>
       </c>
       <c r="G265" s="8" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="H265" s="8" t="s">
         <v>805</v>
@@ -25799,14 +25790,14 @@
         <v>27</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="F267" s="8" t="str">
         <f>IF(ISBLANK(E267), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_weatherstation_console_battery_percent_int</v>
       </c>
       <c r="G267" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="H267" s="8" t="s">
         <v>805</v>
@@ -25830,7 +25821,7 @@
         <v>32</v>
       </c>
       <c r="W267" s="8" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="Z267" s="10"/>
       <c r="AD267" s="14"/>
@@ -25909,7 +25900,7 @@
         <v>1</v>
       </c>
       <c r="AF268" s="37" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AG268" s="8" t="s">
         <v>512</v>
@@ -25950,7 +25941,7 @@
         <v>27</v>
       </c>
       <c r="E269" s="14" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F269" s="8" t="str">
         <f>IF(ISBLANK(E269), "", Table2[[#This Row],[unique_id]])</f>
@@ -26024,7 +26015,7 @@
         <v>27</v>
       </c>
       <c r="E270" s="14" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F270" s="8" t="str">
         <f>IF(ISBLANK(E270), "", Table2[[#This Row],[unique_id]])</f>
@@ -26098,7 +26089,7 @@
         <v>27</v>
       </c>
       <c r="E271" s="14" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F271" s="8" t="str">
         <f>IF(ISBLANK(E271), "", Table2[[#This Row],[unique_id]])</f>
@@ -26172,7 +26163,7 @@
         <v>27</v>
       </c>
       <c r="E272" s="14" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F272" s="8" t="str">
         <f>IF(ISBLANK(E272), "", Table2[[#This Row],[unique_id]])</f>
@@ -26246,7 +26237,7 @@
         <v>27</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="F273" s="8" t="str">
         <f>IF(ISBLANK(E273), "", Table2[[#This Row],[unique_id]])</f>
@@ -26302,7 +26293,7 @@
         <v>27</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F274" s="8" t="str">
         <f>IF(ISBLANK(E274), "", Table2[[#This Row],[unique_id]])</f>
@@ -27458,14 +27449,14 @@
         <v>134</v>
       </c>
       <c r="E288" s="14" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F288" s="8" t="str">
         <f>IF(ISBLANK(E288), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_fans_outlet</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="H288" s="8" t="s">
         <v>806</v>
@@ -27483,7 +27474,7 @@
       </c>
       <c r="R288" s="10"/>
       <c r="S288" s="16" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="T288" s="10"/>
       <c r="U288" s="8"/>
@@ -27508,13 +27499,13 @@
         <v>deck-fans-outlet</v>
       </c>
       <c r="AH288" s="16" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AI288" s="11" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="AJ288" s="11" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="AK288" s="8" t="s">
         <v>521</v>
@@ -27523,7 +27514,7 @@
         <v>478</v>
       </c>
       <c r="AO288" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AP288" s="8"/>
       <c r="AQ288" s="8"/>
@@ -27546,14 +27537,14 @@
         <v>134</v>
       </c>
       <c r="E289" s="14" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F289" s="8" t="str">
         <f>IF(ISBLANK(E289), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_fan_outlet</v>
       </c>
       <c r="G289" s="8" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="H289" s="8" t="s">
         <v>806</v>
@@ -27571,7 +27562,7 @@
       </c>
       <c r="R289" s="10"/>
       <c r="S289" s="16" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="T289" s="10"/>
       <c r="U289" s="8"/>
@@ -27596,13 +27587,13 @@
         <v>kitchen-fan-outlet</v>
       </c>
       <c r="AH289" s="16" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AI289" s="11" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="AJ289" s="11" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="AK289" s="8" t="s">
         <v>521</v>
@@ -27611,7 +27602,7 @@
         <v>215</v>
       </c>
       <c r="AO289" s="8" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="AP289" s="8"/>
       <c r="AQ289" s="8"/>
@@ -27634,14 +27625,14 @@
         <v>134</v>
       </c>
       <c r="E290" s="14" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F290" s="8" t="str">
         <f>IF(ISBLANK(E290), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_wardrobe_outlet</v>
       </c>
       <c r="G290" s="8" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H290" s="8" t="s">
         <v>806</v>
@@ -27659,7 +27650,7 @@
       </c>
       <c r="R290" s="10"/>
       <c r="S290" s="16" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="T290" s="16"/>
       <c r="U290" s="8"/>
@@ -27684,13 +27675,13 @@
         <v>edwin-wardrobe-outlet</v>
       </c>
       <c r="AH290" s="16" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AI290" s="11" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="AJ290" s="11" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="AK290" s="8" t="s">
         <v>521</v>
@@ -27699,7 +27690,7 @@
         <v>127</v>
       </c>
       <c r="AO290" s="8" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="AP290" s="8"/>
       <c r="AQ290" s="8"/>
@@ -27716,7 +27707,7 @@
         <v>26</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D291" s="8" t="s">
         <v>134</v>
@@ -28069,14 +28060,14 @@
         <v>27</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F295" s="8" t="str">
         <f>IF(ISBLANK(E295), "", Table2[[#This Row],[unique_id]])</f>
         <v>garden_repeater</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H295" s="8" t="s">
         <v>806</v>
@@ -28091,7 +28082,7 @@
       </c>
       <c r="R295" s="10"/>
       <c r="S295" s="16" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="T295" s="10"/>
       <c r="U295" s="8"/>
@@ -28109,16 +28100,16 @@
         <v>https://zigbee2mqtt.janeandgraham.com/#/device/0x2c1165fffec5a3f6</v>
       </c>
       <c r="AG295" s="8" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="AH295" s="10" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="AI295" s="8" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="AJ295" s="14" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="AK295" s="8" t="s">
         <v>702</v>
@@ -28127,7 +28118,7 @@
         <v>876</v>
       </c>
       <c r="AO295" s="8" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="AP295" s="8"/>
       <c r="AQ295" s="8"/>
@@ -28150,14 +28141,14 @@
         <v>27</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F296" s="8" t="str">
         <f>IF(ISBLANK(E296), "", Table2[[#This Row],[unique_id]])</f>
         <v>landing_repeater</v>
       </c>
       <c r="G296" s="8" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H296" s="8" t="s">
         <v>806</v>
@@ -28172,7 +28163,7 @@
       </c>
       <c r="R296" s="10"/>
       <c r="S296" s="16" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="T296" s="10"/>
       <c r="U296" s="8"/>
@@ -28190,16 +28181,16 @@
         <v>https://zigbee2mqtt.janeandgraham.com/#/device/0x2c1165fffebaa93c</v>
       </c>
       <c r="AG296" s="8" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="AH296" s="10" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="AI296" s="8" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="AJ296" s="14" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="AK296" s="8" t="s">
         <v>702</v>
@@ -28208,7 +28199,7 @@
         <v>852</v>
       </c>
       <c r="AO296" s="8" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="AP296" s="8"/>
       <c r="AQ296" s="8"/>
@@ -28231,14 +28222,14 @@
         <v>27</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F297" s="8" t="str">
         <f>IF(ISBLANK(E297), "", Table2[[#This Row],[unique_id]])</f>
         <v>driveway_repeater</v>
       </c>
       <c r="G297" s="8" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H297" s="8" t="s">
         <v>806</v>
@@ -28253,7 +28244,7 @@
       </c>
       <c r="R297" s="10"/>
       <c r="S297" s="16" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="T297" s="10"/>
       <c r="U297" s="8"/>
@@ -28271,25 +28262,25 @@
         <v>https://zigbee2mqtt.janeandgraham.com/#/device/0x50325ffffe47b8fa</v>
       </c>
       <c r="AG297" s="8" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="AH297" s="10" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="AI297" s="8" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="AJ297" s="14" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="AK297" s="8" t="s">
         <v>702</v>
       </c>
       <c r="AL297" s="8" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="AO297" s="8" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="AP297" s="8"/>
       <c r="AQ297" s="8"/>
@@ -28412,7 +28403,7 @@
         <v>130</v>
       </c>
       <c r="AM299" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP299" s="8"/>
       <c r="AQ299" s="8"/>
@@ -28480,7 +28471,7 @@
         <v>127</v>
       </c>
       <c r="AM300" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP300" s="8"/>
       <c r="AQ300" s="8"/>
@@ -28548,7 +28539,7 @@
         <v>127</v>
       </c>
       <c r="AM301" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP301" s="8"/>
       <c r="AQ301" s="8"/>
@@ -28811,7 +28802,7 @@
         <v>172</v>
       </c>
       <c r="AM305" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP305" s="8"/>
       <c r="AQ305" s="8"/>
@@ -30126,20 +30117,20 @@
         <v>151</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F328" s="8" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
         <v>synchronize_devices</v>
       </c>
       <c r="G328" s="8" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H328" s="8" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I328" s="8" t="s">
         <v>365</v>
@@ -30230,7 +30221,7 @@
         <v>google-ada-home</v>
       </c>
       <c r="AH329" s="10" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AI329" s="8" t="s">
         <v>498</v>
@@ -30317,7 +30308,7 @@
         <v>google-edwin-home</v>
       </c>
       <c r="AH330" s="10" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AI330" s="8" t="s">
         <v>498</v>
@@ -30404,13 +30395,13 @@
         <v>google-parents-home</v>
       </c>
       <c r="AH331" s="10" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AI331" s="8" t="s">
         <v>498</v>
       </c>
       <c r="AJ331" s="8" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="AK331" s="8" t="s">
         <v>254</v>
@@ -30422,10 +30413,10 @@
         <v>594</v>
       </c>
       <c r="AO331" s="15" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="AP331" s="14" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="AQ331" s="14"/>
       <c r="AR331" s="14"/>
@@ -30491,13 +30482,13 @@
         <v>google-kitchen-home</v>
       </c>
       <c r="AH332" s="10" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AI332" s="8" t="s">
         <v>498</v>
       </c>
       <c r="AJ332" s="8" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="AK332" s="8" t="s">
         <v>254</v>
@@ -30509,10 +30500,10 @@
         <v>594</v>
       </c>
       <c r="AO332" s="15" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="AP332" s="14" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="AQ332" s="14"/>
       <c r="AR332" s="14"/>
@@ -30535,14 +30526,14 @@
         <v>145</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F333" s="8" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
         <v>office_home</v>
       </c>
       <c r="G333" s="8" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H333" s="8" t="s">
         <v>332</v>
@@ -30578,7 +30569,7 @@
         <v>google-office-home</v>
       </c>
       <c r="AH333" s="10" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AI333" s="8" t="s">
         <v>498</v>
@@ -30622,14 +30613,14 @@
         <v>145</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F334" s="8" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_home</v>
       </c>
       <c r="G334" s="8" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="H334" s="8" t="s">
         <v>332</v>
@@ -30665,7 +30656,7 @@
         <v>google-lounge-home</v>
       </c>
       <c r="AH334" s="10" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AI334" s="8" t="s">
         <v>498</v>
@@ -30764,7 +30755,7 @@
         <v>145</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F336" s="8" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
@@ -30938,14 +30929,14 @@
         <v>145</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="F338" s="8" t="str">
         <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
         <v>office_tv</v>
       </c>
       <c r="G338" s="8" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="H338" s="8" t="s">
         <v>332</v>
@@ -31080,14 +31071,14 @@
         <v>145</v>
       </c>
       <c r="E340" s="8" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="F340" s="8" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_arc</v>
       </c>
       <c r="G340" s="8" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="H340" s="8" t="s">
         <v>332</v>
@@ -31168,14 +31159,14 @@
         <v>145</v>
       </c>
       <c r="E341" s="8" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="F341" s="8" t="str">
         <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_move</v>
       </c>
       <c r="G341" s="8" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="H341" s="8" t="s">
         <v>332</v>
@@ -31256,14 +31247,14 @@
         <v>145</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="F342" s="8" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_five</v>
       </c>
       <c r="G342" s="8" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="H342" s="8" t="s">
         <v>332</v>
@@ -31344,14 +31335,14 @@
         <v>145</v>
       </c>
       <c r="E343" s="8" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="F343" s="8" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_move</v>
       </c>
       <c r="G343" s="8" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="H343" s="8" t="s">
         <v>332</v>
@@ -31432,14 +31423,14 @@
         <v>145</v>
       </c>
       <c r="E344" s="8" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F344" s="8" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_tv_speaker</v>
       </c>
       <c r="G344" s="8" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="H344" s="8" t="s">
         <v>332</v>
@@ -31478,7 +31469,7 @@
         <v>561</v>
       </c>
       <c r="AI344" s="8" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="AJ344" s="8" t="s">
         <v>560</v>
@@ -31519,17 +31510,17 @@
         <v>399</v>
       </c>
       <c r="E345" s="8" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F345" s="8" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
         <v>back_door_lock_security</v>
       </c>
       <c r="G345" s="8" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H345" s="8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I345" s="8" t="s">
         <v>219</v>
@@ -31545,7 +31536,7 @@
       <c r="T345" s="10"/>
       <c r="U345" s="8"/>
       <c r="X345" s="8" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="Z345" s="10"/>
       <c r="AB345" s="8" t="str">
@@ -31580,7 +31571,7 @@
         <v>149</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F346" s="8" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
@@ -31590,7 +31581,7 @@
         <v>359</v>
       </c>
       <c r="H346" s="8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I346" s="8" t="s">
         <v>219</v>
@@ -31629,23 +31620,23 @@
         <v>26</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E347" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F347" s="8" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
         <v>back_door_lock</v>
       </c>
       <c r="G347" s="8" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="H347" s="8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I347" s="8" t="s">
         <v>219</v>
@@ -31675,25 +31666,25 @@
       </c>
       <c r="AF347" s="39"/>
       <c r="AG347" s="8" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="AH347" s="10" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="AI347" s="8" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="AJ347" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="AK347" s="8" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="AL347" s="8" t="s">
         <v>852</v>
       </c>
       <c r="AO347" s="8" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="AP347" s="8"/>
       <c r="AQ347" s="8"/>
@@ -31716,17 +31707,17 @@
         <v>149</v>
       </c>
       <c r="E348" s="8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="F348" s="8" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_back_door_sensor_contact_last</v>
       </c>
       <c r="G348" s="8" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="H348" s="8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I348" s="8" t="s">
         <v>219</v>
@@ -31756,16 +31747,16 @@
       </c>
       <c r="AF348" s="39"/>
       <c r="AG348" s="8" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="AH348" s="10" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="AI348" s="11" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="AJ348" s="11" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AK348" s="8" t="s">
         <v>448</v>
@@ -31774,7 +31765,7 @@
         <v>852</v>
       </c>
       <c r="AO348" s="8" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="AP348" s="8"/>
       <c r="AQ348" s="8"/>
@@ -31801,10 +31792,10 @@
         <v/>
       </c>
       <c r="G349" s="41" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="H349" s="41" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I349" s="41" t="s">
         <v>219</v>
@@ -31845,17 +31836,17 @@
         <v>399</v>
       </c>
       <c r="E350" s="8" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F350" s="8" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v>front_door_lock_security</v>
       </c>
       <c r="G350" s="8" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H350" s="8" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I350" s="8" t="s">
         <v>219</v>
@@ -31871,7 +31862,7 @@
       <c r="T350" s="10"/>
       <c r="U350" s="8"/>
       <c r="X350" s="8" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="Z350" s="10"/>
       <c r="AB350" s="8" t="str">
@@ -31906,7 +31897,7 @@
         <v>149</v>
       </c>
       <c r="E351" s="8" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="F351" s="8" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
@@ -31916,7 +31907,7 @@
         <v>359</v>
       </c>
       <c r="H351" s="8" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I351" s="8" t="s">
         <v>219</v>
@@ -31955,23 +31946,23 @@
         <v>26</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E352" s="8" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F352" s="8" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v>front_door_lock</v>
       </c>
       <c r="G352" s="8" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="H352" s="8" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I352" s="8" t="s">
         <v>219</v>
@@ -32001,25 +31992,25 @@
       </c>
       <c r="AF352" s="39"/>
       <c r="AG352" s="8" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="AH352" s="10" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="AI352" s="8" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="AJ352" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="AK352" s="8" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="AL352" s="8" t="s">
         <v>478</v>
       </c>
       <c r="AO352" s="8" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AP352" s="8"/>
       <c r="AQ352" s="8"/>
@@ -32042,17 +32033,17 @@
         <v>149</v>
       </c>
       <c r="E353" s="8" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="F353" s="8" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_front_door_sensor_contact_last</v>
       </c>
       <c r="G353" s="8" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="H353" s="8" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I353" s="8" t="s">
         <v>219</v>
@@ -32082,16 +32073,16 @@
       </c>
       <c r="AF353" s="39"/>
       <c r="AG353" s="8" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="AH353" s="10" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="AI353" s="11" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="AJ353" s="11" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AK353" s="8" t="s">
         <v>448</v>
@@ -32100,7 +32091,7 @@
         <v>478</v>
       </c>
       <c r="AO353" s="8" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="AP353" s="8"/>
       <c r="AQ353" s="8"/>
@@ -32127,10 +32118,10 @@
         <v/>
       </c>
       <c r="G354" s="41" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="H354" s="41" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I354" s="41" t="s">
         <v>219</v>
@@ -32181,7 +32172,7 @@
         <v>439</v>
       </c>
       <c r="H355" s="8" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I355" s="8" t="s">
         <v>219</v>
@@ -32233,10 +32224,10 @@
         <v>uvc_ada_motion</v>
       </c>
       <c r="G356" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="H356" s="8" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I356" s="8" t="s">
         <v>219</v>
@@ -32292,7 +32283,7 @@
         <v>130</v>
       </c>
       <c r="H357" s="8" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="I357" s="8" t="s">
         <v>219</v>
@@ -32378,7 +32369,7 @@
         <v>439</v>
       </c>
       <c r="H358" s="8" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="I358" s="8" t="s">
         <v>219</v>
@@ -32430,10 +32421,10 @@
         <v>uvc_edwin_motion</v>
       </c>
       <c r="G359" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H359" s="8" t="s">
         <v>1025</v>
-      </c>
-      <c r="H359" s="8" t="s">
-        <v>1028</v>
       </c>
       <c r="I359" s="8" t="s">
         <v>219</v>
@@ -32489,7 +32480,7 @@
         <v>127</v>
       </c>
       <c r="H360" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="I360" s="8" t="s">
         <v>219</v>
@@ -32575,7 +32566,7 @@
         <v>439</v>
       </c>
       <c r="H361" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="I361" s="8" t="s">
         <v>219</v>
@@ -32620,7 +32611,7 @@
         <v>149</v>
       </c>
       <c r="E362" s="8" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F362" s="8" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
@@ -32630,7 +32621,7 @@
         <v>130</v>
       </c>
       <c r="H362" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I362" s="8" t="s">
         <v>219</v>
@@ -32676,7 +32667,7 @@
         <v>149</v>
       </c>
       <c r="E363" s="8" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F363" s="8" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
@@ -32686,7 +32677,7 @@
         <v>127</v>
       </c>
       <c r="H363" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I363" s="8" t="s">
         <v>219</v>
@@ -32733,7 +32724,7 @@
         <v>149</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F364" s="8" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
@@ -32743,7 +32734,7 @@
         <v>201</v>
       </c>
       <c r="H364" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I364" s="8" t="s">
         <v>219</v>
@@ -32790,7 +32781,7 @@
         <v>149</v>
       </c>
       <c r="E365" s="8" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F365" s="8" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
@@ -32800,7 +32791,7 @@
         <v>203</v>
       </c>
       <c r="H365" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I365" s="8" t="s">
         <v>219</v>
@@ -32846,7 +32837,7 @@
         <v>149</v>
       </c>
       <c r="E366" s="8" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F366" s="8" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
@@ -32856,7 +32847,7 @@
         <v>225</v>
       </c>
       <c r="H366" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I366" s="8" t="s">
         <v>219</v>
@@ -32902,7 +32893,7 @@
         <v>149</v>
       </c>
       <c r="E367" s="8" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F367" s="8" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
@@ -32912,7 +32903,7 @@
         <v>224</v>
       </c>
       <c r="H367" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I367" s="8" t="s">
         <v>219</v>
@@ -33040,16 +33031,16 @@
       </c>
       <c r="AF369" s="39"/>
       <c r="AG369" s="8" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="AH369" s="10" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AI369" s="8" t="s">
         <v>584</v>
       </c>
       <c r="AJ369" s="8" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="AK369" s="8" t="s">
         <v>253</v>
@@ -33061,7 +33052,7 @@
         <v>571</v>
       </c>
       <c r="AO369" s="8" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="AP369" s="8" t="s">
         <v>587</v>
@@ -33107,7 +33098,7 @@
         <v>573</v>
       </c>
       <c r="AH370" s="10" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AI370" s="8" t="s">
         <v>585</v>
@@ -33171,7 +33162,7 @@
         <v>574</v>
       </c>
       <c r="AH371" s="10" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="AI371" s="8" t="s">
         <v>584</v>
@@ -33235,7 +33226,7 @@
         <v>575</v>
       </c>
       <c r="AH372" s="10" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="AI372" s="8" t="s">
         <v>584</v>
@@ -33256,7 +33247,7 @@
         <v>593</v>
       </c>
       <c r="AP372" s="8" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AQ372" s="8"/>
       <c r="AS372" s="8" t="str">
@@ -42525,7 +42516,7 @@
       <c r="T682" s="10"/>
       <c r="U682" s="8"/>
       <c r="AB682" s="8" t="str">
-        <f t="shared" ref="AB682:AB745" si="50">IF(ISBLANK(AA682),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C682), "/", E682, "/config"))</f>
+        <f t="shared" ref="AB682:AB710" si="50">IF(ISBLANK(AA682),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C682), "/", E682, "/config"))</f>
         <v/>
       </c>
       <c r="AC682" s="8" t="str">

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F22789A-565B-E54C-8D45-488EBC35D2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B53E3E-3874-6F44-A3C8-A1B002BBAB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="2760" windowWidth="46020" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5297,8 +5297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B53E3E-3874-6F44-A3C8-A1B002BBAB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66056E50-DE46-4246-BE28-29E64A2D2D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="2760" windowWidth="46020" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4935,7 +4935,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AS710" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46">
-  <autoFilter ref="A3:AS710" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A3:AS710" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="fan"/>
+        <filter val="light"/>
+        <filter val="media_player"/>
+        <filter val="switch"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AS710">
     <sortCondition ref="A3:A710"/>
   </sortState>
@@ -5297,8 +5306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5760,7 +5769,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" s="9" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>1000</v>
       </c>
@@ -5857,7 +5866,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1001</v>
       </c>
@@ -5962,7 +5971,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>1002</v>
       </c>
@@ -6040,7 +6049,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1003</v>
       </c>
@@ -6128,7 +6137,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>1004</v>
       </c>
@@ -6206,7 +6215,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1005</v>
       </c>
@@ -6294,7 +6303,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>1006</v>
       </c>
@@ -6372,7 +6381,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1007</v>
       </c>
@@ -6454,7 +6463,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>1008</v>
       </c>
@@ -6533,7 +6542,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>1009</v>
       </c>
@@ -6622,7 +6631,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>1010</v>
       </c>
@@ -6701,7 +6710,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>1011</v>
       </c>
@@ -6790,7 +6799,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>1012</v>
       </c>
@@ -6869,7 +6878,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1013</v>
       </c>
@@ -6958,7 +6967,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
         <v>1014</v>
       </c>
@@ -7036,7 +7045,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>1015</v>
       </c>
@@ -7118,7 +7127,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>1016</v>
       </c>
@@ -7196,7 +7205,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>1017</v>
       </c>
@@ -7278,7 +7287,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
         <v>1018</v>
       </c>
@@ -7357,7 +7366,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>1019</v>
       </c>
@@ -7446,7 +7455,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>1020</v>
       </c>
@@ -7524,7 +7533,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>1021</v>
       </c>
@@ -7606,7 +7615,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
         <v>1022</v>
       </c>
@@ -7691,7 +7700,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>1023</v>
       </c>
@@ -7794,7 +7803,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31">
         <v>1024</v>
       </c>
@@ -7894,7 +7903,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>1025</v>
       </c>
@@ -7994,7 +8003,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31">
         <v>1026</v>
       </c>
@@ -8094,7 +8103,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>1027</v>
       </c>
@@ -8194,7 +8203,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31">
         <v>1028</v>
       </c>
@@ -8294,7 +8303,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>1029</v>
       </c>
@@ -8394,7 +8403,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31">
         <v>1030</v>
       </c>
@@ -8449,7 +8458,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>1040</v>
       </c>
@@ -8509,7 +8518,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>1041</v>
       </c>
@@ -8569,7 +8578,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>1042</v>
       </c>
@@ -8626,7 +8635,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>1050</v>
       </c>
@@ -8731,7 +8740,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>1051</v>
       </c>
@@ -8814,7 +8823,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>1052</v>
       </c>
@@ -8897,7 +8906,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>1053</v>
       </c>
@@ -8979,7 +8988,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>1054</v>
       </c>
@@ -9062,7 +9071,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>1055</v>
       </c>
@@ -9145,7 +9154,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>1056</v>
       </c>
@@ -9228,7 +9237,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>1057</v>
       </c>
@@ -9310,7 +9319,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>1058</v>
       </c>
@@ -9392,7 +9401,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>1059</v>
       </c>
@@ -9475,7 +9484,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>1060</v>
       </c>
@@ -9557,7 +9566,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>1061</v>
       </c>
@@ -9660,7 +9669,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>1062</v>
       </c>
@@ -9715,7 +9724,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>1100</v>
       </c>
@@ -9793,7 +9802,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>1101</v>
       </c>
@@ -9875,7 +9884,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>1102</v>
       </c>
@@ -9957,7 +9966,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>1103</v>
       </c>
@@ -10039,7 +10048,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>1104</v>
       </c>
@@ -10120,7 +10129,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>1105</v>
       </c>
@@ -10202,7 +10211,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>1106</v>
       </c>
@@ -10283,7 +10292,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>1107</v>
       </c>
@@ -10364,7 +10373,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>1108</v>
       </c>
@@ -10441,7 +10450,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>1109</v>
       </c>
@@ -10499,7 +10508,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>1150</v>
       </c>
@@ -10582,7 +10591,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>1151</v>
       </c>
@@ -10665,7 +10674,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>1152</v>
       </c>
@@ -10748,7 +10757,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>1153</v>
       </c>
@@ -10831,7 +10840,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>1154</v>
       </c>
@@ -10914,7 +10923,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>1155</v>
       </c>
@@ -10997,7 +11006,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>1200</v>
       </c>
@@ -11092,7 +11101,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>1201</v>
       </c>
@@ -11187,7 +11196,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>1250</v>
       </c>
@@ -11282,7 +11291,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>1251</v>
       </c>
@@ -11377,7 +11386,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>1300</v>
       </c>
@@ -11472,7 +11481,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>1301</v>
       </c>
@@ -11567,7 +11576,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>1302</v>
       </c>
@@ -11662,7 +11671,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>1303</v>
       </c>
@@ -11757,7 +11766,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>1304</v>
       </c>
@@ -11849,7 +11858,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>1305</v>
       </c>
@@ -11944,7 +11953,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>1306</v>
       </c>
@@ -12039,7 +12048,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>1350</v>
       </c>
@@ -12137,7 +12146,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>1351</v>
       </c>
@@ -12237,7 +12246,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>1352</v>
       </c>
@@ -12292,7 +12301,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>1353</v>
       </c>
@@ -12392,7 +12401,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>1354</v>
       </c>
@@ -12487,7 +12496,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>1355</v>
       </c>
@@ -12543,7 +12552,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>1356</v>
       </c>
@@ -12641,7 +12650,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>1357</v>
       </c>
@@ -12696,7 +12705,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>1358</v>
       </c>
@@ -12796,7 +12805,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>1359</v>
       </c>
@@ -12891,7 +12900,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>1360</v>
       </c>
@@ -12986,7 +12995,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>1400</v>
       </c>
@@ -13056,7 +13065,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>1401</v>
       </c>
@@ -13124,7 +13133,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>1402</v>
       </c>
@@ -13192,7 +13201,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>1403</v>
       </c>
@@ -13260,7 +13269,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>1404</v>
       </c>
@@ -13322,7 +13331,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>1405</v>
       </c>
@@ -13384,7 +13393,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>1406</v>
       </c>
@@ -13446,7 +13455,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>1407</v>
       </c>
@@ -13508,7 +13517,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>1408</v>
       </c>
@@ -14248,7 +14257,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>1508</v>
       </c>
@@ -19596,7 +19605,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="173" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>1700</v>
       </c>
@@ -20102,7 +20111,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="179" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>2100</v>
       </c>
@@ -20166,7 +20175,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>2101</v>
       </c>
@@ -20230,7 +20239,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>2102</v>
       </c>
@@ -20294,7 +20303,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>2103</v>
       </c>
@@ -20349,7 +20358,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>2104</v>
       </c>
@@ -20413,7 +20422,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>2105</v>
       </c>
@@ -20477,7 +20486,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>2106</v>
       </c>
@@ -20541,7 +20550,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>2107</v>
       </c>
@@ -20607,7 +20616,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>2108</v>
       </c>
@@ -20673,7 +20682,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>2109</v>
       </c>
@@ -20739,7 +20748,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>2110</v>
       </c>
@@ -20805,7 +20814,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>2111</v>
       </c>
@@ -20869,7 +20878,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>2112</v>
       </c>
@@ -20933,7 +20942,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>2113</v>
       </c>
@@ -20997,7 +21006,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>2114</v>
       </c>
@@ -21061,7 +21070,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>2115</v>
       </c>
@@ -21125,7 +21134,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>2116</v>
       </c>
@@ -21189,7 +21198,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>2117</v>
       </c>
@@ -21254,7 +21263,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>2118</v>
       </c>
@@ -21319,7 +21328,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>2119</v>
       </c>
@@ -21383,7 +21392,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>2120</v>
       </c>
@@ -21447,7 +21456,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>2121</v>
       </c>
@@ -21511,7 +21520,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>2122</v>
       </c>
@@ -21575,7 +21584,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>2123</v>
       </c>
@@ -21639,7 +21648,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>2124</v>
       </c>
@@ -21694,7 +21703,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>2125</v>
       </c>
@@ -21749,7 +21758,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
         <v>2126</v>
       </c>
@@ -21804,7 +21813,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
         <v>2127</v>
       </c>
@@ -21859,7 +21868,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>2128</v>
       </c>
@@ -21914,7 +21923,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>2150</v>
       </c>
@@ -21978,7 +21987,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>2151</v>
       </c>
@@ -22042,7 +22051,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>2152</v>
       </c>
@@ -22102,7 +22111,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>2153</v>
       </c>
@@ -22157,7 +22166,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>2154</v>
       </c>
@@ -22222,7 +22231,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>2155</v>
       </c>
@@ -22286,7 +22295,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>2156</v>
       </c>
@@ -22350,7 +22359,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>2157</v>
       </c>
@@ -22414,7 +22423,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>2158</v>
       </c>
@@ -22478,7 +22487,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>2159</v>
       </c>
@@ -22542,7 +22551,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>2160</v>
       </c>
@@ -22606,7 +22615,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>2161</v>
       </c>
@@ -22670,7 +22679,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>2162</v>
       </c>
@@ -22734,7 +22743,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>2163</v>
       </c>
@@ -22798,7 +22807,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>2164</v>
       </c>
@@ -22862,7 +22871,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>2165</v>
       </c>
@@ -22926,7 +22935,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>2166</v>
       </c>
@@ -22990,7 +22999,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>2167</v>
       </c>
@@ -23054,7 +23063,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>2168</v>
       </c>
@@ -23118,7 +23127,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>2169</v>
       </c>
@@ -23182,7 +23191,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>2170</v>
       </c>
@@ -23246,7 +23255,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>2171</v>
       </c>
@@ -23310,7 +23319,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>2172</v>
       </c>
@@ -23374,7 +23383,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>2173</v>
       </c>
@@ -23429,7 +23438,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>2174</v>
       </c>
@@ -23484,7 +23493,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
         <v>2175</v>
       </c>
@@ -23548,7 +23557,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
         <v>2176</v>
       </c>
@@ -23603,7 +23612,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8">
         <v>2177</v>
       </c>
@@ -23658,7 +23667,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8">
         <v>2178</v>
       </c>
@@ -23713,7 +23722,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8">
         <v>2200</v>
       </c>
@@ -23777,7 +23786,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8">
         <v>2201</v>
       </c>
@@ -23841,7 +23850,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8">
         <v>2203</v>
       </c>
@@ -23905,7 +23914,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8">
         <v>2250</v>
       </c>
@@ -23969,7 +23978,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
         <v>2251</v>
       </c>
@@ -24033,7 +24042,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8">
         <v>2252</v>
       </c>
@@ -24097,7 +24106,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8">
         <v>2300</v>
       </c>
@@ -24161,7 +24170,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
         <v>2301</v>
       </c>
@@ -24225,7 +24234,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8">
         <v>2302</v>
       </c>
@@ -24289,7 +24298,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8">
         <v>2400</v>
       </c>
@@ -24366,7 +24375,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="247" spans="1:45" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:45" s="46" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="8">
         <v>2500</v>
       </c>
@@ -24470,7 +24479,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:45" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:45" s="46" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8">
         <v>2501</v>
       </c>
@@ -24578,7 +24587,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:45" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:45" s="46" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8">
         <v>2502</v>
       </c>
@@ -24686,7 +24695,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:45" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:45" s="46" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8">
         <v>2503</v>
       </c>
@@ -24794,7 +24803,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:45" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:45" s="46" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8">
         <v>2504</v>
       </c>
@@ -24900,7 +24909,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8">
         <v>2505</v>
       </c>
@@ -24960,7 +24969,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="8">
         <v>2506</v>
       </c>
@@ -25017,7 +25026,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8">
         <v>2507</v>
       </c>
@@ -25074,7 +25083,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8">
         <v>2508</v>
       </c>
@@ -25131,7 +25140,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8">
         <v>2509</v>
       </c>
@@ -25188,7 +25197,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="8">
         <v>2510</v>
       </c>
@@ -25245,7 +25254,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8">
         <v>2511</v>
       </c>
@@ -25302,7 +25311,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="8">
         <v>2512</v>
       </c>
@@ -25389,7 +25398,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
         <v>2513</v>
       </c>
@@ -25434,7 +25443,7 @@
       <c r="AP260" s="8"/>
       <c r="AQ260" s="8"/>
     </row>
-    <row r="261" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
         <v>2514</v>
       </c>
@@ -25491,7 +25500,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8">
         <v>2520</v>
       </c>
@@ -25548,7 +25557,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8">
         <v>2521</v>
       </c>
@@ -25605,7 +25614,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
         <v>2522</v>
       </c>
@@ -25662,7 +25671,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="8">
         <v>2523</v>
       </c>
@@ -25719,7 +25728,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8">
         <v>2524</v>
       </c>
@@ -25776,7 +25785,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="8">
         <v>2525</v>
       </c>
@@ -25829,7 +25838,7 @@
       <c r="AP267" s="8"/>
       <c r="AQ267" s="8"/>
     </row>
-    <row r="268" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8">
         <v>2526</v>
       </c>
@@ -25927,7 +25936,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
         <v>2527</v>
       </c>
@@ -26001,7 +26010,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
         <v>2528</v>
       </c>
@@ -26075,7 +26084,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
         <v>2529</v>
       </c>
@@ -26149,7 +26158,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
         <v>2530</v>
       </c>
@@ -26223,7 +26232,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
         <v>2531</v>
       </c>
@@ -26279,7 +26288,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
         <v>2532</v>
       </c>
@@ -26335,7 +26344,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>2533</v>
       </c>
@@ -28046,7 +28055,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="295" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="8">
         <v>2569</v>
       </c>
@@ -28127,7 +28136,7 @@
         <v>[["mac", "0x2c1165fffec5a3f6"]]</v>
       </c>
     </row>
-    <row r="296" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="8">
         <v>2570</v>
       </c>
@@ -28208,7 +28217,7 @@
         <v>[["mac", "0x2c1165fffebaa93c"]]</v>
       </c>
     </row>
-    <row r="297" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="8">
         <v>2571</v>
       </c>
@@ -28289,7 +28298,7 @@
         <v>[["mac", "0x50325ffffe47b8fa"]]</v>
       </c>
     </row>
-    <row r="298" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="8">
         <v>2572</v>
       </c>
@@ -28344,7 +28353,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="14">
         <v>2600</v>
       </c>
@@ -28412,7 +28421,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="50">
         <v>2601</v>
       </c>
@@ -28480,7 +28489,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="14">
         <v>2602</v>
       </c>
@@ -28548,7 +28557,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="14">
         <v>2603</v>
       </c>
@@ -28613,7 +28622,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="50">
         <v>2604</v>
       </c>
@@ -28678,7 +28687,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="14">
         <v>2605</v>
       </c>
@@ -28743,7 +28752,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="14">
         <v>2606</v>
       </c>
@@ -28811,7 +28820,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="50">
         <v>2607</v>
       </c>
@@ -28877,7 +28886,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="14">
         <v>2608</v>
       </c>
@@ -28942,7 +28951,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="14">
         <v>2609</v>
       </c>
@@ -29008,7 +29017,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="50">
         <v>2610</v>
       </c>
@@ -29073,7 +29082,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="14">
         <v>2611</v>
       </c>
@@ -29138,7 +29147,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="47">
         <v>2612</v>
       </c>
@@ -29203,7 +29212,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="48">
         <v>2613</v>
       </c>
@@ -29268,7 +29277,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="47">
         <v>2614</v>
       </c>
@@ -29333,7 +29342,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="47">
         <v>2615</v>
       </c>
@@ -30051,7 +30060,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="47">
         <v>2631</v>
       </c>
@@ -30106,7 +30115,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <v>2640</v>
       </c>
@@ -30686,7 +30695,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="335" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
         <v>2656</v>
       </c>
@@ -30833,7 +30842,7 @@
         <v>2658</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>26</v>
+        <v>890</v>
       </c>
       <c r="C337" s="8" t="s">
         <v>325</v>
@@ -31002,7 +31011,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="339" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="8">
         <v>2660</v>
       </c>
@@ -31414,7 +31423,7 @@
         <v>2665</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>26</v>
+        <v>890</v>
       </c>
       <c r="C344" s="8" t="s">
         <v>325</v>
@@ -31496,7 +31505,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="345" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="8">
         <v>2700</v>
       </c>
@@ -31557,7 +31566,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="8">
         <v>2701</v>
       </c>
@@ -31612,7 +31621,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="8">
         <v>2702</v>
       </c>
@@ -31693,7 +31702,7 @@
         <v>[["mac", "0x000d6f0011274420"]]</v>
       </c>
     </row>
-    <row r="348" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="8">
         <v>2703</v>
       </c>
@@ -31774,7 +31783,7 @@
         <v>[["mac", "0x00124b0029119f9a"]]</v>
       </c>
     </row>
-    <row r="349" spans="1:45" s="41" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:45" s="41" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="41">
         <v>2704</v>
       </c>
@@ -31822,7 +31831,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="8">
         <v>2705</v>
       </c>
@@ -31883,7 +31892,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="8">
         <v>2706</v>
       </c>
@@ -31938,7 +31947,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="8">
         <v>2707</v>
       </c>
@@ -32019,7 +32028,7 @@
         <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
-    <row r="353" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="8">
         <v>2708</v>
       </c>
@@ -32100,7 +32109,7 @@
         <v>[["mac", "0x00124b0029113713"]]</v>
       </c>
     </row>
-    <row r="354" spans="1:45" s="41" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:45" s="41" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="41">
         <v>2709</v>
       </c>
@@ -32148,7 +32157,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="8">
         <v>2710</v>
       </c>
@@ -32203,7 +32212,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="8">
         <v>2711</v>
       </c>
@@ -32259,7 +32268,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="8">
         <v>2712</v>
       </c>
@@ -32345,7 +32354,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="358" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="8">
         <v>2713</v>
       </c>
@@ -32400,7 +32409,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="8">
         <v>2714</v>
       </c>
@@ -32456,7 +32465,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="8">
         <v>2715</v>
       </c>
@@ -32542,7 +32551,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="361" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="8">
         <v>2716</v>
       </c>
@@ -32597,7 +32606,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="8">
         <v>2717</v>
       </c>
@@ -32653,7 +32662,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="8">
         <v>2718</v>
       </c>
@@ -32710,7 +32719,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="8">
         <v>2719</v>
       </c>
@@ -32767,7 +32776,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="8">
         <v>2720</v>
       </c>
@@ -32823,7 +32832,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="8">
         <v>2721</v>
       </c>
@@ -32879,7 +32888,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="8">
         <v>2722</v>
       </c>
@@ -32935,7 +32944,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="8">
         <v>5000</v>
       </c>
@@ -32999,7 +33008,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="369" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="8">
         <v>5001</v>
       </c>
@@ -33063,7 +33072,7 @@
         <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="370" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="8">
         <v>5002</v>
       </c>
@@ -33127,7 +33136,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="371" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="8">
         <v>5003</v>
       </c>
@@ -33191,7 +33200,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="372" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="8">
         <v>5004</v>
       </c>
@@ -33255,7 +33264,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
-    <row r="373" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="8">
         <v>5005</v>
       </c>
@@ -33323,7 +33332,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="374" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="8">
         <v>5006</v>
       </c>
@@ -33391,7 +33400,7 @@
         <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="375" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="8">
         <v>5007</v>
       </c>
@@ -33463,7 +33472,7 @@
         <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="376" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="8">
         <v>5008</v>
       </c>
@@ -33535,7 +33544,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="377" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="8">
         <v>5009</v>
       </c>
@@ -33600,7 +33609,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="378" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="8">
         <v>5010</v>
       </c>
@@ -33666,7 +33675,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="379" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="8">
         <v>5011</v>
       </c>
@@ -33732,7 +33741,7 @@
         <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
-    <row r="380" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="8">
         <v>5012</v>
       </c>
@@ -33798,7 +33807,7 @@
         <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
       </c>
     </row>
-    <row r="381" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="8">
         <v>5013</v>
       </c>
@@ -33864,7 +33873,7 @@
         <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
       </c>
     </row>
-    <row r="382" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="8">
         <v>5014</v>
       </c>
@@ -33926,7 +33935,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="383" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="8">
         <v>5015</v>
       </c>
@@ -33994,7 +34003,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="384" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="8">
         <v>6000</v>
       </c>
@@ -34041,7 +34050,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="385" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F385" s="8" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34070,7 +34079,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="14"/>
       <c r="C386" s="14"/>
       <c r="D386" s="14"/>
@@ -34109,7 +34118,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F387" s="8" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34138,7 +34147,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F388" s="8" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34167,7 +34176,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F389" s="8" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34196,7 +34205,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F390" s="8" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34225,7 +34234,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E391" s="12"/>
       <c r="F391" s="8" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
@@ -34255,7 +34264,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E392" s="12"/>
       <c r="F392" s="8" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
@@ -34285,7 +34294,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F393" s="8" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34314,7 +34323,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F394" s="8" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34343,7 +34352,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F395" s="8" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34372,7 +34381,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F396" s="8" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34401,7 +34410,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F397" s="8" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34430,7 +34439,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F398" s="8" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34459,7 +34468,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F399" s="8" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34488,7 +34497,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F400" s="8" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34517,7 +34526,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F401" s="8" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34546,7 +34555,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F402" s="8" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34575,7 +34584,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F403" s="8" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34604,7 +34613,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F404" s="8" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34633,7 +34642,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F405" s="8" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34662,7 +34671,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F406" s="8" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34691,7 +34700,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F407" s="8" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34720,7 +34729,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F408" s="8" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34749,7 +34758,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F409" s="8" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34778,7 +34787,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F410" s="8" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34807,7 +34816,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F411" s="8" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34836,7 +34845,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F412" s="8" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34865,7 +34874,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F413" s="8" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34894,7 +34903,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F414" s="8" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34923,7 +34932,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F415" s="8" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34952,7 +34961,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F416" s="8" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34981,7 +34990,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F417" s="8" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35010,7 +35019,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F418" s="8" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35039,7 +35048,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F419" s="8" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35068,7 +35077,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F420" s="8" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35097,7 +35106,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F421" s="8" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35126,7 +35135,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F422" s="8" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35155,7 +35164,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F423" s="8" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35184,7 +35193,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F424" s="8" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35213,7 +35222,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F425" s="8" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35242,7 +35251,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F426" s="8" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35271,7 +35280,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F427" s="8" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35300,7 +35309,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F428" s="8" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35329,7 +35338,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F429" s="8" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35358,7 +35367,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F430" s="8" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35387,7 +35396,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F431" s="8" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35416,7 +35425,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F432" s="8" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35445,7 +35454,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F433" s="8" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35474,7 +35483,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F434" s="8" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35503,7 +35512,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F435" s="8" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35532,7 +35541,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F436" s="8" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35561,7 +35570,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F437" s="8" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35590,7 +35599,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F438" s="8" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35619,7 +35628,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F439" s="8" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35648,7 +35657,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F440" s="8" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35677,7 +35686,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F441" s="8" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35706,7 +35715,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F442" s="8" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35735,7 +35744,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F443" s="8" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35764,7 +35773,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F444" s="8" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35793,7 +35802,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F445" s="8" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35822,7 +35831,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F446" s="8" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35851,7 +35860,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F447" s="8" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35880,7 +35889,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F448" s="8" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35909,7 +35918,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F449" s="8" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35938,7 +35947,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F450" s="8" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35967,7 +35976,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F451" s="8" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35996,7 +36005,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F452" s="8" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36025,7 +36034,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F453" s="8" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36054,7 +36063,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F454" s="8" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36083,7 +36092,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F455" s="8" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36112,7 +36121,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F456" s="8" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36141,7 +36150,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F457" s="8" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36170,7 +36179,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F458" s="8" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36199,7 +36208,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F459" s="8" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36228,7 +36237,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F460" s="8" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36257,7 +36266,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F461" s="8" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36286,7 +36295,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F462" s="8" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36315,7 +36324,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F463" s="8" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36344,7 +36353,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F464" s="8" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36373,7 +36382,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F465" s="8" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36402,7 +36411,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F466" s="8" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36431,7 +36440,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F467" s="8" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36460,7 +36469,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F468" s="8" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36489,7 +36498,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F469" s="8" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36518,7 +36527,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F470" s="8" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36547,7 +36556,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F471" s="8" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36576,7 +36585,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F472" s="8" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36605,7 +36614,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F473" s="8" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36634,7 +36643,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F474" s="8" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36663,7 +36672,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F475" s="8" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36692,7 +36701,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F476" s="8" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36721,7 +36730,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F477" s="8" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36750,7 +36759,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F478" s="8" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36779,7 +36788,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F479" s="8" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36808,7 +36817,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F480" s="8" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36837,7 +36846,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F481" s="8" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36866,7 +36875,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F482" s="8" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36895,7 +36904,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F483" s="8" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36924,7 +36933,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F484" s="8" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36953,7 +36962,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F485" s="8" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36982,7 +36991,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F486" s="8" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37011,7 +37020,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F487" s="8" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37040,7 +37049,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F488" s="8" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37069,7 +37078,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F489" s="8" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37098,7 +37107,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F490" s="8" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37127,7 +37136,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="8" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37156,7 +37165,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="8" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37185,7 +37194,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F493" s="8" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37214,7 +37223,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F494" s="8" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37243,7 +37252,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F495" s="8" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37272,7 +37281,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F496" s="8" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37301,7 +37310,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F497" s="8" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37330,7 +37339,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F498" s="8" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37359,7 +37368,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F499" s="8" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37388,7 +37397,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F500" s="8" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37417,7 +37426,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F501" s="8" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37446,7 +37455,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F502" s="8" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37475,7 +37484,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F503" s="8" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37504,7 +37513,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F504" s="8" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37533,7 +37542,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F505" s="8" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37562,7 +37571,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F506" s="8" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37591,7 +37600,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F507" s="8" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37620,7 +37629,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F508" s="8" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37649,7 +37658,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F509" s="8" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37678,7 +37687,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F510" s="8" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37708,7 +37717,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F511" s="8" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37738,7 +37747,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F512" s="8" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37767,7 +37776,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F513" s="8" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37796,7 +37805,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F514" s="8" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37825,7 +37834,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F515" s="8" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37854,7 +37863,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F516" s="8" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37882,7 +37891,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F517" s="8" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37910,7 +37919,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F518" s="8" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37938,7 +37947,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F519" s="8" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37966,7 +37975,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F520" s="8" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37995,7 +38004,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F521" s="8" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38023,7 +38032,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F522" s="8" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38051,7 +38060,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F523" s="8" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38079,7 +38088,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F524" s="8" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38107,7 +38116,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F525" s="8" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38135,7 +38144,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F526" s="8" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38163,7 +38172,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F527" s="8" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38191,7 +38200,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F528" s="8" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38219,7 +38228,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F529" s="8" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38247,7 +38256,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F530" s="8" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38275,7 +38284,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F531" s="8" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38303,7 +38312,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F532" s="8" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38331,7 +38340,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F533" s="8" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38359,7 +38368,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F534" s="8" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38387,7 +38396,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F535" s="8" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38415,7 +38424,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F536" s="8" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38443,7 +38452,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F537" s="8" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38471,7 +38480,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F538" s="8" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38499,7 +38508,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F539" s="8" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38527,7 +38536,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F540" s="8" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38555,7 +38564,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F541" s="8" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38583,7 +38592,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F542" s="8" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38611,7 +38620,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F543" s="8" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38639,7 +38648,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F544" s="8" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38667,7 +38676,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F545" s="8" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38695,7 +38704,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F546" s="8" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38723,7 +38732,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F547" s="8" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38751,7 +38760,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F548" s="8" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38779,7 +38788,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F549" s="8" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38807,7 +38816,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F550" s="8" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38835,7 +38844,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F551" s="8" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38863,7 +38872,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F552" s="8" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38891,7 +38900,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F553" s="8" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38919,7 +38928,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F554" s="8" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38947,7 +38956,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F555" s="8" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38975,7 +38984,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F556" s="8" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39003,7 +39012,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F557" s="8" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39031,7 +39040,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F558" s="8" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39059,7 +39068,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F559" s="8" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39087,7 +39096,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F560" s="8" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39115,7 +39124,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F561" s="8" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39143,7 +39152,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F562" s="8" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39171,7 +39180,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F563" s="8" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39199,7 +39208,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F564" s="8" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39227,7 +39236,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F565" s="8" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39255,7 +39264,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F566" s="8" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39283,7 +39292,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F567" s="8" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39311,7 +39320,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F568" s="8" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39339,7 +39348,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F569" s="8" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39367,7 +39376,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F570" s="8" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39395,7 +39404,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F571" s="8" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39423,7 +39432,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F572" s="8" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39451,7 +39460,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F573" s="8" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39479,7 +39488,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F574" s="8" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39507,7 +39516,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F575" s="8" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39535,7 +39544,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F576" s="8" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39563,7 +39572,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F577" s="8" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39591,7 +39600,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F578" s="8" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39619,7 +39628,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F579" s="8" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39647,7 +39656,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F580" s="8" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39675,7 +39684,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F581" s="8" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39703,7 +39712,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F582" s="8" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39731,7 +39740,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F583" s="8" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39759,7 +39768,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F584" s="8" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39787,7 +39796,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F585" s="8" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39815,7 +39824,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F586" s="8" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39843,7 +39852,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F587" s="8" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39871,7 +39880,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F588" s="8" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39899,7 +39908,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F589" s="8" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39927,7 +39936,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F590" s="8" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39955,7 +39964,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F591" s="8" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39983,7 +39992,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F592" s="8" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40011,7 +40020,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F593" s="8" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40039,7 +40048,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F594" s="8" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40067,7 +40076,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F595" s="8" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40095,7 +40104,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F596" s="8" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40123,7 +40132,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F597" s="8" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40151,7 +40160,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F598" s="8" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40179,7 +40188,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F599" s="8" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40207,7 +40216,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F600" s="8" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40235,7 +40244,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F601" s="8" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40263,7 +40272,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F602" s="8" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40291,7 +40300,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F603" s="8" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40319,7 +40328,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F604" s="8" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40347,7 +40356,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F605" s="8" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40375,7 +40384,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F606" s="8" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40403,7 +40412,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F607" s="8" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40431,7 +40440,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F608" s="8" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40459,7 +40468,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F609" s="8" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40487,7 +40496,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F610" s="8" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40515,7 +40524,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F611" s="8" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40543,7 +40552,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F612" s="8" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40571,7 +40580,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F613" s="8" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40599,7 +40608,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F614" s="8" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40627,7 +40636,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F615" s="8" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40655,7 +40664,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F616" s="8" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40683,7 +40692,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F617" s="8" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40711,7 +40720,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F618" s="8" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40739,7 +40748,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F619" s="8" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40767,7 +40776,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F620" s="8" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40795,7 +40804,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F621" s="8" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40823,7 +40832,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F622" s="8" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40851,7 +40860,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F623" s="8" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40879,7 +40888,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F624" s="8" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40907,7 +40916,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F625" s="8" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40935,7 +40944,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F626" s="8" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40963,7 +40972,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F627" s="8" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40991,7 +41000,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F628" s="8" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41019,7 +41028,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F629" s="8" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41047,7 +41056,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F630" s="8" t="str">
         <f>IF(ISBLANK(E630), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41075,7 +41084,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F631" s="8" t="str">
         <f>IF(ISBLANK(E631), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41103,7 +41112,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F632" s="8" t="str">
         <f>IF(ISBLANK(E632), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41131,7 +41140,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F633" s="8" t="str">
         <f>IF(ISBLANK(E633), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41159,7 +41168,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F634" s="8" t="str">
         <f>IF(ISBLANK(E634), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41187,7 +41196,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F635" s="8" t="str">
         <f>IF(ISBLANK(E635), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41215,7 +41224,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F636" s="8" t="str">
         <f>IF(ISBLANK(E636), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41243,7 +41252,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F637" s="8" t="str">
         <f>IF(ISBLANK(E637), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41271,7 +41280,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F638" s="8" t="str">
         <f>IF(ISBLANK(E638), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41299,7 +41308,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F639" s="8" t="str">
         <f>IF(ISBLANK(E639), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41327,7 +41336,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F640" s="8" t="str">
         <f>IF(ISBLANK(E640), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41355,7 +41364,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F641" s="8" t="str">
         <f>IF(ISBLANK(E641), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41383,7 +41392,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F642" s="8" t="str">
         <f>IF(ISBLANK(E642), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41411,7 +41420,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F643" s="8" t="str">
         <f>IF(ISBLANK(E643), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41439,7 +41448,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F644" s="8" t="str">
         <f>IF(ISBLANK(E644), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41467,7 +41476,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F645" s="8" t="str">
         <f>IF(ISBLANK(E645), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41495,7 +41504,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F646" s="8" t="str">
         <f>IF(ISBLANK(E646), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41523,7 +41532,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F647" s="8" t="str">
         <f>IF(ISBLANK(E647), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41551,7 +41560,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F648" s="8" t="str">
         <f>IF(ISBLANK(E648), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41579,7 +41588,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F649" s="8" t="str">
         <f>IF(ISBLANK(E649), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41607,7 +41616,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F650" s="8" t="str">
         <f>IF(ISBLANK(E650), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41635,7 +41644,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F651" s="8" t="str">
         <f>IF(ISBLANK(E651), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41663,7 +41672,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F652" s="8" t="str">
         <f>IF(ISBLANK(E652), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41691,7 +41700,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F653" s="8" t="str">
         <f>IF(ISBLANK(E653), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41719,7 +41728,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F654" s="8" t="str">
         <f>IF(ISBLANK(E654), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41747,7 +41756,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F655" s="8" t="str">
         <f>IF(ISBLANK(E655), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41775,7 +41784,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F656" s="8" t="str">
         <f>IF(ISBLANK(E656), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41803,7 +41812,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F657" s="8" t="str">
         <f>IF(ISBLANK(E657), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41831,7 +41840,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F658" s="8" t="str">
         <f>IF(ISBLANK(E658), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41859,7 +41868,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F659" s="8" t="str">
         <f>IF(ISBLANK(E659), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41887,7 +41896,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F660" s="8" t="str">
         <f>IF(ISBLANK(E660), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41915,7 +41924,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F661" s="8" t="str">
         <f>IF(ISBLANK(E661), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41943,7 +41952,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F662" s="8" t="str">
         <f>IF(ISBLANK(E662), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41971,7 +41980,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F663" s="8" t="str">
         <f>IF(ISBLANK(E663), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41999,7 +42008,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F664" s="8" t="str">
         <f>IF(ISBLANK(E664), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42027,7 +42036,7 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F665" s="8" t="str">
         <f>IF(ISBLANK(E665), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42055,7 +42064,7 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F666" s="8" t="str">
         <f>IF(ISBLANK(E666), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42083,7 +42092,7 @@
         <v/>
       </c>
     </row>
-    <row r="667" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F667" s="8" t="str">
         <f>IF(ISBLANK(E667), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42111,7 +42120,7 @@
         <v/>
       </c>
     </row>
-    <row r="668" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F668" s="8" t="str">
         <f>IF(ISBLANK(E668), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42139,7 +42148,7 @@
         <v/>
       </c>
     </row>
-    <row r="669" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F669" s="8" t="str">
         <f>IF(ISBLANK(E669), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42167,7 +42176,7 @@
         <v/>
       </c>
     </row>
-    <row r="670" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F670" s="8" t="str">
         <f>IF(ISBLANK(E670), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42195,7 +42204,7 @@
         <v/>
       </c>
     </row>
-    <row r="671" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F671" s="8" t="str">
         <f>IF(ISBLANK(E671), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42223,7 +42232,7 @@
         <v/>
       </c>
     </row>
-    <row r="672" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F672" s="8" t="str">
         <f>IF(ISBLANK(E672), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42251,7 +42260,7 @@
         <v/>
       </c>
     </row>
-    <row r="673" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F673" s="8" t="str">
         <f>IF(ISBLANK(E673), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42279,7 +42288,7 @@
         <v/>
       </c>
     </row>
-    <row r="674" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F674" s="8" t="str">
         <f>IF(ISBLANK(E674), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42307,7 +42316,7 @@
         <v/>
       </c>
     </row>
-    <row r="675" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F675" s="8" t="str">
         <f>IF(ISBLANK(E675), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42335,7 +42344,7 @@
         <v/>
       </c>
     </row>
-    <row r="676" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F676" s="8" t="str">
         <f>IF(ISBLANK(E676), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42363,7 +42372,7 @@
         <v/>
       </c>
     </row>
-    <row r="677" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F677" s="8" t="str">
         <f>IF(ISBLANK(E677), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42391,7 +42400,7 @@
         <v/>
       </c>
     </row>
-    <row r="678" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F678" s="8" t="str">
         <f>IF(ISBLANK(E678), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42419,7 +42428,7 @@
         <v/>
       </c>
     </row>
-    <row r="679" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F679" s="8" t="str">
         <f>IF(ISBLANK(E679), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42447,7 +42456,7 @@
         <v/>
       </c>
     </row>
-    <row r="680" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F680" s="8" t="str">
         <f>IF(ISBLANK(E680), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42475,7 +42484,7 @@
         <v/>
       </c>
     </row>
-    <row r="681" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F681" s="8" t="str">
         <f>IF(ISBLANK(E681), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42503,7 +42512,7 @@
         <v/>
       </c>
     </row>
-    <row r="682" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F682" s="8" t="str">
         <f>IF(ISBLANK(E682), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42531,7 +42540,7 @@
         <v/>
       </c>
     </row>
-    <row r="683" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F683" s="8" t="str">
         <f>IF(ISBLANK(E683), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42559,7 +42568,7 @@
         <v/>
       </c>
     </row>
-    <row r="684" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F684" s="8" t="str">
         <f>IF(ISBLANK(E684), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42587,7 +42596,7 @@
         <v/>
       </c>
     </row>
-    <row r="685" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F685" s="8" t="str">
         <f>IF(ISBLANK(E685), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42615,7 +42624,7 @@
         <v/>
       </c>
     </row>
-    <row r="686" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F686" s="8" t="str">
         <f>IF(ISBLANK(E686), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42643,7 +42652,7 @@
         <v/>
       </c>
     </row>
-    <row r="687" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F687" s="8" t="str">
         <f>IF(ISBLANK(E687), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42671,7 +42680,7 @@
         <v/>
       </c>
     </row>
-    <row r="688" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F688" s="8" t="str">
         <f>IF(ISBLANK(E688), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42699,7 +42708,7 @@
         <v/>
       </c>
     </row>
-    <row r="689" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F689" s="8" t="str">
         <f>IF(ISBLANK(E689), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42727,7 +42736,7 @@
         <v/>
       </c>
     </row>
-    <row r="690" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F690" s="8" t="str">
         <f>IF(ISBLANK(E690), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42755,7 +42764,7 @@
         <v/>
       </c>
     </row>
-    <row r="691" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F691" s="8" t="str">
         <f>IF(ISBLANK(E691), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42783,7 +42792,7 @@
         <v/>
       </c>
     </row>
-    <row r="692" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F692" s="8" t="str">
         <f>IF(ISBLANK(E692), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42811,7 +42820,7 @@
         <v/>
       </c>
     </row>
-    <row r="693" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F693" s="8" t="str">
         <f>IF(ISBLANK(E693), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42839,7 +42848,7 @@
         <v/>
       </c>
     </row>
-    <row r="694" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F694" s="8" t="str">
         <f>IF(ISBLANK(E694), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42867,7 +42876,7 @@
         <v/>
       </c>
     </row>
-    <row r="695" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F695" s="8" t="str">
         <f>IF(ISBLANK(E695), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42895,7 +42904,7 @@
         <v/>
       </c>
     </row>
-    <row r="696" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F696" s="8" t="str">
         <f>IF(ISBLANK(E696), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42923,7 +42932,7 @@
         <v/>
       </c>
     </row>
-    <row r="697" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F697" s="8" t="str">
         <f>IF(ISBLANK(E697), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42951,7 +42960,7 @@
         <v/>
       </c>
     </row>
-    <row r="698" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F698" s="8" t="str">
         <f>IF(ISBLANK(E698), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42979,7 +42988,7 @@
         <v/>
       </c>
     </row>
-    <row r="699" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F699" s="8" t="str">
         <f>IF(ISBLANK(E699), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43007,7 +43016,7 @@
         <v/>
       </c>
     </row>
-    <row r="700" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F700" s="8" t="str">
         <f>IF(ISBLANK(E700), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43035,7 +43044,7 @@
         <v/>
       </c>
     </row>
-    <row r="701" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F701" s="8" t="str">
         <f>IF(ISBLANK(E701), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43063,7 +43072,7 @@
         <v/>
       </c>
     </row>
-    <row r="702" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F702" s="8" t="str">
         <f>IF(ISBLANK(E702), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43091,7 +43100,7 @@
         <v/>
       </c>
     </row>
-    <row r="703" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F703" s="8" t="str">
         <f>IF(ISBLANK(E703), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43119,7 +43128,7 @@
         <v/>
       </c>
     </row>
-    <row r="704" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F704" s="8" t="str">
         <f>IF(ISBLANK(E704), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43147,7 +43156,7 @@
         <v/>
       </c>
     </row>
-    <row r="705" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F705" s="8" t="str">
         <f>IF(ISBLANK(E705), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43175,7 +43184,7 @@
         <v/>
       </c>
     </row>
-    <row r="706" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F706" s="8" t="str">
         <f>IF(ISBLANK(E706), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43203,7 +43212,7 @@
         <v/>
       </c>
     </row>
-    <row r="707" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F707" s="8" t="str">
         <f>IF(ISBLANK(E707), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43231,7 +43240,7 @@
         <v/>
       </c>
     </row>
-    <row r="708" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F708" s="8" t="str">
         <f>IF(ISBLANK(E708), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43259,7 +43268,7 @@
         <v/>
       </c>
     </row>
-    <row r="709" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F709" s="8" t="str">
         <f>IF(ISBLANK(E709), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43287,7 +43296,7 @@
         <v/>
       </c>
     </row>
-    <row r="710" spans="6:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="6:45" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F710" s="8" t="str">
         <f>IF(ISBLANK(E710), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E6852C-2B9F-E74A-8CDB-95E7D3CFA29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2097F96A-1432-1B4C-8284-43BF56998D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2340" windowWidth="46020" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5560,7 +5560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="O279" sqref="O279"/>
     </sheetView>
   </sheetViews>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8859FE8-B474-2B45-ACD1-18CCD920EB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442DD72F-EDA7-BB4B-B89C-FA7B0F7CE53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2340" windowWidth="46020" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5429" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5426" uniqueCount="1215">
   <si>
     <t>index</t>
   </si>
@@ -5588,8 +5588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI253" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AQ277" sqref="AQ277"/>
+    <sheetView tabSelected="1" topLeftCell="H253" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="H277" sqref="A277:XFD277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27910,106 +27910,87 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="277" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="8">
+    <row r="277" spans="1:50" s="58" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="58">
         <v>2551</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B277" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C277" s="8" t="s">
+      <c r="C277" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="D277" s="8" t="s">
+      <c r="D277" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="E277" s="8" t="s">
+      <c r="E277" s="58" t="s">
         <v>1214</v>
       </c>
-      <c r="F277" s="8" t="str">
+      <c r="F277" s="58" t="str">
         <f>IF(ISBLANK(E277), "", Table2[[#This Row],[unique_id]])</f>
         <v>mobile_adhoc_outlet</v>
       </c>
-      <c r="G277" s="8" t="s">
+      <c r="G277" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="H277" s="8" t="s">
+      <c r="H277" s="58" t="s">
         <v>791</v>
       </c>
-      <c r="I277" s="52" t="s">
+      <c r="I277" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="J277" s="52"/>
-      <c r="K277" s="52"/>
-      <c r="L277" s="52"/>
-      <c r="M277" s="52" t="s">
+      <c r="M277" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="N277" s="52"/>
-      <c r="O277" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="P277" s="8" t="s">
-        <v>1184</v>
-      </c>
-      <c r="Q277" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="R277" s="8" t="str">
-        <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
-        <v>Mobile Power Plugs</v>
-      </c>
-      <c r="T277" s="8"/>
-      <c r="U277" s="10"/>
-      <c r="V277" s="10"/>
-      <c r="W277" s="10"/>
-      <c r="X277" s="10"/>
-      <c r="Y277" s="10"/>
-      <c r="Z277" s="8"/>
-      <c r="AC277" s="8" t="s">
+      <c r="S277" s="67"/>
+      <c r="U277" s="60"/>
+      <c r="V277" s="60"/>
+      <c r="W277" s="60"/>
+      <c r="X277" s="60"/>
+      <c r="Y277" s="60"/>
+      <c r="AC277" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="AE277" s="10"/>
-      <c r="AG277" s="8" t="str">
+      <c r="AE277" s="60"/>
+      <c r="AG277" s="58" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AH277" s="8" t="str">
+      <c r="AH277" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="AK277" s="37"/>
-      <c r="AL277" s="8" t="str">
+      <c r="AK277" s="64"/>
+      <c r="AL277" s="58" t="str">
         <f>IF(OR(ISBLANK(AT277), ISBLANK(AU277)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-mobile-adhoc-outlet</v>
       </c>
-      <c r="AM277" s="10" t="s">
+      <c r="AM277" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="AN277" s="8" t="s">
+      <c r="AN277" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="AO277" s="13" t="s">
+      <c r="AO277" s="65" t="s">
         <v>469</v>
       </c>
-      <c r="AP277" s="8" t="str">
+      <c r="AP277" s="58" t="str">
         <f>IF(OR(ISBLANK(AT277), ISBLANK(AU277)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ277" s="8" t="s">
+      <c r="AQ277" s="58" t="s">
         <v>810</v>
       </c>
-      <c r="AS277" s="8" t="s">
+      <c r="AS277" s="58" t="s">
         <v>600</v>
       </c>
-      <c r="AT277" s="8" t="s">
+      <c r="AT277" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="AU277" s="8" t="s">
+      <c r="AU277" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="AV277" s="8"/>
-      <c r="AX277" s="8" t="str">
+      <c r="AX277" s="58" t="str">
         <f t="shared" si="27"/>
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442DD72F-EDA7-BB4B-B89C-FA7B0F7CE53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C808EE-7307-C741-AED4-81685FDFB870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2340" windowWidth="46020" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5426" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5429" uniqueCount="1215">
   <si>
     <t>index</t>
   </si>
@@ -3989,7 +3989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4183,6 +4183,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5588,8 +5594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H253" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="H277" sqref="A277:XFD277"/>
+    <sheetView tabSelected="1" topLeftCell="D248" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D277" sqref="A277:XFD277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21736,66 +21742,64 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="8">
+    <row r="183" spans="1:50" s="58" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="58">
         <v>2104</v>
       </c>
-      <c r="B183" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C183" s="8" t="s">
+      <c r="B183" s="58" t="s">
+        <v>872</v>
+      </c>
+      <c r="C183" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="E183" s="58" t="s">
         <v>1212</v>
       </c>
-      <c r="F183" s="8" t="str">
+      <c r="F183" s="58" t="str">
         <f>IF(ISBLANK(E183), "", Table2[[#This Row],[unique_id]])</f>
         <v>mobile_adhoc_outlet_current_consumption</v>
       </c>
-      <c r="G183" s="8" t="s">
+      <c r="G183" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="H183" s="8" t="s">
+      <c r="H183" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="I183" s="8" t="s">
+      <c r="I183" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="M183" s="8" t="s">
+      <c r="M183" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="T183" s="8" t="s">
+      <c r="T183" s="58" t="s">
         <v>666</v>
       </c>
-      <c r="U183" s="10"/>
-      <c r="V183" s="10"/>
-      <c r="W183" s="10"/>
-      <c r="X183" s="10"/>
-      <c r="Y183" s="10"/>
-      <c r="Z183" s="8"/>
-      <c r="AA183" s="8" t="s">
+      <c r="U183" s="60"/>
+      <c r="V183" s="60"/>
+      <c r="W183" s="60"/>
+      <c r="X183" s="60"/>
+      <c r="Y183" s="60"/>
+      <c r="AA183" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="AC183" s="8" t="s">
+      <c r="AC183" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="AE183" s="10"/>
-      <c r="AG183" s="8" t="str">
+      <c r="AE183" s="60"/>
+      <c r="AG183" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AH183" s="8" t="str">
+      <c r="AH183" s="58" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK183" s="36"/>
-      <c r="AU183" s="8"/>
-      <c r="AV183" s="8"/>
-      <c r="AX183" s="8" t="str">
+      <c r="AK183" s="68"/>
+      <c r="AM183" s="60"/>
+      <c r="AX183" s="58" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -23544,67 +23548,65 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="8">
+    <row r="212" spans="1:50" s="58" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="58">
         <v>2154</v>
       </c>
-      <c r="B212" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C212" s="8" t="s">
+      <c r="B212" s="58" t="s">
+        <v>872</v>
+      </c>
+      <c r="C212" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="D212" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E212" s="8" t="s">
+      <c r="E212" s="58" t="s">
         <v>1213</v>
       </c>
-      <c r="F212" s="8" t="str">
+      <c r="F212" s="58" t="str">
         <f>IF(ISBLANK(E212), "", Table2[[#This Row],[unique_id]])</f>
         <v>mobile_adhoc_outlet_today_s_consumption</v>
       </c>
-      <c r="G212" s="8" t="s">
+      <c r="G212" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="H212" s="8" t="s">
+      <c r="H212" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="I212" s="8" t="s">
+      <c r="I212" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="M212" s="8" t="s">
+      <c r="M212" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="T212" s="8" t="s">
+      <c r="T212" s="58" t="s">
         <v>665</v>
       </c>
-      <c r="U212" s="10"/>
-      <c r="V212" s="10"/>
-      <c r="W212" s="10"/>
-      <c r="X212" s="10"/>
-      <c r="Y212" s="10"/>
-      <c r="Z212" s="8"/>
-      <c r="AA212" s="8" t="s">
+      <c r="U212" s="60"/>
+      <c r="V212" s="60"/>
+      <c r="W212" s="60"/>
+      <c r="X212" s="60"/>
+      <c r="Y212" s="60"/>
+      <c r="AA212" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="AC212" s="8" t="s">
+      <c r="AC212" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="AE212" s="10"/>
-      <c r="AG212" s="8" t="str">
+      <c r="AE212" s="60"/>
+      <c r="AG212" s="58" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AH212" s="8" t="str">
+      <c r="AH212" s="58" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AK212" s="37"/>
-      <c r="AO212" s="12"/>
-      <c r="AU212" s="8"/>
-      <c r="AV212" s="8"/>
-      <c r="AX212" s="8" t="str">
+      <c r="AK212" s="64"/>
+      <c r="AM212" s="60"/>
+      <c r="AO212" s="69"/>
+      <c r="AX212" s="58" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -27915,7 +27917,7 @@
         <v>2551</v>
       </c>
       <c r="B277" s="58" t="s">
-        <v>26</v>
+        <v>872</v>
       </c>
       <c r="C277" s="58" t="s">
         <v>252</v>
@@ -27941,6 +27943,19 @@
       </c>
       <c r="M277" s="58" t="s">
         <v>314</v>
+      </c>
+      <c r="O277" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="P277" s="58" t="s">
+        <v>1184</v>
+      </c>
+      <c r="Q277" s="58" t="s">
+        <v>791</v>
+      </c>
+      <c r="R277" s="58" t="str">
+        <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
+        <v>Mobile Power Plugs</v>
       </c>
       <c r="S277" s="67"/>
       <c r="U277" s="60"/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C808EE-7307-C741-AED4-81685FDFB870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61AE9D9-9F3A-4F4A-BE1C-0BA3E51D91C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2340" windowWidth="46020" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5594,8 +5594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D248" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D277" sqref="A277:XFD277"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D4BC2A-6C2D-FA4A-84B4-BAC4678F37F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C922FE7A-3A00-AB42-86A3-E9642678FCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1840" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5605" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5605" uniqueCount="1226">
   <si>
     <t>index</t>
   </si>
@@ -3694,6 +3694,63 @@
   </si>
   <si>
     <t>kitchen_fan_energy_daily</t>
+  </si>
+  <si>
+    <t>template_kitchen_fan_plug</t>
+  </si>
+  <si>
+    <t>template_kitchen_downlights_plug</t>
+  </si>
+  <si>
+    <t>template_deck_festoons_plug</t>
+  </si>
+  <si>
+    <t>template_landing_festoons_plug</t>
+  </si>
+  <si>
+    <t>template_bathroom_rails_plug</t>
+  </si>
+  <si>
+    <t>template_lounge_tv_outlet_plug</t>
+  </si>
+  <si>
+    <t>template_study_outlet_plug</t>
+  </si>
+  <si>
+    <t>template_office_outlet_plug</t>
+  </si>
+  <si>
+    <t>template_kitchen_dish_washer_plug</t>
+  </si>
+  <si>
+    <t>template_laundry_clothes_dryer_plug</t>
+  </si>
+  <si>
+    <t>template_laundry_washing_machine_plug</t>
+  </si>
+  <si>
+    <t>template_kitchen_coffee_machine_plug</t>
+  </si>
+  <si>
+    <t>template_kitchen_fridge_plug</t>
+  </si>
+  <si>
+    <t>template_deck_freezer_plug</t>
+  </si>
+  <si>
+    <t>template_study_battery_charger_plug_plug</t>
+  </si>
+  <si>
+    <t>template_laundry_vacuum_charger_plug</t>
+  </si>
+  <si>
+    <t>template_rack_outlet_plug</t>
+  </si>
+  <si>
+    <t>template_roof_network_switch_plug</t>
+  </si>
+  <si>
+    <t>template_rack_modem_plug</t>
   </si>
 </sst>
 </file>
@@ -3945,7 +4002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4131,37 +4188,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5569,7 +5595,7 @@
   <dimension ref="A1:AX729"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5591,7 +5617,7 @@
     <col min="16" max="16" width="21.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.5" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.83203125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="46.6640625" style="8" customWidth="1"/>
     <col min="20" max="20" width="33.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="39.83203125" style="8" customWidth="1"/>
     <col min="22" max="22" width="32.1640625" style="8" customWidth="1"/>
@@ -13889,589 +13915,606 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="65">
+    <row r="98" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="8">
         <v>1500</v>
       </c>
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="65" t="s">
+      <c r="C98" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D98" s="65" t="s">
+      <c r="D98" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E98" s="65" t="s">
+      <c r="E98" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="F98" s="65" t="str">
+      <c r="F98" s="8" t="str">
         <f>IF(ISBLANK(E98), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada_fan</v>
       </c>
-      <c r="G98" s="65" t="s">
+      <c r="G98" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H98" s="65" t="s">
+      <c r="H98" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I98" s="65" t="s">
+      <c r="I98" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J98" s="65" t="s">
+      <c r="J98" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="M98" s="65" t="s">
+      <c r="M98" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O98" s="65" t="s">
+      <c r="O98" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P98" s="65" t="s">
+      <c r="P98" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q98" s="65" t="str">
+      <c r="Q98" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Fans</v>
       </c>
-      <c r="R98" s="65" t="str">
+      <c r="R98" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Ada Fans</v>
       </c>
-      <c r="S98" s="71" t="s">
+      <c r="S98" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="U98" s="67"/>
-      <c r="V98" s="67"/>
-      <c r="W98" s="67"/>
-      <c r="X98" s="67"/>
-      <c r="Y98" s="67"/>
-      <c r="AC98" s="65" t="s">
+      <c r="T98" s="8"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="8"/>
+      <c r="AC98" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AE98" s="67"/>
-      <c r="AG98" s="65" t="str">
+      <c r="AE98" s="10"/>
+      <c r="AG98" s="8" t="str">
         <f>IF(ISBLANK(AF98),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C98), "/", E98, "/config"))</f>
         <v/>
       </c>
-      <c r="AH98" s="65" t="str">
+      <c r="AH98" s="8" t="str">
         <f>IF(ISBLANK(AF98),  "", _xlfn.CONCAT(LOWER(C98), "/", E98))</f>
         <v/>
       </c>
-      <c r="AK98" s="68"/>
-      <c r="AL98" s="65" t="str">
+      <c r="AK98" s="37"/>
+      <c r="AL98" s="8" t="str">
         <f>IF(OR(ISBLANK(AT98), ISBLANK(AU98)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>senseme-ada-fan</v>
       </c>
-      <c r="AM98" s="67" t="s">
+      <c r="AM98" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="AN98" s="65" t="s">
+      <c r="AN98" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AO98" s="65" t="s">
+      <c r="AO98" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="AP98" s="65" t="str">
+      <c r="AP98" s="8" t="str">
         <f>IF(OR(ISBLANK(AT98), ISBLANK(AU98)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>SenseMe</v>
       </c>
-      <c r="AQ98" s="65" t="s">
+      <c r="AQ98" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AS98" s="65" t="s">
+      <c r="AS98" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT98" s="65" t="s">
+      <c r="AT98" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="AU98" s="65" t="s">
+      <c r="AU98" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="AX98" s="65" t="str">
+      <c r="AV98" s="8"/>
+      <c r="AX98" s="8" t="str">
         <f>IF(AND(ISBLANK(AT98), ISBLANK(AU98)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT98), "", _xlfn.CONCAT("[""mac"", """, AT98, """]")), IF(ISBLANK(AU98), "", _xlfn.CONCAT(", [""ip"", """, AU98, """]")), "]"))</f>
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="65">
+    <row r="99" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="8">
         <v>1501</v>
       </c>
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="65" t="s">
+      <c r="C99" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D99" s="65" t="s">
+      <c r="D99" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E99" s="65" t="s">
+      <c r="E99" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="F99" s="65" t="str">
+      <c r="F99" s="8" t="str">
         <f>IF(ISBLANK(E99), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_fan</v>
       </c>
-      <c r="G99" s="65" t="s">
+      <c r="G99" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H99" s="65" t="s">
+      <c r="H99" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I99" s="65" t="s">
+      <c r="I99" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J99" s="65" t="s">
+      <c r="J99" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="M99" s="65" t="s">
+      <c r="M99" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O99" s="65" t="s">
+      <c r="O99" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P99" s="65" t="s">
+      <c r="P99" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q99" s="65" t="str">
+      <c r="Q99" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Fans</v>
       </c>
-      <c r="R99" s="65" t="str">
+      <c r="R99" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Edwin Fans</v>
       </c>
-      <c r="S99" s="71" t="s">
+      <c r="S99" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="U99" s="67"/>
-      <c r="V99" s="67"/>
-      <c r="W99" s="67"/>
-      <c r="X99" s="67"/>
-      <c r="Y99" s="67"/>
-      <c r="AC99" s="65" t="s">
+      <c r="T99" s="8"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="8"/>
+      <c r="AC99" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AE99" s="67"/>
-      <c r="AG99" s="65" t="str">
+      <c r="AE99" s="10"/>
+      <c r="AG99" s="8" t="str">
         <f>IF(ISBLANK(AF99),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C99), "/", E99, "/config"))</f>
         <v/>
       </c>
-      <c r="AH99" s="65" t="str">
+      <c r="AH99" s="8" t="str">
         <f>IF(ISBLANK(AF99),  "", _xlfn.CONCAT(LOWER(C99), "/", E99))</f>
         <v/>
       </c>
-      <c r="AK99" s="68"/>
-      <c r="AL99" s="65" t="str">
+      <c r="AK99" s="37"/>
+      <c r="AL99" s="8" t="str">
         <f>IF(OR(ISBLANK(AT99), ISBLANK(AU99)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>senseme-edwin-fan</v>
       </c>
-      <c r="AM99" s="67" t="s">
+      <c r="AM99" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="AN99" s="65" t="s">
+      <c r="AN99" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AO99" s="65" t="s">
+      <c r="AO99" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="AP99" s="65" t="str">
+      <c r="AP99" s="8" t="str">
         <f>IF(OR(ISBLANK(AT99), ISBLANK(AU99)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>SenseMe</v>
       </c>
-      <c r="AQ99" s="65" t="s">
+      <c r="AQ99" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AS99" s="65" t="s">
+      <c r="AS99" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT99" s="65" t="s">
+      <c r="AT99" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="AU99" s="65" t="s">
+      <c r="AU99" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="AX99" s="65" t="str">
+      <c r="AV99" s="8"/>
+      <c r="AX99" s="8" t="str">
         <f>IF(AND(ISBLANK(AT99), ISBLANK(AU99)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT99), "", _xlfn.CONCAT("[""mac"", """, AT99, """]")), IF(ISBLANK(AU99), "", _xlfn.CONCAT(", [""ip"", """, AU99, """]")), "]"))</f>
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="100" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="65">
+    <row r="100" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="8">
         <v>1502</v>
       </c>
-      <c r="B100" s="65" t="s">
+      <c r="B100" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="65" t="s">
+      <c r="C100" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D100" s="65" t="s">
+      <c r="D100" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E100" s="65" t="s">
+      <c r="E100" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F100" s="65" t="str">
+      <c r="F100" s="8" t="str">
         <f>IF(ISBLANK(E100), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_fan</v>
       </c>
-      <c r="G100" s="65" t="s">
+      <c r="G100" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H100" s="65" t="s">
+      <c r="H100" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I100" s="65" t="s">
+      <c r="I100" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J100" s="65" t="s">
+      <c r="J100" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="M100" s="65" t="s">
+      <c r="M100" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O100" s="65" t="s">
+      <c r="O100" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P100" s="65" t="s">
+      <c r="P100" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q100" s="65" t="str">
+      <c r="Q100" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Fans</v>
       </c>
-      <c r="R100" s="65" t="str">
+      <c r="R100" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Parents Fans</v>
       </c>
-      <c r="S100" s="71" t="s">
+      <c r="S100" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="U100" s="67"/>
-      <c r="V100" s="67"/>
-      <c r="W100" s="67"/>
-      <c r="X100" s="67"/>
-      <c r="Y100" s="67"/>
-      <c r="AC100" s="65" t="s">
+      <c r="T100" s="8"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="8"/>
+      <c r="AC100" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AE100" s="67"/>
-      <c r="AG100" s="65" t="str">
+      <c r="AE100" s="10"/>
+      <c r="AG100" s="8" t="str">
         <f>IF(ISBLANK(AF100),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C100), "/", E100, "/config"))</f>
         <v/>
       </c>
-      <c r="AH100" s="65" t="str">
+      <c r="AH100" s="8" t="str">
         <f>IF(ISBLANK(AF100),  "", _xlfn.CONCAT(LOWER(C100), "/", E100))</f>
         <v/>
       </c>
-      <c r="AK100" s="68"/>
-      <c r="AL100" s="65" t="str">
+      <c r="AK100" s="37"/>
+      <c r="AL100" s="8" t="str">
         <f>IF(OR(ISBLANK(AT100), ISBLANK(AU100)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>senseme-parents-fan</v>
       </c>
-      <c r="AM100" s="67" t="s">
+      <c r="AM100" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="AN100" s="65" t="s">
+      <c r="AN100" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AO100" s="65" t="s">
+      <c r="AO100" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="AP100" s="65" t="str">
+      <c r="AP100" s="8" t="str">
         <f>IF(OR(ISBLANK(AT100), ISBLANK(AU100)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>SenseMe</v>
       </c>
-      <c r="AQ100" s="65" t="s">
+      <c r="AQ100" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="AS100" s="65" t="s">
+      <c r="AS100" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT100" s="65" t="s">
+      <c r="AT100" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="AU100" s="65" t="s">
+      <c r="AU100" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="AX100" s="65" t="str">
+      <c r="AV100" s="8"/>
+      <c r="AX100" s="8" t="str">
         <f>IF(AND(ISBLANK(AT100), ISBLANK(AU100)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT100), "", _xlfn.CONCAT("[""mac"", """, AT100, """]")), IF(ISBLANK(AU100), "", _xlfn.CONCAT(", [""ip"", """, AU100, """]")), "]"))</f>
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="65">
+    <row r="101" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="8">
         <v>1503</v>
       </c>
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="65" t="s">
+      <c r="C101" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D101" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="F101" s="65" t="str">
+      <c r="D101" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F101" s="8" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fan</v>
-      </c>
-      <c r="G101" s="65" t="s">
+        <v>template_kitchen_fan_plug</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H101" s="65" t="s">
+      <c r="H101" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I101" s="65" t="s">
+      <c r="I101" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O101" s="65" t="s">
+      <c r="O101" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P101" s="65" t="s">
+      <c r="P101" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q101" s="65" t="str">
+      <c r="Q101" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Fans</v>
       </c>
-      <c r="R101" s="65" t="str">
+      <c r="R101" s="8" t="str">
         <f>R102</f>
         <v>Kitchen Fans</v>
       </c>
-      <c r="S101" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO102, CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
+      <c r="S101" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 1.54", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 2.19", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 1.54
+unavailable_power: 0
+fixed:
+  power: 2.19
 </v>
       </c>
-      <c r="U101" s="67"/>
-      <c r="V101" s="67"/>
-      <c r="W101" s="67"/>
-      <c r="X101" s="67"/>
-      <c r="Y101" s="67"/>
-      <c r="AE101" s="67"/>
-      <c r="AK101" s="68"/>
-      <c r="AM101" s="67"/>
-      <c r="AT101" s="72"/>
-      <c r="AU101" s="72"/>
-      <c r="AV101" s="72"/>
-      <c r="AW101" s="72"/>
-    </row>
-    <row r="102" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="65">
+      <c r="T101" s="8"/>
+      <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="8"/>
+      <c r="AE101" s="10"/>
+      <c r="AK101" s="37"/>
+      <c r="AT101" s="9"/>
+      <c r="AU101" s="9"/>
+      <c r="AV101" s="9"/>
+      <c r="AW101" s="9"/>
+    </row>
+    <row r="102" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="8">
         <v>1504</v>
       </c>
-      <c r="B102" s="65" t="s">
+      <c r="B102" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="65" t="s">
+      <c r="C102" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D102" s="65" t="s">
+      <c r="D102" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E102" s="65" t="s">
+      <c r="E102" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F102" s="65" t="str">
+      <c r="F102" s="8" t="str">
         <f>IF(ISBLANK(E102), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_fan</v>
       </c>
-      <c r="G102" s="65" t="s">
+      <c r="G102" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H102" s="65" t="s">
+      <c r="H102" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I102" s="65" t="s">
+      <c r="I102" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J102" s="65" t="s">
+      <c r="J102" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="M102" s="65" t="s">
+      <c r="M102" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O102" s="65" t="s">
+      <c r="O102" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P102" s="65" t="s">
+      <c r="P102" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q102" s="65" t="str">
+      <c r="Q102" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Fans</v>
       </c>
-      <c r="R102" s="65" t="str">
+      <c r="R102" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Kitchen Fans</v>
       </c>
-      <c r="S102" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
-power_sensor_id: sensor.kitchen_fan_current_consumption
+      <c r="S102" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.kitchen_fan_current_consumption
 energy_sensor_id: sensor.kitchen_fan_total_consumption
 </v>
       </c>
-      <c r="U102" s="67"/>
-      <c r="V102" s="67"/>
-      <c r="W102" s="67"/>
-      <c r="X102" s="67"/>
-      <c r="Y102" s="67"/>
-      <c r="AC102" s="65" t="s">
+      <c r="T102" s="8"/>
+      <c r="U102" s="10"/>
+      <c r="V102" s="10"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="10"/>
+      <c r="Z102" s="8"/>
+      <c r="AC102" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AE102" s="67"/>
-      <c r="AG102" s="65" t="str">
+      <c r="AE102" s="10"/>
+      <c r="AG102" s="8" t="str">
         <f>IF(ISBLANK(AF102),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C102), "/", E102, "/config"))</f>
         <v/>
       </c>
-      <c r="AH102" s="65" t="str">
+      <c r="AH102" s="8" t="str">
         <f>IF(ISBLANK(AF102),  "", _xlfn.CONCAT(LOWER(C102), "/", E102))</f>
         <v/>
       </c>
-      <c r="AK102" s="68"/>
-      <c r="AL102" s="65" t="str">
+      <c r="AK102" s="37"/>
+      <c r="AL102" s="8" t="str">
         <f>IF(OR(ISBLANK(AT102), ISBLANK(AU102)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-kitchen-fan</v>
       </c>
-      <c r="AM102" s="67" t="s">
+      <c r="AM102" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AN102" s="65" t="s">
+      <c r="AN102" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AO102" s="65" t="s">
+      <c r="AO102" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="AP102" s="65" t="str">
+      <c r="AP102" s="8" t="str">
         <f>IF(OR(ISBLANK(AT102), ISBLANK(AU102)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ102" s="65" t="s">
+      <c r="AQ102" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AS102" s="65" t="s">
+      <c r="AS102" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT102" s="72" t="s">
+      <c r="AT102" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="AU102" s="72" t="s">
+      <c r="AU102" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="AV102" s="72"/>
-      <c r="AW102" s="72"/>
-      <c r="AX102" s="65" t="str">
+      <c r="AV102" s="9"/>
+      <c r="AW102" s="9"/>
+      <c r="AX102" s="8" t="str">
         <f>IF(AND(ISBLANK(AT102), ISBLANK(AU102)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT102), "", _xlfn.CONCAT("[""mac"", """, AT102, """]")), IF(ISBLANK(AU102), "", _xlfn.CONCAT(", [""ip"", """, AU102, """]")), "]"))</f>
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="103" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="65">
+    <row r="103" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="8">
         <v>1505</v>
       </c>
-      <c r="B103" s="65" t="s">
+      <c r="B103" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="65" t="s">
+      <c r="C103" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D103" s="65" t="s">
+      <c r="D103" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E103" s="65" t="s">
+      <c r="E103" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="F103" s="65" t="str">
+      <c r="F103" s="8" t="str">
         <f>IF(ISBLANK(E103), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_fan</v>
       </c>
-      <c r="G103" s="65" t="s">
+      <c r="G103" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="H103" s="65" t="s">
+      <c r="H103" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I103" s="65" t="s">
+      <c r="I103" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J103" s="65" t="s">
+      <c r="J103" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="M103" s="65" t="s">
+      <c r="M103" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O103" s="65" t="s">
+      <c r="O103" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P103" s="65" t="s">
+      <c r="P103" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q103" s="65" t="str">
+      <c r="Q103" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Fans</v>
       </c>
-      <c r="R103" s="65" t="str">
+      <c r="R103" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Lounge Fans</v>
       </c>
-      <c r="S103" s="71" t="s">
+      <c r="S103" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="U103" s="67"/>
-      <c r="V103" s="67"/>
-      <c r="W103" s="67"/>
-      <c r="X103" s="67"/>
-      <c r="Y103" s="67"/>
-      <c r="AC103" s="65" t="s">
+      <c r="T103" s="8"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="8"/>
+      <c r="AC103" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AE103" s="67"/>
-      <c r="AG103" s="65" t="str">
+      <c r="AE103" s="10"/>
+      <c r="AG103" s="8" t="str">
         <f>IF(ISBLANK(AF103),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C103), "/", E103, "/config"))</f>
         <v/>
       </c>
-      <c r="AH103" s="65" t="str">
+      <c r="AH103" s="8" t="str">
         <f>IF(ISBLANK(AF103),  "", _xlfn.CONCAT(LOWER(C103), "/", E103))</f>
         <v/>
       </c>
-      <c r="AK103" s="68"/>
-      <c r="AL103" s="65" t="str">
+      <c r="AK103" s="37"/>
+      <c r="AL103" s="8" t="str">
         <f>IF(OR(ISBLANK(AT103), ISBLANK(AU103)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>senseme-lounge-fan</v>
       </c>
-      <c r="AM103" s="67" t="s">
+      <c r="AM103" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="AN103" s="65" t="s">
+      <c r="AN103" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AO103" s="65" t="s">
+      <c r="AO103" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="AP103" s="65" t="str">
+      <c r="AP103" s="8" t="str">
         <f>IF(OR(ISBLANK(AT103), ISBLANK(AU103)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>SenseMe</v>
       </c>
-      <c r="AQ103" s="65" t="s">
+      <c r="AQ103" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AS103" s="65" t="s">
+      <c r="AS103" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT103" s="65" t="s">
+      <c r="AT103" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="AU103" s="65" t="s">
+      <c r="AU103" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="AX103" s="65" t="str">
+      <c r="AV103" s="8"/>
+      <c r="AX103" s="8" t="str">
         <f>IF(AND(ISBLANK(AT103), ISBLANK(AU103)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT103), "", _xlfn.CONCAT("[""mac"", """, AT103, """]")), IF(ISBLANK(AU103), "", _xlfn.CONCAT(", [""ip"", """, AU103, """]")), "]"))</f>
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
@@ -14541,200 +14584,205 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="65">
+    <row r="105" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="8">
         <v>1507</v>
       </c>
-      <c r="B105" s="65" t="s">
+      <c r="B105" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D105" s="65" t="s">
+      <c r="D105" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E105" s="65" t="s">
+      <c r="E105" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="F105" s="65" t="str">
+      <c r="F105" s="8" t="str">
         <f>IF(ISBLANK(E105), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_east_fan</v>
       </c>
-      <c r="G105" s="65" t="s">
+      <c r="G105" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="H105" s="65" t="s">
+      <c r="H105" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I105" s="65" t="s">
+      <c r="I105" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O105" s="65" t="s">
+      <c r="O105" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P105" s="65" t="s">
+      <c r="P105" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q105" s="65" t="str">
+      <c r="Q105" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Fans</v>
       </c>
-      <c r="R105" s="65" t="str">
+      <c r="R105" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Deck Fans</v>
       </c>
-      <c r="S105" s="71" t="s">
+      <c r="S105" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="U105" s="67"/>
-      <c r="V105" s="67"/>
-      <c r="W105" s="67"/>
-      <c r="X105" s="67"/>
-      <c r="Y105" s="67"/>
-      <c r="AC105" s="65" t="s">
+      <c r="T105" s="8"/>
+      <c r="U105" s="10"/>
+      <c r="V105" s="10"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="10"/>
+      <c r="Z105" s="8"/>
+      <c r="AC105" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AE105" s="67"/>
-      <c r="AG105" s="65" t="str">
+      <c r="AE105" s="10"/>
+      <c r="AG105" s="8" t="str">
         <f>IF(ISBLANK(AF105),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C105), "/", E105, "/config"))</f>
         <v/>
       </c>
-      <c r="AH105" s="65" t="str">
+      <c r="AH105" s="8" t="str">
         <f>IF(ISBLANK(AF105),  "", _xlfn.CONCAT(LOWER(C105), "/", E105))</f>
         <v/>
       </c>
-      <c r="AK105" s="68"/>
-      <c r="AL105" s="65" t="str">
+      <c r="AK105" s="37"/>
+      <c r="AL105" s="8" t="str">
         <f>IF(OR(ISBLANK(AT105), ISBLANK(AU105)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>senseme-deck-east-fan</v>
       </c>
-      <c r="AM105" s="67" t="s">
+      <c r="AM105" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="AN105" s="65" t="s">
+      <c r="AN105" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="AO105" s="65" t="s">
+      <c r="AO105" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="AP105" s="65" t="str">
+      <c r="AP105" s="8" t="str">
         <f>IF(OR(ISBLANK(AT105), ISBLANK(AU105)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>SenseMe</v>
       </c>
-      <c r="AQ105" s="65" t="s">
+      <c r="AQ105" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="AS105" s="65" t="s">
+      <c r="AS105" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT105" s="65" t="s">
+      <c r="AT105" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="AU105" s="65" t="s">
+      <c r="AU105" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="AX105" s="65" t="str">
+      <c r="AV105" s="8"/>
+      <c r="AX105" s="8" t="str">
         <f>IF(AND(ISBLANK(AT105), ISBLANK(AU105)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT105), "", _xlfn.CONCAT("[""mac"", """, AT105, """]")), IF(ISBLANK(AU105), "", _xlfn.CONCAT(", [""ip"", """, AU105, """]")), "]"))</f>
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="65">
+    <row r="106" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="8">
         <v>1508</v>
       </c>
-      <c r="B106" s="65" t="s">
+      <c r="B106" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="65" t="s">
+      <c r="C106" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D106" s="65" t="s">
+      <c r="D106" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E106" s="65" t="s">
+      <c r="E106" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="F106" s="65" t="str">
+      <c r="F106" s="8" t="str">
         <f>IF(ISBLANK(E106), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_west_fan</v>
       </c>
-      <c r="G106" s="65" t="s">
+      <c r="G106" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H106" s="65" t="s">
+      <c r="H106" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I106" s="65" t="s">
+      <c r="I106" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O106" s="65" t="s">
+      <c r="O106" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P106" s="65" t="s">
+      <c r="P106" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q106" s="65" t="str">
+      <c r="Q106" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Fans</v>
       </c>
-      <c r="R106" s="65" t="str">
+      <c r="R106" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Deck Fans</v>
       </c>
-      <c r="S106" s="71" t="s">
+      <c r="S106" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="U106" s="67"/>
-      <c r="V106" s="67"/>
-      <c r="W106" s="67"/>
-      <c r="X106" s="67"/>
-      <c r="Y106" s="67"/>
-      <c r="AC106" s="65" t="s">
+      <c r="T106" s="8"/>
+      <c r="U106" s="10"/>
+      <c r="V106" s="10"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="10"/>
+      <c r="Z106" s="8"/>
+      <c r="AC106" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AE106" s="67"/>
-      <c r="AG106" s="65" t="str">
+      <c r="AE106" s="10"/>
+      <c r="AG106" s="8" t="str">
         <f>IF(ISBLANK(AF106),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C106), "/", E106, "/config"))</f>
         <v/>
       </c>
-      <c r="AH106" s="65" t="str">
+      <c r="AH106" s="8" t="str">
         <f>IF(ISBLANK(AF106),  "", _xlfn.CONCAT(LOWER(C106), "/", E106))</f>
         <v/>
       </c>
-      <c r="AK106" s="68"/>
-      <c r="AL106" s="65" t="str">
+      <c r="AK106" s="37"/>
+      <c r="AL106" s="8" t="str">
         <f>IF(OR(ISBLANK(AT106), ISBLANK(AU106)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>senseme-deck-west-fan</v>
       </c>
-      <c r="AM106" s="67" t="s">
+      <c r="AM106" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="AN106" s="65" t="s">
+      <c r="AN106" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="AO106" s="65" t="s">
+      <c r="AO106" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="AP106" s="65" t="str">
+      <c r="AP106" s="8" t="str">
         <f>IF(OR(ISBLANK(AT106), ISBLANK(AU106)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>SenseMe</v>
       </c>
-      <c r="AQ106" s="65" t="s">
+      <c r="AQ106" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="AS106" s="65" t="s">
+      <c r="AS106" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT106" s="65" t="s">
+      <c r="AT106" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="AU106" s="69" t="s">
+      <c r="AU106" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="AV106" s="69"/>
-      <c r="AW106" s="69"/>
-      <c r="AX106" s="65" t="str">
+      <c r="AV106" s="14"/>
+      <c r="AW106" s="14"/>
+      <c r="AX106" s="8" t="str">
         <f>IF(AND(ISBLANK(AT106), ISBLANK(AU106)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT106), "", _xlfn.CONCAT("[""mac"", """, AT106, """]")), IF(ISBLANK(AU106), "", _xlfn.CONCAT(", [""ip"", """, AU106, """]")), "]"))</f>
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
@@ -14799,81 +14847,84 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="65">
+    <row r="108" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="8">
         <v>1600</v>
       </c>
-      <c r="B108" s="65" t="s">
+      <c r="B108" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="65" t="s">
+      <c r="C108" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D108" s="65" t="s">
+      <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="65" t="s">
+      <c r="E108" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="F108" s="65" t="str">
+      <c r="F108" s="8" t="str">
         <f>IF(ISBLANK(E108), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada_fan</v>
       </c>
-      <c r="G108" s="65" t="s">
+      <c r="G108" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="H108" s="65" t="s">
+      <c r="H108" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I108" s="65" t="s">
+      <c r="I108" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J108" s="65" t="s">
+      <c r="J108" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="M108" s="65" t="s">
+      <c r="M108" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O108" s="65" t="s">
+      <c r="O108" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P108" s="65" t="s">
+      <c r="P108" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q108" s="65" t="str">
+      <c r="Q108" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Lights</v>
       </c>
-      <c r="R108" s="65" t="str">
+      <c r="R108" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Ada Lights</v>
       </c>
-      <c r="S108" s="71" t="s">
+      <c r="S108" s="11" t="s">
         <v>1162</v>
       </c>
-      <c r="U108" s="67"/>
-      <c r="V108" s="67"/>
-      <c r="W108" s="67"/>
-      <c r="X108" s="67"/>
-      <c r="Y108" s="67"/>
-      <c r="AC108" s="65" t="s">
+      <c r="T108" s="8"/>
+      <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="10"/>
+      <c r="Z108" s="8"/>
+      <c r="AC108" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="AE108" s="67"/>
-      <c r="AG108" s="65" t="str">
+      <c r="AE108" s="10"/>
+      <c r="AG108" s="8" t="str">
         <f>IF(ISBLANK(AF108),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C108), "/", E108, "/config"))</f>
         <v/>
       </c>
-      <c r="AH108" s="65" t="str">
+      <c r="AH108" s="8" t="str">
         <f>IF(ISBLANK(AF108),  "", _xlfn.CONCAT(LOWER(C108), "/", E108))</f>
         <v/>
       </c>
-      <c r="AK108" s="68"/>
-      <c r="AM108" s="67"/>
-      <c r="AQ108" s="65" t="s">
+      <c r="AK108" s="37"/>
+      <c r="AQ108" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AX108" s="65" t="str">
+      <c r="AU108" s="8"/>
+      <c r="AV108" s="8"/>
+      <c r="AX108" s="8" t="str">
         <f>IF(AND(ISBLANK(AT108), ISBLANK(AU108)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT108), "", _xlfn.CONCAT("[""mac"", """, AT108, """]")), IF(ISBLANK(AU108), "", _xlfn.CONCAT(", [""ip"", """, AU108, """]")), "]"))</f>
         <v/>
       </c>
@@ -15270,81 +15321,84 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="113" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="65">
+    <row r="113" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="8">
         <v>1605</v>
       </c>
-      <c r="B113" s="65" t="s">
+      <c r="B113" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="65" t="s">
+      <c r="C113" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D113" s="65" t="s">
+      <c r="D113" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E113" s="65" t="s">
+      <c r="E113" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="F113" s="65" t="str">
+      <c r="F113" s="8" t="str">
         <f>IF(ISBLANK(E113), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_fan</v>
       </c>
-      <c r="G113" s="65" t="s">
+      <c r="G113" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="H113" s="65" t="s">
+      <c r="H113" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I113" s="65" t="s">
+      <c r="I113" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J113" s="65" t="s">
+      <c r="J113" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="M113" s="65" t="s">
+      <c r="M113" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O113" s="65" t="s">
+      <c r="O113" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P113" s="65" t="s">
+      <c r="P113" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q113" s="65" t="str">
+      <c r="Q113" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Lights</v>
       </c>
-      <c r="R113" s="65" t="str">
+      <c r="R113" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Edwin Lights</v>
       </c>
-      <c r="S113" s="71" t="s">
+      <c r="S113" s="11" t="s">
         <v>1163</v>
       </c>
-      <c r="U113" s="67"/>
-      <c r="V113" s="67"/>
-      <c r="W113" s="67"/>
-      <c r="X113" s="67"/>
-      <c r="Y113" s="67"/>
-      <c r="AC113" s="65" t="s">
+      <c r="T113" s="8"/>
+      <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="10"/>
+      <c r="Z113" s="8"/>
+      <c r="AC113" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="AE113" s="67"/>
-      <c r="AG113" s="65" t="str">
+      <c r="AE113" s="10"/>
+      <c r="AG113" s="8" t="str">
         <f>IF(ISBLANK(AF113),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C113), "/", E113, "/config"))</f>
         <v/>
       </c>
-      <c r="AH113" s="65" t="str">
+      <c r="AH113" s="8" t="str">
         <f>IF(ISBLANK(AF113),  "", _xlfn.CONCAT(LOWER(C113), "/", E113))</f>
         <v/>
       </c>
-      <c r="AK113" s="68"/>
-      <c r="AM113" s="67"/>
-      <c r="AQ113" s="65" t="s">
+      <c r="AK113" s="37"/>
+      <c r="AQ113" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AX113" s="65" t="str">
+      <c r="AU113" s="8"/>
+      <c r="AV113" s="8"/>
+      <c r="AX113" s="8" t="str">
         <f>IF(AND(ISBLANK(AT113), ISBLANK(AU113)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT113), "", _xlfn.CONCAT("[""mac"", """, AT113, """]")), IF(ISBLANK(AU113), "", _xlfn.CONCAT(", [""ip"", """, AU113, """]")), "]"))</f>
         <v/>
       </c>
@@ -17065,84 +17119,87 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="132" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="65">
+    <row r="132" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="8">
         <v>1624</v>
       </c>
-      <c r="B132" s="65" t="s">
+      <c r="B132" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C132" s="65" t="s">
+      <c r="C132" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D132" s="65" t="s">
+      <c r="D132" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E132" s="65" t="s">
+      <c r="E132" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="F132" s="65" t="str">
+      <c r="F132" s="8" t="str">
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_fan</v>
       </c>
-      <c r="G132" s="65" t="s">
+      <c r="G132" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="H132" s="65" t="s">
+      <c r="H132" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I132" s="65" t="s">
+      <c r="I132" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J132" s="65" t="s">
+      <c r="J132" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="M132" s="65" t="s">
+      <c r="M132" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O132" s="65" t="s">
+      <c r="O132" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P132" s="65" t="s">
+      <c r="P132" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q132" s="65" t="str">
+      <c r="Q132" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Lights</v>
       </c>
-      <c r="R132" s="65" t="str">
+      <c r="R132" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Lounge Lights</v>
       </c>
-      <c r="S132" s="71" t="s">
+      <c r="S132" s="11" t="s">
         <v>1164</v>
       </c>
-      <c r="U132" s="67"/>
-      <c r="V132" s="67"/>
-      <c r="W132" s="67"/>
-      <c r="X132" s="67"/>
-      <c r="Y132" s="67"/>
-      <c r="AC132" s="65" t="s">
+      <c r="T132" s="8"/>
+      <c r="U132" s="10"/>
+      <c r="V132" s="10"/>
+      <c r="W132" s="10"/>
+      <c r="X132" s="10"/>
+      <c r="Y132" s="10"/>
+      <c r="Z132" s="8"/>
+      <c r="AC132" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="AE132" s="67"/>
-      <c r="AG132" s="65" t="str">
+      <c r="AE132" s="10"/>
+      <c r="AG132" s="8" t="str">
         <f>IF(ISBLANK(AF132),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C132), "/", E132, "/config"))</f>
         <v/>
       </c>
-      <c r="AH132" s="65" t="str">
+      <c r="AH132" s="8" t="str">
         <f>IF(ISBLANK(AF132),  "", _xlfn.CONCAT(LOWER(C132), "/", E132))</f>
         <v/>
       </c>
-      <c r="AK132" s="68"/>
-      <c r="AM132" s="67"/>
-      <c r="AQ132" s="65" t="s">
+      <c r="AK132" s="37"/>
+      <c r="AQ132" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AR132" s="65" t="s">
+      <c r="AR132" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="AX132" s="65" t="str">
+      <c r="AU132" s="8"/>
+      <c r="AV132" s="8"/>
+      <c r="AX132" s="8" t="str">
         <f>IF(AND(ISBLANK(AT132), ISBLANK(AU132)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT132), "", _xlfn.CONCAT("[""mac"", """, AT132, """]")), IF(ISBLANK(AU132), "", _xlfn.CONCAT(", [""ip"", """, AU132, """]")), "]"))</f>
         <v/>
       </c>
@@ -18395,179 +18452,187 @@
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="146" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="65">
+    <row r="146" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="8">
         <v>1638</v>
       </c>
-      <c r="B146" s="65" t="s">
+      <c r="B146" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C146" s="65" t="s">
+      <c r="C146" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D146" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E146" s="65" t="s">
-        <v>836</v>
-      </c>
-      <c r="F146" s="65" t="str">
+      <c r="D146" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F146" s="8" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_downlights</v>
-      </c>
-      <c r="G146" s="65" t="s">
+        <v>template_kitchen_downlights_plug</v>
+      </c>
+      <c r="G146" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="H146" s="65" t="s">
+      <c r="H146" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I146" s="65" t="s">
+      <c r="I146" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O146" s="65" t="s">
+      <c r="O146" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P146" s="65" t="s">
+      <c r="P146" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q146" s="65" t="str">
+      <c r="Q146" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Lights</v>
       </c>
-      <c r="R146" s="65" t="str">
+      <c r="R146" s="8" t="str">
         <f>R147</f>
         <v>Kitchen Lights</v>
       </c>
-      <c r="S146" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO147, CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
+      <c r="S146" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 1.54", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 2.19", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 1.54
+unavailable_power: 0
+fixed:
+  power: 2.19
 </v>
       </c>
-      <c r="U146" s="67"/>
-      <c r="V146" s="67"/>
-      <c r="W146" s="67"/>
-      <c r="X146" s="67"/>
-      <c r="Y146" s="67"/>
-      <c r="AE146" s="67"/>
-      <c r="AG146" s="65" t="str">
+      <c r="T146" s="8"/>
+      <c r="U146" s="10"/>
+      <c r="V146" s="10"/>
+      <c r="W146" s="10"/>
+      <c r="X146" s="10"/>
+      <c r="Y146" s="10"/>
+      <c r="Z146" s="8"/>
+      <c r="AE146" s="10"/>
+      <c r="AG146" s="8" t="str">
         <f>IF(ISBLANK(AF146),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C146), "/", E146, "/config"))</f>
         <v/>
       </c>
-      <c r="AH146" s="65" t="str">
+      <c r="AH146" s="8" t="str">
         <f>IF(ISBLANK(AF146),  "", _xlfn.CONCAT(LOWER(C146), "/", E146))</f>
         <v/>
       </c>
-      <c r="AK146" s="68"/>
-      <c r="AM146" s="67"/>
-      <c r="AX146" s="66" t="str">
+      <c r="AK146" s="37"/>
+      <c r="AU146" s="8"/>
+      <c r="AV146" s="8"/>
+      <c r="AX146" s="8" t="str">
         <f>IF(AND(ISBLANK(AT146), ISBLANK(AU146)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT146), "", _xlfn.CONCAT("[""mac"", """, AT146, """]")), IF(ISBLANK(AU146), "", _xlfn.CONCAT(", [""ip"", """, AU146, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="65">
+    <row r="147" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="8">
         <v>1639</v>
       </c>
-      <c r="B147" s="65" t="s">
+      <c r="B147" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C147" s="65" t="s">
+      <c r="C147" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D147" s="65" t="s">
+      <c r="D147" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E147" s="65" t="s">
+      <c r="E147" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="F147" s="65" t="str">
+      <c r="F147" s="8" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_downlights</v>
       </c>
-      <c r="G147" s="65" t="s">
+      <c r="G147" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="H147" s="65" t="s">
+      <c r="H147" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I147" s="65" t="s">
+      <c r="I147" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J147" s="65" t="s">
+      <c r="J147" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="M147" s="65" t="s">
+      <c r="M147" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O147" s="65" t="s">
+      <c r="O147" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P147" s="65" t="s">
+      <c r="P147" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q147" s="65" t="str">
+      <c r="Q147" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Lights</v>
       </c>
-      <c r="R147" s="65" t="str">
+      <c r="R147" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Kitchen Lights</v>
       </c>
-      <c r="S147" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
-power_sensor_id: sensor.kitchen_downlights_current_consumption
+      <c r="S147" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.kitchen_downlights_current_consumption
 energy_sensor_id: sensor.kitchen_downlights_total_consumption
 </v>
       </c>
-      <c r="U147" s="67"/>
-      <c r="V147" s="67"/>
-      <c r="W147" s="67"/>
-      <c r="X147" s="67"/>
-      <c r="Y147" s="67"/>
-      <c r="AC147" s="65" t="s">
+      <c r="T147" s="8"/>
+      <c r="U147" s="10"/>
+      <c r="V147" s="10"/>
+      <c r="W147" s="10"/>
+      <c r="X147" s="10"/>
+      <c r="Y147" s="10"/>
+      <c r="Z147" s="8"/>
+      <c r="AC147" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="AE147" s="67"/>
-      <c r="AG147" s="65" t="str">
+      <c r="AE147" s="10"/>
+      <c r="AG147" s="8" t="str">
         <f>IF(ISBLANK(AF147),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C147), "/", E147, "/config"))</f>
         <v/>
       </c>
-      <c r="AH147" s="65" t="str">
+      <c r="AH147" s="8" t="str">
         <f>IF(ISBLANK(AF147),  "", _xlfn.CONCAT(LOWER(C147), "/", E147))</f>
         <v/>
       </c>
-      <c r="AK147" s="68"/>
-      <c r="AL147" s="65" t="str">
+      <c r="AK147" s="37"/>
+      <c r="AL147" s="8" t="str">
         <f>IF(OR(ISBLANK(AT147), ISBLANK(AU147)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-kitchen-downlights</v>
       </c>
-      <c r="AM147" s="67" t="s">
+      <c r="AM147" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AN147" s="65" t="s">
+      <c r="AN147" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="AO147" s="65" t="s">
+      <c r="AO147" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="AP147" s="65" t="str">
+      <c r="AP147" s="8" t="str">
         <f>IF(OR(ISBLANK(AT147), ISBLANK(AU147)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ147" s="65" t="s">
+      <c r="AQ147" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AS147" s="65" t="s">
+      <c r="AS147" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT147" s="65" t="s">
+      <c r="AT147" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="AU147" s="65" t="s">
+      <c r="AU147" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="AX147" s="65" t="str">
+      <c r="AV147" s="8"/>
+      <c r="AX147" s="8" t="str">
         <f>IF(AND(ISBLANK(AT147), ISBLANK(AU147)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT147), "", _xlfn.CONCAT("[""mac"", """, AT147, """]")), IF(ISBLANK(AU147), "", _xlfn.CONCAT(", [""ip"", """, AU147, """]")), "]"))</f>
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
@@ -19709,356 +19774,372 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="160" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="65">
+    <row r="160" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="8">
         <v>1652</v>
       </c>
-      <c r="B160" s="65" t="s">
+      <c r="B160" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C160" s="65" t="s">
+      <c r="C160" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D160" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E160" s="65" t="s">
-        <v>584</v>
-      </c>
-      <c r="F160" s="65" t="str">
+      <c r="D160" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F160" s="8" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_festoons</v>
-      </c>
-      <c r="G160" s="65" t="s">
+        <v>template_deck_festoons_plug</v>
+      </c>
+      <c r="G160" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H160" s="65" t="s">
+      <c r="H160" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I160" s="65" t="s">
+      <c r="I160" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O160" s="65" t="s">
+      <c r="O160" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P160" s="65" t="s">
+      <c r="P160" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q160" s="65" t="str">
+      <c r="Q160" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Lights</v>
       </c>
-      <c r="R160" s="65" t="str">
+      <c r="R160" s="8" t="str">
         <f>R161</f>
         <v>Deck Lights</v>
       </c>
-      <c r="S160" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO161, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S160" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U160" s="67"/>
-      <c r="V160" s="67"/>
-      <c r="W160" s="67"/>
-      <c r="X160" s="67"/>
-      <c r="Y160" s="67"/>
-      <c r="AE160" s="67"/>
-      <c r="AG160" s="65" t="str">
+      <c r="T160" s="8"/>
+      <c r="U160" s="10"/>
+      <c r="V160" s="10"/>
+      <c r="W160" s="10"/>
+      <c r="X160" s="10"/>
+      <c r="Y160" s="10"/>
+      <c r="Z160" s="8"/>
+      <c r="AE160" s="10"/>
+      <c r="AG160" s="8" t="str">
         <f>IF(ISBLANK(AF160),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C160), "/", E160, "/config"))</f>
         <v/>
       </c>
-      <c r="AH160" s="65" t="str">
+      <c r="AH160" s="8" t="str">
         <f>IF(ISBLANK(AF160),  "", _xlfn.CONCAT(LOWER(C160), "/", E160))</f>
         <v/>
       </c>
-      <c r="AK160" s="68"/>
-      <c r="AM160" s="67"/>
-      <c r="AX160" s="66" t="str">
+      <c r="AK160" s="37"/>
+      <c r="AU160" s="8"/>
+      <c r="AV160" s="8"/>
+      <c r="AX160" s="8" t="str">
         <f>IF(AND(ISBLANK(AT160), ISBLANK(AU160)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT160), "", _xlfn.CONCAT("[""mac"", """, AT160, """]")), IF(ISBLANK(AU160), "", _xlfn.CONCAT(", [""ip"", """, AU160, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="65">
+    <row r="161" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="8">
         <v>1653</v>
       </c>
-      <c r="B161" s="65" t="s">
+      <c r="B161" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C161" s="65" t="s">
+      <c r="C161" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D161" s="65" t="s">
+      <c r="D161" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E161" s="65" t="s">
+      <c r="E161" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="F161" s="65" t="str">
+      <c r="F161" s="8" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_festoons</v>
       </c>
-      <c r="G161" s="65" t="s">
+      <c r="G161" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H161" s="65" t="s">
+      <c r="H161" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I161" s="65" t="s">
+      <c r="I161" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J161" s="65" t="s">
+      <c r="J161" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="M161" s="65" t="s">
+      <c r="M161" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O161" s="65" t="s">
+      <c r="O161" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P161" s="65" t="s">
+      <c r="P161" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q161" s="65" t="str">
+      <c r="Q161" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Lights</v>
       </c>
-      <c r="R161" s="65" t="str">
+      <c r="R161" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Deck Lights</v>
       </c>
-      <c r="S161" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.deck_festoons_current_consumption
+      <c r="S161" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.deck_festoons_current_consumption
 energy_sensor_id: sensor.deck_festoons_total_consumption
 </v>
       </c>
-      <c r="U161" s="67"/>
-      <c r="V161" s="67"/>
-      <c r="W161" s="67"/>
-      <c r="X161" s="67"/>
-      <c r="Y161" s="67"/>
-      <c r="AC161" s="65" t="s">
+      <c r="T161" s="8"/>
+      <c r="U161" s="10"/>
+      <c r="V161" s="10"/>
+      <c r="W161" s="10"/>
+      <c r="X161" s="10"/>
+      <c r="Y161" s="10"/>
+      <c r="Z161" s="8"/>
+      <c r="AC161" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="AE161" s="67"/>
-      <c r="AG161" s="65" t="str">
+      <c r="AE161" s="10"/>
+      <c r="AG161" s="8" t="str">
         <f>IF(ISBLANK(AF161),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C161), "/", E161, "/config"))</f>
         <v/>
       </c>
-      <c r="AH161" s="65" t="str">
+      <c r="AH161" s="8" t="str">
         <f>IF(ISBLANK(AF161),  "", _xlfn.CONCAT(LOWER(C161), "/", E161))</f>
         <v/>
       </c>
-      <c r="AK161" s="68"/>
-      <c r="AL161" s="65" t="str">
+      <c r="AK161" s="37"/>
+      <c r="AL161" s="8" t="str">
         <f>IF(OR(ISBLANK(AT161), ISBLANK(AU161)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-deck-festoons</v>
       </c>
-      <c r="AM161" s="67" t="s">
+      <c r="AM161" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN161" s="65" t="s">
+      <c r="AN161" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="AO161" s="65" t="s">
+      <c r="AO161" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="AP161" s="65" t="str">
+      <c r="AP161" s="8" t="str">
         <f>IF(OR(ISBLANK(AT161), ISBLANK(AU161)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ161" s="65" t="s">
+      <c r="AQ161" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="AS161" s="65" t="s">
+      <c r="AS161" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT161" s="65" t="s">
+      <c r="AT161" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="AU161" s="65" t="s">
+      <c r="AU161" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="AX161" s="65" t="str">
+      <c r="AV161" s="8"/>
+      <c r="AX161" s="8" t="str">
         <f>IF(AND(ISBLANK(AT161), ISBLANK(AU161)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT161), "", _xlfn.CONCAT("[""mac"", """, AT161, """]")), IF(ISBLANK(AU161), "", _xlfn.CONCAT(", [""ip"", """, AU161, """]")), "]"))</f>
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="162" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="65">
+    <row r="162" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="8">
         <v>1654</v>
       </c>
-      <c r="B162" s="65" t="s">
+      <c r="B162" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C162" s="65" t="s">
+      <c r="C162" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D162" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E162" s="65" t="s">
-        <v>803</v>
-      </c>
-      <c r="F162" s="65" t="str">
+      <c r="D162" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F162" s="8" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
-        <v>landing_festoons</v>
-      </c>
-      <c r="G162" s="65" t="s">
+        <v>template_landing_festoons_plug</v>
+      </c>
+      <c r="G162" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="H162" s="65" t="s">
+      <c r="H162" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I162" s="65" t="s">
+      <c r="I162" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O162" s="65" t="s">
+      <c r="O162" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P162" s="65" t="s">
+      <c r="P162" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q162" s="65" t="str">
+      <c r="Q162" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Lights</v>
       </c>
-      <c r="R162" s="65" t="str">
+      <c r="R162" s="8" t="str">
         <f>R163</f>
         <v>Landing Lights</v>
       </c>
-      <c r="S162" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO163, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S162" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U162" s="67"/>
-      <c r="V162" s="67"/>
-      <c r="W162" s="67"/>
-      <c r="X162" s="67"/>
-      <c r="Y162" s="67"/>
-      <c r="AE162" s="67"/>
-      <c r="AG162" s="65" t="str">
+      <c r="T162" s="8"/>
+      <c r="U162" s="10"/>
+      <c r="V162" s="10"/>
+      <c r="W162" s="10"/>
+      <c r="X162" s="10"/>
+      <c r="Y162" s="10"/>
+      <c r="Z162" s="8"/>
+      <c r="AE162" s="10"/>
+      <c r="AG162" s="8" t="str">
         <f>IF(ISBLANK(AF162),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C162), "/", E162, "/config"))</f>
         <v/>
       </c>
-      <c r="AH162" s="65" t="str">
+      <c r="AH162" s="8" t="str">
         <f>IF(ISBLANK(AF162),  "", _xlfn.CONCAT(LOWER(C162), "/", E162))</f>
         <v/>
       </c>
-      <c r="AK162" s="68"/>
-      <c r="AM162" s="67"/>
-      <c r="AX162" s="66" t="str">
+      <c r="AK162" s="37"/>
+      <c r="AU162" s="8"/>
+      <c r="AV162" s="8"/>
+      <c r="AX162" s="8" t="str">
         <f>IF(AND(ISBLANK(AT162), ISBLANK(AU162)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT162), "", _xlfn.CONCAT("[""mac"", """, AT162, """]")), IF(ISBLANK(AU162), "", _xlfn.CONCAT(", [""ip"", """, AU162, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="65">
+    <row r="163" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="8">
         <v>1655</v>
       </c>
-      <c r="B163" s="65" t="s">
+      <c r="B163" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C163" s="65" t="s">
+      <c r="C163" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D163" s="65" t="s">
+      <c r="D163" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E163" s="65" t="s">
+      <c r="E163" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="F163" s="65" t="str">
+      <c r="F163" s="8" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
         <v>landing_festoons</v>
       </c>
-      <c r="G163" s="65" t="s">
+      <c r="G163" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="H163" s="65" t="s">
+      <c r="H163" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I163" s="65" t="s">
+      <c r="I163" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J163" s="65" t="s">
+      <c r="J163" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="M163" s="65" t="s">
+      <c r="M163" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O163" s="65" t="s">
+      <c r="O163" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P163" s="65" t="s">
+      <c r="P163" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q163" s="65" t="str">
+      <c r="Q163" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Lights</v>
       </c>
-      <c r="R163" s="65" t="str">
+      <c r="R163" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Landing Lights</v>
       </c>
-      <c r="S163" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.landing_festoons_current_consumption
+      <c r="S163" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.landing_festoons_current_consumption
 energy_sensor_id: sensor.landing_festoons_total_consumption
 </v>
       </c>
-      <c r="U163" s="67"/>
-      <c r="V163" s="67"/>
-      <c r="W163" s="67"/>
-      <c r="X163" s="67"/>
-      <c r="Y163" s="67"/>
-      <c r="AC163" s="65" t="s">
+      <c r="T163" s="8"/>
+      <c r="U163" s="10"/>
+      <c r="V163" s="10"/>
+      <c r="W163" s="10"/>
+      <c r="X163" s="10"/>
+      <c r="Y163" s="10"/>
+      <c r="Z163" s="8"/>
+      <c r="AC163" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="AE163" s="67"/>
-      <c r="AG163" s="65" t="str">
+      <c r="AE163" s="10"/>
+      <c r="AG163" s="8" t="str">
         <f>IF(ISBLANK(AF163),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C163), "/", E163, "/config"))</f>
         <v/>
       </c>
-      <c r="AH163" s="65" t="str">
+      <c r="AH163" s="8" t="str">
         <f>IF(ISBLANK(AF163),  "", _xlfn.CONCAT(LOWER(C163), "/", E163))</f>
         <v/>
       </c>
-      <c r="AK163" s="68"/>
-      <c r="AL163" s="65" t="str">
+      <c r="AK163" s="37"/>
+      <c r="AL163" s="8" t="str">
         <f>IF(OR(ISBLANK(AT163), ISBLANK(AU163)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-landing-festoons</v>
       </c>
-      <c r="AM163" s="67" t="s">
+      <c r="AM163" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN163" s="65" t="s">
+      <c r="AN163" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="AO163" s="65" t="s">
+      <c r="AO163" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="AP163" s="65" t="str">
+      <c r="AP163" s="8" t="str">
         <f>IF(OR(ISBLANK(AT163), ISBLANK(AU163)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ163" s="65" t="s">
+      <c r="AQ163" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="AS163" s="65" t="s">
+      <c r="AS163" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT163" s="65" t="s">
+      <c r="AT163" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="AU163" s="65" t="s">
+      <c r="AU163" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="AX163" s="65" t="str">
+      <c r="AV163" s="8"/>
+      <c r="AX163" s="8" t="str">
         <f>IF(AND(ISBLANK(AT163), ISBLANK(AU163)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT163), "", _xlfn.CONCAT("[""mac"", """, AT163, """]")), IF(ISBLANK(AU163), "", _xlfn.CONCAT(", [""ip"", """, AU163, """]")), "]"))</f>
         <v>[["mac", "5c:a6:e6:25:5a:0c"], ["ip", "10.0.6.89"]]</v>
       </c>
@@ -21226,179 +21307,187 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="65">
+    <row r="178" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="8">
         <v>1701</v>
       </c>
-      <c r="B178" s="65" t="s">
+      <c r="B178" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C178" s="65" t="s">
+      <c r="C178" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D178" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E178" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="F178" s="65" t="str">
+      <c r="D178" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F178" s="8" t="str">
         <f>IF(ISBLANK(E178), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom_rails</v>
-      </c>
-      <c r="G178" s="65" t="s">
+        <v>template_bathroom_rails_plug</v>
+      </c>
+      <c r="G178" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="H178" s="65" t="s">
+      <c r="H178" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="I178" s="65" t="s">
+      <c r="I178" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O178" s="65" t="s">
+      <c r="O178" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P178" s="73" t="s">
+      <c r="P178" s="13" t="s">
         <v>1150</v>
       </c>
-      <c r="Q178" s="65" t="str">
+      <c r="Q178" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Heating &amp; Cooling</v>
       </c>
-      <c r="R178" s="65" t="str">
+      <c r="R178" s="8" t="str">
         <f>R179</f>
         <v>Bathroom Towel Rails</v>
       </c>
-      <c r="S178" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO179, CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
+      <c r="S178" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 1.54", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 2.19", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 1.54
+unavailable_power: 0
+fixed:
+  power: 2.19
 </v>
       </c>
-      <c r="U178" s="67"/>
-      <c r="V178" s="67"/>
-      <c r="W178" s="67"/>
-      <c r="X178" s="67"/>
-      <c r="Y178" s="67"/>
-      <c r="AE178" s="67"/>
-      <c r="AG178" s="65" t="str">
+      <c r="T178" s="8"/>
+      <c r="U178" s="10"/>
+      <c r="V178" s="10"/>
+      <c r="W178" s="10"/>
+      <c r="X178" s="10"/>
+      <c r="Y178" s="10"/>
+      <c r="Z178" s="8"/>
+      <c r="AE178" s="10"/>
+      <c r="AG178" s="8" t="str">
         <f>IF(ISBLANK(AF178),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C178), "/", E178, "/config"))</f>
         <v/>
       </c>
-      <c r="AH178" s="65" t="str">
+      <c r="AH178" s="8" t="str">
         <f>IF(ISBLANK(AF178),  "", _xlfn.CONCAT(LOWER(C178), "/", E178))</f>
         <v/>
       </c>
-      <c r="AK178" s="68"/>
-      <c r="AM178" s="67"/>
-      <c r="AX178" s="66" t="str">
+      <c r="AK178" s="37"/>
+      <c r="AU178" s="8"/>
+      <c r="AV178" s="8"/>
+      <c r="AX178" s="8" t="str">
         <f>IF(AND(ISBLANK(AT178), ISBLANK(AU178)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT178), "", _xlfn.CONCAT("[""mac"", """, AT178, """]")), IF(ISBLANK(AU178), "", _xlfn.CONCAT(", [""ip"", """, AU178, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="65">
+    <row r="179" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="8">
         <v>1702</v>
       </c>
-      <c r="B179" s="65" t="s">
+      <c r="B179" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C179" s="65" t="s">
+      <c r="C179" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D179" s="65" t="s">
+      <c r="D179" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E179" s="65" t="s">
+      <c r="E179" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F179" s="65" t="str">
+      <c r="F179" s="8" t="str">
         <f>IF(ISBLANK(E179), "", Table2[[#This Row],[unique_id]])</f>
         <v>bathroom_rails</v>
       </c>
-      <c r="G179" s="65" t="s">
+      <c r="G179" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="H179" s="65" t="s">
+      <c r="H179" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="I179" s="65" t="s">
+      <c r="I179" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J179" s="65" t="s">
+      <c r="J179" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="M179" s="65" t="s">
+      <c r="M179" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O179" s="65" t="s">
+      <c r="O179" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P179" s="73" t="s">
+      <c r="P179" s="13" t="s">
         <v>1150</v>
       </c>
-      <c r="Q179" s="65" t="str">
+      <c r="Q179" s="8" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
         <v>Heating &amp; Cooling</v>
       </c>
-      <c r="R179" s="65" t="str">
+      <c r="R179" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
         <v>Bathroom Towel Rails</v>
       </c>
-      <c r="S179" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
-power_sensor_id: sensor.bathroom_rails_current_consumption
+      <c r="S179" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.bathroom_rails_current_consumption
 energy_sensor_id: sensor.bathroom_rails_total_consumption
 </v>
       </c>
-      <c r="U179" s="67"/>
-      <c r="V179" s="67"/>
-      <c r="W179" s="67"/>
-      <c r="X179" s="67"/>
-      <c r="Y179" s="67"/>
-      <c r="AC179" s="65" t="s">
+      <c r="T179" s="8"/>
+      <c r="U179" s="10"/>
+      <c r="V179" s="10"/>
+      <c r="W179" s="10"/>
+      <c r="X179" s="10"/>
+      <c r="Y179" s="10"/>
+      <c r="Z179" s="8"/>
+      <c r="AC179" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="AE179" s="67"/>
-      <c r="AG179" s="65" t="str">
+      <c r="AE179" s="10"/>
+      <c r="AG179" s="8" t="str">
         <f>IF(ISBLANK(AF179),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C179), "/", E179, "/config"))</f>
         <v/>
       </c>
-      <c r="AH179" s="65" t="str">
+      <c r="AH179" s="8" t="str">
         <f>IF(ISBLANK(AF179),  "", _xlfn.CONCAT(LOWER(C179), "/", E179))</f>
         <v/>
       </c>
-      <c r="AK179" s="68"/>
-      <c r="AL179" s="65" t="str">
+      <c r="AK179" s="37"/>
+      <c r="AL179" s="8" t="str">
         <f>IF(OR(ISBLANK(AT179), ISBLANK(AU179)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-bathroom-rails</v>
       </c>
-      <c r="AM179" s="67" t="s">
+      <c r="AM179" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AN179" s="65" t="s">
+      <c r="AN179" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="AO179" s="65" t="s">
+      <c r="AO179" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="AP179" s="65" t="str">
+      <c r="AP179" s="8" t="str">
         <f>IF(OR(ISBLANK(AT179), ISBLANK(AU179)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ179" s="65" t="s">
+      <c r="AQ179" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="AS179" s="65" t="s">
+      <c r="AS179" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT179" s="65" t="s">
+      <c r="AT179" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="AU179" s="65" t="s">
+      <c r="AU179" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="AX179" s="65" t="str">
+      <c r="AV179" s="8"/>
+      <c r="AX179" s="8" t="str">
         <f>IF(AND(ISBLANK(AT179), ISBLANK(AU179)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT179), "", _xlfn.CONCAT("[""mac"", """, AT179, """]")), IF(ISBLANK(AU179), "", _xlfn.CONCAT(", [""ip"", """, AU179, """]")), "]"))</f>
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
@@ -22599,64 +22688,66 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="65">
+    <row r="197" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="8">
         <v>2113</v>
       </c>
-      <c r="B197" s="65" t="s">
+      <c r="B197" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C197" s="65" t="s">
+      <c r="C197" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D197" s="65" t="s">
+      <c r="D197" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E197" s="65" t="s">
+      <c r="E197" s="8" t="s">
         <v>1171</v>
       </c>
-      <c r="F197" s="65" t="str">
+      <c r="F197" s="8" t="str">
         <f>IF(ISBLANK(E197), "", Table2[[#This Row],[unique_id]])</f>
         <v>laundry_washing_machine_power</v>
       </c>
-      <c r="G197" s="65" t="s">
+      <c r="G197" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="H197" s="65" t="s">
+      <c r="H197" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="I197" s="65" t="s">
+      <c r="I197" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="M197" s="65" t="s">
+      <c r="M197" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="T197" s="65" t="s">
+      <c r="T197" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="U197" s="67"/>
-      <c r="V197" s="67"/>
-      <c r="W197" s="67"/>
-      <c r="X197" s="67"/>
-      <c r="Y197" s="67"/>
-      <c r="AA197" s="65" t="s">
+      <c r="U197" s="10"/>
+      <c r="V197" s="10"/>
+      <c r="W197" s="10"/>
+      <c r="X197" s="10"/>
+      <c r="Y197" s="10"/>
+      <c r="Z197" s="8"/>
+      <c r="AA197" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="AC197" s="65" t="s">
+      <c r="AC197" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="AE197" s="67"/>
-      <c r="AG197" s="65" t="str">
+      <c r="AE197" s="10"/>
+      <c r="AG197" s="8" t="str">
         <f>IF(ISBLANK(AF197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197, "/config"))</f>
         <v/>
       </c>
-      <c r="AH197" s="65" t="str">
+      <c r="AH197" s="8" t="str">
         <f>IF(ISBLANK(AF197),  "", _xlfn.CONCAT(LOWER(C197), "/", E197))</f>
         <v/>
       </c>
-      <c r="AK197" s="68"/>
-      <c r="AM197" s="67"/>
-      <c r="AX197" s="65" t="str">
+      <c r="AK197" s="37"/>
+      <c r="AU197" s="8"/>
+      <c r="AV197" s="8"/>
+      <c r="AX197" s="8" t="str">
         <f>IF(AND(ISBLANK(AT197), ISBLANK(AU197)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT197), "", _xlfn.CONCAT("[""mac"", """, AT197, """]")), IF(ISBLANK(AU197), "", _xlfn.CONCAT(", [""ip"", """, AU197, """]")), "]"))</f>
         <v/>
       </c>
@@ -24396,64 +24487,66 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="65">
+    <row r="226" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="8">
         <v>2163</v>
       </c>
-      <c r="B226" s="65" t="s">
+      <c r="B226" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C226" s="65" t="s">
+      <c r="C226" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D226" s="65" t="s">
+      <c r="D226" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E226" s="65" t="s">
+      <c r="E226" s="8" t="s">
         <v>1172</v>
       </c>
-      <c r="F226" s="65" t="str">
+      <c r="F226" s="8" t="str">
         <f>IF(ISBLANK(E226), "", Table2[[#This Row],[unique_id]])</f>
         <v>laundry_washing_machine_energy_daily</v>
       </c>
-      <c r="G226" s="65" t="s">
+      <c r="G226" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="H226" s="65" t="s">
+      <c r="H226" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="I226" s="65" t="s">
+      <c r="I226" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="M226" s="65" t="s">
+      <c r="M226" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="T226" s="65" t="s">
+      <c r="T226" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="U226" s="67"/>
-      <c r="V226" s="67"/>
-      <c r="W226" s="67"/>
-      <c r="X226" s="67"/>
-      <c r="Y226" s="67"/>
-      <c r="AA226" s="65" t="s">
+      <c r="U226" s="10"/>
+      <c r="V226" s="10"/>
+      <c r="W226" s="10"/>
+      <c r="X226" s="10"/>
+      <c r="Y226" s="10"/>
+      <c r="Z226" s="8"/>
+      <c r="AA226" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="AC226" s="65" t="s">
+      <c r="AC226" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AE226" s="67"/>
-      <c r="AG226" s="65" t="str">
+      <c r="AE226" s="10"/>
+      <c r="AG226" s="8" t="str">
         <f>IF(ISBLANK(AF226),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C226), "/", E226, "/config"))</f>
         <v/>
       </c>
-      <c r="AH226" s="65" t="str">
+      <c r="AH226" s="8" t="str">
         <f>IF(ISBLANK(AF226),  "", _xlfn.CONCAT(LOWER(C226), "/", E226))</f>
         <v/>
       </c>
-      <c r="AK226" s="68"/>
-      <c r="AM226" s="67"/>
-      <c r="AX226" s="65" t="str">
+      <c r="AK226" s="37"/>
+      <c r="AU226" s="8"/>
+      <c r="AV226" s="8"/>
+      <c r="AX226" s="8" t="str">
         <f>IF(AND(ISBLANK(AT226), ISBLANK(AU226)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT226), "", _xlfn.CONCAT("[""mac"", """, AT226, """]")), IF(ISBLANK(AU226), "", _xlfn.CONCAT(", [""ip"", """, AU226, """]")), "]"))</f>
         <v/>
       </c>
@@ -28076,175 +28169,183 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="65">
+    <row r="281" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="8">
         <v>2534</v>
       </c>
-      <c r="B281" s="65" t="s">
+      <c r="B281" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C281" s="65" t="s">
+      <c r="C281" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D281" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E281" s="65" t="s">
-        <v>850</v>
-      </c>
-      <c r="F281" s="65" t="str">
+      <c r="D281" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F281" s="8" t="str">
         <f>IF(ISBLANK(E281), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv_outlet</v>
-      </c>
-      <c r="G281" s="65" t="s">
+        <v>template_lounge_tv_outlet_plug</v>
+      </c>
+      <c r="G281" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H281" s="65" t="s">
+      <c r="H281" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I281" s="65" t="s">
+      <c r="I281" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O281" s="65" t="s">
+      <c r="O281" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P281" s="65" t="s">
+      <c r="P281" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q281" s="74" t="s">
+      <c r="Q281" s="52" t="s">
         <v>1133</v>
       </c>
-      <c r="R281" s="65" t="str">
+      <c r="R281" s="8" t="str">
         <f>R282</f>
         <v>Lounge TV</v>
       </c>
-      <c r="S281" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO282, CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
+      <c r="S281" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 1.54", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 2.19", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 1.54
+unavailable_power: 0
+fixed:
+  power: 2.19
 </v>
       </c>
-      <c r="U281" s="67"/>
-      <c r="V281" s="67"/>
-      <c r="W281" s="67"/>
-      <c r="X281" s="67"/>
-      <c r="Y281" s="67"/>
-      <c r="AE281" s="67"/>
-      <c r="AG281" s="65" t="str">
+      <c r="T281" s="8"/>
+      <c r="U281" s="10"/>
+      <c r="V281" s="10"/>
+      <c r="W281" s="10"/>
+      <c r="X281" s="10"/>
+      <c r="Y281" s="10"/>
+      <c r="Z281" s="8"/>
+      <c r="AE281" s="10"/>
+      <c r="AG281" s="8" t="str">
         <f>IF(ISBLANK(AF281),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C281), "/", E281, "/config"))</f>
         <v/>
       </c>
-      <c r="AH281" s="65" t="str">
+      <c r="AH281" s="8" t="str">
         <f>IF(ISBLANK(AF281),  "", _xlfn.CONCAT(LOWER(C281), "/", E281))</f>
         <v/>
       </c>
-      <c r="AI281" s="69"/>
+      <c r="AI281" s="14"/>
       <c r="AK281" s="36"/>
-      <c r="AM281" s="67"/>
-      <c r="AX281" s="66" t="str">
+      <c r="AU281" s="8"/>
+      <c r="AV281" s="8"/>
+      <c r="AX281" s="8" t="str">
         <f>IF(AND(ISBLANK(AT281), ISBLANK(AU281)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT281), "", _xlfn.CONCAT("[""mac"", """, AT281, """]")), IF(ISBLANK(AU281), "", _xlfn.CONCAT(", [""ip"", """, AU281, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="65">
+    <row r="282" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="8">
         <v>2550</v>
       </c>
-      <c r="B282" s="65" t="s">
+      <c r="B282" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C282" s="65" t="s">
+      <c r="C282" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D282" s="65" t="s">
+      <c r="D282" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E282" s="65" t="s">
+      <c r="E282" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="F282" s="65" t="str">
+      <c r="F282" s="8" t="str">
         <f>IF(ISBLANK(E282), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_tv_outlet</v>
       </c>
-      <c r="G282" s="65" t="s">
+      <c r="G282" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H282" s="65" t="s">
+      <c r="H282" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I282" s="65" t="s">
+      <c r="I282" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M282" s="65" t="s">
+      <c r="M282" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O282" s="65" t="s">
+      <c r="O282" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P282" s="65" t="s">
+      <c r="P282" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q282" s="74" t="s">
+      <c r="Q282" s="52" t="s">
         <v>1133</v>
       </c>
-      <c r="R282" s="65" t="str">
+      <c r="R282" s="8" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
         <v>Lounge TV</v>
       </c>
-      <c r="S282" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
-power_sensor_id: sensor.lounge_tv_outlet_current_consumption
+      <c r="S282" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.lounge_tv_outlet_current_consumption
 energy_sensor_id: sensor.lounge_tv_outlet_total_consumption
 </v>
       </c>
-      <c r="U282" s="67"/>
-      <c r="V282" s="67"/>
-      <c r="W282" s="67"/>
-      <c r="X282" s="67"/>
-      <c r="Y282" s="67"/>
-      <c r="AC282" s="65" t="s">
+      <c r="T282" s="8"/>
+      <c r="U282" s="10"/>
+      <c r="V282" s="10"/>
+      <c r="W282" s="10"/>
+      <c r="X282" s="10"/>
+      <c r="Y282" s="10"/>
+      <c r="Z282" s="8"/>
+      <c r="AC282" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="AE282" s="67"/>
-      <c r="AG282" s="65" t="str">
+      <c r="AE282" s="10"/>
+      <c r="AG282" s="8" t="str">
         <f>IF(ISBLANK(AF282),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C282), "/", E282, "/config"))</f>
         <v/>
       </c>
-      <c r="AH282" s="65" t="str">
+      <c r="AH282" s="8" t="str">
         <f>IF(ISBLANK(AF282),  "", _xlfn.CONCAT(LOWER(C282), "/", E282))</f>
         <v/>
       </c>
-      <c r="AK282" s="68"/>
-      <c r="AL282" s="65" t="str">
+      <c r="AK282" s="37"/>
+      <c r="AL282" s="8" t="str">
         <f>IF(OR(ISBLANK(AT282), ISBLANK(AU282)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-lounge-tv</v>
       </c>
-      <c r="AM282" s="67" t="s">
+      <c r="AM282" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AN282" s="65" t="s">
+      <c r="AN282" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="AO282" s="65" t="s">
+      <c r="AO282" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="AP282" s="65" t="str">
+      <c r="AP282" s="8" t="str">
         <f>IF(OR(ISBLANK(AT282), ISBLANK(AU282)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ282" s="65" t="s">
+      <c r="AQ282" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AS282" s="65" t="s">
+      <c r="AS282" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT282" s="65" t="s">
+      <c r="AT282" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="AU282" s="65" t="s">
+      <c r="AU282" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="AX282" s="65" t="str">
+      <c r="AV282" s="8"/>
+      <c r="AX282" s="8" t="str">
         <f>IF(AND(ISBLANK(AT282), ISBLANK(AU282)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT282), "", _xlfn.CONCAT("[""mac"", """, AT282, """]")), IF(ISBLANK(AU282), "", _xlfn.CONCAT(", [""ip"", """, AU282, """]")), "]"))</f>
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
@@ -28294,13 +28395,7 @@
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
         <v>Adhoc Outlet</v>
       </c>
-      <c r="S283" s="62" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.mobile_adhoc_outlet_current_consumption
-energy_sensor_id: sensor.mobile_adhoc_outlet_total_consumption
-</v>
-      </c>
+      <c r="S283" s="62"/>
       <c r="U283" s="55"/>
       <c r="V283" s="55"/>
       <c r="W283" s="55"/>
@@ -28353,1717 +28448,1797 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="284" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="65">
+    <row r="284" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="8">
         <v>2552</v>
       </c>
-      <c r="B284" s="65" t="s">
+      <c r="B284" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C284" s="65" t="s">
+      <c r="C284" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D284" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E284" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F284" s="65" t="str">
+      <c r="D284" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E284" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F284" s="8" t="str">
         <f>IF(ISBLANK(E284), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_outlet</v>
-      </c>
-      <c r="G284" s="65" t="s">
+        <v>template_study_outlet_plug</v>
+      </c>
+      <c r="G284" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H284" s="65" t="s">
+      <c r="H284" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I284" s="65" t="s">
+      <c r="I284" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O284" s="65" t="s">
+      <c r="O284" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P284" s="65" t="s">
+      <c r="P284" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q284" s="65" t="s">
+      <c r="Q284" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="R284" s="65" t="str">
+      <c r="R284" s="8" t="str">
         <f>R285</f>
         <v>Study Outlet</v>
       </c>
-      <c r="S284" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO285, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S284" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U284" s="67"/>
-      <c r="V284" s="67"/>
-      <c r="W284" s="67"/>
-      <c r="X284" s="67"/>
-      <c r="Y284" s="67"/>
-      <c r="AE284" s="67"/>
-      <c r="AG284" s="65" t="str">
+      <c r="T284" s="8"/>
+      <c r="U284" s="10"/>
+      <c r="V284" s="10"/>
+      <c r="W284" s="10"/>
+      <c r="X284" s="10"/>
+      <c r="Y284" s="10"/>
+      <c r="Z284" s="8"/>
+      <c r="AE284" s="10"/>
+      <c r="AG284" s="8" t="str">
         <f>IF(ISBLANK(AF284),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C284), "/", E284, "/config"))</f>
         <v/>
       </c>
-      <c r="AH284" s="65" t="str">
+      <c r="AH284" s="8" t="str">
         <f>IF(ISBLANK(AF284),  "", _xlfn.CONCAT(LOWER(C284), "/", E284))</f>
         <v/>
       </c>
-      <c r="AK284" s="68"/>
-      <c r="AM284" s="67"/>
-      <c r="AO284" s="70"/>
-      <c r="AX284" s="66" t="str">
+      <c r="AK284" s="37"/>
+      <c r="AO284" s="14"/>
+      <c r="AU284" s="8"/>
+      <c r="AV284" s="8"/>
+      <c r="AX284" s="8" t="str">
         <f>IF(AND(ISBLANK(AT284), ISBLANK(AU284)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT284), "", _xlfn.CONCAT("[""mac"", """, AT284, """]")), IF(ISBLANK(AU284), "", _xlfn.CONCAT(", [""ip"", """, AU284, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="65">
+    <row r="285" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="8">
         <v>2553</v>
       </c>
-      <c r="B285" s="65" t="s">
+      <c r="B285" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C285" s="65" t="s">
+      <c r="C285" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D285" s="65" t="s">
+      <c r="D285" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E285" s="65" t="s">
+      <c r="E285" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="F285" s="65" t="str">
+      <c r="F285" s="8" t="str">
         <f>IF(ISBLANK(E285), "", Table2[[#This Row],[unique_id]])</f>
         <v>study_outlet</v>
       </c>
-      <c r="G285" s="65" t="s">
+      <c r="G285" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H285" s="65" t="s">
+      <c r="H285" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I285" s="65" t="s">
+      <c r="I285" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M285" s="65" t="s">
+      <c r="M285" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O285" s="65" t="s">
+      <c r="O285" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P285" s="65" t="s">
+      <c r="P285" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q285" s="65" t="s">
+      <c r="Q285" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="R285" s="65" t="str">
+      <c r="R285" s="8" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
         <v>Study Outlet</v>
       </c>
-      <c r="S285" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.study_outlet_current_consumption
+      <c r="S285" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.study_outlet_current_consumption
 energy_sensor_id: sensor.study_outlet_total_consumption
 </v>
       </c>
-      <c r="U285" s="67"/>
-      <c r="V285" s="67"/>
-      <c r="W285" s="67"/>
-      <c r="X285" s="67"/>
-      <c r="Y285" s="67"/>
-      <c r="AC285" s="65" t="s">
+      <c r="T285" s="8"/>
+      <c r="U285" s="10"/>
+      <c r="V285" s="10"/>
+      <c r="W285" s="10"/>
+      <c r="X285" s="10"/>
+      <c r="Y285" s="10"/>
+      <c r="Z285" s="8"/>
+      <c r="AC285" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="AE285" s="67"/>
-      <c r="AG285" s="65" t="str">
+      <c r="AE285" s="10"/>
+      <c r="AG285" s="8" t="str">
         <f>IF(ISBLANK(AF285),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C285), "/", E285, "/config"))</f>
         <v/>
       </c>
-      <c r="AH285" s="65" t="str">
+      <c r="AH285" s="8" t="str">
         <f>IF(ISBLANK(AF285),  "", _xlfn.CONCAT(LOWER(C285), "/", E285))</f>
         <v/>
       </c>
-      <c r="AK285" s="68"/>
-      <c r="AL285" s="65" t="str">
+      <c r="AK285" s="37"/>
+      <c r="AL285" s="8" t="str">
         <f>IF(OR(ISBLANK(AT285), ISBLANK(AU285)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-study-outlet</v>
       </c>
-      <c r="AM285" s="67" t="s">
+      <c r="AM285" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN285" s="65" t="s">
+      <c r="AN285" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="AO285" s="69" t="s">
+      <c r="AO285" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="AP285" s="65" t="str">
+      <c r="AP285" s="8" t="str">
         <f>IF(OR(ISBLANK(AT285), ISBLANK(AU285)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ285" s="65" t="s">
+      <c r="AQ285" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="AS285" s="65" t="s">
+      <c r="AS285" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT285" s="65" t="s">
+      <c r="AT285" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="AU285" s="65" t="s">
+      <c r="AU285" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="AX285" s="65" t="str">
+      <c r="AV285" s="8"/>
+      <c r="AX285" s="8" t="str">
         <f>IF(AND(ISBLANK(AT285), ISBLANK(AU285)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT285), "", _xlfn.CONCAT("[""mac"", """, AT285, """]")), IF(ISBLANK(AU285), "", _xlfn.CONCAT(", [""ip"", """, AU285, """]")), "]"))</f>
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="286" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="65">
+    <row r="286" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="8">
         <v>2554</v>
       </c>
-      <c r="B286" s="65" t="s">
+      <c r="B286" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C286" s="65" t="s">
+      <c r="C286" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D286" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E286" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="F286" s="65" t="str">
+      <c r="D286" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E286" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F286" s="8" t="str">
         <f>IF(ISBLANK(E286), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_outlet</v>
-      </c>
-      <c r="G286" s="65" t="s">
+        <v>template_office_outlet_plug</v>
+      </c>
+      <c r="G286" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H286" s="65" t="s">
+      <c r="H286" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I286" s="65" t="s">
+      <c r="I286" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O286" s="65" t="s">
+      <c r="O286" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P286" s="65" t="s">
+      <c r="P286" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q286" s="65" t="s">
+      <c r="Q286" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="R286" s="65" t="str">
+      <c r="R286" s="8" t="str">
         <f>R287</f>
         <v>Office Outlet</v>
       </c>
-      <c r="S286" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO287, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S286" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U286" s="67"/>
-      <c r="V286" s="67"/>
-      <c r="W286" s="67"/>
-      <c r="X286" s="67"/>
-      <c r="Y286" s="67"/>
-      <c r="AE286" s="67"/>
-      <c r="AG286" s="65" t="str">
+      <c r="T286" s="8"/>
+      <c r="U286" s="10"/>
+      <c r="V286" s="10"/>
+      <c r="W286" s="10"/>
+      <c r="X286" s="10"/>
+      <c r="Y286" s="10"/>
+      <c r="Z286" s="8"/>
+      <c r="AE286" s="10"/>
+      <c r="AG286" s="8" t="str">
         <f>IF(ISBLANK(AF286),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C286), "/", E286, "/config"))</f>
         <v/>
       </c>
-      <c r="AH286" s="65" t="str">
+      <c r="AH286" s="8" t="str">
         <f>IF(ISBLANK(AF286),  "", _xlfn.CONCAT(LOWER(C286), "/", E286))</f>
         <v/>
       </c>
-      <c r="AK286" s="68"/>
-      <c r="AM286" s="67"/>
-      <c r="AO286" s="69"/>
-      <c r="AX286" s="66" t="str">
+      <c r="AK286" s="37"/>
+      <c r="AO286" s="14"/>
+      <c r="AU286" s="8"/>
+      <c r="AV286" s="8"/>
+      <c r="AX286" s="8" t="str">
         <f>IF(AND(ISBLANK(AT286), ISBLANK(AU286)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT286), "", _xlfn.CONCAT("[""mac"", """, AT286, """]")), IF(ISBLANK(AU286), "", _xlfn.CONCAT(", [""ip"", """, AU286, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="65">
+    <row r="287" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="8">
         <v>2555</v>
       </c>
-      <c r="B287" s="65" t="s">
+      <c r="B287" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C287" s="65" t="s">
+      <c r="C287" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D287" s="65" t="s">
+      <c r="D287" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E287" s="65" t="s">
+      <c r="E287" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F287" s="65" t="str">
+      <c r="F287" s="8" t="str">
         <f>IF(ISBLANK(E287), "", Table2[[#This Row],[unique_id]])</f>
         <v>office_outlet</v>
       </c>
-      <c r="G287" s="65" t="s">
+      <c r="G287" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H287" s="65" t="s">
+      <c r="H287" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I287" s="65" t="s">
+      <c r="I287" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M287" s="65" t="s">
+      <c r="M287" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O287" s="65" t="s">
+      <c r="O287" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P287" s="65" t="s">
+      <c r="P287" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q287" s="65" t="s">
+      <c r="Q287" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="R287" s="65" t="str">
+      <c r="R287" s="8" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
         <v>Office Outlet</v>
       </c>
-      <c r="S287" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.office_outlet_current_consumption
+      <c r="S287" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.office_outlet_current_consumption
 energy_sensor_id: sensor.office_outlet_total_consumption
 </v>
       </c>
-      <c r="U287" s="67"/>
-      <c r="V287" s="67"/>
-      <c r="W287" s="67"/>
-      <c r="X287" s="67"/>
-      <c r="Y287" s="67"/>
-      <c r="AC287" s="65" t="s">
+      <c r="T287" s="8"/>
+      <c r="U287" s="10"/>
+      <c r="V287" s="10"/>
+      <c r="W287" s="10"/>
+      <c r="X287" s="10"/>
+      <c r="Y287" s="10"/>
+      <c r="Z287" s="8"/>
+      <c r="AC287" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="AE287" s="67"/>
-      <c r="AG287" s="65" t="str">
+      <c r="AE287" s="10"/>
+      <c r="AG287" s="8" t="str">
         <f>IF(ISBLANK(AF287),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C287), "/", E287, "/config"))</f>
         <v/>
       </c>
-      <c r="AH287" s="65" t="str">
+      <c r="AH287" s="8" t="str">
         <f>IF(ISBLANK(AF287),  "", _xlfn.CONCAT(LOWER(C287), "/", E287))</f>
         <v/>
       </c>
-      <c r="AK287" s="68"/>
-      <c r="AL287" s="65" t="str">
+      <c r="AK287" s="37"/>
+      <c r="AL287" s="8" t="str">
         <f>IF(OR(ISBLANK(AT287), ISBLANK(AU287)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-office-outlet</v>
       </c>
-      <c r="AM287" s="67" t="s">
+      <c r="AM287" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN287" s="65" t="s">
+      <c r="AN287" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="AO287" s="69" t="s">
+      <c r="AO287" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="AP287" s="65" t="str">
+      <c r="AP287" s="8" t="str">
         <f>IF(OR(ISBLANK(AT287), ISBLANK(AU287)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ287" s="65" t="s">
+      <c r="AQ287" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AS287" s="65" t="s">
+      <c r="AS287" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT287" s="65" t="s">
+      <c r="AT287" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="AU287" s="65" t="s">
+      <c r="AU287" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="AX287" s="65" t="str">
+      <c r="AV287" s="8"/>
+      <c r="AX287" s="8" t="str">
         <f>IF(AND(ISBLANK(AT287), ISBLANK(AU287)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT287), "", _xlfn.CONCAT("[""mac"", """, AT287, """]")), IF(ISBLANK(AU287), "", _xlfn.CONCAT(", [""ip"", """, AU287, """]")), "]"))</f>
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="288" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="65">
+    <row r="288" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="8">
         <v>2556</v>
       </c>
-      <c r="B288" s="65" t="s">
+      <c r="B288" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C288" s="65" t="s">
+      <c r="C288" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D288" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E288" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="F288" s="65" t="str">
+      <c r="D288" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E288" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F288" s="8" t="str">
         <f>IF(ISBLANK(E288), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_dish_washer</v>
-      </c>
-      <c r="G288" s="65" t="s">
+        <v>template_kitchen_dish_washer_plug</v>
+      </c>
+      <c r="G288" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="H288" s="65" t="s">
+      <c r="H288" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I288" s="65" t="s">
+      <c r="I288" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O288" s="65" t="s">
+      <c r="O288" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P288" s="65" t="s">
+      <c r="P288" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="Q288" s="65" t="s">
+      <c r="Q288" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="R288" s="65" t="str">
+      <c r="R288" s="8" t="str">
         <f>R289</f>
         <v>Kitchen Dish Washer</v>
       </c>
-      <c r="S288" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO289, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S288" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U288" s="67"/>
-      <c r="V288" s="67"/>
-      <c r="W288" s="67"/>
-      <c r="X288" s="67"/>
-      <c r="Y288" s="67"/>
-      <c r="AE288" s="67"/>
-      <c r="AG288" s="65" t="str">
+      <c r="T288" s="8"/>
+      <c r="U288" s="10"/>
+      <c r="V288" s="10"/>
+      <c r="W288" s="10"/>
+      <c r="X288" s="10"/>
+      <c r="Y288" s="10"/>
+      <c r="Z288" s="8"/>
+      <c r="AE288" s="10"/>
+      <c r="AG288" s="8" t="str">
         <f>IF(ISBLANK(AF288),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C288), "/", E288, "/config"))</f>
         <v/>
       </c>
-      <c r="AH288" s="65" t="str">
+      <c r="AH288" s="8" t="str">
         <f>IF(ISBLANK(AF288),  "", _xlfn.CONCAT(LOWER(C288), "/", E288))</f>
         <v/>
       </c>
-      <c r="AK288" s="68"/>
-      <c r="AM288" s="67"/>
-      <c r="AO288" s="69"/>
-      <c r="AX288" s="66" t="str">
+      <c r="AK288" s="37"/>
+      <c r="AO288" s="14"/>
+      <c r="AU288" s="8"/>
+      <c r="AV288" s="8"/>
+      <c r="AX288" s="8" t="str">
         <f>IF(AND(ISBLANK(AT288), ISBLANK(AU288)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT288), "", _xlfn.CONCAT("[""mac"", """, AT288, """]")), IF(ISBLANK(AU288), "", _xlfn.CONCAT(", [""ip"", """, AU288, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="65">
+    <row r="289" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="8">
         <v>2557</v>
       </c>
-      <c r="B289" s="65" t="s">
+      <c r="B289" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C289" s="65" t="s">
+      <c r="C289" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D289" s="65" t="s">
+      <c r="D289" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E289" s="65" t="s">
+      <c r="E289" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F289" s="65" t="str">
+      <c r="F289" s="8" t="str">
         <f>IF(ISBLANK(E289), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_dish_washer</v>
       </c>
-      <c r="G289" s="65" t="s">
+      <c r="G289" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="H289" s="65" t="s">
+      <c r="H289" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I289" s="65" t="s">
+      <c r="I289" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M289" s="65" t="s">
+      <c r="M289" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O289" s="65" t="s">
+      <c r="O289" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P289" s="65" t="s">
+      <c r="P289" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="Q289" s="65" t="s">
+      <c r="Q289" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="R289" s="65" t="str">
+      <c r="R289" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
         <v>Kitchen Dish Washer</v>
       </c>
-      <c r="S289" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.kitchen_dish_washer_current_consumption
+      <c r="S289" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.kitchen_dish_washer_current_consumption
 energy_sensor_id: sensor.kitchen_dish_washer_total_consumption
 </v>
       </c>
-      <c r="U289" s="67"/>
-      <c r="V289" s="67"/>
-      <c r="W289" s="67"/>
-      <c r="X289" s="67"/>
-      <c r="Y289" s="67"/>
-      <c r="AC289" s="65" t="s">
+      <c r="T289" s="8"/>
+      <c r="U289" s="10"/>
+      <c r="V289" s="10"/>
+      <c r="W289" s="10"/>
+      <c r="X289" s="10"/>
+      <c r="Y289" s="10"/>
+      <c r="Z289" s="8"/>
+      <c r="AC289" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="AE289" s="67"/>
-      <c r="AG289" s="65" t="str">
+      <c r="AE289" s="10"/>
+      <c r="AG289" s="8" t="str">
         <f>IF(ISBLANK(AF289),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C289), "/", E289, "/config"))</f>
         <v/>
       </c>
-      <c r="AH289" s="65" t="str">
+      <c r="AH289" s="8" t="str">
         <f>IF(ISBLANK(AF289),  "", _xlfn.CONCAT(LOWER(C289), "/", E289))</f>
         <v/>
       </c>
-      <c r="AK289" s="68"/>
-      <c r="AL289" s="65" t="str">
+      <c r="AK289" s="37"/>
+      <c r="AL289" s="8" t="str">
         <f>IF(OR(ISBLANK(AT289), ISBLANK(AU289)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-kitchen-dish_washer</v>
       </c>
-      <c r="AM289" s="67" t="s">
+      <c r="AM289" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN289" s="65" t="s">
+      <c r="AN289" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="AO289" s="69" t="s">
+      <c r="AO289" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="AP289" s="65" t="str">
+      <c r="AP289" s="8" t="str">
         <f>IF(OR(ISBLANK(AT289), ISBLANK(AU289)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ289" s="65" t="s">
+      <c r="AQ289" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AS289" s="65" t="s">
+      <c r="AS289" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT289" s="65" t="s">
+      <c r="AT289" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="AU289" s="65" t="s">
+      <c r="AU289" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="AX289" s="65" t="str">
+      <c r="AV289" s="8"/>
+      <c r="AX289" s="8" t="str">
         <f>IF(AND(ISBLANK(AT289), ISBLANK(AU289)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT289), "", _xlfn.CONCAT("[""mac"", """, AT289, """]")), IF(ISBLANK(AU289), "", _xlfn.CONCAT(", [""ip"", """, AU289, """]")), "]"))</f>
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="290" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="65">
+    <row r="290" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="8">
         <v>2558</v>
       </c>
-      <c r="B290" s="65" t="s">
+      <c r="B290" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C290" s="65" t="s">
+      <c r="C290" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D290" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E290" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="F290" s="65" t="str">
+      <c r="D290" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E290" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F290" s="8" t="str">
         <f>IF(ISBLANK(E290), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_clothes_dryer</v>
-      </c>
-      <c r="G290" s="65" t="s">
+        <v>template_laundry_clothes_dryer_plug</v>
+      </c>
+      <c r="G290" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="H290" s="65" t="s">
+      <c r="H290" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I290" s="65" t="s">
+      <c r="I290" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O290" s="65" t="s">
+      <c r="O290" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P290" s="65" t="s">
+      <c r="P290" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="Q290" s="65" t="s">
+      <c r="Q290" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="R290" s="65" t="str">
+      <c r="R290" s="8" t="str">
         <f>R291</f>
         <v>Laundry Clothes Dryer</v>
       </c>
-      <c r="S290" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO291, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S290" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U290" s="67"/>
-      <c r="V290" s="67"/>
-      <c r="W290" s="67"/>
-      <c r="X290" s="67"/>
-      <c r="Y290" s="67"/>
-      <c r="AE290" s="67"/>
-      <c r="AG290" s="65" t="str">
+      <c r="T290" s="8"/>
+      <c r="U290" s="10"/>
+      <c r="V290" s="10"/>
+      <c r="W290" s="10"/>
+      <c r="X290" s="10"/>
+      <c r="Y290" s="10"/>
+      <c r="Z290" s="8"/>
+      <c r="AE290" s="10"/>
+      <c r="AG290" s="8" t="str">
         <f>IF(ISBLANK(AF290),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C290), "/", E290, "/config"))</f>
         <v/>
       </c>
-      <c r="AH290" s="65" t="str">
+      <c r="AH290" s="8" t="str">
         <f>IF(ISBLANK(AF290),  "", _xlfn.CONCAT(LOWER(C290), "/", E290))</f>
         <v/>
       </c>
-      <c r="AK290" s="68"/>
-      <c r="AM290" s="67"/>
-      <c r="AO290" s="69"/>
-      <c r="AX290" s="66" t="str">
+      <c r="AK290" s="37"/>
+      <c r="AO290" s="14"/>
+      <c r="AU290" s="8"/>
+      <c r="AV290" s="8"/>
+      <c r="AX290" s="8" t="str">
         <f>IF(AND(ISBLANK(AT290), ISBLANK(AU290)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT290), "", _xlfn.CONCAT("[""mac"", """, AT290, """]")), IF(ISBLANK(AU290), "", _xlfn.CONCAT(", [""ip"", """, AU290, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="65">
+    <row r="291" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="8">
         <v>2559</v>
       </c>
-      <c r="B291" s="65" t="s">
+      <c r="B291" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C291" s="65" t="s">
+      <c r="C291" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D291" s="65" t="s">
+      <c r="D291" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E291" s="65" t="s">
+      <c r="E291" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F291" s="65" t="str">
+      <c r="F291" s="8" t="str">
         <f>IF(ISBLANK(E291), "", Table2[[#This Row],[unique_id]])</f>
         <v>laundry_clothes_dryer</v>
       </c>
-      <c r="G291" s="65" t="s">
+      <c r="G291" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="H291" s="65" t="s">
+      <c r="H291" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I291" s="65" t="s">
+      <c r="I291" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M291" s="65" t="s">
+      <c r="M291" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O291" s="65" t="s">
+      <c r="O291" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P291" s="65" t="s">
+      <c r="P291" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="Q291" s="65" t="s">
+      <c r="Q291" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="R291" s="65" t="str">
+      <c r="R291" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
         <v>Laundry Clothes Dryer</v>
       </c>
-      <c r="S291" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.laundry_clothes_dryer_current_consumption
+      <c r="S291" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.laundry_clothes_dryer_current_consumption
 energy_sensor_id: sensor.laundry_clothes_dryer_total_consumption
 </v>
       </c>
-      <c r="U291" s="67"/>
-      <c r="V291" s="67"/>
-      <c r="W291" s="67"/>
-      <c r="X291" s="67"/>
-      <c r="Y291" s="67"/>
-      <c r="AC291" s="65" t="s">
+      <c r="T291" s="8"/>
+      <c r="U291" s="10"/>
+      <c r="V291" s="10"/>
+      <c r="W291" s="10"/>
+      <c r="X291" s="10"/>
+      <c r="Y291" s="10"/>
+      <c r="Z291" s="8"/>
+      <c r="AC291" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AE291" s="67"/>
-      <c r="AG291" s="65" t="str">
+      <c r="AE291" s="10"/>
+      <c r="AG291" s="8" t="str">
         <f>IF(ISBLANK(AF291),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C291), "/", E291, "/config"))</f>
         <v/>
       </c>
-      <c r="AH291" s="65" t="str">
+      <c r="AH291" s="8" t="str">
         <f>IF(ISBLANK(AF291),  "", _xlfn.CONCAT(LOWER(C291), "/", E291))</f>
         <v/>
       </c>
-      <c r="AK291" s="68"/>
-      <c r="AL291" s="65" t="str">
+      <c r="AK291" s="37"/>
+      <c r="AL291" s="8" t="str">
         <f>IF(OR(ISBLANK(AT291), ISBLANK(AU291)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-laundry-clothes-dryer</v>
       </c>
-      <c r="AM291" s="67" t="s">
+      <c r="AM291" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN291" s="65" t="s">
+      <c r="AN291" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="AO291" s="69" t="s">
+      <c r="AO291" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="AP291" s="65" t="str">
+      <c r="AP291" s="8" t="str">
         <f>IF(OR(ISBLANK(AT291), ISBLANK(AU291)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ291" s="65" t="s">
+      <c r="AQ291" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="AS291" s="65" t="s">
+      <c r="AS291" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT291" s="65" t="s">
+      <c r="AT291" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="AU291" s="65" t="s">
+      <c r="AU291" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="AX291" s="65" t="str">
+      <c r="AV291" s="8"/>
+      <c r="AX291" s="8" t="str">
         <f>IF(AND(ISBLANK(AT291), ISBLANK(AU291)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT291), "", _xlfn.CONCAT("[""mac"", """, AT291, """]")), IF(ISBLANK(AU291), "", _xlfn.CONCAT(", [""ip"", """, AU291, """]")), "]"))</f>
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="292" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="65">
+    <row r="292" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="8">
         <v>2560</v>
       </c>
-      <c r="B292" s="65" t="s">
+      <c r="B292" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C292" s="65" t="s">
+      <c r="C292" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D292" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E292" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="F292" s="65" t="str">
+      <c r="D292" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F292" s="8" t="str">
         <f>IF(ISBLANK(E292), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_washing_machine</v>
-      </c>
-      <c r="G292" s="65" t="s">
+        <v>template_laundry_washing_machine_plug</v>
+      </c>
+      <c r="G292" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="H292" s="65" t="s">
+      <c r="H292" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I292" s="65" t="s">
+      <c r="I292" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O292" s="65" t="s">
+      <c r="O292" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P292" s="65" t="s">
+      <c r="P292" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="Q292" s="65" t="s">
+      <c r="Q292" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="R292" s="65" t="str">
+      <c r="R292" s="8" t="str">
         <f>R293</f>
         <v>Laundry Washing Machine</v>
       </c>
-      <c r="S292" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO293, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S292" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U292" s="67"/>
-      <c r="V292" s="67"/>
-      <c r="W292" s="67"/>
-      <c r="X292" s="67"/>
-      <c r="Y292" s="67"/>
-      <c r="AE292" s="67"/>
-      <c r="AK292" s="68"/>
-      <c r="AM292" s="67"/>
-      <c r="AO292" s="69"/>
-    </row>
-    <row r="293" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="65">
+      <c r="T292" s="8"/>
+      <c r="U292" s="10"/>
+      <c r="V292" s="10"/>
+      <c r="W292" s="10"/>
+      <c r="X292" s="10"/>
+      <c r="Y292" s="10"/>
+      <c r="Z292" s="8"/>
+      <c r="AE292" s="10"/>
+      <c r="AK292" s="37"/>
+      <c r="AO292" s="14"/>
+      <c r="AU292" s="8"/>
+      <c r="AV292" s="8"/>
+    </row>
+    <row r="293" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="8">
         <v>2561</v>
       </c>
-      <c r="B293" s="65" t="s">
+      <c r="B293" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C293" s="65" t="s">
+      <c r="C293" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D293" s="65" t="s">
+      <c r="D293" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E293" s="65" t="s">
+      <c r="E293" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F293" s="65" t="str">
+      <c r="F293" s="8" t="str">
         <f>IF(ISBLANK(E293), "", Table2[[#This Row],[unique_id]])</f>
         <v>laundry_washing_machine</v>
       </c>
-      <c r="G293" s="65" t="s">
+      <c r="G293" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="H293" s="65" t="s">
+      <c r="H293" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I293" s="65" t="s">
+      <c r="I293" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M293" s="65" t="s">
+      <c r="M293" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O293" s="65" t="s">
+      <c r="O293" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P293" s="65" t="s">
+      <c r="P293" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="Q293" s="65" t="s">
+      <c r="Q293" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="R293" s="65" t="str">
+      <c r="R293" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
         <v>Laundry Washing Machine</v>
       </c>
-      <c r="S293" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.laundry_washing_machine_current_consumption
+      <c r="S293" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.laundry_washing_machine_current_consumption
 energy_sensor_id: sensor.laundry_washing_machine_total_consumption
 </v>
       </c>
-      <c r="U293" s="67"/>
-      <c r="V293" s="67"/>
-      <c r="W293" s="67"/>
-      <c r="X293" s="67"/>
-      <c r="Y293" s="67"/>
-      <c r="AC293" s="65" t="s">
+      <c r="T293" s="8"/>
+      <c r="U293" s="10"/>
+      <c r="V293" s="10"/>
+      <c r="W293" s="10"/>
+      <c r="X293" s="10"/>
+      <c r="Y293" s="10"/>
+      <c r="Z293" s="8"/>
+      <c r="AC293" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AE293" s="67"/>
-      <c r="AG293" s="65" t="str">
+      <c r="AE293" s="10"/>
+      <c r="AG293" s="8" t="str">
         <f>IF(ISBLANK(AF293),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C293), "/", E293, "/config"))</f>
         <v/>
       </c>
-      <c r="AH293" s="65" t="str">
+      <c r="AH293" s="8" t="str">
         <f>IF(ISBLANK(AF293),  "", _xlfn.CONCAT(LOWER(C293), "/", E293))</f>
         <v/>
       </c>
-      <c r="AK293" s="68"/>
-      <c r="AL293" s="65" t="str">
+      <c r="AK293" s="37"/>
+      <c r="AL293" s="8" t="str">
         <f>IF(OR(ISBLANK(AT293), ISBLANK(AU293)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-laundry-washing-machine</v>
       </c>
-      <c r="AM293" s="67" t="s">
+      <c r="AM293" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN293" s="65" t="s">
+      <c r="AN293" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="AO293" s="69" t="s">
+      <c r="AO293" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="AP293" s="65" t="str">
+      <c r="AP293" s="8" t="str">
         <f>IF(OR(ISBLANK(AT293), ISBLANK(AU293)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ293" s="65" t="s">
+      <c r="AQ293" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="AS293" s="65" t="s">
+      <c r="AS293" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT293" s="65" t="s">
+      <c r="AT293" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="AU293" s="65" t="s">
+      <c r="AU293" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="AX293" s="65" t="str">
+      <c r="AV293" s="8"/>
+      <c r="AX293" s="8" t="str">
         <f>IF(AND(ISBLANK(AT293), ISBLANK(AU293)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT293), "", _xlfn.CONCAT("[""mac"", """, AT293, """]")), IF(ISBLANK(AU293), "", _xlfn.CONCAT(", [""ip"", """, AU293, """]")), "]"))</f>
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="294" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="65">
+    <row r="294" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="8">
         <v>2562</v>
       </c>
-      <c r="B294" s="65" t="s">
+      <c r="B294" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="C294" s="65" t="s">
+      <c r="C294" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D294" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E294" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="F294" s="65" t="str">
+      <c r="D294" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E294" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F294" s="8" t="str">
         <f>IF(ISBLANK(E294), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_machine</v>
-      </c>
-      <c r="G294" s="65" t="s">
+        <v>template_kitchen_coffee_machine_plug</v>
+      </c>
+      <c r="G294" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H294" s="65" t="s">
+      <c r="H294" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I294" s="65" t="s">
+      <c r="I294" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O294" s="65" t="s">
+      <c r="O294" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P294" s="65" t="s">
+      <c r="P294" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="Q294" s="65" t="s">
+      <c r="Q294" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="R294" s="65" t="str">
+      <c r="R294" s="8" t="str">
         <f>R295</f>
         <v>Kitchen Coffee Machine</v>
       </c>
-      <c r="S294" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO295, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S294" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U294" s="67"/>
-      <c r="V294" s="67"/>
-      <c r="W294" s="67"/>
-      <c r="X294" s="67"/>
-      <c r="Y294" s="67"/>
-      <c r="AE294" s="67"/>
-      <c r="AG294" s="65" t="str">
+      <c r="T294" s="8"/>
+      <c r="U294" s="10"/>
+      <c r="V294" s="10"/>
+      <c r="W294" s="10"/>
+      <c r="X294" s="10"/>
+      <c r="Y294" s="10"/>
+      <c r="Z294" s="8"/>
+      <c r="AE294" s="10"/>
+      <c r="AG294" s="8" t="str">
         <f>IF(ISBLANK(AF294),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C294), "/", E294, "/config"))</f>
         <v/>
       </c>
-      <c r="AH294" s="65" t="str">
+      <c r="AH294" s="8" t="str">
         <f>IF(ISBLANK(AF294),  "", _xlfn.CONCAT(LOWER(C294), "/", E294))</f>
         <v/>
       </c>
-      <c r="AK294" s="68"/>
-      <c r="AM294" s="67"/>
-      <c r="AO294" s="69"/>
-      <c r="AX294" s="66" t="str">
+      <c r="AK294" s="37"/>
+      <c r="AO294" s="14"/>
+      <c r="AU294" s="8"/>
+      <c r="AV294" s="8"/>
+      <c r="AX294" s="8" t="str">
         <f>IF(AND(ISBLANK(AT294), ISBLANK(AU294)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT294), "", _xlfn.CONCAT("[""mac"", """, AT294, """]")), IF(ISBLANK(AU294), "", _xlfn.CONCAT(", [""ip"", """, AU294, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="65">
+    <row r="295" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="8">
         <v>2563</v>
       </c>
-      <c r="B295" s="65" t="s">
+      <c r="B295" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="C295" s="65" t="s">
+      <c r="C295" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D295" s="65" t="s">
+      <c r="D295" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E295" s="65" t="s">
+      <c r="E295" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="F295" s="65" t="str">
+      <c r="F295" s="8" t="str">
         <f>IF(ISBLANK(E295), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_coffee_machine</v>
       </c>
-      <c r="G295" s="65" t="s">
+      <c r="G295" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H295" s="65" t="s">
+      <c r="H295" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I295" s="65" t="s">
+      <c r="I295" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M295" s="65" t="s">
+      <c r="M295" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O295" s="65" t="s">
+      <c r="O295" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P295" s="65" t="s">
+      <c r="P295" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="Q295" s="65" t="s">
+      <c r="Q295" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="R295" s="65" t="str">
+      <c r="R295" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
         <v>Kitchen Coffee Machine</v>
       </c>
-      <c r="S295" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.kitchen_coffee_machine_current_consumption
+      <c r="S295" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.kitchen_coffee_machine_current_consumption
 energy_sensor_id: sensor.kitchen_coffee_machine_total_consumption
 </v>
       </c>
-      <c r="U295" s="67"/>
-      <c r="V295" s="67"/>
-      <c r="W295" s="67"/>
-      <c r="X295" s="67"/>
-      <c r="Y295" s="67"/>
-      <c r="AC295" s="65" t="s">
+      <c r="T295" s="8"/>
+      <c r="U295" s="10"/>
+      <c r="V295" s="10"/>
+      <c r="W295" s="10"/>
+      <c r="X295" s="10"/>
+      <c r="Y295" s="10"/>
+      <c r="Z295" s="8"/>
+      <c r="AC295" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="AE295" s="67"/>
-      <c r="AG295" s="65" t="str">
+      <c r="AE295" s="10"/>
+      <c r="AG295" s="8" t="str">
         <f>IF(ISBLANK(AF295),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C295), "/", E295, "/config"))</f>
         <v/>
       </c>
-      <c r="AH295" s="65" t="str">
+      <c r="AH295" s="8" t="str">
         <f>IF(ISBLANK(AF295),  "", _xlfn.CONCAT(LOWER(C295), "/", E295))</f>
         <v/>
       </c>
-      <c r="AK295" s="68"/>
-      <c r="AL295" s="65" t="str">
+      <c r="AK295" s="37"/>
+      <c r="AL295" s="8" t="str">
         <f>IF(OR(ISBLANK(AT295), ISBLANK(AU295)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-kitchen-coffee-machine</v>
       </c>
-      <c r="AM295" s="67" t="s">
+      <c r="AM295" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN295" s="65" t="s">
+      <c r="AN295" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="AO295" s="65" t="s">
+      <c r="AO295" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="AP295" s="65" t="str">
+      <c r="AP295" s="8" t="str">
         <f>IF(OR(ISBLANK(AT295), ISBLANK(AU295)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ295" s="65" t="s">
+      <c r="AQ295" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AS295" s="65" t="s">
+      <c r="AS295" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT295" s="65" t="s">
+      <c r="AT295" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="AU295" s="65" t="s">
+      <c r="AU295" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="AX295" s="65" t="str">
+      <c r="AV295" s="8"/>
+      <c r="AX295" s="8" t="str">
         <f>IF(AND(ISBLANK(AT295), ISBLANK(AU295)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT295), "", _xlfn.CONCAT("[""mac"", """, AT295, """]")), IF(ISBLANK(AU295), "", _xlfn.CONCAT(", [""ip"", """, AU295, """]")), "]"))</f>
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="296" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="65">
+    <row r="296" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="8">
         <v>2564</v>
       </c>
-      <c r="B296" s="65" t="s">
+      <c r="B296" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C296" s="65" t="s">
+      <c r="C296" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D296" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E296" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="F296" s="65" t="str">
+      <c r="D296" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E296" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F296" s="8" t="str">
         <f>IF(ISBLANK(E296), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fridge</v>
-      </c>
-      <c r="G296" s="65" t="s">
+        <v>template_kitchen_fridge_plug</v>
+      </c>
+      <c r="G296" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H296" s="65" t="s">
+      <c r="H296" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I296" s="65" t="s">
+      <c r="I296" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O296" s="65" t="s">
+      <c r="O296" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P296" s="65" t="s">
+      <c r="P296" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q296" s="65" t="s">
+      <c r="Q296" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="R296" s="65" t="str">
+      <c r="R296" s="8" t="str">
         <f>R297</f>
         <v>Kitchen Fridge</v>
       </c>
-      <c r="S296" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO297, CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
+      <c r="S296" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 1.54", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 2.19", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 1.54
+unavailable_power: 0
+fixed:
+  power: 2.19
 </v>
       </c>
-      <c r="U296" s="67"/>
-      <c r="V296" s="67"/>
-      <c r="W296" s="67"/>
-      <c r="X296" s="67"/>
-      <c r="Y296" s="67"/>
-      <c r="AE296" s="67"/>
-      <c r="AG296" s="65" t="str">
+      <c r="T296" s="8"/>
+      <c r="U296" s="10"/>
+      <c r="V296" s="10"/>
+      <c r="W296" s="10"/>
+      <c r="X296" s="10"/>
+      <c r="Y296" s="10"/>
+      <c r="Z296" s="8"/>
+      <c r="AE296" s="10"/>
+      <c r="AG296" s="8" t="str">
         <f>IF(ISBLANK(AF296),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C296), "/", E296, "/config"))</f>
         <v/>
       </c>
-      <c r="AH296" s="65" t="str">
+      <c r="AH296" s="8" t="str">
         <f>IF(ISBLANK(AF296),  "", _xlfn.CONCAT(LOWER(C296), "/", E296))</f>
         <v/>
       </c>
-      <c r="AK296" s="68"/>
-      <c r="AM296" s="67"/>
-      <c r="AX296" s="66" t="str">
+      <c r="AK296" s="37"/>
+      <c r="AU296" s="8"/>
+      <c r="AV296" s="8"/>
+      <c r="AX296" s="8" t="str">
         <f>IF(AND(ISBLANK(AT296), ISBLANK(AU296)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT296), "", _xlfn.CONCAT("[""mac"", """, AT296, """]")), IF(ISBLANK(AU296), "", _xlfn.CONCAT(", [""ip"", """, AU296, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="65">
+    <row r="297" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="8">
         <v>2565</v>
       </c>
-      <c r="B297" s="65" t="s">
+      <c r="B297" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C297" s="65" t="s">
+      <c r="C297" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D297" s="65" t="s">
+      <c r="D297" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E297" s="65" t="s">
+      <c r="E297" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F297" s="65" t="str">
+      <c r="F297" s="8" t="str">
         <f>IF(ISBLANK(E297), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_fridge</v>
       </c>
-      <c r="G297" s="65" t="s">
+      <c r="G297" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H297" s="65" t="s">
+      <c r="H297" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I297" s="65" t="s">
+      <c r="I297" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M297" s="65" t="s">
+      <c r="M297" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O297" s="65" t="s">
+      <c r="O297" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P297" s="65" t="s">
+      <c r="P297" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q297" s="65" t="s">
+      <c r="Q297" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="R297" s="65" t="str">
+      <c r="R297" s="8" t="str">
         <f>Table2[[#This Row],[friendly_name]]</f>
         <v>Kitchen Fridge</v>
       </c>
-      <c r="S297" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
-power_sensor_id: sensor.kitchen_fridge_current_consumption
+      <c r="S297" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.kitchen_fridge_current_consumption
 energy_sensor_id: sensor.kitchen_fridge_total_consumption
 </v>
       </c>
-      <c r="U297" s="67"/>
-      <c r="V297" s="67"/>
-      <c r="W297" s="67"/>
-      <c r="X297" s="67"/>
-      <c r="Y297" s="67"/>
-      <c r="AC297" s="65" t="s">
+      <c r="T297" s="8"/>
+      <c r="U297" s="10"/>
+      <c r="V297" s="10"/>
+      <c r="W297" s="10"/>
+      <c r="X297" s="10"/>
+      <c r="Y297" s="10"/>
+      <c r="Z297" s="8"/>
+      <c r="AC297" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="AE297" s="67"/>
-      <c r="AG297" s="65" t="str">
+      <c r="AE297" s="10"/>
+      <c r="AG297" s="8" t="str">
         <f>IF(ISBLANK(AF297),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C297), "/", E297, "/config"))</f>
         <v/>
       </c>
-      <c r="AH297" s="65" t="str">
+      <c r="AH297" s="8" t="str">
         <f>IF(ISBLANK(AF297),  "", _xlfn.CONCAT(LOWER(C297), "/", E297))</f>
         <v/>
       </c>
-      <c r="AK297" s="68"/>
-      <c r="AL297" s="65" t="str">
+      <c r="AK297" s="37"/>
+      <c r="AL297" s="8" t="str">
         <f>IF(OR(ISBLANK(AT297), ISBLANK(AU297)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-kitchen-fridge</v>
       </c>
-      <c r="AM297" s="67" t="s">
+      <c r="AM297" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AN297" s="65" t="s">
+      <c r="AN297" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="AO297" s="65" t="s">
+      <c r="AO297" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="AP297" s="65" t="str">
+      <c r="AP297" s="8" t="str">
         <f>IF(OR(ISBLANK(AT297), ISBLANK(AU297)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ297" s="65" t="s">
+      <c r="AQ297" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AS297" s="65" t="s">
+      <c r="AS297" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT297" s="65" t="s">
+      <c r="AT297" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="AU297" s="65" t="s">
+      <c r="AU297" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="AX297" s="65" t="str">
+      <c r="AV297" s="8"/>
+      <c r="AX297" s="8" t="str">
         <f>IF(AND(ISBLANK(AT297), ISBLANK(AU297)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT297), "", _xlfn.CONCAT("[""mac"", """, AT297, """]")), IF(ISBLANK(AU297), "", _xlfn.CONCAT(", [""ip"", """, AU297, """]")), "]"))</f>
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="298" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="65">
+    <row r="298" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="8">
         <v>2566</v>
       </c>
-      <c r="B298" s="65" t="s">
+      <c r="B298" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C298" s="65" t="s">
+      <c r="C298" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D298" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E298" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="F298" s="65" t="str">
+      <c r="D298" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F298" s="8" t="str">
         <f>IF(ISBLANK(E298), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_freezer</v>
-      </c>
-      <c r="G298" s="65" t="s">
+        <v>template_deck_freezer_plug</v>
+      </c>
+      <c r="G298" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H298" s="65" t="s">
+      <c r="H298" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I298" s="65" t="s">
+      <c r="I298" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O298" s="65" t="s">
+      <c r="O298" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P298" s="65" t="s">
+      <c r="P298" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q298" s="65" t="s">
+      <c r="Q298" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="R298" s="65" t="str">
+      <c r="R298" s="8" t="str">
         <f>R299</f>
         <v>Deck Freezer</v>
       </c>
-      <c r="S298" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO299, CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
+      <c r="S298" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 1.54", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 2.19", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 1.54
+unavailable_power: 0
+fixed:
+  power: 2.19
 </v>
       </c>
-      <c r="U298" s="67"/>
-      <c r="V298" s="67"/>
-      <c r="W298" s="67"/>
-      <c r="X298" s="67"/>
-      <c r="Y298" s="67"/>
-      <c r="AE298" s="67"/>
-      <c r="AG298" s="65" t="str">
+      <c r="T298" s="8"/>
+      <c r="U298" s="10"/>
+      <c r="V298" s="10"/>
+      <c r="W298" s="10"/>
+      <c r="X298" s="10"/>
+      <c r="Y298" s="10"/>
+      <c r="Z298" s="8"/>
+      <c r="AE298" s="10"/>
+      <c r="AG298" s="8" t="str">
         <f>IF(ISBLANK(AF298),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C298), "/", E298, "/config"))</f>
         <v/>
       </c>
-      <c r="AH298" s="65" t="str">
+      <c r="AH298" s="8" t="str">
         <f>IF(ISBLANK(AF298),  "", _xlfn.CONCAT(LOWER(C298), "/", E298))</f>
         <v/>
       </c>
-      <c r="AK298" s="68"/>
-      <c r="AM298" s="67"/>
-      <c r="AX298" s="66" t="str">
+      <c r="AK298" s="37"/>
+      <c r="AU298" s="8"/>
+      <c r="AV298" s="8"/>
+      <c r="AX298" s="8" t="str">
         <f>IF(AND(ISBLANK(AT298), ISBLANK(AU298)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT298), "", _xlfn.CONCAT("[""mac"", """, AT298, """]")), IF(ISBLANK(AU298), "", _xlfn.CONCAT(", [""ip"", """, AU298, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="65">
+    <row r="299" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="8">
         <v>2567</v>
       </c>
-      <c r="B299" s="65" t="s">
+      <c r="B299" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C299" s="65" t="s">
+      <c r="C299" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D299" s="65" t="s">
+      <c r="D299" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E299" s="65" t="s">
+      <c r="E299" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="F299" s="65" t="str">
+      <c r="F299" s="8" t="str">
         <f>IF(ISBLANK(E299), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_freezer</v>
       </c>
-      <c r="G299" s="65" t="s">
+      <c r="G299" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H299" s="65" t="s">
+      <c r="H299" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I299" s="65" t="s">
+      <c r="I299" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M299" s="65" t="s">
+      <c r="M299" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O299" s="65" t="s">
+      <c r="O299" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P299" s="65" t="s">
+      <c r="P299" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q299" s="65" t="s">
+      <c r="Q299" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="R299" s="65" t="str">
+      <c r="R299" s="8" t="str">
         <f>Table2[[#This Row],[friendly_name]]</f>
         <v>Deck Freezer</v>
       </c>
-      <c r="S299" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
-power_sensor_id: sensor.deck_freezer_current_consumption
+      <c r="S299" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.deck_freezer_current_consumption
 energy_sensor_id: sensor.deck_freezer_total_consumption
 </v>
       </c>
-      <c r="U299" s="67"/>
-      <c r="V299" s="67"/>
-      <c r="W299" s="67"/>
-      <c r="X299" s="67"/>
-      <c r="Y299" s="67"/>
-      <c r="AC299" s="65" t="s">
+      <c r="T299" s="8"/>
+      <c r="U299" s="10"/>
+      <c r="V299" s="10"/>
+      <c r="W299" s="10"/>
+      <c r="X299" s="10"/>
+      <c r="Y299" s="10"/>
+      <c r="Z299" s="8"/>
+      <c r="AC299" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="AE299" s="67"/>
-      <c r="AG299" s="65" t="str">
+      <c r="AE299" s="10"/>
+      <c r="AG299" s="8" t="str">
         <f>IF(ISBLANK(AF299),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C299), "/", E299, "/config"))</f>
         <v/>
       </c>
-      <c r="AH299" s="65" t="str">
+      <c r="AH299" s="8" t="str">
         <f>IF(ISBLANK(AF299),  "", _xlfn.CONCAT(LOWER(C299), "/", E299))</f>
         <v/>
       </c>
-      <c r="AK299" s="68"/>
-      <c r="AL299" s="65" t="str">
+      <c r="AK299" s="37"/>
+      <c r="AL299" s="8" t="str">
         <f>IF(OR(ISBLANK(AT299), ISBLANK(AU299)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-deck-freezer</v>
       </c>
-      <c r="AM299" s="67" t="s">
+      <c r="AM299" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AN299" s="65" t="s">
+      <c r="AN299" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="AO299" s="65" t="s">
+      <c r="AO299" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="AP299" s="65" t="str">
+      <c r="AP299" s="8" t="str">
         <f>IF(OR(ISBLANK(AT299), ISBLANK(AU299)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ299" s="65" t="s">
+      <c r="AQ299" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="AS299" s="65" t="s">
+      <c r="AS299" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT299" s="65" t="s">
+      <c r="AT299" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="AU299" s="65" t="s">
+      <c r="AU299" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="AX299" s="65" t="str">
+      <c r="AV299" s="8"/>
+      <c r="AX299" s="8" t="str">
         <f>IF(AND(ISBLANK(AT299), ISBLANK(AU299)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT299), "", _xlfn.CONCAT("[""mac"", """, AT299, """]")), IF(ISBLANK(AU299), "", _xlfn.CONCAT(", [""ip"", """, AU299, """]")), "]"))</f>
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="300" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="65">
+    <row r="300" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="8">
         <v>2568</v>
       </c>
-      <c r="B300" s="65" t="s">
+      <c r="B300" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C300" s="65" t="s">
+      <c r="C300" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D300" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E300" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="F300" s="65" t="str">
+      <c r="D300" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E300" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F300" s="8" t="str">
         <f>IF(ISBLANK(E300), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_battery_charger</v>
-      </c>
-      <c r="G300" s="65" t="s">
+        <v>template_study_battery_charger_plug_plug</v>
+      </c>
+      <c r="G300" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="H300" s="65" t="s">
+      <c r="H300" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I300" s="65" t="s">
+      <c r="I300" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O300" s="65" t="s">
+      <c r="O300" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P300" s="65" t="s">
+      <c r="P300" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q300" s="65" t="s">
+      <c r="Q300" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="R300" s="65" t="str">
+      <c r="R300" s="8" t="str">
         <f>R301</f>
         <v>Study Battery Charger</v>
       </c>
-      <c r="S300" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO301, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S300" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U300" s="67"/>
-      <c r="V300" s="67"/>
-      <c r="W300" s="67"/>
-      <c r="X300" s="67"/>
-      <c r="Y300" s="67"/>
-      <c r="AE300" s="67"/>
-      <c r="AG300" s="65" t="str">
+      <c r="T300" s="8"/>
+      <c r="U300" s="10"/>
+      <c r="V300" s="10"/>
+      <c r="W300" s="10"/>
+      <c r="X300" s="10"/>
+      <c r="Y300" s="10"/>
+      <c r="Z300" s="8"/>
+      <c r="AE300" s="10"/>
+      <c r="AG300" s="8" t="str">
         <f>IF(ISBLANK(AF300),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C300), "/", E300, "/config"))</f>
         <v/>
       </c>
-      <c r="AH300" s="65" t="str">
+      <c r="AH300" s="8" t="str">
         <f>IF(ISBLANK(AF300),  "", _xlfn.CONCAT(LOWER(C300), "/", E300))</f>
         <v/>
       </c>
-      <c r="AK300" s="68"/>
-      <c r="AM300" s="67"/>
-      <c r="AX300" s="66" t="str">
+      <c r="AK300" s="37"/>
+      <c r="AU300" s="8"/>
+      <c r="AV300" s="8"/>
+      <c r="AX300" s="8" t="str">
         <f>IF(AND(ISBLANK(AT300), ISBLANK(AU300)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT300), "", _xlfn.CONCAT("[""mac"", """, AT300, """]")), IF(ISBLANK(AU300), "", _xlfn.CONCAT(", [""ip"", """, AU300, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="65">
+    <row r="301" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="8">
         <v>2569</v>
       </c>
-      <c r="B301" s="65" t="s">
+      <c r="B301" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C301" s="65" t="s">
+      <c r="C301" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D301" s="65" t="s">
+      <c r="D301" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E301" s="65" t="s">
+      <c r="E301" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F301" s="65" t="str">
+      <c r="F301" s="8" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
         <v>study_battery_charger</v>
       </c>
-      <c r="G301" s="65" t="s">
+      <c r="G301" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="H301" s="65" t="s">
+      <c r="H301" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I301" s="65" t="s">
+      <c r="I301" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M301" s="65" t="s">
+      <c r="M301" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O301" s="65" t="s">
+      <c r="O301" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P301" s="65" t="s">
+      <c r="P301" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q301" s="65" t="s">
+      <c r="Q301" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="R301" s="65" t="str">
+      <c r="R301" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
         <v>Study Battery Charger</v>
       </c>
-      <c r="S301" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.study_battery_charger_current_consumption
+      <c r="S301" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.study_battery_charger_current_consumption
 energy_sensor_id: sensor.study_battery_charger_total_consumption
 </v>
       </c>
-      <c r="U301" s="67"/>
-      <c r="V301" s="67"/>
-      <c r="W301" s="67"/>
-      <c r="X301" s="67"/>
-      <c r="Y301" s="67"/>
-      <c r="AC301" s="65" t="s">
+      <c r="T301" s="8"/>
+      <c r="U301" s="10"/>
+      <c r="V301" s="10"/>
+      <c r="W301" s="10"/>
+      <c r="X301" s="10"/>
+      <c r="Y301" s="10"/>
+      <c r="Z301" s="8"/>
+      <c r="AC301" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="AE301" s="67"/>
-      <c r="AG301" s="65" t="str">
+      <c r="AE301" s="10"/>
+      <c r="AG301" s="8" t="str">
         <f>IF(ISBLANK(AF301),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C301), "/", E301, "/config"))</f>
         <v/>
       </c>
-      <c r="AH301" s="65" t="str">
+      <c r="AH301" s="8" t="str">
         <f>IF(ISBLANK(AF301),  "", _xlfn.CONCAT(LOWER(C301), "/", E301))</f>
         <v/>
       </c>
-      <c r="AK301" s="68"/>
-      <c r="AL301" s="65" t="str">
+      <c r="AK301" s="37"/>
+      <c r="AL301" s="8" t="str">
         <f>IF(OR(ISBLANK(AT301), ISBLANK(AU301)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-study-battery-charger</v>
       </c>
-      <c r="AM301" s="67" t="s">
+      <c r="AM301" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN301" s="65" t="s">
+      <c r="AN301" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="AO301" s="69" t="s">
+      <c r="AO301" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="AP301" s="65" t="str">
+      <c r="AP301" s="8" t="str">
         <f>IF(OR(ISBLANK(AT301), ISBLANK(AU301)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ301" s="65" t="s">
+      <c r="AQ301" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="AS301" s="65" t="s">
+      <c r="AS301" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT301" s="65" t="s">
+      <c r="AT301" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AU301" s="65" t="s">
+      <c r="AU301" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="AX301" s="65" t="str">
+      <c r="AV301" s="8"/>
+      <c r="AX301" s="8" t="str">
         <f>IF(AND(ISBLANK(AT301), ISBLANK(AU301)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT301), "", _xlfn.CONCAT("[""mac"", """, AT301, """]")), IF(ISBLANK(AU301), "", _xlfn.CONCAT(", [""ip"", """, AU301, """]")), "]"))</f>
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="302" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="65">
+    <row r="302" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="8">
         <v>2570</v>
       </c>
-      <c r="B302" s="65" t="s">
+      <c r="B302" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C302" s="65" t="s">
+      <c r="C302" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D302" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E302" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="F302" s="65" t="str">
+      <c r="D302" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E302" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F302" s="8" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_vacuum_charger</v>
-      </c>
-      <c r="G302" s="65" t="s">
+        <v>template_laundry_vacuum_charger_plug</v>
+      </c>
+      <c r="G302" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H302" s="65" t="s">
+      <c r="H302" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I302" s="65" t="s">
+      <c r="I302" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O302" s="65" t="s">
+      <c r="O302" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P302" s="65" t="s">
+      <c r="P302" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q302" s="65" t="s">
+      <c r="Q302" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="R302" s="65" t="str">
+      <c r="R302" s="8" t="str">
         <f>R303</f>
         <v>Laundry Vacuum Charger</v>
       </c>
-      <c r="S302" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO303, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S302" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U302" s="67"/>
-      <c r="V302" s="67"/>
-      <c r="W302" s="67"/>
-      <c r="X302" s="67"/>
-      <c r="Y302" s="67"/>
-      <c r="AE302" s="67"/>
-      <c r="AG302" s="65" t="str">
+      <c r="T302" s="8"/>
+      <c r="U302" s="10"/>
+      <c r="V302" s="10"/>
+      <c r="W302" s="10"/>
+      <c r="X302" s="10"/>
+      <c r="Y302" s="10"/>
+      <c r="Z302" s="8"/>
+      <c r="AE302" s="10"/>
+      <c r="AG302" s="8" t="str">
         <f>IF(ISBLANK(AF302),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C302), "/", E302, "/config"))</f>
         <v/>
       </c>
-      <c r="AH302" s="65" t="str">
+      <c r="AH302" s="8" t="str">
         <f>IF(ISBLANK(AF302),  "", _xlfn.CONCAT(LOWER(C302), "/", E302))</f>
         <v/>
       </c>
-      <c r="AK302" s="68"/>
-      <c r="AM302" s="67"/>
-      <c r="AO302" s="69"/>
-      <c r="AX302" s="66" t="str">
+      <c r="AK302" s="37"/>
+      <c r="AO302" s="14"/>
+      <c r="AU302" s="8"/>
+      <c r="AV302" s="8"/>
+      <c r="AX302" s="8" t="str">
         <f>IF(AND(ISBLANK(AT302), ISBLANK(AU302)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT302), "", _xlfn.CONCAT("[""mac"", """, AT302, """]")), IF(ISBLANK(AU302), "", _xlfn.CONCAT(", [""ip"", """, AU302, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="65">
+    <row r="303" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="8">
         <v>2571</v>
       </c>
-      <c r="B303" s="65" t="s">
+      <c r="B303" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C303" s="65" t="s">
+      <c r="C303" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D303" s="65" t="s">
+      <c r="D303" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E303" s="65" t="s">
+      <c r="E303" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F303" s="65" t="str">
+      <c r="F303" s="8" t="str">
         <f>IF(ISBLANK(E303), "", Table2[[#This Row],[unique_id]])</f>
         <v>laundry_vacuum_charger</v>
       </c>
-      <c r="G303" s="65" t="s">
+      <c r="G303" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H303" s="65" t="s">
+      <c r="H303" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I303" s="65" t="s">
+      <c r="I303" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M303" s="65" t="s">
+      <c r="M303" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O303" s="65" t="s">
+      <c r="O303" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P303" s="65" t="s">
+      <c r="P303" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q303" s="65" t="s">
+      <c r="Q303" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="R303" s="65" t="str">
+      <c r="R303" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
         <v>Laundry Vacuum Charger</v>
       </c>
-      <c r="S303" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.laundry_vacuum_charger_current_consumption
+      <c r="S303" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.laundry_vacuum_charger_current_consumption
 energy_sensor_id: sensor.laundry_vacuum_charger_total_consumption
 </v>
       </c>
-      <c r="U303" s="67"/>
-      <c r="V303" s="67"/>
-      <c r="W303" s="67"/>
-      <c r="X303" s="67"/>
-      <c r="Y303" s="67"/>
-      <c r="AC303" s="65" t="s">
+      <c r="T303" s="8"/>
+      <c r="U303" s="10"/>
+      <c r="V303" s="10"/>
+      <c r="W303" s="10"/>
+      <c r="X303" s="10"/>
+      <c r="Y303" s="10"/>
+      <c r="Z303" s="8"/>
+      <c r="AC303" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="AE303" s="67"/>
-      <c r="AG303" s="65" t="str">
+      <c r="AE303" s="10"/>
+      <c r="AG303" s="8" t="str">
         <f>IF(ISBLANK(AF303),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C303), "/", E303, "/config"))</f>
         <v/>
       </c>
-      <c r="AH303" s="65" t="str">
+      <c r="AH303" s="8" t="str">
         <f>IF(ISBLANK(AF303),  "", _xlfn.CONCAT(LOWER(C303), "/", E303))</f>
         <v/>
       </c>
-      <c r="AK303" s="68"/>
-      <c r="AL303" s="65" t="str">
+      <c r="AK303" s="37"/>
+      <c r="AL303" s="8" t="str">
         <f>IF(OR(ISBLANK(AT303), ISBLANK(AU303)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-laundry-vacuum-charger</v>
       </c>
-      <c r="AM303" s="67" t="s">
+      <c r="AM303" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN303" s="65" t="s">
+      <c r="AN303" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="AO303" s="69" t="s">
+      <c r="AO303" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="AP303" s="65" t="str">
+      <c r="AP303" s="8" t="str">
         <f>IF(OR(ISBLANK(AT303), ISBLANK(AU303)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ303" s="65" t="s">
+      <c r="AQ303" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="AS303" s="65" t="s">
+      <c r="AS303" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT303" s="65" t="s">
+      <c r="AT303" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="AU303" s="65" t="s">
+      <c r="AU303" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="AX303" s="65" t="str">
+      <c r="AV303" s="8"/>
+      <c r="AX303" s="8" t="str">
         <f>IF(AND(ISBLANK(AT303), ISBLANK(AU303)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT303), "", _xlfn.CONCAT("[""mac"", """, AT303, """]")), IF(ISBLANK(AU303), "", _xlfn.CONCAT(", [""ip"", """, AU303, """]")), "]"))</f>
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
@@ -30418,501 +30593,525 @@
         <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.90"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="65">
+    <row r="308" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="8">
         <v>2576</v>
       </c>
-      <c r="B308" s="65" t="s">
+      <c r="B308" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C308" s="65" t="s">
+      <c r="C308" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D308" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E308" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="F308" s="65" t="str">
+      <c r="D308" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F308" s="8" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_outlet</v>
-      </c>
-      <c r="G308" s="65" t="s">
+        <v>template_rack_outlet_plug</v>
+      </c>
+      <c r="G308" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H308" s="65" t="s">
+      <c r="H308" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I308" s="65" t="s">
+      <c r="I308" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O308" s="65" t="s">
+      <c r="O308" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P308" s="65" t="s">
+      <c r="P308" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q308" s="65" t="s">
+      <c r="Q308" s="8" t="s">
         <v>1151</v>
       </c>
-      <c r="R308" s="65" t="str">
+      <c r="R308" s="8" t="str">
         <f>R309</f>
         <v>Server Rack</v>
       </c>
-      <c r="S308" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO309, CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
+      <c r="S308" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 1.54", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 2.19", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 1.54
+unavailable_power: 0
+fixed:
+  power: 2.19
 </v>
       </c>
-      <c r="U308" s="67"/>
-      <c r="V308" s="67"/>
-      <c r="W308" s="67"/>
-      <c r="X308" s="67"/>
-      <c r="Y308" s="67"/>
-      <c r="AE308" s="67"/>
-      <c r="AG308" s="65" t="str">
+      <c r="T308" s="8"/>
+      <c r="U308" s="10"/>
+      <c r="V308" s="10"/>
+      <c r="W308" s="10"/>
+      <c r="X308" s="10"/>
+      <c r="Y308" s="10"/>
+      <c r="Z308" s="8"/>
+      <c r="AE308" s="10"/>
+      <c r="AG308" s="8" t="str">
         <f>IF(ISBLANK(AF308),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C308), "/", E308, "/config"))</f>
         <v/>
       </c>
-      <c r="AH308" s="65" t="str">
+      <c r="AH308" s="8" t="str">
         <f>IF(ISBLANK(AF308),  "", _xlfn.CONCAT(LOWER(C308), "/", E308))</f>
         <v/>
       </c>
-      <c r="AK308" s="68"/>
-      <c r="AM308" s="67"/>
-      <c r="AO308" s="69"/>
-      <c r="AX308" s="66" t="str">
+      <c r="AK308" s="37"/>
+      <c r="AO308" s="14"/>
+      <c r="AU308" s="8"/>
+      <c r="AV308" s="8"/>
+      <c r="AX308" s="8" t="str">
         <f>IF(AND(ISBLANK(AT308), ISBLANK(AU308)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT308), "", _xlfn.CONCAT("[""mac"", """, AT308, """]")), IF(ISBLANK(AU308), "", _xlfn.CONCAT(", [""ip"", """, AU308, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="65">
+    <row r="309" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="8">
         <v>2577</v>
       </c>
-      <c r="B309" s="65" t="s">
+      <c r="B309" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C309" s="65" t="s">
+      <c r="C309" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D309" s="65" t="s">
+      <c r="D309" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E309" s="65" t="s">
+      <c r="E309" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="F309" s="65" t="str">
+      <c r="F309" s="8" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
         <v>rack_outlet</v>
       </c>
-      <c r="G309" s="65" t="s">
+      <c r="G309" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H309" s="65" t="s">
+      <c r="H309" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I309" s="65" t="s">
+      <c r="I309" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M309" s="65" t="s">
+      <c r="M309" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O309" s="65" t="s">
+      <c r="O309" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P309" s="65" t="s">
+      <c r="P309" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q309" s="65" t="s">
+      <c r="Q309" s="8" t="s">
         <v>1151</v>
       </c>
-      <c r="R309" s="65" t="str">
+      <c r="R309" s="8" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
         <v>Server Rack</v>
       </c>
-      <c r="S309" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
-power_sensor_id: sensor.rack_outlet_current_consumption
+      <c r="S309" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.rack_outlet_current_consumption
 energy_sensor_id: sensor.rack_outlet_total_consumption
 </v>
       </c>
-      <c r="U309" s="67"/>
-      <c r="V309" s="67"/>
-      <c r="W309" s="67"/>
-      <c r="X309" s="67"/>
-      <c r="Y309" s="67"/>
-      <c r="AC309" s="65" t="s">
+      <c r="T309" s="8"/>
+      <c r="U309" s="10"/>
+      <c r="V309" s="10"/>
+      <c r="W309" s="10"/>
+      <c r="X309" s="10"/>
+      <c r="Y309" s="10"/>
+      <c r="Z309" s="8"/>
+      <c r="AC309" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="AE309" s="67"/>
-      <c r="AG309" s="65" t="str">
+      <c r="AE309" s="10"/>
+      <c r="AG309" s="8" t="str">
         <f>IF(ISBLANK(AF309),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C309), "/", E309, "/config"))</f>
         <v/>
       </c>
-      <c r="AH309" s="65" t="str">
+      <c r="AH309" s="8" t="str">
         <f>IF(ISBLANK(AF309),  "", _xlfn.CONCAT(LOWER(C309), "/", E309))</f>
         <v/>
       </c>
-      <c r="AK309" s="68"/>
-      <c r="AL309" s="65" t="str">
+      <c r="AK309" s="37"/>
+      <c r="AL309" s="8" t="str">
         <f>IF(OR(ISBLANK(AT309), ISBLANK(AU309)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-rack-outlet</v>
       </c>
-      <c r="AM309" s="67" t="s">
+      <c r="AM309" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AN309" s="65" t="s">
+      <c r="AN309" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="AO309" s="65" t="s">
+      <c r="AO309" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="AP309" s="65" t="str">
+      <c r="AP309" s="8" t="str">
         <f>IF(OR(ISBLANK(AT309), ISBLANK(AU309)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ309" s="65" t="s">
+      <c r="AQ309" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AS309" s="65" t="s">
+      <c r="AS309" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT309" s="65" t="s">
+      <c r="AT309" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="AU309" s="65" t="s">
+      <c r="AU309" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="AX309" s="65" t="str">
+      <c r="AV309" s="8"/>
+      <c r="AX309" s="8" t="str">
         <f>IF(AND(ISBLANK(AT309), ISBLANK(AU309)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT309), "", _xlfn.CONCAT("[""mac"", """, AT309, """]")), IF(ISBLANK(AU309), "", _xlfn.CONCAT(", [""ip"", """, AU309, """]")), "]"))</f>
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="310" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="65">
+    <row r="310" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="8">
         <v>2578</v>
       </c>
-      <c r="B310" s="65" t="s">
+      <c r="B310" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C310" s="65" t="s">
+      <c r="C310" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D310" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E310" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="F310" s="65" t="str">
+      <c r="D310" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E310" s="8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F310" s="8" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_network_switch</v>
-      </c>
-      <c r="G310" s="65" t="s">
+        <v>template_roof_network_switch_plug</v>
+      </c>
+      <c r="G310" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="H310" s="65" t="s">
+      <c r="H310" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I310" s="65" t="s">
+      <c r="I310" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O310" s="65" t="s">
+      <c r="O310" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P310" s="65" t="s">
+      <c r="P310" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q310" s="65" t="s">
+      <c r="Q310" s="8" t="s">
         <v>1151</v>
       </c>
-      <c r="R310" s="65" t="str">
+      <c r="R310" s="8" t="str">
         <f>R311</f>
         <v>Network Switch</v>
       </c>
-      <c r="S310" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO311, CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
+      <c r="S310" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 1.54", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 2.19", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 1.54
+unavailable_power: 0
+fixed:
+  power: 2.19
 </v>
       </c>
-      <c r="U310" s="67"/>
-      <c r="V310" s="67"/>
-      <c r="W310" s="67"/>
-      <c r="X310" s="67"/>
-      <c r="Y310" s="67"/>
-      <c r="AE310" s="67"/>
-      <c r="AG310" s="65" t="str">
+      <c r="T310" s="8"/>
+      <c r="U310" s="10"/>
+      <c r="V310" s="10"/>
+      <c r="W310" s="10"/>
+      <c r="X310" s="10"/>
+      <c r="Y310" s="10"/>
+      <c r="Z310" s="8"/>
+      <c r="AE310" s="10"/>
+      <c r="AG310" s="8" t="str">
         <f>IF(ISBLANK(AF310),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C310), "/", E310, "/config"))</f>
         <v/>
       </c>
-      <c r="AH310" s="65" t="str">
+      <c r="AH310" s="8" t="str">
         <f>IF(ISBLANK(AF310),  "", _xlfn.CONCAT(LOWER(C310), "/", E310))</f>
         <v/>
       </c>
-      <c r="AK310" s="68"/>
-      <c r="AM310" s="67"/>
-      <c r="AX310" s="66" t="str">
+      <c r="AK310" s="37"/>
+      <c r="AU310" s="8"/>
+      <c r="AV310" s="8"/>
+      <c r="AX310" s="8" t="str">
         <f>IF(AND(ISBLANK(AT310), ISBLANK(AU310)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT310), "", _xlfn.CONCAT("[""mac"", """, AT310, """]")), IF(ISBLANK(AU310), "", _xlfn.CONCAT(", [""ip"", """, AU310, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="65">
+    <row r="311" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="8">
         <v>2579</v>
       </c>
-      <c r="B311" s="65" t="s">
+      <c r="B311" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C311" s="65" t="s">
+      <c r="C311" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D311" s="65" t="s">
+      <c r="D311" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E311" s="65" t="s">
+      <c r="E311" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F311" s="65" t="str">
+      <c r="F311" s="8" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_network_switch</v>
       </c>
-      <c r="G311" s="65" t="s">
+      <c r="G311" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="H311" s="65" t="s">
+      <c r="H311" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I311" s="65" t="s">
+      <c r="I311" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M311" s="65" t="s">
+      <c r="M311" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O311" s="65" t="s">
+      <c r="O311" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P311" s="65" t="s">
+      <c r="P311" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q311" s="65" t="s">
+      <c r="Q311" s="8" t="s">
         <v>1151</v>
       </c>
-      <c r="R311" s="65" t="str">
+      <c r="R311" s="8" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
         <v>Network Switch</v>
       </c>
-      <c r="S311" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: HS110
-power_sensor_id: sensor.roof_network_switch_current_consumption
+      <c r="S311" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.roof_network_switch_current_consumption
 energy_sensor_id: sensor.roof_network_switch_total_consumption
 </v>
       </c>
-      <c r="U311" s="67"/>
-      <c r="V311" s="67"/>
-      <c r="W311" s="67"/>
-      <c r="X311" s="67"/>
-      <c r="Y311" s="67"/>
-      <c r="AC311" s="65" t="s">
+      <c r="T311" s="8"/>
+      <c r="U311" s="10"/>
+      <c r="V311" s="10"/>
+      <c r="W311" s="10"/>
+      <c r="X311" s="10"/>
+      <c r="Y311" s="10"/>
+      <c r="Z311" s="8"/>
+      <c r="AC311" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="AE311" s="67"/>
-      <c r="AG311" s="65" t="str">
+      <c r="AE311" s="10"/>
+      <c r="AG311" s="8" t="str">
         <f>IF(ISBLANK(AF311),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C311), "/", E311, "/config"))</f>
         <v/>
       </c>
-      <c r="AH311" s="65" t="str">
+      <c r="AH311" s="8" t="str">
         <f>IF(ISBLANK(AF311),  "", _xlfn.CONCAT(LOWER(C311), "/", E311))</f>
         <v/>
       </c>
-      <c r="AK311" s="68"/>
-      <c r="AL311" s="65" t="str">
+      <c r="AK311" s="37"/>
+      <c r="AL311" s="8" t="str">
         <f>IF(OR(ISBLANK(AT311), ISBLANK(AU311)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-roof-network-switch</v>
       </c>
-      <c r="AM311" s="67" t="s">
+      <c r="AM311" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AN311" s="65" t="s">
+      <c r="AN311" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="AO311" s="65" t="s">
+      <c r="AO311" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="AP311" s="65" t="str">
+      <c r="AP311" s="8" t="str">
         <f>IF(OR(ISBLANK(AT311), ISBLANK(AU311)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ311" s="65" t="s">
+      <c r="AQ311" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AS311" s="65" t="s">
+      <c r="AS311" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT311" s="65" t="s">
+      <c r="AT311" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="AU311" s="65" t="s">
+      <c r="AU311" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="AX311" s="65" t="str">
+      <c r="AV311" s="8"/>
+      <c r="AX311" s="8" t="str">
         <f>IF(AND(ISBLANK(AT311), ISBLANK(AU311)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT311), "", _xlfn.CONCAT("[""mac"", """, AT311, """]")), IF(ISBLANK(AU311), "", _xlfn.CONCAT(", [""ip"", """, AU311, """]")), "]"))</f>
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="312" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="65">
+    <row r="312" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="8">
         <v>2580</v>
       </c>
-      <c r="B312" s="65" t="s">
+      <c r="B312" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C312" s="65" t="s">
+      <c r="C312" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D312" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E312" s="65" t="s">
-        <v>585</v>
-      </c>
-      <c r="F312" s="65" t="str">
+      <c r="D312" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F312" s="8" t="str">
         <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_modem</v>
-      </c>
-      <c r="G312" s="65" t="s">
+        <v>template_rack_modem_plug</v>
+      </c>
+      <c r="G312" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="H312" s="65" t="s">
+      <c r="H312" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I312" s="65" t="s">
+      <c r="I312" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="R312" s="65" t="str">
+      <c r="R312" s="8" t="str">
         <f>R313</f>
         <v>Internet Modem</v>
       </c>
-      <c r="S312" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", AO313, CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
+      <c r="S312" s="11" t="str">
+        <f>_xlfn.CONCAT("standby_power: 0.5", CHAR(10), "unavailable_power: 0", CHAR(10), "fixed:", CHAR(10), "  power: 0.9", CHAR(10))</f>
+        <v xml:space="preserve">standby_power: 0.5
+unavailable_power: 0
+fixed:
+  power: 0.9
 </v>
       </c>
-      <c r="U312" s="67"/>
-      <c r="V312" s="67"/>
-      <c r="W312" s="67"/>
-      <c r="X312" s="67"/>
-      <c r="Y312" s="67"/>
-      <c r="AE312" s="67"/>
-      <c r="AG312" s="65" t="str">
+      <c r="T312" s="8"/>
+      <c r="U312" s="10"/>
+      <c r="V312" s="10"/>
+      <c r="W312" s="10"/>
+      <c r="X312" s="10"/>
+      <c r="Y312" s="10"/>
+      <c r="Z312" s="8"/>
+      <c r="AE312" s="10"/>
+      <c r="AG312" s="8" t="str">
         <f>IF(ISBLANK(AF312),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C312), "/", E312, "/config"))</f>
         <v/>
       </c>
-      <c r="AH312" s="65" t="str">
+      <c r="AH312" s="8" t="str">
         <f>IF(ISBLANK(AF312),  "", _xlfn.CONCAT(LOWER(C312), "/", E312))</f>
         <v/>
       </c>
-      <c r="AK312" s="68"/>
-      <c r="AM312" s="67"/>
-      <c r="AX312" s="66" t="str">
+      <c r="AK312" s="37"/>
+      <c r="AU312" s="8"/>
+      <c r="AV312" s="8"/>
+      <c r="AX312" s="8" t="str">
         <f>IF(AND(ISBLANK(AT312), ISBLANK(AU312)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT312), "", _xlfn.CONCAT("[""mac"", """, AT312, """]")), IF(ISBLANK(AU312), "", _xlfn.CONCAT(", [""ip"", """, AU312, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="65">
+    <row r="313" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="8">
         <v>2581</v>
       </c>
-      <c r="B313" s="65" t="s">
+      <c r="B313" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C313" s="65" t="s">
+      <c r="C313" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D313" s="65" t="s">
+      <c r="D313" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E313" s="65" t="s">
+      <c r="E313" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="F313" s="65" t="str">
+      <c r="F313" s="8" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
         <v>rack_modem</v>
       </c>
-      <c r="G313" s="65" t="s">
+      <c r="G313" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="H313" s="65" t="s">
+      <c r="H313" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="I313" s="65" t="s">
+      <c r="I313" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="M313" s="65" t="s">
+      <c r="M313" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="R313" s="65" t="str">
+      <c r="R313" s="8" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
         <v>Internet Modem</v>
       </c>
-      <c r="S313" s="71" t="str">
-        <f>_xlfn.CONCAT("model: ", Table2[[#This Row],[device_model]],CHAR(10), "power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">model: KP115
-power_sensor_id: sensor.rack_modem_current_consumption
+      <c r="S313" s="11" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.rack_modem_current_consumption
 energy_sensor_id: sensor.rack_modem_total_consumption
 </v>
       </c>
-      <c r="U313" s="67"/>
-      <c r="V313" s="67"/>
-      <c r="W313" s="67"/>
-      <c r="X313" s="67"/>
-      <c r="Y313" s="67"/>
-      <c r="AC313" s="65" t="s">
+      <c r="T313" s="8"/>
+      <c r="U313" s="10"/>
+      <c r="V313" s="10"/>
+      <c r="W313" s="10"/>
+      <c r="X313" s="10"/>
+      <c r="Y313" s="10"/>
+      <c r="Z313" s="8"/>
+      <c r="AC313" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="AE313" s="67"/>
-      <c r="AG313" s="65" t="str">
+      <c r="AE313" s="10"/>
+      <c r="AG313" s="8" t="str">
         <f>IF(ISBLANK(AF313),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C313), "/", E313, "/config"))</f>
         <v/>
       </c>
-      <c r="AH313" s="65" t="str">
+      <c r="AH313" s="8" t="str">
         <f>IF(ISBLANK(AF313),  "", _xlfn.CONCAT(LOWER(C313), "/", E313))</f>
         <v/>
       </c>
-      <c r="AK313" s="68"/>
-      <c r="AL313" s="65" t="str">
+      <c r="AK313" s="37"/>
+      <c r="AL313" s="8" t="str">
         <f>IF(OR(ISBLANK(AT313), ISBLANK(AU313)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>tplink-rack-modem</v>
       </c>
-      <c r="AM313" s="67" t="s">
+      <c r="AM313" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AN313" s="65" t="s">
+      <c r="AN313" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="AO313" s="69" t="s">
+      <c r="AO313" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="AP313" s="65" t="str">
+      <c r="AP313" s="8" t="str">
         <f>IF(OR(ISBLANK(AT313), ISBLANK(AU313)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
-      <c r="AQ313" s="65" t="s">
+      <c r="AQ313" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AS313" s="65" t="s">
+      <c r="AS313" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="AT313" s="65" t="s">
+      <c r="AT313" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="AU313" s="65" t="s">
+      <c r="AU313" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="AX313" s="65" t="str">
+      <c r="AV313" s="8"/>
+      <c r="AX313" s="8" t="str">
         <f>IF(AND(ISBLANK(AT313), ISBLANK(AU313)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT313), "", _xlfn.CONCAT("[""mac"", """, AT313, """]")), IF(ISBLANK(AU313), "", _xlfn.CONCAT(", [""ip"", """, AU313, """]")), "]"))</f>
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
@@ -33035,612 +33234,624 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="65">
+    <row r="348" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="8">
         <v>2650</v>
       </c>
-      <c r="B348" s="65" t="s">
+      <c r="B348" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C348" s="65" t="s">
+      <c r="C348" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D348" s="65" t="s">
+      <c r="D348" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E348" s="65" t="s">
+      <c r="E348" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F348" s="65" t="str">
+      <c r="F348" s="8" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada_home</v>
       </c>
-      <c r="G348" s="65" t="s">
+      <c r="G348" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H348" s="65" t="s">
+      <c r="H348" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="I348" s="65" t="s">
+      <c r="I348" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M348" s="65" t="s">
+      <c r="M348" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N348" s="65" t="s">
+      <c r="N348" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O348" s="65" t="s">
+      <c r="O348" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P348" s="65" t="s">
+      <c r="P348" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q348" s="74" t="s">
+      <c r="Q348" s="52" t="s">
         <v>1133</v>
       </c>
-      <c r="R348" s="65" t="str">
+      <c r="R348" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Ada Audio Visual Devices</v>
       </c>
-      <c r="S348" s="65" t="str">
+      <c r="S348" s="8" t="str">
         <f>_xlfn.CONCAT("name: ", Table2[[#This Row],[friendly_name]])</f>
         <v>name: Ada Home</v>
       </c>
-      <c r="U348" s="67"/>
-      <c r="V348" s="67"/>
-      <c r="W348" s="67"/>
-      <c r="X348" s="67"/>
-      <c r="Y348" s="67"/>
-      <c r="AE348" s="67"/>
-      <c r="AG348" s="65" t="str">
+      <c r="T348" s="8"/>
+      <c r="U348" s="10"/>
+      <c r="V348" s="10"/>
+      <c r="W348" s="10"/>
+      <c r="X348" s="10"/>
+      <c r="Y348" s="10"/>
+      <c r="Z348" s="8"/>
+      <c r="AE348" s="10"/>
+      <c r="AG348" s="8" t="str">
         <f>IF(ISBLANK(AF348),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C348), "/", E348, "/config"))</f>
         <v/>
       </c>
-      <c r="AH348" s="65" t="str">
+      <c r="AH348" s="8" t="str">
         <f>IF(ISBLANK(AF348),  "", _xlfn.CONCAT(LOWER(C348), "/", E348))</f>
         <v/>
       </c>
-      <c r="AK348" s="68"/>
-      <c r="AL348" s="65" t="str">
+      <c r="AK348" s="37"/>
+      <c r="AL348" s="8" t="str">
         <f>IF(OR(ISBLANK(AT348), ISBLANK(AU348)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-ada-home</v>
       </c>
-      <c r="AM348" s="67" t="s">
+      <c r="AM348" s="10" t="s">
         <v>977</v>
       </c>
-      <c r="AN348" s="65" t="s">
+      <c r="AN348" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="AO348" s="65" t="s">
+      <c r="AO348" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="AP348" s="65" t="s">
+      <c r="AP348" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AQ348" s="65" t="s">
+      <c r="AQ348" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AS348" s="65" t="s">
+      <c r="AS348" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="AT348" s="75" t="s">
+      <c r="AT348" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="AU348" s="69" t="s">
+      <c r="AU348" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="AV348" s="69"/>
-      <c r="AW348" s="69"/>
-      <c r="AX348" s="65" t="str">
+      <c r="AV348" s="14"/>
+      <c r="AW348" s="14"/>
+      <c r="AX348" s="8" t="str">
         <f>IF(AND(ISBLANK(AT348), ISBLANK(AU348)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT348), "", _xlfn.CONCAT("[""mac"", """, AT348, """]")), IF(ISBLANK(AU348), "", _xlfn.CONCAT(", [""ip"", """, AU348, """]")), "]"))</f>
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="349" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="65">
+    <row r="349" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="8">
         <v>2651</v>
       </c>
-      <c r="B349" s="65" t="s">
+      <c r="B349" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C349" s="65" t="s">
+      <c r="C349" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D349" s="65" t="s">
+      <c r="D349" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E349" s="65" t="s">
+      <c r="E349" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F349" s="65" t="str">
+      <c r="F349" s="8" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_home</v>
       </c>
-      <c r="G349" s="65" t="s">
+      <c r="G349" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="H349" s="65" t="s">
+      <c r="H349" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="I349" s="65" t="s">
+      <c r="I349" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M349" s="65" t="s">
+      <c r="M349" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N349" s="65" t="s">
+      <c r="N349" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O349" s="65" t="s">
+      <c r="O349" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P349" s="65" t="s">
+      <c r="P349" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q349" s="74" t="s">
+      <c r="Q349" s="52" t="s">
         <v>1133</v>
       </c>
-      <c r="R349" s="65" t="str">
+      <c r="R349" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Edwin Audio Visual Devices</v>
       </c>
-      <c r="S349" s="65" t="str">
+      <c r="S349" s="8" t="str">
         <f>_xlfn.CONCAT("name: ", Table2[[#This Row],[friendly_name]])</f>
         <v>name: Edwin Home</v>
       </c>
-      <c r="U349" s="67"/>
-      <c r="V349" s="67"/>
-      <c r="W349" s="67"/>
-      <c r="X349" s="67"/>
-      <c r="Y349" s="67"/>
-      <c r="AE349" s="67"/>
-      <c r="AG349" s="65" t="str">
+      <c r="T349" s="8"/>
+      <c r="U349" s="10"/>
+      <c r="V349" s="10"/>
+      <c r="W349" s="10"/>
+      <c r="X349" s="10"/>
+      <c r="Y349" s="10"/>
+      <c r="Z349" s="8"/>
+      <c r="AE349" s="10"/>
+      <c r="AG349" s="8" t="str">
         <f>IF(ISBLANK(AF349),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C349), "/", E349, "/config"))</f>
         <v/>
       </c>
-      <c r="AH349" s="65" t="str">
+      <c r="AH349" s="8" t="str">
         <f>IF(ISBLANK(AF349),  "", _xlfn.CONCAT(LOWER(C349), "/", E349))</f>
         <v/>
       </c>
-      <c r="AK349" s="68"/>
-      <c r="AL349" s="65" t="str">
+      <c r="AK349" s="37"/>
+      <c r="AL349" s="8" t="str">
         <f>IF(OR(ISBLANK(AT349), ISBLANK(AU349)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-edwin-home</v>
       </c>
-      <c r="AM349" s="67" t="s">
+      <c r="AM349" s="10" t="s">
         <v>977</v>
       </c>
-      <c r="AN349" s="65" t="s">
+      <c r="AN349" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="AO349" s="65" t="s">
+      <c r="AO349" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="AP349" s="65" t="s">
+      <c r="AP349" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AQ349" s="65" t="s">
+      <c r="AQ349" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AS349" s="65" t="s">
+      <c r="AS349" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="AT349" s="75" t="s">
+      <c r="AT349" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="AU349" s="69" t="s">
+      <c r="AU349" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="AV349" s="69"/>
-      <c r="AW349" s="69"/>
-      <c r="AX349" s="65" t="str">
+      <c r="AV349" s="14"/>
+      <c r="AW349" s="14"/>
+      <c r="AX349" s="8" t="str">
         <f>IF(AND(ISBLANK(AT349), ISBLANK(AU349)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT349), "", _xlfn.CONCAT("[""mac"", """, AT349, """]")), IF(ISBLANK(AU349), "", _xlfn.CONCAT(", [""ip"", """, AU349, """]")), "]"))</f>
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="350" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="65">
+    <row r="350" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="8">
         <v>2652</v>
       </c>
-      <c r="B350" s="65" t="s">
+      <c r="B350" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C350" s="65" t="s">
+      <c r="C350" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D350" s="65" t="s">
+      <c r="D350" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E350" s="65" t="s">
+      <c r="E350" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F350" s="65" t="str">
+      <c r="F350" s="8" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_home</v>
       </c>
-      <c r="G350" s="65" t="s">
+      <c r="G350" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="H350" s="65" t="s">
+      <c r="H350" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="I350" s="65" t="s">
+      <c r="I350" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M350" s="65" t="s">
+      <c r="M350" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N350" s="65" t="s">
+      <c r="N350" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O350" s="65" t="s">
+      <c r="O350" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P350" s="65" t="s">
+      <c r="P350" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q350" s="74" t="s">
+      <c r="Q350" s="52" t="s">
         <v>1133</v>
       </c>
-      <c r="R350" s="65" t="str">
+      <c r="R350" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Parents Audio Visual Devices</v>
       </c>
-      <c r="S350" s="65" t="s">
+      <c r="S350" s="8" t="s">
         <v>1159</v>
       </c>
-      <c r="U350" s="67"/>
-      <c r="V350" s="67"/>
-      <c r="W350" s="67"/>
-      <c r="X350" s="67"/>
-      <c r="Y350" s="67"/>
-      <c r="AE350" s="67"/>
-      <c r="AG350" s="65" t="str">
+      <c r="T350" s="8"/>
+      <c r="U350" s="10"/>
+      <c r="V350" s="10"/>
+      <c r="W350" s="10"/>
+      <c r="X350" s="10"/>
+      <c r="Y350" s="10"/>
+      <c r="Z350" s="8"/>
+      <c r="AE350" s="10"/>
+      <c r="AG350" s="8" t="str">
         <f>IF(ISBLANK(AF350),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C350), "/", E350, "/config"))</f>
         <v/>
       </c>
-      <c r="AH350" s="65" t="str">
+      <c r="AH350" s="8" t="str">
         <f>IF(ISBLANK(AF350),  "", _xlfn.CONCAT(LOWER(C350), "/", E350))</f>
         <v/>
       </c>
-      <c r="AK350" s="68"/>
-      <c r="AL350" s="65" t="str">
+      <c r="AK350" s="37"/>
+      <c r="AL350" s="8" t="str">
         <f>IF(OR(ISBLANK(AT350), ISBLANK(AU350)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-parents-home</v>
       </c>
-      <c r="AM350" s="67" t="s">
+      <c r="AM350" s="10" t="s">
         <v>977</v>
       </c>
-      <c r="AN350" s="65" t="s">
+      <c r="AN350" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="AO350" s="65" t="s">
+      <c r="AO350" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="AP350" s="65" t="s">
+      <c r="AP350" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AQ350" s="65" t="s">
+      <c r="AQ350" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="AS350" s="65" t="s">
+      <c r="AS350" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="AT350" s="75" t="s">
+      <c r="AT350" s="15" t="s">
         <v>975</v>
       </c>
-      <c r="AU350" s="69" t="s">
+      <c r="AU350" s="14" t="s">
         <v>974</v>
       </c>
-      <c r="AV350" s="69"/>
-      <c r="AW350" s="69"/>
-      <c r="AX350" s="65" t="str">
+      <c r="AV350" s="14"/>
+      <c r="AW350" s="14"/>
+      <c r="AX350" s="8" t="str">
         <f>IF(AND(ISBLANK(AT350), ISBLANK(AU350)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT350), "", _xlfn.CONCAT("[""mac"", """, AT350, """]")), IF(ISBLANK(AU350), "", _xlfn.CONCAT(", [""ip"", """, AU350, """]")), "]"))</f>
         <v>[["mac", "dc:e5:5b:a5:a3:0d"], ["ip", "10.0.4.55"]]</v>
       </c>
     </row>
-    <row r="351" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="65">
+    <row r="351" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="8">
         <v>2653</v>
       </c>
-      <c r="B351" s="65" t="s">
+      <c r="B351" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C351" s="65" t="s">
+      <c r="C351" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D351" s="65" t="s">
+      <c r="D351" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E351" s="65" t="s">
+      <c r="E351" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F351" s="65" t="str">
+      <c r="F351" s="8" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_home</v>
       </c>
-      <c r="G351" s="65" t="s">
+      <c r="G351" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="H351" s="65" t="s">
+      <c r="H351" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="I351" s="65" t="s">
+      <c r="I351" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M351" s="65" t="s">
+      <c r="M351" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N351" s="65" t="s">
+      <c r="N351" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O351" s="65" t="s">
+      <c r="O351" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P351" s="65" t="s">
+      <c r="P351" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q351" s="74" t="s">
+      <c r="Q351" s="52" t="s">
         <v>1133</v>
       </c>
-      <c r="R351" s="65" t="str">
+      <c r="R351" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Kitchen Audio Visual Devices</v>
       </c>
-      <c r="S351" s="65" t="s">
+      <c r="S351" s="8" t="s">
         <v>1159</v>
       </c>
-      <c r="U351" s="67"/>
-      <c r="V351" s="67"/>
-      <c r="W351" s="67"/>
-      <c r="X351" s="67"/>
-      <c r="Y351" s="67"/>
-      <c r="AE351" s="67"/>
-      <c r="AG351" s="65" t="str">
+      <c r="T351" s="8"/>
+      <c r="U351" s="10"/>
+      <c r="V351" s="10"/>
+      <c r="W351" s="10"/>
+      <c r="X351" s="10"/>
+      <c r="Y351" s="10"/>
+      <c r="Z351" s="8"/>
+      <c r="AE351" s="10"/>
+      <c r="AG351" s="8" t="str">
         <f>IF(ISBLANK(AF351),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C351), "/", E351, "/config"))</f>
         <v/>
       </c>
-      <c r="AH351" s="65" t="str">
+      <c r="AH351" s="8" t="str">
         <f>IF(ISBLANK(AF351),  "", _xlfn.CONCAT(LOWER(C351), "/", E351))</f>
         <v/>
       </c>
-      <c r="AK351" s="68"/>
-      <c r="AL351" s="65" t="str">
+      <c r="AK351" s="37"/>
+      <c r="AL351" s="8" t="str">
         <f>IF(OR(ISBLANK(AT351), ISBLANK(AU351)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-kitchen-home</v>
       </c>
-      <c r="AM351" s="67" t="s">
+      <c r="AM351" s="10" t="s">
         <v>977</v>
       </c>
-      <c r="AN351" s="65" t="s">
+      <c r="AN351" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="AO351" s="65" t="s">
+      <c r="AO351" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="AP351" s="65" t="s">
+      <c r="AP351" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AQ351" s="65" t="s">
+      <c r="AQ351" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AS351" s="65" t="s">
+      <c r="AS351" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="AT351" s="75" t="s">
+      <c r="AT351" s="15" t="s">
         <v>1117</v>
       </c>
-      <c r="AU351" s="69" t="s">
+      <c r="AU351" s="14" t="s">
         <v>1116</v>
       </c>
-      <c r="AV351" s="69"/>
-      <c r="AW351" s="69"/>
-      <c r="AX351" s="65" t="str">
+      <c r="AV351" s="14"/>
+      <c r="AW351" s="14"/>
+      <c r="AX351" s="8" t="str">
         <f>IF(AND(ISBLANK(AT351), ISBLANK(AU351)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT351), "", _xlfn.CONCAT("[""mac"", """, AT351, """]")), IF(ISBLANK(AU351), "", _xlfn.CONCAT(", [""ip"", """, AU351, """]")), "]"))</f>
         <v>[["mac", "dc:e5:5b:4c:e9:69"], ["ip", "10.0.4.56"]]</v>
       </c>
     </row>
-    <row r="352" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="65">
+    <row r="352" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="8">
         <v>2654</v>
       </c>
-      <c r="B352" s="65" t="s">
+      <c r="B352" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C352" s="65" t="s">
+      <c r="C352" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D352" s="65" t="s">
+      <c r="D352" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E352" s="65" t="s">
+      <c r="E352" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="F352" s="65" t="str">
+      <c r="F352" s="8" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v>office_home</v>
       </c>
-      <c r="G352" s="65" t="s">
+      <c r="G352" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="H352" s="65" t="s">
+      <c r="H352" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="I352" s="65" t="s">
+      <c r="I352" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M352" s="65" t="s">
+      <c r="M352" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N352" s="65" t="s">
+      <c r="N352" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O352" s="65" t="s">
+      <c r="O352" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P352" s="65" t="s">
+      <c r="P352" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q352" s="74" t="s">
+      <c r="Q352" s="52" t="s">
         <v>1133</v>
       </c>
-      <c r="R352" s="65" t="str">
+      <c r="R352" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Office Audio Visual Devices</v>
       </c>
-      <c r="S352" s="65" t="str">
+      <c r="S352" s="8" t="str">
         <f>_xlfn.CONCAT("name: ", Table2[[#This Row],[friendly_name]])</f>
         <v>name: Office Home</v>
       </c>
-      <c r="U352" s="67"/>
-      <c r="V352" s="67"/>
-      <c r="W352" s="67"/>
-      <c r="X352" s="67"/>
-      <c r="Y352" s="67"/>
-      <c r="AE352" s="67"/>
-      <c r="AG352" s="65" t="str">
+      <c r="T352" s="8"/>
+      <c r="U352" s="10"/>
+      <c r="V352" s="10"/>
+      <c r="W352" s="10"/>
+      <c r="X352" s="10"/>
+      <c r="Y352" s="10"/>
+      <c r="Z352" s="8"/>
+      <c r="AE352" s="10"/>
+      <c r="AG352" s="8" t="str">
         <f>IF(ISBLANK(AF352),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C352), "/", E352, "/config"))</f>
         <v/>
       </c>
-      <c r="AH352" s="65" t="str">
+      <c r="AH352" s="8" t="str">
         <f>IF(ISBLANK(AF352),  "", _xlfn.CONCAT(LOWER(C352), "/", E352))</f>
         <v/>
       </c>
-      <c r="AK352" s="68"/>
-      <c r="AL352" s="65" t="str">
+      <c r="AK352" s="37"/>
+      <c r="AL352" s="8" t="str">
         <f>IF(OR(ISBLANK(AT352), ISBLANK(AU352)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-office-home</v>
       </c>
-      <c r="AM352" s="67" t="s">
+      <c r="AM352" s="10" t="s">
         <v>977</v>
       </c>
-      <c r="AN352" s="65" t="s">
+      <c r="AN352" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="AO352" s="65" t="s">
+      <c r="AO352" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="AP352" s="65" t="s">
+      <c r="AP352" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AQ352" s="65" t="s">
+      <c r="AQ352" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AS352" s="65" t="s">
+      <c r="AS352" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="AT352" s="75" t="s">
+      <c r="AT352" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="AU352" s="69" t="s">
+      <c r="AU352" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="AV352" s="69"/>
-      <c r="AW352" s="69"/>
-      <c r="AX352" s="65" t="str">
+      <c r="AV352" s="14"/>
+      <c r="AW352" s="14"/>
+      <c r="AX352" s="8" t="str">
         <f>IF(AND(ISBLANK(AT352), ISBLANK(AU352)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT352), "", _xlfn.CONCAT("[""mac"", """, AT352, """]")), IF(ISBLANK(AU352), "", _xlfn.CONCAT(", [""ip"", """, AU352, """]")), "]"))</f>
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="353" spans="1:50" s="65" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="65">
+    <row r="353" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="8">
         <v>2655</v>
       </c>
-      <c r="B353" s="65" t="s">
+      <c r="B353" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C353" s="65" t="s">
+      <c r="C353" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D353" s="65" t="s">
+      <c r="D353" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E353" s="65" t="s">
+      <c r="E353" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="F353" s="65" t="str">
+      <c r="F353" s="8" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_home</v>
       </c>
-      <c r="G353" s="65" t="s">
+      <c r="G353" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="H353" s="65" t="s">
+      <c r="H353" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="I353" s="65" t="s">
+      <c r="I353" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M353" s="65" t="s">
+      <c r="M353" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N353" s="65" t="s">
+      <c r="N353" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O353" s="65" t="s">
+      <c r="O353" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="P353" s="65" t="s">
+      <c r="P353" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q353" s="74" t="s">
+      <c r="Q353" s="52" t="s">
         <v>1133</v>
       </c>
-      <c r="R353" s="65" t="str">
+      <c r="R353" s="8" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Lounge Audio Visual Devices</v>
       </c>
-      <c r="S353" s="65" t="str">
+      <c r="S353" s="8" t="str">
         <f>_xlfn.CONCAT("name: ", Table2[[#This Row],[friendly_name]])</f>
         <v>name: Lounge Home</v>
       </c>
-      <c r="U353" s="67"/>
-      <c r="V353" s="67"/>
-      <c r="W353" s="67"/>
-      <c r="X353" s="67"/>
-      <c r="Y353" s="67"/>
-      <c r="AE353" s="67"/>
-      <c r="AG353" s="65" t="str">
+      <c r="T353" s="8"/>
+      <c r="U353" s="10"/>
+      <c r="V353" s="10"/>
+      <c r="W353" s="10"/>
+      <c r="X353" s="10"/>
+      <c r="Y353" s="10"/>
+      <c r="Z353" s="8"/>
+      <c r="AE353" s="10"/>
+      <c r="AG353" s="8" t="str">
         <f>IF(ISBLANK(AF353),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C353), "/", E353, "/config"))</f>
         <v/>
       </c>
-      <c r="AH353" s="65" t="str">
+      <c r="AH353" s="8" t="str">
         <f>IF(ISBLANK(AF353),  "", _xlfn.CONCAT(LOWER(C353), "/", E353))</f>
         <v/>
       </c>
-      <c r="AK353" s="68"/>
-      <c r="AL353" s="65" t="str">
+      <c r="AK353" s="37"/>
+      <c r="AL353" s="8" t="str">
         <f>IF(OR(ISBLANK(AT353), ISBLANK(AU353)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-lounge-home</v>
       </c>
-      <c r="AM353" s="67" t="s">
+      <c r="AM353" s="10" t="s">
         <v>977</v>
       </c>
-      <c r="AN353" s="65" t="s">
+      <c r="AN353" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="AO353" s="65" t="s">
+      <c r="AO353" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="AP353" s="65" t="s">
+      <c r="AP353" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AQ353" s="65" t="s">
+      <c r="AQ353" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AS353" s="65" t="s">
+      <c r="AS353" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="AT353" s="75" t="s">
+      <c r="AT353" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="AU353" s="69" t="s">
+      <c r="AU353" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="AV353" s="69"/>
-      <c r="AW353" s="69"/>
-      <c r="AX353" s="65" t="str">
+      <c r="AV353" s="14"/>
+      <c r="AW353" s="14"/>
+      <c r="AX353" s="8" t="str">
         <f>IF(AND(ISBLANK(AT353), ISBLANK(AU353)), "", _xlfn.CONCAT("[", IF(ISBLANK(AT353), "", _xlfn.CONCAT("[""mac"", """, AT353, """]")), IF(ISBLANK(AU353), "", _xlfn.CONCAT(", [""ip"", """, AU353, """]")), "]"))</f>
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39014F9-8006-5B4C-9E7E-E5EEC8F3419F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C2C2DE-22B3-A64A-B23A-E42146002A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3920" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5567" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5658" uniqueCount="1224">
   <si>
     <t>index</t>
   </si>
@@ -3743,12 +3743,15 @@
   <si>
     <t>Enable powercalc to track this entity</t>
   </si>
+  <si>
+    <t>True</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3839,6 +3842,11 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333745"/>
+      <name val="Open sans"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3993,7 +4001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4181,12 +4189,38 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="54">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri (Body)"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4873,24 +4907,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri (Body)"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -5236,13 +5252,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AY725" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52">
-  <autoFilter ref="A3:AY725" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="18">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AY725" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AY725">
     <sortCondition ref="A3:A725"/>
   </sortState>
@@ -5263,47 +5273,47 @@
     <tableColumn id="39" xr3:uid="{4CB6C6ED-220F-EA47-A177-F3CF94B4FCB8}" name="linked_service" dataDxfId="39"/>
     <tableColumn id="32" xr3:uid="{9FB83457-10AD-D34A-B0A0-C03B121132D6}" name="haas_display_mode" dataDxfId="38"/>
     <tableColumn id="28" xr3:uid="{0EA9866E-7EBB-1F4E-864B-B4B41A0868C7}" name="haas_display_type" dataDxfId="37"/>
-    <tableColumn id="51" xr3:uid="{8DBDF391-07AE-4A4F-903B-5BBD64761C59}" name="powercalc_enable" dataDxfId="36"/>
-    <tableColumn id="50" xr3:uid="{07C23DD5-25CE-2A4A-8455-1C159ED44B79}" name="powercalc_group_1" dataDxfId="35"/>
-    <tableColumn id="49" xr3:uid="{674D5879-982E-C54E-BB3C-3856904C3F08}" name="powercalc_group_2" dataDxfId="34"/>
-    <tableColumn id="48" xr3:uid="{58F1B851-B412-434F-90C1-FC461B06CD87}" name="powercalc_group_3" dataDxfId="33"/>
-    <tableColumn id="47" xr3:uid="{B8549644-CEBE-B04C-A925-E1930F8FB34D}" name="powercalc_group_4" dataDxfId="32"/>
-    <tableColumn id="46" xr3:uid="{D0327CDA-BCAE-2F44-B16C-849736CDE7F5}" name="powercalc_config" dataDxfId="31"/>
-    <tableColumn id="31" xr3:uid="{0D8A1BBE-51B4-E147-A44E-9683CA8C518F}" name="grafana_display_type" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{78BFD416-14E2-1346-ABA3-7482F2EF964B}" name="compensation_curve" dataDxfId="29"/>
-    <tableColumn id="42" xr3:uid="{89DBF06F-3894-034F-A260-C4F7288ABF85}" name="zigbee_type" dataDxfId="28"/>
-    <tableColumn id="43" xr3:uid="{E7D1DC27-417A-B44D-9C67-253D3AEEAC31}" name="zigbee_group" dataDxfId="27"/>
-    <tableColumn id="41" xr3:uid="{C2AC9DC2-579C-114D-BD33-47F922A7ECD8}" name="zigbee_config" dataDxfId="26"/>
-    <tableColumn id="38" xr3:uid="{26490464-B58E-B747-AFA6-696984DB49F8}" name="zigbee_device_config" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="state_class" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="unit_of_measurement" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="device_class" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="icon" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="sample_period" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="force_update" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="unique_id_device" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="discovery_topic" dataDxfId="17">
+    <tableColumn id="51" xr3:uid="{8DBDF391-07AE-4A4F-903B-5BBD64761C59}" name="powercalc_enable" dataDxfId="0"/>
+    <tableColumn id="50" xr3:uid="{07C23DD5-25CE-2A4A-8455-1C159ED44B79}" name="powercalc_group_1" dataDxfId="36"/>
+    <tableColumn id="49" xr3:uid="{674D5879-982E-C54E-BB3C-3856904C3F08}" name="powercalc_group_2" dataDxfId="35"/>
+    <tableColumn id="48" xr3:uid="{58F1B851-B412-434F-90C1-FC461B06CD87}" name="powercalc_group_3" dataDxfId="34"/>
+    <tableColumn id="47" xr3:uid="{B8549644-CEBE-B04C-A925-E1930F8FB34D}" name="powercalc_group_4" dataDxfId="33"/>
+    <tableColumn id="46" xr3:uid="{D0327CDA-BCAE-2F44-B16C-849736CDE7F5}" name="powercalc_config" dataDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{0D8A1BBE-51B4-E147-A44E-9683CA8C518F}" name="grafana_display_type" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{78BFD416-14E2-1346-ABA3-7482F2EF964B}" name="compensation_curve" dataDxfId="30"/>
+    <tableColumn id="42" xr3:uid="{89DBF06F-3894-034F-A260-C4F7288ABF85}" name="zigbee_type" dataDxfId="29"/>
+    <tableColumn id="43" xr3:uid="{E7D1DC27-417A-B44D-9C67-253D3AEEAC31}" name="zigbee_group" dataDxfId="28"/>
+    <tableColumn id="41" xr3:uid="{C2AC9DC2-579C-114D-BD33-47F922A7ECD8}" name="zigbee_config" dataDxfId="27"/>
+    <tableColumn id="38" xr3:uid="{26490464-B58E-B747-AFA6-696984DB49F8}" name="zigbee_device_config" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="state_class" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="unit_of_measurement" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="device_class" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="icon" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="sample_period" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="force_update" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="unique_id_device" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="discovery_topic" dataDxfId="18">
       <calculatedColumnFormula>IF(ISBLANK(AG4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4, "/config"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="state_topic" dataDxfId="16">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="state_topic" dataDxfId="17">
       <calculatedColumnFormula>IF(ISBLANK(AG4),  "", _xlfn.CONCAT(LOWER(C4), "/", E4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="value_template" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="qos" dataDxfId="14"/>
-    <tableColumn id="37" xr3:uid="{64D4DD58-B502-4345-9167-C0EACC9E86EC}" name="device_configuration_url" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="device_name" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="device_sw_version" dataDxfId="11"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="device_identifiers" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="device_model" dataDxfId="9"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="device_manufacturer" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="device_suggested_area" dataDxfId="7"/>
-    <tableColumn id="40" xr3:uid="{344437C2-0BDB-7546-8FAB-6C4F23E06045}" name="device_suggested_area_override" dataDxfId="6"/>
-    <tableColumn id="36" xr3:uid="{9BE9D8F1-8323-CD41-9A9F-7BB21381C895}" name="connection_vlan" dataDxfId="5"/>
-    <tableColumn id="35" xr3:uid="{083AE619-8F32-3D45-8483-3D0D4C3918AF}" name="connection_mac" dataDxfId="4"/>
-    <tableColumn id="34" xr3:uid="{BBD927E3-6295-6C4D-8EC3-6DFFCC064F3B}" name="connection_ip" dataDxfId="3"/>
-    <tableColumn id="45" xr3:uid="{D2505BB0-619A-2448-99AC-1B6A79A8476A}" name="connection_alias" dataDxfId="2"/>
-    <tableColumn id="44" xr3:uid="{973C04E6-70FB-B842-B649-19B754996AB1}" name="connection_alias_target" dataDxfId="1"/>
-    <tableColumn id="33" xr3:uid="{02BC701A-79AC-534B-9960-6F231D2962E3}" name="device_connections" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="value_template" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="qos" dataDxfId="15"/>
+    <tableColumn id="37" xr3:uid="{64D4DD58-B502-4345-9167-C0EACC9E86EC}" name="device_configuration_url" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="device_name" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="device_sw_version" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="device_identifiers" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="device_model" dataDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="device_manufacturer" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="device_suggested_area" dataDxfId="8"/>
+    <tableColumn id="40" xr3:uid="{344437C2-0BDB-7546-8FAB-6C4F23E06045}" name="device_suggested_area_override" dataDxfId="7"/>
+    <tableColumn id="36" xr3:uid="{9BE9D8F1-8323-CD41-9A9F-7BB21381C895}" name="connection_vlan" dataDxfId="6"/>
+    <tableColumn id="35" xr3:uid="{083AE619-8F32-3D45-8483-3D0D4C3918AF}" name="connection_mac" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{BBD927E3-6295-6C4D-8EC3-6DFFCC064F3B}" name="connection_ip" dataDxfId="4"/>
+    <tableColumn id="45" xr3:uid="{D2505BB0-619A-2448-99AC-1B6A79A8476A}" name="connection_alias" dataDxfId="3"/>
+    <tableColumn id="44" xr3:uid="{973C04E6-70FB-B842-B649-19B754996AB1}" name="connection_alias_target" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{02BC701A-79AC-534B-9960-6F231D2962E3}" name="device_connections" dataDxfId="1">
       <calculatedColumnFormula>IF(AND(ISBLANK(AU4), ISBLANK(AV4)), "", _xlfn.CONCAT("[", IF(ISBLANK(AU4), "", _xlfn.CONCAT("[""mac"", """, AU4, """]")), IF(ISBLANK(AV4), "", _xlfn.CONCAT(", [""ip"", """, AV4, """]")), "]"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5610,11 +5620,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="S309" sqref="S309"/>
+    <sheetView tabSelected="1" topLeftCell="K50" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="8" bestFit="1" customWidth="1"/>
@@ -5629,7 +5639,7 @@
     <col min="12" max="12" width="33.5" style="8" customWidth="1"/>
     <col min="13" max="13" width="37.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.83203125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="21.83203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" style="10" customWidth="1"/>
     <col min="16" max="16" width="21.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.5" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26" style="8" bestFit="1" customWidth="1"/>
@@ -5667,7 +5677,7 @@
     <col min="51" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="29" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>302</v>
       </c>
@@ -5710,7 +5720,7 @@
       <c r="N1" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="21" t="s">
         <v>1134</v>
       </c>
       <c r="P1" s="20" t="s">
@@ -5819,7 +5829,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="1" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" s="1" customFormat="1" ht="52" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>173</v>
       </c>
@@ -5862,7 +5872,7 @@
       <c r="N2" s="18" t="s">
         <v>681</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="65" t="s">
         <v>1222</v>
       </c>
       <c r="P2" s="19" t="s">
@@ -5971,7 +5981,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" s="7" customFormat="1" ht="16" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6014,7 +6024,7 @@
       <c r="N3" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="66" t="s">
         <v>1221</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -6126,7 +6136,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="9" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="A4" s="30">
         <v>1000</v>
       </c>
@@ -6162,7 +6172,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
@@ -6229,7 +6239,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" ht="16" customHeight="1">
       <c r="A5" s="8">
         <v>1001</v>
       </c>
@@ -6334,7 +6344,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" ht="16" customHeight="1">
       <c r="A6" s="30">
         <v>1002</v>
       </c>
@@ -6411,7 +6421,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" ht="16" customHeight="1">
       <c r="A7" s="8">
         <v>1003</v>
       </c>
@@ -6498,7 +6508,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" ht="16" customHeight="1">
       <c r="A8" s="30">
         <v>1004</v>
       </c>
@@ -6575,7 +6585,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" ht="16" customHeight="1">
       <c r="A9" s="8">
         <v>1005</v>
       </c>
@@ -6662,7 +6672,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" ht="16" customHeight="1">
       <c r="A10" s="30">
         <v>1006</v>
       </c>
@@ -6739,7 +6749,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" ht="16" customHeight="1">
       <c r="A11" s="8">
         <v>1007</v>
       </c>
@@ -6821,7 +6831,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" ht="16" customHeight="1">
       <c r="A12" s="30">
         <v>1008</v>
       </c>
@@ -6899,7 +6909,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" ht="16" customHeight="1">
       <c r="A13" s="8">
         <v>1009</v>
       </c>
@@ -6987,7 +6997,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" ht="16" customHeight="1">
       <c r="A14" s="30">
         <v>1010</v>
       </c>
@@ -7065,7 +7075,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" ht="16" customHeight="1">
       <c r="A15" s="8">
         <v>1011</v>
       </c>
@@ -7153,7 +7163,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" ht="16" customHeight="1">
       <c r="A16" s="30">
         <v>1012</v>
       </c>
@@ -7231,7 +7241,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" ht="16" customHeight="1">
       <c r="A17" s="8">
         <v>1013</v>
       </c>
@@ -7319,7 +7329,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51" ht="16" customHeight="1">
       <c r="A18" s="30">
         <v>1014</v>
       </c>
@@ -7396,7 +7406,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51" ht="16" customHeight="1">
       <c r="A19" s="8">
         <v>1015</v>
       </c>
@@ -7478,7 +7488,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" ht="16" customHeight="1">
       <c r="A20" s="30">
         <v>1016</v>
       </c>
@@ -7555,7 +7565,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" ht="16" customHeight="1">
       <c r="A21" s="8">
         <v>1017</v>
       </c>
@@ -7637,7 +7647,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" ht="16" customHeight="1">
       <c r="A22" s="30">
         <v>1018</v>
       </c>
@@ -7715,7 +7725,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" ht="16" customHeight="1">
       <c r="A23" s="8">
         <v>1019</v>
       </c>
@@ -7803,7 +7813,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" ht="16" customHeight="1">
       <c r="A24" s="30">
         <v>1020</v>
       </c>
@@ -7880,7 +7890,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" ht="16" customHeight="1">
       <c r="A25" s="8">
         <v>1021</v>
       </c>
@@ -7962,7 +7972,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" ht="16" customHeight="1">
       <c r="A26" s="30">
         <v>1022</v>
       </c>
@@ -8046,7 +8056,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" ht="16" customHeight="1">
       <c r="A27" s="8">
         <v>1023</v>
       </c>
@@ -8148,7 +8158,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" ht="16" customHeight="1">
       <c r="A28" s="30">
         <v>1024</v>
       </c>
@@ -8247,7 +8257,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" ht="16" customHeight="1">
       <c r="A29" s="8">
         <v>1025</v>
       </c>
@@ -8346,7 +8356,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" ht="16" customHeight="1">
       <c r="A30" s="30">
         <v>1026</v>
       </c>
@@ -8445,7 +8455,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" ht="16" customHeight="1">
       <c r="A31" s="8">
         <v>1027</v>
       </c>
@@ -8544,7 +8554,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" ht="16" customHeight="1">
       <c r="A32" s="30">
         <v>1028</v>
       </c>
@@ -8643,7 +8653,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:51" ht="16" customHeight="1">
       <c r="A33" s="8">
         <v>1029</v>
       </c>
@@ -8742,7 +8752,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:51" ht="16" customHeight="1">
       <c r="A34" s="30">
         <v>1030</v>
       </c>
@@ -8798,7 +8808,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:51" ht="16" customHeight="1">
       <c r="A35" s="8">
         <v>1040</v>
       </c>
@@ -8860,7 +8870,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:51" ht="16" customHeight="1">
       <c r="A36" s="8">
         <v>1041</v>
       </c>
@@ -8922,7 +8932,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:51" ht="16" customHeight="1">
       <c r="A37" s="8">
         <v>1042</v>
       </c>
@@ -8980,7 +8990,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:51" ht="16" customHeight="1">
       <c r="A38" s="8">
         <v>1050</v>
       </c>
@@ -9085,7 +9095,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:51" ht="16" customHeight="1">
       <c r="A39" s="8">
         <v>1051</v>
       </c>
@@ -9168,7 +9178,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:51" ht="16" customHeight="1">
       <c r="A40" s="8">
         <v>1052</v>
       </c>
@@ -9251,7 +9261,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:51" ht="16" customHeight="1">
       <c r="A41" s="8">
         <v>1053</v>
       </c>
@@ -9333,7 +9343,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:51" ht="16" customHeight="1">
       <c r="A42" s="8">
         <v>1054</v>
       </c>
@@ -9416,7 +9426,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:51" ht="16" customHeight="1">
       <c r="A43" s="8">
         <v>1055</v>
       </c>
@@ -9499,7 +9509,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:51" ht="16" customHeight="1">
       <c r="A44" s="8">
         <v>1056</v>
       </c>
@@ -9582,7 +9592,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:51" ht="16" customHeight="1">
       <c r="A45" s="8">
         <v>1057</v>
       </c>
@@ -9664,7 +9674,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:51" ht="16" customHeight="1">
       <c r="A46" s="8">
         <v>1058</v>
       </c>
@@ -9746,7 +9756,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:51" ht="16" customHeight="1">
       <c r="A47" s="8">
         <v>1059</v>
       </c>
@@ -9829,7 +9839,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:51" ht="16" customHeight="1">
       <c r="A48" s="8">
         <v>1060</v>
       </c>
@@ -9911,7 +9921,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:51" ht="16" customHeight="1">
       <c r="A49" s="8">
         <v>1061</v>
       </c>
@@ -10013,7 +10023,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:51" ht="16" customHeight="1">
       <c r="A50" s="8">
         <v>1062</v>
       </c>
@@ -10069,7 +10079,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:51" ht="16" customHeight="1">
       <c r="A51" s="8">
         <v>1100</v>
       </c>
@@ -10146,7 +10156,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:51" ht="16" customHeight="1">
       <c r="A52" s="8">
         <v>1101</v>
       </c>
@@ -10228,7 +10238,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:51" ht="16" customHeight="1">
       <c r="A53" s="8">
         <v>1102</v>
       </c>
@@ -10310,7 +10320,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:51" ht="16" customHeight="1">
       <c r="A54" s="8">
         <v>1103</v>
       </c>
@@ -10392,7 +10402,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:51" ht="16" customHeight="1">
       <c r="A55" s="8">
         <v>1104</v>
       </c>
@@ -10473,7 +10483,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:51" ht="16" customHeight="1">
       <c r="A56" s="8">
         <v>1105</v>
       </c>
@@ -10555,7 +10565,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:51" ht="16" customHeight="1">
       <c r="A57" s="8">
         <v>1106</v>
       </c>
@@ -10636,7 +10646,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:51" ht="16" customHeight="1">
       <c r="A58" s="8">
         <v>1107</v>
       </c>
@@ -10717,7 +10727,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:51" ht="16" customHeight="1">
       <c r="A59" s="8">
         <v>1108</v>
       </c>
@@ -10793,7 +10803,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:51" ht="16" customHeight="1">
       <c r="A60" s="8">
         <v>1109</v>
       </c>
@@ -10852,7 +10862,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:51" ht="16" customHeight="1">
       <c r="A61" s="8">
         <v>1150</v>
       </c>
@@ -10935,7 +10945,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:51" ht="16" customHeight="1">
       <c r="A62" s="8">
         <v>1151</v>
       </c>
@@ -11018,7 +11028,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:51" ht="16" customHeight="1">
       <c r="A63" s="8">
         <v>1152</v>
       </c>
@@ -11101,7 +11111,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:51" ht="16" customHeight="1">
       <c r="A64" s="8">
         <v>1153</v>
       </c>
@@ -11184,7 +11194,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:51" ht="16" customHeight="1">
       <c r="A65" s="8">
         <v>1154</v>
       </c>
@@ -11267,7 +11277,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:51" ht="16" customHeight="1">
       <c r="A66" s="8">
         <v>1155</v>
       </c>
@@ -11350,7 +11360,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:51" ht="16" customHeight="1">
       <c r="A67" s="8">
         <v>1200</v>
       </c>
@@ -11444,7 +11454,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:51" ht="16" customHeight="1">
       <c r="A68" s="8">
         <v>1201</v>
       </c>
@@ -11538,7 +11548,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:51" ht="16" customHeight="1">
       <c r="A69" s="8">
         <v>1250</v>
       </c>
@@ -11632,7 +11642,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:51" ht="16" customHeight="1">
       <c r="A70" s="8">
         <v>1251</v>
       </c>
@@ -11726,7 +11736,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:51" ht="16" customHeight="1">
       <c r="A71" s="8">
         <v>1300</v>
       </c>
@@ -11820,7 +11830,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:51" ht="16" customHeight="1">
       <c r="A72" s="8">
         <v>1301</v>
       </c>
@@ -11914,7 +11924,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:51" ht="16" customHeight="1">
       <c r="A73" s="8">
         <v>1302</v>
       </c>
@@ -12008,7 +12018,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:51" ht="16" customHeight="1">
       <c r="A74" s="8">
         <v>1303</v>
       </c>
@@ -12102,7 +12112,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:51" ht="16" customHeight="1">
       <c r="A75" s="8">
         <v>1304</v>
       </c>
@@ -12193,7 +12203,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:51" ht="16" customHeight="1">
       <c r="A76" s="8">
         <v>1305</v>
       </c>
@@ -12287,7 +12297,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:51" ht="16" customHeight="1">
       <c r="A77" s="8">
         <v>1306</v>
       </c>
@@ -12381,7 +12391,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:51" ht="16" customHeight="1">
       <c r="A78" s="8">
         <v>1350</v>
       </c>
@@ -12478,7 +12488,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:51" ht="16" customHeight="1">
       <c r="A79" s="8">
         <v>1351</v>
       </c>
@@ -12578,7 +12588,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:51" ht="16" customHeight="1">
       <c r="A80" s="8">
         <v>1352</v>
       </c>
@@ -12635,7 +12645,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:51" ht="16" customHeight="1">
       <c r="A81" s="8">
         <v>1353</v>
       </c>
@@ -12735,7 +12745,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:51" ht="16" customHeight="1">
       <c r="A82" s="8">
         <v>1354</v>
       </c>
@@ -12829,7 +12839,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:51" ht="16" customHeight="1">
       <c r="A83" s="8">
         <v>1355</v>
       </c>
@@ -12886,7 +12896,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:51" ht="16" customHeight="1">
       <c r="A84" s="8">
         <v>1356</v>
       </c>
@@ -12983,7 +12993,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:51" ht="16" customHeight="1">
       <c r="A85" s="8">
         <v>1357</v>
       </c>
@@ -13040,7 +13050,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:51" ht="16" customHeight="1">
       <c r="A86" s="8">
         <v>1358</v>
       </c>
@@ -13140,7 +13150,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:51" ht="16" customHeight="1">
       <c r="A87" s="8">
         <v>1359</v>
       </c>
@@ -13234,7 +13244,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:51" ht="16" customHeight="1">
       <c r="A88" s="8">
         <v>1360</v>
       </c>
@@ -13328,7 +13338,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:51" ht="16" customHeight="1">
       <c r="A89" s="8">
         <v>1400</v>
       </c>
@@ -13399,7 +13409,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:51" ht="16" customHeight="1">
       <c r="A90" s="8">
         <v>1401</v>
       </c>
@@ -13468,7 +13478,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:51" ht="16" customHeight="1">
       <c r="A91" s="8">
         <v>1402</v>
       </c>
@@ -13537,7 +13547,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:51" ht="16" customHeight="1">
       <c r="A92" s="8">
         <v>1403</v>
       </c>
@@ -13606,7 +13616,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:51" ht="16" customHeight="1">
       <c r="A93" s="8">
         <v>1404</v>
       </c>
@@ -13669,7 +13679,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:51" ht="16" customHeight="1">
       <c r="A94" s="8">
         <v>1405</v>
       </c>
@@ -13732,7 +13742,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:51" ht="16" customHeight="1">
       <c r="A95" s="8">
         <v>1406</v>
       </c>
@@ -13795,7 +13805,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:51" ht="16" customHeight="1">
       <c r="A96" s="8">
         <v>1407</v>
       </c>
@@ -13858,7 +13868,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:51" ht="16" customHeight="1">
       <c r="A97" s="8">
         <v>1408</v>
       </c>
@@ -13914,7 +13924,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:51" ht="16" customHeight="1">
       <c r="A98" s="8">
         <v>1500</v>
       </c>
@@ -13949,8 +13959,8 @@
       <c r="M98" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O98" s="8" t="b">
-        <v>1</v>
+      <c r="O98" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P98" s="8" t="s">
         <v>172</v>
@@ -14021,7 +14031,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:51" ht="16" customHeight="1">
       <c r="A99" s="8">
         <v>1501</v>
       </c>
@@ -14056,8 +14066,8 @@
       <c r="M99" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O99" s="8" t="b">
-        <v>1</v>
+      <c r="O99" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P99" s="8" t="s">
         <v>172</v>
@@ -14128,7 +14138,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="100" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:51" ht="16" customHeight="1">
       <c r="A100" s="8">
         <v>1502</v>
       </c>
@@ -14163,8 +14173,8 @@
       <c r="M100" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O100" s="8" t="b">
-        <v>1</v>
+      <c r="O100" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P100" s="8" t="s">
         <v>172</v>
@@ -14235,7 +14245,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:51" ht="16" customHeight="1">
       <c r="A101" s="8">
         <v>1503</v>
       </c>
@@ -14264,8 +14274,8 @@
       <c r="I101" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O101" s="8" t="b">
-        <v>1</v>
+      <c r="O101" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P101" s="8" t="s">
         <v>172</v>
@@ -14303,7 +14313,7 @@
       <c r="AW101" s="9"/>
       <c r="AX101" s="9"/>
     </row>
-    <row r="102" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:51" ht="16" customHeight="1">
       <c r="A102" s="8">
         <v>1504</v>
       </c>
@@ -14338,8 +14348,8 @@
       <c r="M102" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O102" s="8" t="b">
-        <v>1</v>
+      <c r="O102" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P102" s="8" t="s">
         <v>172</v>
@@ -14415,7 +14425,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="103" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:51" ht="16" customHeight="1">
       <c r="A103" s="8">
         <v>1505</v>
       </c>
@@ -14450,8 +14460,8 @@
       <c r="M103" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O103" s="8" t="b">
-        <v>1</v>
+      <c r="O103" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P103" s="8" t="s">
         <v>172</v>
@@ -14522,7 +14532,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:51" ht="16" customHeight="1">
       <c r="A104" s="8">
         <v>1506</v>
       </c>
@@ -14588,7 +14598,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:51" ht="16" customHeight="1">
       <c r="A105" s="8">
         <v>1507</v>
       </c>
@@ -14617,8 +14627,8 @@
       <c r="I105" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O105" s="8" t="b">
-        <v>1</v>
+      <c r="O105" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P105" s="8" t="s">
         <v>172</v>
@@ -14689,7 +14699,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:51" ht="16" customHeight="1">
       <c r="A106" s="8">
         <v>1508</v>
       </c>
@@ -14718,8 +14728,8 @@
       <c r="I106" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O106" s="8" t="b">
-        <v>1</v>
+      <c r="O106" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P106" s="8" t="s">
         <v>172</v>
@@ -14792,7 +14802,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="107" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:51" ht="16" customHeight="1">
       <c r="A107" s="8">
         <v>1509</v>
       </c>
@@ -14854,7 +14864,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:51" ht="16" customHeight="1">
       <c r="A108" s="8">
         <v>1600</v>
       </c>
@@ -14889,8 +14899,8 @@
       <c r="M108" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O108" s="8" t="b">
-        <v>1</v>
+      <c r="O108" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P108" s="8" t="s">
         <v>172</v>
@@ -14939,7 +14949,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:51" ht="16" customHeight="1">
       <c r="A109" s="8">
         <v>1601</v>
       </c>
@@ -15037,7 +15047,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:51" ht="16" customHeight="1">
       <c r="A110" s="8">
         <v>1602</v>
       </c>
@@ -15061,8 +15071,8 @@
       <c r="H110" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O110" s="8" t="b">
-        <v>1</v>
+      <c r="O110" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P110" s="8" t="s">
         <v>172</v>
@@ -15137,7 +15147,7 @@
         <v>[["mac", "0x0017880103433075"]]</v>
       </c>
     </row>
-    <row r="111" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:51" ht="16" customHeight="1">
       <c r="A111" s="8">
         <v>1603</v>
       </c>
@@ -15235,7 +15245,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:51" ht="16" customHeight="1">
       <c r="A112" s="8">
         <v>1604</v>
       </c>
@@ -15259,8 +15269,8 @@
       <c r="H112" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O112" s="8" t="b">
-        <v>1</v>
+      <c r="O112" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P112" s="8" t="s">
         <v>172</v>
@@ -15335,7 +15345,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="113" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:51" ht="16" customHeight="1">
       <c r="A113" s="8">
         <v>1605</v>
       </c>
@@ -15370,8 +15380,8 @@
       <c r="M113" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O113" s="8" t="b">
-        <v>1</v>
+      <c r="O113" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P113" s="8" t="s">
         <v>172</v>
@@ -15420,7 +15430,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:51" ht="16" customHeight="1">
       <c r="A114" s="8">
         <v>1606</v>
       </c>
@@ -15518,7 +15528,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:51" ht="16" customHeight="1">
       <c r="A115" s="8">
         <v>1607</v>
       </c>
@@ -15542,8 +15552,8 @@
       <c r="H115" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O115" s="8" t="b">
-        <v>1</v>
+      <c r="O115" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P115" s="8" t="s">
         <v>172</v>
@@ -15618,7 +15628,7 @@
         <v>[["mac", "0x001788010343c36f"]]</v>
       </c>
     </row>
-    <row r="116" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:51" ht="16" customHeight="1">
       <c r="A116" s="8">
         <v>1608</v>
       </c>
@@ -15713,7 +15723,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:51" ht="16" customHeight="1">
       <c r="A117" s="8">
         <v>1609</v>
       </c>
@@ -15737,8 +15747,8 @@
       <c r="H117" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O117" s="8" t="b">
-        <v>1</v>
+      <c r="O117" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P117" s="8" t="s">
         <v>172</v>
@@ -15810,7 +15820,7 @@
         <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
-    <row r="118" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:51" ht="16" customHeight="1">
       <c r="A118" s="8">
         <v>1610</v>
       </c>
@@ -15834,8 +15844,8 @@
       <c r="H118" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O118" s="8" t="b">
-        <v>1</v>
+      <c r="O118" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P118" s="8" t="s">
         <v>172</v>
@@ -15907,7 +15917,7 @@
         <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
-    <row r="119" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:51" ht="16" customHeight="1">
       <c r="A119" s="8">
         <v>1611</v>
       </c>
@@ -15931,8 +15941,8 @@
       <c r="H119" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O119" s="8" t="b">
-        <v>1</v>
+      <c r="O119" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P119" s="8" t="s">
         <v>172</v>
@@ -16004,7 +16014,7 @@
         <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
-    <row r="120" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:51" ht="16" customHeight="1">
       <c r="A120" s="8">
         <v>1612</v>
       </c>
@@ -16028,8 +16038,8 @@
       <c r="H120" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O120" s="8" t="b">
-        <v>1</v>
+      <c r="O120" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P120" s="8" t="s">
         <v>172</v>
@@ -16101,7 +16111,7 @@
         <v>[["mac", "0x001788010444db4e"]]</v>
       </c>
     </row>
-    <row r="121" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:51" ht="16" customHeight="1">
       <c r="A121" s="8">
         <v>1613</v>
       </c>
@@ -16196,7 +16206,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:51" ht="16" customHeight="1">
       <c r="A122" s="8">
         <v>1614</v>
       </c>
@@ -16220,8 +16230,8 @@
       <c r="H122" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O122" s="8" t="b">
-        <v>1</v>
+      <c r="O122" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P122" s="8" t="s">
         <v>172</v>
@@ -16293,7 +16303,7 @@
         <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
-    <row r="123" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:51" ht="16" customHeight="1">
       <c r="A123" s="8">
         <v>1615</v>
       </c>
@@ -16317,8 +16327,8 @@
       <c r="H123" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O123" s="8" t="b">
-        <v>1</v>
+      <c r="O123" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P123" s="8" t="s">
         <v>172</v>
@@ -16390,7 +16400,7 @@
         <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
-    <row r="124" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:51" ht="16" customHeight="1">
       <c r="A124" s="8">
         <v>1616</v>
       </c>
@@ -16414,8 +16424,8 @@
       <c r="H124" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O124" s="8" t="b">
-        <v>1</v>
+      <c r="O124" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P124" s="8" t="s">
         <v>172</v>
@@ -16487,7 +16497,7 @@
         <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
-    <row r="125" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:51" ht="16" customHeight="1">
       <c r="A125" s="8">
         <v>1617</v>
       </c>
@@ -16511,8 +16521,8 @@
       <c r="H125" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O125" s="8" t="b">
-        <v>1</v>
+      <c r="O125" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P125" s="8" t="s">
         <v>172</v>
@@ -16584,7 +16594,7 @@
         <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
-    <row r="126" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:51" ht="16" customHeight="1">
       <c r="A126" s="8">
         <v>1618</v>
       </c>
@@ -16608,8 +16618,8 @@
       <c r="H126" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O126" s="8" t="b">
-        <v>1</v>
+      <c r="O126" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P126" s="8" t="s">
         <v>172</v>
@@ -16681,7 +16691,7 @@
         <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
-    <row r="127" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:51" ht="16" customHeight="1">
       <c r="A127" s="8">
         <v>1619</v>
       </c>
@@ -16705,8 +16715,8 @@
       <c r="H127" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O127" s="8" t="b">
-        <v>1</v>
+      <c r="O127" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P127" s="8" t="s">
         <v>172</v>
@@ -16778,7 +16788,7 @@
         <v>[["mac", "0x00178801039f4eed"]]</v>
       </c>
     </row>
-    <row r="128" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:51" ht="16" customHeight="1">
       <c r="A128" s="8">
         <v>1620</v>
       </c>
@@ -16873,7 +16883,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:51" ht="16" customHeight="1">
       <c r="A129" s="8">
         <v>1621</v>
       </c>
@@ -16897,8 +16907,8 @@
       <c r="H129" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O129" s="8" t="b">
-        <v>1</v>
+      <c r="O129" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P129" s="8" t="s">
         <v>172</v>
@@ -16970,7 +16980,7 @@
         <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
-    <row r="130" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:51" ht="16" customHeight="1">
       <c r="A130" s="8">
         <v>1622</v>
       </c>
@@ -16994,8 +17004,8 @@
       <c r="H130" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O130" s="8" t="b">
-        <v>1</v>
+      <c r="O130" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P130" s="8" t="s">
         <v>172</v>
@@ -17067,7 +17077,7 @@
         <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
-    <row r="131" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:51" ht="16" customHeight="1">
       <c r="A131" s="8">
         <v>1623</v>
       </c>
@@ -17091,8 +17101,8 @@
       <c r="H131" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O131" s="8" t="b">
-        <v>1</v>
+      <c r="O131" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P131" s="8" t="s">
         <v>172</v>
@@ -17164,7 +17174,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="132" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:51" ht="16" customHeight="1">
       <c r="A132" s="8">
         <v>1624</v>
       </c>
@@ -17199,8 +17209,8 @@
       <c r="M132" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O132" s="8" t="b">
-        <v>1</v>
+      <c r="O132" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P132" s="8" t="s">
         <v>172</v>
@@ -17252,7 +17262,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:51" ht="16" customHeight="1">
       <c r="A133" s="8">
         <v>1625</v>
       </c>
@@ -17350,7 +17360,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:51" ht="16" customHeight="1">
       <c r="A134" s="8">
         <v>1626</v>
       </c>
@@ -17374,8 +17384,8 @@
       <c r="H134" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O134" s="8" t="b">
-        <v>1</v>
+      <c r="O134" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P134" s="8" t="s">
         <v>172</v>
@@ -17450,7 +17460,7 @@
         <v>[["mac", "0x0017880106bc4f2d"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:51" ht="16" customHeight="1">
       <c r="A135" s="8">
         <v>1627</v>
       </c>
@@ -17545,7 +17555,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:51" ht="16" customHeight="1">
       <c r="A136" s="8">
         <v>1628</v>
       </c>
@@ -17569,8 +17579,8 @@
       <c r="H136" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O136" s="8" t="b">
-        <v>1</v>
+      <c r="O136" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P136" s="8" t="s">
         <v>172</v>
@@ -17642,7 +17652,7 @@
         <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
-    <row r="137" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:51" ht="16" customHeight="1">
       <c r="A137" s="8">
         <v>1629</v>
       </c>
@@ -17666,8 +17676,8 @@
       <c r="H137" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O137" s="8" t="b">
-        <v>1</v>
+      <c r="O137" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P137" s="8" t="s">
         <v>172</v>
@@ -17739,7 +17749,7 @@
         <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
-    <row r="138" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:51" ht="16" customHeight="1">
       <c r="A138" s="8">
         <v>1630</v>
       </c>
@@ -17763,8 +17773,8 @@
       <c r="H138" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O138" s="8" t="b">
-        <v>1</v>
+      <c r="O138" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P138" s="8" t="s">
         <v>172</v>
@@ -17836,7 +17846,7 @@
         <v>[["mac", "0x001788010432a064"]]</v>
       </c>
     </row>
-    <row r="139" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:51" ht="16" customHeight="1">
       <c r="A139" s="8">
         <v>1631</v>
       </c>
@@ -17934,7 +17944,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:51" ht="16" customHeight="1">
       <c r="A140" s="8">
         <v>1632</v>
       </c>
@@ -17958,8 +17968,8 @@
       <c r="H140" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O140" s="8" t="b">
-        <v>1</v>
+      <c r="O140" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P140" s="8" t="s">
         <v>172</v>
@@ -18034,7 +18044,7 @@
         <v>[["mac", "0x00178801040e2034"]]</v>
       </c>
     </row>
-    <row r="141" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:51" ht="16" customHeight="1">
       <c r="A141" s="8">
         <v>1633</v>
       </c>
@@ -18129,7 +18139,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:51" ht="16" customHeight="1">
       <c r="A142" s="8">
         <v>1634</v>
       </c>
@@ -18153,8 +18163,8 @@
       <c r="H142" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O142" s="8" t="b">
-        <v>1</v>
+      <c r="O142" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P142" s="8" t="s">
         <v>172</v>
@@ -18226,7 +18236,7 @@
         <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
-    <row r="143" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:51" ht="16" customHeight="1">
       <c r="A143" s="8">
         <v>1635</v>
       </c>
@@ -18250,8 +18260,8 @@
       <c r="H143" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O143" s="8" t="b">
-        <v>1</v>
+      <c r="O143" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P143" s="8" t="s">
         <v>172</v>
@@ -18323,7 +18333,7 @@
         <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
-    <row r="144" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:51" ht="16" customHeight="1">
       <c r="A144" s="8">
         <v>1636</v>
       </c>
@@ -18347,8 +18357,8 @@
       <c r="H144" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O144" s="8" t="b">
-        <v>1</v>
+      <c r="O144" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P144" s="8" t="s">
         <v>172</v>
@@ -18421,7 +18431,7 @@
         <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
-    <row r="145" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:51" ht="16" customHeight="1">
       <c r="A145" s="8">
         <v>1637</v>
       </c>
@@ -18445,8 +18455,8 @@
       <c r="H145" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O145" s="8" t="b">
-        <v>1</v>
+      <c r="O145" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P145" s="8" t="s">
         <v>172</v>
@@ -18518,7 +18528,7 @@
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="146" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:51" ht="16" customHeight="1">
       <c r="A146" s="8">
         <v>1638</v>
       </c>
@@ -18547,8 +18557,8 @@
       <c r="I146" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O146" s="8" t="b">
-        <v>1</v>
+      <c r="O146" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P146" s="8" t="s">
         <v>172</v>
@@ -18596,7 +18606,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:51" ht="16" customHeight="1">
       <c r="A147" s="8">
         <v>1639</v>
       </c>
@@ -18631,8 +18641,8 @@
       <c r="M147" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O147" s="8" t="b">
-        <v>1</v>
+      <c r="O147" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P147" s="8" t="s">
         <v>172</v>
@@ -18706,7 +18716,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="148" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:51" ht="16" customHeight="1">
       <c r="A148" s="8">
         <v>1640</v>
       </c>
@@ -18801,7 +18811,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:51" ht="16" customHeight="1">
       <c r="A149" s="8">
         <v>1641</v>
       </c>
@@ -18825,8 +18835,8 @@
       <c r="H149" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O149" s="8" t="b">
-        <v>1</v>
+      <c r="O149" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P149" s="8" t="s">
         <v>172</v>
@@ -18898,7 +18908,7 @@
         <v>[["mac", "0x0017880104eaa288"]]</v>
       </c>
     </row>
-    <row r="150" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:51" ht="16" customHeight="1">
       <c r="A150" s="8">
         <v>1642</v>
       </c>
@@ -18993,7 +19003,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:51" ht="16" customHeight="1">
       <c r="A151" s="8">
         <v>1643</v>
       </c>
@@ -19017,8 +19027,8 @@
       <c r="H151" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O151" s="8" t="b">
-        <v>1</v>
+      <c r="O151" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P151" s="8" t="s">
         <v>172</v>
@@ -19090,7 +19100,7 @@
         <v>[["mac", "0x0017880104eaa272"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:51" ht="16" customHeight="1">
       <c r="A152" s="8">
         <v>1644</v>
       </c>
@@ -19182,7 +19192,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:51" ht="16" customHeight="1">
       <c r="A153" s="8">
         <v>1645</v>
       </c>
@@ -19206,8 +19216,8 @@
       <c r="H153" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O153" s="8" t="b">
-        <v>1</v>
+      <c r="O153" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P153" s="8" t="s">
         <v>172</v>
@@ -19279,7 +19289,7 @@
         <v>[["mac", "0x00178801040edfae"]]</v>
       </c>
     </row>
-    <row r="154" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:51" ht="16" customHeight="1">
       <c r="A154" s="8">
         <v>1646</v>
       </c>
@@ -19374,7 +19384,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:51" ht="16" customHeight="1">
       <c r="A155" s="8">
         <v>1647</v>
       </c>
@@ -19398,8 +19408,8 @@
       <c r="H155" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O155" s="8" t="b">
-        <v>1</v>
+      <c r="O155" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P155" s="8" t="s">
         <v>172</v>
@@ -19471,7 +19481,7 @@
         <v>[["mac", "0x00178801040edcad"]]</v>
       </c>
     </row>
-    <row r="156" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:51" ht="16" customHeight="1">
       <c r="A156" s="8">
         <v>1648</v>
       </c>
@@ -19566,7 +19576,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:51" ht="16" customHeight="1">
       <c r="A157" s="8">
         <v>1649</v>
       </c>
@@ -19590,8 +19600,8 @@
       <c r="H157" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O157" s="8" t="b">
-        <v>1</v>
+      <c r="O157" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P157" s="8" t="s">
         <v>172</v>
@@ -19663,7 +19673,7 @@
         <v>[["mac", "0x00178801040eddb2"]]</v>
       </c>
     </row>
-    <row r="158" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:51" ht="16" customHeight="1">
       <c r="A158" s="8">
         <v>1650</v>
       </c>
@@ -19758,7 +19768,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:51" ht="16" customHeight="1">
       <c r="A159" s="8">
         <v>1651</v>
       </c>
@@ -19782,8 +19792,8 @@
       <c r="H159" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O159" s="8" t="b">
-        <v>1</v>
+      <c r="O159" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P159" s="8" t="s">
         <v>172</v>
@@ -19855,7 +19865,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="160" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:51" ht="16" customHeight="1">
       <c r="A160" s="8">
         <v>1652</v>
       </c>
@@ -19884,8 +19894,8 @@
       <c r="I160" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O160" s="8" t="b">
-        <v>1</v>
+      <c r="O160" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P160" s="8" t="s">
         <v>172</v>
@@ -19933,7 +19943,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:51" ht="16" customHeight="1">
       <c r="A161" s="8">
         <v>1653</v>
       </c>
@@ -19968,8 +19978,8 @@
       <c r="M161" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O161" s="8" t="b">
-        <v>1</v>
+      <c r="O161" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P161" s="8" t="s">
         <v>172</v>
@@ -20043,7 +20053,7 @@
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="162" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:51" ht="16" customHeight="1">
       <c r="A162" s="8">
         <v>1654</v>
       </c>
@@ -20072,8 +20082,8 @@
       <c r="I162" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O162" s="8" t="b">
-        <v>1</v>
+      <c r="O162" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P162" s="8" t="s">
         <v>172</v>
@@ -20121,7 +20131,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:51" ht="16" customHeight="1">
       <c r="A163" s="8">
         <v>1655</v>
       </c>
@@ -20156,8 +20166,8 @@
       <c r="M163" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O163" s="8" t="b">
-        <v>1</v>
+      <c r="O163" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P163" s="8" t="s">
         <v>172</v>
@@ -20231,7 +20241,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:0c"], ["ip", "10.0.6.89"]]</v>
       </c>
     </row>
-    <row r="164" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:51" ht="16" customHeight="1">
       <c r="A164" s="8">
         <v>1656</v>
       </c>
@@ -20323,7 +20333,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:51" ht="16" customHeight="1">
       <c r="A165" s="8">
         <v>1657</v>
       </c>
@@ -20347,8 +20357,8 @@
       <c r="H165" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O165" s="8" t="b">
-        <v>1</v>
+      <c r="O165" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P165" s="8" t="s">
         <v>172</v>
@@ -20420,7 +20430,7 @@
         <v>[["mac", "0x001788010c692175"]]</v>
       </c>
     </row>
-    <row r="166" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:51" ht="16" customHeight="1">
       <c r="A166" s="8">
         <v>1658</v>
       </c>
@@ -20444,8 +20454,8 @@
       <c r="H166" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O166" s="8" t="b">
-        <v>1</v>
+      <c r="O166" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P166" s="8" t="s">
         <v>172</v>
@@ -20517,7 +20527,7 @@
         <v>[["mac", "0x001788010c69214a"]]</v>
       </c>
     </row>
-    <row r="167" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:51" ht="16" customHeight="1">
       <c r="A167" s="8">
         <v>1659</v>
       </c>
@@ -20541,8 +20551,8 @@
       <c r="H167" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O167" s="8" t="b">
-        <v>1</v>
+      <c r="O167" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P167" s="8" t="s">
         <v>172</v>
@@ -20614,7 +20624,7 @@
         <v>[["mac", "0x001788010c5c4266"]]</v>
       </c>
     </row>
-    <row r="168" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:51" ht="16" customHeight="1">
       <c r="A168" s="8">
         <v>1660</v>
       </c>
@@ -20638,8 +20648,8 @@
       <c r="H168" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O168" s="8" t="b">
-        <v>1</v>
+      <c r="O168" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P168" s="8" t="s">
         <v>172</v>
@@ -20711,7 +20721,7 @@
         <v>[["mac", "0x001788010c692144"]]</v>
       </c>
     </row>
-    <row r="169" spans="1:51" s="31" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:51" s="31" customFormat="1" ht="16" customHeight="1">
       <c r="A169" s="31">
         <v>1661</v>
       </c>
@@ -20728,6 +20738,7 @@
         <f>IF(ISBLANK(E169), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="O169" s="32"/>
       <c r="V169" s="32"/>
       <c r="W169" s="32" t="s">
         <v>711</v>
@@ -20781,7 +20792,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="170" spans="1:51" s="31" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:51" s="31" customFormat="1" ht="16" customHeight="1">
       <c r="A170" s="31">
         <v>1662</v>
       </c>
@@ -20798,6 +20809,7 @@
         <f>IF(ISBLANK(E170), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="O170" s="32"/>
       <c r="V170" s="32"/>
       <c r="W170" s="32" t="s">
         <v>711</v>
@@ -20851,7 +20863,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="171" spans="1:51" s="31" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:51" s="31" customFormat="1" ht="16" customHeight="1">
       <c r="A171" s="31">
         <v>1663</v>
       </c>
@@ -20868,6 +20880,7 @@
         <f>IF(ISBLANK(E171), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="O171" s="32"/>
       <c r="V171" s="32"/>
       <c r="W171" s="32" t="s">
         <v>711</v>
@@ -20921,7 +20934,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="172" spans="1:51" s="31" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:51" s="31" customFormat="1" ht="16" customHeight="1">
       <c r="A172" s="31">
         <v>1664</v>
       </c>
@@ -20938,6 +20951,7 @@
         <f>IF(ISBLANK(E172), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="O172" s="32"/>
       <c r="V172" s="32"/>
       <c r="W172" s="32" t="s">
         <v>711</v>
@@ -20991,7 +21005,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="173" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:51" ht="16" customHeight="1">
       <c r="A173" s="8">
         <v>1665</v>
       </c>
@@ -21083,7 +21097,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:51" ht="16" customHeight="1">
       <c r="A174" s="8">
         <v>1666</v>
       </c>
@@ -21107,8 +21121,8 @@
       <c r="H174" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O174" s="8" t="b">
-        <v>1</v>
+      <c r="O174" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P174" s="8" t="s">
         <v>172</v>
@@ -21180,7 +21194,7 @@
         <v>[["mac", "0x00178801097ed42c"]]</v>
       </c>
     </row>
-    <row r="175" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:51" ht="16" customHeight="1">
       <c r="A175" s="8">
         <v>1667</v>
       </c>
@@ -21204,8 +21218,8 @@
       <c r="H175" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O175" s="8" t="b">
-        <v>1</v>
+      <c r="O175" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P175" s="8" t="s">
         <v>172</v>
@@ -21277,7 +21291,7 @@
         <v>[["mac", "0x0017880109c40c33"]]</v>
       </c>
     </row>
-    <row r="176" spans="1:51" s="31" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:51" s="31" customFormat="1" ht="16" customHeight="1">
       <c r="A176" s="31">
         <v>1668</v>
       </c>
@@ -21294,6 +21308,7 @@
         <f>IF(ISBLANK(E176), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="O176" s="32"/>
       <c r="V176" s="32"/>
       <c r="W176" s="32" t="s">
         <v>711</v>
@@ -21347,7 +21362,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="177" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:51" ht="16" customHeight="1">
       <c r="A177" s="8">
         <v>1700</v>
       </c>
@@ -21407,7 +21422,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:51" ht="16" customHeight="1">
       <c r="A178" s="8">
         <v>1701</v>
       </c>
@@ -21436,8 +21451,8 @@
       <c r="I178" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O178" s="8" t="b">
-        <v>1</v>
+      <c r="O178" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P178" s="8" t="s">
         <v>172</v>
@@ -21485,7 +21500,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:51" ht="16" customHeight="1">
       <c r="A179" s="8">
         <v>1702</v>
       </c>
@@ -21520,8 +21535,8 @@
       <c r="M179" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O179" s="8" t="b">
-        <v>1</v>
+      <c r="O179" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P179" s="8" t="s">
         <v>172</v>
@@ -21595,7 +21610,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="180" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:51" ht="16" customHeight="1">
       <c r="A180" s="8">
         <v>1703</v>
       </c>
@@ -21685,7 +21700,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.99"]]</v>
       </c>
     </row>
-    <row r="181" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:51" ht="16" customHeight="1">
       <c r="A181" s="8">
         <v>1704</v>
       </c>
@@ -21721,8 +21736,8 @@
       <c r="M181" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O181" s="8" t="b">
-        <v>1</v>
+      <c r="O181" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P181" s="8" t="s">
         <v>172</v>
@@ -21771,7 +21786,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1">
       <c r="A182" s="53">
         <v>2000</v>
       </c>
@@ -21806,6 +21821,7 @@
       <c r="M182" s="53" t="s">
         <v>136</v>
       </c>
+      <c r="O182" s="55"/>
       <c r="P182" s="53" t="s">
         <v>172</v>
       </c>
@@ -21871,7 +21887,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="183" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1">
       <c r="A183" s="53">
         <v>2001</v>
       </c>
@@ -21906,6 +21922,7 @@
       <c r="M183" s="53" t="s">
         <v>136</v>
       </c>
+      <c r="O183" s="55"/>
       <c r="P183" s="53" t="s">
         <v>172</v>
       </c>
@@ -21971,7 +21988,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="184" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:51" ht="16" customHeight="1">
       <c r="A184" s="8">
         <v>2100</v>
       </c>
@@ -22037,7 +22054,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:51" ht="16" customHeight="1">
       <c r="A185" s="8">
         <v>2101</v>
       </c>
@@ -22103,7 +22120,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:51" ht="16" customHeight="1">
       <c r="A186" s="8">
         <v>2102</v>
       </c>
@@ -22169,7 +22186,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:51" ht="16" customHeight="1">
       <c r="A187" s="8">
         <v>2103</v>
       </c>
@@ -22226,7 +22243,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:51" s="53" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1">
       <c r="A188" s="53">
         <v>2104</v>
       </c>
@@ -22258,6 +22275,7 @@
       <c r="M188" s="53" t="s">
         <v>136</v>
       </c>
+      <c r="O188" s="55"/>
       <c r="U188" s="53" t="s">
         <v>635</v>
       </c>
@@ -22288,7 +22306,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:51" ht="16" customHeight="1">
       <c r="A189" s="8">
         <v>2105</v>
       </c>
@@ -22354,7 +22372,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:51" ht="16" customHeight="1">
       <c r="A190" s="8">
         <v>2106</v>
       </c>
@@ -22420,7 +22438,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:51" ht="16" customHeight="1">
       <c r="A191" s="8">
         <v>2107</v>
       </c>
@@ -22488,7 +22506,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:51" ht="16" customHeight="1">
       <c r="A192" s="8">
         <v>2108</v>
       </c>
@@ -22556,7 +22574,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:51" ht="16" customHeight="1">
       <c r="A193" s="8">
         <v>2109</v>
       </c>
@@ -22624,7 +22642,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:51" ht="16" customHeight="1">
       <c r="A194" s="8">
         <v>2110</v>
       </c>
@@ -22692,7 +22710,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:51" ht="16" customHeight="1">
       <c r="A195" s="8">
         <v>2111</v>
       </c>
@@ -22758,7 +22776,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:51" ht="16" customHeight="1">
       <c r="A196" s="8">
         <v>2112</v>
       </c>
@@ -22824,7 +22842,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:51" ht="16" customHeight="1">
       <c r="A197" s="8">
         <v>2113</v>
       </c>
@@ -22890,7 +22908,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:51" ht="16" customHeight="1">
       <c r="A198" s="8">
         <v>2114</v>
       </c>
@@ -22956,7 +22974,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:51" ht="16" customHeight="1">
       <c r="A199" s="8">
         <v>2115</v>
       </c>
@@ -23022,7 +23040,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:51" ht="16" customHeight="1">
       <c r="A200" s="8">
         <v>2116</v>
       </c>
@@ -23088,7 +23106,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:51" ht="16" customHeight="1">
       <c r="A201" s="8">
         <v>2117</v>
       </c>
@@ -23154,7 +23172,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:51" ht="16" customHeight="1">
       <c r="A202" s="8">
         <v>2118</v>
       </c>
@@ -23220,7 +23238,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:51" ht="16" customHeight="1">
       <c r="A203" s="8">
         <v>2119</v>
       </c>
@@ -23286,7 +23304,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:51" ht="16" customHeight="1">
       <c r="A204" s="8">
         <v>2120</v>
       </c>
@@ -23352,7 +23370,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:51" ht="16" customHeight="1">
       <c r="A205" s="8">
         <v>2121</v>
       </c>
@@ -23418,7 +23436,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:51" ht="16" customHeight="1">
       <c r="A206" s="8">
         <v>2122</v>
       </c>
@@ -23474,7 +23492,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:51" ht="16" customHeight="1">
       <c r="A207" s="8">
         <v>2123</v>
       </c>
@@ -23531,7 +23549,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:51" ht="16" customHeight="1">
       <c r="A208" s="8">
         <v>2124</v>
       </c>
@@ -23588,7 +23606,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:51" ht="16" customHeight="1">
       <c r="A209" s="8">
         <v>2125</v>
       </c>
@@ -23645,7 +23663,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:51" ht="16" customHeight="1">
       <c r="A210" s="8">
         <v>2126</v>
       </c>
@@ -23702,7 +23720,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:51" ht="16" customHeight="1">
       <c r="A211" s="8">
         <v>2150</v>
       </c>
@@ -23768,7 +23786,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:51" ht="16" customHeight="1">
       <c r="A212" s="8">
         <v>2151</v>
       </c>
@@ -23834,7 +23852,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:51" ht="16" customHeight="1">
       <c r="A213" s="8">
         <v>2152</v>
       </c>
@@ -23896,7 +23914,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:51" ht="16" customHeight="1">
       <c r="A214" s="8">
         <v>2153</v>
       </c>
@@ -23953,7 +23971,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:51" s="53" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1">
       <c r="A215" s="53">
         <v>2154</v>
       </c>
@@ -23985,6 +24003,7 @@
       <c r="M215" s="53" t="s">
         <v>136</v>
       </c>
+      <c r="O215" s="55"/>
       <c r="U215" s="53" t="s">
         <v>634</v>
       </c>
@@ -24016,7 +24035,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:51" ht="16" customHeight="1">
       <c r="A216" s="8">
         <v>2155</v>
       </c>
@@ -24082,7 +24101,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:51" ht="16" customHeight="1">
       <c r="A217" s="8">
         <v>2156</v>
       </c>
@@ -24148,7 +24167,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:51" ht="16" customHeight="1">
       <c r="A218" s="8">
         <v>2157</v>
       </c>
@@ -24214,7 +24233,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:51" ht="16" customHeight="1">
       <c r="A219" s="8">
         <v>2158</v>
       </c>
@@ -24280,7 +24299,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:51" ht="16" customHeight="1">
       <c r="A220" s="8">
         <v>2159</v>
       </c>
@@ -24346,7 +24365,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:51" ht="16" customHeight="1">
       <c r="A221" s="8">
         <v>2160</v>
       </c>
@@ -24412,7 +24431,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:51" ht="16" customHeight="1">
       <c r="A222" s="8">
         <v>2161</v>
       </c>
@@ -24478,7 +24497,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:51" ht="16" customHeight="1">
       <c r="A223" s="8">
         <v>2162</v>
       </c>
@@ -24544,7 +24563,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:51" ht="16" customHeight="1">
       <c r="A224" s="8">
         <v>2163</v>
       </c>
@@ -24610,7 +24629,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:51" ht="16" customHeight="1">
       <c r="A225" s="8">
         <v>2164</v>
       </c>
@@ -24676,7 +24695,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:51" ht="16" customHeight="1">
       <c r="A226" s="8">
         <v>2165</v>
       </c>
@@ -24742,7 +24761,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:51" ht="16" customHeight="1">
       <c r="A227" s="8">
         <v>2166</v>
       </c>
@@ -24808,7 +24827,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:51" ht="16" customHeight="1">
       <c r="A228" s="8">
         <v>2167</v>
       </c>
@@ -24874,7 +24893,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:51" ht="16" customHeight="1">
       <c r="A229" s="8">
         <v>2168</v>
       </c>
@@ -24940,7 +24959,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:51" ht="16" customHeight="1">
       <c r="A230" s="8">
         <v>2169</v>
       </c>
@@ -25006,7 +25025,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:51" ht="16" customHeight="1">
       <c r="A231" s="8">
         <v>2170</v>
       </c>
@@ -25072,7 +25091,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:51" ht="16" customHeight="1">
       <c r="A232" s="8">
         <v>2171</v>
       </c>
@@ -25129,7 +25148,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:51" ht="16" customHeight="1">
       <c r="A233" s="8">
         <v>2172</v>
       </c>
@@ -25186,7 +25205,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:51" ht="16" customHeight="1">
       <c r="A234" s="8">
         <v>2173</v>
       </c>
@@ -25252,7 +25271,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:51" ht="16" customHeight="1">
       <c r="A235" s="8">
         <v>2174</v>
       </c>
@@ -25309,7 +25328,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:51" ht="16" customHeight="1">
       <c r="A236" s="8">
         <v>2175</v>
       </c>
@@ -25366,7 +25385,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:51" ht="16" customHeight="1">
       <c r="A237" s="8">
         <v>2176</v>
       </c>
@@ -25422,7 +25441,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:51" ht="16" customHeight="1">
       <c r="A238" s="8">
         <v>2200</v>
       </c>
@@ -25488,7 +25507,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:51" ht="16" customHeight="1">
       <c r="A239" s="8">
         <v>2201</v>
       </c>
@@ -25554,7 +25573,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:51" ht="16" customHeight="1">
       <c r="A240" s="8">
         <v>2203</v>
       </c>
@@ -25620,7 +25639,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:51" ht="16" customHeight="1">
       <c r="A241" s="8">
         <v>2250</v>
       </c>
@@ -25686,7 +25705,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:51" ht="16" customHeight="1">
       <c r="A242" s="8">
         <v>2251</v>
       </c>
@@ -25752,7 +25771,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:51" ht="16" customHeight="1">
       <c r="A243" s="8">
         <v>2252</v>
       </c>
@@ -25818,7 +25837,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:51" ht="16" customHeight="1">
       <c r="A244" s="8">
         <v>2300</v>
       </c>
@@ -25884,7 +25903,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:51" ht="16" customHeight="1">
       <c r="A245" s="8">
         <v>2301</v>
       </c>
@@ -25950,7 +25969,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:51" ht="16" customHeight="1">
       <c r="A246" s="8">
         <v>2302</v>
       </c>
@@ -26016,7 +26035,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:51" ht="16" customHeight="1">
       <c r="A247" s="8">
         <v>2400</v>
       </c>
@@ -26091,7 +26110,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="248" spans="1:51" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:51" s="44" customFormat="1" ht="16" customHeight="1">
       <c r="A248" s="8">
         <v>2500</v>
       </c>
@@ -26127,7 +26146,7 @@
         <v>136</v>
       </c>
       <c r="N248" s="8"/>
-      <c r="O248" s="8"/>
+      <c r="O248" s="10"/>
       <c r="P248" s="8"/>
       <c r="Q248" s="8"/>
       <c r="R248" s="8"/>
@@ -26201,7 +26220,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:51" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:51" s="44" customFormat="1" ht="16" customHeight="1">
       <c r="A249" s="8">
         <v>2501</v>
       </c>
@@ -26237,7 +26256,7 @@
         <v>136</v>
       </c>
       <c r="N249" s="8"/>
-      <c r="O249" s="8"/>
+      <c r="O249" s="10"/>
       <c r="P249" s="8"/>
       <c r="Q249" s="8"/>
       <c r="R249" s="8"/>
@@ -26315,7 +26334,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:51" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:51" s="44" customFormat="1" ht="16" customHeight="1">
       <c r="A250" s="8">
         <v>2502</v>
       </c>
@@ -26351,7 +26370,7 @@
         <v>136</v>
       </c>
       <c r="N250" s="8"/>
-      <c r="O250" s="8"/>
+      <c r="O250" s="10"/>
       <c r="P250" s="8"/>
       <c r="Q250" s="8"/>
       <c r="R250" s="8"/>
@@ -26429,7 +26448,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:51" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:51" s="44" customFormat="1" ht="16" customHeight="1">
       <c r="A251" s="8">
         <v>2503</v>
       </c>
@@ -26465,7 +26484,7 @@
         <v>136</v>
       </c>
       <c r="N251" s="8"/>
-      <c r="O251" s="8"/>
+      <c r="O251" s="10"/>
       <c r="P251" s="8"/>
       <c r="Q251" s="8"/>
       <c r="R251" s="8"/>
@@ -26543,7 +26562,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:51" s="44" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:51" s="44" customFormat="1" ht="16" customHeight="1">
       <c r="A252" s="8">
         <v>2504</v>
       </c>
@@ -26579,7 +26598,7 @@
         <v>136</v>
       </c>
       <c r="N252" s="8"/>
-      <c r="O252" s="8"/>
+      <c r="O252" s="10"/>
       <c r="P252" s="8"/>
       <c r="Q252" s="8"/>
       <c r="R252" s="8"/>
@@ -26655,7 +26674,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:51" ht="16" customHeight="1">
       <c r="A253" s="8">
         <v>2505</v>
       </c>
@@ -26716,7 +26735,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:51" ht="16" customHeight="1">
       <c r="A254" s="8">
         <v>2506</v>
       </c>
@@ -26774,7 +26793,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:51" ht="16" customHeight="1">
       <c r="A255" s="8">
         <v>2507</v>
       </c>
@@ -26832,7 +26851,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:51" ht="16" customHeight="1">
       <c r="A256" s="8">
         <v>2508</v>
       </c>
@@ -26890,7 +26909,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:51" ht="16" customHeight="1">
       <c r="A257" s="8">
         <v>2509</v>
       </c>
@@ -26948,7 +26967,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:51" ht="16" customHeight="1">
       <c r="A258" s="8">
         <v>2510</v>
       </c>
@@ -27006,7 +27025,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:51" ht="16" customHeight="1">
       <c r="A259" s="8">
         <v>2511</v>
       </c>
@@ -27064,7 +27083,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:51" ht="16" customHeight="1">
       <c r="A260" s="8">
         <v>2512</v>
       </c>
@@ -27149,7 +27168,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:51" ht="16" customHeight="1">
       <c r="A261" s="8">
         <v>2513</v>
       </c>
@@ -27195,7 +27214,7 @@
       <c r="AU261" s="8"/>
       <c r="AV261" s="8"/>
     </row>
-    <row r="262" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:51" ht="16" customHeight="1">
       <c r="A262" s="8">
         <v>2514</v>
       </c>
@@ -27253,7 +27272,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:51" ht="16" customHeight="1">
       <c r="A263" s="8">
         <v>2520</v>
       </c>
@@ -27311,7 +27330,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:51" ht="16" customHeight="1">
       <c r="A264" s="8">
         <v>2521</v>
       </c>
@@ -27369,7 +27388,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:51" ht="16" customHeight="1">
       <c r="A265" s="8">
         <v>2522</v>
       </c>
@@ -27427,7 +27446,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:51" ht="16" customHeight="1">
       <c r="A266" s="8">
         <v>2523</v>
       </c>
@@ -27485,7 +27504,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:51" ht="16" customHeight="1">
       <c r="A267" s="8">
         <v>2524</v>
       </c>
@@ -27543,7 +27562,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:51" ht="16" customHeight="1">
       <c r="A268" s="8">
         <v>2525</v>
       </c>
@@ -27598,7 +27617,7 @@
       <c r="AU268" s="8"/>
       <c r="AV268" s="8"/>
     </row>
-    <row r="269" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:51" ht="16" customHeight="1">
       <c r="A269" s="8">
         <v>2526</v>
       </c>
@@ -27695,7 +27714,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:51" ht="16" customHeight="1">
       <c r="A270" s="8">
         <v>2527</v>
       </c>
@@ -27768,7 +27787,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:51" ht="16" customHeight="1">
       <c r="A271" s="8">
         <v>2528</v>
       </c>
@@ -27841,7 +27860,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:51" ht="16" customHeight="1">
       <c r="A272" s="8">
         <v>2529</v>
       </c>
@@ -27914,7 +27933,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:51" ht="16" customHeight="1">
       <c r="A273" s="8">
         <v>2530</v>
       </c>
@@ -27987,7 +28006,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:51" ht="16" customHeight="1">
       <c r="A274" s="8">
         <v>2531</v>
       </c>
@@ -28044,7 +28063,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:51" ht="16" customHeight="1">
       <c r="A275" s="8">
         <v>2532</v>
       </c>
@@ -28101,7 +28120,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:51" ht="16" customHeight="1">
       <c r="A276" s="8">
         <v>2533</v>
       </c>
@@ -28158,7 +28177,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:51" ht="16" customHeight="1">
       <c r="A277" s="8">
         <v>2534</v>
       </c>
@@ -28187,8 +28206,8 @@
       <c r="I277" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O277" s="8" t="b">
-        <v>1</v>
+      <c r="O277" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P277" s="8" t="s">
         <v>172</v>
@@ -28236,7 +28255,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:51" ht="16" customHeight="1">
       <c r="A278" s="8">
         <v>2550</v>
       </c>
@@ -28268,8 +28287,8 @@
       <c r="M278" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O278" s="8" t="b">
-        <v>1</v>
+      <c r="O278" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P278" s="8" t="s">
         <v>172</v>
@@ -28342,7 +28361,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1">
       <c r="A279" s="53">
         <v>2551</v>
       </c>
@@ -28374,6 +28393,7 @@
       <c r="M279" s="53" t="s">
         <v>292</v>
       </c>
+      <c r="O279" s="55"/>
       <c r="P279" s="53" t="s">
         <v>172</v>
       </c>
@@ -28440,7 +28460,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:51" ht="16" customHeight="1">
       <c r="A280" s="8">
         <v>2552</v>
       </c>
@@ -28469,8 +28489,8 @@
       <c r="I280" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O280" s="8" t="b">
-        <v>1</v>
+      <c r="O280" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P280" s="8" t="s">
         <v>172</v>
@@ -28518,7 +28538,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:51" ht="16" customHeight="1">
       <c r="A281" s="8">
         <v>2553</v>
       </c>
@@ -28550,8 +28570,8 @@
       <c r="M281" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O281" s="8" t="b">
-        <v>1</v>
+      <c r="O281" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P281" s="8" t="s">
         <v>172</v>
@@ -28624,7 +28644,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="282" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:51" ht="16" customHeight="1">
       <c r="A282" s="8">
         <v>2554</v>
       </c>
@@ -28653,8 +28673,8 @@
       <c r="I282" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O282" s="8" t="b">
-        <v>1</v>
+      <c r="O282" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P282" s="8" t="s">
         <v>172</v>
@@ -28702,7 +28722,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:51" ht="16" customHeight="1">
       <c r="A283" s="8">
         <v>2555</v>
       </c>
@@ -28734,8 +28754,8 @@
       <c r="M283" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O283" s="8" t="b">
-        <v>1</v>
+      <c r="O283" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P283" s="8" t="s">
         <v>172</v>
@@ -28808,7 +28828,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="284" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:51" ht="16" customHeight="1">
       <c r="A284" s="8">
         <v>2556</v>
       </c>
@@ -28837,8 +28857,8 @@
       <c r="I284" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O284" s="8" t="b">
-        <v>1</v>
+      <c r="O284" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P284" s="8" t="s">
         <v>172</v>
@@ -28886,7 +28906,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:51" ht="16" customHeight="1">
       <c r="A285" s="8">
         <v>2557</v>
       </c>
@@ -28918,8 +28938,8 @@
       <c r="M285" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O285" s="8" t="b">
-        <v>1</v>
+      <c r="O285" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P285" s="8" t="s">
         <v>172</v>
@@ -28992,7 +29012,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="286" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:51" ht="16" customHeight="1">
       <c r="A286" s="8">
         <v>2558</v>
       </c>
@@ -29021,8 +29041,8 @@
       <c r="I286" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O286" s="8" t="b">
-        <v>1</v>
+      <c r="O286" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P286" s="8" t="s">
         <v>172</v>
@@ -29070,7 +29090,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:51" ht="16" customHeight="1">
       <c r="A287" s="8">
         <v>2559</v>
       </c>
@@ -29102,8 +29122,8 @@
       <c r="M287" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O287" s="8" t="b">
-        <v>1</v>
+      <c r="O287" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P287" s="8" t="s">
         <v>172</v>
@@ -29176,7 +29196,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="288" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:51" ht="16" customHeight="1">
       <c r="A288" s="8">
         <v>2560</v>
       </c>
@@ -29205,8 +29225,8 @@
       <c r="I288" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O288" s="8" t="b">
-        <v>1</v>
+      <c r="O288" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P288" s="8" t="s">
         <v>172</v>
@@ -29242,7 +29262,7 @@
       <c r="AU288" s="8"/>
       <c r="AV288" s="8"/>
     </row>
-    <row r="289" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:51" ht="16" customHeight="1">
       <c r="A289" s="8">
         <v>2561</v>
       </c>
@@ -29274,8 +29294,8 @@
       <c r="M289" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O289" s="8" t="b">
-        <v>1</v>
+      <c r="O289" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P289" s="8" t="s">
         <v>172</v>
@@ -29348,7 +29368,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="290" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:51" ht="16" customHeight="1">
       <c r="A290" s="8">
         <v>2562</v>
       </c>
@@ -29377,8 +29397,8 @@
       <c r="I290" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O290" s="8" t="b">
-        <v>1</v>
+      <c r="O290" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P290" s="8" t="s">
         <v>172</v>
@@ -29426,7 +29446,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:51" ht="16" customHeight="1">
       <c r="A291" s="8">
         <v>2563</v>
       </c>
@@ -29458,8 +29478,8 @@
       <c r="M291" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O291" s="8" t="b">
-        <v>1</v>
+      <c r="O291" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P291" s="8" t="s">
         <v>172</v>
@@ -29532,7 +29552,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="292" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:51" ht="16" customHeight="1">
       <c r="A292" s="8">
         <v>2564</v>
       </c>
@@ -29561,8 +29581,8 @@
       <c r="I292" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O292" s="8" t="b">
-        <v>1</v>
+      <c r="O292" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P292" s="8" t="s">
         <v>172</v>
@@ -29609,7 +29629,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:51" ht="16" customHeight="1">
       <c r="A293" s="8">
         <v>2565</v>
       </c>
@@ -29641,8 +29661,8 @@
       <c r="M293" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O293" s="8" t="b">
-        <v>1</v>
+      <c r="O293" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P293" s="8" t="s">
         <v>172</v>
@@ -29715,7 +29735,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="294" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:51" ht="16" customHeight="1">
       <c r="A294" s="8">
         <v>2566</v>
       </c>
@@ -29744,8 +29764,8 @@
       <c r="I294" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O294" s="8" t="b">
-        <v>1</v>
+      <c r="O294" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P294" s="8" t="s">
         <v>172</v>
@@ -29792,7 +29812,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:51" ht="16" customHeight="1">
       <c r="A295" s="8">
         <v>2567</v>
       </c>
@@ -29824,8 +29844,8 @@
       <c r="M295" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O295" s="8" t="b">
-        <v>1</v>
+      <c r="O295" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P295" s="8" t="s">
         <v>172</v>
@@ -29898,7 +29918,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="296" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:51" ht="16" customHeight="1">
       <c r="A296" s="8">
         <v>2568</v>
       </c>
@@ -29927,8 +29947,8 @@
       <c r="I296" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O296" s="8" t="b">
-        <v>1</v>
+      <c r="O296" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P296" s="8" t="s">
         <v>172</v>
@@ -29975,7 +29995,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:51" ht="16" customHeight="1">
       <c r="A297" s="8">
         <v>2569</v>
       </c>
@@ -30007,8 +30027,8 @@
       <c r="M297" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O297" s="8" t="b">
-        <v>1</v>
+      <c r="O297" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P297" s="8" t="s">
         <v>172</v>
@@ -30081,7 +30101,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="298" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:51" ht="16" customHeight="1">
       <c r="A298" s="8">
         <v>2570</v>
       </c>
@@ -30110,8 +30130,8 @@
       <c r="I298" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O298" s="8" t="b">
-        <v>1</v>
+      <c r="O298" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P298" s="8" t="s">
         <v>172</v>
@@ -30159,7 +30179,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:51" ht="16" customHeight="1">
       <c r="A299" s="8">
         <v>2571</v>
       </c>
@@ -30191,8 +30211,8 @@
       <c r="M299" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O299" s="8" t="b">
-        <v>1</v>
+      <c r="O299" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P299" s="8" t="s">
         <v>172</v>
@@ -30265,7 +30285,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="300" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:51" ht="16" customHeight="1">
       <c r="A300" s="8">
         <v>2572</v>
       </c>
@@ -30351,7 +30371,7 @@
         <v>[["mac", "0x00178801086168ac"]]</v>
       </c>
     </row>
-    <row r="301" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:51" ht="16" customHeight="1">
       <c r="A301" s="8">
         <v>2573</v>
       </c>
@@ -30437,7 +30457,7 @@
         <v>[["mac", "0x0017880109d4659c"]]</v>
       </c>
     </row>
-    <row r="302" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:51" ht="16" customHeight="1">
       <c r="A302" s="8">
         <v>2574</v>
       </c>
@@ -30524,7 +30544,7 @@
         <v>[["mac", "0x0017880108fd8633"]]</v>
       </c>
     </row>
-    <row r="303" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:51" ht="16" customHeight="1">
       <c r="A303" s="8">
         <v>2575</v>
       </c>
@@ -30608,7 +30628,7 @@
         <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.90"]]</v>
       </c>
     </row>
-    <row r="304" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:51" ht="16" customHeight="1">
       <c r="A304" s="8">
         <v>2576</v>
       </c>
@@ -30637,8 +30657,8 @@
       <c r="I304" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O304" s="8" t="b">
-        <v>1</v>
+      <c r="O304" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P304" s="8" t="s">
         <v>172</v>
@@ -30686,7 +30706,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:51" ht="16" customHeight="1">
       <c r="A305" s="8">
         <v>2577</v>
       </c>
@@ -30718,8 +30738,8 @@
       <c r="M305" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O305" s="8" t="b">
-        <v>1</v>
+      <c r="O305" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P305" s="8" t="s">
         <v>172</v>
@@ -30792,7 +30812,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="306" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:51" ht="16" customHeight="1">
       <c r="A306" s="8">
         <v>2578</v>
       </c>
@@ -30821,8 +30841,8 @@
       <c r="I306" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O306" s="8" t="b">
-        <v>1</v>
+      <c r="O306" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P306" s="8" t="s">
         <v>172</v>
@@ -30869,7 +30889,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:51" ht="16" customHeight="1">
       <c r="A307" s="8">
         <v>2579</v>
       </c>
@@ -30901,8 +30921,8 @@
       <c r="M307" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O307" s="8" t="b">
-        <v>1</v>
+      <c r="O307" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P307" s="8" t="s">
         <v>172</v>
@@ -30975,7 +30995,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:51" ht="16" customHeight="1">
       <c r="A308" s="8">
         <v>2580</v>
       </c>
@@ -31004,8 +31024,8 @@
       <c r="I308" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="O308" s="8" t="b">
-        <v>1</v>
+      <c r="O308" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="S308" s="8" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31043,7 +31063,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:51" ht="16" customHeight="1">
       <c r="A309" s="8">
         <v>2581</v>
       </c>
@@ -31075,8 +31095,8 @@
       <c r="M309" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O309" s="8" t="b">
-        <v>1</v>
+      <c r="O309" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="S309" s="8" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31140,7 +31160,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="310" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:51" ht="16" customHeight="1">
       <c r="A310" s="8">
         <v>2582</v>
       </c>
@@ -31219,7 +31239,7 @@
         <v>[["mac", "0x2c1165fffec5a3f6"]]</v>
       </c>
     </row>
-    <row r="311" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:51" ht="16" customHeight="1">
       <c r="A311" s="8">
         <v>2583</v>
       </c>
@@ -31298,7 +31318,7 @@
         <v>[["mac", "0x2c1165fffebaa93c"]]</v>
       </c>
     </row>
-    <row r="312" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:51" ht="16" customHeight="1">
       <c r="A312" s="8">
         <v>2584</v>
       </c>
@@ -31377,7 +31397,7 @@
         <v>[["mac", "0x50325ffffe47b8fa"]]</v>
       </c>
     </row>
-    <row r="313" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:51" ht="16" customHeight="1">
       <c r="A313" s="8">
         <v>2585</v>
       </c>
@@ -31433,7 +31453,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:51" ht="16" customHeight="1">
       <c r="A314" s="14">
         <v>2600</v>
       </c>
@@ -31502,7 +31522,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:51" ht="16" customHeight="1">
       <c r="A315" s="48">
         <v>2601</v>
       </c>
@@ -31571,7 +31591,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:51" ht="16" customHeight="1">
       <c r="A316" s="14">
         <v>2602</v>
       </c>
@@ -31640,7 +31660,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:51" ht="16" customHeight="1">
       <c r="A317" s="14">
         <v>2603</v>
       </c>
@@ -31706,7 +31726,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:51" ht="16" customHeight="1">
       <c r="A318" s="48">
         <v>2604</v>
       </c>
@@ -31772,7 +31792,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:51" ht="16" customHeight="1">
       <c r="A319" s="14">
         <v>2605</v>
       </c>
@@ -31838,7 +31858,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:51" ht="16" customHeight="1">
       <c r="A320" s="14">
         <v>2606</v>
       </c>
@@ -31907,7 +31927,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:51" ht="16" customHeight="1">
       <c r="A321" s="48">
         <v>2607</v>
       </c>
@@ -31974,7 +31994,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:51" ht="16" customHeight="1">
       <c r="A322" s="14">
         <v>2608</v>
       </c>
@@ -32040,7 +32060,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:51" ht="16" customHeight="1">
       <c r="A323" s="14">
         <v>2609</v>
       </c>
@@ -32107,7 +32127,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:51" ht="16" customHeight="1">
       <c r="A324" s="48">
         <v>2610</v>
       </c>
@@ -32173,7 +32193,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:51" ht="16" customHeight="1">
       <c r="A325" s="14">
         <v>2611</v>
       </c>
@@ -32239,7 +32259,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:51" ht="16" customHeight="1">
       <c r="A326" s="45">
         <v>2612</v>
       </c>
@@ -32305,7 +32325,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:51" ht="16" customHeight="1">
       <c r="A327" s="46">
         <v>2613</v>
       </c>
@@ -32371,7 +32391,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:51" ht="16" customHeight="1">
       <c r="A328" s="45">
         <v>2614</v>
       </c>
@@ -32437,7 +32457,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:51" ht="16" customHeight="1">
       <c r="A329" s="45">
         <v>2615</v>
       </c>
@@ -32494,7 +32514,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:51" ht="16" customHeight="1">
       <c r="A330" s="47">
         <v>2620</v>
       </c>
@@ -32551,7 +32571,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:51" ht="16" customHeight="1">
       <c r="A331" s="47">
         <v>2621</v>
       </c>
@@ -32608,7 +32628,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:51" ht="16" customHeight="1">
       <c r="A332" s="47">
         <v>2622</v>
       </c>
@@ -32662,7 +32682,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:51" ht="16" customHeight="1">
       <c r="A333" s="47">
         <v>2623</v>
       </c>
@@ -32716,7 +32736,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:51" ht="16" customHeight="1">
       <c r="A334" s="47">
         <v>2624</v>
       </c>
@@ -32773,7 +32793,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:51" ht="16" customHeight="1">
       <c r="A335" s="47">
         <v>2625</v>
       </c>
@@ -32830,7 +32850,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:51" ht="16" customHeight="1">
       <c r="A336" s="47">
         <v>2626</v>
       </c>
@@ -32884,7 +32904,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:51" ht="16" customHeight="1">
       <c r="A337" s="47">
         <v>2627</v>
       </c>
@@ -32938,7 +32958,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:51" ht="16" customHeight="1">
       <c r="A338" s="47">
         <v>2628</v>
       </c>
@@ -32997,7 +33017,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:51" ht="16" customHeight="1">
       <c r="A339" s="47">
         <v>2629</v>
       </c>
@@ -33056,7 +33076,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:51" ht="16" customHeight="1">
       <c r="A340" s="47">
         <v>2630</v>
       </c>
@@ -33112,7 +33132,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:51" ht="16" customHeight="1">
       <c r="A341" s="47">
         <v>2631</v>
       </c>
@@ -33168,7 +33188,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:51" ht="16" customHeight="1">
       <c r="A342" s="45">
         <v>2631</v>
       </c>
@@ -33224,7 +33244,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:51" ht="16" customHeight="1">
       <c r="A343" s="8">
         <v>2640</v>
       </c>
@@ -33283,7 +33303,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:51" ht="16" customHeight="1">
       <c r="A344" s="8">
         <v>2650</v>
       </c>
@@ -33318,8 +33338,8 @@
       <c r="N344" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O344" s="8" t="b">
-        <v>1</v>
+      <c r="O344" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P344" s="8" t="s">
         <v>172</v>
@@ -33388,7 +33408,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="345" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:51" ht="16" customHeight="1">
       <c r="A345" s="8">
         <v>2651</v>
       </c>
@@ -33423,8 +33443,8 @@
       <c r="N345" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O345" s="8" t="b">
-        <v>1</v>
+      <c r="O345" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P345" s="8" t="s">
         <v>172</v>
@@ -33493,7 +33513,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="346" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:51" ht="16" customHeight="1">
       <c r="A346" s="8">
         <v>2652</v>
       </c>
@@ -33528,8 +33548,8 @@
       <c r="N346" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O346" s="8" t="b">
-        <v>1</v>
+      <c r="O346" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P346" s="8" t="s">
         <v>172</v>
@@ -33597,7 +33617,7 @@
         <v>[["mac", "dc:e5:5b:a5:a3:0d"], ["ip", "10.0.4.55"]]</v>
       </c>
     </row>
-    <row r="347" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:51" ht="16" customHeight="1">
       <c r="A347" s="8">
         <v>2653</v>
       </c>
@@ -33632,8 +33652,8 @@
       <c r="N347" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O347" s="8" t="b">
-        <v>1</v>
+      <c r="O347" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P347" s="8" t="s">
         <v>172</v>
@@ -33701,7 +33721,7 @@
         <v>[["mac", "dc:e5:5b:4c:e9:69"], ["ip", "10.0.4.56"]]</v>
       </c>
     </row>
-    <row r="348" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:51" ht="16" customHeight="1">
       <c r="A348" s="8">
         <v>2654</v>
       </c>
@@ -33736,8 +33756,8 @@
       <c r="N348" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O348" s="8" t="b">
-        <v>1</v>
+      <c r="O348" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P348" s="8" t="s">
         <v>172</v>
@@ -33806,7 +33826,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="349" spans="1:51" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:51" ht="16" customHeight="1">
       <c r="A349" s="8">
         <v>2655</v>
       </c>
@@ -33841,8 +33861,8 @@
       <c r="N349" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="O349" s="8" t="b">
-        <v>1</v>
+      <c r="O349" s="10" t="s">
+        <v>1223</v>
       </c>
       <c r="P349" s="8" t="s">
         <v>172</v>
@@ -33911,7 +33931,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="350" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:51" ht="16" customHeight="1">
       <c r="A350" s="8">
         <v>2656</v>
       </c>
@@ -33946,6 +33966,7 @@
       <c r="N350" s="8" t="s">
         <v>412</v>
       </c>
+      <c r="O350" s="67"/>
       <c r="T350" s="8"/>
       <c r="V350" s="10"/>
       <c r="W350" s="10"/>
@@ -33967,7 +33988,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:51" ht="16" customHeight="1">
       <c r="A351" s="8">
         <v>2657</v>
       </c>
@@ -34054,7 +34075,7 @@
         <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
-    <row r="352" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:51" ht="16" customHeight="1">
       <c r="A352" s="8">
         <v>2658</v>
       </c>
@@ -34140,7 +34161,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="353" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:51" ht="16" customHeight="1">
       <c r="A353" s="8">
         <v>2659</v>
       </c>
@@ -34226,7 +34247,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="354" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:51" ht="16" customHeight="1">
       <c r="A354" s="8">
         <v>2660</v>
       </c>
@@ -34282,7 +34303,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:51" ht="16" customHeight="1">
       <c r="A355" s="8">
         <v>2661</v>
       </c>
@@ -34370,7 +34391,7 @@
         <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
-    <row r="356" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1">
       <c r="A356" s="53">
         <v>2662</v>
       </c>
@@ -34405,6 +34426,7 @@
       <c r="N356" s="53" t="s">
         <v>305</v>
       </c>
+      <c r="O356" s="55"/>
       <c r="P356" s="53" t="s">
         <v>172</v>
       </c>
@@ -34469,7 +34491,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="357" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1">
       <c r="A357" s="53">
         <v>2663</v>
       </c>
@@ -34504,6 +34526,7 @@
       <c r="N357" s="53" t="s">
         <v>305</v>
       </c>
+      <c r="O357" s="55"/>
       <c r="P357" s="53" t="s">
         <v>172</v>
       </c>
@@ -34568,7 +34591,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="358" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1">
       <c r="A358" s="53">
         <v>2664</v>
       </c>
@@ -34603,6 +34626,7 @@
       <c r="N358" s="53" t="s">
         <v>305</v>
       </c>
+      <c r="O358" s="55"/>
       <c r="P358" s="53" t="s">
         <v>172</v>
       </c>
@@ -34667,7 +34691,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="359" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:51" ht="16" customHeight="1">
       <c r="A359" s="8">
         <v>2665</v>
       </c>
@@ -34753,7 +34777,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="360" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:51" ht="16" customHeight="1">
       <c r="A360" s="8">
         <v>2700</v>
       </c>
@@ -34815,7 +34839,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:51" ht="16" customHeight="1">
       <c r="A361" s="8">
         <v>2701</v>
       </c>
@@ -34871,7 +34895,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:51" ht="16" customHeight="1">
       <c r="A362" s="8">
         <v>2702</v>
       </c>
@@ -34950,7 +34974,7 @@
         <v>[["mac", "0x000d6f0011274420"]]</v>
       </c>
     </row>
-    <row r="363" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:51" ht="16" customHeight="1">
       <c r="A363" s="8">
         <v>2703</v>
       </c>
@@ -35029,7 +35053,7 @@
         <v>[["mac", "0x00124b0029119f9a"]]</v>
       </c>
     </row>
-    <row r="364" spans="1:51" s="39" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:51" s="39" customFormat="1" ht="16" customHeight="1">
       <c r="A364" s="39">
         <v>2704</v>
       </c>
@@ -35055,6 +35079,7 @@
       <c r="I364" s="39" t="s">
         <v>219</v>
       </c>
+      <c r="O364" s="40"/>
       <c r="V364" s="40"/>
       <c r="W364" s="40"/>
       <c r="X364" s="40"/>
@@ -35077,7 +35102,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:51" ht="16" customHeight="1">
       <c r="A365" s="8">
         <v>2705</v>
       </c>
@@ -35139,7 +35164,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:51" ht="16" customHeight="1">
       <c r="A366" s="8">
         <v>2706</v>
       </c>
@@ -35195,7 +35220,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:51" ht="16" customHeight="1">
       <c r="A367" s="8">
         <v>2707</v>
       </c>
@@ -35274,7 +35299,7 @@
         <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
-    <row r="368" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:51" ht="16" customHeight="1">
       <c r="A368" s="8">
         <v>2708</v>
       </c>
@@ -35353,7 +35378,7 @@
         <v>[["mac", "0x00124b0029113713"]]</v>
       </c>
     </row>
-    <row r="369" spans="1:51" s="39" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:51" s="39" customFormat="1" ht="16" customHeight="1">
       <c r="A369" s="39">
         <v>2709</v>
       </c>
@@ -35379,6 +35404,7 @@
       <c r="I369" s="39" t="s">
         <v>219</v>
       </c>
+      <c r="O369" s="40"/>
       <c r="V369" s="40"/>
       <c r="W369" s="40"/>
       <c r="X369" s="40"/>
@@ -35401,7 +35427,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:51" ht="16" customHeight="1">
       <c r="A370" s="8">
         <v>2710</v>
       </c>
@@ -35457,7 +35483,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:51" ht="16" customHeight="1">
       <c r="A371" s="8">
         <v>2711</v>
       </c>
@@ -35514,7 +35540,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:51" ht="16" customHeight="1">
       <c r="A372" s="8">
         <v>2712</v>
       </c>
@@ -35598,7 +35624,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="373" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:51" ht="16" customHeight="1">
       <c r="A373" s="8">
         <v>2713</v>
       </c>
@@ -35654,7 +35680,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:51" ht="16" customHeight="1">
       <c r="A374" s="8">
         <v>2714</v>
       </c>
@@ -35711,7 +35737,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:51" ht="16" customHeight="1">
       <c r="A375" s="8">
         <v>2715</v>
       </c>
@@ -35795,7 +35821,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="376" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:51" ht="16" customHeight="1">
       <c r="A376" s="8">
         <v>2716</v>
       </c>
@@ -35851,7 +35877,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:51" ht="16" customHeight="1">
       <c r="A377" s="8">
         <v>2717</v>
       </c>
@@ -35908,7 +35934,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:51" ht="16" customHeight="1">
       <c r="A378" s="8">
         <v>2718</v>
       </c>
@@ -35966,7 +35992,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:51" ht="16" customHeight="1">
       <c r="A379" s="8">
         <v>2719</v>
       </c>
@@ -36024,7 +36050,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:51" ht="16" customHeight="1">
       <c r="A380" s="8">
         <v>2720</v>
       </c>
@@ -36081,7 +36107,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:51" ht="16" customHeight="1">
       <c r="A381" s="8">
         <v>2721</v>
       </c>
@@ -36138,7 +36164,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:51" ht="16" customHeight="1">
       <c r="A382" s="8">
         <v>2722</v>
       </c>
@@ -36195,7 +36221,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:51" ht="16" customHeight="1">
       <c r="A383" s="8">
         <v>5000</v>
       </c>
@@ -36257,7 +36283,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="384" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:51" ht="16" customHeight="1">
       <c r="A384" s="8">
         <v>5001</v>
       </c>
@@ -36319,7 +36345,7 @@
         <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="385" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:51" ht="16" customHeight="1">
       <c r="A385" s="8">
         <v>5002</v>
       </c>
@@ -36381,7 +36407,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="386" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:51" ht="16" customHeight="1">
       <c r="A386" s="8">
         <v>5003</v>
       </c>
@@ -36443,7 +36469,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="387" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:51" ht="16" customHeight="1">
       <c r="A387" s="8">
         <v>5004</v>
       </c>
@@ -36505,7 +36531,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
-    <row r="388" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:51" ht="16" customHeight="1">
       <c r="A388" s="8">
         <v>5005</v>
       </c>
@@ -36571,7 +36597,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="389" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:51" ht="16" customHeight="1">
       <c r="A389" s="8">
         <v>5006</v>
       </c>
@@ -36637,7 +36663,7 @@
         <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="390" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:51" ht="16" customHeight="1">
       <c r="A390" s="8">
         <v>5007</v>
       </c>
@@ -36707,7 +36733,7 @@
         <v>[["mac", "2a:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="391" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:51" ht="16" customHeight="1">
       <c r="A391" s="8">
         <v>5008</v>
       </c>
@@ -36777,7 +36803,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="392" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:51" ht="16" customHeight="1">
       <c r="A392" s="8">
         <v>5009</v>
       </c>
@@ -36838,7 +36864,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"]]</v>
       </c>
     </row>
-    <row r="393" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:51" ht="16" customHeight="1">
       <c r="A393" s="8">
         <v>5010</v>
       </c>
@@ -36901,7 +36927,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"]]</v>
       </c>
     </row>
-    <row r="394" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:51" ht="16" customHeight="1">
       <c r="A394" s="8">
         <v>5011</v>
       </c>
@@ -36964,7 +36990,7 @@
         <v>[["mac", "40:6c:8f:2a:da:9c"]]</v>
       </c>
     </row>
-    <row r="395" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:51" ht="16" customHeight="1">
       <c r="A395" s="8">
         <v>5012</v>
       </c>
@@ -37029,7 +37055,7 @@
         <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="396" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:51" ht="16" customHeight="1">
       <c r="A396" s="8">
         <v>5013</v>
       </c>
@@ -37094,7 +37120,7 @@
         <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="397" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:51" ht="16" customHeight="1">
       <c r="A397" s="8">
         <v>5014</v>
       </c>
@@ -37154,7 +37180,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="398" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:51" ht="16" customHeight="1">
       <c r="A398" s="8">
         <v>5015</v>
       </c>
@@ -37221,7 +37247,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="399" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:51" ht="16" customHeight="1">
       <c r="A399" s="8">
         <v>6000</v>
       </c>
@@ -37267,7 +37293,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="400" spans="1:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:51" ht="16" customHeight="1">
       <c r="F400" s="8" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37297,7 +37323,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:51" ht="16" customHeight="1">
       <c r="B401" s="14"/>
       <c r="C401" s="14"/>
       <c r="D401" s="14"/>
@@ -37337,7 +37363,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:51" ht="16" customHeight="1">
       <c r="F402" s="8" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37367,7 +37393,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:51" ht="16" customHeight="1">
       <c r="F403" s="8" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37397,7 +37423,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:51" ht="16" customHeight="1">
       <c r="F404" s="8" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37427,7 +37453,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:51" ht="16" customHeight="1">
       <c r="F405" s="8" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37457,7 +37483,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:51" ht="16" customHeight="1">
       <c r="E406" s="12"/>
       <c r="F406" s="8" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
@@ -37488,7 +37514,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:51" ht="16" customHeight="1">
       <c r="E407" s="12"/>
       <c r="F407" s="8" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
@@ -37519,7 +37545,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:51" ht="16" customHeight="1">
       <c r="F408" s="8" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37549,7 +37575,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:51" ht="16" customHeight="1">
       <c r="F409" s="8" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37579,7 +37605,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:51" ht="16" customHeight="1">
       <c r="F410" s="8" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37609,7 +37635,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:51" ht="16" customHeight="1">
       <c r="F411" s="8" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37639,7 +37665,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:51" ht="16" customHeight="1">
       <c r="F412" s="8" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37669,7 +37695,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:51" ht="16" customHeight="1">
       <c r="F413" s="8" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37699,7 +37725,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:51" ht="16" customHeight="1">
       <c r="F414" s="8" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37729,7 +37755,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:51" ht="16" customHeight="1">
       <c r="F415" s="8" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37759,7 +37785,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="2:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:51" ht="16" customHeight="1">
       <c r="F416" s="8" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37789,7 +37815,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:51" ht="16" customHeight="1">
       <c r="F417" s="8" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37819,7 +37845,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:51" ht="16" customHeight="1">
       <c r="F418" s="8" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37849,7 +37875,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:51" ht="16" customHeight="1">
       <c r="F419" s="8" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37879,7 +37905,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:51" ht="16" customHeight="1">
       <c r="F420" s="8" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37909,7 +37935,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:51" ht="16" customHeight="1">
       <c r="F421" s="8" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37939,7 +37965,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:51" ht="16" customHeight="1">
       <c r="F422" s="8" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37969,7 +37995,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:51" ht="16" customHeight="1">
       <c r="F423" s="8" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37999,7 +38025,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:51" ht="16" customHeight="1">
       <c r="F424" s="8" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38029,7 +38055,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:51" ht="16" customHeight="1">
       <c r="F425" s="8" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38059,7 +38085,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:51" ht="16" customHeight="1">
       <c r="F426" s="8" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38089,7 +38115,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:51" ht="16" customHeight="1">
       <c r="F427" s="8" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38119,7 +38145,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:51" ht="16" customHeight="1">
       <c r="F428" s="8" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38149,7 +38175,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:51" ht="16" customHeight="1">
       <c r="F429" s="8" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38179,7 +38205,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:51" ht="16" customHeight="1">
       <c r="F430" s="8" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38209,7 +38235,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:51" ht="16" customHeight="1">
       <c r="F431" s="8" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38239,7 +38265,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:51" ht="16" customHeight="1">
       <c r="F432" s="8" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38269,7 +38295,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:51" ht="16" customHeight="1">
       <c r="F433" s="8" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38299,7 +38325,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:51" ht="16" customHeight="1">
       <c r="F434" s="8" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38329,7 +38355,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:51" ht="16" customHeight="1">
       <c r="F435" s="8" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38359,7 +38385,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:51" ht="16" customHeight="1">
       <c r="F436" s="8" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38389,7 +38415,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:51" ht="16" customHeight="1">
       <c r="F437" s="8" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38419,7 +38445,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:51" ht="16" customHeight="1">
       <c r="F438" s="8" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38449,7 +38475,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:51" ht="16" customHeight="1">
       <c r="F439" s="8" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38479,7 +38505,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:51" ht="16" customHeight="1">
       <c r="F440" s="8" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38509,7 +38535,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:51" ht="16" customHeight="1">
       <c r="F441" s="8" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38539,7 +38565,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:51" ht="16" customHeight="1">
       <c r="F442" s="8" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38569,7 +38595,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:51" ht="16" customHeight="1">
       <c r="F443" s="8" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38599,7 +38625,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:51" ht="16" customHeight="1">
       <c r="F444" s="8" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38629,7 +38655,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:51" ht="16" customHeight="1">
       <c r="F445" s="8" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38659,7 +38685,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:51" ht="16" customHeight="1">
       <c r="F446" s="8" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38689,7 +38715,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:51" ht="16" customHeight="1">
       <c r="F447" s="8" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38719,7 +38745,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:51" ht="16" customHeight="1">
       <c r="F448" s="8" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38749,7 +38775,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:51" ht="16" customHeight="1">
       <c r="F449" s="8" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38779,7 +38805,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:51" ht="16" customHeight="1">
       <c r="F450" s="8" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38809,7 +38835,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:51" ht="16" customHeight="1">
       <c r="F451" s="8" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38839,7 +38865,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:51" ht="16" customHeight="1">
       <c r="F452" s="8" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38869,7 +38895,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:51" ht="16" customHeight="1">
       <c r="F453" s="8" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38899,7 +38925,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:51" ht="16" customHeight="1">
       <c r="F454" s="8" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38929,7 +38955,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:51" ht="16" customHeight="1">
       <c r="F455" s="8" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38959,7 +38985,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:51" ht="16" customHeight="1">
       <c r="F456" s="8" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38989,7 +39015,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:51" ht="16" customHeight="1">
       <c r="F457" s="8" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39019,7 +39045,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:51" ht="16" customHeight="1">
       <c r="F458" s="8" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39049,7 +39075,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:51" ht="16" customHeight="1">
       <c r="F459" s="8" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39079,7 +39105,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:51" ht="16" customHeight="1">
       <c r="F460" s="8" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39109,7 +39135,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:51" ht="16" customHeight="1">
       <c r="F461" s="8" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39139,7 +39165,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:51" ht="16" customHeight="1">
       <c r="F462" s="8" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39169,7 +39195,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:51" ht="16" customHeight="1">
       <c r="F463" s="8" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39199,7 +39225,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:51" ht="16" customHeight="1">
       <c r="F464" s="8" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39229,7 +39255,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:51" ht="16" customHeight="1">
       <c r="F465" s="8" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39259,7 +39285,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:51" ht="16" customHeight="1">
       <c r="F466" s="8" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39289,7 +39315,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:51" ht="16" customHeight="1">
       <c r="F467" s="8" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39319,7 +39345,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:51" ht="16" customHeight="1">
       <c r="F468" s="8" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39349,7 +39375,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:51" ht="16" customHeight="1">
       <c r="F469" s="8" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39379,7 +39405,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:51" ht="16" customHeight="1">
       <c r="F470" s="8" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39409,7 +39435,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:51" ht="16" customHeight="1">
       <c r="F471" s="8" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39439,7 +39465,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:51" ht="16" customHeight="1">
       <c r="F472" s="8" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39469,7 +39495,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:51" ht="16" customHeight="1">
       <c r="F473" s="8" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39499,7 +39525,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:51" ht="16" customHeight="1">
       <c r="F474" s="8" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39529,7 +39555,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:51" ht="16" customHeight="1">
       <c r="F475" s="8" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39559,7 +39585,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:51" ht="16" customHeight="1">
       <c r="F476" s="8" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39589,7 +39615,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:51" ht="16" customHeight="1">
       <c r="F477" s="8" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39619,7 +39645,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:51" ht="16" customHeight="1">
       <c r="F478" s="8" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39649,7 +39675,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:51" ht="16" customHeight="1">
       <c r="F479" s="8" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39679,7 +39705,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:51" ht="16" customHeight="1">
       <c r="F480" s="8" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39709,7 +39735,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:51" ht="16" customHeight="1">
       <c r="F481" s="8" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39739,7 +39765,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:51" ht="16" customHeight="1">
       <c r="F482" s="8" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39769,7 +39795,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:51" ht="16" customHeight="1">
       <c r="F483" s="8" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39799,7 +39825,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:51" ht="16" customHeight="1">
       <c r="F484" s="8" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39829,7 +39855,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:51" ht="16" customHeight="1">
       <c r="F485" s="8" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39859,7 +39885,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:51" ht="16" customHeight="1">
       <c r="F486" s="8" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39889,7 +39915,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:51" ht="16" customHeight="1">
       <c r="F487" s="8" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39919,7 +39945,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:51" ht="16" customHeight="1">
       <c r="F488" s="8" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39949,7 +39975,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:51" ht="16" customHeight="1">
       <c r="F489" s="8" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39979,7 +40005,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:51" ht="16" customHeight="1">
       <c r="F490" s="8" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40009,7 +40035,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:51" ht="16" customHeight="1">
       <c r="F491" s="8" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40039,7 +40065,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:51" ht="16" customHeight="1">
       <c r="F492" s="8" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40069,7 +40095,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:51" ht="16" customHeight="1">
       <c r="F493" s="8" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40099,7 +40125,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:51" ht="16" customHeight="1">
       <c r="F494" s="8" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40129,7 +40155,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:51" ht="16" customHeight="1">
       <c r="F495" s="8" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40159,7 +40185,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:51" ht="16" customHeight="1">
       <c r="F496" s="8" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40189,7 +40215,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:51" ht="16" customHeight="1">
       <c r="F497" s="8" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40219,7 +40245,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:51" ht="16" customHeight="1">
       <c r="F498" s="8" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40249,7 +40275,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:51" ht="16" customHeight="1">
       <c r="F499" s="8" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40279,7 +40305,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:51" ht="16" customHeight="1">
       <c r="F500" s="8" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40309,7 +40335,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:51" ht="16" customHeight="1">
       <c r="F501" s="8" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40339,7 +40365,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:51" ht="16" customHeight="1">
       <c r="F502" s="8" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40369,7 +40395,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:51" ht="16" customHeight="1">
       <c r="F503" s="8" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40399,7 +40425,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:51" ht="16" customHeight="1">
       <c r="F504" s="8" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40429,7 +40455,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:51" ht="16" customHeight="1">
       <c r="F505" s="8" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40459,7 +40485,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:51" ht="16" customHeight="1">
       <c r="F506" s="8" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40489,7 +40515,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:51" ht="16" customHeight="1">
       <c r="F507" s="8" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40519,7 +40545,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:51" ht="16" customHeight="1">
       <c r="F508" s="8" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40549,7 +40575,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:51" ht="16" customHeight="1">
       <c r="F509" s="8" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40579,7 +40605,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:51" ht="16" customHeight="1">
       <c r="F510" s="8" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40609,7 +40635,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:51" ht="16" customHeight="1">
       <c r="F511" s="8" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40639,7 +40665,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:51" ht="16" customHeight="1">
       <c r="F512" s="8" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40669,7 +40695,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:51" ht="16" customHeight="1">
       <c r="F513" s="8" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40699,7 +40725,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:51" ht="16" customHeight="1">
       <c r="F514" s="8" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40729,7 +40755,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:51" ht="16" customHeight="1">
       <c r="F515" s="8" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40759,7 +40785,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:51" ht="16" customHeight="1">
       <c r="F516" s="8" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40789,7 +40815,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:51" ht="16" customHeight="1">
       <c r="F517" s="8" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40819,7 +40845,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:51" ht="16" customHeight="1">
       <c r="F518" s="8" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40849,7 +40875,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:51" ht="16" customHeight="1">
       <c r="F519" s="8" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40879,7 +40905,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:51" ht="16" customHeight="1">
       <c r="F520" s="8" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40909,7 +40935,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:51" ht="16" customHeight="1">
       <c r="F521" s="8" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40939,7 +40965,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:51" ht="16" customHeight="1">
       <c r="F522" s="8" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40969,7 +40995,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:51" ht="16" customHeight="1">
       <c r="F523" s="8" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40999,7 +41025,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:51" ht="16" customHeight="1">
       <c r="F524" s="8" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41029,7 +41055,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:51" ht="16" customHeight="1">
       <c r="F525" s="8" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41060,7 +41086,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:51" ht="16" customHeight="1">
       <c r="F526" s="8" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41091,7 +41117,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:51" ht="16" customHeight="1">
       <c r="F527" s="8" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41121,7 +41147,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:51" ht="16" customHeight="1">
       <c r="F528" s="8" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41151,7 +41177,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:51" ht="16" customHeight="1">
       <c r="F529" s="8" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41181,7 +41207,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:51" ht="16" customHeight="1">
       <c r="F530" s="8" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41211,7 +41237,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:51" ht="16" customHeight="1">
       <c r="F531" s="8" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41240,7 +41266,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:51" ht="16" customHeight="1">
       <c r="F532" s="8" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41269,7 +41295,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:51" ht="16" customHeight="1">
       <c r="F533" s="8" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41298,7 +41324,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:51" ht="16" customHeight="1">
       <c r="F534" s="8" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41327,7 +41353,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:51" ht="16" customHeight="1">
       <c r="F535" s="8" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41357,7 +41383,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:51" ht="16" customHeight="1">
       <c r="F536" s="8" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41386,7 +41412,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:51" ht="16" customHeight="1">
       <c r="F537" s="8" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41415,7 +41441,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:51" ht="16" customHeight="1">
       <c r="F538" s="8" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41444,7 +41470,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:51" ht="16" customHeight="1">
       <c r="F539" s="8" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41473,7 +41499,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:51" ht="16" customHeight="1">
       <c r="F540" s="8" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41502,7 +41528,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:51" ht="16" customHeight="1">
       <c r="F541" s="8" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41531,7 +41557,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:51" ht="16" customHeight="1">
       <c r="F542" s="8" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41560,7 +41586,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:51" ht="16" customHeight="1">
       <c r="F543" s="8" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41589,7 +41615,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:51" ht="16" customHeight="1">
       <c r="F544" s="8" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41618,7 +41644,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:51" ht="16" customHeight="1">
       <c r="F545" s="8" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41647,7 +41673,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:51" ht="16" customHeight="1">
       <c r="F546" s="8" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41676,7 +41702,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:51" ht="16" customHeight="1">
       <c r="F547" s="8" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41705,7 +41731,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:51" ht="16" customHeight="1">
       <c r="F548" s="8" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41734,7 +41760,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:51" ht="16" customHeight="1">
       <c r="F549" s="8" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41763,7 +41789,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:51" ht="16" customHeight="1">
       <c r="F550" s="8" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41792,7 +41818,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:51" ht="16" customHeight="1">
       <c r="F551" s="8" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41821,7 +41847,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:51" ht="16" customHeight="1">
       <c r="F552" s="8" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41850,7 +41876,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:51" ht="16" customHeight="1">
       <c r="F553" s="8" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41879,7 +41905,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:51" ht="16" customHeight="1">
       <c r="F554" s="8" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41908,7 +41934,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:51" ht="16" customHeight="1">
       <c r="F555" s="8" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41937,7 +41963,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:51" ht="16" customHeight="1">
       <c r="F556" s="8" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41966,7 +41992,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:51" ht="16" customHeight="1">
       <c r="F557" s="8" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41995,7 +42021,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:51" ht="16" customHeight="1">
       <c r="F558" s="8" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42024,7 +42050,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:51" ht="16" customHeight="1">
       <c r="F559" s="8" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42053,7 +42079,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:51" ht="16" customHeight="1">
       <c r="F560" s="8" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42082,7 +42108,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:51" ht="16" customHeight="1">
       <c r="F561" s="8" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42111,7 +42137,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:51" ht="16" customHeight="1">
       <c r="F562" s="8" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42140,7 +42166,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:51" ht="16" customHeight="1">
       <c r="F563" s="8" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42169,7 +42195,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:51" ht="16" customHeight="1">
       <c r="F564" s="8" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42198,7 +42224,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:51" ht="16" customHeight="1">
       <c r="F565" s="8" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42227,7 +42253,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:51" ht="16" customHeight="1">
       <c r="F566" s="8" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42256,7 +42282,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:51" ht="16" customHeight="1">
       <c r="F567" s="8" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42285,7 +42311,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:51" ht="16" customHeight="1">
       <c r="F568" s="8" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42314,7 +42340,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:51" ht="16" customHeight="1">
       <c r="F569" s="8" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42343,7 +42369,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:51" ht="16" customHeight="1">
       <c r="F570" s="8" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42372,7 +42398,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:51" ht="16" customHeight="1">
       <c r="F571" s="8" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42401,7 +42427,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:51" ht="16" customHeight="1">
       <c r="F572" s="8" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42430,7 +42456,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:51" ht="16" customHeight="1">
       <c r="F573" s="8" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42459,7 +42485,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:51" ht="16" customHeight="1">
       <c r="F574" s="8" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42488,7 +42514,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:51" ht="16" customHeight="1">
       <c r="F575" s="8" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42517,7 +42543,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:51" ht="16" customHeight="1">
       <c r="F576" s="8" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42546,7 +42572,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:51" ht="16" customHeight="1">
       <c r="F577" s="8" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42575,7 +42601,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:51" ht="16" customHeight="1">
       <c r="F578" s="8" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42604,7 +42630,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:51" ht="16" customHeight="1">
       <c r="F579" s="8" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42633,7 +42659,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:51" ht="16" customHeight="1">
       <c r="F580" s="8" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42662,7 +42688,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:51" ht="16" customHeight="1">
       <c r="F581" s="8" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42691,7 +42717,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:51" ht="16" customHeight="1">
       <c r="F582" s="8" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42720,7 +42746,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:51" ht="16" customHeight="1">
       <c r="F583" s="8" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42749,7 +42775,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:51" ht="16" customHeight="1">
       <c r="F584" s="8" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42778,7 +42804,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:51" ht="16" customHeight="1">
       <c r="F585" s="8" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42807,7 +42833,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:51" ht="16" customHeight="1">
       <c r="F586" s="8" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42836,7 +42862,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:51" ht="16" customHeight="1">
       <c r="F587" s="8" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42865,7 +42891,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:51" ht="16" customHeight="1">
       <c r="F588" s="8" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42894,7 +42920,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:51" ht="16" customHeight="1">
       <c r="F589" s="8" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42923,7 +42949,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:51" ht="16" customHeight="1">
       <c r="F590" s="8" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42952,7 +42978,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:51" ht="16" customHeight="1">
       <c r="F591" s="8" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42981,7 +43007,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:51" ht="16" customHeight="1">
       <c r="F592" s="8" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43010,7 +43036,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:51" ht="16" customHeight="1">
       <c r="F593" s="8" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43039,7 +43065,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:51" ht="16" customHeight="1">
       <c r="F594" s="8" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43068,7 +43094,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:51" ht="16" customHeight="1">
       <c r="F595" s="8" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43097,7 +43123,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:51" ht="16" customHeight="1">
       <c r="F596" s="8" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43126,7 +43152,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:51" ht="16" customHeight="1">
       <c r="F597" s="8" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43155,7 +43181,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:51" ht="16" customHeight="1">
       <c r="F598" s="8" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43184,7 +43210,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:51" ht="16" customHeight="1">
       <c r="F599" s="8" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43213,7 +43239,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:51" ht="16" customHeight="1">
       <c r="F600" s="8" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43242,7 +43268,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:51" ht="16" customHeight="1">
       <c r="F601" s="8" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43271,7 +43297,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:51" ht="16" customHeight="1">
       <c r="F602" s="8" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43300,7 +43326,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:51" ht="16" customHeight="1">
       <c r="F603" s="8" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43329,7 +43355,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:51" ht="16" customHeight="1">
       <c r="F604" s="8" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43358,7 +43384,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:51" ht="16" customHeight="1">
       <c r="F605" s="8" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43387,7 +43413,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:51" ht="16" customHeight="1">
       <c r="F606" s="8" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43416,7 +43442,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:51" ht="16" customHeight="1">
       <c r="F607" s="8" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43445,7 +43471,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:51" ht="16" customHeight="1">
       <c r="F608" s="8" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43474,7 +43500,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:51" ht="16" customHeight="1">
       <c r="F609" s="8" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43503,7 +43529,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:51" ht="16" customHeight="1">
       <c r="F610" s="8" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43532,7 +43558,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:51" ht="16" customHeight="1">
       <c r="F611" s="8" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43561,7 +43587,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:51" ht="16" customHeight="1">
       <c r="F612" s="8" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43590,7 +43616,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:51" ht="16" customHeight="1">
       <c r="F613" s="8" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43619,7 +43645,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:51" ht="16" customHeight="1">
       <c r="F614" s="8" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43648,7 +43674,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:51" ht="16" customHeight="1">
       <c r="F615" s="8" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43677,7 +43703,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:51" ht="16" customHeight="1">
       <c r="F616" s="8" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43706,7 +43732,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:51" ht="16" customHeight="1">
       <c r="F617" s="8" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43735,7 +43761,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:51" ht="16" customHeight="1">
       <c r="F618" s="8" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43764,7 +43790,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:51" ht="16" customHeight="1">
       <c r="F619" s="8" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43793,7 +43819,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:51" ht="16" customHeight="1">
       <c r="F620" s="8" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43822,7 +43848,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:51" ht="16" customHeight="1">
       <c r="F621" s="8" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43851,7 +43877,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:51" ht="16" customHeight="1">
       <c r="F622" s="8" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43880,7 +43906,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:51" ht="16" customHeight="1">
       <c r="F623" s="8" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43909,7 +43935,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:51" ht="16" customHeight="1">
       <c r="F624" s="8" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43938,7 +43964,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:51" ht="16" customHeight="1">
       <c r="F625" s="8" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43967,7 +43993,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:51" ht="16" customHeight="1">
       <c r="F626" s="8" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43996,7 +44022,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:51" ht="16" customHeight="1">
       <c r="F627" s="8" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44025,7 +44051,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:51" ht="16" customHeight="1">
       <c r="F628" s="8" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44054,7 +44080,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:51" ht="16" customHeight="1">
       <c r="F629" s="8" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44083,7 +44109,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="6:51" ht="16" customHeight="1">
       <c r="F630" s="8" t="str">
         <f>IF(ISBLANK(E630), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44112,7 +44138,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="6:51" ht="16" customHeight="1">
       <c r="F631" s="8" t="str">
         <f>IF(ISBLANK(E631), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44141,7 +44167,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="6:51" ht="16" customHeight="1">
       <c r="F632" s="8" t="str">
         <f>IF(ISBLANK(E632), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44170,7 +44196,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="6:51" ht="16" customHeight="1">
       <c r="F633" s="8" t="str">
         <f>IF(ISBLANK(E633), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44199,7 +44225,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="6:51" ht="16" customHeight="1">
       <c r="F634" s="8" t="str">
         <f>IF(ISBLANK(E634), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44228,7 +44254,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="6:51" ht="16" customHeight="1">
       <c r="F635" s="8" t="str">
         <f>IF(ISBLANK(E635), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44257,7 +44283,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="6:51" ht="16" customHeight="1">
       <c r="F636" s="8" t="str">
         <f>IF(ISBLANK(E636), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44286,7 +44312,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="6:51" ht="16" customHeight="1">
       <c r="F637" s="8" t="str">
         <f>IF(ISBLANK(E637), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44315,7 +44341,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="6:51" ht="16" customHeight="1">
       <c r="F638" s="8" t="str">
         <f>IF(ISBLANK(E638), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44344,7 +44370,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="6:51" ht="16" customHeight="1">
       <c r="F639" s="8" t="str">
         <f>IF(ISBLANK(E639), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44373,7 +44399,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="6:51" ht="16" customHeight="1">
       <c r="F640" s="8" t="str">
         <f>IF(ISBLANK(E640), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44402,7 +44428,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="6:51" ht="16" customHeight="1">
       <c r="F641" s="8" t="str">
         <f>IF(ISBLANK(E641), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44431,7 +44457,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="6:51" ht="16" customHeight="1">
       <c r="F642" s="8" t="str">
         <f>IF(ISBLANK(E642), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44460,7 +44486,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="6:51" ht="16" customHeight="1">
       <c r="F643" s="8" t="str">
         <f>IF(ISBLANK(E643), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44489,7 +44515,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="6:51" ht="16" customHeight="1">
       <c r="F644" s="8" t="str">
         <f>IF(ISBLANK(E644), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44518,7 +44544,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="6:51" ht="16" customHeight="1">
       <c r="F645" s="8" t="str">
         <f>IF(ISBLANK(E645), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44547,7 +44573,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="6:51" ht="16" customHeight="1">
       <c r="F646" s="8" t="str">
         <f>IF(ISBLANK(E646), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44576,7 +44602,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="6:51" ht="16" customHeight="1">
       <c r="F647" s="8" t="str">
         <f>IF(ISBLANK(E647), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44605,7 +44631,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="6:51" ht="16" customHeight="1">
       <c r="F648" s="8" t="str">
         <f>IF(ISBLANK(E648), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44634,7 +44660,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="6:51" ht="16" customHeight="1">
       <c r="F649" s="8" t="str">
         <f>IF(ISBLANK(E649), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44663,7 +44689,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="6:51" ht="16" customHeight="1">
       <c r="F650" s="8" t="str">
         <f>IF(ISBLANK(E650), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44692,7 +44718,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="6:51" ht="16" customHeight="1">
       <c r="F651" s="8" t="str">
         <f>IF(ISBLANK(E651), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44721,7 +44747,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="6:51" ht="16" customHeight="1">
       <c r="F652" s="8" t="str">
         <f>IF(ISBLANK(E652), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44750,7 +44776,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="6:51" ht="16" customHeight="1">
       <c r="F653" s="8" t="str">
         <f>IF(ISBLANK(E653), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44779,7 +44805,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="6:51" ht="16" customHeight="1">
       <c r="F654" s="8" t="str">
         <f>IF(ISBLANK(E654), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44808,7 +44834,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="6:51" ht="16" customHeight="1">
       <c r="F655" s="8" t="str">
         <f>IF(ISBLANK(E655), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44837,7 +44863,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="6:51" ht="16" customHeight="1">
       <c r="F656" s="8" t="str">
         <f>IF(ISBLANK(E656), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44866,7 +44892,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="6:51" ht="16" customHeight="1">
       <c r="F657" s="8" t="str">
         <f>IF(ISBLANK(E657), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44895,7 +44921,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="6:51" ht="16" customHeight="1">
       <c r="F658" s="8" t="str">
         <f>IF(ISBLANK(E658), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44924,7 +44950,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="6:51" ht="16" customHeight="1">
       <c r="F659" s="8" t="str">
         <f>IF(ISBLANK(E659), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44953,7 +44979,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="6:51" ht="16" customHeight="1">
       <c r="F660" s="8" t="str">
         <f>IF(ISBLANK(E660), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44982,7 +45008,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="6:51" ht="16" customHeight="1">
       <c r="F661" s="8" t="str">
         <f>IF(ISBLANK(E661), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45011,7 +45037,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="6:51" ht="16" customHeight="1">
       <c r="F662" s="8" t="str">
         <f>IF(ISBLANK(E662), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45040,7 +45066,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="6:51" ht="16" customHeight="1">
       <c r="F663" s="8" t="str">
         <f>IF(ISBLANK(E663), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45069,7 +45095,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="6:51" ht="16" customHeight="1">
       <c r="F664" s="8" t="str">
         <f>IF(ISBLANK(E664), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45098,7 +45124,7 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="6:51" ht="16" customHeight="1">
       <c r="F665" s="8" t="str">
         <f>IF(ISBLANK(E665), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45127,7 +45153,7 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="6:51" ht="16" customHeight="1">
       <c r="F666" s="8" t="str">
         <f>IF(ISBLANK(E666), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45156,7 +45182,7 @@
         <v/>
       </c>
     </row>
-    <row r="667" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="6:51" ht="16" customHeight="1">
       <c r="F667" s="8" t="str">
         <f>IF(ISBLANK(E667), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45185,7 +45211,7 @@
         <v/>
       </c>
     </row>
-    <row r="668" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="6:51" ht="16" customHeight="1">
       <c r="F668" s="8" t="str">
         <f>IF(ISBLANK(E668), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45214,7 +45240,7 @@
         <v/>
       </c>
     </row>
-    <row r="669" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="6:51" ht="16" customHeight="1">
       <c r="F669" s="8" t="str">
         <f>IF(ISBLANK(E669), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45243,7 +45269,7 @@
         <v/>
       </c>
     </row>
-    <row r="670" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="6:51" ht="16" customHeight="1">
       <c r="F670" s="8" t="str">
         <f>IF(ISBLANK(E670), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45272,7 +45298,7 @@
         <v/>
       </c>
     </row>
-    <row r="671" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="6:51" ht="16" customHeight="1">
       <c r="F671" s="8" t="str">
         <f>IF(ISBLANK(E671), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45301,7 +45327,7 @@
         <v/>
       </c>
     </row>
-    <row r="672" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="6:51" ht="16" customHeight="1">
       <c r="F672" s="8" t="str">
         <f>IF(ISBLANK(E672), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45330,7 +45356,7 @@
         <v/>
       </c>
     </row>
-    <row r="673" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="6:51" ht="16" customHeight="1">
       <c r="F673" s="8" t="str">
         <f>IF(ISBLANK(E673), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45359,7 +45385,7 @@
         <v/>
       </c>
     </row>
-    <row r="674" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="6:51" ht="16" customHeight="1">
       <c r="F674" s="8" t="str">
         <f>IF(ISBLANK(E674), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45388,7 +45414,7 @@
         <v/>
       </c>
     </row>
-    <row r="675" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="6:51" ht="16" customHeight="1">
       <c r="F675" s="8" t="str">
         <f>IF(ISBLANK(E675), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45417,7 +45443,7 @@
         <v/>
       </c>
     </row>
-    <row r="676" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="6:51" ht="16" customHeight="1">
       <c r="F676" s="8" t="str">
         <f>IF(ISBLANK(E676), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45446,7 +45472,7 @@
         <v/>
       </c>
     </row>
-    <row r="677" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="6:51" ht="16" customHeight="1">
       <c r="F677" s="8" t="str">
         <f>IF(ISBLANK(E677), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45475,7 +45501,7 @@
         <v/>
       </c>
     </row>
-    <row r="678" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="6:51" ht="16" customHeight="1">
       <c r="F678" s="8" t="str">
         <f>IF(ISBLANK(E678), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45504,7 +45530,7 @@
         <v/>
       </c>
     </row>
-    <row r="679" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="6:51" ht="16" customHeight="1">
       <c r="F679" s="8" t="str">
         <f>IF(ISBLANK(E679), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45533,7 +45559,7 @@
         <v/>
       </c>
     </row>
-    <row r="680" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="6:51" ht="16" customHeight="1">
       <c r="F680" s="8" t="str">
         <f>IF(ISBLANK(E680), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45562,7 +45588,7 @@
         <v/>
       </c>
     </row>
-    <row r="681" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="6:51" ht="16" customHeight="1">
       <c r="F681" s="8" t="str">
         <f>IF(ISBLANK(E681), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45591,7 +45617,7 @@
         <v/>
       </c>
     </row>
-    <row r="682" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="6:51" ht="16" customHeight="1">
       <c r="F682" s="8" t="str">
         <f>IF(ISBLANK(E682), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45620,7 +45646,7 @@
         <v/>
       </c>
     </row>
-    <row r="683" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="6:51" ht="16" customHeight="1">
       <c r="F683" s="8" t="str">
         <f>IF(ISBLANK(E683), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45649,7 +45675,7 @@
         <v/>
       </c>
     </row>
-    <row r="684" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="6:51" ht="16" customHeight="1">
       <c r="F684" s="8" t="str">
         <f>IF(ISBLANK(E684), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45678,7 +45704,7 @@
         <v/>
       </c>
     </row>
-    <row r="685" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="6:51" ht="16" customHeight="1">
       <c r="F685" s="8" t="str">
         <f>IF(ISBLANK(E685), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45707,7 +45733,7 @@
         <v/>
       </c>
     </row>
-    <row r="686" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="6:51" ht="16" customHeight="1">
       <c r="F686" s="8" t="str">
         <f>IF(ISBLANK(E686), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45736,7 +45762,7 @@
         <v/>
       </c>
     </row>
-    <row r="687" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="6:51" ht="16" customHeight="1">
       <c r="F687" s="8" t="str">
         <f>IF(ISBLANK(E687), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45765,7 +45791,7 @@
         <v/>
       </c>
     </row>
-    <row r="688" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="6:51" ht="16" customHeight="1">
       <c r="F688" s="8" t="str">
         <f>IF(ISBLANK(E688), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45794,7 +45820,7 @@
         <v/>
       </c>
     </row>
-    <row r="689" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="6:51" ht="16" customHeight="1">
       <c r="F689" s="8" t="str">
         <f>IF(ISBLANK(E689), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45823,7 +45849,7 @@
         <v/>
       </c>
     </row>
-    <row r="690" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="6:51" ht="16" customHeight="1">
       <c r="F690" s="8" t="str">
         <f>IF(ISBLANK(E690), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45852,7 +45878,7 @@
         <v/>
       </c>
     </row>
-    <row r="691" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="6:51" ht="16" customHeight="1">
       <c r="F691" s="8" t="str">
         <f>IF(ISBLANK(E691), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45881,7 +45907,7 @@
         <v/>
       </c>
     </row>
-    <row r="692" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="6:51" ht="16" customHeight="1">
       <c r="F692" s="8" t="str">
         <f>IF(ISBLANK(E692), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45910,7 +45936,7 @@
         <v/>
       </c>
     </row>
-    <row r="693" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="6:51" ht="16" customHeight="1">
       <c r="F693" s="8" t="str">
         <f>IF(ISBLANK(E693), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45939,7 +45965,7 @@
         <v/>
       </c>
     </row>
-    <row r="694" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="6:51" ht="16" customHeight="1">
       <c r="F694" s="8" t="str">
         <f>IF(ISBLANK(E694), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45968,7 +45994,7 @@
         <v/>
       </c>
     </row>
-    <row r="695" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="6:51" ht="16" customHeight="1">
       <c r="F695" s="8" t="str">
         <f>IF(ISBLANK(E695), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45997,7 +46023,7 @@
         <v/>
       </c>
     </row>
-    <row r="696" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="6:51" ht="16" customHeight="1">
       <c r="F696" s="8" t="str">
         <f>IF(ISBLANK(E696), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46026,7 +46052,7 @@
         <v/>
       </c>
     </row>
-    <row r="697" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="6:51" ht="16" customHeight="1">
       <c r="F697" s="8" t="str">
         <f>IF(ISBLANK(E697), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46055,7 +46081,7 @@
         <v/>
       </c>
     </row>
-    <row r="698" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="6:51" ht="16" customHeight="1">
       <c r="F698" s="8" t="str">
         <f>IF(ISBLANK(E698), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46084,7 +46110,7 @@
         <v/>
       </c>
     </row>
-    <row r="699" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="6:51" ht="16" customHeight="1">
       <c r="F699" s="8" t="str">
         <f>IF(ISBLANK(E699), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46113,7 +46139,7 @@
         <v/>
       </c>
     </row>
-    <row r="700" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="6:51" ht="16" customHeight="1">
       <c r="F700" s="8" t="str">
         <f>IF(ISBLANK(E700), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46142,7 +46168,7 @@
         <v/>
       </c>
     </row>
-    <row r="701" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="6:51" ht="16" customHeight="1">
       <c r="F701" s="8" t="str">
         <f>IF(ISBLANK(E701), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46171,7 +46197,7 @@
         <v/>
       </c>
     </row>
-    <row r="702" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="6:51" ht="16" customHeight="1">
       <c r="F702" s="8" t="str">
         <f>IF(ISBLANK(E702), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46200,7 +46226,7 @@
         <v/>
       </c>
     </row>
-    <row r="703" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="6:51" ht="16" customHeight="1">
       <c r="F703" s="8" t="str">
         <f>IF(ISBLANK(E703), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46229,7 +46255,7 @@
         <v/>
       </c>
     </row>
-    <row r="704" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="6:51" ht="16" customHeight="1">
       <c r="F704" s="8" t="str">
         <f>IF(ISBLANK(E704), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46258,7 +46284,7 @@
         <v/>
       </c>
     </row>
-    <row r="705" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="6:51" ht="16" customHeight="1">
       <c r="F705" s="8" t="str">
         <f>IF(ISBLANK(E705), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46287,7 +46313,7 @@
         <v/>
       </c>
     </row>
-    <row r="706" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="6:51" ht="16" customHeight="1">
       <c r="F706" s="8" t="str">
         <f>IF(ISBLANK(E706), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46316,7 +46342,7 @@
         <v/>
       </c>
     </row>
-    <row r="707" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="6:51" ht="16" customHeight="1">
       <c r="F707" s="8" t="str">
         <f>IF(ISBLANK(E707), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46345,7 +46371,7 @@
         <v/>
       </c>
     </row>
-    <row r="708" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="6:51" ht="16" customHeight="1">
       <c r="F708" s="8" t="str">
         <f>IF(ISBLANK(E708), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46374,7 +46400,7 @@
         <v/>
       </c>
     </row>
-    <row r="709" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="6:51" ht="16" customHeight="1">
       <c r="F709" s="8" t="str">
         <f>IF(ISBLANK(E709), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46403,7 +46429,7 @@
         <v/>
       </c>
     </row>
-    <row r="710" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="6:51" ht="16" customHeight="1">
       <c r="F710" s="8" t="str">
         <f>IF(ISBLANK(E710), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46432,7 +46458,7 @@
         <v/>
       </c>
     </row>
-    <row r="711" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="6:51" ht="16" customHeight="1">
       <c r="F711" s="8" t="str">
         <f>IF(ISBLANK(E711), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46461,7 +46487,7 @@
         <v/>
       </c>
     </row>
-    <row r="712" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="6:51" ht="16" customHeight="1">
       <c r="F712" s="8" t="str">
         <f>IF(ISBLANK(E712), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46490,7 +46516,7 @@
         <v/>
       </c>
     </row>
-    <row r="713" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="6:51" ht="16" customHeight="1">
       <c r="F713" s="8" t="str">
         <f>IF(ISBLANK(E713), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46519,7 +46545,7 @@
         <v/>
       </c>
     </row>
-    <row r="714" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="6:51" ht="16" customHeight="1">
       <c r="F714" s="8" t="str">
         <f>IF(ISBLANK(E714), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46548,7 +46574,7 @@
         <v/>
       </c>
     </row>
-    <row r="715" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="6:51" ht="16" customHeight="1">
       <c r="F715" s="8" t="str">
         <f>IF(ISBLANK(E715), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46577,7 +46603,7 @@
         <v/>
       </c>
     </row>
-    <row r="716" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="6:51" ht="16" customHeight="1">
       <c r="F716" s="8" t="str">
         <f>IF(ISBLANK(E716), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46606,7 +46632,7 @@
         <v/>
       </c>
     </row>
-    <row r="717" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="6:51" ht="16" customHeight="1">
       <c r="F717" s="8" t="str">
         <f>IF(ISBLANK(E717), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46635,7 +46661,7 @@
         <v/>
       </c>
     </row>
-    <row r="718" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="6:51" ht="16" customHeight="1">
       <c r="F718" s="8" t="str">
         <f>IF(ISBLANK(E718), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46664,7 +46690,7 @@
         <v/>
       </c>
     </row>
-    <row r="719" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="6:51" ht="16" customHeight="1">
       <c r="F719" s="8" t="str">
         <f>IF(ISBLANK(E719), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46693,7 +46719,7 @@
         <v/>
       </c>
     </row>
-    <row r="720" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="6:51" ht="16" customHeight="1">
       <c r="F720" s="8" t="str">
         <f>IF(ISBLANK(E720), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46722,7 +46748,7 @@
         <v/>
       </c>
     </row>
-    <row r="721" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="6:51" ht="16" customHeight="1">
       <c r="F721" s="8" t="str">
         <f>IF(ISBLANK(E721), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46751,7 +46777,7 @@
         <v/>
       </c>
     </row>
-    <row r="722" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="6:51" ht="16" customHeight="1">
       <c r="F722" s="8" t="str">
         <f>IF(ISBLANK(E722), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46780,7 +46806,7 @@
         <v/>
       </c>
     </row>
-    <row r="723" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="6:51" ht="16" customHeight="1">
       <c r="F723" s="8" t="str">
         <f>IF(ISBLANK(E723), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46809,7 +46835,7 @@
         <v/>
       </c>
     </row>
-    <row r="724" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="6:51" ht="16" customHeight="1">
       <c r="F724" s="8" t="str">
         <f>IF(ISBLANK(E724), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46838,7 +46864,7 @@
         <v/>
       </c>
     </row>
-    <row r="725" spans="6:51" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="6:51" ht="16" customHeight="1">
       <c r="F725" s="8" t="str">
         <f>IF(ISBLANK(E725), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C2C2DE-22B3-A64A-B23A-E42146002A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC8962-A8E4-9E4B-B419-6932C107A1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5252,7 +5252,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AY725" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52">
-  <autoFilter ref="A3:AY725" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A3:AY725" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="17">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AY725">
     <sortCondition ref="A3:A725"/>
   </sortState>
@@ -5620,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K50" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="O98" sqref="O98"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -6136,7 +6142,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="4" spans="1:51" s="9" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A4" s="30">
         <v>1000</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="16" customHeight="1">
+    <row r="5" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A5" s="8">
         <v>1001</v>
       </c>
@@ -6344,7 +6350,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="16" customHeight="1">
+    <row r="6" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A6" s="30">
         <v>1002</v>
       </c>
@@ -6421,7 +6427,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="16" customHeight="1">
+    <row r="7" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A7" s="8">
         <v>1003</v>
       </c>
@@ -6508,7 +6514,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="16" customHeight="1">
+    <row r="8" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A8" s="30">
         <v>1004</v>
       </c>
@@ -6585,7 +6591,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="16" customHeight="1">
+    <row r="9" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A9" s="8">
         <v>1005</v>
       </c>
@@ -6672,7 +6678,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="16" customHeight="1">
+    <row r="10" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A10" s="30">
         <v>1006</v>
       </c>
@@ -6749,7 +6755,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="16" customHeight="1">
+    <row r="11" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A11" s="8">
         <v>1007</v>
       </c>
@@ -6831,7 +6837,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="16" customHeight="1">
+    <row r="12" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A12" s="30">
         <v>1008</v>
       </c>
@@ -6909,7 +6915,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="16" customHeight="1">
+    <row r="13" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A13" s="8">
         <v>1009</v>
       </c>
@@ -6997,7 +7003,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="16" customHeight="1">
+    <row r="14" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A14" s="30">
         <v>1010</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="16" customHeight="1">
+    <row r="15" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A15" s="8">
         <v>1011</v>
       </c>
@@ -7163,7 +7169,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="16" customHeight="1">
+    <row r="16" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A16" s="30">
         <v>1012</v>
       </c>
@@ -7241,7 +7247,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="16" customHeight="1">
+    <row r="17" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A17" s="8">
         <v>1013</v>
       </c>
@@ -7329,7 +7335,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="16" customHeight="1">
+    <row r="18" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A18" s="30">
         <v>1014</v>
       </c>
@@ -7406,7 +7412,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="16" customHeight="1">
+    <row r="19" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A19" s="8">
         <v>1015</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:51" ht="16" customHeight="1">
+    <row r="20" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A20" s="30">
         <v>1016</v>
       </c>
@@ -7565,7 +7571,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:51" ht="16" customHeight="1">
+    <row r="21" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A21" s="8">
         <v>1017</v>
       </c>
@@ -7647,7 +7653,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:51" ht="16" customHeight="1">
+    <row r="22" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A22" s="30">
         <v>1018</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:51" ht="16" customHeight="1">
+    <row r="23" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A23" s="8">
         <v>1019</v>
       </c>
@@ -7813,7 +7819,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="16" customHeight="1">
+    <row r="24" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A24" s="30">
         <v>1020</v>
       </c>
@@ -7890,7 +7896,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:51" ht="16" customHeight="1">
+    <row r="25" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A25" s="8">
         <v>1021</v>
       </c>
@@ -7972,7 +7978,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:51" ht="16" customHeight="1">
+    <row r="26" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A26" s="30">
         <v>1022</v>
       </c>
@@ -8056,7 +8062,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:51" ht="16" customHeight="1">
+    <row r="27" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A27" s="8">
         <v>1023</v>
       </c>
@@ -8158,7 +8164,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:51" ht="16" customHeight="1">
+    <row r="28" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A28" s="30">
         <v>1024</v>
       </c>
@@ -8257,7 +8263,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:51" ht="16" customHeight="1">
+    <row r="29" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A29" s="8">
         <v>1025</v>
       </c>
@@ -8356,7 +8362,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:51" ht="16" customHeight="1">
+    <row r="30" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A30" s="30">
         <v>1026</v>
       </c>
@@ -8455,7 +8461,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:51" ht="16" customHeight="1">
+    <row r="31" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A31" s="8">
         <v>1027</v>
       </c>
@@ -8554,7 +8560,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:51" ht="16" customHeight="1">
+    <row r="32" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A32" s="30">
         <v>1028</v>
       </c>
@@ -8653,7 +8659,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:51" ht="16" customHeight="1">
+    <row r="33" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A33" s="8">
         <v>1029</v>
       </c>
@@ -8752,7 +8758,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:51" ht="16" customHeight="1">
+    <row r="34" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A34" s="30">
         <v>1030</v>
       </c>
@@ -8808,7 +8814,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:51" ht="16" customHeight="1">
+    <row r="35" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A35" s="8">
         <v>1040</v>
       </c>
@@ -8870,7 +8876,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:51" ht="16" customHeight="1">
+    <row r="36" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A36" s="8">
         <v>1041</v>
       </c>
@@ -8932,7 +8938,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:51" ht="16" customHeight="1">
+    <row r="37" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A37" s="8">
         <v>1042</v>
       </c>
@@ -8990,7 +8996,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:51" ht="16" customHeight="1">
+    <row r="38" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A38" s="8">
         <v>1050</v>
       </c>
@@ -9095,7 +9101,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:51" ht="16" customHeight="1">
+    <row r="39" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A39" s="8">
         <v>1051</v>
       </c>
@@ -9178,7 +9184,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:51" ht="16" customHeight="1">
+    <row r="40" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A40" s="8">
         <v>1052</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:51" ht="16" customHeight="1">
+    <row r="41" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A41" s="8">
         <v>1053</v>
       </c>
@@ -9343,7 +9349,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:51" ht="16" customHeight="1">
+    <row r="42" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A42" s="8">
         <v>1054</v>
       </c>
@@ -9426,7 +9432,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:51" ht="16" customHeight="1">
+    <row r="43" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A43" s="8">
         <v>1055</v>
       </c>
@@ -9509,7 +9515,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:51" ht="16" customHeight="1">
+    <row r="44" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A44" s="8">
         <v>1056</v>
       </c>
@@ -9592,7 +9598,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:51" ht="16" customHeight="1">
+    <row r="45" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A45" s="8">
         <v>1057</v>
       </c>
@@ -9674,7 +9680,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:51" ht="16" customHeight="1">
+    <row r="46" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A46" s="8">
         <v>1058</v>
       </c>
@@ -9756,7 +9762,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:51" ht="16" customHeight="1">
+    <row r="47" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A47" s="8">
         <v>1059</v>
       </c>
@@ -9839,7 +9845,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:51" ht="16" customHeight="1">
+    <row r="48" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A48" s="8">
         <v>1060</v>
       </c>
@@ -9921,7 +9927,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:51" ht="16" customHeight="1">
+    <row r="49" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A49" s="8">
         <v>1061</v>
       </c>
@@ -10023,7 +10029,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:51" ht="16" customHeight="1">
+    <row r="50" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A50" s="8">
         <v>1062</v>
       </c>
@@ -10079,7 +10085,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:51" ht="16" customHeight="1">
+    <row r="51" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A51" s="8">
         <v>1100</v>
       </c>
@@ -10156,7 +10162,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:51" ht="16" customHeight="1">
+    <row r="52" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A52" s="8">
         <v>1101</v>
       </c>
@@ -10238,7 +10244,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:51" ht="16" customHeight="1">
+    <row r="53" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A53" s="8">
         <v>1102</v>
       </c>
@@ -10320,7 +10326,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:51" ht="16" customHeight="1">
+    <row r="54" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A54" s="8">
         <v>1103</v>
       </c>
@@ -10402,7 +10408,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:51" ht="16" customHeight="1">
+    <row r="55" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A55" s="8">
         <v>1104</v>
       </c>
@@ -10483,7 +10489,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:51" ht="16" customHeight="1">
+    <row r="56" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A56" s="8">
         <v>1105</v>
       </c>
@@ -10565,7 +10571,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:51" ht="16" customHeight="1">
+    <row r="57" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A57" s="8">
         <v>1106</v>
       </c>
@@ -10646,7 +10652,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:51" ht="16" customHeight="1">
+    <row r="58" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A58" s="8">
         <v>1107</v>
       </c>
@@ -10727,7 +10733,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:51" ht="16" customHeight="1">
+    <row r="59" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A59" s="8">
         <v>1108</v>
       </c>
@@ -10803,7 +10809,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:51" ht="16" customHeight="1">
+    <row r="60" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A60" s="8">
         <v>1109</v>
       </c>
@@ -10862,7 +10868,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:51" ht="16" customHeight="1">
+    <row r="61" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A61" s="8">
         <v>1150</v>
       </c>
@@ -10945,7 +10951,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:51" ht="16" customHeight="1">
+    <row r="62" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A62" s="8">
         <v>1151</v>
       </c>
@@ -11028,7 +11034,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:51" ht="16" customHeight="1">
+    <row r="63" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A63" s="8">
         <v>1152</v>
       </c>
@@ -11111,7 +11117,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:51" ht="16" customHeight="1">
+    <row r="64" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A64" s="8">
         <v>1153</v>
       </c>
@@ -11194,7 +11200,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:51" ht="16" customHeight="1">
+    <row r="65" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A65" s="8">
         <v>1154</v>
       </c>
@@ -11277,7 +11283,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:51" ht="16" customHeight="1">
+    <row r="66" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A66" s="8">
         <v>1155</v>
       </c>
@@ -11360,7 +11366,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:51" ht="16" customHeight="1">
+    <row r="67" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A67" s="8">
         <v>1200</v>
       </c>
@@ -11454,7 +11460,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:51" ht="16" customHeight="1">
+    <row r="68" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A68" s="8">
         <v>1201</v>
       </c>
@@ -11548,7 +11554,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:51" ht="16" customHeight="1">
+    <row r="69" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A69" s="8">
         <v>1250</v>
       </c>
@@ -11642,7 +11648,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:51" ht="16" customHeight="1">
+    <row r="70" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A70" s="8">
         <v>1251</v>
       </c>
@@ -11736,7 +11742,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:51" ht="16" customHeight="1">
+    <row r="71" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A71" s="8">
         <v>1300</v>
       </c>
@@ -11830,7 +11836,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:51" ht="16" customHeight="1">
+    <row r="72" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A72" s="8">
         <v>1301</v>
       </c>
@@ -11924,7 +11930,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:51" ht="16" customHeight="1">
+    <row r="73" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A73" s="8">
         <v>1302</v>
       </c>
@@ -12018,7 +12024,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:51" ht="16" customHeight="1">
+    <row r="74" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A74" s="8">
         <v>1303</v>
       </c>
@@ -12112,7 +12118,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:51" ht="16" customHeight="1">
+    <row r="75" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A75" s="8">
         <v>1304</v>
       </c>
@@ -12203,7 +12209,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:51" ht="16" customHeight="1">
+    <row r="76" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A76" s="8">
         <v>1305</v>
       </c>
@@ -12297,7 +12303,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:51" ht="16" customHeight="1">
+    <row r="77" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A77" s="8">
         <v>1306</v>
       </c>
@@ -12391,7 +12397,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:51" ht="16" customHeight="1">
+    <row r="78" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A78" s="8">
         <v>1350</v>
       </c>
@@ -12488,7 +12494,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:51" ht="16" customHeight="1">
+    <row r="79" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A79" s="8">
         <v>1351</v>
       </c>
@@ -12588,7 +12594,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:51" ht="16" customHeight="1">
+    <row r="80" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A80" s="8">
         <v>1352</v>
       </c>
@@ -12645,7 +12651,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:51" ht="16" customHeight="1">
+    <row r="81" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A81" s="8">
         <v>1353</v>
       </c>
@@ -12745,7 +12751,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:51" ht="16" customHeight="1">
+    <row r="82" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A82" s="8">
         <v>1354</v>
       </c>
@@ -12839,7 +12845,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:51" ht="16" customHeight="1">
+    <row r="83" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A83" s="8">
         <v>1355</v>
       </c>
@@ -12896,7 +12902,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:51" ht="16" customHeight="1">
+    <row r="84" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A84" s="8">
         <v>1356</v>
       </c>
@@ -12993,7 +12999,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:51" ht="16" customHeight="1">
+    <row r="85" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A85" s="8">
         <v>1357</v>
       </c>
@@ -13050,7 +13056,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:51" ht="16" customHeight="1">
+    <row r="86" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A86" s="8">
         <v>1358</v>
       </c>
@@ -13150,7 +13156,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:51" ht="16" customHeight="1">
+    <row r="87" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A87" s="8">
         <v>1359</v>
       </c>
@@ -13244,7 +13250,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:51" ht="16" customHeight="1">
+    <row r="88" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A88" s="8">
         <v>1360</v>
       </c>
@@ -13338,7 +13344,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:51" ht="16" customHeight="1">
+    <row r="89" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A89" s="8">
         <v>1400</v>
       </c>
@@ -13409,7 +13415,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:51" ht="16" customHeight="1">
+    <row r="90" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A90" s="8">
         <v>1401</v>
       </c>
@@ -13478,7 +13484,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:51" ht="16" customHeight="1">
+    <row r="91" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A91" s="8">
         <v>1402</v>
       </c>
@@ -13547,7 +13553,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:51" ht="16" customHeight="1">
+    <row r="92" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A92" s="8">
         <v>1403</v>
       </c>
@@ -13616,7 +13622,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:51" ht="16" customHeight="1">
+    <row r="93" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A93" s="8">
         <v>1404</v>
       </c>
@@ -13679,7 +13685,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:51" ht="16" customHeight="1">
+    <row r="94" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A94" s="8">
         <v>1405</v>
       </c>
@@ -13742,7 +13748,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:51" ht="16" customHeight="1">
+    <row r="95" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A95" s="8">
         <v>1406</v>
       </c>
@@ -13805,7 +13811,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:51" ht="16" customHeight="1">
+    <row r="96" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A96" s="8">
         <v>1407</v>
       </c>
@@ -13868,7 +13874,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:51" ht="16" customHeight="1">
+    <row r="97" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A97" s="8">
         <v>1408</v>
       </c>
@@ -14532,7 +14538,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:51" ht="16" customHeight="1">
+    <row r="104" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A104" s="8">
         <v>1506</v>
       </c>
@@ -14802,7 +14808,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="107" spans="1:51" ht="16" customHeight="1">
+    <row r="107" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A107" s="8">
         <v>1509</v>
       </c>
@@ -14949,7 +14955,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:51" ht="16" customHeight="1">
+    <row r="109" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A109" s="8">
         <v>1601</v>
       </c>
@@ -15147,7 +15153,7 @@
         <v>[["mac", "0x0017880103433075"]]</v>
       </c>
     </row>
-    <row r="111" spans="1:51" ht="16" customHeight="1">
+    <row r="111" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A111" s="8">
         <v>1603</v>
       </c>
@@ -15430,7 +15436,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:51" ht="16" customHeight="1">
+    <row r="114" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A114" s="8">
         <v>1606</v>
       </c>
@@ -15628,7 +15634,7 @@
         <v>[["mac", "0x001788010343c36f"]]</v>
       </c>
     </row>
-    <row r="116" spans="1:51" ht="16" customHeight="1">
+    <row r="116" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A116" s="8">
         <v>1608</v>
       </c>
@@ -16111,7 +16117,7 @@
         <v>[["mac", "0x001788010444db4e"]]</v>
       </c>
     </row>
-    <row r="121" spans="1:51" ht="16" customHeight="1">
+    <row r="121" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A121" s="8">
         <v>1613</v>
       </c>
@@ -16788,7 +16794,7 @@
         <v>[["mac", "0x00178801039f4eed"]]</v>
       </c>
     </row>
-    <row r="128" spans="1:51" ht="16" customHeight="1">
+    <row r="128" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A128" s="8">
         <v>1620</v>
       </c>
@@ -17262,7 +17268,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:51" ht="16" customHeight="1">
+    <row r="133" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A133" s="8">
         <v>1625</v>
       </c>
@@ -17460,7 +17466,7 @@
         <v>[["mac", "0x0017880106bc4f2d"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:51" ht="16" customHeight="1">
+    <row r="135" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A135" s="8">
         <v>1627</v>
       </c>
@@ -17846,7 +17852,7 @@
         <v>[["mac", "0x001788010432a064"]]</v>
       </c>
     </row>
-    <row r="139" spans="1:51" ht="16" customHeight="1">
+    <row r="139" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A139" s="8">
         <v>1631</v>
       </c>
@@ -18044,7 +18050,7 @@
         <v>[["mac", "0x00178801040e2034"]]</v>
       </c>
     </row>
-    <row r="141" spans="1:51" ht="16" customHeight="1">
+    <row r="141" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A141" s="8">
         <v>1633</v>
       </c>
@@ -18716,7 +18722,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="148" spans="1:51" ht="16" customHeight="1">
+    <row r="148" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A148" s="8">
         <v>1640</v>
       </c>
@@ -18908,7 +18914,7 @@
         <v>[["mac", "0x0017880104eaa288"]]</v>
       </c>
     </row>
-    <row r="150" spans="1:51" ht="16" customHeight="1">
+    <row r="150" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A150" s="8">
         <v>1642</v>
       </c>
@@ -19100,7 +19106,7 @@
         <v>[["mac", "0x0017880104eaa272"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:51" ht="16" customHeight="1">
+    <row r="152" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A152" s="8">
         <v>1644</v>
       </c>
@@ -19289,7 +19295,7 @@
         <v>[["mac", "0x00178801040edfae"]]</v>
       </c>
     </row>
-    <row r="154" spans="1:51" ht="16" customHeight="1">
+    <row r="154" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A154" s="8">
         <v>1646</v>
       </c>
@@ -19481,7 +19487,7 @@
         <v>[["mac", "0x00178801040edcad"]]</v>
       </c>
     </row>
-    <row r="156" spans="1:51" ht="16" customHeight="1">
+    <row r="156" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A156" s="8">
         <v>1648</v>
       </c>
@@ -19673,7 +19679,7 @@
         <v>[["mac", "0x00178801040eddb2"]]</v>
       </c>
     </row>
-    <row r="158" spans="1:51" ht="16" customHeight="1">
+    <row r="158" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A158" s="8">
         <v>1650</v>
       </c>
@@ -20241,7 +20247,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:0c"], ["ip", "10.0.6.89"]]</v>
       </c>
     </row>
-    <row r="164" spans="1:51" ht="16" customHeight="1">
+    <row r="164" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A164" s="8">
         <v>1656</v>
       </c>
@@ -20721,7 +20727,7 @@
         <v>[["mac", "0x001788010c692144"]]</v>
       </c>
     </row>
-    <row r="169" spans="1:51" s="31" customFormat="1" ht="16" customHeight="1">
+    <row r="169" spans="1:51" s="31" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A169" s="31">
         <v>1661</v>
       </c>
@@ -20792,7 +20798,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="170" spans="1:51" s="31" customFormat="1" ht="16" customHeight="1">
+    <row r="170" spans="1:51" s="31" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A170" s="31">
         <v>1662</v>
       </c>
@@ -20863,7 +20869,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="171" spans="1:51" s="31" customFormat="1" ht="16" customHeight="1">
+    <row r="171" spans="1:51" s="31" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A171" s="31">
         <v>1663</v>
       </c>
@@ -20934,7 +20940,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="172" spans="1:51" s="31" customFormat="1" ht="16" customHeight="1">
+    <row r="172" spans="1:51" s="31" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A172" s="31">
         <v>1664</v>
       </c>
@@ -21005,7 +21011,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="173" spans="1:51" ht="16" customHeight="1">
+    <row r="173" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A173" s="8">
         <v>1665</v>
       </c>
@@ -21291,7 +21297,7 @@
         <v>[["mac", "0x0017880109c40c33"]]</v>
       </c>
     </row>
-    <row r="176" spans="1:51" s="31" customFormat="1" ht="16" customHeight="1">
+    <row r="176" spans="1:51" s="31" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A176" s="31">
         <v>1668</v>
       </c>
@@ -21362,7 +21368,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="177" spans="1:51" ht="16" customHeight="1">
+    <row r="177" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A177" s="8">
         <v>1700</v>
       </c>
@@ -21610,7 +21616,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="180" spans="1:51" ht="16" customHeight="1">
+    <row r="180" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A180" s="8">
         <v>1703</v>
       </c>
@@ -21988,7 +21994,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="184" spans="1:51" ht="16" customHeight="1">
+    <row r="184" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A184" s="8">
         <v>2100</v>
       </c>
@@ -22054,7 +22060,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:51" ht="16" customHeight="1">
+    <row r="185" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A185" s="8">
         <v>2101</v>
       </c>
@@ -22120,7 +22126,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:51" ht="16" customHeight="1">
+    <row r="186" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A186" s="8">
         <v>2102</v>
       </c>
@@ -22186,7 +22192,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:51" ht="16" customHeight="1">
+    <row r="187" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A187" s="8">
         <v>2103</v>
       </c>
@@ -22243,7 +22249,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="188" spans="1:51" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A188" s="53">
         <v>2104</v>
       </c>
@@ -22306,7 +22312,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:51" ht="16" customHeight="1">
+    <row r="189" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A189" s="8">
         <v>2105</v>
       </c>
@@ -22372,7 +22378,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:51" ht="16" customHeight="1">
+    <row r="190" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A190" s="8">
         <v>2106</v>
       </c>
@@ -22438,7 +22444,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:51" ht="16" customHeight="1">
+    <row r="191" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A191" s="8">
         <v>2107</v>
       </c>
@@ -22506,7 +22512,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:51" ht="16" customHeight="1">
+    <row r="192" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A192" s="8">
         <v>2108</v>
       </c>
@@ -22574,7 +22580,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:51" ht="16" customHeight="1">
+    <row r="193" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A193" s="8">
         <v>2109</v>
       </c>
@@ -22642,7 +22648,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:51" ht="16" customHeight="1">
+    <row r="194" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A194" s="8">
         <v>2110</v>
       </c>
@@ -22710,7 +22716,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:51" ht="16" customHeight="1">
+    <row r="195" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A195" s="8">
         <v>2111</v>
       </c>
@@ -22776,7 +22782,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:51" ht="16" customHeight="1">
+    <row r="196" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A196" s="8">
         <v>2112</v>
       </c>
@@ -22842,7 +22848,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:51" ht="16" customHeight="1">
+    <row r="197" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A197" s="8">
         <v>2113</v>
       </c>
@@ -22908,7 +22914,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:51" ht="16" customHeight="1">
+    <row r="198" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A198" s="8">
         <v>2114</v>
       </c>
@@ -22974,7 +22980,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:51" ht="16" customHeight="1">
+    <row r="199" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A199" s="8">
         <v>2115</v>
       </c>
@@ -23040,7 +23046,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:51" ht="16" customHeight="1">
+    <row r="200" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A200" s="8">
         <v>2116</v>
       </c>
@@ -23106,7 +23112,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:51" ht="16" customHeight="1">
+    <row r="201" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A201" s="8">
         <v>2117</v>
       </c>
@@ -23172,7 +23178,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:51" ht="16" customHeight="1">
+    <row r="202" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A202" s="8">
         <v>2118</v>
       </c>
@@ -23238,7 +23244,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:51" ht="16" customHeight="1">
+    <row r="203" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A203" s="8">
         <v>2119</v>
       </c>
@@ -23304,7 +23310,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:51" ht="16" customHeight="1">
+    <row r="204" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A204" s="8">
         <v>2120</v>
       </c>
@@ -23370,7 +23376,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:51" ht="16" customHeight="1">
+    <row r="205" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A205" s="8">
         <v>2121</v>
       </c>
@@ -23436,7 +23442,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:51" ht="16" customHeight="1">
+    <row r="206" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A206" s="8">
         <v>2122</v>
       </c>
@@ -23492,7 +23498,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:51" ht="16" customHeight="1">
+    <row r="207" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A207" s="8">
         <v>2123</v>
       </c>
@@ -23549,7 +23555,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:51" ht="16" customHeight="1">
+    <row r="208" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A208" s="8">
         <v>2124</v>
       </c>
@@ -23606,7 +23612,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:51" ht="16" customHeight="1">
+    <row r="209" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A209" s="8">
         <v>2125</v>
       </c>
@@ -23663,7 +23669,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:51" ht="16" customHeight="1">
+    <row r="210" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A210" s="8">
         <v>2126</v>
       </c>
@@ -23720,7 +23726,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:51" ht="16" customHeight="1">
+    <row r="211" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A211" s="8">
         <v>2150</v>
       </c>
@@ -23786,7 +23792,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:51" ht="16" customHeight="1">
+    <row r="212" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A212" s="8">
         <v>2151</v>
       </c>
@@ -23852,7 +23858,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:51" ht="16" customHeight="1">
+    <row r="213" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A213" s="8">
         <v>2152</v>
       </c>
@@ -23914,7 +23920,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:51" ht="16" customHeight="1">
+    <row r="214" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A214" s="8">
         <v>2153</v>
       </c>
@@ -23971,7 +23977,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:51" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="215" spans="1:51" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A215" s="53">
         <v>2154</v>
       </c>
@@ -24035,7 +24041,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:51" ht="16" customHeight="1">
+    <row r="216" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A216" s="8">
         <v>2155</v>
       </c>
@@ -24101,7 +24107,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:51" ht="16" customHeight="1">
+    <row r="217" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A217" s="8">
         <v>2156</v>
       </c>
@@ -24167,7 +24173,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:51" ht="16" customHeight="1">
+    <row r="218" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A218" s="8">
         <v>2157</v>
       </c>
@@ -24233,7 +24239,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:51" ht="16" customHeight="1">
+    <row r="219" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A219" s="8">
         <v>2158</v>
       </c>
@@ -24299,7 +24305,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:51" ht="16" customHeight="1">
+    <row r="220" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A220" s="8">
         <v>2159</v>
       </c>
@@ -24365,7 +24371,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:51" ht="16" customHeight="1">
+    <row r="221" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A221" s="8">
         <v>2160</v>
       </c>
@@ -24431,7 +24437,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:51" ht="16" customHeight="1">
+    <row r="222" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A222" s="8">
         <v>2161</v>
       </c>
@@ -24497,7 +24503,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:51" ht="16" customHeight="1">
+    <row r="223" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A223" s="8">
         <v>2162</v>
       </c>
@@ -24563,7 +24569,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:51" ht="16" customHeight="1">
+    <row r="224" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A224" s="8">
         <v>2163</v>
       </c>
@@ -24629,7 +24635,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:51" ht="16" customHeight="1">
+    <row r="225" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A225" s="8">
         <v>2164</v>
       </c>
@@ -24695,7 +24701,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:51" ht="16" customHeight="1">
+    <row r="226" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A226" s="8">
         <v>2165</v>
       </c>
@@ -24761,7 +24767,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:51" ht="16" customHeight="1">
+    <row r="227" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A227" s="8">
         <v>2166</v>
       </c>
@@ -24827,7 +24833,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:51" ht="16" customHeight="1">
+    <row r="228" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A228" s="8">
         <v>2167</v>
       </c>
@@ -24893,7 +24899,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:51" ht="16" customHeight="1">
+    <row r="229" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A229" s="8">
         <v>2168</v>
       </c>
@@ -24959,7 +24965,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:51" ht="16" customHeight="1">
+    <row r="230" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A230" s="8">
         <v>2169</v>
       </c>
@@ -25025,7 +25031,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:51" ht="16" customHeight="1">
+    <row r="231" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A231" s="8">
         <v>2170</v>
       </c>
@@ -25091,7 +25097,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:51" ht="16" customHeight="1">
+    <row r="232" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A232" s="8">
         <v>2171</v>
       </c>
@@ -25148,7 +25154,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:51" ht="16" customHeight="1">
+    <row r="233" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A233" s="8">
         <v>2172</v>
       </c>
@@ -25205,7 +25211,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:51" ht="16" customHeight="1">
+    <row r="234" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A234" s="8">
         <v>2173</v>
       </c>
@@ -25271,7 +25277,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:51" ht="16" customHeight="1">
+    <row r="235" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A235" s="8">
         <v>2174</v>
       </c>
@@ -25328,7 +25334,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:51" ht="16" customHeight="1">
+    <row r="236" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A236" s="8">
         <v>2175</v>
       </c>
@@ -25385,7 +25391,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:51" ht="16" customHeight="1">
+    <row r="237" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A237" s="8">
         <v>2176</v>
       </c>
@@ -25441,7 +25447,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:51" ht="16" customHeight="1">
+    <row r="238" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A238" s="8">
         <v>2200</v>
       </c>
@@ -25507,7 +25513,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:51" ht="16" customHeight="1">
+    <row r="239" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A239" s="8">
         <v>2201</v>
       </c>
@@ -25573,7 +25579,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:51" ht="16" customHeight="1">
+    <row r="240" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A240" s="8">
         <v>2203</v>
       </c>
@@ -25639,7 +25645,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:51" ht="16" customHeight="1">
+    <row r="241" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A241" s="8">
         <v>2250</v>
       </c>
@@ -25705,7 +25711,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:51" ht="16" customHeight="1">
+    <row r="242" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A242" s="8">
         <v>2251</v>
       </c>
@@ -25771,7 +25777,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:51" ht="16" customHeight="1">
+    <row r="243" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A243" s="8">
         <v>2252</v>
       </c>
@@ -25837,7 +25843,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:51" ht="16" customHeight="1">
+    <row r="244" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A244" s="8">
         <v>2300</v>
       </c>
@@ -25903,7 +25909,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:51" ht="16" customHeight="1">
+    <row r="245" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A245" s="8">
         <v>2301</v>
       </c>
@@ -25969,7 +25975,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:51" ht="16" customHeight="1">
+    <row r="246" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A246" s="8">
         <v>2302</v>
       </c>
@@ -26035,7 +26041,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:51" ht="16" customHeight="1">
+    <row r="247" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A247" s="8">
         <v>2400</v>
       </c>
@@ -26110,7 +26116,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="248" spans="1:51" s="44" customFormat="1" ht="16" customHeight="1">
+    <row r="248" spans="1:51" s="44" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A248" s="8">
         <v>2500</v>
       </c>
@@ -26220,7 +26226,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:51" s="44" customFormat="1" ht="16" customHeight="1">
+    <row r="249" spans="1:51" s="44" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A249" s="8">
         <v>2501</v>
       </c>
@@ -26334,7 +26340,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:51" s="44" customFormat="1" ht="16" customHeight="1">
+    <row r="250" spans="1:51" s="44" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A250" s="8">
         <v>2502</v>
       </c>
@@ -26448,7 +26454,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:51" s="44" customFormat="1" ht="16" customHeight="1">
+    <row r="251" spans="1:51" s="44" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A251" s="8">
         <v>2503</v>
       </c>
@@ -26562,7 +26568,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:51" s="44" customFormat="1" ht="16" customHeight="1">
+    <row r="252" spans="1:51" s="44" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A252" s="8">
         <v>2504</v>
       </c>
@@ -26674,7 +26680,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:51" ht="16" customHeight="1">
+    <row r="253" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A253" s="8">
         <v>2505</v>
       </c>
@@ -26735,7 +26741,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:51" ht="16" customHeight="1">
+    <row r="254" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A254" s="8">
         <v>2506</v>
       </c>
@@ -26793,7 +26799,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:51" ht="16" customHeight="1">
+    <row r="255" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A255" s="8">
         <v>2507</v>
       </c>
@@ -26851,7 +26857,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:51" ht="16" customHeight="1">
+    <row r="256" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A256" s="8">
         <v>2508</v>
       </c>
@@ -26909,7 +26915,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:51" ht="16" customHeight="1">
+    <row r="257" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A257" s="8">
         <v>2509</v>
       </c>
@@ -26967,7 +26973,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:51" ht="16" customHeight="1">
+    <row r="258" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A258" s="8">
         <v>2510</v>
       </c>
@@ -27025,7 +27031,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:51" ht="16" customHeight="1">
+    <row r="259" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A259" s="8">
         <v>2511</v>
       </c>
@@ -27083,7 +27089,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:51" ht="16" customHeight="1">
+    <row r="260" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A260" s="8">
         <v>2512</v>
       </c>
@@ -27168,7 +27174,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:51" ht="16" customHeight="1">
+    <row r="261" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A261" s="8">
         <v>2513</v>
       </c>
@@ -27214,7 +27220,7 @@
       <c r="AU261" s="8"/>
       <c r="AV261" s="8"/>
     </row>
-    <row r="262" spans="1:51" ht="16" customHeight="1">
+    <row r="262" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A262" s="8">
         <v>2514</v>
       </c>
@@ -27272,7 +27278,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:51" ht="16" customHeight="1">
+    <row r="263" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A263" s="8">
         <v>2520</v>
       </c>
@@ -27330,7 +27336,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:51" ht="16" customHeight="1">
+    <row r="264" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A264" s="8">
         <v>2521</v>
       </c>
@@ -27388,7 +27394,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:51" ht="16" customHeight="1">
+    <row r="265" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A265" s="8">
         <v>2522</v>
       </c>
@@ -27446,7 +27452,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:51" ht="16" customHeight="1">
+    <row r="266" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A266" s="8">
         <v>2523</v>
       </c>
@@ -27504,7 +27510,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:51" ht="16" customHeight="1">
+    <row r="267" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A267" s="8">
         <v>2524</v>
       </c>
@@ -27562,7 +27568,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:51" ht="16" customHeight="1">
+    <row r="268" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A268" s="8">
         <v>2525</v>
       </c>
@@ -27617,7 +27623,7 @@
       <c r="AU268" s="8"/>
       <c r="AV268" s="8"/>
     </row>
-    <row r="269" spans="1:51" ht="16" customHeight="1">
+    <row r="269" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A269" s="8">
         <v>2526</v>
       </c>
@@ -27714,7 +27720,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:51" ht="16" customHeight="1">
+    <row r="270" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A270" s="8">
         <v>2527</v>
       </c>
@@ -27787,7 +27793,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:51" ht="16" customHeight="1">
+    <row r="271" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A271" s="8">
         <v>2528</v>
       </c>
@@ -27860,7 +27866,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:51" ht="16" customHeight="1">
+    <row r="272" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A272" s="8">
         <v>2529</v>
       </c>
@@ -27933,7 +27939,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:51" ht="16" customHeight="1">
+    <row r="273" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A273" s="8">
         <v>2530</v>
       </c>
@@ -28006,7 +28012,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:51" ht="16" customHeight="1">
+    <row r="274" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A274" s="8">
         <v>2531</v>
       </c>
@@ -28063,7 +28069,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:51" ht="16" customHeight="1">
+    <row r="275" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A275" s="8">
         <v>2532</v>
       </c>
@@ -28120,7 +28126,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:51" ht="16" customHeight="1">
+    <row r="276" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A276" s="8">
         <v>2533</v>
       </c>
@@ -29451,7 +29457,7 @@
         <v>2563</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>841</v>
+        <v>26</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>246</v>
@@ -30285,7 +30291,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="300" spans="1:51" ht="16" customHeight="1">
+    <row r="300" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A300" s="8">
         <v>2572</v>
       </c>
@@ -30371,7 +30377,7 @@
         <v>[["mac", "0x00178801086168ac"]]</v>
       </c>
     </row>
-    <row r="301" spans="1:51" ht="16" customHeight="1">
+    <row r="301" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A301" s="8">
         <v>2573</v>
       </c>
@@ -30457,7 +30463,7 @@
         <v>[["mac", "0x0017880109d4659c"]]</v>
       </c>
     </row>
-    <row r="302" spans="1:51" ht="16" customHeight="1">
+    <row r="302" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A302" s="8">
         <v>2574</v>
       </c>
@@ -30544,7 +30550,7 @@
         <v>[["mac", "0x0017880108fd8633"]]</v>
       </c>
     </row>
-    <row r="303" spans="1:51" ht="16" customHeight="1">
+    <row r="303" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A303" s="8">
         <v>2575</v>
       </c>
@@ -30995,7 +31001,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:51" ht="16" customHeight="1">
+    <row r="308" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A308" s="8">
         <v>2580</v>
       </c>
@@ -31063,7 +31069,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:51" ht="16" customHeight="1">
+    <row r="309" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A309" s="8">
         <v>2581</v>
       </c>
@@ -31160,7 +31166,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="310" spans="1:51" ht="16" customHeight="1">
+    <row r="310" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A310" s="8">
         <v>2582</v>
       </c>
@@ -31239,7 +31245,7 @@
         <v>[["mac", "0x2c1165fffec5a3f6"]]</v>
       </c>
     </row>
-    <row r="311" spans="1:51" ht="16" customHeight="1">
+    <row r="311" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A311" s="8">
         <v>2583</v>
       </c>
@@ -31318,7 +31324,7 @@
         <v>[["mac", "0x2c1165fffebaa93c"]]</v>
       </c>
     </row>
-    <row r="312" spans="1:51" ht="16" customHeight="1">
+    <row r="312" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A312" s="8">
         <v>2584</v>
       </c>
@@ -31397,7 +31403,7 @@
         <v>[["mac", "0x50325ffffe47b8fa"]]</v>
       </c>
     </row>
-    <row r="313" spans="1:51" ht="16" customHeight="1">
+    <row r="313" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A313" s="8">
         <v>2585</v>
       </c>
@@ -31453,7 +31459,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:51" ht="16" customHeight="1">
+    <row r="314" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A314" s="14">
         <v>2600</v>
       </c>
@@ -31522,7 +31528,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:51" ht="16" customHeight="1">
+    <row r="315" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A315" s="48">
         <v>2601</v>
       </c>
@@ -31591,7 +31597,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:51" ht="16" customHeight="1">
+    <row r="316" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A316" s="14">
         <v>2602</v>
       </c>
@@ -31660,7 +31666,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:51" ht="16" customHeight="1">
+    <row r="317" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A317" s="14">
         <v>2603</v>
       </c>
@@ -31726,7 +31732,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:51" ht="16" customHeight="1">
+    <row r="318" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A318" s="48">
         <v>2604</v>
       </c>
@@ -31792,7 +31798,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:51" ht="16" customHeight="1">
+    <row r="319" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A319" s="14">
         <v>2605</v>
       </c>
@@ -31858,7 +31864,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:51" ht="16" customHeight="1">
+    <row r="320" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A320" s="14">
         <v>2606</v>
       </c>
@@ -31927,7 +31933,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:51" ht="16" customHeight="1">
+    <row r="321" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A321" s="48">
         <v>2607</v>
       </c>
@@ -31994,7 +32000,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:51" ht="16" customHeight="1">
+    <row r="322" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A322" s="14">
         <v>2608</v>
       </c>
@@ -32060,7 +32066,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:51" ht="16" customHeight="1">
+    <row r="323" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A323" s="14">
         <v>2609</v>
       </c>
@@ -32127,7 +32133,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:51" ht="16" customHeight="1">
+    <row r="324" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A324" s="48">
         <v>2610</v>
       </c>
@@ -32193,7 +32199,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:51" ht="16" customHeight="1">
+    <row r="325" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A325" s="14">
         <v>2611</v>
       </c>
@@ -32259,7 +32265,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:51" ht="16" customHeight="1">
+    <row r="326" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A326" s="45">
         <v>2612</v>
       </c>
@@ -32325,7 +32331,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:51" ht="16" customHeight="1">
+    <row r="327" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A327" s="46">
         <v>2613</v>
       </c>
@@ -32391,7 +32397,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:51" ht="16" customHeight="1">
+    <row r="328" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A328" s="45">
         <v>2614</v>
       </c>
@@ -32457,7 +32463,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:51" ht="16" customHeight="1">
+    <row r="329" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A329" s="45">
         <v>2615</v>
       </c>
@@ -32514,7 +32520,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:51" ht="16" customHeight="1">
+    <row r="330" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A330" s="47">
         <v>2620</v>
       </c>
@@ -32571,7 +32577,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:51" ht="16" customHeight="1">
+    <row r="331" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A331" s="47">
         <v>2621</v>
       </c>
@@ -32628,7 +32634,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:51" ht="16" customHeight="1">
+    <row r="332" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A332" s="47">
         <v>2622</v>
       </c>
@@ -32682,7 +32688,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:51" ht="16" customHeight="1">
+    <row r="333" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A333" s="47">
         <v>2623</v>
       </c>
@@ -32736,7 +32742,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:51" ht="16" customHeight="1">
+    <row r="334" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A334" s="47">
         <v>2624</v>
       </c>
@@ -32793,7 +32799,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:51" ht="16" customHeight="1">
+    <row r="335" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A335" s="47">
         <v>2625</v>
       </c>
@@ -32850,7 +32856,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:51" ht="16" customHeight="1">
+    <row r="336" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A336" s="47">
         <v>2626</v>
       </c>
@@ -32904,7 +32910,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:51" ht="16" customHeight="1">
+    <row r="337" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A337" s="47">
         <v>2627</v>
       </c>
@@ -32958,7 +32964,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:51" ht="16" customHeight="1">
+    <row r="338" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A338" s="47">
         <v>2628</v>
       </c>
@@ -33017,7 +33023,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:51" ht="16" customHeight="1">
+    <row r="339" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A339" s="47">
         <v>2629</v>
       </c>
@@ -33076,7 +33082,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:51" ht="16" customHeight="1">
+    <row r="340" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A340" s="47">
         <v>2630</v>
       </c>
@@ -33132,7 +33138,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:51" ht="16" customHeight="1">
+    <row r="341" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A341" s="47">
         <v>2631</v>
       </c>
@@ -33188,7 +33194,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:51" ht="16" customHeight="1">
+    <row r="342" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A342" s="45">
         <v>2631</v>
       </c>
@@ -33244,7 +33250,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:51" ht="16" customHeight="1">
+    <row r="343" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A343" s="8">
         <v>2640</v>
       </c>
@@ -33931,7 +33937,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="350" spans="1:51" ht="16" customHeight="1">
+    <row r="350" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A350" s="8">
         <v>2656</v>
       </c>
@@ -33988,7 +33994,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:51" ht="16" customHeight="1">
+    <row r="351" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A351" s="8">
         <v>2657</v>
       </c>
@@ -34075,7 +34081,7 @@
         <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
-    <row r="352" spans="1:51" ht="16" customHeight="1">
+    <row r="352" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A352" s="8">
         <v>2658</v>
       </c>
@@ -34161,7 +34167,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="353" spans="1:51" ht="16" customHeight="1">
+    <row r="353" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A353" s="8">
         <v>2659</v>
       </c>
@@ -34247,7 +34253,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="354" spans="1:51" ht="16" customHeight="1">
+    <row r="354" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A354" s="8">
         <v>2660</v>
       </c>
@@ -34303,7 +34309,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:51" ht="16" customHeight="1">
+    <row r="355" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A355" s="8">
         <v>2661</v>
       </c>
@@ -34691,7 +34697,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="359" spans="1:51" ht="16" customHeight="1">
+    <row r="359" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A359" s="8">
         <v>2665</v>
       </c>
@@ -34777,7 +34783,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="360" spans="1:51" ht="16" customHeight="1">
+    <row r="360" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A360" s="8">
         <v>2700</v>
       </c>
@@ -34839,7 +34845,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:51" ht="16" customHeight="1">
+    <row r="361" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A361" s="8">
         <v>2701</v>
       </c>
@@ -34895,7 +34901,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:51" ht="16" customHeight="1">
+    <row r="362" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A362" s="8">
         <v>2702</v>
       </c>
@@ -34974,7 +34980,7 @@
         <v>[["mac", "0x000d6f0011274420"]]</v>
       </c>
     </row>
-    <row r="363" spans="1:51" ht="16" customHeight="1">
+    <row r="363" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A363" s="8">
         <v>2703</v>
       </c>
@@ -35053,7 +35059,7 @@
         <v>[["mac", "0x00124b0029119f9a"]]</v>
       </c>
     </row>
-    <row r="364" spans="1:51" s="39" customFormat="1" ht="16" customHeight="1">
+    <row r="364" spans="1:51" s="39" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A364" s="39">
         <v>2704</v>
       </c>
@@ -35102,7 +35108,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:51" ht="16" customHeight="1">
+    <row r="365" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A365" s="8">
         <v>2705</v>
       </c>
@@ -35164,7 +35170,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:51" ht="16" customHeight="1">
+    <row r="366" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A366" s="8">
         <v>2706</v>
       </c>
@@ -35220,7 +35226,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:51" ht="16" customHeight="1">
+    <row r="367" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A367" s="8">
         <v>2707</v>
       </c>
@@ -35299,7 +35305,7 @@
         <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
-    <row r="368" spans="1:51" ht="16" customHeight="1">
+    <row r="368" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A368" s="8">
         <v>2708</v>
       </c>
@@ -35378,7 +35384,7 @@
         <v>[["mac", "0x00124b0029113713"]]</v>
       </c>
     </row>
-    <row r="369" spans="1:51" s="39" customFormat="1" ht="16" customHeight="1">
+    <row r="369" spans="1:51" s="39" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A369" s="39">
         <v>2709</v>
       </c>
@@ -35427,7 +35433,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:51" ht="16" customHeight="1">
+    <row r="370" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A370" s="8">
         <v>2710</v>
       </c>
@@ -35483,7 +35489,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:51" ht="16" customHeight="1">
+    <row r="371" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A371" s="8">
         <v>2711</v>
       </c>
@@ -35540,7 +35546,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:51" ht="16" customHeight="1">
+    <row r="372" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A372" s="8">
         <v>2712</v>
       </c>
@@ -35624,7 +35630,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="373" spans="1:51" ht="16" customHeight="1">
+    <row r="373" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A373" s="8">
         <v>2713</v>
       </c>
@@ -35680,7 +35686,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:51" ht="16" customHeight="1">
+    <row r="374" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A374" s="8">
         <v>2714</v>
       </c>
@@ -35737,7 +35743,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:51" ht="16" customHeight="1">
+    <row r="375" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A375" s="8">
         <v>2715</v>
       </c>
@@ -35821,7 +35827,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="376" spans="1:51" ht="16" customHeight="1">
+    <row r="376" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A376" s="8">
         <v>2716</v>
       </c>
@@ -35877,7 +35883,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:51" ht="16" customHeight="1">
+    <row r="377" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A377" s="8">
         <v>2717</v>
       </c>
@@ -35934,7 +35940,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:51" ht="16" customHeight="1">
+    <row r="378" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A378" s="8">
         <v>2718</v>
       </c>
@@ -35992,7 +35998,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:51" ht="16" customHeight="1">
+    <row r="379" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A379" s="8">
         <v>2719</v>
       </c>
@@ -36050,7 +36056,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:51" ht="16" customHeight="1">
+    <row r="380" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A380" s="8">
         <v>2720</v>
       </c>
@@ -36107,7 +36113,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:51" ht="16" customHeight="1">
+    <row r="381" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A381" s="8">
         <v>2721</v>
       </c>
@@ -36164,7 +36170,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:51" ht="16" customHeight="1">
+    <row r="382" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A382" s="8">
         <v>2722</v>
       </c>
@@ -36221,7 +36227,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:51" ht="16" customHeight="1">
+    <row r="383" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A383" s="8">
         <v>5000</v>
       </c>
@@ -36283,7 +36289,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="384" spans="1:51" ht="16" customHeight="1">
+    <row r="384" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A384" s="8">
         <v>5001</v>
       </c>
@@ -36345,7 +36351,7 @@
         <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="385" spans="1:51" ht="16" customHeight="1">
+    <row r="385" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A385" s="8">
         <v>5002</v>
       </c>
@@ -36407,7 +36413,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="386" spans="1:51" ht="16" customHeight="1">
+    <row r="386" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A386" s="8">
         <v>5003</v>
       </c>
@@ -36469,7 +36475,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="387" spans="1:51" ht="16" customHeight="1">
+    <row r="387" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A387" s="8">
         <v>5004</v>
       </c>
@@ -36531,7 +36537,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
-    <row r="388" spans="1:51" ht="16" customHeight="1">
+    <row r="388" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A388" s="8">
         <v>5005</v>
       </c>
@@ -36597,7 +36603,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="389" spans="1:51" ht="16" customHeight="1">
+    <row r="389" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A389" s="8">
         <v>5006</v>
       </c>
@@ -36663,7 +36669,7 @@
         <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="390" spans="1:51" ht="16" customHeight="1">
+    <row r="390" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A390" s="8">
         <v>5007</v>
       </c>
@@ -36733,7 +36739,7 @@
         <v>[["mac", "2a:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="391" spans="1:51" ht="16" customHeight="1">
+    <row r="391" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A391" s="8">
         <v>5008</v>
       </c>
@@ -36803,7 +36809,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="392" spans="1:51" ht="16" customHeight="1">
+    <row r="392" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A392" s="8">
         <v>5009</v>
       </c>
@@ -36864,7 +36870,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"]]</v>
       </c>
     </row>
-    <row r="393" spans="1:51" ht="16" customHeight="1">
+    <row r="393" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A393" s="8">
         <v>5010</v>
       </c>
@@ -36927,7 +36933,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"]]</v>
       </c>
     </row>
-    <row r="394" spans="1:51" ht="16" customHeight="1">
+    <row r="394" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A394" s="8">
         <v>5011</v>
       </c>
@@ -36990,7 +36996,7 @@
         <v>[["mac", "40:6c:8f:2a:da:9c"]]</v>
       </c>
     </row>
-    <row r="395" spans="1:51" ht="16" customHeight="1">
+    <row r="395" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A395" s="8">
         <v>5012</v>
       </c>
@@ -37055,7 +37061,7 @@
         <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="396" spans="1:51" ht="16" customHeight="1">
+    <row r="396" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A396" s="8">
         <v>5013</v>
       </c>
@@ -37120,7 +37126,7 @@
         <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="397" spans="1:51" ht="16" customHeight="1">
+    <row r="397" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A397" s="8">
         <v>5014</v>
       </c>
@@ -37180,7 +37186,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="398" spans="1:51" ht="16" customHeight="1">
+    <row r="398" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A398" s="8">
         <v>5015</v>
       </c>
@@ -37247,7 +37253,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="399" spans="1:51" ht="16" customHeight="1">
+    <row r="399" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="A399" s="8">
         <v>6000</v>
       </c>
@@ -37293,7 +37299,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="400" spans="1:51" ht="16" customHeight="1">
+    <row r="400" spans="1:51" ht="16" hidden="1" customHeight="1">
       <c r="F400" s="8" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37323,7 +37329,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="2:51" ht="16" customHeight="1">
+    <row r="401" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="B401" s="14"/>
       <c r="C401" s="14"/>
       <c r="D401" s="14"/>
@@ -37363,7 +37369,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="2:51" ht="16" customHeight="1">
+    <row r="402" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F402" s="8" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37393,7 +37399,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="2:51" ht="16" customHeight="1">
+    <row r="403" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F403" s="8" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37423,7 +37429,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="2:51" ht="16" customHeight="1">
+    <row r="404" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F404" s="8" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37453,7 +37459,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="2:51" ht="16" customHeight="1">
+    <row r="405" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F405" s="8" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37483,7 +37489,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="2:51" ht="16" customHeight="1">
+    <row r="406" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="E406" s="12"/>
       <c r="F406" s="8" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
@@ -37514,7 +37520,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="2:51" ht="16" customHeight="1">
+    <row r="407" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="E407" s="12"/>
       <c r="F407" s="8" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
@@ -37545,7 +37551,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="2:51" ht="16" customHeight="1">
+    <row r="408" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F408" s="8" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37575,7 +37581,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="2:51" ht="16" customHeight="1">
+    <row r="409" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F409" s="8" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37605,7 +37611,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="2:51" ht="16" customHeight="1">
+    <row r="410" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F410" s="8" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37635,7 +37641,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="2:51" ht="16" customHeight="1">
+    <row r="411" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F411" s="8" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37665,7 +37671,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="2:51" ht="16" customHeight="1">
+    <row r="412" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F412" s="8" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37695,7 +37701,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="2:51" ht="16" customHeight="1">
+    <row r="413" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F413" s="8" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37725,7 +37731,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="2:51" ht="16" customHeight="1">
+    <row r="414" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F414" s="8" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37755,7 +37761,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="2:51" ht="16" customHeight="1">
+    <row r="415" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F415" s="8" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37785,7 +37791,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="2:51" ht="16" customHeight="1">
+    <row r="416" spans="2:51" ht="16" hidden="1" customHeight="1">
       <c r="F416" s="8" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37815,7 +37821,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:51" ht="16" customHeight="1">
+    <row r="417" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F417" s="8" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37845,7 +37851,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:51" ht="16" customHeight="1">
+    <row r="418" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F418" s="8" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37875,7 +37881,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:51" ht="16" customHeight="1">
+    <row r="419" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F419" s="8" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37905,7 +37911,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:51" ht="16" customHeight="1">
+    <row r="420" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F420" s="8" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37935,7 +37941,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:51" ht="16" customHeight="1">
+    <row r="421" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F421" s="8" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37965,7 +37971,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:51" ht="16" customHeight="1">
+    <row r="422" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F422" s="8" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37995,7 +38001,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:51" ht="16" customHeight="1">
+    <row r="423" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F423" s="8" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38025,7 +38031,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:51" ht="16" customHeight="1">
+    <row r="424" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F424" s="8" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38055,7 +38061,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:51" ht="16" customHeight="1">
+    <row r="425" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F425" s="8" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38085,7 +38091,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:51" ht="16" customHeight="1">
+    <row r="426" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F426" s="8" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38115,7 +38121,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:51" ht="16" customHeight="1">
+    <row r="427" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F427" s="8" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38145,7 +38151,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:51" ht="16" customHeight="1">
+    <row r="428" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F428" s="8" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38175,7 +38181,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:51" ht="16" customHeight="1">
+    <row r="429" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F429" s="8" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38205,7 +38211,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:51" ht="16" customHeight="1">
+    <row r="430" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F430" s="8" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38235,7 +38241,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:51" ht="16" customHeight="1">
+    <row r="431" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F431" s="8" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38265,7 +38271,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:51" ht="16" customHeight="1">
+    <row r="432" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F432" s="8" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38295,7 +38301,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:51" ht="16" customHeight="1">
+    <row r="433" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F433" s="8" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38325,7 +38331,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:51" ht="16" customHeight="1">
+    <row r="434" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F434" s="8" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38355,7 +38361,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:51" ht="16" customHeight="1">
+    <row r="435" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F435" s="8" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38385,7 +38391,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:51" ht="16" customHeight="1">
+    <row r="436" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F436" s="8" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38415,7 +38421,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:51" ht="16" customHeight="1">
+    <row r="437" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F437" s="8" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38445,7 +38451,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:51" ht="16" customHeight="1">
+    <row r="438" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F438" s="8" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38475,7 +38481,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:51" ht="16" customHeight="1">
+    <row r="439" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F439" s="8" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38505,7 +38511,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:51" ht="16" customHeight="1">
+    <row r="440" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F440" s="8" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38535,7 +38541,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:51" ht="16" customHeight="1">
+    <row r="441" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F441" s="8" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38565,7 +38571,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:51" ht="16" customHeight="1">
+    <row r="442" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F442" s="8" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38595,7 +38601,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:51" ht="16" customHeight="1">
+    <row r="443" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F443" s="8" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38625,7 +38631,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:51" ht="16" customHeight="1">
+    <row r="444" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F444" s="8" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38655,7 +38661,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:51" ht="16" customHeight="1">
+    <row r="445" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F445" s="8" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38685,7 +38691,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:51" ht="16" customHeight="1">
+    <row r="446" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F446" s="8" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38715,7 +38721,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:51" ht="16" customHeight="1">
+    <row r="447" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F447" s="8" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38745,7 +38751,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:51" ht="16" customHeight="1">
+    <row r="448" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F448" s="8" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38775,7 +38781,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:51" ht="16" customHeight="1">
+    <row r="449" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F449" s="8" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38805,7 +38811,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:51" ht="16" customHeight="1">
+    <row r="450" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F450" s="8" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38835,7 +38841,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:51" ht="16" customHeight="1">
+    <row r="451" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F451" s="8" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38865,7 +38871,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:51" ht="16" customHeight="1">
+    <row r="452" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F452" s="8" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38895,7 +38901,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:51" ht="16" customHeight="1">
+    <row r="453" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F453" s="8" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38925,7 +38931,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:51" ht="16" customHeight="1">
+    <row r="454" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F454" s="8" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38955,7 +38961,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:51" ht="16" customHeight="1">
+    <row r="455" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F455" s="8" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38985,7 +38991,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:51" ht="16" customHeight="1">
+    <row r="456" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F456" s="8" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39015,7 +39021,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:51" ht="16" customHeight="1">
+    <row r="457" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F457" s="8" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39045,7 +39051,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:51" ht="16" customHeight="1">
+    <row r="458" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F458" s="8" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39075,7 +39081,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:51" ht="16" customHeight="1">
+    <row r="459" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F459" s="8" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39105,7 +39111,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:51" ht="16" customHeight="1">
+    <row r="460" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F460" s="8" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39135,7 +39141,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:51" ht="16" customHeight="1">
+    <row r="461" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F461" s="8" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39165,7 +39171,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:51" ht="16" customHeight="1">
+    <row r="462" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F462" s="8" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39195,7 +39201,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:51" ht="16" customHeight="1">
+    <row r="463" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F463" s="8" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39225,7 +39231,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:51" ht="16" customHeight="1">
+    <row r="464" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F464" s="8" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39255,7 +39261,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:51" ht="16" customHeight="1">
+    <row r="465" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F465" s="8" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39285,7 +39291,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:51" ht="16" customHeight="1">
+    <row r="466" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F466" s="8" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39315,7 +39321,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:51" ht="16" customHeight="1">
+    <row r="467" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F467" s="8" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39345,7 +39351,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:51" ht="16" customHeight="1">
+    <row r="468" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F468" s="8" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39375,7 +39381,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:51" ht="16" customHeight="1">
+    <row r="469" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F469" s="8" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39405,7 +39411,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:51" ht="16" customHeight="1">
+    <row r="470" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F470" s="8" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39435,7 +39441,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:51" ht="16" customHeight="1">
+    <row r="471" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F471" s="8" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39465,7 +39471,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:51" ht="16" customHeight="1">
+    <row r="472" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F472" s="8" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39495,7 +39501,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:51" ht="16" customHeight="1">
+    <row r="473" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F473" s="8" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39525,7 +39531,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:51" ht="16" customHeight="1">
+    <row r="474" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F474" s="8" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39555,7 +39561,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:51" ht="16" customHeight="1">
+    <row r="475" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F475" s="8" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39585,7 +39591,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:51" ht="16" customHeight="1">
+    <row r="476" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F476" s="8" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39615,7 +39621,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:51" ht="16" customHeight="1">
+    <row r="477" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F477" s="8" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39645,7 +39651,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:51" ht="16" customHeight="1">
+    <row r="478" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F478" s="8" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39675,7 +39681,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:51" ht="16" customHeight="1">
+    <row r="479" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F479" s="8" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39705,7 +39711,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:51" ht="16" customHeight="1">
+    <row r="480" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F480" s="8" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39735,7 +39741,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:51" ht="16" customHeight="1">
+    <row r="481" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F481" s="8" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39765,7 +39771,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:51" ht="16" customHeight="1">
+    <row r="482" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F482" s="8" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39795,7 +39801,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:51" ht="16" customHeight="1">
+    <row r="483" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F483" s="8" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39825,7 +39831,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:51" ht="16" customHeight="1">
+    <row r="484" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F484" s="8" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39855,7 +39861,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:51" ht="16" customHeight="1">
+    <row r="485" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F485" s="8" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39885,7 +39891,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:51" ht="16" customHeight="1">
+    <row r="486" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F486" s="8" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39915,7 +39921,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:51" ht="16" customHeight="1">
+    <row r="487" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F487" s="8" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39945,7 +39951,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:51" ht="16" customHeight="1">
+    <row r="488" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F488" s="8" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39975,7 +39981,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:51" ht="16" customHeight="1">
+    <row r="489" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F489" s="8" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40005,7 +40011,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:51" ht="16" customHeight="1">
+    <row r="490" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F490" s="8" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40035,7 +40041,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:51" ht="16" customHeight="1">
+    <row r="491" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F491" s="8" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40065,7 +40071,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:51" ht="16" customHeight="1">
+    <row r="492" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F492" s="8" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40095,7 +40101,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:51" ht="16" customHeight="1">
+    <row r="493" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F493" s="8" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40125,7 +40131,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:51" ht="16" customHeight="1">
+    <row r="494" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F494" s="8" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40155,7 +40161,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:51" ht="16" customHeight="1">
+    <row r="495" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F495" s="8" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40185,7 +40191,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:51" ht="16" customHeight="1">
+    <row r="496" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F496" s="8" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40215,7 +40221,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:51" ht="16" customHeight="1">
+    <row r="497" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F497" s="8" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40245,7 +40251,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:51" ht="16" customHeight="1">
+    <row r="498" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F498" s="8" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40275,7 +40281,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:51" ht="16" customHeight="1">
+    <row r="499" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F499" s="8" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40305,7 +40311,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:51" ht="16" customHeight="1">
+    <row r="500" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F500" s="8" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40335,7 +40341,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:51" ht="16" customHeight="1">
+    <row r="501" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F501" s="8" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40365,7 +40371,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:51" ht="16" customHeight="1">
+    <row r="502" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F502" s="8" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40395,7 +40401,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:51" ht="16" customHeight="1">
+    <row r="503" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F503" s="8" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40425,7 +40431,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:51" ht="16" customHeight="1">
+    <row r="504" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F504" s="8" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40455,7 +40461,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:51" ht="16" customHeight="1">
+    <row r="505" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F505" s="8" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40485,7 +40491,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:51" ht="16" customHeight="1">
+    <row r="506" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F506" s="8" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40515,7 +40521,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:51" ht="16" customHeight="1">
+    <row r="507" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F507" s="8" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40545,7 +40551,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:51" ht="16" customHeight="1">
+    <row r="508" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F508" s="8" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40575,7 +40581,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:51" ht="16" customHeight="1">
+    <row r="509" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F509" s="8" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40605,7 +40611,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:51" ht="16" customHeight="1">
+    <row r="510" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F510" s="8" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40635,7 +40641,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:51" ht="16" customHeight="1">
+    <row r="511" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F511" s="8" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40665,7 +40671,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:51" ht="16" customHeight="1">
+    <row r="512" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F512" s="8" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40695,7 +40701,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:51" ht="16" customHeight="1">
+    <row r="513" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F513" s="8" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40725,7 +40731,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:51" ht="16" customHeight="1">
+    <row r="514" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F514" s="8" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40755,7 +40761,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:51" ht="16" customHeight="1">
+    <row r="515" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F515" s="8" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40785,7 +40791,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:51" ht="16" customHeight="1">
+    <row r="516" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F516" s="8" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40815,7 +40821,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:51" ht="16" customHeight="1">
+    <row r="517" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F517" s="8" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40845,7 +40851,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:51" ht="16" customHeight="1">
+    <row r="518" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F518" s="8" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40875,7 +40881,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:51" ht="16" customHeight="1">
+    <row r="519" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F519" s="8" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40905,7 +40911,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:51" ht="16" customHeight="1">
+    <row r="520" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F520" s="8" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40935,7 +40941,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:51" ht="16" customHeight="1">
+    <row r="521" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F521" s="8" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40965,7 +40971,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:51" ht="16" customHeight="1">
+    <row r="522" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F522" s="8" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40995,7 +41001,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:51" ht="16" customHeight="1">
+    <row r="523" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F523" s="8" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41025,7 +41031,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:51" ht="16" customHeight="1">
+    <row r="524" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F524" s="8" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41055,7 +41061,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:51" ht="16" customHeight="1">
+    <row r="525" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F525" s="8" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41086,7 +41092,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:51" ht="16" customHeight="1">
+    <row r="526" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F526" s="8" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41117,7 +41123,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:51" ht="16" customHeight="1">
+    <row r="527" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F527" s="8" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41147,7 +41153,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:51" ht="16" customHeight="1">
+    <row r="528" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F528" s="8" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41177,7 +41183,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:51" ht="16" customHeight="1">
+    <row r="529" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F529" s="8" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41207,7 +41213,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:51" ht="16" customHeight="1">
+    <row r="530" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F530" s="8" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41237,7 +41243,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:51" ht="16" customHeight="1">
+    <row r="531" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F531" s="8" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41266,7 +41272,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:51" ht="16" customHeight="1">
+    <row r="532" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F532" s="8" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41295,7 +41301,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:51" ht="16" customHeight="1">
+    <row r="533" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F533" s="8" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41324,7 +41330,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:51" ht="16" customHeight="1">
+    <row r="534" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F534" s="8" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41353,7 +41359,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:51" ht="16" customHeight="1">
+    <row r="535" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F535" s="8" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41383,7 +41389,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:51" ht="16" customHeight="1">
+    <row r="536" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F536" s="8" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41412,7 +41418,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:51" ht="16" customHeight="1">
+    <row r="537" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F537" s="8" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41441,7 +41447,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:51" ht="16" customHeight="1">
+    <row r="538" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F538" s="8" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41470,7 +41476,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:51" ht="16" customHeight="1">
+    <row r="539" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F539" s="8" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41499,7 +41505,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:51" ht="16" customHeight="1">
+    <row r="540" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F540" s="8" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41528,7 +41534,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:51" ht="16" customHeight="1">
+    <row r="541" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F541" s="8" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41557,7 +41563,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:51" ht="16" customHeight="1">
+    <row r="542" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F542" s="8" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41586,7 +41592,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:51" ht="16" customHeight="1">
+    <row r="543" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F543" s="8" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41615,7 +41621,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:51" ht="16" customHeight="1">
+    <row r="544" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F544" s="8" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41644,7 +41650,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:51" ht="16" customHeight="1">
+    <row r="545" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F545" s="8" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41673,7 +41679,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:51" ht="16" customHeight="1">
+    <row r="546" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F546" s="8" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41702,7 +41708,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:51" ht="16" customHeight="1">
+    <row r="547" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F547" s="8" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41731,7 +41737,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:51" ht="16" customHeight="1">
+    <row r="548" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F548" s="8" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41760,7 +41766,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:51" ht="16" customHeight="1">
+    <row r="549" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F549" s="8" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41789,7 +41795,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:51" ht="16" customHeight="1">
+    <row r="550" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F550" s="8" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41818,7 +41824,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:51" ht="16" customHeight="1">
+    <row r="551" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F551" s="8" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41847,7 +41853,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:51" ht="16" customHeight="1">
+    <row r="552" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F552" s="8" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41876,7 +41882,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:51" ht="16" customHeight="1">
+    <row r="553" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F553" s="8" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41905,7 +41911,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:51" ht="16" customHeight="1">
+    <row r="554" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F554" s="8" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41934,7 +41940,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:51" ht="16" customHeight="1">
+    <row r="555" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F555" s="8" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41963,7 +41969,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:51" ht="16" customHeight="1">
+    <row r="556" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F556" s="8" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41992,7 +41998,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:51" ht="16" customHeight="1">
+    <row r="557" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F557" s="8" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42021,7 +42027,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:51" ht="16" customHeight="1">
+    <row r="558" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F558" s="8" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42050,7 +42056,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:51" ht="16" customHeight="1">
+    <row r="559" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F559" s="8" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42079,7 +42085,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:51" ht="16" customHeight="1">
+    <row r="560" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F560" s="8" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42108,7 +42114,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:51" ht="16" customHeight="1">
+    <row r="561" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F561" s="8" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42137,7 +42143,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:51" ht="16" customHeight="1">
+    <row r="562" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F562" s="8" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42166,7 +42172,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:51" ht="16" customHeight="1">
+    <row r="563" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F563" s="8" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42195,7 +42201,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:51" ht="16" customHeight="1">
+    <row r="564" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F564" s="8" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42224,7 +42230,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:51" ht="16" customHeight="1">
+    <row r="565" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F565" s="8" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42253,7 +42259,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:51" ht="16" customHeight="1">
+    <row r="566" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F566" s="8" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42282,7 +42288,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:51" ht="16" customHeight="1">
+    <row r="567" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F567" s="8" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42311,7 +42317,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:51" ht="16" customHeight="1">
+    <row r="568" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F568" s="8" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42340,7 +42346,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:51" ht="16" customHeight="1">
+    <row r="569" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F569" s="8" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42369,7 +42375,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:51" ht="16" customHeight="1">
+    <row r="570" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F570" s="8" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42398,7 +42404,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:51" ht="16" customHeight="1">
+    <row r="571" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F571" s="8" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42427,7 +42433,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:51" ht="16" customHeight="1">
+    <row r="572" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F572" s="8" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42456,7 +42462,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:51" ht="16" customHeight="1">
+    <row r="573" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F573" s="8" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42485,7 +42491,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:51" ht="16" customHeight="1">
+    <row r="574" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F574" s="8" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42514,7 +42520,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:51" ht="16" customHeight="1">
+    <row r="575" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F575" s="8" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42543,7 +42549,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:51" ht="16" customHeight="1">
+    <row r="576" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F576" s="8" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42572,7 +42578,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:51" ht="16" customHeight="1">
+    <row r="577" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F577" s="8" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42601,7 +42607,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:51" ht="16" customHeight="1">
+    <row r="578" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F578" s="8" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42630,7 +42636,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:51" ht="16" customHeight="1">
+    <row r="579" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F579" s="8" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42659,7 +42665,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:51" ht="16" customHeight="1">
+    <row r="580" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F580" s="8" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42688,7 +42694,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:51" ht="16" customHeight="1">
+    <row r="581" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F581" s="8" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42717,7 +42723,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:51" ht="16" customHeight="1">
+    <row r="582" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F582" s="8" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42746,7 +42752,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:51" ht="16" customHeight="1">
+    <row r="583" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F583" s="8" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42775,7 +42781,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:51" ht="16" customHeight="1">
+    <row r="584" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F584" s="8" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42804,7 +42810,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:51" ht="16" customHeight="1">
+    <row r="585" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F585" s="8" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42833,7 +42839,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:51" ht="16" customHeight="1">
+    <row r="586" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F586" s="8" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42862,7 +42868,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:51" ht="16" customHeight="1">
+    <row r="587" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F587" s="8" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42891,7 +42897,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:51" ht="16" customHeight="1">
+    <row r="588" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F588" s="8" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42920,7 +42926,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:51" ht="16" customHeight="1">
+    <row r="589" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F589" s="8" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42949,7 +42955,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:51" ht="16" customHeight="1">
+    <row r="590" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F590" s="8" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42978,7 +42984,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:51" ht="16" customHeight="1">
+    <row r="591" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F591" s="8" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43007,7 +43013,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:51" ht="16" customHeight="1">
+    <row r="592" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F592" s="8" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43036,7 +43042,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:51" ht="16" customHeight="1">
+    <row r="593" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F593" s="8" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43065,7 +43071,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:51" ht="16" customHeight="1">
+    <row r="594" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F594" s="8" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43094,7 +43100,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:51" ht="16" customHeight="1">
+    <row r="595" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F595" s="8" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43123,7 +43129,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:51" ht="16" customHeight="1">
+    <row r="596" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F596" s="8" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43152,7 +43158,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:51" ht="16" customHeight="1">
+    <row r="597" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F597" s="8" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43181,7 +43187,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:51" ht="16" customHeight="1">
+    <row r="598" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F598" s="8" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43210,7 +43216,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:51" ht="16" customHeight="1">
+    <row r="599" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F599" s="8" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43239,7 +43245,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:51" ht="16" customHeight="1">
+    <row r="600" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F600" s="8" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43268,7 +43274,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:51" ht="16" customHeight="1">
+    <row r="601" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F601" s="8" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43297,7 +43303,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:51" ht="16" customHeight="1">
+    <row r="602" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F602" s="8" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43326,7 +43332,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:51" ht="16" customHeight="1">
+    <row r="603" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F603" s="8" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43355,7 +43361,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:51" ht="16" customHeight="1">
+    <row r="604" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F604" s="8" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43384,7 +43390,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:51" ht="16" customHeight="1">
+    <row r="605" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F605" s="8" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43413,7 +43419,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:51" ht="16" customHeight="1">
+    <row r="606" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F606" s="8" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43442,7 +43448,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:51" ht="16" customHeight="1">
+    <row r="607" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F607" s="8" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43471,7 +43477,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:51" ht="16" customHeight="1">
+    <row r="608" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F608" s="8" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43500,7 +43506,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:51" ht="16" customHeight="1">
+    <row r="609" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F609" s="8" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43529,7 +43535,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:51" ht="16" customHeight="1">
+    <row r="610" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F610" s="8" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43558,7 +43564,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:51" ht="16" customHeight="1">
+    <row r="611" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F611" s="8" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43587,7 +43593,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:51" ht="16" customHeight="1">
+    <row r="612" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F612" s="8" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43616,7 +43622,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:51" ht="16" customHeight="1">
+    <row r="613" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F613" s="8" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43645,7 +43651,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:51" ht="16" customHeight="1">
+    <row r="614" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F614" s="8" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43674,7 +43680,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:51" ht="16" customHeight="1">
+    <row r="615" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F615" s="8" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43703,7 +43709,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:51" ht="16" customHeight="1">
+    <row r="616" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F616" s="8" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43732,7 +43738,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:51" ht="16" customHeight="1">
+    <row r="617" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F617" s="8" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43761,7 +43767,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:51" ht="16" customHeight="1">
+    <row r="618" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F618" s="8" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43790,7 +43796,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:51" ht="16" customHeight="1">
+    <row r="619" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F619" s="8" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43819,7 +43825,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:51" ht="16" customHeight="1">
+    <row r="620" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F620" s="8" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43848,7 +43854,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:51" ht="16" customHeight="1">
+    <row r="621" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F621" s="8" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43877,7 +43883,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:51" ht="16" customHeight="1">
+    <row r="622" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F622" s="8" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43906,7 +43912,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:51" ht="16" customHeight="1">
+    <row r="623" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F623" s="8" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43935,7 +43941,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:51" ht="16" customHeight="1">
+    <row r="624" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F624" s="8" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43964,7 +43970,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:51" ht="16" customHeight="1">
+    <row r="625" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F625" s="8" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43993,7 +43999,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:51" ht="16" customHeight="1">
+    <row r="626" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F626" s="8" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44022,7 +44028,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:51" ht="16" customHeight="1">
+    <row r="627" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F627" s="8" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44051,7 +44057,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:51" ht="16" customHeight="1">
+    <row r="628" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F628" s="8" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44080,7 +44086,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:51" ht="16" customHeight="1">
+    <row r="629" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F629" s="8" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44109,7 +44115,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="6:51" ht="16" customHeight="1">
+    <row r="630" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F630" s="8" t="str">
         <f>IF(ISBLANK(E630), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44138,7 +44144,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="6:51" ht="16" customHeight="1">
+    <row r="631" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F631" s="8" t="str">
         <f>IF(ISBLANK(E631), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44167,7 +44173,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="6:51" ht="16" customHeight="1">
+    <row r="632" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F632" s="8" t="str">
         <f>IF(ISBLANK(E632), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44196,7 +44202,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="6:51" ht="16" customHeight="1">
+    <row r="633" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F633" s="8" t="str">
         <f>IF(ISBLANK(E633), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44225,7 +44231,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="6:51" ht="16" customHeight="1">
+    <row r="634" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F634" s="8" t="str">
         <f>IF(ISBLANK(E634), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44254,7 +44260,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="6:51" ht="16" customHeight="1">
+    <row r="635" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F635" s="8" t="str">
         <f>IF(ISBLANK(E635), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44283,7 +44289,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="6:51" ht="16" customHeight="1">
+    <row r="636" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F636" s="8" t="str">
         <f>IF(ISBLANK(E636), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44312,7 +44318,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="6:51" ht="16" customHeight="1">
+    <row r="637" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F637" s="8" t="str">
         <f>IF(ISBLANK(E637), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44341,7 +44347,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="6:51" ht="16" customHeight="1">
+    <row r="638" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F638" s="8" t="str">
         <f>IF(ISBLANK(E638), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44370,7 +44376,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="6:51" ht="16" customHeight="1">
+    <row r="639" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F639" s="8" t="str">
         <f>IF(ISBLANK(E639), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44399,7 +44405,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="6:51" ht="16" customHeight="1">
+    <row r="640" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F640" s="8" t="str">
         <f>IF(ISBLANK(E640), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44428,7 +44434,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="6:51" ht="16" customHeight="1">
+    <row r="641" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F641" s="8" t="str">
         <f>IF(ISBLANK(E641), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44457,7 +44463,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="6:51" ht="16" customHeight="1">
+    <row r="642" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F642" s="8" t="str">
         <f>IF(ISBLANK(E642), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44486,7 +44492,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="6:51" ht="16" customHeight="1">
+    <row r="643" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F643" s="8" t="str">
         <f>IF(ISBLANK(E643), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44515,7 +44521,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="6:51" ht="16" customHeight="1">
+    <row r="644" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F644" s="8" t="str">
         <f>IF(ISBLANK(E644), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44544,7 +44550,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="6:51" ht="16" customHeight="1">
+    <row r="645" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F645" s="8" t="str">
         <f>IF(ISBLANK(E645), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44573,7 +44579,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="6:51" ht="16" customHeight="1">
+    <row r="646" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F646" s="8" t="str">
         <f>IF(ISBLANK(E646), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44602,7 +44608,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="6:51" ht="16" customHeight="1">
+    <row r="647" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F647" s="8" t="str">
         <f>IF(ISBLANK(E647), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44631,7 +44637,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="6:51" ht="16" customHeight="1">
+    <row r="648" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F648" s="8" t="str">
         <f>IF(ISBLANK(E648), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44660,7 +44666,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="6:51" ht="16" customHeight="1">
+    <row r="649" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F649" s="8" t="str">
         <f>IF(ISBLANK(E649), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44689,7 +44695,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="6:51" ht="16" customHeight="1">
+    <row r="650" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F650" s="8" t="str">
         <f>IF(ISBLANK(E650), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44718,7 +44724,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="6:51" ht="16" customHeight="1">
+    <row r="651" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F651" s="8" t="str">
         <f>IF(ISBLANK(E651), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44747,7 +44753,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="6:51" ht="16" customHeight="1">
+    <row r="652" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F652" s="8" t="str">
         <f>IF(ISBLANK(E652), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44776,7 +44782,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="6:51" ht="16" customHeight="1">
+    <row r="653" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F653" s="8" t="str">
         <f>IF(ISBLANK(E653), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44805,7 +44811,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="6:51" ht="16" customHeight="1">
+    <row r="654" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F654" s="8" t="str">
         <f>IF(ISBLANK(E654), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44834,7 +44840,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="6:51" ht="16" customHeight="1">
+    <row r="655" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F655" s="8" t="str">
         <f>IF(ISBLANK(E655), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44863,7 +44869,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="6:51" ht="16" customHeight="1">
+    <row r="656" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F656" s="8" t="str">
         <f>IF(ISBLANK(E656), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44892,7 +44898,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="6:51" ht="16" customHeight="1">
+    <row r="657" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F657" s="8" t="str">
         <f>IF(ISBLANK(E657), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44921,7 +44927,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="6:51" ht="16" customHeight="1">
+    <row r="658" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F658" s="8" t="str">
         <f>IF(ISBLANK(E658), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44950,7 +44956,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="6:51" ht="16" customHeight="1">
+    <row r="659" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F659" s="8" t="str">
         <f>IF(ISBLANK(E659), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44979,7 +44985,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="6:51" ht="16" customHeight="1">
+    <row r="660" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F660" s="8" t="str">
         <f>IF(ISBLANK(E660), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45008,7 +45014,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="6:51" ht="16" customHeight="1">
+    <row r="661" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F661" s="8" t="str">
         <f>IF(ISBLANK(E661), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45037,7 +45043,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="6:51" ht="16" customHeight="1">
+    <row r="662" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F662" s="8" t="str">
         <f>IF(ISBLANK(E662), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45066,7 +45072,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="6:51" ht="16" customHeight="1">
+    <row r="663" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F663" s="8" t="str">
         <f>IF(ISBLANK(E663), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45095,7 +45101,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="6:51" ht="16" customHeight="1">
+    <row r="664" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F664" s="8" t="str">
         <f>IF(ISBLANK(E664), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45124,7 +45130,7 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="6:51" ht="16" customHeight="1">
+    <row r="665" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F665" s="8" t="str">
         <f>IF(ISBLANK(E665), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45153,7 +45159,7 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="6:51" ht="16" customHeight="1">
+    <row r="666" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F666" s="8" t="str">
         <f>IF(ISBLANK(E666), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45182,7 +45188,7 @@
         <v/>
       </c>
     </row>
-    <row r="667" spans="6:51" ht="16" customHeight="1">
+    <row r="667" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F667" s="8" t="str">
         <f>IF(ISBLANK(E667), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45211,7 +45217,7 @@
         <v/>
       </c>
     </row>
-    <row r="668" spans="6:51" ht="16" customHeight="1">
+    <row r="668" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F668" s="8" t="str">
         <f>IF(ISBLANK(E668), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45240,7 +45246,7 @@
         <v/>
       </c>
     </row>
-    <row r="669" spans="6:51" ht="16" customHeight="1">
+    <row r="669" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F669" s="8" t="str">
         <f>IF(ISBLANK(E669), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45269,7 +45275,7 @@
         <v/>
       </c>
     </row>
-    <row r="670" spans="6:51" ht="16" customHeight="1">
+    <row r="670" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F670" s="8" t="str">
         <f>IF(ISBLANK(E670), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45298,7 +45304,7 @@
         <v/>
       </c>
     </row>
-    <row r="671" spans="6:51" ht="16" customHeight="1">
+    <row r="671" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F671" s="8" t="str">
         <f>IF(ISBLANK(E671), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45327,7 +45333,7 @@
         <v/>
       </c>
     </row>
-    <row r="672" spans="6:51" ht="16" customHeight="1">
+    <row r="672" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F672" s="8" t="str">
         <f>IF(ISBLANK(E672), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45356,7 +45362,7 @@
         <v/>
       </c>
     </row>
-    <row r="673" spans="6:51" ht="16" customHeight="1">
+    <row r="673" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F673" s="8" t="str">
         <f>IF(ISBLANK(E673), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45385,7 +45391,7 @@
         <v/>
       </c>
     </row>
-    <row r="674" spans="6:51" ht="16" customHeight="1">
+    <row r="674" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F674" s="8" t="str">
         <f>IF(ISBLANK(E674), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45414,7 +45420,7 @@
         <v/>
       </c>
     </row>
-    <row r="675" spans="6:51" ht="16" customHeight="1">
+    <row r="675" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F675" s="8" t="str">
         <f>IF(ISBLANK(E675), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45443,7 +45449,7 @@
         <v/>
       </c>
     </row>
-    <row r="676" spans="6:51" ht="16" customHeight="1">
+    <row r="676" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F676" s="8" t="str">
         <f>IF(ISBLANK(E676), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45472,7 +45478,7 @@
         <v/>
       </c>
     </row>
-    <row r="677" spans="6:51" ht="16" customHeight="1">
+    <row r="677" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F677" s="8" t="str">
         <f>IF(ISBLANK(E677), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45501,7 +45507,7 @@
         <v/>
       </c>
     </row>
-    <row r="678" spans="6:51" ht="16" customHeight="1">
+    <row r="678" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F678" s="8" t="str">
         <f>IF(ISBLANK(E678), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45530,7 +45536,7 @@
         <v/>
       </c>
     </row>
-    <row r="679" spans="6:51" ht="16" customHeight="1">
+    <row r="679" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F679" s="8" t="str">
         <f>IF(ISBLANK(E679), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45559,7 +45565,7 @@
         <v/>
       </c>
     </row>
-    <row r="680" spans="6:51" ht="16" customHeight="1">
+    <row r="680" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F680" s="8" t="str">
         <f>IF(ISBLANK(E680), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45588,7 +45594,7 @@
         <v/>
       </c>
     </row>
-    <row r="681" spans="6:51" ht="16" customHeight="1">
+    <row r="681" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F681" s="8" t="str">
         <f>IF(ISBLANK(E681), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45617,7 +45623,7 @@
         <v/>
       </c>
     </row>
-    <row r="682" spans="6:51" ht="16" customHeight="1">
+    <row r="682" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F682" s="8" t="str">
         <f>IF(ISBLANK(E682), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45646,7 +45652,7 @@
         <v/>
       </c>
     </row>
-    <row r="683" spans="6:51" ht="16" customHeight="1">
+    <row r="683" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F683" s="8" t="str">
         <f>IF(ISBLANK(E683), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45675,7 +45681,7 @@
         <v/>
       </c>
     </row>
-    <row r="684" spans="6:51" ht="16" customHeight="1">
+    <row r="684" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F684" s="8" t="str">
         <f>IF(ISBLANK(E684), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45704,7 +45710,7 @@
         <v/>
       </c>
     </row>
-    <row r="685" spans="6:51" ht="16" customHeight="1">
+    <row r="685" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F685" s="8" t="str">
         <f>IF(ISBLANK(E685), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45733,7 +45739,7 @@
         <v/>
       </c>
     </row>
-    <row r="686" spans="6:51" ht="16" customHeight="1">
+    <row r="686" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F686" s="8" t="str">
         <f>IF(ISBLANK(E686), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45762,7 +45768,7 @@
         <v/>
       </c>
     </row>
-    <row r="687" spans="6:51" ht="16" customHeight="1">
+    <row r="687" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F687" s="8" t="str">
         <f>IF(ISBLANK(E687), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45791,7 +45797,7 @@
         <v/>
       </c>
     </row>
-    <row r="688" spans="6:51" ht="16" customHeight="1">
+    <row r="688" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F688" s="8" t="str">
         <f>IF(ISBLANK(E688), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45820,7 +45826,7 @@
         <v/>
       </c>
     </row>
-    <row r="689" spans="6:51" ht="16" customHeight="1">
+    <row r="689" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F689" s="8" t="str">
         <f>IF(ISBLANK(E689), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45849,7 +45855,7 @@
         <v/>
       </c>
     </row>
-    <row r="690" spans="6:51" ht="16" customHeight="1">
+    <row r="690" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F690" s="8" t="str">
         <f>IF(ISBLANK(E690), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45878,7 +45884,7 @@
         <v/>
       </c>
     </row>
-    <row r="691" spans="6:51" ht="16" customHeight="1">
+    <row r="691" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F691" s="8" t="str">
         <f>IF(ISBLANK(E691), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45907,7 +45913,7 @@
         <v/>
       </c>
     </row>
-    <row r="692" spans="6:51" ht="16" customHeight="1">
+    <row r="692" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F692" s="8" t="str">
         <f>IF(ISBLANK(E692), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45936,7 +45942,7 @@
         <v/>
       </c>
     </row>
-    <row r="693" spans="6:51" ht="16" customHeight="1">
+    <row r="693" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F693" s="8" t="str">
         <f>IF(ISBLANK(E693), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45965,7 +45971,7 @@
         <v/>
       </c>
     </row>
-    <row r="694" spans="6:51" ht="16" customHeight="1">
+    <row r="694" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F694" s="8" t="str">
         <f>IF(ISBLANK(E694), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45994,7 +46000,7 @@
         <v/>
       </c>
     </row>
-    <row r="695" spans="6:51" ht="16" customHeight="1">
+    <row r="695" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F695" s="8" t="str">
         <f>IF(ISBLANK(E695), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46023,7 +46029,7 @@
         <v/>
       </c>
     </row>
-    <row r="696" spans="6:51" ht="16" customHeight="1">
+    <row r="696" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F696" s="8" t="str">
         <f>IF(ISBLANK(E696), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46052,7 +46058,7 @@
         <v/>
       </c>
     </row>
-    <row r="697" spans="6:51" ht="16" customHeight="1">
+    <row r="697" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F697" s="8" t="str">
         <f>IF(ISBLANK(E697), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46081,7 +46087,7 @@
         <v/>
       </c>
     </row>
-    <row r="698" spans="6:51" ht="16" customHeight="1">
+    <row r="698" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F698" s="8" t="str">
         <f>IF(ISBLANK(E698), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46110,7 +46116,7 @@
         <v/>
       </c>
     </row>
-    <row r="699" spans="6:51" ht="16" customHeight="1">
+    <row r="699" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F699" s="8" t="str">
         <f>IF(ISBLANK(E699), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46139,7 +46145,7 @@
         <v/>
       </c>
     </row>
-    <row r="700" spans="6:51" ht="16" customHeight="1">
+    <row r="700" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F700" s="8" t="str">
         <f>IF(ISBLANK(E700), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46168,7 +46174,7 @@
         <v/>
       </c>
     </row>
-    <row r="701" spans="6:51" ht="16" customHeight="1">
+    <row r="701" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F701" s="8" t="str">
         <f>IF(ISBLANK(E701), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46197,7 +46203,7 @@
         <v/>
       </c>
     </row>
-    <row r="702" spans="6:51" ht="16" customHeight="1">
+    <row r="702" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F702" s="8" t="str">
         <f>IF(ISBLANK(E702), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46226,7 +46232,7 @@
         <v/>
       </c>
     </row>
-    <row r="703" spans="6:51" ht="16" customHeight="1">
+    <row r="703" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F703" s="8" t="str">
         <f>IF(ISBLANK(E703), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46255,7 +46261,7 @@
         <v/>
       </c>
     </row>
-    <row r="704" spans="6:51" ht="16" customHeight="1">
+    <row r="704" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F704" s="8" t="str">
         <f>IF(ISBLANK(E704), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46284,7 +46290,7 @@
         <v/>
       </c>
     </row>
-    <row r="705" spans="6:51" ht="16" customHeight="1">
+    <row r="705" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F705" s="8" t="str">
         <f>IF(ISBLANK(E705), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46313,7 +46319,7 @@
         <v/>
       </c>
     </row>
-    <row r="706" spans="6:51" ht="16" customHeight="1">
+    <row r="706" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F706" s="8" t="str">
         <f>IF(ISBLANK(E706), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46342,7 +46348,7 @@
         <v/>
       </c>
     </row>
-    <row r="707" spans="6:51" ht="16" customHeight="1">
+    <row r="707" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F707" s="8" t="str">
         <f>IF(ISBLANK(E707), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46371,7 +46377,7 @@
         <v/>
       </c>
     </row>
-    <row r="708" spans="6:51" ht="16" customHeight="1">
+    <row r="708" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F708" s="8" t="str">
         <f>IF(ISBLANK(E708), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46400,7 +46406,7 @@
         <v/>
       </c>
     </row>
-    <row r="709" spans="6:51" ht="16" customHeight="1">
+    <row r="709" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F709" s="8" t="str">
         <f>IF(ISBLANK(E709), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46429,7 +46435,7 @@
         <v/>
       </c>
     </row>
-    <row r="710" spans="6:51" ht="16" customHeight="1">
+    <row r="710" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F710" s="8" t="str">
         <f>IF(ISBLANK(E710), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46458,7 +46464,7 @@
         <v/>
       </c>
     </row>
-    <row r="711" spans="6:51" ht="16" customHeight="1">
+    <row r="711" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F711" s="8" t="str">
         <f>IF(ISBLANK(E711), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46487,7 +46493,7 @@
         <v/>
       </c>
     </row>
-    <row r="712" spans="6:51" ht="16" customHeight="1">
+    <row r="712" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F712" s="8" t="str">
         <f>IF(ISBLANK(E712), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46516,7 +46522,7 @@
         <v/>
       </c>
     </row>
-    <row r="713" spans="6:51" ht="16" customHeight="1">
+    <row r="713" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F713" s="8" t="str">
         <f>IF(ISBLANK(E713), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46545,7 +46551,7 @@
         <v/>
       </c>
     </row>
-    <row r="714" spans="6:51" ht="16" customHeight="1">
+    <row r="714" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F714" s="8" t="str">
         <f>IF(ISBLANK(E714), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46574,7 +46580,7 @@
         <v/>
       </c>
     </row>
-    <row r="715" spans="6:51" ht="16" customHeight="1">
+    <row r="715" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F715" s="8" t="str">
         <f>IF(ISBLANK(E715), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46603,7 +46609,7 @@
         <v/>
       </c>
     </row>
-    <row r="716" spans="6:51" ht="16" customHeight="1">
+    <row r="716" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F716" s="8" t="str">
         <f>IF(ISBLANK(E716), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46632,7 +46638,7 @@
         <v/>
       </c>
     </row>
-    <row r="717" spans="6:51" ht="16" customHeight="1">
+    <row r="717" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F717" s="8" t="str">
         <f>IF(ISBLANK(E717), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46661,7 +46667,7 @@
         <v/>
       </c>
     </row>
-    <row r="718" spans="6:51" ht="16" customHeight="1">
+    <row r="718" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F718" s="8" t="str">
         <f>IF(ISBLANK(E718), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46690,7 +46696,7 @@
         <v/>
       </c>
     </row>
-    <row r="719" spans="6:51" ht="16" customHeight="1">
+    <row r="719" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F719" s="8" t="str">
         <f>IF(ISBLANK(E719), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46719,7 +46725,7 @@
         <v/>
       </c>
     </row>
-    <row r="720" spans="6:51" ht="16" customHeight="1">
+    <row r="720" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F720" s="8" t="str">
         <f>IF(ISBLANK(E720), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46748,7 +46754,7 @@
         <v/>
       </c>
     </row>
-    <row r="721" spans="6:51" ht="16" customHeight="1">
+    <row r="721" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F721" s="8" t="str">
         <f>IF(ISBLANK(E721), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46777,7 +46783,7 @@
         <v/>
       </c>
     </row>
-    <row r="722" spans="6:51" ht="16" customHeight="1">
+    <row r="722" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F722" s="8" t="str">
         <f>IF(ISBLANK(E722), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46806,7 +46812,7 @@
         <v/>
       </c>
     </row>
-    <row r="723" spans="6:51" ht="16" customHeight="1">
+    <row r="723" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F723" s="8" t="str">
         <f>IF(ISBLANK(E723), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46835,7 +46841,7 @@
         <v/>
       </c>
     </row>
-    <row r="724" spans="6:51" ht="16" customHeight="1">
+    <row r="724" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F724" s="8" t="str">
         <f>IF(ISBLANK(E724), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46864,7 +46870,7 @@
         <v/>
       </c>
     </row>
-    <row r="725" spans="6:51" ht="16" customHeight="1">
+    <row r="725" spans="6:51" ht="16" hidden="1" customHeight="1">
       <c r="F725" s="8" t="str">
         <f>IF(ISBLANK(E725), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D81FC02-D0AD-E541-A509-E8DDA815CB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3792430C-015D-5245-B63C-C2FA5C53E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5658" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5660" uniqueCount="1225">
   <si>
     <t>index</t>
   </si>
@@ -3745,6 +3745,9 @@
   </si>
   <si>
     <t>All Lights</t>
+  </si>
+  <si>
+    <t>Top level powercalc group</t>
   </si>
 </sst>
 </file>
@@ -5620,8 +5623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY725"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -5640,40 +5643,41 @@
     <col min="13" max="13" width="37.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.83203125" style="8" customWidth="1"/>
     <col min="15" max="15" width="21.83203125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.6640625" style="8" customWidth="1"/>
+    <col min="16" max="17" width="21.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26" style="8" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="33.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.83203125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="32.1640625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="25" style="8" customWidth="1"/>
-    <col min="24" max="24" width="25.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="125.5" style="8" customWidth="1"/>
-    <col min="26" max="26" width="18.83203125" style="10" customWidth="1"/>
-    <col min="27" max="27" width="33.1640625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="45.83203125" style="8" customWidth="1"/>
-    <col min="29" max="29" width="21.6640625" style="8" customWidth="1"/>
-    <col min="30" max="30" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.6640625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="33.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="45.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="18.33203125" style="8" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="74.83203125" style="8" customWidth="1"/>
-    <col min="34" max="34" width="51.83203125" style="8" customWidth="1"/>
-    <col min="35" max="35" width="38.6640625" style="8" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="8" customWidth="1"/>
-    <col min="37" max="37" width="64.83203125" style="10" customWidth="1"/>
-    <col min="38" max="38" width="30.5" style="8" customWidth="1"/>
-    <col min="39" max="39" width="20.33203125" style="10" customWidth="1"/>
+    <col min="32" max="32" width="19.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="42.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="74.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="51.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="32.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="64.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20.33203125" style="8" customWidth="1"/>
-    <col min="41" max="41" width="20.83203125" style="8" customWidth="1"/>
-    <col min="42" max="42" width="21.33203125" style="8" customWidth="1"/>
-    <col min="43" max="44" width="36.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="31.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="27" style="8" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25" style="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="36.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="31.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.5" style="10" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="43.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="37.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="43.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="52" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
@@ -5733,16 +5737,16 @@
         <v>1130</v>
       </c>
       <c r="S1" s="20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T1" s="20" t="s">
         <v>1131</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>699</v>
       </c>
       <c r="W1" s="22" t="s">
         <v>699</v>
@@ -5751,22 +5755,22 @@
         <v>699</v>
       </c>
       <c r="Y1" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z1" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AB1" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AC1" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AD1" s="43" t="s">
         <v>1046</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>195</v>
       </c>
       <c r="AE1" s="22" t="s">
         <v>195</v>
@@ -5790,7 +5794,7 @@
         <v>195</v>
       </c>
       <c r="AL1" s="22" t="s">
-        <v>652</v>
+        <v>195</v>
       </c>
       <c r="AM1" s="22" t="s">
         <v>652</v>
@@ -5808,24 +5812,27 @@
         <v>652</v>
       </c>
       <c r="AR1" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="AS1" s="22" t="s">
         <v>1042</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AT1" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AU1" s="22" t="s">
         <v>1038</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AV1" s="22" t="s">
         <v>652</v>
-      </c>
-      <c r="AV1" s="22" t="s">
-        <v>1047</v>
       </c>
       <c r="AW1" s="22" t="s">
         <v>1047</v>
       </c>
       <c r="AX1" s="22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AY1" s="22" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -5876,108 +5883,111 @@
         <v>1218</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>1132</v>
+        <v>1224</v>
       </c>
       <c r="Q2" s="19" t="s">
         <v>1132</v>
       </c>
       <c r="R2" s="19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="S2" s="19" t="s">
         <v>1133</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>1134</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="W2" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="X2" s="23" t="s">
         <v>710</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="Y2" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Z2" s="23" t="s">
         <v>782</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="AA2" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AB2" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AC2" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AD2" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AE2" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AF2" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AG2" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AH2" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AI2" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AK2" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="AK2" s="27" t="s">
+      <c r="AL2" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AM2" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="AM2" s="27" t="s">
+      <c r="AN2" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AO2" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="AO2" s="25" t="s">
+      <c r="AP2" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AP2" s="25" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="AQ2" s="25" t="s">
+      <c r="AR2" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="AR2" s="25" t="s">
+      <c r="AS2" s="25" t="s">
         <v>1043</v>
       </c>
-      <c r="AS2" s="25" t="s">
+      <c r="AT2" s="25" t="s">
         <v>1040</v>
       </c>
-      <c r="AT2" s="25" t="s">
+      <c r="AU2" s="25" t="s">
         <v>1037</v>
       </c>
-      <c r="AU2" s="25" t="s">
+      <c r="AV2" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="AV2" s="25" t="s">
+      <c r="AW2" s="25" t="s">
         <v>1050</v>
       </c>
-      <c r="AW2" s="27" t="s">
+      <c r="AX2" s="27" t="s">
         <v>1051</v>
       </c>
-      <c r="AX2" s="27" t="s">
+      <c r="AY2" s="27" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -22320,14 +22330,14 @@
         <v>27</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F189" s="8" t="str">
         <f>IF(ISBLANK(E189), "", Table2[[#This Row],[unique_id]])</f>
-        <v>fans_power</v>
+        <v>lights_power</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H189" s="12" t="s">
         <v>258</v>
@@ -22388,14 +22398,14 @@
         <v>27</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F190" s="8" t="str">
         <f>IF(ISBLANK(E190), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_power</v>
+        <v>fans_power</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H190" s="12" t="s">
         <v>258</v>
@@ -24049,14 +24059,14 @@
         <v>27</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F216" s="8" t="str">
         <f>IF(ISBLANK(E216), "", Table2[[#This Row],[unique_id]])</f>
-        <v>fans_energy_daily</v>
+        <v>lights_energy_daily</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H216" s="8" t="s">
         <v>229</v>
@@ -24115,14 +24125,14 @@
         <v>27</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F217" s="8" t="str">
         <f>IF(ISBLANK(E217), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy_daily</v>
+        <v>fans_energy_daily</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H217" s="8" t="s">
         <v>229</v>
@@ -46896,11 +46906,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Z2" r:id="rId1" location="available-state-classes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AB2" r:id="rId2" location="L63" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AI2" r:id="rId3" display="Template" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AA2" r:id="rId4" location="L460" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{83FD6FC4-4E06-7C48-824E-8F1F33D727AC}"/>
+    <hyperlink ref="AA2" r:id="rId1" location="available-state-classes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AC2" r:id="rId2" location="L63" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AJ2" r:id="rId3" display="Template" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AB2" r:id="rId4" location="L460" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{83FD6FC4-4E06-7C48-824E-8F1F33D727AC}"/>
     <hyperlink ref="AL4" r:id="rId6" display="http://raspbpi-lia:8092" xr:uid="{1019D9EA-8924-9748-B15B-E710E57CBDE1}"/>
     <hyperlink ref="AL5" r:id="rId7" display="http://raspbpi-lia:8092" xr:uid="{190ABC8E-6E31-5C43-A10C-43173F6B4612}"/>
     <hyperlink ref="AL26" r:id="rId8" display="http://raspbpi-lia:8092" xr:uid="{6A49E1CF-70B5-3B48-941A-D1082EF18E64}"/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B8FBF4-06A5-C941-98B3-470C14F92864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C7234-0C08-954F-815F-41BD536D3286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5638,8 +5638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209"/>
+    <sheetView tabSelected="1" topLeftCell="AK254" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AM278" sqref="AM278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C7234-0C08-954F-815F-41BD536D3286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCDC4CC-7F56-A24A-B5E3-71601965B4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5638,8 +5638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK254" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AM278" sqref="AM278"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A276" sqref="A276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF9FEC-5721-E949-94FB-D71A5563B581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA97F26C-4960-FC46-B3E8-E8EF3097BC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5706,8 +5706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A309" sqref="A309"/>
+    <sheetView tabSelected="1" topLeftCell="AS270" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AV310" sqref="AV310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -31479,7 +31479,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR309" s="63" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AS309" s="63" t="s">
         <v>172</v>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969F0F19-3488-CA4D-B4D5-35C6B5D1C64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B150EEF-9FF7-FF42-8699-56E8980A4939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5749,8 +5749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ731"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275:XFD310"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205:XFD205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B150EEF-9FF7-FF42-8699-56E8980A4939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DB7F21-D1CF-864D-ABFA-455974E6D64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3561,9 +3561,6 @@
     <t>Powercalc</t>
   </si>
   <si>
-    <t>Shadow</t>
-  </si>
-  <si>
     <t>study_battery_charger_power</t>
   </si>
   <si>
@@ -3823,6 +3820,9 @@
   </si>
   <si>
     <t>5c:a6:e6:25:56:a7</t>
+  </si>
+  <si>
+    <t>Template</t>
   </si>
 </sst>
 </file>
@@ -5749,9 +5749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:XFD205"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
   <cols>
@@ -5938,7 +5936,7 @@
         <v>648</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AS1" s="20" t="s">
         <v>648</v>
@@ -6009,10 +6007,10 @@
         <v>673</v>
       </c>
       <c r="O2" s="58" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>1128</v>
@@ -6096,7 +6094,7 @@
         <v>168</v>
       </c>
       <c r="AR2" s="23" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AS2" s="23" t="s">
         <v>169</v>
@@ -6167,7 +6165,7 @@
         <v>670</v>
       </c>
       <c r="O3" s="59" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>1131</v>
@@ -6254,7 +6252,7 @@
         <v>22</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AS3" s="4" t="s">
         <v>23</v>
@@ -14109,7 +14107,7 @@
         <v>136</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P98" s="6" t="s">
         <v>172</v>
@@ -14216,7 +14214,7 @@
         <v>136</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P99" s="6" t="s">
         <v>172</v>
@@ -14323,7 +14321,7 @@
         <v>136</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P100" s="6" t="s">
         <v>172</v>
@@ -14402,13 +14400,13 @@
         <v>26</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1162</v>
+        <v>1249</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F101" s="6" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
@@ -14424,7 +14422,7 @@
         <v>132</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P101" s="6" t="s">
         <v>172</v>
@@ -14498,7 +14496,7 @@
         <v>136</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P102" s="6" t="s">
         <v>172</v>
@@ -14556,7 +14554,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR102" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS102" s="6" t="s">
         <v>215</v>
@@ -14613,7 +14611,7 @@
         <v>136</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P103" s="6" t="s">
         <v>172</v>
@@ -14780,7 +14778,7 @@
         <v>132</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P105" s="6" t="s">
         <v>172</v>
@@ -14881,7 +14879,7 @@
         <v>132</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P106" s="6" t="s">
         <v>172</v>
@@ -15052,7 +15050,7 @@
         <v>136</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P108" s="6" t="s">
         <v>172</v>
@@ -15224,7 +15222,7 @@
         <v>139</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P110" s="6" t="s">
         <v>172</v>
@@ -15422,7 +15420,7 @@
         <v>139</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P112" s="6" t="s">
         <v>172</v>
@@ -15533,7 +15531,7 @@
         <v>136</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P113" s="6" t="s">
         <v>172</v>
@@ -15705,7 +15703,7 @@
         <v>139</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P115" s="6" t="s">
         <v>172</v>
@@ -15900,7 +15898,7 @@
         <v>139</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P117" s="6" t="s">
         <v>172</v>
@@ -15997,7 +15995,7 @@
         <v>139</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P118" s="6" t="s">
         <v>172</v>
@@ -16094,7 +16092,7 @@
         <v>139</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P119" s="6" t="s">
         <v>172</v>
@@ -16191,7 +16189,7 @@
         <v>139</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P120" s="6" t="s">
         <v>172</v>
@@ -16383,7 +16381,7 @@
         <v>139</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P122" s="6" t="s">
         <v>172</v>
@@ -16480,7 +16478,7 @@
         <v>139</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P123" s="6" t="s">
         <v>172</v>
@@ -16577,7 +16575,7 @@
         <v>139</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P124" s="6" t="s">
         <v>172</v>
@@ -16674,7 +16672,7 @@
         <v>139</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P125" s="6" t="s">
         <v>172</v>
@@ -16771,7 +16769,7 @@
         <v>139</v>
       </c>
       <c r="O126" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P126" s="6" t="s">
         <v>172</v>
@@ -16868,7 +16866,7 @@
         <v>139</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P127" s="6" t="s">
         <v>172</v>
@@ -17060,7 +17058,7 @@
         <v>139</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P129" s="6" t="s">
         <v>172</v>
@@ -17157,7 +17155,7 @@
         <v>139</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P130" s="6" t="s">
         <v>172</v>
@@ -17254,7 +17252,7 @@
         <v>139</v>
       </c>
       <c r="O131" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P131" s="6" t="s">
         <v>172</v>
@@ -17362,7 +17360,7 @@
         <v>136</v>
       </c>
       <c r="O132" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P132" s="6" t="s">
         <v>172</v>
@@ -17537,7 +17535,7 @@
         <v>139</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P134" s="6" t="s">
         <v>172</v>
@@ -17737,7 +17735,7 @@
       <c r="L136" s="65"/>
       <c r="M136" s="65"/>
       <c r="O136" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P136" s="6" t="s">
         <v>172</v>
@@ -17839,7 +17837,7 @@
       <c r="L137" s="65"/>
       <c r="M137" s="65"/>
       <c r="O137" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P137" s="6" t="s">
         <v>172</v>
@@ -17936,7 +17934,7 @@
         <v>139</v>
       </c>
       <c r="O138" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P138" s="6" t="s">
         <v>172</v>
@@ -18131,7 +18129,7 @@
         <v>139</v>
       </c>
       <c r="O140" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P140" s="6" t="s">
         <v>172</v>
@@ -18332,7 +18330,7 @@
       <c r="L142" s="65"/>
       <c r="M142" s="65"/>
       <c r="O142" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P142" s="6" t="s">
         <v>172</v>
@@ -18429,7 +18427,7 @@
         <v>139</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P143" s="6" t="s">
         <v>172</v>
@@ -18526,7 +18524,7 @@
         <v>139</v>
       </c>
       <c r="O144" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P144" s="6" t="s">
         <v>172</v>
@@ -18624,7 +18622,7 @@
         <v>139</v>
       </c>
       <c r="O145" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P145" s="6" t="s">
         <v>172</v>
@@ -18704,13 +18702,13 @@
         <v>26</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1162</v>
+        <v>1249</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F146" s="6" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
@@ -18726,7 +18724,7 @@
         <v>132</v>
       </c>
       <c r="O146" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P146" s="6" t="s">
         <v>172</v>
@@ -18810,7 +18808,7 @@
         <v>136</v>
       </c>
       <c r="O147" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P147" s="6" t="s">
         <v>172</v>
@@ -18868,7 +18866,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR147" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS147" s="6" t="s">
         <v>215</v>
@@ -19007,7 +19005,7 @@
         <v>139</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P149" s="6" t="s">
         <v>172</v>
@@ -19199,7 +19197,7 @@
         <v>139</v>
       </c>
       <c r="O151" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P151" s="6" t="s">
         <v>172</v>
@@ -19388,7 +19386,7 @@
         <v>139</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P153" s="6" t="s">
         <v>172</v>
@@ -19580,7 +19578,7 @@
         <v>139</v>
       </c>
       <c r="O155" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P155" s="6" t="s">
         <v>172</v>
@@ -19772,7 +19770,7 @@
         <v>139</v>
       </c>
       <c r="O157" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P157" s="6" t="s">
         <v>172</v>
@@ -19964,7 +19962,7 @@
         <v>139</v>
       </c>
       <c r="O159" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P159" s="6" t="s">
         <v>172</v>
@@ -20044,13 +20042,13 @@
         <v>26</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1162</v>
+        <v>1249</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F160" s="6" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
@@ -20066,7 +20064,7 @@
         <v>132</v>
       </c>
       <c r="O160" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P160" s="6" t="s">
         <v>172</v>
@@ -20150,7 +20148,7 @@
         <v>136</v>
       </c>
       <c r="O161" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P161" s="6" t="s">
         <v>172</v>
@@ -20208,7 +20206,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR161" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS161" s="6" t="s">
         <v>436</v>
@@ -20235,13 +20233,13 @@
         <v>26</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1162</v>
+        <v>1249</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F162" s="6" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
@@ -20257,7 +20255,7 @@
         <v>132</v>
       </c>
       <c r="O162" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P162" s="6" t="s">
         <v>172</v>
@@ -20341,7 +20339,7 @@
         <v>136</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P163" s="6" t="s">
         <v>172</v>
@@ -20399,7 +20397,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR163" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS163" s="6" t="s">
         <v>797</v>
@@ -20536,7 +20534,7 @@
         <v>139</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P165" s="6" t="s">
         <v>172</v>
@@ -20634,7 +20632,7 @@
         <v>139</v>
       </c>
       <c r="O166" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P166" s="6" t="s">
         <v>172</v>
@@ -20731,7 +20729,7 @@
         <v>139</v>
       </c>
       <c r="O167" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P167" s="6" t="s">
         <v>172</v>
@@ -20828,7 +20826,7 @@
         <v>139</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P168" s="6" t="s">
         <v>172</v>
@@ -21417,7 +21415,7 @@
         <v>139</v>
       </c>
       <c r="O174" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P174" s="6" t="s">
         <v>172</v>
@@ -21514,7 +21512,7 @@
         <v>139</v>
       </c>
       <c r="O175" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P175" s="6" t="s">
         <v>172</v>
@@ -21754,13 +21752,13 @@
         <v>26</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>1162</v>
+        <v>1249</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F178" s="6" t="str">
         <f>IF(ISBLANK(E178), "", Table2[[#This Row],[unique_id]])</f>
@@ -21776,7 +21774,7 @@
         <v>132</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P178" s="6" t="s">
         <v>172</v>
@@ -21860,7 +21858,7 @@
         <v>289</v>
       </c>
       <c r="O179" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P179" s="6" t="s">
         <v>172</v>
@@ -21918,7 +21916,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR179" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS179" s="6" t="s">
         <v>437</v>
@@ -22018,7 +22016,7 @@
         <v>633</v>
       </c>
       <c r="AW180" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AX180" s="7"/>
       <c r="AY180" s="7"/>
@@ -22064,7 +22062,7 @@
         <v>289</v>
       </c>
       <c r="O181" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P181" s="6" t="s">
         <v>172</v>
@@ -22620,14 +22618,14 @@
         <v>27</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F188" s="6" t="str">
         <f>IF(ISBLANK(E188), "", Table2[[#This Row],[unique_id]])</f>
         <v>power_meter_power</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>257</v>
@@ -22693,7 +22691,7 @@
         <v>lights_power</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H189" s="10" t="s">
         <v>257</v>
@@ -22761,7 +22759,7 @@
         <v>fans_power</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>257</v>
@@ -22822,7 +22820,7 @@
         <v>27</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F191" s="6" t="str">
         <f>IF(ISBLANK(E191), "", Table2[[#This Row],[unique_id]])</f>
@@ -22888,7 +22886,7 @@
         <v>27</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F192" s="6" t="str">
         <f>IF(ISBLANK(E192), "", Table2[[#This Row],[unique_id]])</f>
@@ -22954,7 +22952,7 @@
         <v>27</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F193" s="6" t="str">
         <f>IF(ISBLANK(E193), "", Table2[[#This Row],[unique_id]])</f>
@@ -23156,7 +23154,7 @@
         <v>27</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F196" s="6" t="str">
         <f>IF(ISBLANK(E196), "", Table2[[#This Row],[unique_id]])</f>
@@ -23222,7 +23220,7 @@
         <v>27</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F197" s="6" t="str">
         <f>IF(ISBLANK(E197), "", Table2[[#This Row],[unique_id]])</f>
@@ -23354,7 +23352,7 @@
         <v>27</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F199" s="6" t="str">
         <f>IF(ISBLANK(E199), "", Table2[[#This Row],[unique_id]])</f>
@@ -23420,7 +23418,7 @@
         <v>27</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F200" s="6" t="str">
         <f>IF(ISBLANK(E200), "", Table2[[#This Row],[unique_id]])</f>
@@ -23486,7 +23484,7 @@
         <v>27</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F201" s="6" t="str">
         <f>IF(ISBLANK(E201), "", Table2[[#This Row],[unique_id]])</f>
@@ -23552,7 +23550,7 @@
         <v>27</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F202" s="6" t="str">
         <f>IF(ISBLANK(E202), "", Table2[[#This Row],[unique_id]])</f>
@@ -23618,7 +23616,7 @@
         <v>27</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F203" s="6" t="str">
         <f>IF(ISBLANK(E203), "", Table2[[#This Row],[unique_id]])</f>
@@ -23684,14 +23682,14 @@
         <v>27</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F204" s="6" t="str">
         <f>IF(ISBLANK(E204), "", Table2[[#This Row],[unique_id]])</f>
         <v>audio_visual_devices_power</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>257</v>
@@ -23872,7 +23870,7 @@
         <v>27</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F207" s="6" t="str">
         <f>IF(ISBLANK(E207), "", Table2[[#This Row],[unique_id]])</f>
@@ -23929,7 +23927,7 @@
         <v>27</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F208" s="6" t="str">
         <f>IF(ISBLANK(E208), "", Table2[[#This Row],[unique_id]])</f>
@@ -23986,7 +23984,7 @@
         <v>27</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F209" s="6" t="str">
         <f>IF(ISBLANK(E209), "", Table2[[#This Row],[unique_id]])</f>
@@ -24043,7 +24041,7 @@
         <v>27</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F210" s="6" t="str">
         <f>IF(ISBLANK(E210), "", Table2[[#This Row],[unique_id]])</f>
@@ -24352,14 +24350,14 @@
         <v>27</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F215" s="6" t="str">
         <f>IF(ISBLANK(E215), "", Table2[[#This Row],[unique_id]])</f>
         <v>power_meter_energy_daily</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>229</v>
@@ -24426,7 +24424,7 @@
         <v>lights_energy_daily</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>229</v>
@@ -24493,7 +24491,7 @@
         <v>fans_energy_daily</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>229</v>
@@ -24553,7 +24551,7 @@
         <v>27</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F218" s="6" t="str">
         <f>IF(ISBLANK(E218), "", Table2[[#This Row],[unique_id]])</f>
@@ -24620,7 +24618,7 @@
         <v>27</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F219" s="6" t="str">
         <f>IF(ISBLANK(E219), "", Table2[[#This Row],[unique_id]])</f>
@@ -24687,7 +24685,7 @@
         <v>27</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F220" s="6" t="str">
         <f>IF(ISBLANK(E220), "", Table2[[#This Row],[unique_id]])</f>
@@ -24886,7 +24884,7 @@
         <v>27</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F223" s="6" t="str">
         <f>IF(ISBLANK(E223), "", Table2[[#This Row],[unique_id]])</f>
@@ -24952,7 +24950,7 @@
         <v>27</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F224" s="6" t="str">
         <f>IF(ISBLANK(E224), "", Table2[[#This Row],[unique_id]])</f>
@@ -25084,7 +25082,7 @@
         <v>27</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F226" s="6" t="str">
         <f>IF(ISBLANK(E226), "", Table2[[#This Row],[unique_id]])</f>
@@ -25150,7 +25148,7 @@
         <v>27</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F227" s="6" t="str">
         <f>IF(ISBLANK(E227), "", Table2[[#This Row],[unique_id]])</f>
@@ -25216,7 +25214,7 @@
         <v>27</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F228" s="6" t="str">
         <f>IF(ISBLANK(E228), "", Table2[[#This Row],[unique_id]])</f>
@@ -25282,7 +25280,7 @@
         <v>27</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F229" s="6" t="str">
         <f>IF(ISBLANK(E229), "", Table2[[#This Row],[unique_id]])</f>
@@ -25348,7 +25346,7 @@
         <v>27</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F230" s="6" t="str">
         <f>IF(ISBLANK(E230), "", Table2[[#This Row],[unique_id]])</f>
@@ -25414,7 +25412,7 @@
         <v>27</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F231" s="6" t="str">
         <f>IF(ISBLANK(E231), "", Table2[[#This Row],[unique_id]])</f>
@@ -25471,7 +25469,7 @@
         <v>27</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F232" s="6" t="str">
         <f>IF(ISBLANK(E232), "", Table2[[#This Row],[unique_id]])</f>
@@ -25528,14 +25526,14 @@
         <v>27</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F233" s="6" t="str">
         <f>IF(ISBLANK(E233), "", Table2[[#This Row],[unique_id]])</f>
         <v>audio_visual_devices_energy_daily</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H233" s="6" t="s">
         <v>229</v>
@@ -25660,7 +25658,7 @@
         <v>27</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F235" s="6" t="str">
         <f>IF(ISBLANK(E235), "", Table2[[#This Row],[unique_id]])</f>
@@ -25717,7 +25715,7 @@
         <v>27</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F236" s="6" t="str">
         <f>IF(ISBLANK(E236), "", Table2[[#This Row],[unique_id]])</f>
@@ -28542,14 +28540,14 @@
         <v>134</v>
       </c>
       <c r="E277" s="60" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F277" s="61" t="str">
         <f>IF(ISBLANK(E277), "", Table2[[#This Row],[unique_id]])</f>
         <v>power_meter</v>
       </c>
       <c r="G277" s="60" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H277" s="60" t="s">
         <v>752</v>
@@ -28565,7 +28563,7 @@
       </c>
       <c r="N277" s="60"/>
       <c r="O277" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P277" s="60"/>
       <c r="Q277" s="60"/>
@@ -28590,7 +28588,7 @@
       <c r="AB277" s="60"/>
       <c r="AC277" s="60"/>
       <c r="AD277" s="60" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AE277" s="60"/>
       <c r="AF277" s="62"/>
@@ -28614,7 +28612,7 @@
         <v>440</v>
       </c>
       <c r="AO277" s="60" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AP277" s="63" t="s">
         <v>439</v>
@@ -28624,7 +28622,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR277" s="60" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AS277" s="60" t="s">
         <v>172</v>
@@ -28634,10 +28632,10 @@
         <v>569</v>
       </c>
       <c r="AV277" s="60" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AW277" s="60" t="s">
         <v>1229</v>
-      </c>
-      <c r="AW277" s="60" t="s">
-        <v>1230</v>
       </c>
       <c r="AX277" s="60"/>
       <c r="AY277" s="60"/>
@@ -28653,14 +28651,14 @@
       <c r="B278" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C278" s="60" t="s">
-        <v>1162</v>
+      <c r="C278" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D278" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E278" s="60" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F278" s="60" t="str">
         <f>IF(ISBLANK(E278), "", Table2[[#This Row],[unique_id]])</f>
@@ -28681,7 +28679,7 @@
       <c r="M278" s="60"/>
       <c r="N278" s="60"/>
       <c r="O278" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P278" s="60" t="s">
         <v>172</v>
@@ -28783,7 +28781,7 @@
       </c>
       <c r="N279" s="60"/>
       <c r="O279" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P279" s="60" t="s">
         <v>172</v>
@@ -28848,7 +28846,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR279" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS279" s="60" t="s">
         <v>203</v>
@@ -28877,21 +28875,21 @@
       <c r="B280" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C280" s="60" t="s">
-        <v>1162</v>
+      <c r="C280" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D280" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E280" s="60" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F280" s="60" t="str">
         <f>IF(ISBLANK(E280), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_lounge_sub_plug</v>
       </c>
       <c r="G280" s="60" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H280" s="60" t="s">
         <v>752</v>
@@ -28905,7 +28903,7 @@
       <c r="M280" s="60"/>
       <c r="N280" s="60"/>
       <c r="O280" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P280" s="60" t="s">
         <v>172</v>
@@ -28984,14 +28982,14 @@
         <v>134</v>
       </c>
       <c r="E281" s="60" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F281" s="60" t="str">
         <f>IF(ISBLANK(E281), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_sub</v>
       </c>
       <c r="G281" s="60" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H281" s="60" t="s">
         <v>752</v>
@@ -29007,7 +29005,7 @@
       </c>
       <c r="N281" s="60"/>
       <c r="O281" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P281" s="60" t="s">
         <v>172</v>
@@ -29038,7 +29036,7 @@
       <c r="AB281" s="60"/>
       <c r="AC281" s="60"/>
       <c r="AD281" s="60" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AE281" s="60"/>
       <c r="AF281" s="62"/>
@@ -29062,7 +29060,7 @@
         <v>440</v>
       </c>
       <c r="AO281" s="60" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AP281" s="79" t="s">
         <v>439</v>
@@ -29072,7 +29070,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR281" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS281" s="60" t="s">
         <v>203</v>
@@ -29101,14 +29099,14 @@
       <c r="B282" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C282" s="60" t="s">
-        <v>1162</v>
+      <c r="C282" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D282" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E282" s="60" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F282" s="60" t="str">
         <f>IF(ISBLANK(E282), "", Table2[[#This Row],[unique_id]])</f>
@@ -29129,7 +29127,7 @@
       <c r="M282" s="60"/>
       <c r="N282" s="60"/>
       <c r="O282" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P282" s="60" t="s">
         <v>172</v>
@@ -29231,7 +29229,7 @@
       </c>
       <c r="N283" s="60"/>
       <c r="O283" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P283" s="60" t="s">
         <v>172</v>
@@ -29296,7 +29294,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR283" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS283" s="60" t="s">
         <v>435</v>
@@ -29325,14 +29323,14 @@
       <c r="B284" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C284" s="60" t="s">
-        <v>1162</v>
+      <c r="C284" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D284" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E284" s="60" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F284" s="60" t="str">
         <f>IF(ISBLANK(E284), "", Table2[[#This Row],[unique_id]])</f>
@@ -29353,7 +29351,7 @@
       <c r="M284" s="60"/>
       <c r="N284" s="60"/>
       <c r="O284" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P284" s="60" t="s">
         <v>172</v>
@@ -29455,7 +29453,7 @@
       </c>
       <c r="N285" s="60"/>
       <c r="O285" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P285" s="60" t="s">
         <v>172</v>
@@ -29520,7 +29518,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR285" s="60" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AS285" s="60" t="s">
         <v>222</v>
@@ -29549,14 +29547,14 @@
       <c r="B286" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C286" s="60" t="s">
-        <v>1162</v>
+      <c r="C286" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D286" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E286" s="60" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F286" s="60" t="str">
         <f>IF(ISBLANK(E286), "", Table2[[#This Row],[unique_id]])</f>
@@ -29577,7 +29575,7 @@
       <c r="M286" s="60"/>
       <c r="N286" s="60"/>
       <c r="O286" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P286" s="60" t="s">
         <v>172</v>
@@ -29679,7 +29677,7 @@
       </c>
       <c r="N287" s="60"/>
       <c r="O287" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P287" s="60" t="s">
         <v>172</v>
@@ -29744,7 +29742,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR287" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS287" s="60" t="s">
         <v>215</v>
@@ -29773,14 +29771,14 @@
       <c r="B288" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C288" s="60" t="s">
-        <v>1162</v>
+      <c r="C288" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D288" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E288" s="60" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F288" s="60" t="str">
         <f>IF(ISBLANK(E288), "", Table2[[#This Row],[unique_id]])</f>
@@ -29801,7 +29799,7 @@
       <c r="M288" s="60"/>
       <c r="N288" s="60"/>
       <c r="O288" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P288" s="60" t="s">
         <v>172</v>
@@ -29903,7 +29901,7 @@
       </c>
       <c r="N289" s="60"/>
       <c r="O289" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P289" s="60" t="s">
         <v>172</v>
@@ -29968,7 +29966,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR289" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS289" s="60" t="s">
         <v>223</v>
@@ -29997,14 +29995,14 @@
       <c r="B290" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C290" s="60" t="s">
-        <v>1162</v>
+      <c r="C290" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D290" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E290" s="60" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F290" s="60" t="str">
         <f>IF(ISBLANK(E290), "", Table2[[#This Row],[unique_id]])</f>
@@ -30025,7 +30023,7 @@
       <c r="M290" s="60"/>
       <c r="N290" s="60"/>
       <c r="O290" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P290" s="60" t="s">
         <v>172</v>
@@ -30118,7 +30116,7 @@
       </c>
       <c r="N291" s="60"/>
       <c r="O291" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P291" s="60" t="s">
         <v>172</v>
@@ -30183,7 +30181,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR291" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS291" s="60" t="s">
         <v>223</v>
@@ -30212,14 +30210,14 @@
       <c r="B292" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C292" s="60" t="s">
-        <v>1162</v>
+      <c r="C292" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D292" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E292" s="60" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F292" s="60" t="str">
         <f>IF(ISBLANK(E292), "", Table2[[#This Row],[unique_id]])</f>
@@ -30240,7 +30238,7 @@
       <c r="M292" s="60"/>
       <c r="N292" s="60"/>
       <c r="O292" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P292" s="60" t="s">
         <v>172</v>
@@ -30342,7 +30340,7 @@
       </c>
       <c r="N293" s="60"/>
       <c r="O293" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P293" s="60" t="s">
         <v>172</v>
@@ -30407,7 +30405,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR293" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS293" s="60" t="s">
         <v>215</v>
@@ -30436,14 +30434,14 @@
       <c r="B294" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C294" s="60" t="s">
-        <v>1162</v>
+      <c r="C294" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D294" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E294" s="60" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F294" s="60" t="str">
         <f>IF(ISBLANK(E294), "", Table2[[#This Row],[unique_id]])</f>
@@ -30464,7 +30462,7 @@
       <c r="M294" s="60"/>
       <c r="N294" s="60"/>
       <c r="O294" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P294" s="60" t="s">
         <v>172</v>
@@ -30566,7 +30564,7 @@
       </c>
       <c r="N295" s="60"/>
       <c r="O295" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P295" s="60" t="s">
         <v>172</v>
@@ -30631,7 +30629,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR295" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS295" s="60" t="s">
         <v>215</v>
@@ -30660,14 +30658,14 @@
       <c r="B296" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C296" s="60" t="s">
-        <v>1162</v>
+      <c r="C296" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D296" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E296" s="60" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F296" s="60" t="str">
         <f>IF(ISBLANK(E296), "", Table2[[#This Row],[unique_id]])</f>
@@ -30688,7 +30686,7 @@
       <c r="M296" s="60"/>
       <c r="N296" s="60"/>
       <c r="O296" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P296" s="60" t="s">
         <v>172</v>
@@ -30790,7 +30788,7 @@
       </c>
       <c r="N297" s="60"/>
       <c r="O297" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P297" s="60" t="s">
         <v>172</v>
@@ -30855,7 +30853,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR297" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS297" s="60" t="s">
         <v>436</v>
@@ -30884,14 +30882,14 @@
       <c r="B298" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C298" s="60" t="s">
-        <v>1162</v>
+      <c r="C298" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D298" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E298" s="60" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F298" s="60" t="str">
         <f>IF(ISBLANK(E298), "", Table2[[#This Row],[unique_id]])</f>
@@ -30912,7 +30910,7 @@
       <c r="M298" s="60"/>
       <c r="N298" s="60"/>
       <c r="O298" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P298" s="60" t="s">
         <v>172</v>
@@ -31014,7 +31012,7 @@
       </c>
       <c r="N299" s="60"/>
       <c r="O299" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P299" s="60" t="s">
         <v>172</v>
@@ -31079,7 +31077,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR299" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS299" s="60" t="s">
         <v>435</v>
@@ -31108,14 +31106,14 @@
       <c r="B300" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C300" s="60" t="s">
-        <v>1162</v>
+      <c r="C300" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D300" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E300" s="60" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F300" s="60" t="str">
         <f>IF(ISBLANK(E300), "", Table2[[#This Row],[unique_id]])</f>
@@ -31136,7 +31134,7 @@
       <c r="M300" s="60"/>
       <c r="N300" s="60"/>
       <c r="O300" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P300" s="60" t="s">
         <v>172</v>
@@ -31238,7 +31236,7 @@
       </c>
       <c r="N301" s="60"/>
       <c r="O301" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P301" s="60" t="s">
         <v>172</v>
@@ -31303,7 +31301,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR301" s="60" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AS301" s="60" t="s">
         <v>223</v>
@@ -31332,21 +31330,21 @@
       <c r="B302" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C302" s="60" t="s">
-        <v>1162</v>
+      <c r="C302" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D302" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E302" s="60" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F302" s="61" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_macbookflo_outlet_plug</v>
       </c>
       <c r="G302" s="60" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H302" s="60" t="s">
         <v>752</v>
@@ -31360,12 +31358,12 @@
       <c r="M302" s="60"/>
       <c r="N302" s="60"/>
       <c r="O302" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P302" s="60"/>
       <c r="Q302" s="60"/>
       <c r="R302" s="60" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S302" s="60" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31435,14 +31433,14 @@
         <v>134</v>
       </c>
       <c r="E303" s="60" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F303" s="61" t="str">
         <f>IF(ISBLANK(E303), "", Table2[[#This Row],[unique_id]])</f>
         <v>macbookflo_outlet</v>
       </c>
       <c r="G303" s="60" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H303" s="60" t="s">
         <v>752</v>
@@ -31458,12 +31456,12 @@
       </c>
       <c r="N303" s="60"/>
       <c r="O303" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P303" s="60"/>
       <c r="Q303" s="60"/>
       <c r="R303" s="60" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S303" s="60" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31519,7 +31517,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR303" s="60" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AS303" s="60" t="s">
         <v>28</v>
@@ -31529,10 +31527,10 @@
         <v>569</v>
       </c>
       <c r="AV303" s="60" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AW303" s="79" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AX303" s="60"/>
       <c r="AY303" s="60"/>
@@ -31548,21 +31546,21 @@
       <c r="B304" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C304" s="60" t="s">
-        <v>1162</v>
+      <c r="C304" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D304" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E304" s="60" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F304" s="61" t="str">
         <f>IF(ISBLANK(E304), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_macminimeg_outlet_plug</v>
       </c>
       <c r="G304" s="80" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H304" s="60" t="s">
         <v>752</v>
@@ -31576,12 +31574,12 @@
       <c r="M304" s="60"/>
       <c r="N304" s="60"/>
       <c r="O304" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P304" s="60"/>
       <c r="Q304" s="60"/>
       <c r="R304" s="60" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S304" s="60" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31651,14 +31649,14 @@
         <v>134</v>
       </c>
       <c r="E305" s="60" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F305" s="61" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
         <v>macminimeg_outlet</v>
       </c>
       <c r="G305" s="80" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H305" s="60" t="s">
         <v>752</v>
@@ -31674,12 +31672,12 @@
       </c>
       <c r="N305" s="60"/>
       <c r="O305" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P305" s="60"/>
       <c r="Q305" s="60"/>
       <c r="R305" s="60" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S305" s="60" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31735,7 +31733,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR305" s="60" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AS305" s="60" t="s">
         <v>28</v>
@@ -31745,10 +31743,10 @@
         <v>569</v>
       </c>
       <c r="AV305" s="60" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AW305" s="79" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AX305" s="60"/>
       <c r="AY305" s="60"/>
@@ -31764,14 +31762,14 @@
       <c r="B306" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C306" s="60" t="s">
-        <v>1162</v>
+      <c r="C306" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D306" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E306" s="60" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F306" s="60" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
@@ -31792,7 +31790,7 @@
       <c r="M306" s="60"/>
       <c r="N306" s="60"/>
       <c r="O306" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P306" s="60" t="s">
         <v>172</v>
@@ -31894,7 +31892,7 @@
       </c>
       <c r="N307" s="60"/>
       <c r="O307" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P307" s="60" t="s">
         <v>172</v>
@@ -31959,7 +31957,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR307" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS307" s="60" t="s">
         <v>28</v>
@@ -31988,14 +31986,14 @@
       <c r="B308" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C308" s="60" t="s">
-        <v>1162</v>
+      <c r="C308" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D308" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E308" s="60" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F308" s="60" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
@@ -32016,7 +32014,7 @@
       <c r="M308" s="60"/>
       <c r="N308" s="60"/>
       <c r="O308" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P308" s="60" t="s">
         <v>172</v>
@@ -32118,7 +32116,7 @@
       </c>
       <c r="N309" s="60"/>
       <c r="O309" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P309" s="60" t="s">
         <v>172</v>
@@ -32183,7 +32181,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR309" s="60" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS309" s="60" t="s">
         <v>38</v>
@@ -32212,14 +32210,14 @@
       <c r="B310" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C310" s="60" t="s">
-        <v>1162</v>
+      <c r="C310" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="D310" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E310" s="60" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F310" s="60" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
@@ -32240,12 +32238,12 @@
       <c r="M310" s="60"/>
       <c r="N310" s="60"/>
       <c r="O310" s="62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P310" s="60"/>
       <c r="Q310" s="60"/>
       <c r="R310" s="60" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S310" s="60" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -32334,10 +32332,10 @@
         <v>289</v>
       </c>
       <c r="O311" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R311" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S311" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -32385,7 +32383,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR311" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AS311" s="6" t="s">
         <v>28</v>
@@ -34927,7 +34925,7 @@
         <v>302</v>
       </c>
       <c r="O350" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P350" s="6" t="s">
         <v>172</v>
@@ -35032,7 +35030,7 @@
         <v>302</v>
       </c>
       <c r="O351" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P351" s="6" t="s">
         <v>172</v>
@@ -35137,7 +35135,7 @@
         <v>302</v>
       </c>
       <c r="O352" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P352" s="6" t="s">
         <v>172</v>
@@ -35241,7 +35239,7 @@
         <v>302</v>
       </c>
       <c r="O353" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P353" s="6" t="s">
         <v>172</v>
@@ -35345,7 +35343,7 @@
         <v>302</v>
       </c>
       <c r="O354" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P354" s="6" t="s">
         <v>172</v>
@@ -35450,7 +35448,7 @@
         <v>302</v>
       </c>
       <c r="O355" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P355" s="6" t="s">
         <v>172</v>
@@ -35928,7 +35926,7 @@
         <v>302</v>
       </c>
       <c r="O361" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R361" s="47"/>
       <c r="T361" s="6" t="str">

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563D5ED5-3CED-A641-AAD1-81FCB72C6F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086D29E7-0A7E-3849-9521-6CEB36E00CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3783,6 +3783,9 @@
     <t>10.0.6.93</t>
   </si>
   <si>
+    <t>10.0.6.95</t>
+  </si>
+  <si>
     <t>template_macbookflo_outlet_plug</t>
   </si>
   <si>
@@ -3820,9 +3823,6 @@
   </si>
   <si>
     <t>Template</t>
-  </si>
-  <si>
-    <t>10.0.6.94</t>
   </si>
 </sst>
 </file>
@@ -5749,8 +5749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN28" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AW59" sqref="AW59"/>
+    <sheetView tabSelected="1" topLeftCell="AO41" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AW58" sqref="AW58:AW62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -11176,7 +11176,7 @@
         <v>1209</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="S53" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -11709,126 +11709,92 @@
       </c>
     </row>
     <row r="58" spans="1:52" ht="16" customHeight="1">
-      <c r="A58" s="58">
-        <v>2550</v>
-      </c>
-      <c r="B58" s="58" t="s">
+      <c r="A58" s="6">
+        <v>2588</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="D58" s="58" t="s">
+      <c r="C58" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="58" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F58" s="59" t="str">
+      <c r="E58" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="F58" s="6" t="str">
         <f>IF(ISBLANK(E58), "", Table2[[#This Row],[unique_id]])</f>
-        <v>power_meter</v>
-      </c>
-      <c r="G58" s="58" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H58" s="58" t="s">
+        <v>rack_fans</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="I58" s="58" t="s">
+      <c r="I58" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58" t="s">
+      <c r="M58" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="N58" s="58"/>
-      <c r="O58" s="60" t="s">
-        <v>1209</v>
-      </c>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="58"/>
-      <c r="R58" s="58"/>
-      <c r="S58" s="58" t="str">
-        <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
-        <v>Power Meter</v>
-      </c>
-      <c r="T58" s="77" t="str">
-        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">power_sensor_id: sensor.power_meter_current_consumption
-energy_sensor_id: sensor.power_meter_total_consumption
-</v>
-      </c>
-      <c r="U58" s="58"/>
-      <c r="V58" s="60"/>
-      <c r="W58" s="60"/>
-      <c r="X58" s="60"/>
-      <c r="Y58" s="60"/>
-      <c r="Z58" s="60"/>
-      <c r="AA58" s="58"/>
-      <c r="AB58" s="58"/>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58" t="s">
-        <v>1233</v>
-      </c>
-      <c r="AE58" s="58"/>
-      <c r="AF58" s="60"/>
-      <c r="AG58" s="58"/>
-      <c r="AH58" s="58" t="str">
+      <c r="T58" s="6"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="AD58" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="AF58" s="8"/>
+      <c r="AH58" s="6" t="str">
         <f>IF(ISBLANK(AG58),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C58), "/", E58, "/config"))</f>
         <v/>
       </c>
-      <c r="AI58" s="58" t="str">
+      <c r="AI58" s="6" t="str">
         <f>IF(ISBLANK(AG58),  "", _xlfn.CONCAT(LOWER(C58), "/", E58))</f>
         <v/>
       </c>
-      <c r="AJ58" s="61"/>
-      <c r="AK58" s="58"/>
-      <c r="AL58" s="33"/>
-      <c r="AM58" s="58" t="str">
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="34"/>
+      <c r="AM58" s="6" t="str">
         <f>IF(OR(ISBLANK(AV58), ISBLANK(AW58)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-home-power-meter</v>
-      </c>
-      <c r="AN58" s="60" t="s">
-        <v>440</v>
-      </c>
-      <c r="AO58" s="58" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AP58" s="61" t="s">
-        <v>439</v>
-      </c>
-      <c r="AQ58" s="58" t="str">
-        <f>IF(OR(ISBLANK(AV58), ISBLANK(AW58)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>TPLink</v>
-      </c>
-      <c r="AR58" s="58" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AS58" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT58" s="58"/>
-      <c r="AU58" s="58" t="s">
+        <v>sonoff-rack-fans</v>
+      </c>
+      <c r="AN58" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="AO58" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="AP58" s="12" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AQ58" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AS58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU58" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="AV58" s="58" t="s">
-        <v>1228</v>
-      </c>
-      <c r="AW58" s="58" t="s">
+      <c r="AV58" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="AW58" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="AX58" s="58"/>
-      <c r="AY58" s="58"/>
-      <c r="AZ58" s="59" t="str">
+      <c r="AZ58" s="6" t="str">
         <f>IF(AND(ISBLANK(AV58), ISBLANK(AW58)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV58), "", _xlfn.CONCAT("[""mac"", """, AV58, """]")), IF(ISBLANK(AW58), "", _xlfn.CONCAT(", [""ip"", """, AW58, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:59:03"], ["ip", "10.0.6.90"]]</v>
+        <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.90"]]</v>
       </c>
     </row>
     <row r="59" spans="1:52" ht="16" customHeight="1">
       <c r="A59" s="58">
-        <v>2576</v>
+        <v>2550</v>
       </c>
       <c r="B59" s="58" t="s">
         <v>26</v>
@@ -11840,14 +11806,14 @@
         <v>134</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F59" s="59" t="str">
         <f>IF(ISBLANK(E59), "", Table2[[#This Row],[unique_id]])</f>
-        <v>macbookflo_outlet</v>
+        <v>power_meter</v>
       </c>
       <c r="G59" s="58" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="H59" s="58" t="s">
         <v>752</v>
@@ -11867,17 +11833,15 @@
       </c>
       <c r="P59" s="58"/>
       <c r="Q59" s="58"/>
-      <c r="R59" s="58" t="s">
-        <v>1242</v>
-      </c>
+      <c r="R59" s="58"/>
       <c r="S59" s="58" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
-        <v>MacBook Flo</v>
+        <v>Power Meter</v>
       </c>
       <c r="T59" s="77" t="str">
         <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">power_sensor_id: sensor.macbookflo_outlet_current_consumption
-energy_sensor_id: sensor.macbookflo_outlet_total_consumption
+        <v xml:space="preserve">power_sensor_id: sensor.power_meter_current_consumption
+energy_sensor_id: sensor.power_meter_total_consumption
 </v>
       </c>
       <c r="U59" s="58"/>
@@ -11890,7 +11854,7 @@
       <c r="AB59" s="58"/>
       <c r="AC59" s="58"/>
       <c r="AD59" s="58" t="s">
-        <v>284</v>
+        <v>1233</v>
       </c>
       <c r="AE59" s="58"/>
       <c r="AF59" s="60"/>
@@ -11908,13 +11872,13 @@
       <c r="AL59" s="33"/>
       <c r="AM59" s="58" t="str">
         <f>IF(OR(ISBLANK(AV59), ISBLANK(AW59)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-rack-macbook-flo</v>
+        <v>tplink-home-power-meter</v>
       </c>
       <c r="AN59" s="60" t="s">
         <v>440</v>
       </c>
       <c r="AO59" s="58" t="s">
-        <v>479</v>
+        <v>1234</v>
       </c>
       <c r="AP59" s="61" t="s">
         <v>439</v>
@@ -11927,28 +11891,28 @@
         <v>1227</v>
       </c>
       <c r="AS59" s="58" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="AT59" s="58"/>
       <c r="AU59" s="58" t="s">
         <v>569</v>
       </c>
       <c r="AV59" s="58" t="s">
-        <v>1247</v>
-      </c>
-      <c r="AW59" s="79" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AW59" s="58" t="s">
         <v>1229</v>
       </c>
       <c r="AX59" s="58"/>
       <c r="AY59" s="58"/>
       <c r="AZ59" s="59" t="str">
         <f>IF(AND(ISBLANK(AV59), ISBLANK(AW59)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV59), "", _xlfn.CONCAT("[""mac"", """, AV59, """]")), IF(ISBLANK(AW59), "", _xlfn.CONCAT(", [""ip"", """, AW59, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:56:a7"], ["ip", "10.0.6.91"]]</v>
+        <v>[["mac", "5c:a6:e6:25:59:03"], ["ip", "10.0.6.91"]]</v>
       </c>
     </row>
     <row r="60" spans="1:52" ht="16" customHeight="1">
       <c r="A60" s="58">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B60" s="58" t="s">
         <v>26</v>
@@ -11960,13 +11924,13 @@
         <v>134</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F60" s="59" t="str">
         <f>IF(ISBLANK(E60), "", Table2[[#This Row],[unique_id]])</f>
-        <v>macminimeg_outlet</v>
-      </c>
-      <c r="G60" s="79" t="s">
+        <v>macbookflo_outlet</v>
+      </c>
+      <c r="G60" s="58" t="s">
         <v>1241</v>
       </c>
       <c r="H60" s="58" t="s">
@@ -11988,16 +11952,16 @@
       <c r="P60" s="58"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="S60" s="58" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
-        <v>Mac Mini Meg</v>
+        <v>MacBook Flo</v>
       </c>
       <c r="T60" s="77" t="str">
         <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">power_sensor_id: sensor.macminimeg_outlet_current_consumption
-energy_sensor_id: sensor.macminimeg_outlet_total_consumption
+        <v xml:space="preserve">power_sensor_id: sensor.macbookflo_outlet_current_consumption
+energy_sensor_id: sensor.macbookflo_outlet_total_consumption
 </v>
       </c>
       <c r="U60" s="58"/>
@@ -12028,13 +11992,13 @@
       <c r="AL60" s="33"/>
       <c r="AM60" s="58" t="str">
         <f>IF(OR(ISBLANK(AV60), ISBLANK(AW60)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-rack-macmini-meg</v>
+        <v>tplink-rack-macbook-flo</v>
       </c>
       <c r="AN60" s="60" t="s">
         <v>440</v>
       </c>
       <c r="AO60" s="58" t="s">
-        <v>845</v>
+        <v>479</v>
       </c>
       <c r="AP60" s="61" t="s">
         <v>439</v>
@@ -12054,7 +12018,7 @@
         <v>569</v>
       </c>
       <c r="AV60" s="58" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="AW60" s="79" t="s">
         <v>1230</v>
@@ -12063,91 +12027,127 @@
       <c r="AY60" s="58"/>
       <c r="AZ60" s="59" t="str">
         <f>IF(AND(ISBLANK(AV60), ISBLANK(AW60)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV60), "", _xlfn.CONCAT("[""mac"", """, AV60, """]")), IF(ISBLANK(AW60), "", _xlfn.CONCAT(", [""ip"", """, AW60, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:59:c0"], ["ip", "10.0.6.92"]]</v>
+        <v>[["mac", "5c:a6:e6:25:56:a7"], ["ip", "10.0.6.92"]]</v>
       </c>
     </row>
     <row r="61" spans="1:52" ht="16" customHeight="1">
-      <c r="A61" s="6">
-        <v>2588</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="58">
+        <v>2578</v>
+      </c>
+      <c r="B61" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="C61" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="F61" s="6" t="str">
+      <c r="E61" s="58" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F61" s="59" t="str">
         <f>IF(ISBLANK(E61), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_fans</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="H61" s="6" t="s">
+        <v>macminimeg_outlet</v>
+      </c>
+      <c r="G61" s="79" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H61" s="58" t="s">
         <v>752</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I61" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="M61" s="6" t="s">
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="T61" s="6"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="AD61" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="AF61" s="8"/>
-      <c r="AH61" s="6" t="str">
+      <c r="N61" s="58"/>
+      <c r="O61" s="60" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="58"/>
+      <c r="R61" s="58" t="s">
+        <v>1243</v>
+      </c>
+      <c r="S61" s="58" t="str">
+        <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
+        <v>Mac Mini Meg</v>
+      </c>
+      <c r="T61" s="77" t="str">
+        <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
+        <v xml:space="preserve">power_sensor_id: sensor.macminimeg_outlet_current_consumption
+energy_sensor_id: sensor.macminimeg_outlet_total_consumption
+</v>
+      </c>
+      <c r="U61" s="58"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="60"/>
+      <c r="Y61" s="60"/>
+      <c r="Z61" s="60"/>
+      <c r="AA61" s="58"/>
+      <c r="AB61" s="58"/>
+      <c r="AC61" s="58"/>
+      <c r="AD61" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE61" s="58"/>
+      <c r="AF61" s="60"/>
+      <c r="AG61" s="58"/>
+      <c r="AH61" s="58" t="str">
         <f>IF(ISBLANK(AG61),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C61), "/", E61, "/config"))</f>
         <v/>
       </c>
-      <c r="AI61" s="6" t="str">
+      <c r="AI61" s="58" t="str">
         <f>IF(ISBLANK(AG61),  "", _xlfn.CONCAT(LOWER(C61), "/", E61))</f>
         <v/>
       </c>
-      <c r="AK61" s="6"/>
-      <c r="AL61" s="34"/>
-      <c r="AM61" s="6" t="str">
+      <c r="AJ61" s="61"/>
+      <c r="AK61" s="58"/>
+      <c r="AL61" s="33"/>
+      <c r="AM61" s="58" t="str">
         <f>IF(OR(ISBLANK(AV61), ISBLANK(AW61)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonoff-rack-fans</v>
-      </c>
-      <c r="AN61" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="AO61" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="AP61" s="12" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AQ61" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="AS61" s="6" t="s">
+        <v>tplink-rack-macmini-meg</v>
+      </c>
+      <c r="AN61" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="AO61" s="58" t="s">
+        <v>845</v>
+      </c>
+      <c r="AP61" s="61" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ61" s="58" t="str">
+        <f>IF(OR(ISBLANK(AV61), ISBLANK(AW61)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>TPLink</v>
+      </c>
+      <c r="AR61" s="58" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AS61" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AU61" s="6" t="s">
+      <c r="AT61" s="58"/>
+      <c r="AU61" s="58" t="s">
         <v>569</v>
       </c>
-      <c r="AV61" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="AW61" s="6" t="s">
+      <c r="AV61" s="58" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AW61" s="79" t="s">
         <v>1235</v>
       </c>
-      <c r="AZ61" s="6" t="str">
+      <c r="AX61" s="58"/>
+      <c r="AY61" s="58"/>
+      <c r="AZ61" s="59" t="str">
         <f>IF(AND(ISBLANK(AV61), ISBLANK(AW61)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV61), "", _xlfn.CONCAT("[""mac"", """, AV61, """]")), IF(ISBLANK(AW61), "", _xlfn.CONCAT(", [""ip"", """, AW61, """]")), "]"))</f>
-        <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.93"]]</v>
+        <v>[["mac", "5c:a6:e6:25:59:c0"], ["ip", "10.0.6.93"]]</v>
       </c>
     </row>
     <row r="62" spans="1:52" ht="16" customHeight="1">
@@ -12231,13 +12231,13 @@
         <v>633</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="AX62" s="7"/>
       <c r="AY62" s="7"/>
       <c r="AZ62" s="6" t="str">
         <f>IF(AND(ISBLANK(AV62), ISBLANK(AW62)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV62), "", _xlfn.CONCAT("[""mac"", """, AV62, """]")), IF(ISBLANK(AW62), "", _xlfn.CONCAT(", [""ip"", """, AW62, """]")), "]"))</f>
-        <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.94"]]</v>
+        <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.95"]]</v>
       </c>
     </row>
     <row r="63" spans="1:52" ht="16" customHeight="1">
@@ -20020,7 +20020,7 @@
         <v>26</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>149</v>
@@ -23906,7 +23906,7 @@
         <v>26</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>149</v>
@@ -25133,7 +25133,7 @@
         <v>26</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>149</v>
@@ -25211,7 +25211,7 @@
         <v>26</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>149</v>
@@ -26619,7 +26619,7 @@
         <v>26</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>149</v>
@@ -27282,7 +27282,7 @@
         <v>27</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F235" s="6" t="str">
         <f>IF(ISBLANK(E235), "", Table2[[#This Row],[unique_id]])</f>
@@ -29014,7 +29014,7 @@
         <v>27</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F262" s="6" t="str">
         <f>IF(ISBLANK(E262), "", Table2[[#This Row],[unique_id]])</f>
@@ -33199,7 +33199,7 @@
         <v>26</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D324" s="58" t="s">
         <v>149</v>
@@ -33299,7 +33299,7 @@
         <v>26</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D325" s="58" t="s">
         <v>149</v>
@@ -33399,7 +33399,7 @@
         <v>26</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D326" s="58" t="s">
         <v>149</v>
@@ -33499,7 +33499,7 @@
         <v>26</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D327" s="58" t="s">
         <v>149</v>
@@ -33599,7 +33599,7 @@
         <v>26</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D328" s="58" t="s">
         <v>149</v>
@@ -33699,7 +33699,7 @@
         <v>26</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D329" s="58" t="s">
         <v>149</v>
@@ -33799,7 +33799,7 @@
         <v>26</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D330" s="58" t="s">
         <v>149</v>
@@ -33890,7 +33890,7 @@
         <v>26</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D331" s="58" t="s">
         <v>149</v>
@@ -33990,7 +33990,7 @@
         <v>26</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D332" s="58" t="s">
         <v>149</v>
@@ -34090,7 +34090,7 @@
         <v>26</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D333" s="58" t="s">
         <v>149</v>
@@ -34190,7 +34190,7 @@
         <v>26</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D334" s="58" t="s">
         <v>149</v>
@@ -34290,7 +34290,7 @@
         <v>26</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D335" s="58" t="s">
         <v>149</v>
@@ -34390,20 +34390,20 @@
         <v>26</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D336" s="58" t="s">
         <v>149</v>
       </c>
       <c r="E336" s="58" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F336" s="59" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_macbookflo_outlet_plug</v>
       </c>
       <c r="G336" s="58" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H336" s="58" t="s">
         <v>752</v>
@@ -34422,7 +34422,7 @@
       <c r="P336" s="58"/>
       <c r="Q336" s="58"/>
       <c r="R336" s="58" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="S336" s="58" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -34486,20 +34486,20 @@
         <v>26</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D337" s="58" t="s">
         <v>149</v>
       </c>
       <c r="E337" s="58" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F337" s="59" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_macminimeg_outlet_plug</v>
       </c>
       <c r="G337" s="79" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H337" s="58" t="s">
         <v>752</v>
@@ -34518,7 +34518,7 @@
       <c r="P337" s="58"/>
       <c r="Q337" s="58"/>
       <c r="R337" s="58" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="S337" s="58" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -34582,7 +34582,7 @@
         <v>26</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D338" s="58" t="s">
         <v>149</v>
@@ -34682,7 +34682,7 @@
         <v>26</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D339" s="58" t="s">
         <v>149</v>
@@ -34782,7 +34782,7 @@
         <v>26</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D340" s="58" t="s">
         <v>149</v>
@@ -34814,7 +34814,7 @@
       <c r="P340" s="58"/>
       <c r="Q340" s="58"/>
       <c r="R340" s="58" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="S340" s="58" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086D29E7-0A7E-3849-9521-6CEB36E00CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F98BF06-9883-0C41-84F6-14681F0476DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3783,9 +3783,6 @@
     <t>10.0.6.93</t>
   </si>
   <si>
-    <t>10.0.6.95</t>
-  </si>
-  <si>
     <t>template_macbookflo_outlet_plug</t>
   </si>
   <si>
@@ -3823,6 +3820,9 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>10.0.6.94</t>
   </si>
 </sst>
 </file>
@@ -5750,7 +5750,7 @@
   <dimension ref="A1:AZ731"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AO41" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AW58" sqref="AW58:AW62"/>
+      <selection activeCell="AW63" sqref="AW63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -11176,7 +11176,7 @@
         <v>1209</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S53" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -11924,14 +11924,14 @@
         <v>134</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F60" s="59" t="str">
         <f>IF(ISBLANK(E60), "", Table2[[#This Row],[unique_id]])</f>
         <v>macbookflo_outlet</v>
       </c>
       <c r="G60" s="58" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H60" s="58" t="s">
         <v>752</v>
@@ -11952,7 +11952,7 @@
       <c r="P60" s="58"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S60" s="58" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -12018,7 +12018,7 @@
         <v>569</v>
       </c>
       <c r="AV60" s="58" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AW60" s="79" t="s">
         <v>1230</v>
@@ -12044,14 +12044,14 @@
         <v>134</v>
       </c>
       <c r="E61" s="58" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F61" s="59" t="str">
         <f>IF(ISBLANK(E61), "", Table2[[#This Row],[unique_id]])</f>
         <v>macminimeg_outlet</v>
       </c>
       <c r="G61" s="79" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H61" s="58" t="s">
         <v>752</v>
@@ -12072,7 +12072,7 @@
       <c r="P61" s="58"/>
       <c r="Q61" s="58"/>
       <c r="R61" s="58" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S61" s="58" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -12138,7 +12138,7 @@
         <v>569</v>
       </c>
       <c r="AV61" s="58" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AW61" s="79" t="s">
         <v>1235</v>
@@ -12231,13 +12231,13 @@
         <v>633</v>
       </c>
       <c r="AW62" s="7" t="s">
-        <v>1236</v>
+        <v>1249</v>
       </c>
       <c r="AX62" s="7"/>
       <c r="AY62" s="7"/>
       <c r="AZ62" s="6" t="str">
         <f>IF(AND(ISBLANK(AV62), ISBLANK(AW62)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV62), "", _xlfn.CONCAT("[""mac"", """, AV62, """]")), IF(ISBLANK(AW62), "", _xlfn.CONCAT(", [""ip"", """, AW62, """]")), "]"))</f>
-        <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.95"]]</v>
+        <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.94"]]</v>
       </c>
     </row>
     <row r="63" spans="1:52" ht="16" customHeight="1">
@@ -20020,7 +20020,7 @@
         <v>26</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>149</v>
@@ -23906,7 +23906,7 @@
         <v>26</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>149</v>
@@ -25133,7 +25133,7 @@
         <v>26</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>149</v>
@@ -25211,7 +25211,7 @@
         <v>26</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>149</v>
@@ -26619,7 +26619,7 @@
         <v>26</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>149</v>
@@ -27282,7 +27282,7 @@
         <v>27</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F235" s="6" t="str">
         <f>IF(ISBLANK(E235), "", Table2[[#This Row],[unique_id]])</f>
@@ -29014,7 +29014,7 @@
         <v>27</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F262" s="6" t="str">
         <f>IF(ISBLANK(E262), "", Table2[[#This Row],[unique_id]])</f>
@@ -33199,7 +33199,7 @@
         <v>26</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D324" s="58" t="s">
         <v>149</v>
@@ -33299,7 +33299,7 @@
         <v>26</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D325" s="58" t="s">
         <v>149</v>
@@ -33399,7 +33399,7 @@
         <v>26</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D326" s="58" t="s">
         <v>149</v>
@@ -33499,7 +33499,7 @@
         <v>26</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D327" s="58" t="s">
         <v>149</v>
@@ -33599,7 +33599,7 @@
         <v>26</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D328" s="58" t="s">
         <v>149</v>
@@ -33699,7 +33699,7 @@
         <v>26</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D329" s="58" t="s">
         <v>149</v>
@@ -33799,7 +33799,7 @@
         <v>26</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D330" s="58" t="s">
         <v>149</v>
@@ -33890,7 +33890,7 @@
         <v>26</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D331" s="58" t="s">
         <v>149</v>
@@ -33990,7 +33990,7 @@
         <v>26</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D332" s="58" t="s">
         <v>149</v>
@@ -34090,7 +34090,7 @@
         <v>26</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D333" s="58" t="s">
         <v>149</v>
@@ -34190,7 +34190,7 @@
         <v>26</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D334" s="58" t="s">
         <v>149</v>
@@ -34290,7 +34290,7 @@
         <v>26</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D335" s="58" t="s">
         <v>149</v>
@@ -34390,20 +34390,20 @@
         <v>26</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D336" s="58" t="s">
         <v>149</v>
       </c>
       <c r="E336" s="58" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F336" s="59" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_macbookflo_outlet_plug</v>
       </c>
       <c r="G336" s="58" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H336" s="58" t="s">
         <v>752</v>
@@ -34422,7 +34422,7 @@
       <c r="P336" s="58"/>
       <c r="Q336" s="58"/>
       <c r="R336" s="58" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S336" s="58" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -34486,20 +34486,20 @@
         <v>26</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D337" s="58" t="s">
         <v>149</v>
       </c>
       <c r="E337" s="58" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F337" s="59" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_macminimeg_outlet_plug</v>
       </c>
       <c r="G337" s="79" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H337" s="58" t="s">
         <v>752</v>
@@ -34518,7 +34518,7 @@
       <c r="P337" s="58"/>
       <c r="Q337" s="58"/>
       <c r="R337" s="58" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S337" s="58" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -34582,7 +34582,7 @@
         <v>26</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D338" s="58" t="s">
         <v>149</v>
@@ -34682,7 +34682,7 @@
         <v>26</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D339" s="58" t="s">
         <v>149</v>
@@ -34782,7 +34782,7 @@
         <v>26</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D340" s="58" t="s">
         <v>149</v>
@@ -34814,7 +34814,7 @@
       <c r="P340" s="58"/>
       <c r="Q340" s="58"/>
       <c r="R340" s="58" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S340" s="58" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F98BF06-9883-0C41-84F6-14681F0476DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B756E624-B5E9-A542-8A45-E47DD26C1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5750,7 +5750,7 @@
   <dimension ref="A1:AZ731"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AO41" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AW63" sqref="AW63"/>
+      <selection activeCell="AW62" sqref="AW62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B756E624-B5E9-A542-8A45-E47DD26C1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73108F-259A-0943-9598-46888A5FCDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11784,12 +11784,12 @@
       <c r="AV58" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="AW58" s="6" t="s">
-        <v>857</v>
+      <c r="AW58" s="28" t="s">
+        <v>1235</v>
       </c>
       <c r="AZ58" s="6" t="str">
         <f>IF(AND(ISBLANK(AV58), ISBLANK(AW58)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV58), "", _xlfn.CONCAT("[""mac"", """, AV58, """]")), IF(ISBLANK(AW58), "", _xlfn.CONCAT(", [""ip"", """, AW58, """]")), "]"))</f>
-        <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.90"]]</v>
+        <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.93"]]</v>
       </c>
     </row>
     <row r="59" spans="1:52" ht="16" customHeight="1">
@@ -11900,14 +11900,14 @@
       <c r="AV59" s="58" t="s">
         <v>1228</v>
       </c>
-      <c r="AW59" s="58" t="s">
-        <v>1229</v>
+      <c r="AW59" s="28" t="s">
+        <v>857</v>
       </c>
       <c r="AX59" s="58"/>
       <c r="AY59" s="58"/>
       <c r="AZ59" s="59" t="str">
         <f>IF(AND(ISBLANK(AV59), ISBLANK(AW59)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV59), "", _xlfn.CONCAT("[""mac"", """, AV59, """]")), IF(ISBLANK(AW59), "", _xlfn.CONCAT(", [""ip"", """, AW59, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:59:03"], ["ip", "10.0.6.91"]]</v>
+        <v>[["mac", "5c:a6:e6:25:59:03"], ["ip", "10.0.6.90"]]</v>
       </c>
     </row>
     <row r="60" spans="1:52" ht="16" customHeight="1">
@@ -12020,14 +12020,14 @@
       <c r="AV60" s="58" t="s">
         <v>1247</v>
       </c>
-      <c r="AW60" s="79" t="s">
-        <v>1230</v>
+      <c r="AW60" s="28" t="s">
+        <v>1229</v>
       </c>
       <c r="AX60" s="58"/>
       <c r="AY60" s="58"/>
       <c r="AZ60" s="59" t="str">
         <f>IF(AND(ISBLANK(AV60), ISBLANK(AW60)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV60), "", _xlfn.CONCAT("[""mac"", """, AV60, """]")), IF(ISBLANK(AW60), "", _xlfn.CONCAT(", [""ip"", """, AW60, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:56:a7"], ["ip", "10.0.6.92"]]</v>
+        <v>[["mac", "5c:a6:e6:25:56:a7"], ["ip", "10.0.6.91"]]</v>
       </c>
     </row>
     <row r="61" spans="1:52" ht="16" customHeight="1">
@@ -12140,14 +12140,14 @@
       <c r="AV61" s="58" t="s">
         <v>1244</v>
       </c>
-      <c r="AW61" s="79" t="s">
-        <v>1235</v>
+      <c r="AW61" s="28" t="s">
+        <v>1230</v>
       </c>
       <c r="AX61" s="58"/>
       <c r="AY61" s="58"/>
       <c r="AZ61" s="59" t="str">
         <f>IF(AND(ISBLANK(AV61), ISBLANK(AW61)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV61), "", _xlfn.CONCAT("[""mac"", """, AV61, """]")), IF(ISBLANK(AW61), "", _xlfn.CONCAT(", [""ip"", """, AW61, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:59:c0"], ["ip", "10.0.6.93"]]</v>
+        <v>[["mac", "5c:a6:e6:25:59:c0"], ["ip", "10.0.6.92"]]</v>
       </c>
     </row>
     <row r="62" spans="1:52" ht="16" customHeight="1">
@@ -12230,7 +12230,7 @@
       <c r="AV62" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="AW62" s="7" t="s">
+      <c r="AW62" s="28" t="s">
         <v>1249</v>
       </c>
       <c r="AX62" s="7"/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73108F-259A-0943-9598-46888A5FCDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A42C3C-49EB-D64F-A35D-9AF0020B62E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB62EFC-6D52-964B-A4A1-6F2E23E8EE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D49C5D-3CDC-764B-80DD-B519A3D02915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5749,8 +5749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76009FE9-3190-0D4A-AA84-4B6989BC68CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2DCDBF-01F2-1F48-9E1F-893F09981A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5716,8 +5716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ734"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView tabSelected="1" topLeftCell="AJ278" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AR303" sqref="AR303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -30970,7 +30970,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR302" s="6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AS302" s="6" t="s">
         <v>203</v>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2DCDBF-01F2-1F48-9E1F-893F09981A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3983922-5B98-A940-8865-F7FD7902CC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3857,12 +3857,6 @@
     <t>Zigbee Repeaters</t>
   </si>
   <si>
-    <t>ada_tablet</t>
-  </si>
-  <si>
-    <t>template_ada_tablet_proxy</t>
-  </si>
-  <si>
     <t>Ada Tablet</t>
   </si>
   <si>
@@ -3870,6 +3864,12 @@
   </si>
   <si>
     <t>mdi:tablet</t>
+  </si>
+  <si>
+    <t>template_ada_tablet_outlet_proxy</t>
+  </si>
+  <si>
+    <t>ada_tablet_outlet</t>
   </si>
 </sst>
 </file>
@@ -5716,8 +5716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ278" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AR303" sqref="AR303"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E302" sqref="E302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -30807,14 +30807,14 @@
         <v>134</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="F301" s="6" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
-        <v>template_ada_tablet_proxy</v>
+        <v>template_ada_tablet_outlet_proxy</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="H301" s="6" t="s">
         <v>750</v>
@@ -30893,14 +30893,14 @@
         <v>134</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="F302" s="6" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_tablet</v>
+        <v>ada_tablet_outlet</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="H302" s="6" t="s">
         <v>750</v>
@@ -30929,8 +30929,8 @@
       </c>
       <c r="T302" s="9" t="str">
         <f>_xlfn.CONCAT("power_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_current_consumption", CHAR(10), "energy_sensor_id: sensor.", Table2[[#This Row],[unique_id]], "_total_consumption", CHAR(10))</f>
-        <v xml:space="preserve">power_sensor_id: sensor.ada_tablet_current_consumption
-energy_sensor_id: sensor.ada_tablet_total_consumption
+        <v xml:space="preserve">power_sensor_id: sensor.ada_tablet_outlet_current_consumption
+energy_sensor_id: sensor.ada_tablet_outlet_total_consumption
 </v>
       </c>
       <c r="V302" s="8"/>
@@ -30938,7 +30938,7 @@
       <c r="X302" s="8"/>
       <c r="Y302" s="8"/>
       <c r="AD302" s="6" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="AF302" s="8"/>
       <c r="AH302" s="6" t="str">
@@ -30960,7 +30960,7 @@
         <v>440</v>
       </c>
       <c r="AO302" s="6" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="AP302" s="12" t="s">
         <v>439</v>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3983922-5B98-A940-8865-F7FD7902CC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B075FB-9457-054A-B7FD-EFF6D48A9E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5348,7 +5348,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AZ734" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
   <autoFilter ref="A3:AZ734" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AZ734">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AZ734">
     <sortCondition ref="A3:A734"/>
   </sortState>
   <tableColumns count="52">
@@ -5716,8 +5716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E302" sqref="E302"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -30804,7 +30804,7 @@
         <v>1217</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>1257</v>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B075FB-9457-054A-B7FD-EFF6D48A9E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F115DF-6520-1E4C-B9C3-3CE2278BFFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5955" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5989" uniqueCount="1269">
   <si>
     <t>index</t>
   </si>
@@ -3857,6 +3857,9 @@
     <t>Zigbee Repeaters</t>
   </si>
   <si>
+    <t>ada_tablet</t>
+  </si>
+  <si>
     <t>Ada Tablet</t>
   </si>
   <si>
@@ -3870,6 +3873,33 @@
   </si>
   <si>
     <t>ada_tablet_outlet</t>
+  </si>
+  <si>
+    <t>Pixel Tablet</t>
+  </si>
+  <si>
+    <t>32:4c:57:35:08:8d</t>
+  </si>
+  <si>
+    <t>10.0.4.57</t>
+  </si>
+  <si>
+    <t>10.0.4.58</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>edwin_tablet</t>
+  </si>
+  <si>
+    <t>Edwin Tablet</t>
+  </si>
+  <si>
+    <t>edwin-tablet</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3974,7 +4004,7 @@
       <name val="Open sans"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4009,6 +4039,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3992E5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4114,7 +4156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4273,6 +4315,60 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5322,16 +5418,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3992E5"/>
+      <color rgb="FF006EBF"/>
+      <color rgb="FF0432FF"/>
       <color rgb="FFF251FF"/>
-      <color rgb="FF0432FF"/>
       <color rgb="FF03FF15"/>
-      <color rgb="FF006EBF"/>
       <color rgb="FF569CDB"/>
       <color rgb="FF4276A7"/>
       <color rgb="FF5CAEDB"/>
       <color rgb="FF5092CD"/>
       <color rgb="FF9AB9EF"/>
-      <color rgb="FF3992E5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5346,10 +5442,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AZ734" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
-  <autoFilter ref="A3:AZ734" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AZ734">
-    <sortCondition ref="A3:A734"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AZ736" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
+  <autoFilter ref="A3:AZ736" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AZ736">
+    <sortCondition ref="A3:A736"/>
   </sortState>
   <tableColumns count="52">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="51"/>
@@ -5714,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ734"/>
+  <dimension ref="A1:AZ736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A361" sqref="A361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -9616,7 +9712,7 @@
         <v>Office</v>
       </c>
       <c r="AV43" s="6"/>
-      <c r="AW43" s="6"/>
+      <c r="AW43" s="62"/>
       <c r="AZ43" s="6" t="str">
         <f>IF(AND(ISBLANK(AV43), ISBLANK(AW43)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV43), "", _xlfn.CONCAT("[""mac"", """, AV43, """]")), IF(ISBLANK(AW43), "", _xlfn.CONCAT(", [""ip"", """, AW43, """]")), "]"))</f>
         <v/>
@@ -12160,6 +12256,7 @@
       <c r="I74" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="J74" s="62"/>
       <c r="T74" s="6"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
@@ -12730,6 +12827,7 @@
       <c r="I80" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="J80" s="62"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6" t="s">
         <v>625</v>
@@ -12989,6 +13087,7 @@
       <c r="W83" s="8"/>
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
+      <c r="AB83" s="62"/>
       <c r="AF83" s="8"/>
       <c r="AH83" s="6" t="str">
         <f>IF(ISBLANK(AG83),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C83), "/", E83, "/config"))</f>
@@ -16558,7 +16657,7 @@
       <c r="P124" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q124" s="6" t="s">
+      <c r="Q124" s="62" t="s">
         <v>1134</v>
       </c>
       <c r="R124" s="6" t="str">
@@ -16655,7 +16754,7 @@
       <c r="P125" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q125" s="6" t="s">
+      <c r="Q125" s="62" t="s">
         <v>1134</v>
       </c>
       <c r="R125" s="6" t="str">
@@ -17687,16 +17786,16 @@
       <c r="A136" s="6">
         <v>1628</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="E136" s="6" t="str">
+      <c r="E136" s="62" t="str">
         <f>SUBSTITUTE(Table2[[#This Row],[device_name]], "-", "_")</f>
         <v>parents_main_bulb_1</v>
       </c>
@@ -17704,9 +17803,14 @@
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_main_bulb_1</v>
       </c>
-      <c r="H136" s="6" t="s">
+      <c r="G136" s="62"/>
+      <c r="H136" s="62" t="s">
         <v>139</v>
       </c>
+      <c r="I136" s="62"/>
+      <c r="K136" s="62"/>
+      <c r="L136" s="62"/>
+      <c r="M136" s="62"/>
       <c r="O136" s="8" t="s">
         <v>1184</v>
       </c>
@@ -17784,16 +17888,16 @@
       <c r="A137" s="6">
         <v>1629</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="E137" s="6" t="str">
+      <c r="E137" s="62" t="str">
         <f>SUBSTITUTE(Table2[[#This Row],[device_name]], "-", "_")</f>
         <v>parents_main_bulb_2</v>
       </c>
@@ -17801,9 +17905,14 @@
         <f>IF(ISBLANK(E137), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_main_bulb_2</v>
       </c>
-      <c r="H137" s="6" t="s">
+      <c r="G137" s="62"/>
+      <c r="H137" s="62" t="s">
         <v>139</v>
       </c>
+      <c r="I137" s="62"/>
+      <c r="K137" s="62"/>
+      <c r="L137" s="62"/>
+      <c r="M137" s="62"/>
       <c r="O137" s="8" t="s">
         <v>1184</v>
       </c>
@@ -18176,38 +18285,39 @@
       <c r="A141" s="6">
         <v>1633</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="62" t="s">
         <v>355</v>
       </c>
       <c r="F141" s="6" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_main</v>
       </c>
-      <c r="G141" s="6" t="s">
+      <c r="G141" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="H141" s="6" t="s">
+      <c r="H141" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="I141" s="6" t="s">
+      <c r="I141" s="62" t="s">
         <v>132</v>
       </c>
       <c r="J141" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="K141" s="6" t="s">
+      <c r="K141" s="62" t="s">
         <v>1010</v>
       </c>
-      <c r="M141" s="6" t="s">
+      <c r="L141" s="62"/>
+      <c r="M141" s="62" t="s">
         <v>136</v>
       </c>
       <c r="T141" s="6"/>
@@ -18277,10 +18387,10 @@
       <c r="C142" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="E142" s="6" t="str">
+      <c r="E142" s="62" t="str">
         <f>SUBSTITUTE(Table2[[#This Row],[device_name]], "-", "_")</f>
         <v>kitchen_main_bulb_1</v>
       </c>
@@ -18288,9 +18398,14 @@
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_main_bulb_1</v>
       </c>
-      <c r="H142" s="6" t="s">
+      <c r="G142" s="62"/>
+      <c r="H142" s="62" t="s">
         <v>139</v>
       </c>
+      <c r="I142" s="62"/>
+      <c r="K142" s="62"/>
+      <c r="L142" s="62"/>
+      <c r="M142" s="62"/>
       <c r="O142" s="8" t="s">
         <v>1184</v>
       </c>
@@ -20527,6 +20642,7 @@
         <f>IF(ISBLANK(E165), "", Table2[[#This Row],[unique_id]])</f>
         <v>garden_pedestals_bulb_1</v>
       </c>
+      <c r="G165" s="62"/>
       <c r="H165" s="6" t="s">
         <v>139</v>
       </c>
@@ -20624,6 +20740,7 @@
         <f>IF(ISBLANK(E166), "", Table2[[#This Row],[unique_id]])</f>
         <v>garden_pedestals_bulb_2</v>
       </c>
+      <c r="G166" s="62"/>
       <c r="H166" s="6" t="s">
         <v>139</v>
       </c>
@@ -24237,6 +24354,7 @@
       <c r="AL213" s="34"/>
       <c r="AM213" s="6"/>
       <c r="AN213" s="8"/>
+      <c r="AP213" s="62"/>
       <c r="AV213" s="6"/>
       <c r="AW213" s="6"/>
       <c r="AZ213" s="6" t="str">
@@ -24299,6 +24417,7 @@
       <c r="AL214" s="34"/>
       <c r="AM214" s="6"/>
       <c r="AN214" s="8"/>
+      <c r="AP214" s="62"/>
       <c r="AV214" s="6"/>
       <c r="AW214" s="6"/>
       <c r="AZ214" s="6" t="str">
@@ -24356,6 +24475,7 @@
       <c r="AL215" s="34"/>
       <c r="AM215" s="6"/>
       <c r="AN215" s="8"/>
+      <c r="AP215" s="62"/>
       <c r="AV215" s="6"/>
       <c r="AW215" s="6"/>
       <c r="AZ215" s="6" t="str">
@@ -24422,6 +24542,7 @@
       <c r="AL216" s="34"/>
       <c r="AM216" s="6"/>
       <c r="AN216" s="8"/>
+      <c r="AP216" s="62"/>
       <c r="AV216" s="6"/>
       <c r="AW216" s="6"/>
       <c r="AZ216" s="6" t="str">
@@ -24488,6 +24609,7 @@
       <c r="AL217" s="34"/>
       <c r="AM217" s="6"/>
       <c r="AN217" s="8"/>
+      <c r="AP217" s="62"/>
       <c r="AV217" s="6"/>
       <c r="AW217" s="6"/>
       <c r="AZ217" s="6" t="str">
@@ -24554,6 +24676,7 @@
       <c r="AL218" s="34"/>
       <c r="AM218" s="6"/>
       <c r="AN218" s="8"/>
+      <c r="AP218" s="62"/>
       <c r="AV218" s="6"/>
       <c r="AW218" s="6"/>
       <c r="AZ218" s="6" t="str">
@@ -25762,6 +25885,7 @@
       <c r="AL237" s="34"/>
       <c r="AM237" s="6"/>
       <c r="AN237" s="8"/>
+      <c r="AP237" s="62"/>
       <c r="AV237" s="6"/>
       <c r="AW237" s="6"/>
       <c r="AZ237" s="6" t="str">
@@ -26357,7 +26481,7 @@
       <c r="AM246" s="6"/>
       <c r="AN246" s="8"/>
       <c r="AV246" s="6"/>
-      <c r="AW246" s="6"/>
+      <c r="AW246" s="62"/>
       <c r="AZ246" s="6" t="str">
         <f>IF(AND(ISBLANK(AV246), ISBLANK(AW246)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV246), "", _xlfn.CONCAT("[""mac"", """, AV246, """]")), IF(ISBLANK(AW246), "", _xlfn.CONCAT(", [""ip"", """, AW246, """]")), "]"))</f>
         <v/>
@@ -26525,7 +26649,7 @@
         <v>172</v>
       </c>
       <c r="AV248" s="6"/>
-      <c r="AW248" s="6"/>
+      <c r="AW248" s="62"/>
       <c r="AZ248" s="6" t="str">
         <f>IF(AND(ISBLANK(AV248), ISBLANK(AW248)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV248), "", _xlfn.CONCAT("[""mac"", """, AV248, """]")), IF(ISBLANK(AW248), "", _xlfn.CONCAT(", [""ip"", """, AW248, """]")), "]"))</f>
         <v/>
@@ -27121,7 +27245,7 @@
         <f>IF(ISBLANK(E256), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_garden_repeater_linkquality_percentage</v>
       </c>
-      <c r="G256" s="6" t="s">
+      <c r="G256" s="62" t="s">
         <v>1051</v>
       </c>
       <c r="H256" s="6" t="s">
@@ -27179,7 +27303,7 @@
         <f>IF(ISBLANK(E257), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_kitchen_fan_outlet_linkquality_percentage</v>
       </c>
-      <c r="G257" s="6" t="s">
+      <c r="G257" s="62" t="s">
         <v>928</v>
       </c>
       <c r="H257" s="6" t="s">
@@ -28891,6 +29015,7 @@
         <f>IF(ISBLANK(AG281),  "", _xlfn.CONCAT(LOWER(C281), "/", E281))</f>
         <v/>
       </c>
+      <c r="AJ281" s="62"/>
       <c r="AK281" s="6"/>
       <c r="AL281" s="34"/>
       <c r="AM281" s="6"/>
@@ -29287,6 +29412,7 @@
         <f>IF(ISBLANK(AG285),  "", _xlfn.CONCAT(LOWER(C285), "/", E285))</f>
         <v/>
       </c>
+      <c r="AJ285" s="62"/>
       <c r="AK285" s="6"/>
       <c r="AL285" s="34"/>
       <c r="AM285" s="6"/>
@@ -29804,7 +29930,7 @@
       </c>
     </row>
     <row r="291" spans="1:52" ht="16" customHeight="1">
-      <c r="A291" s="6">
+      <c r="A291" s="62">
         <v>2564</v>
       </c>
       <c r="B291" s="6" t="s">
@@ -30002,7 +30128,7 @@
       </c>
     </row>
     <row r="293" spans="1:52" ht="16" customHeight="1">
-      <c r="A293" s="6">
+      <c r="A293" s="62">
         <v>2566</v>
       </c>
       <c r="B293" s="6" t="s">
@@ -30200,7 +30326,7 @@
       </c>
     </row>
     <row r="295" spans="1:52" ht="16" customHeight="1">
-      <c r="A295" s="6">
+      <c r="A295" s="62">
         <v>2568</v>
       </c>
       <c r="B295" s="6" t="s">
@@ -30398,7 +30524,7 @@
       </c>
     </row>
     <row r="297" spans="1:52" ht="16" customHeight="1">
-      <c r="A297" s="6">
+      <c r="A297" s="62">
         <v>2570</v>
       </c>
       <c r="B297" s="6" t="s">
@@ -30463,6 +30589,7 @@
         <f>IF(ISBLANK(AG297),  "", _xlfn.CONCAT(LOWER(C297), "/", E297))</f>
         <v/>
       </c>
+      <c r="AJ297" s="62"/>
       <c r="AK297" s="6"/>
       <c r="AL297" s="34"/>
       <c r="AM297" s="6"/>
@@ -30596,7 +30723,7 @@
       </c>
     </row>
     <row r="299" spans="1:52" ht="16" customHeight="1">
-      <c r="A299" s="6">
+      <c r="A299" s="62">
         <v>2572</v>
       </c>
       <c r="B299" s="6" t="s">
@@ -30794,7 +30921,7 @@
       </c>
     </row>
     <row r="301" spans="1:52" ht="16" customHeight="1">
-      <c r="A301" s="6">
+      <c r="A301" s="62">
         <v>2574</v>
       </c>
       <c r="B301" s="6" t="s">
@@ -30807,14 +30934,14 @@
         <v>149</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="F301" s="6" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_ada_tablet_outlet_proxy</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H301" s="6" t="s">
         <v>750</v>
@@ -30893,14 +31020,14 @@
         <v>134</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F302" s="6" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada_tablet_outlet</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H302" s="6" t="s">
         <v>750</v>
@@ -30938,7 +31065,7 @@
       <c r="X302" s="8"/>
       <c r="Y302" s="8"/>
       <c r="AD302" s="6" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="AF302" s="8"/>
       <c r="AH302" s="6" t="str">
@@ -30960,7 +31087,7 @@
         <v>440</v>
       </c>
       <c r="AO302" s="6" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="AP302" s="12" t="s">
         <v>439</v>
@@ -30990,7 +31117,7 @@
       </c>
     </row>
     <row r="303" spans="1:52" ht="16" customHeight="1">
-      <c r="A303" s="6">
+      <c r="A303" s="62">
         <v>2576</v>
       </c>
       <c r="B303" s="6" t="s">
@@ -31178,7 +31305,7 @@
       </c>
     </row>
     <row r="305" spans="1:52" ht="16" customHeight="1">
-      <c r="A305" s="6">
+      <c r="A305" s="62">
         <v>2578</v>
       </c>
       <c r="B305" s="6" t="s">
@@ -31366,7 +31493,7 @@
       </c>
     </row>
     <row r="307" spans="1:52" ht="16" customHeight="1">
-      <c r="A307" s="6">
+      <c r="A307" s="62">
         <v>2580</v>
       </c>
       <c r="B307" s="6" t="s">
@@ -31564,7 +31691,7 @@
       </c>
     </row>
     <row r="309" spans="1:52" ht="16" customHeight="1">
-      <c r="A309" s="6">
+      <c r="A309" s="62">
         <v>2582</v>
       </c>
       <c r="B309" s="6" t="s">
@@ -31762,7 +31889,7 @@
       </c>
     </row>
     <row r="311" spans="1:52" ht="16" customHeight="1">
-      <c r="A311" s="6">
+      <c r="A311" s="62">
         <v>2584</v>
       </c>
       <c r="B311" s="6" t="s">
@@ -31948,7 +32075,7 @@
       </c>
     </row>
     <row r="313" spans="1:52" ht="16" customHeight="1">
-      <c r="A313" s="6">
+      <c r="A313" s="62">
         <v>2586</v>
       </c>
       <c r="B313" s="6" t="s">
@@ -32051,7 +32178,7 @@
       </c>
     </row>
     <row r="314" spans="1:52" ht="16" customHeight="1">
-      <c r="A314" s="6">
+      <c r="A314" s="62">
         <v>2587</v>
       </c>
       <c r="B314" s="6" t="s">
@@ -32154,7 +32281,7 @@
       </c>
     </row>
     <row r="315" spans="1:52" ht="16" customHeight="1">
-      <c r="A315" s="6">
+      <c r="A315" s="62">
         <v>2588</v>
       </c>
       <c r="B315" s="6" t="s">
@@ -32342,7 +32469,7 @@
       </c>
     </row>
     <row r="317" spans="1:52" ht="16" customHeight="1">
-      <c r="A317" s="6">
+      <c r="A317" s="62">
         <v>2590</v>
       </c>
       <c r="B317" s="6" t="s">
@@ -32438,7 +32565,7 @@
       </c>
     </row>
     <row r="318" spans="1:52" ht="16" customHeight="1">
-      <c r="A318" s="6">
+      <c r="A318" s="62">
         <v>2591</v>
       </c>
       <c r="B318" s="6" t="s">
@@ -32534,7 +32661,7 @@
       </c>
     </row>
     <row r="319" spans="1:52" ht="16" customHeight="1">
-      <c r="A319" s="6">
+      <c r="A319" s="62">
         <v>2592</v>
       </c>
       <c r="B319" s="6" t="s">
@@ -32678,6 +32805,7 @@
       <c r="AL320" s="34"/>
       <c r="AM320" s="6"/>
       <c r="AN320" s="8"/>
+      <c r="AP320" s="62"/>
       <c r="AV320" s="6"/>
       <c r="AW320" s="6"/>
       <c r="AZ320" s="6" t="str">
@@ -33153,7 +33281,7 @@
         <v>1028</v>
       </c>
       <c r="AV327" s="6"/>
-      <c r="AW327" s="6"/>
+      <c r="AW327" s="62"/>
       <c r="AZ327" s="6" t="str">
         <f>IF(AND(ISBLANK(AV327), ISBLANK(AW327)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV327), "", _xlfn.CONCAT("[""mac"", """, AV327, """]")), IF(ISBLANK(AW327), "", _xlfn.CONCAT(", [""ip"", """, AW327, """]")), "]"))</f>
         <v/>
@@ -33419,7 +33547,7 @@
         <v>221</v>
       </c>
       <c r="AV331" s="6"/>
-      <c r="AW331" s="6"/>
+      <c r="AW331" s="62"/>
       <c r="AZ331" s="6" t="str">
         <f>IF(AND(ISBLANK(AV331), ISBLANK(AW331)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV331), "", _xlfn.CONCAT("[""mac"", """, AV331, """]")), IF(ISBLANK(AW331), "", _xlfn.CONCAT(", [""ip"", """, AW331, """]")), "]"))</f>
         <v/>
@@ -33551,7 +33679,7 @@
         <v>437</v>
       </c>
       <c r="AV333" s="6"/>
-      <c r="AW333" s="6"/>
+      <c r="AW333" s="62"/>
       <c r="AZ333" s="6" t="str">
         <f>IF(AND(ISBLANK(AV333), ISBLANK(AW333)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV333), "", _xlfn.CONCAT("[""mac"", """, AV333, """]")), IF(ISBLANK(AW333), "", _xlfn.CONCAT(", [""ip"", """, AW333, """]")), "]"))</f>
         <v/>
@@ -33617,7 +33745,7 @@
         <v>510</v>
       </c>
       <c r="AV334" s="6"/>
-      <c r="AW334" s="6"/>
+      <c r="AW334" s="62"/>
       <c r="AZ334" s="6" t="str">
         <f>IF(AND(ISBLANK(AV334), ISBLANK(AW334)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV334), "", _xlfn.CONCAT("[""mac"", """, AV334, """]")), IF(ISBLANK(AW334), "", _xlfn.CONCAT(", [""ip"", """, AW334, """]")), "]"))</f>
         <v/>
@@ -33683,7 +33811,7 @@
         <v>709</v>
       </c>
       <c r="AV335" s="6"/>
-      <c r="AW335" s="6"/>
+      <c r="AW335" s="62"/>
       <c r="AZ335" s="6" t="str">
         <f>IF(AND(ISBLANK(AV335), ISBLANK(AW335)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV335), "", _xlfn.CONCAT("[""mac"", """, AV335, """]")), IF(ISBLANK(AW335), "", _xlfn.CONCAT(", [""ip"", """, AW335, """]")), "]"))</f>
         <v/>
@@ -33740,7 +33868,7 @@
       <c r="AM336" s="6"/>
       <c r="AN336" s="8"/>
       <c r="AV336" s="6"/>
-      <c r="AW336" s="6"/>
+      <c r="AW336" s="62"/>
       <c r="AZ336" s="6" t="str">
         <f>IF(AND(ISBLANK(AV336), ISBLANK(AW336)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV336), "", _xlfn.CONCAT("[""mac"", """, AV336, """]")), IF(ISBLANK(AW336), "", _xlfn.CONCAT(", [""ip"", """, AW336, """]")), "]"))</f>
         <v/>
@@ -33797,7 +33925,7 @@
       <c r="AM337" s="6"/>
       <c r="AN337" s="8"/>
       <c r="AV337" s="6"/>
-      <c r="AW337" s="6"/>
+      <c r="AW337" s="62"/>
       <c r="AZ337" s="6" t="str">
         <f>IF(AND(ISBLANK(AV337), ISBLANK(AW337)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV337), "", _xlfn.CONCAT("[""mac"", """, AV337, """]")), IF(ISBLANK(AW337), "", _xlfn.CONCAT(", [""ip"", """, AW337, """]")), "]"))</f>
         <v/>
@@ -33962,7 +34090,7 @@
       <c r="AM340" s="6"/>
       <c r="AN340" s="8"/>
       <c r="AV340" s="6"/>
-      <c r="AW340" s="6"/>
+      <c r="AW340" s="62"/>
       <c r="AZ340" s="6" t="str">
         <f>IF(AND(ISBLANK(AV340), ISBLANK(AW340)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV340), "", _xlfn.CONCAT("[""mac"", """, AV340, """]")), IF(ISBLANK(AW340), "", _xlfn.CONCAT(", [""ip"", """, AW340, """]")), "]"))</f>
         <v/>
@@ -35163,61 +35291,91 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="357" spans="1:52" ht="16" customHeight="1">
-      <c r="A357" s="6">
+    <row r="357" spans="1:52" s="56" customFormat="1" ht="16" customHeight="1">
+      <c r="A357" s="56">
         <v>2656</v>
       </c>
-      <c r="B357" s="6" t="s">
+      <c r="B357" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C357" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="D357" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E357" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F357" s="6" t="str">
+      <c r="C357" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D357" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E357" s="56" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F357" s="56" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
-      </c>
-      <c r="G357" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="H357" s="6" t="s">
+        <v>ada_tablet</v>
+      </c>
+      <c r="G357" s="56" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H357" s="56" t="s">
         <v>1119</v>
       </c>
-      <c r="I357" s="6" t="s">
+      <c r="I357" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="M357" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="N357" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="O357" s="54"/>
-      <c r="T357" s="6"/>
-      <c r="V357" s="8"/>
-      <c r="W357" s="8"/>
-      <c r="X357" s="8"/>
-      <c r="Y357" s="8"/>
-      <c r="AF357" s="8"/>
-      <c r="AI357" s="6" t="str">
+      <c r="M357" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="N357" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="O357" s="57"/>
+      <c r="R357" s="72"/>
+      <c r="V357" s="57"/>
+      <c r="W357" s="57"/>
+      <c r="X357" s="57"/>
+      <c r="Y357" s="57"/>
+      <c r="Z357" s="57"/>
+      <c r="AF357" s="57"/>
+      <c r="AH357" s="56" t="str">
+        <f>IF(ISBLANK(AG357),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C357), "/", E357, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AI357" s="56" t="str">
         <f>IF(ISBLANK(AG357),  "", _xlfn.CONCAT(LOWER(C357), "/", E357))</f>
         <v/>
       </c>
-      <c r="AK357" s="6"/>
-      <c r="AL357" s="34"/>
-      <c r="AM357" s="6"/>
-      <c r="AN357" s="8"/>
-      <c r="AV357" s="6"/>
-      <c r="AW357" s="10"/>
-      <c r="AZ357" s="6" t="str">
+      <c r="AL357" s="58"/>
+      <c r="AM357" s="56" t="str">
+        <f>IF(OR(ISBLANK(AV357), ISBLANK(AW357)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]],  "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>google-ada-tablet</v>
+      </c>
+      <c r="AN357" s="57" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AO357" s="56" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AP357" s="56" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AQ357" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS357" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU357" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV357" s="59" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AW357" s="73" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AX357" s="60"/>
+      <c r="AY357" s="60"/>
+      <c r="AZ357" s="56" t="str">
         <f>IF(AND(ISBLANK(AV357), ISBLANK(AW357)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV357), "", _xlfn.CONCAT("[""mac"", """, AV357, """]")), IF(ISBLANK(AW357), "", _xlfn.CONCAT(", [""ip"", """, AW357, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "32:4c:57:35:08:8d"], ["ip", "10.0.4.57"]]</v>
       </c>
     </row>
     <row r="358" spans="1:52" ht="16" customHeight="1">
@@ -35228,20 +35386,20 @@
         <v>26</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>832</v>
+        <v>629</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>145</v>
+        <v>409</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>912</v>
+        <v>408</v>
       </c>
       <c r="F358" s="6" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lg_webos_smart_tv</v>
+        <v>column_break</v>
       </c>
       <c r="G358" s="6" t="s">
-        <v>187</v>
+        <v>405</v>
       </c>
       <c r="H358" s="6" t="s">
         <v>1119</v>
@@ -35250,85 +35408,55 @@
         <v>144</v>
       </c>
       <c r="M358" s="6" t="s">
-        <v>136</v>
+        <v>406</v>
       </c>
       <c r="N358" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="R358" s="47"/>
+        <v>407</v>
+      </c>
+      <c r="O358" s="54"/>
       <c r="T358" s="6"/>
       <c r="V358" s="8"/>
       <c r="W358" s="8"/>
       <c r="X358" s="8"/>
       <c r="Y358" s="8"/>
       <c r="AF358" s="8"/>
-      <c r="AH358" s="6" t="str">
-        <f>IF(ISBLANK(AG358),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C358), "/", E358, "/config"))</f>
-        <v/>
-      </c>
       <c r="AI358" s="6" t="str">
         <f>IF(ISBLANK(AG358),  "", _xlfn.CONCAT(LOWER(C358), "/", E358))</f>
         <v/>
       </c>
       <c r="AK358" s="6"/>
       <c r="AL358" s="34"/>
-      <c r="AM358" s="6" t="str">
-        <f>IF(OR(ISBLANK(AV358), ISBLANK(AW358)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>lg-lounge-tv</v>
-      </c>
-      <c r="AN358" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="AO358" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="AP358" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="AQ358" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="AS358" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AU358" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="AV358" s="13" t="s">
-        <v>833</v>
-      </c>
-      <c r="AW358" s="12" t="s">
-        <v>834</v>
-      </c>
-      <c r="AX358" s="12"/>
-      <c r="AY358" s="12"/>
+      <c r="AM358" s="6"/>
+      <c r="AN358" s="8"/>
+      <c r="AV358" s="6"/>
+      <c r="AW358" s="62"/>
       <c r="AZ358" s="6" t="str">
         <f>IF(AND(ISBLANK(AV358), ISBLANK(AW358)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV358), "", _xlfn.CONCAT("[""mac"", """, AV358, """]")), IF(ISBLANK(AW358), "", _xlfn.CONCAT(", [""ip"", """, AW358, """]")), "]"))</f>
-        <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
-      </c>
-    </row>
-    <row r="359" spans="1:52" ht="16" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:52" s="61" customFormat="1" ht="16" customHeight="1">
       <c r="A359" s="6">
         <v>2658</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>831</v>
+        <v>26</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>296</v>
+        <v>832</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>297</v>
+        <v>912</v>
       </c>
       <c r="F359" s="6" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_tv</v>
+        <v>lg_webos_smart_tv</v>
       </c>
       <c r="G359" s="6" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="H359" s="6" t="s">
         <v>1119</v>
@@ -35336,18 +35464,34 @@
       <c r="I359" s="6" t="s">
         <v>144</v>
       </c>
+      <c r="J359" s="6"/>
+      <c r="K359" s="6"/>
+      <c r="L359" s="6"/>
       <c r="M359" s="6" t="s">
         <v>136</v>
       </c>
       <c r="N359" s="6" t="s">
         <v>302</v>
       </c>
+      <c r="O359" s="8"/>
+      <c r="P359" s="6"/>
+      <c r="Q359" s="6"/>
+      <c r="R359" s="47"/>
+      <c r="S359" s="6"/>
       <c r="T359" s="6"/>
+      <c r="U359" s="6"/>
       <c r="V359" s="8"/>
       <c r="W359" s="8"/>
       <c r="X359" s="8"/>
       <c r="Y359" s="8"/>
+      <c r="Z359" s="8"/>
+      <c r="AA359" s="6"/>
+      <c r="AB359" s="6"/>
+      <c r="AC359" s="6"/>
+      <c r="AD359" s="6"/>
+      <c r="AE359" s="6"/>
       <c r="AF359" s="8"/>
+      <c r="AG359" s="6"/>
       <c r="AH359" s="6" t="str">
         <f>IF(ISBLANK(AG359),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C359), "/", E359, "/config"))</f>
         <v/>
@@ -35356,44 +35500,47 @@
         <f>IF(ISBLANK(AG359),  "", _xlfn.CONCAT(LOWER(C359), "/", E359))</f>
         <v/>
       </c>
+      <c r="AJ359" s="6"/>
       <c r="AK359" s="6"/>
       <c r="AL359" s="34"/>
       <c r="AM359" s="6" t="str">
         <f>IF(OR(ISBLANK(AV359), ISBLANK(AW359)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>apple-parents-tv</v>
+        <v>lg-lounge-tv</v>
       </c>
       <c r="AN359" s="8" t="s">
-        <v>515</v>
+        <v>835</v>
       </c>
       <c r="AO359" s="6" t="s">
         <v>448</v>
       </c>
       <c r="AP359" s="6" t="s">
-        <v>516</v>
+        <v>836</v>
       </c>
       <c r="AQ359" s="6" t="s">
-        <v>296</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="AR359" s="6"/>
       <c r="AS359" s="6" t="s">
-        <v>201</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AT359" s="6"/>
       <c r="AU359" s="6" t="s">
         <v>547</v>
       </c>
       <c r="AV359" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="AW359" s="11" t="s">
-        <v>596</v>
+        <v>833</v>
+      </c>
+      <c r="AW359" s="12" t="s">
+        <v>834</v>
       </c>
       <c r="AX359" s="12"/>
       <c r="AY359" s="12"/>
       <c r="AZ359" s="6" t="str">
         <f>IF(AND(ISBLANK(AV359), ISBLANK(AW359)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV359), "", _xlfn.CONCAT("[""mac"", """, AV359, """]")), IF(ISBLANK(AW359), "", _xlfn.CONCAT(", [""ip"", """, AW359, """]")), "]"))</f>
-        <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
-      </c>
-    </row>
-    <row r="360" spans="1:52" ht="16" customHeight="1">
+        <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
+      </c>
+    </row>
+    <row r="360" spans="1:52" s="61" customFormat="1" ht="16" customHeight="1">
       <c r="A360" s="6">
         <v>2659</v>
       </c>
@@ -35401,20 +35548,20 @@
         <v>831</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>1026</v>
+        <v>297</v>
       </c>
       <c r="F360" s="6" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_tv</v>
+        <v>parents_tv</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>1027</v>
+        <v>295</v>
       </c>
       <c r="H360" s="6" t="s">
         <v>1119</v>
@@ -35422,18 +35569,34 @@
       <c r="I360" s="6" t="s">
         <v>144</v>
       </c>
+      <c r="J360" s="6"/>
+      <c r="K360" s="6"/>
+      <c r="L360" s="6"/>
       <c r="M360" s="6" t="s">
         <v>136</v>
       </c>
       <c r="N360" s="6" t="s">
         <v>302</v>
       </c>
+      <c r="O360" s="8"/>
+      <c r="P360" s="6"/>
+      <c r="Q360" s="6"/>
+      <c r="R360" s="6"/>
+      <c r="S360" s="6"/>
       <c r="T360" s="6"/>
+      <c r="U360" s="6"/>
       <c r="V360" s="8"/>
       <c r="W360" s="8"/>
       <c r="X360" s="8"/>
       <c r="Y360" s="8"/>
+      <c r="Z360" s="8"/>
+      <c r="AA360" s="6"/>
+      <c r="AB360" s="6"/>
+      <c r="AC360" s="6"/>
+      <c r="AD360" s="6"/>
+      <c r="AE360" s="6"/>
       <c r="AF360" s="8"/>
+      <c r="AG360" s="6"/>
       <c r="AH360" s="6" t="str">
         <f>IF(ISBLANK(AG360),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C360), "/", E360, "/config"))</f>
         <v/>
@@ -35442,97 +35605,131 @@
         <f>IF(ISBLANK(AG360),  "", _xlfn.CONCAT(LOWER(C360), "/", E360))</f>
         <v/>
       </c>
+      <c r="AJ360" s="6"/>
       <c r="AK360" s="6"/>
       <c r="AL360" s="34"/>
       <c r="AM360" s="6" t="str">
         <f>IF(OR(ISBLANK(AV360), ISBLANK(AW360)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-office-tv</v>
+        <v>apple-parents-tv</v>
       </c>
       <c r="AN360" s="8" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AO360" s="6" t="s">
         <v>448</v>
       </c>
       <c r="AP360" s="6" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="AQ360" s="6" t="s">
-        <v>246</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="AR360" s="6"/>
       <c r="AS360" s="6" t="s">
-        <v>222</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AT360" s="6"/>
       <c r="AU360" s="6" t="s">
         <v>547</v>
       </c>
       <c r="AV360" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="AW360" s="12" t="s">
-        <v>589</v>
+        <v>518</v>
+      </c>
+      <c r="AW360" s="63" t="s">
+        <v>596</v>
       </c>
       <c r="AX360" s="12"/>
       <c r="AY360" s="12"/>
       <c r="AZ360" s="6" t="str">
         <f>IF(AND(ISBLANK(AV360), ISBLANK(AW360)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV360), "", _xlfn.CONCAT("[""mac"", """, AV360, """]")), IF(ISBLANK(AW360), "", _xlfn.CONCAT(", [""ip"", """, AW360, """]")), "]"))</f>
-        <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
-      </c>
-    </row>
-    <row r="361" spans="1:52" ht="16" customHeight="1">
-      <c r="A361" s="6">
+        <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
+      </c>
+    </row>
+    <row r="361" spans="1:52" s="65" customFormat="1" ht="16" customHeight="1">
+      <c r="A361" s="65">
         <v>2660</v>
       </c>
-      <c r="B361" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="D361" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E361" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F361" s="6" t="str">
+      <c r="B361" s="65" t="s">
+        <v>831</v>
+      </c>
+      <c r="C361" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="D361" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E361" s="65" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F361" s="65" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
-      </c>
-      <c r="G361" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="H361" s="6" t="s">
+        <v>edwin_tablet</v>
+      </c>
+      <c r="G361" s="65" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H361" s="65" t="s">
         <v>1119</v>
       </c>
-      <c r="I361" s="6" t="s">
+      <c r="I361" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="M361" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="N361" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="T361" s="6"/>
-      <c r="V361" s="8"/>
-      <c r="W361" s="8"/>
-      <c r="X361" s="8"/>
-      <c r="Y361" s="8"/>
-      <c r="AF361" s="8"/>
-      <c r="AI361" s="6" t="str">
+      <c r="M361" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="N361" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="O361" s="66"/>
+      <c r="R361" s="67"/>
+      <c r="V361" s="66"/>
+      <c r="W361" s="66"/>
+      <c r="X361" s="66"/>
+      <c r="Y361" s="66"/>
+      <c r="Z361" s="66"/>
+      <c r="AF361" s="66"/>
+      <c r="AH361" s="65" t="str">
+        <f>IF(ISBLANK(AG361),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C361), "/", E361, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AI361" s="65" t="str">
         <f>IF(ISBLANK(AG361),  "", _xlfn.CONCAT(LOWER(C361), "/", E361))</f>
         <v/>
       </c>
-      <c r="AK361" s="6"/>
-      <c r="AL361" s="34"/>
-      <c r="AM361" s="6"/>
-      <c r="AN361" s="8"/>
-      <c r="AV361" s="6"/>
-      <c r="AW361" s="10"/>
-      <c r="AZ361" s="6" t="str">
+      <c r="AL361" s="68"/>
+      <c r="AM361" s="65" t="str">
+        <f>IF(OR(ISBLANK(AV361), ISBLANK(AW361)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]],  "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>google-edwin-tablet</v>
+      </c>
+      <c r="AN361" s="66" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AO361" s="65" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AP361" s="65" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AQ361" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS361" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU361" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV361" s="69" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AW361" s="70" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AX361" s="71"/>
+      <c r="AY361" s="71"/>
+      <c r="AZ361" s="65" t="str">
         <f>IF(AND(ISBLANK(AV361), ISBLANK(AW361)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV361), "", _xlfn.CONCAT("[""mac"", """, AV361, """]")), IF(ISBLANK(AW361), "", _xlfn.CONCAT(", [""ip"", """, AW361, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "X"], ["ip", "10.0.4.58"]]</v>
       </c>
     </row>
     <row r="362" spans="1:52" ht="16" customHeight="1">
@@ -35540,23 +35737,23 @@
         <v>2661</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>26</v>
+        <v>831</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>1107</v>
+        <v>1026</v>
       </c>
       <c r="F362" s="6" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_arc</v>
+        <v>office_tv</v>
       </c>
       <c r="G362" s="6" t="s">
-        <v>1110</v>
+        <v>1027</v>
       </c>
       <c r="H362" s="6" t="s">
         <v>1119</v>
@@ -35570,14 +35767,7 @@
       <c r="N362" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="O362" s="8" t="s">
-        <v>1184</v>
-      </c>
-      <c r="R362" s="47"/>
-      <c r="T362" s="6" t="str">
-        <f>_xlfn.CONCAT("name: ", Table2[[#This Row],[friendly_name]])</f>
-        <v>name: Lounge Arc</v>
-      </c>
+      <c r="T362" s="6"/>
       <c r="V362" s="8"/>
       <c r="W362" s="8"/>
       <c r="X362" s="8"/>
@@ -35595,38 +35785,37 @@
       <c r="AL362" s="34"/>
       <c r="AM362" s="6" t="str">
         <f>IF(OR(ISBLANK(AV362), ISBLANK(AW362)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-lounge-arc</v>
+        <v>google-office-tv</v>
       </c>
       <c r="AN362" s="8" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="AO362" s="6" t="s">
-        <v>1244</v>
+        <v>448</v>
       </c>
       <c r="AP362" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="AQ362" s="6" t="str">
-        <f>IF(OR(ISBLANK(AV362), ISBLANK(AW362)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>Sonos</v>
+        <v>507</v>
+      </c>
+      <c r="AQ362" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="AS362" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="AU362" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="AV362" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="AW362" s="11" t="s">
-        <v>839</v>
+      <c r="AV362" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AW362" s="12" t="s">
+        <v>589</v>
       </c>
       <c r="AX362" s="12"/>
       <c r="AY362" s="12"/>
       <c r="AZ362" s="6" t="str">
         <f>IF(AND(ISBLANK(AV362), ISBLANK(AW362)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV362), "", _xlfn.CONCAT("[""mac"", """, AV362, """]")), IF(ISBLANK(AW362), "", _xlfn.CONCAT(", [""ip"", """, AW362, """]")), "]"))</f>
-        <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
+        <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
     <row r="363" spans="1:52" ht="16" customHeight="1">
@@ -35634,23 +35823,23 @@
         <v>2662</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>831</v>
+        <v>26</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>1217</v>
+        <v>629</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>149</v>
+        <v>409</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>1241</v>
+        <v>408</v>
       </c>
       <c r="F363" s="6" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
-        <v>template_kitchen_move_proxy</v>
+        <v>column_break</v>
       </c>
       <c r="G363" s="6" t="s">
-        <v>1111</v>
+        <v>405</v>
       </c>
       <c r="H363" s="6" t="s">
         <v>1119</v>
@@ -35658,34 +35847,18 @@
       <c r="I363" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O363" s="8" t="s">
-        <v>1184</v>
-      </c>
-      <c r="P363" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q363" s="6" t="s">
-        <v>1134</v>
-      </c>
-      <c r="R363" s="47" t="s">
-        <v>1119</v>
-      </c>
-      <c r="S363" s="6" t="str">
-        <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
-        <v>Kitchen Audio Visual Devices</v>
-      </c>
-      <c r="T363" s="9" t="s">
-        <v>1247</v>
-      </c>
+      <c r="M363" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="N363" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="T363" s="6"/>
       <c r="V363" s="8"/>
       <c r="W363" s="8"/>
       <c r="X363" s="8"/>
       <c r="Y363" s="8"/>
       <c r="AF363" s="8"/>
-      <c r="AH363" s="6" t="str">
-        <f>IF(ISBLANK(AG363),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C363), "/", E363, "/config"))</f>
-        <v/>
-      </c>
       <c r="AI363" s="6" t="str">
         <f>IF(ISBLANK(AG363),  "", _xlfn.CONCAT(LOWER(C363), "/", E363))</f>
         <v/>
@@ -35694,22 +35867,12 @@
       <c r="AL363" s="34"/>
       <c r="AM363" s="6"/>
       <c r="AN363" s="8"/>
-      <c r="AO363" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP363" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="AQ363" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AS363" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="AV363" s="6"/>
-      <c r="AW363" s="11"/>
-      <c r="AX363" s="12"/>
-      <c r="AY363" s="12"/>
+      <c r="AW363" s="10"/>
+      <c r="AZ363" s="6" t="str">
+        <f>IF(AND(ISBLANK(AV363), ISBLANK(AW363)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV363), "", _xlfn.CONCAT("[""mac"", """, AV363, """]")), IF(ISBLANK(AW363), "", _xlfn.CONCAT(", [""ip"", """, AW363, """]")), "]"))</f>
+        <v/>
+      </c>
     </row>
     <row r="364" spans="1:52" ht="16" customHeight="1">
       <c r="A364" s="6">
@@ -35724,15 +35887,15 @@
       <c r="D364" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E364" s="6" t="s">
-        <v>1106</v>
+      <c r="E364" s="62" t="s">
+        <v>1107</v>
       </c>
       <c r="F364" s="6" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_move</v>
+        <v>lounge_arc</v>
       </c>
       <c r="G364" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H364" s="6" t="s">
         <v>1119</v>
@@ -35749,22 +35912,10 @@
       <c r="O364" s="8" t="s">
         <v>1184</v>
       </c>
-      <c r="P364" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q364" s="6" t="s">
-        <v>1134</v>
-      </c>
-      <c r="R364" s="47" t="s">
-        <v>1119</v>
-      </c>
-      <c r="S364" s="6" t="str">
-        <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
-        <v>Kitchen Audio Visual Devices</v>
-      </c>
+      <c r="R364" s="47"/>
       <c r="T364" s="6" t="str">
         <f>_xlfn.CONCAT("name: ", Table2[[#This Row],[friendly_name]])</f>
-        <v>name: Kitchen Move</v>
+        <v>name: Lounge Arc</v>
       </c>
       <c r="V364" s="8"/>
       <c r="W364" s="8"/>
@@ -35783,38 +35934,38 @@
       <c r="AL364" s="34"/>
       <c r="AM364" s="6" t="str">
         <f>IF(OR(ISBLANK(AV364), ISBLANK(AW364)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-kitchen-move</v>
+        <v>sonos-lounge-arc</v>
       </c>
       <c r="AN364" s="8" t="s">
         <v>454</v>
       </c>
       <c r="AO364" s="6" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="AP364" s="6" t="s">
-        <v>456</v>
+        <v>837</v>
       </c>
       <c r="AQ364" s="6" t="str">
         <f>IF(OR(ISBLANK(AV364), ISBLANK(AW364)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>Sonos</v>
       </c>
       <c r="AS364" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AU364" s="6" t="s">
         <v>547</v>
       </c>
       <c r="AV364" s="6" t="s">
-        <v>459</v>
+        <v>838</v>
       </c>
       <c r="AW364" s="11" t="s">
-        <v>623</v>
+        <v>839</v>
       </c>
       <c r="AX364" s="12"/>
       <c r="AY364" s="12"/>
       <c r="AZ364" s="6" t="str">
         <f>IF(AND(ISBLANK(AV364), ISBLANK(AW364)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV364), "", _xlfn.CONCAT("[""mac"", """, AV364, """]")), IF(ISBLANK(AW364), "", _xlfn.CONCAT(", [""ip"", """, AW364, """]")), "]"))</f>
-        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
+        <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
     <row r="365" spans="1:52" ht="16" customHeight="1">
@@ -35822,35 +35973,29 @@
         <v>2664</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>26</v>
+        <v>831</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>189</v>
+        <v>1217</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>1105</v>
+        <v>1241</v>
       </c>
       <c r="F365" s="6" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_five</v>
+        <v>template_kitchen_move_proxy</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H365" s="6" t="s">
         <v>1119</v>
       </c>
       <c r="I365" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="M365" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="N365" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="O365" s="8" t="s">
         <v>1184</v>
@@ -35868,9 +36013,8 @@
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Kitchen Audio Visual Devices</v>
       </c>
-      <c r="T365" s="6" t="str">
-        <f>_xlfn.CONCAT("name: ", Table2[[#This Row],[friendly_name]])</f>
-        <v>name: Kitchen Five</v>
+      <c r="T365" s="9" t="s">
+        <v>1247</v>
       </c>
       <c r="V365" s="8"/>
       <c r="W365" s="8"/>
@@ -35885,66 +36029,50 @@
         <f>IF(ISBLANK(AG365),  "", _xlfn.CONCAT(LOWER(C365), "/", E365))</f>
         <v/>
       </c>
+      <c r="AJ365" s="62"/>
       <c r="AK365" s="6"/>
       <c r="AL365" s="34"/>
-      <c r="AM365" s="6" t="str">
-        <f>IF(OR(ISBLANK(AV365), ISBLANK(AW365)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-kitchen-five</v>
-      </c>
-      <c r="AN365" s="8" t="s">
-        <v>454</v>
-      </c>
+      <c r="AM365" s="6"/>
+      <c r="AN365" s="8"/>
       <c r="AO365" s="6" t="s">
-        <v>1245</v>
+        <v>145</v>
       </c>
       <c r="AP365" s="6" t="s">
-        <v>1246</v>
-      </c>
-      <c r="AQ365" s="6" t="str">
-        <f>IF(OR(ISBLANK(AV365), ISBLANK(AW365)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>Sonos</v>
+        <v>456</v>
+      </c>
+      <c r="AQ365" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="AS365" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AU365" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="AV365" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="AW365" s="11" t="s">
-        <v>624</v>
-      </c>
+      <c r="AV365" s="6"/>
+      <c r="AW365" s="11"/>
       <c r="AX365" s="12"/>
       <c r="AY365" s="12"/>
-      <c r="AZ365" s="6" t="str">
-        <f>IF(AND(ISBLANK(AV365), ISBLANK(AW365)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV365), "", _xlfn.CONCAT("[""mac"", """, AV365, """]")), IF(ISBLANK(AW365), "", _xlfn.CONCAT(", [""ip"", """, AW365, """]")), "]"))</f>
-        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
-      </c>
     </row>
     <row r="366" spans="1:52" ht="16" customHeight="1">
       <c r="A366" s="6">
         <v>2665</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>831</v>
+        <v>26</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>1217</v>
+        <v>189</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E366" s="6" t="s">
-        <v>1242</v>
+        <v>145</v>
+      </c>
+      <c r="E366" s="62" t="s">
+        <v>1106</v>
       </c>
       <c r="F366" s="6" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
-        <v>template_parents_move_proxy</v>
+        <v>kitchen_move</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H366" s="6" t="s">
         <v>1119</v>
@@ -35952,6 +36080,12 @@
       <c r="I366" s="6" t="s">
         <v>144</v>
       </c>
+      <c r="M366" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N366" s="6" t="s">
+        <v>302</v>
+      </c>
       <c r="O366" s="8" t="s">
         <v>1184</v>
       </c>
@@ -35966,10 +36100,11 @@
       </c>
       <c r="S366" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
-        <v>Parents Audio Visual Devices</v>
-      </c>
-      <c r="T366" s="9" t="s">
-        <v>1247</v>
+        <v>Kitchen Audio Visual Devices</v>
+      </c>
+      <c r="T366" s="6" t="str">
+        <f>_xlfn.CONCAT("name: ", Table2[[#This Row],[friendly_name]])</f>
+        <v>name: Kitchen Move</v>
       </c>
       <c r="V366" s="8"/>
       <c r="W366" s="8"/>
@@ -35986,24 +36121,41 @@
       </c>
       <c r="AK366" s="6"/>
       <c r="AL366" s="34"/>
-      <c r="AM366" s="6"/>
-      <c r="AN366" s="8"/>
+      <c r="AM366" s="6" t="str">
+        <f>IF(OR(ISBLANK(AV366), ISBLANK(AW366)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>sonos-kitchen-move</v>
+      </c>
+      <c r="AN366" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="AO366" s="6" t="s">
-        <v>145</v>
+        <v>1243</v>
       </c>
       <c r="AP366" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="AQ366" s="6" t="s">
-        <v>189</v>
+      <c r="AQ366" s="6" t="str">
+        <f>IF(OR(ISBLANK(AV366), ISBLANK(AW366)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>Sonos</v>
       </c>
       <c r="AS366" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AV366" s="6"/>
-      <c r="AW366" s="12"/>
+        <v>215</v>
+      </c>
+      <c r="AU366" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV366" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW366" s="11" t="s">
+        <v>623</v>
+      </c>
       <c r="AX366" s="12"/>
       <c r="AY366" s="12"/>
+      <c r="AZ366" s="6" t="str">
+        <f>IF(AND(ISBLANK(AV366), ISBLANK(AW366)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV366), "", _xlfn.CONCAT("[""mac"", """, AV366, """]")), IF(ISBLANK(AW366), "", _xlfn.CONCAT(", [""ip"", """, AW366, """]")), "]"))</f>
+        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
+      </c>
     </row>
     <row r="367" spans="1:52" ht="16" customHeight="1">
       <c r="A367" s="6">
@@ -36018,15 +36170,15 @@
       <c r="D367" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E367" s="6" t="s">
-        <v>1104</v>
+      <c r="E367" s="62" t="s">
+        <v>1105</v>
       </c>
       <c r="F367" s="6" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_move</v>
+        <v>kitchen_five</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H367" s="6" t="s">
         <v>1119</v>
@@ -36054,11 +36206,11 @@
       </c>
       <c r="S367" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
-        <v>Parents Audio Visual Devices</v>
+        <v>Kitchen Audio Visual Devices</v>
       </c>
       <c r="T367" s="6" t="str">
         <f>_xlfn.CONCAT("name: ", Table2[[#This Row],[friendly_name]])</f>
-        <v>name: Parents Move</v>
+        <v>name: Kitchen Five</v>
       </c>
       <c r="V367" s="8"/>
       <c r="W367" s="8"/>
@@ -36077,38 +36229,38 @@
       <c r="AL367" s="34"/>
       <c r="AM367" s="6" t="str">
         <f>IF(OR(ISBLANK(AV367), ISBLANK(AW367)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-parents-move</v>
+        <v>sonos-kitchen-five</v>
       </c>
       <c r="AN367" s="8" t="s">
         <v>454</v>
       </c>
       <c r="AO367" s="6" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="AP367" s="6" t="s">
-        <v>456</v>
+        <v>1246</v>
       </c>
       <c r="AQ367" s="6" t="str">
         <f>IF(OR(ISBLANK(AV367), ISBLANK(AW367)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>Sonos</v>
       </c>
       <c r="AS367" s="6" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AU367" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="AV367" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="AW367" s="12" t="s">
-        <v>622</v>
+      <c r="AV367" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW367" s="11" t="s">
+        <v>624</v>
       </c>
       <c r="AX367" s="12"/>
       <c r="AY367" s="12"/>
       <c r="AZ367" s="6" t="str">
         <f>IF(AND(ISBLANK(AV367), ISBLANK(AW367)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV367), "", _xlfn.CONCAT("[""mac"", """, AV367, """]")), IF(ISBLANK(AW367), "", _xlfn.CONCAT(", [""ip"", """, AW367, """]")), "]"))</f>
-        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
+        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
     <row r="368" spans="1:52" ht="16" customHeight="1">
@@ -36119,20 +36271,20 @@
         <v>831</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>296</v>
+        <v>1217</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>968</v>
+        <v>1242</v>
       </c>
       <c r="F368" s="6" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_tv_speaker</v>
+        <v>template_parents_move_proxy</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>969</v>
+        <v>1113</v>
       </c>
       <c r="H368" s="6" t="s">
         <v>1119</v>
@@ -36140,13 +36292,25 @@
       <c r="I368" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M368" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="N368" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="T368" s="6"/>
+      <c r="O368" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P368" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q368" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="R368" s="47" t="s">
+        <v>1119</v>
+      </c>
+      <c r="S368" s="6" t="str">
+        <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
+        <v>Parents Audio Visual Devices</v>
+      </c>
+      <c r="T368" s="9" t="s">
+        <v>1247</v>
+      </c>
       <c r="V368" s="8"/>
       <c r="W368" s="8"/>
       <c r="X368" s="8"/>
@@ -36162,81 +36326,84 @@
       </c>
       <c r="AK368" s="6"/>
       <c r="AL368" s="34"/>
-      <c r="AM368" s="6" t="str">
-        <f>IF(OR(ISBLANK(AV368), ISBLANK(AW368)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>apple-parents-tv-speaker</v>
-      </c>
-      <c r="AN368" s="8" t="s">
-        <v>515</v>
-      </c>
+      <c r="AM368" s="6"/>
+      <c r="AN368" s="8"/>
       <c r="AO368" s="6" t="s">
-        <v>970</v>
+        <v>145</v>
       </c>
       <c r="AP368" s="6" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="AQ368" s="6" t="s">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="AS368" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AU368" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="AV368" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="AW368" s="11" t="s">
-        <v>597</v>
-      </c>
+      <c r="AV368" s="6"/>
+      <c r="AW368" s="63"/>
       <c r="AX368" s="12"/>
       <c r="AY368" s="12"/>
-      <c r="AZ368" s="6" t="str">
-        <f>IF(AND(ISBLANK(AV368), ISBLANK(AW368)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV368), "", _xlfn.CONCAT("[""mac"", """, AV368, """]")), IF(ISBLANK(AW368), "", _xlfn.CONCAT(", [""ip"", """, AW368, """]")), "]"))</f>
-        <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
-      </c>
     </row>
     <row r="369" spans="1:52" ht="16" customHeight="1">
       <c r="A369" s="6">
-        <v>2700</v>
+        <v>2668</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>369</v>
+        <v>145</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>989</v>
+        <v>1104</v>
       </c>
       <c r="F369" s="6" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
-        <v>back_door_lock_security</v>
+        <v>parents_move</v>
       </c>
       <c r="G369" s="6" t="s">
-        <v>985</v>
+        <v>1113</v>
       </c>
       <c r="H369" s="6" t="s">
-        <v>958</v>
+        <v>1119</v>
       </c>
       <c r="I369" s="6" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="M369" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="T369" s="6"/>
+      <c r="N369" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="O369" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P369" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q369" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="R369" s="47" t="s">
+        <v>1119</v>
+      </c>
+      <c r="S369" s="6" t="str">
+        <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
+        <v>Parents Audio Visual Devices</v>
+      </c>
+      <c r="T369" s="6" t="str">
+        <f>_xlfn.CONCAT("name: ", Table2[[#This Row],[friendly_name]])</f>
+        <v>name: Parents Move</v>
+      </c>
       <c r="V369" s="8"/>
       <c r="W369" s="8"/>
       <c r="X369" s="8"/>
       <c r="Y369" s="8"/>
-      <c r="AD369" s="6" t="s">
-        <v>1000</v>
-      </c>
       <c r="AF369" s="8"/>
       <c r="AH369" s="6" t="str">
         <f>IF(ISBLANK(AG369),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C369), "/", E369, "/config"))</f>
@@ -36248,45 +36415,76 @@
       </c>
       <c r="AK369" s="6"/>
       <c r="AL369" s="34"/>
-      <c r="AM369" s="6"/>
-      <c r="AN369" s="8"/>
-      <c r="AV369" s="13"/>
-      <c r="AW369" s="12"/>
+      <c r="AM369" s="6" t="str">
+        <f>IF(OR(ISBLANK(AV369), ISBLANK(AW369)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>sonos-parents-move</v>
+      </c>
+      <c r="AN369" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="AO369" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AP369" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AQ369" s="6" t="str">
+        <f>IF(OR(ISBLANK(AV369), ISBLANK(AW369)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>Sonos</v>
+      </c>
+      <c r="AS369" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU369" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV369" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW369" s="63" t="s">
+        <v>622</v>
+      </c>
       <c r="AX369" s="12"/>
       <c r="AY369" s="12"/>
       <c r="AZ369" s="6" t="str">
         <f>IF(AND(ISBLANK(AV369), ISBLANK(AW369)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV369), "", _xlfn.CONCAT("[""mac"", """, AV369, """]")), IF(ISBLANK(AW369), "", _xlfn.CONCAT(", [""ip"", """, AW369, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
     <row r="370" spans="1:52" ht="16" customHeight="1">
       <c r="A370" s="6">
-        <v>2701</v>
+        <v>2669</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>26</v>
+        <v>831</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>1002</v>
+        <v>968</v>
       </c>
       <c r="F370" s="6" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
-        <v>template_back_door_state</v>
+        <v>parents_tv_speaker</v>
       </c>
       <c r="G370" s="6" t="s">
-        <v>329</v>
+        <v>969</v>
       </c>
       <c r="H370" s="6" t="s">
-        <v>958</v>
+        <v>1119</v>
       </c>
       <c r="I370" s="6" t="s">
-        <v>219</v>
+        <v>144</v>
+      </c>
+      <c r="M370" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N370" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="T370" s="6"/>
       <c r="V370" s="8"/>
@@ -36304,39 +36502,63 @@
       </c>
       <c r="AK370" s="6"/>
       <c r="AL370" s="34"/>
-      <c r="AM370" s="6"/>
-      <c r="AN370" s="8"/>
-      <c r="AV370" s="13"/>
-      <c r="AW370" s="12"/>
+      <c r="AM370" s="6" t="str">
+        <f>IF(OR(ISBLANK(AV370), ISBLANK(AW370)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>apple-parents-tv-speaker</v>
+      </c>
+      <c r="AN370" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="AO370" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="AP370" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="AQ370" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS370" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU370" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV370" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="AW370" s="11" t="s">
+        <v>597</v>
+      </c>
       <c r="AX370" s="12"/>
       <c r="AY370" s="12"/>
       <c r="AZ370" s="6" t="str">
         <f>IF(AND(ISBLANK(AV370), ISBLANK(AW370)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV370), "", _xlfn.CONCAT("[""mac"", """, AV370, """]")), IF(ISBLANK(AW370), "", _xlfn.CONCAT(", [""ip"", """, AW370, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
     <row r="371" spans="1:52" ht="16" customHeight="1">
       <c r="A371" s="6">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>946</v>
+        <v>151</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>952</v>
+        <v>369</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>953</v>
+        <v>989</v>
       </c>
       <c r="F371" s="6" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
-        <v>back_door_lock</v>
+        <v>back_door_lock_security</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="H371" s="6" t="s">
         <v>958</v>
@@ -36349,12 +36571,11 @@
       </c>
       <c r="T371" s="6"/>
       <c r="V371" s="8"/>
-      <c r="W371" s="8" t="s">
-        <v>701</v>
-      </c>
+      <c r="W371" s="8"/>
       <c r="X371" s="8"/>
-      <c r="Y371" s="14" t="s">
-        <v>1130</v>
+      <c r="Y371" s="8"/>
+      <c r="AD371" s="6" t="s">
+        <v>1000</v>
       </c>
       <c r="AF371" s="8"/>
       <c r="AH371" s="6" t="str">
@@ -36367,55 +36588,39 @@
       </c>
       <c r="AK371" s="6"/>
       <c r="AL371" s="34"/>
-      <c r="AM371" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="AN371" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="AO371" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="AP371" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="AQ371" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="AS371" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="AV371" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="AW371" s="6"/>
+      <c r="AM371" s="6"/>
+      <c r="AN371" s="8"/>
+      <c r="AV371" s="13"/>
+      <c r="AW371" s="12"/>
+      <c r="AX371" s="12"/>
+      <c r="AY371" s="12"/>
       <c r="AZ371" s="6" t="str">
         <f>IF(AND(ISBLANK(AV371), ISBLANK(AW371)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV371), "", _xlfn.CONCAT("[""mac"", """, AV371, """]")), IF(ISBLANK(AW371), "", _xlfn.CONCAT(", [""ip"", """, AW371, """]")), "]"))</f>
-        <v>[["mac", "0x000d6f0011274420"]]</v>
+        <v/>
       </c>
     </row>
     <row r="372" spans="1:52" ht="16" customHeight="1">
       <c r="A372" s="6">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>410</v>
+        <v>151</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="F372" s="6" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
-        <v>template_back_door_sensor_contact_last</v>
+        <v>template_back_door_state</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>1003</v>
+        <v>329</v>
       </c>
       <c r="H372" s="6" t="s">
         <v>958</v>
@@ -36423,18 +36628,11 @@
       <c r="I372" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="M372" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="T372" s="6"/>
       <c r="V372" s="8"/>
-      <c r="W372" s="8" t="s">
-        <v>701</v>
-      </c>
+      <c r="W372" s="8"/>
       <c r="X372" s="8"/>
-      <c r="Y372" s="14" t="s">
-        <v>1130</v>
-      </c>
+      <c r="Y372" s="8"/>
       <c r="AF372" s="8"/>
       <c r="AH372" s="6" t="str">
         <f>IF(ISBLANK(AG372),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C372), "/", E372, "/config"))</f>
@@ -36444,140 +36642,124 @@
         <f>IF(ISBLANK(AG372),  "", _xlfn.CONCAT(LOWER(C372), "/", E372))</f>
         <v/>
       </c>
+      <c r="AJ372" s="62"/>
       <c r="AK372" s="6"/>
       <c r="AL372" s="34"/>
-      <c r="AM372" s="6" t="s">
-        <v>979</v>
-      </c>
-      <c r="AN372" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="AO372" s="9" t="s">
-        <v>976</v>
-      </c>
-      <c r="AP372" s="9" t="s">
-        <v>977</v>
-      </c>
-      <c r="AQ372" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="AS372" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="AV372" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="AW372" s="6"/>
+      <c r="AM372" s="6"/>
+      <c r="AN372" s="8"/>
+      <c r="AV372" s="13"/>
+      <c r="AW372" s="63"/>
+      <c r="AX372" s="12"/>
+      <c r="AY372" s="12"/>
       <c r="AZ372" s="6" t="str">
         <f>IF(AND(ISBLANK(AV372), ISBLANK(AW372)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV372), "", _xlfn.CONCAT("[""mac"", """, AV372, """]")), IF(ISBLANK(AW372), "", _xlfn.CONCAT(", [""ip"", """, AW372, """]")), "]"))</f>
-        <v>[["mac", "0x00124b0029119f9a"]]</v>
+        <v/>
       </c>
     </row>
     <row r="373" spans="1:52" ht="16" customHeight="1">
-      <c r="A373" s="36">
-        <v>2704</v>
-      </c>
-      <c r="B373" s="36" t="s">
-        <v>831</v>
-      </c>
-      <c r="C373" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D373" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="E373" s="36"/>
-      <c r="F373" s="36" t="str">
+      <c r="A373" s="6">
+        <v>2702</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="F373" s="6" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="G373" s="36" t="s">
+        <v>back_door_lock</v>
+      </c>
+      <c r="G373" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H373" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="H373" s="36" t="s">
-        <v>972</v>
-      </c>
-      <c r="I373" s="36" t="s">
+      <c r="I373" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J373" s="36"/>
-      <c r="K373" s="36"/>
-      <c r="L373" s="36"/>
-      <c r="M373" s="36"/>
-      <c r="N373" s="36"/>
-      <c r="O373" s="37"/>
-      <c r="P373" s="36"/>
-      <c r="Q373" s="36"/>
-      <c r="R373" s="36"/>
-      <c r="S373" s="36"/>
-      <c r="T373" s="36"/>
-      <c r="U373" s="36"/>
-      <c r="V373" s="37"/>
-      <c r="W373" s="37"/>
-      <c r="X373" s="37"/>
-      <c r="Y373" s="37"/>
-      <c r="Z373" s="37"/>
-      <c r="AA373" s="36"/>
-      <c r="AB373" s="36"/>
-      <c r="AC373" s="36"/>
-      <c r="AD373" s="36"/>
-      <c r="AE373" s="36"/>
-      <c r="AF373" s="37"/>
-      <c r="AG373" s="36"/>
-      <c r="AH373" s="36" t="str">
+      <c r="M373" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="T373" s="6"/>
+      <c r="V373" s="8"/>
+      <c r="W373" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="X373" s="8"/>
+      <c r="Y373" s="14" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AF373" s="8"/>
+      <c r="AH373" s="6" t="str">
         <f>IF(ISBLANK(AG373),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C373), "/", E373, "/config"))</f>
         <v/>
       </c>
-      <c r="AI373" s="36" t="str">
+      <c r="AI373" s="6" t="str">
         <f>IF(ISBLANK(AG373),  "", _xlfn.CONCAT(LOWER(C373), "/", E373))</f>
         <v/>
       </c>
-      <c r="AJ373" s="36"/>
-      <c r="AK373" s="36"/>
-      <c r="AL373" s="38"/>
-      <c r="AM373" s="36"/>
-      <c r="AN373" s="37"/>
-      <c r="AO373" s="36"/>
-      <c r="AP373" s="39"/>
-      <c r="AQ373" s="36"/>
-      <c r="AR373" s="36"/>
-      <c r="AS373" s="36"/>
-      <c r="AT373" s="36"/>
-      <c r="AU373" s="36"/>
-      <c r="AV373" s="36"/>
-      <c r="AW373" s="36"/>
-      <c r="AX373" s="36"/>
-      <c r="AY373" s="36"/>
-      <c r="AZ373" s="36" t="str">
+      <c r="AK373" s="6"/>
+      <c r="AL373" s="34"/>
+      <c r="AM373" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="AN373" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="AO373" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="AP373" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="AQ373" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="AS373" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="AV373" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="AW373" s="6"/>
+      <c r="AZ373" s="6" t="str">
         <f>IF(AND(ISBLANK(AV373), ISBLANK(AW373)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV373), "", _xlfn.CONCAT("[""mac"", """, AV373, """]")), IF(ISBLANK(AW373), "", _xlfn.CONCAT(", [""ip"", """, AW373, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x000d6f0011274420"]]</v>
       </c>
     </row>
     <row r="374" spans="1:52" ht="16" customHeight="1">
       <c r="A374" s="6">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>151</v>
+        <v>410</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>369</v>
+        <v>149</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="F374" s="6" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
-        <v>front_door_lock_security</v>
+        <v>template_back_door_sensor_contact_last</v>
       </c>
       <c r="G374" s="6" t="s">
-        <v>985</v>
+        <v>1003</v>
       </c>
       <c r="H374" s="6" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="I374" s="6" t="s">
         <v>219</v>
@@ -36587,11 +36769,12 @@
       </c>
       <c r="T374" s="6"/>
       <c r="V374" s="8"/>
-      <c r="W374" s="8"/>
+      <c r="W374" s="8" t="s">
+        <v>701</v>
+      </c>
       <c r="X374" s="8"/>
-      <c r="Y374" s="8"/>
-      <c r="AD374" s="6" t="s">
-        <v>1000</v>
+      <c r="Y374" s="14" t="s">
+        <v>1130</v>
       </c>
       <c r="AF374" s="8"/>
       <c r="AH374" s="6" t="str">
@@ -36604,95 +36787,135 @@
       </c>
       <c r="AK374" s="6"/>
       <c r="AL374" s="34"/>
-      <c r="AM374" s="6"/>
-      <c r="AN374" s="8"/>
-      <c r="AV374" s="13"/>
-      <c r="AW374" s="12"/>
-      <c r="AX374" s="12"/>
-      <c r="AY374" s="12"/>
+      <c r="AM374" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="AN374" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="AO374" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="AP374" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="AQ374" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AS374" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="AV374" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="AW374" s="6"/>
       <c r="AZ374" s="6" t="str">
         <f>IF(AND(ISBLANK(AV374), ISBLANK(AW374)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV374), "", _xlfn.CONCAT("[""mac"", """, AV374, """]")), IF(ISBLANK(AW374), "", _xlfn.CONCAT(", [""ip"", """, AW374, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x00124b0029119f9a"]]</v>
       </c>
     </row>
     <row r="375" spans="1:52" ht="16" customHeight="1">
-      <c r="A375" s="6">
-        <v>2706</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C375" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D375" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E375" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F375" s="6" t="str">
+      <c r="A375" s="36">
+        <v>2704</v>
+      </c>
+      <c r="B375" s="36" t="s">
+        <v>831</v>
+      </c>
+      <c r="C375" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D375" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E375" s="36"/>
+      <c r="F375" s="36" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
-        <v>template_front_door_state</v>
-      </c>
-      <c r="G375" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="H375" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="I375" s="6" t="s">
+        <v/>
+      </c>
+      <c r="G375" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="H375" s="36" t="s">
+        <v>972</v>
+      </c>
+      <c r="I375" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="T375" s="6"/>
-      <c r="V375" s="8"/>
-      <c r="W375" s="8"/>
-      <c r="X375" s="8"/>
-      <c r="Y375" s="8"/>
-      <c r="AF375" s="8"/>
-      <c r="AH375" s="6" t="str">
+      <c r="J375" s="36"/>
+      <c r="K375" s="36"/>
+      <c r="L375" s="36"/>
+      <c r="M375" s="36"/>
+      <c r="N375" s="36"/>
+      <c r="O375" s="37"/>
+      <c r="P375" s="36"/>
+      <c r="Q375" s="36"/>
+      <c r="R375" s="36"/>
+      <c r="S375" s="36"/>
+      <c r="T375" s="36"/>
+      <c r="U375" s="36"/>
+      <c r="V375" s="37"/>
+      <c r="W375" s="37"/>
+      <c r="X375" s="37"/>
+      <c r="Y375" s="37"/>
+      <c r="Z375" s="37"/>
+      <c r="AA375" s="36"/>
+      <c r="AB375" s="36"/>
+      <c r="AC375" s="36"/>
+      <c r="AD375" s="36"/>
+      <c r="AE375" s="36"/>
+      <c r="AF375" s="37"/>
+      <c r="AG375" s="36"/>
+      <c r="AH375" s="36" t="str">
         <f>IF(ISBLANK(AG375),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C375), "/", E375, "/config"))</f>
         <v/>
       </c>
-      <c r="AI375" s="6" t="str">
+      <c r="AI375" s="36" t="str">
         <f>IF(ISBLANK(AG375),  "", _xlfn.CONCAT(LOWER(C375), "/", E375))</f>
         <v/>
       </c>
-      <c r="AK375" s="6"/>
-      <c r="AL375" s="34"/>
-      <c r="AM375" s="6"/>
-      <c r="AN375" s="8"/>
-      <c r="AV375" s="13"/>
-      <c r="AW375" s="12"/>
-      <c r="AX375" s="12"/>
-      <c r="AY375" s="12"/>
-      <c r="AZ375" s="6" t="str">
+      <c r="AJ375" s="64"/>
+      <c r="AK375" s="36"/>
+      <c r="AL375" s="38"/>
+      <c r="AM375" s="36"/>
+      <c r="AN375" s="37"/>
+      <c r="AO375" s="36"/>
+      <c r="AP375" s="39"/>
+      <c r="AQ375" s="36"/>
+      <c r="AR375" s="36"/>
+      <c r="AS375" s="36"/>
+      <c r="AT375" s="36"/>
+      <c r="AU375" s="36"/>
+      <c r="AV375" s="36"/>
+      <c r="AW375" s="36"/>
+      <c r="AX375" s="36"/>
+      <c r="AY375" s="36"/>
+      <c r="AZ375" s="36" t="str">
         <f>IF(AND(ISBLANK(AV375), ISBLANK(AW375)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV375), "", _xlfn.CONCAT("[""mac"", """, AV375, """]")), IF(ISBLANK(AW375), "", _xlfn.CONCAT(", [""ip"", """, AW375, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:52" ht="16" customHeight="1">
       <c r="A376" s="6">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="B376" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>946</v>
+        <v>151</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>952</v>
+        <v>369</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>954</v>
+        <v>990</v>
       </c>
       <c r="F376" s="6" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
-        <v>front_door_lock</v>
+        <v>front_door_lock_security</v>
       </c>
       <c r="G376" s="6" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="H376" s="6" t="s">
         <v>957</v>
@@ -36705,12 +36928,11 @@
       </c>
       <c r="T376" s="6"/>
       <c r="V376" s="8"/>
-      <c r="W376" s="8" t="s">
-        <v>701</v>
-      </c>
+      <c r="W376" s="8"/>
       <c r="X376" s="8"/>
-      <c r="Y376" s="14" t="s">
-        <v>1130</v>
+      <c r="Y376" s="8"/>
+      <c r="AD376" s="6" t="s">
+        <v>1000</v>
       </c>
       <c r="AF376" s="8"/>
       <c r="AH376" s="6" t="str">
@@ -36721,57 +36943,42 @@
         <f>IF(ISBLANK(AG376),  "", _xlfn.CONCAT(LOWER(C376), "/", E376))</f>
         <v/>
       </c>
+      <c r="AJ376" s="62"/>
       <c r="AK376" s="6"/>
       <c r="AL376" s="34"/>
-      <c r="AM376" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="AN376" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="AO376" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="AP376" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="AQ376" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="AS376" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="AV376" s="6" t="s">
-        <v>955</v>
-      </c>
-      <c r="AW376" s="6"/>
+      <c r="AM376" s="6"/>
+      <c r="AN376" s="8"/>
+      <c r="AV376" s="13"/>
+      <c r="AW376" s="12"/>
+      <c r="AX376" s="12"/>
+      <c r="AY376" s="12"/>
       <c r="AZ376" s="6" t="str">
         <f>IF(AND(ISBLANK(AV376), ISBLANK(AW376)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV376), "", _xlfn.CONCAT("[""mac"", """, AV376, """]")), IF(ISBLANK(AW376), "", _xlfn.CONCAT(", [""ip"", """, AW376, """]")), "]"))</f>
-        <v>[["mac", "0x000d6f001127f08c"]]</v>
+        <v/>
       </c>
     </row>
     <row r="377" spans="1:52" ht="16" customHeight="1">
       <c r="A377" s="6">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>410</v>
+        <v>151</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="F377" s="6" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
-        <v>template_front_door_sensor_contact_last</v>
+        <v>template_front_door_state</v>
       </c>
       <c r="G377" s="6" t="s">
-        <v>1003</v>
+        <v>329</v>
       </c>
       <c r="H377" s="6" t="s">
         <v>957</v>
@@ -36779,18 +36986,11 @@
       <c r="I377" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="M377" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="T377" s="6"/>
       <c r="V377" s="8"/>
-      <c r="W377" s="8" t="s">
-        <v>701</v>
-      </c>
+      <c r="W377" s="8"/>
       <c r="X377" s="8"/>
-      <c r="Y377" s="14" t="s">
-        <v>1130</v>
-      </c>
+      <c r="Y377" s="8"/>
       <c r="AF377" s="8"/>
       <c r="AH377" s="6" t="str">
         <f>IF(ISBLANK(AG377),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C377), "/", E377, "/config"))</f>
@@ -36802,260 +37002,289 @@
       </c>
       <c r="AK377" s="6"/>
       <c r="AL377" s="34"/>
-      <c r="AM377" s="6" t="s">
-        <v>975</v>
-      </c>
-      <c r="AN377" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="AO377" s="9" t="s">
-        <v>976</v>
-      </c>
-      <c r="AP377" s="9" t="s">
-        <v>977</v>
-      </c>
-      <c r="AQ377" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="AS377" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="AV377" s="6" t="s">
-        <v>978</v>
-      </c>
-      <c r="AW377" s="6"/>
+      <c r="AM377" s="6"/>
+      <c r="AN377" s="8"/>
+      <c r="AV377" s="13"/>
+      <c r="AW377" s="12"/>
+      <c r="AX377" s="12"/>
+      <c r="AY377" s="12"/>
       <c r="AZ377" s="6" t="str">
         <f>IF(AND(ISBLANK(AV377), ISBLANK(AW377)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV377), "", _xlfn.CONCAT("[""mac"", """, AV377, """]")), IF(ISBLANK(AW377), "", _xlfn.CONCAT(", [""ip"", """, AW377, """]")), "]"))</f>
-        <v>[["mac", "0x00124b0029113713"]]</v>
+        <v/>
       </c>
     </row>
     <row r="378" spans="1:52" ht="16" customHeight="1">
-      <c r="A378" s="36">
-        <v>2709</v>
-      </c>
-      <c r="B378" s="36" t="s">
-        <v>831</v>
-      </c>
-      <c r="C378" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D378" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="E378" s="36"/>
-      <c r="F378" s="36" t="str">
+      <c r="A378" s="6">
+        <v>2707</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="E378" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="F378" s="6" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="G378" s="36" t="s">
+        <v>front_door_lock</v>
+      </c>
+      <c r="G378" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H378" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="H378" s="36" t="s">
-        <v>971</v>
-      </c>
-      <c r="I378" s="36" t="s">
+      <c r="I378" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J378" s="36"/>
-      <c r="K378" s="36"/>
-      <c r="L378" s="36"/>
-      <c r="M378" s="36"/>
-      <c r="N378" s="36"/>
-      <c r="O378" s="37"/>
-      <c r="P378" s="36"/>
-      <c r="Q378" s="36"/>
-      <c r="R378" s="36"/>
-      <c r="S378" s="36"/>
-      <c r="T378" s="36"/>
-      <c r="U378" s="36"/>
-      <c r="V378" s="37"/>
-      <c r="W378" s="37"/>
-      <c r="X378" s="37"/>
-      <c r="Y378" s="37"/>
-      <c r="Z378" s="37"/>
-      <c r="AA378" s="36"/>
-      <c r="AB378" s="36"/>
-      <c r="AC378" s="36"/>
-      <c r="AD378" s="36"/>
-      <c r="AE378" s="36"/>
-      <c r="AF378" s="37"/>
-      <c r="AG378" s="36"/>
-      <c r="AH378" s="36" t="str">
+      <c r="M378" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="T378" s="6"/>
+      <c r="V378" s="8"/>
+      <c r="W378" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="X378" s="8"/>
+      <c r="Y378" s="14" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AF378" s="8"/>
+      <c r="AH378" s="6" t="str">
         <f>IF(ISBLANK(AG378),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C378), "/", E378, "/config"))</f>
         <v/>
       </c>
-      <c r="AI378" s="36" t="str">
+      <c r="AI378" s="6" t="str">
         <f>IF(ISBLANK(AG378),  "", _xlfn.CONCAT(LOWER(C378), "/", E378))</f>
         <v/>
       </c>
-      <c r="AJ378" s="36"/>
-      <c r="AK378" s="36"/>
-      <c r="AL378" s="38"/>
-      <c r="AM378" s="36"/>
-      <c r="AN378" s="37"/>
-      <c r="AO378" s="36"/>
-      <c r="AP378" s="39"/>
-      <c r="AQ378" s="36"/>
-      <c r="AR378" s="36"/>
-      <c r="AS378" s="36"/>
-      <c r="AT378" s="36"/>
-      <c r="AU378" s="36"/>
-      <c r="AV378" s="36"/>
-      <c r="AW378" s="36"/>
-      <c r="AX378" s="36"/>
-      <c r="AY378" s="36"/>
-      <c r="AZ378" s="36" t="str">
+      <c r="AK378" s="6"/>
+      <c r="AL378" s="34"/>
+      <c r="AM378" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="AN378" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="AO378" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="AP378" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="AQ378" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="AS378" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AV378" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="AW378" s="6"/>
+      <c r="AZ378" s="6" t="str">
         <f>IF(AND(ISBLANK(AV378), ISBLANK(AW378)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV378), "", _xlfn.CONCAT("[""mac"", """, AV378, """]")), IF(ISBLANK(AW378), "", _xlfn.CONCAT(", [""ip"", """, AW378, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
     <row r="379" spans="1:52" ht="16" customHeight="1">
       <c r="A379" s="6">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>629</v>
+        <v>410</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>409</v>
+        <v>149</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>408</v>
+        <v>994</v>
       </c>
       <c r="F379" s="6" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>template_front_door_sensor_contact_last</v>
       </c>
       <c r="G379" s="6" t="s">
-        <v>405</v>
+        <v>1003</v>
       </c>
       <c r="H379" s="6" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="I379" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M379" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="N379" s="6" t="s">
-        <v>407</v>
+        <v>136</v>
       </c>
       <c r="T379" s="6"/>
       <c r="V379" s="8"/>
-      <c r="W379" s="8"/>
+      <c r="W379" s="8" t="s">
+        <v>701</v>
+      </c>
       <c r="X379" s="8"/>
-      <c r="Y379" s="8"/>
+      <c r="Y379" s="14" t="s">
+        <v>1130</v>
+      </c>
       <c r="AF379" s="8"/>
+      <c r="AH379" s="6" t="str">
+        <f>IF(ISBLANK(AG379),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C379), "/", E379, "/config"))</f>
+        <v/>
+      </c>
       <c r="AI379" s="6" t="str">
         <f>IF(ISBLANK(AG379),  "", _xlfn.CONCAT(LOWER(C379), "/", E379))</f>
         <v/>
       </c>
       <c r="AK379" s="6"/>
       <c r="AL379" s="34"/>
-      <c r="AM379" s="6"/>
-      <c r="AN379" s="8"/>
-      <c r="AV379" s="6"/>
+      <c r="AM379" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="AN379" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="AO379" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="AP379" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="AQ379" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AS379" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AV379" s="6" t="s">
+        <v>978</v>
+      </c>
       <c r="AW379" s="6"/>
       <c r="AZ379" s="6" t="str">
         <f>IF(AND(ISBLANK(AV379), ISBLANK(AW379)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV379), "", _xlfn.CONCAT("[""mac"", """, AV379, """]")), IF(ISBLANK(AW379), "", _xlfn.CONCAT(", [""ip"", """, AW379, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x00124b0029113713"]]</v>
       </c>
     </row>
     <row r="380" spans="1:52" ht="16" customHeight="1">
-      <c r="A380" s="6">
-        <v>2711</v>
-      </c>
-      <c r="B380" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C380" s="6" t="s">
+      <c r="A380" s="36">
+        <v>2709</v>
+      </c>
+      <c r="B380" s="36" t="s">
+        <v>831</v>
+      </c>
+      <c r="C380" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D380" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E380" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F380" s="6" t="str">
+      <c r="D380" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E380" s="36"/>
+      <c r="F380" s="36" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
-      </c>
-      <c r="G380" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="H380" s="6" t="s">
-        <v>960</v>
-      </c>
-      <c r="I380" s="6" t="s">
+        <v/>
+      </c>
+      <c r="G380" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="H380" s="36" t="s">
+        <v>971</v>
+      </c>
+      <c r="I380" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="M380" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="T380" s="6"/>
-      <c r="V380" s="8"/>
-      <c r="W380" s="8"/>
-      <c r="X380" s="8"/>
-      <c r="Y380" s="8"/>
-      <c r="AF380" s="8"/>
-      <c r="AH380" s="6" t="str">
+      <c r="J380" s="36"/>
+      <c r="K380" s="36"/>
+      <c r="L380" s="36"/>
+      <c r="M380" s="36"/>
+      <c r="N380" s="36"/>
+      <c r="O380" s="37"/>
+      <c r="P380" s="36"/>
+      <c r="Q380" s="36"/>
+      <c r="R380" s="36"/>
+      <c r="S380" s="36"/>
+      <c r="T380" s="36"/>
+      <c r="U380" s="36"/>
+      <c r="V380" s="37"/>
+      <c r="W380" s="37"/>
+      <c r="X380" s="37"/>
+      <c r="Y380" s="37"/>
+      <c r="Z380" s="37"/>
+      <c r="AA380" s="36"/>
+      <c r="AB380" s="36"/>
+      <c r="AC380" s="36"/>
+      <c r="AD380" s="36"/>
+      <c r="AE380" s="36"/>
+      <c r="AF380" s="37"/>
+      <c r="AG380" s="36"/>
+      <c r="AH380" s="36" t="str">
         <f>IF(ISBLANK(AG380),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C380), "/", E380, "/config"))</f>
         <v/>
       </c>
-      <c r="AI380" s="6" t="str">
+      <c r="AI380" s="36" t="str">
         <f>IF(ISBLANK(AG380),  "", _xlfn.CONCAT(LOWER(C380), "/", E380))</f>
         <v/>
       </c>
-      <c r="AK380" s="6"/>
-      <c r="AL380" s="34"/>
-      <c r="AM380" s="6"/>
-      <c r="AN380" s="8"/>
-      <c r="AV380" s="6"/>
-      <c r="AW380" s="6"/>
-      <c r="AZ380" s="6" t="str">
+      <c r="AJ380" s="36"/>
+      <c r="AK380" s="36"/>
+      <c r="AL380" s="38"/>
+      <c r="AM380" s="36"/>
+      <c r="AN380" s="37"/>
+      <c r="AO380" s="36"/>
+      <c r="AP380" s="39"/>
+      <c r="AQ380" s="36"/>
+      <c r="AR380" s="36"/>
+      <c r="AS380" s="36"/>
+      <c r="AT380" s="36"/>
+      <c r="AU380" s="36"/>
+      <c r="AV380" s="36"/>
+      <c r="AW380" s="36"/>
+      <c r="AX380" s="36"/>
+      <c r="AY380" s="36"/>
+      <c r="AZ380" s="36" t="str">
         <f>IF(AND(ISBLANK(AV380), ISBLANK(AW380)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV380), "", _xlfn.CONCAT("[""mac"", """, AV380, """]")), IF(ISBLANK(AW380), "", _xlfn.CONCAT(", [""ip"", """, AW380, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:52" ht="16" customHeight="1">
       <c r="A381" s="6">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>245</v>
+        <v>629</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>147</v>
+        <v>409</v>
       </c>
       <c r="E381" s="6" t="s">
-        <v>148</v>
+        <v>408</v>
       </c>
       <c r="F381" s="6" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
+        <v>column_break</v>
       </c>
       <c r="G381" s="6" t="s">
-        <v>130</v>
+        <v>405</v>
       </c>
       <c r="H381" s="6" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I381" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M381" s="6" t="s">
-        <v>136</v>
+        <v>406</v>
       </c>
       <c r="N381" s="6" t="s">
-        <v>303</v>
+        <v>407</v>
       </c>
       <c r="T381" s="6"/>
       <c r="V381" s="8"/>
@@ -37063,83 +37292,52 @@
       <c r="X381" s="8"/>
       <c r="Y381" s="8"/>
       <c r="AF381" s="8"/>
-      <c r="AH381" s="6" t="str">
-        <f>IF(ISBLANK(AG381),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C381), "/", E381, "/config"))</f>
-        <v/>
-      </c>
       <c r="AI381" s="6" t="str">
         <f>IF(ISBLANK(AG381),  "", _xlfn.CONCAT(LOWER(C381), "/", E381))</f>
         <v/>
       </c>
-      <c r="AJ381" s="10"/>
       <c r="AK381" s="6"/>
       <c r="AL381" s="34"/>
-      <c r="AM381" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="AN381" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="AO381" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AP381" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="AQ381" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AS381" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU381" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="AV381" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="AW381" s="6" t="s">
-        <v>522</v>
-      </c>
+      <c r="AM381" s="6"/>
+      <c r="AN381" s="8"/>
+      <c r="AV381" s="6"/>
+      <c r="AW381" s="6"/>
       <c r="AZ381" s="6" t="str">
         <f>IF(AND(ISBLANK(AV381), ISBLANK(AW381)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV381), "", _xlfn.CONCAT("[""mac"", """, AV381, """]")), IF(ISBLANK(AW381), "", _xlfn.CONCAT(", [""ip"", """, AW381, """]")), "]"))</f>
-        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
+        <v/>
       </c>
     </row>
     <row r="382" spans="1:52" ht="16" customHeight="1">
       <c r="A382" s="6">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>629</v>
+        <v>245</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>409</v>
+        <v>149</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>408</v>
+        <v>150</v>
       </c>
       <c r="F382" s="6" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>uvc_ada_motion</v>
       </c>
       <c r="G382" s="6" t="s">
-        <v>405</v>
+        <v>956</v>
       </c>
       <c r="H382" s="6" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I382" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M382" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="N382" s="6" t="s">
-        <v>407</v>
+        <v>136</v>
       </c>
       <c r="T382" s="6"/>
       <c r="V382" s="8"/>
@@ -37147,6 +37345,10 @@
       <c r="X382" s="8"/>
       <c r="Y382" s="8"/>
       <c r="AF382" s="8"/>
+      <c r="AH382" s="6" t="str">
+        <f>IF(ISBLANK(AG382),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C382), "/", E382, "/config"))</f>
+        <v/>
+      </c>
       <c r="AI382" s="6" t="str">
         <f>IF(ISBLANK(AG382),  "", _xlfn.CONCAT(LOWER(C382), "/", E382))</f>
         <v/>
@@ -37164,7 +37366,7 @@
     </row>
     <row r="383" spans="1:52" ht="16" customHeight="1">
       <c r="A383" s="6">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>26</v>
@@ -37173,26 +37375,29 @@
         <v>245</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="F383" s="6" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
+        <v>uvc_ada_medium</v>
       </c>
       <c r="G383" s="6" t="s">
-        <v>956</v>
+        <v>130</v>
       </c>
       <c r="H383" s="6" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="I383" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M383" s="6" t="s">
         <v>136</v>
+      </c>
+      <c r="N383" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="T383" s="6"/>
       <c r="V383" s="8"/>
@@ -37208,51 +37413,75 @@
         <f>IF(ISBLANK(AG383),  "", _xlfn.CONCAT(LOWER(C383), "/", E383))</f>
         <v/>
       </c>
+      <c r="AJ383" s="10"/>
       <c r="AK383" s="6"/>
       <c r="AL383" s="34"/>
-      <c r="AM383" s="6"/>
-      <c r="AN383" s="8"/>
-      <c r="AV383" s="6"/>
-      <c r="AW383" s="6"/>
+      <c r="AM383" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AN383" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="AO383" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AP383" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AQ383" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS383" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU383" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="AV383" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AW383" s="6" t="s">
+        <v>522</v>
+      </c>
       <c r="AZ383" s="6" t="str">
         <f>IF(AND(ISBLANK(AV383), ISBLANK(AW383)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV383), "", _xlfn.CONCAT("[""mac"", """, AV383, """]")), IF(ISBLANK(AW383), "", _xlfn.CONCAT(", [""ip"", """, AW383, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
     <row r="384" spans="1:52" ht="16" customHeight="1">
       <c r="A384" s="6">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>245</v>
+        <v>629</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>147</v>
+        <v>409</v>
       </c>
       <c r="E384" s="6" t="s">
-        <v>217</v>
+        <v>408</v>
       </c>
       <c r="F384" s="6" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>column_break</v>
       </c>
       <c r="G384" s="6" t="s">
-        <v>127</v>
+        <v>405</v>
       </c>
       <c r="H384" s="6" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="I384" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M384" s="6" t="s">
-        <v>136</v>
+        <v>406</v>
       </c>
       <c r="N384" s="6" t="s">
-        <v>303</v>
+        <v>407</v>
       </c>
       <c r="T384" s="6"/>
       <c r="V384" s="8"/>
@@ -37260,83 +37489,52 @@
       <c r="X384" s="8"/>
       <c r="Y384" s="8"/>
       <c r="AF384" s="8"/>
-      <c r="AH384" s="6" t="str">
-        <f>IF(ISBLANK(AG384),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C384), "/", E384, "/config"))</f>
-        <v/>
-      </c>
       <c r="AI384" s="6" t="str">
         <f>IF(ISBLANK(AG384),  "", _xlfn.CONCAT(LOWER(C384), "/", E384))</f>
         <v/>
       </c>
-      <c r="AJ384" s="10"/>
       <c r="AK384" s="6"/>
       <c r="AL384" s="34"/>
-      <c r="AM384" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="AN384" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="AO384" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AP384" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="AQ384" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AS384" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU384" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="AV384" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="AW384" s="6" t="s">
-        <v>523</v>
-      </c>
+      <c r="AM384" s="6"/>
+      <c r="AN384" s="8"/>
+      <c r="AV384" s="6"/>
+      <c r="AW384" s="6"/>
       <c r="AZ384" s="6" t="str">
         <f>IF(AND(ISBLANK(AV384), ISBLANK(AW384)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV384), "", _xlfn.CONCAT("[""mac"", """, AV384, """]")), IF(ISBLANK(AW384), "", _xlfn.CONCAT(", [""ip"", """, AW384, """]")), "]"))</f>
-        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
+        <v/>
       </c>
     </row>
     <row r="385" spans="1:52" ht="16" customHeight="1">
       <c r="A385" s="6">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>629</v>
+        <v>245</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>409</v>
+        <v>149</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>408</v>
+        <v>218</v>
       </c>
       <c r="F385" s="6" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>uvc_edwin_motion</v>
       </c>
       <c r="G385" s="6" t="s">
-        <v>405</v>
+        <v>956</v>
       </c>
       <c r="H385" s="6" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I385" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M385" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="N385" s="6" t="s">
-        <v>407</v>
+        <v>136</v>
       </c>
       <c r="T385" s="6"/>
       <c r="V385" s="8"/>
@@ -37344,10 +37542,15 @@
       <c r="X385" s="8"/>
       <c r="Y385" s="8"/>
       <c r="AF385" s="8"/>
+      <c r="AH385" s="6" t="str">
+        <f>IF(ISBLANK(AG385),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C385), "/", E385, "/config"))</f>
+        <v/>
+      </c>
       <c r="AI385" s="6" t="str">
         <f>IF(ISBLANK(AG385),  "", _xlfn.CONCAT(LOWER(C385), "/", E385))</f>
         <v/>
       </c>
+      <c r="AJ385" s="62"/>
       <c r="AK385" s="6"/>
       <c r="AL385" s="34"/>
       <c r="AM385" s="6"/>
@@ -37361,35 +37564,38 @@
     </row>
     <row r="386" spans="1:52" ht="16" customHeight="1">
       <c r="A386" s="6">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>907</v>
+        <v>217</v>
       </c>
       <c r="F386" s="6" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan_occupancy</v>
+        <v>uvc_edwin_medium</v>
       </c>
       <c r="G386" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H386" s="6" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I386" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M386" s="6" t="s">
         <v>136</v>
+      </c>
+      <c r="N386" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="T386" s="6"/>
       <c r="V386" s="8"/>
@@ -37405,48 +37611,75 @@
         <f>IF(ISBLANK(AG386),  "", _xlfn.CONCAT(LOWER(C386), "/", E386))</f>
         <v/>
       </c>
+      <c r="AJ386" s="10"/>
       <c r="AK386" s="6"/>
       <c r="AL386" s="34"/>
-      <c r="AM386" s="6"/>
-      <c r="AN386" s="8"/>
-      <c r="AV386" s="6"/>
-      <c r="AW386" s="6"/>
+      <c r="AM386" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AN386" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="AO386" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AP386" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AQ386" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS386" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU386" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="AV386" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AW386" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="AZ386" s="6" t="str">
         <f>IF(AND(ISBLANK(AV386), ISBLANK(AW386)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV386), "", _xlfn.CONCAT("[""mac"", """, AV386, """]")), IF(ISBLANK(AW386), "", _xlfn.CONCAT(", [""ip"", """, AW386, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
     <row r="387" spans="1:52" ht="16" customHeight="1">
       <c r="A387" s="6">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>133</v>
+        <v>629</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>149</v>
+        <v>409</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>906</v>
+        <v>408</v>
       </c>
       <c r="F387" s="6" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan_occupancy</v>
+        <v>column_break</v>
       </c>
       <c r="G387" s="6" t="s">
-        <v>127</v>
+        <v>405</v>
       </c>
       <c r="H387" s="6" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I387" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M387" s="6" t="s">
-        <v>136</v>
+        <v>406</v>
+      </c>
+      <c r="N387" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="T387" s="6"/>
       <c r="V387" s="8"/>
@@ -37454,15 +37687,10 @@
       <c r="X387" s="8"/>
       <c r="Y387" s="8"/>
       <c r="AF387" s="8"/>
-      <c r="AH387" s="6" t="str">
-        <f>IF(ISBLANK(AG387),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C387), "/", E387, "/config"))</f>
-        <v/>
-      </c>
       <c r="AI387" s="6" t="str">
         <f>IF(ISBLANK(AG387),  "", _xlfn.CONCAT(LOWER(C387), "/", E387))</f>
         <v/>
       </c>
-      <c r="AJ387" s="10"/>
       <c r="AK387" s="6"/>
       <c r="AL387" s="34"/>
       <c r="AM387" s="6"/>
@@ -37476,7 +37704,7 @@
     </row>
     <row r="388" spans="1:52" ht="16" customHeight="1">
       <c r="A388" s="6">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>26</v>
@@ -37488,14 +37716,14 @@
         <v>149</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F388" s="6" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_fan_occupancy</v>
+        <v>ada_fan_occupancy</v>
       </c>
       <c r="G388" s="6" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="H388" s="6" t="s">
         <v>963</v>
@@ -37520,7 +37748,7 @@
         <f>IF(ISBLANK(AG388),  "", _xlfn.CONCAT(LOWER(C388), "/", E388))</f>
         <v/>
       </c>
-      <c r="AJ388" s="10"/>
+      <c r="AJ388" s="62"/>
       <c r="AK388" s="6"/>
       <c r="AL388" s="34"/>
       <c r="AM388" s="6"/>
@@ -37534,7 +37762,7 @@
     </row>
     <row r="389" spans="1:52" ht="16" customHeight="1">
       <c r="A389" s="6">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>26</v>
@@ -37546,14 +37774,14 @@
         <v>149</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F389" s="6" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan_occupancy</v>
+        <v>edwin_fan_occupancy</v>
       </c>
       <c r="G389" s="6" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="H389" s="6" t="s">
         <v>963</v>
@@ -37578,6 +37806,7 @@
         <f>IF(ISBLANK(AG389),  "", _xlfn.CONCAT(LOWER(C389), "/", E389))</f>
         <v/>
       </c>
+      <c r="AJ389" s="10"/>
       <c r="AK389" s="6"/>
       <c r="AL389" s="34"/>
       <c r="AM389" s="6"/>
@@ -37591,7 +37820,7 @@
     </row>
     <row r="390" spans="1:52" ht="16" customHeight="1">
       <c r="A390" s="6">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>26</v>
@@ -37603,14 +37832,14 @@
         <v>149</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F390" s="6" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_east_fan_occupancy</v>
+        <v>parents_fan_occupancy</v>
       </c>
       <c r="G390" s="6" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="H390" s="6" t="s">
         <v>963</v>
@@ -37635,6 +37864,7 @@
         <f>IF(ISBLANK(AG390),  "", _xlfn.CONCAT(LOWER(C390), "/", E390))</f>
         <v/>
       </c>
+      <c r="AJ390" s="10"/>
       <c r="AK390" s="6"/>
       <c r="AL390" s="34"/>
       <c r="AM390" s="6"/>
@@ -37648,7 +37878,7 @@
     </row>
     <row r="391" spans="1:52" ht="16" customHeight="1">
       <c r="A391" s="6">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>26</v>
@@ -37660,14 +37890,14 @@
         <v>149</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F391" s="6" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_west_fan_occupancy</v>
+        <v>lounge_fan_occupancy</v>
       </c>
       <c r="G391" s="6" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="H391" s="6" t="s">
         <v>963</v>
@@ -37692,6 +37922,7 @@
         <f>IF(ISBLANK(AG391),  "", _xlfn.CONCAT(LOWER(C391), "/", E391))</f>
         <v/>
       </c>
+      <c r="AJ391" s="62"/>
       <c r="AK391" s="6"/>
       <c r="AL391" s="34"/>
       <c r="AM391" s="6"/>
@@ -37705,17 +37936,35 @@
     </row>
     <row r="392" spans="1:52" ht="16" customHeight="1">
       <c r="A392" s="6">
-        <v>5000</v>
-      </c>
-      <c r="B392" s="12" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B392" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>245</v>
+        <v>133</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E392" s="6" t="s">
+        <v>910</v>
       </c>
       <c r="F392" s="6" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>deck_east_fan_occupancy</v>
+      </c>
+      <c r="G392" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H392" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="I392" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M392" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="T392" s="6"/>
       <c r="V392" s="8"/>
@@ -37731,53 +37980,49 @@
         <f>IF(ISBLANK(AG392),  "", _xlfn.CONCAT(LOWER(C392), "/", E392))</f>
         <v/>
       </c>
+      <c r="AJ392" s="62"/>
       <c r="AK392" s="6"/>
       <c r="AL392" s="34"/>
-      <c r="AM392" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="AN392" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="AO392" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="AP392" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="AQ392" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AS392" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU392" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="AV392" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="AW392" s="6" t="s">
-        <v>539</v>
-      </c>
+      <c r="AM392" s="6"/>
+      <c r="AN392" s="8"/>
+      <c r="AV392" s="6"/>
+      <c r="AW392" s="62"/>
       <c r="AZ392" s="6" t="str">
         <f>IF(AND(ISBLANK(AV392), ISBLANK(AW392)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV392), "", _xlfn.CONCAT("[""mac"", """, AV392, """]")), IF(ISBLANK(AW392), "", _xlfn.CONCAT(", [""ip"", """, AW392, """]")), "]"))</f>
-        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
+        <v/>
       </c>
     </row>
     <row r="393" spans="1:52" ht="16" customHeight="1">
       <c r="A393" s="6">
-        <v>5001</v>
-      </c>
-      <c r="B393" s="12" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B393" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>245</v>
+        <v>133</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>911</v>
       </c>
       <c r="F393" s="6" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>deck_west_fan_occupancy</v>
+      </c>
+      <c r="G393" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H393" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="I393" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M393" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="T393" s="6"/>
       <c r="V393" s="8"/>
@@ -37795,41 +38040,18 @@
       </c>
       <c r="AK393" s="6"/>
       <c r="AL393" s="34"/>
-      <c r="AM393" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="AN393" s="8" t="s">
-        <v>922</v>
-      </c>
-      <c r="AO393" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="AP393" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="AQ393" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AS393" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU393" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="AV393" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="AW393" s="6" t="s">
-        <v>540</v>
-      </c>
+      <c r="AM393" s="6"/>
+      <c r="AN393" s="8"/>
+      <c r="AV393" s="6"/>
+      <c r="AW393" s="62"/>
       <c r="AZ393" s="6" t="str">
         <f>IF(AND(ISBLANK(AV393), ISBLANK(AW393)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV393), "", _xlfn.CONCAT("[""mac"", """, AV393, """]")), IF(ISBLANK(AW393), "", _xlfn.CONCAT(", [""ip"", """, AW393, """]")), "]"))</f>
-        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
+        <v/>
       </c>
     </row>
     <row r="394" spans="1:52" ht="16" customHeight="1">
       <c r="A394" s="6">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="B394" s="12" t="s">
         <v>26</v>
@@ -37858,40 +38080,40 @@
       <c r="AK394" s="6"/>
       <c r="AL394" s="34"/>
       <c r="AM394" s="6" t="s">
-        <v>526</v>
+        <v>788</v>
       </c>
       <c r="AN394" s="8" t="s">
-        <v>922</v>
+        <v>529</v>
       </c>
       <c r="AO394" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AP394" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ394" s="6" t="s">
         <v>245</v>
       </c>
       <c r="AS394" s="6" t="s">
-        <v>530</v>
+        <v>28</v>
       </c>
       <c r="AU394" s="6" t="s">
         <v>524</v>
       </c>
       <c r="AV394" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AW394" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AZ394" s="6" t="str">
         <f>IF(AND(ISBLANK(AV394), ISBLANK(AW394)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV394), "", _xlfn.CONCAT("[""mac"", """, AV394, """]")), IF(ISBLANK(AW394), "", _xlfn.CONCAT(", [""ip"", """, AW394, """]")), "]"))</f>
-        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
+        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
     <row r="395" spans="1:52" ht="16" customHeight="1">
       <c r="A395" s="6">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B395" s="12" t="s">
         <v>26</v>
@@ -37920,40 +38142,40 @@
       <c r="AK395" s="6"/>
       <c r="AL395" s="34"/>
       <c r="AM395" s="6" t="s">
-        <v>527</v>
+        <v>921</v>
       </c>
       <c r="AN395" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AO395" s="6" t="s">
         <v>537</v>
       </c>
       <c r="AP395" s="6" t="s">
-        <v>534</v>
+        <v>919</v>
       </c>
       <c r="AQ395" s="6" t="s">
         <v>245</v>
       </c>
       <c r="AS395" s="6" t="s">
-        <v>436</v>
+        <v>28</v>
       </c>
       <c r="AU395" s="6" t="s">
         <v>524</v>
       </c>
       <c r="AV395" s="6" t="s">
-        <v>545</v>
+        <v>924</v>
       </c>
       <c r="AW395" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AZ395" s="6" t="str">
         <f>IF(AND(ISBLANK(AV395), ISBLANK(AW395)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV395), "", _xlfn.CONCAT("[""mac"", """, AV395, """]")), IF(ISBLANK(AW395), "", _xlfn.CONCAT(", [""ip"", """, AW395, """]")), "]"))</f>
-        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
+        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
     <row r="396" spans="1:52" ht="16" customHeight="1">
       <c r="A396" s="6">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B396" s="12" t="s">
         <v>26</v>
@@ -37982,55 +38204,51 @@
       <c r="AK396" s="6"/>
       <c r="AL396" s="34"/>
       <c r="AM396" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AN396" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AO396" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AP396" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AQ396" s="6" t="s">
         <v>245</v>
       </c>
       <c r="AS396" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AU396" s="6" t="s">
         <v>524</v>
       </c>
       <c r="AV396" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AW396" s="6" t="s">
-        <v>920</v>
+        <v>541</v>
       </c>
       <c r="AZ396" s="6" t="str">
         <f>IF(AND(ISBLANK(AV396), ISBLANK(AW396)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV396), "", _xlfn.CONCAT("[""mac"", """, AV396, """]")), IF(ISBLANK(AW396), "", _xlfn.CONCAT(", [""ip"", """, AW396, """]")), "]"))</f>
-        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
+        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
     <row r="397" spans="1:52" ht="16" customHeight="1">
       <c r="A397" s="6">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B397" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C397" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="D397" s="12"/>
-      <c r="E397" s="12"/>
-      <c r="G397" s="12"/>
-      <c r="H397" s="12"/>
-      <c r="I397" s="12"/>
-      <c r="K397" s="12"/>
-      <c r="L397" s="12"/>
-      <c r="M397" s="12"/>
+      <c r="C397" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F397" s="6" t="str">
+        <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="T397" s="6"/>
       <c r="V397" s="8"/>
       <c r="W397" s="8"/>
@@ -38048,55 +38266,51 @@
       <c r="AK397" s="6"/>
       <c r="AL397" s="34"/>
       <c r="AM397" s="6" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="AN397" s="8" t="s">
-        <v>503</v>
+        <v>923</v>
       </c>
       <c r="AO397" s="6" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="AP397" s="6" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="AQ397" s="6" t="s">
-        <v>504</v>
+        <v>245</v>
       </c>
       <c r="AS397" s="6" t="s">
-        <v>28</v>
+        <v>436</v>
       </c>
       <c r="AU397" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="AV397" s="13" t="s">
-        <v>614</v>
+        <v>524</v>
+      </c>
+      <c r="AV397" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="AW397" s="6" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AZ397" s="6" t="str">
         <f>IF(AND(ISBLANK(AV397), ISBLANK(AW397)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV397), "", _xlfn.CONCAT("[""mac"", """, AV397, """]")), IF(ISBLANK(AW397), "", _xlfn.CONCAT(", [""ip"", """, AW397, """]")), "]"))</f>
-        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
+        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
     <row r="398" spans="1:52" ht="16" customHeight="1">
       <c r="A398" s="6">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B398" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C398" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="D398" s="12"/>
-      <c r="E398" s="12"/>
-      <c r="G398" s="12"/>
-      <c r="H398" s="12"/>
-      <c r="I398" s="12"/>
-      <c r="K398" s="12"/>
-      <c r="L398" s="12"/>
-      <c r="M398" s="12"/>
+      <c r="C398" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F398" s="6" t="str">
+        <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="T398" s="6"/>
       <c r="V398" s="8"/>
       <c r="W398" s="8"/>
@@ -38114,53 +38328,49 @@
       <c r="AK398" s="6"/>
       <c r="AL398" s="34"/>
       <c r="AM398" s="6" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="AN398" s="8" t="s">
-        <v>844</v>
+        <v>923</v>
       </c>
       <c r="AO398" s="6" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="AP398" s="6" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="AQ398" s="6" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="AS398" s="6" t="s">
-        <v>28</v>
+        <v>531</v>
       </c>
       <c r="AU398" s="6" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="AV398" s="6" t="s">
-        <v>856</v>
+        <v>546</v>
       </c>
       <c r="AW398" s="6" t="s">
-        <v>610</v>
+        <v>920</v>
       </c>
       <c r="AZ398" s="6" t="str">
         <f>IF(AND(ISBLANK(AV398), ISBLANK(AW398)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV398), "", _xlfn.CONCAT("[""mac"", """, AV398, """]")), IF(ISBLANK(AW398), "", _xlfn.CONCAT(", [""ip"", """, AW398, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.4.11"]]</v>
+        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
     <row r="399" spans="1:52" ht="16" customHeight="1">
       <c r="A399" s="6">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B399" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C399" s="12" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="D399" s="12"/>
       <c r="E399" s="12"/>
-      <c r="F399" s="6" t="str">
-        <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
       <c r="G399" s="12"/>
       <c r="H399" s="12"/>
       <c r="I399" s="12"/>
@@ -38184,40 +38394,40 @@
       <c r="AK399" s="6"/>
       <c r="AL399" s="34"/>
       <c r="AM399" s="6" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="AN399" s="8" t="s">
-        <v>844</v>
+        <v>503</v>
       </c>
       <c r="AO399" s="6" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="AP399" s="6" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="AQ399" s="6" t="s">
-        <v>296</v>
+        <v>504</v>
       </c>
       <c r="AS399" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AU399" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="AV399" s="6" t="s">
-        <v>1152</v>
+        <v>547</v>
+      </c>
+      <c r="AV399" s="13" t="s">
+        <v>614</v>
       </c>
       <c r="AW399" s="6" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="AZ399" s="6" t="str">
         <f>IF(AND(ISBLANK(AV399), ISBLANK(AW399)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV399), "", _xlfn.CONCAT("[""mac"", """, AV399, """]")), IF(ISBLANK(AW399), "", _xlfn.CONCAT(", [""ip"", """, AW399, """]")), "]"))</f>
-        <v>[["mac", "2a:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
+        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
     <row r="400" spans="1:52" ht="16" customHeight="1">
       <c r="A400" s="6">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B400" s="12" t="s">
         <v>26</v>
@@ -38227,10 +38437,6 @@
       </c>
       <c r="D400" s="12"/>
       <c r="E400" s="12"/>
-      <c r="F400" s="6" t="str">
-        <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
       <c r="G400" s="12"/>
       <c r="H400" s="12"/>
       <c r="I400" s="12"/>
@@ -38272,34 +38478,41 @@
         <v>28</v>
       </c>
       <c r="AU400" s="6" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="AV400" s="6" t="s">
-        <v>613</v>
+        <v>856</v>
       </c>
       <c r="AW400" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AZ400" s="6" t="str">
         <f>IF(AND(ISBLANK(AV400), ISBLANK(AW400)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV400), "", _xlfn.CONCAT("[""mac"", """, AV400, """]")), IF(ISBLANK(AW400), "", _xlfn.CONCAT(", [""ip"", """, AW400, """]")), "]"))</f>
-        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
     <row r="401" spans="1:52" ht="16" customHeight="1">
       <c r="A401" s="6">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B401" s="12" t="s">
-        <v>831</v>
+        <v>26</v>
       </c>
       <c r="C401" s="12" t="s">
         <v>478</v>
       </c>
       <c r="D401" s="12"/>
       <c r="E401" s="12"/>
+      <c r="F401" s="6" t="str">
+        <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="G401" s="12"/>
       <c r="H401" s="12"/>
       <c r="I401" s="12"/>
+      <c r="K401" s="12"/>
+      <c r="L401" s="12"/>
+      <c r="M401" s="12"/>
       <c r="T401" s="6"/>
       <c r="V401" s="8"/>
       <c r="W401" s="8"/>
@@ -38317,16 +38530,16 @@
       <c r="AK401" s="6"/>
       <c r="AL401" s="34"/>
       <c r="AM401" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AN401" s="8" t="s">
         <v>844</v>
       </c>
       <c r="AO401" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AP401" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AQ401" s="6" t="s">
         <v>296</v>
@@ -38338,29 +38551,38 @@
         <v>525</v>
       </c>
       <c r="AV401" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="AW401" s="6"/>
+        <v>1152</v>
+      </c>
+      <c r="AW401" s="6" t="s">
+        <v>520</v>
+      </c>
       <c r="AZ401" s="6" t="str">
         <f>IF(AND(ISBLANK(AV401), ISBLANK(AW401)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV401), "", _xlfn.CONCAT("[""mac"", """, AV401, """]")), IF(ISBLANK(AW401), "", _xlfn.CONCAT(", [""ip"", """, AW401, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:04:21"]]</v>
+        <v>[["mac", "2a:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
     <row r="402" spans="1:52" ht="16" customHeight="1">
       <c r="A402" s="6">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B402" s="12" t="s">
-        <v>831</v>
+        <v>26</v>
       </c>
       <c r="C402" s="12" t="s">
         <v>478</v>
       </c>
       <c r="D402" s="12"/>
       <c r="E402" s="12"/>
+      <c r="F402" s="6" t="str">
+        <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="G402" s="12"/>
       <c r="H402" s="12"/>
       <c r="I402" s="12"/>
+      <c r="K402" s="12"/>
+      <c r="L402" s="12"/>
+      <c r="M402" s="12"/>
       <c r="T402" s="6"/>
       <c r="V402" s="8"/>
       <c r="W402" s="8"/>
@@ -38378,16 +38600,16 @@
       <c r="AK402" s="6"/>
       <c r="AL402" s="34"/>
       <c r="AM402" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AN402" s="8" t="s">
         <v>844</v>
       </c>
       <c r="AO402" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AP402" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AQ402" s="6" t="s">
         <v>296</v>
@@ -38396,24 +38618,24 @@
         <v>28</v>
       </c>
       <c r="AU402" s="6" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="AV402" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="AW402" s="11"/>
-      <c r="AX402" s="12"/>
-      <c r="AY402" s="12"/>
+        <v>613</v>
+      </c>
+      <c r="AW402" s="6" t="s">
+        <v>611</v>
+      </c>
       <c r="AZ402" s="6" t="str">
         <f>IF(AND(ISBLANK(AV402), ISBLANK(AW402)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV402), "", _xlfn.CONCAT("[""mac"", """, AV402, """]")), IF(ISBLANK(AW402), "", _xlfn.CONCAT(", [""ip"", """, AW402, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:07:0d"]]</v>
+        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
     <row r="403" spans="1:52" ht="16" customHeight="1">
       <c r="A403" s="6">
-        <v>5011</v>
-      </c>
-      <c r="B403" s="12" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B403" s="63" t="s">
         <v>831</v>
       </c>
       <c r="C403" s="12" t="s">
@@ -38441,13 +38663,13 @@
       <c r="AK403" s="6"/>
       <c r="AL403" s="34"/>
       <c r="AM403" s="6" t="s">
-        <v>842</v>
+        <v>479</v>
       </c>
       <c r="AN403" s="8" t="s">
         <v>844</v>
       </c>
       <c r="AO403" s="6" t="s">
-        <v>846</v>
+        <v>482</v>
       </c>
       <c r="AP403" s="6" t="s">
         <v>485</v>
@@ -38462,22 +38684,20 @@
         <v>525</v>
       </c>
       <c r="AV403" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="AW403" s="11"/>
-      <c r="AX403" s="12"/>
-      <c r="AY403" s="12"/>
+        <v>486</v>
+      </c>
+      <c r="AW403" s="62"/>
       <c r="AZ403" s="6" t="str">
         <f>IF(AND(ISBLANK(AV403), ISBLANK(AW403)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV403), "", _xlfn.CONCAT("[""mac"", """, AV403, """]")), IF(ISBLANK(AW403), "", _xlfn.CONCAT(", [""ip"", """, AW403, """]")), "]"))</f>
-        <v>[["mac", "40:6c:8f:2a:da:9c"]]</v>
+        <v>[["mac", "00:e0:4c:68:04:21"]]</v>
       </c>
     </row>
     <row r="404" spans="1:52" ht="16" customHeight="1">
       <c r="A404" s="6">
-        <v>5012</v>
-      </c>
-      <c r="B404" s="31" t="s">
-        <v>26</v>
+        <v>5010</v>
+      </c>
+      <c r="B404" s="12" t="s">
+        <v>831</v>
       </c>
       <c r="C404" s="12" t="s">
         <v>478</v>
@@ -38504,13 +38724,13 @@
       <c r="AK404" s="6"/>
       <c r="AL404" s="34"/>
       <c r="AM404" s="6" t="s">
-        <v>843</v>
+        <v>480</v>
       </c>
       <c r="AN404" s="8" t="s">
         <v>844</v>
       </c>
       <c r="AO404" s="6" t="s">
-        <v>845</v>
+        <v>483</v>
       </c>
       <c r="AP404" s="6" t="s">
         <v>485</v>
@@ -38525,24 +38745,22 @@
         <v>525</v>
       </c>
       <c r="AV404" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="AW404" s="11" t="s">
-        <v>1151</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="AW404" s="11"/>
       <c r="AX404" s="12"/>
       <c r="AY404" s="12"/>
       <c r="AZ404" s="6" t="str">
         <f>IF(AND(ISBLANK(AV404), ISBLANK(AW404)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV404), "", _xlfn.CONCAT("[""mac"", """, AV404, """]")), IF(ISBLANK(AW404), "", _xlfn.CONCAT(", [""ip"", """, AW404, """]")), "]"))</f>
-        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.13"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:0d"]]</v>
       </c>
     </row>
     <row r="405" spans="1:52" ht="16" customHeight="1">
       <c r="A405" s="6">
-        <v>5013</v>
+        <v>5011</v>
       </c>
       <c r="B405" s="12" t="s">
-        <v>26</v>
+        <v>831</v>
       </c>
       <c r="C405" s="12" t="s">
         <v>478</v>
@@ -38569,19 +38787,19 @@
       <c r="AK405" s="6"/>
       <c r="AL405" s="34"/>
       <c r="AM405" s="6" t="s">
-        <v>787</v>
+        <v>842</v>
       </c>
       <c r="AN405" s="8" t="s">
         <v>844</v>
       </c>
       <c r="AO405" s="6" t="s">
-        <v>786</v>
+        <v>846</v>
       </c>
       <c r="AP405" s="6" t="s">
-        <v>785</v>
+        <v>485</v>
       </c>
       <c r="AQ405" s="6" t="s">
-        <v>784</v>
+        <v>296</v>
       </c>
       <c r="AS405" s="6" t="s">
         <v>28</v>
@@ -38590,29 +38808,30 @@
         <v>525</v>
       </c>
       <c r="AV405" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="AW405" s="11" t="s">
-        <v>521</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="AW405" s="11"/>
       <c r="AX405" s="12"/>
       <c r="AY405" s="12"/>
       <c r="AZ405" s="6" t="str">
         <f>IF(AND(ISBLANK(AV405), ISBLANK(AW405)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV405), "", _xlfn.CONCAT("[""mac"", """, AV405, """]")), IF(ISBLANK(AW405), "", _xlfn.CONCAT(", [""ip"", """, AW405, """]")), "]"))</f>
-        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.12"]]</v>
+        <v>[["mac", "40:6c:8f:2a:da:9c"]]</v>
       </c>
     </row>
     <row r="406" spans="1:52" ht="16" customHeight="1">
       <c r="A406" s="6">
-        <v>5014</v>
-      </c>
-      <c r="B406" s="6" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B406" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C406" s="6" t="s">
-        <v>492</v>
-      </c>
+      <c r="C406" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D406" s="12"/>
       <c r="E406" s="12"/>
+      <c r="G406" s="12"/>
+      <c r="H406" s="12"/>
       <c r="I406" s="12"/>
       <c r="T406" s="6"/>
       <c r="V406" s="8"/>
@@ -38631,63 +38850,59 @@
       <c r="AK406" s="6"/>
       <c r="AL406" s="34"/>
       <c r="AM406" s="6" t="s">
-        <v>491</v>
+        <v>843</v>
       </c>
       <c r="AN406" s="8" t="s">
-        <v>1150</v>
+        <v>844</v>
       </c>
       <c r="AO406" s="6" t="s">
-        <v>489</v>
+        <v>845</v>
       </c>
       <c r="AP406" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AQ406" s="6" t="s">
-        <v>488</v>
+        <v>296</v>
       </c>
       <c r="AS406" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AU406" s="6" t="s">
-        <v>567</v>
+        <v>525</v>
       </c>
       <c r="AV406" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AW406" s="6" t="s">
-        <v>615</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="AW406" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AX406" s="12"/>
+      <c r="AY406" s="12"/>
       <c r="AZ406" s="6" t="str">
         <f>IF(AND(ISBLANK(AV406), ISBLANK(AW406)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV406), "", _xlfn.CONCAT("[""mac"", """, AV406, """]")), IF(ISBLANK(AW406), "", _xlfn.CONCAT(", [""ip"", """, AW406, """]")), "]"))</f>
-        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
+        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
     <row r="407" spans="1:52" ht="16" customHeight="1">
       <c r="A407" s="6">
-        <v>5015</v>
-      </c>
-      <c r="B407" s="6" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B407" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C407" s="6" t="s">
-        <v>654</v>
-      </c>
+      <c r="C407" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D407" s="12"/>
       <c r="E407" s="12"/>
-      <c r="F407" s="6" t="str">
-        <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+      <c r="G407" s="12"/>
+      <c r="H407" s="12"/>
       <c r="I407" s="12"/>
       <c r="T407" s="6"/>
       <c r="V407" s="8"/>
-      <c r="W407" s="8" t="s">
-        <v>701</v>
-      </c>
+      <c r="W407" s="8"/>
       <c r="X407" s="8"/>
-      <c r="Y407" s="14" t="s">
-        <v>1130</v>
-      </c>
-      <c r="Z407" s="14"/>
+      <c r="Y407" s="8"/>
       <c r="AF407" s="8"/>
       <c r="AH407" s="6" t="str">
         <f>IF(ISBLANK(AG407),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C407), "/", E407, "/config"))</f>
@@ -38698,51 +38913,53 @@
         <v/>
       </c>
       <c r="AK407" s="6"/>
-      <c r="AL407" s="35" t="str">
-        <f>IF(Table2[[#This Row],[zigbee_type]]="Group", HYPERLINK(_xlfn.CONCAT("https://zigbee2mqtt.janeandgraham.com/#/group/", Table2[[#This Row],[zigbee_group]])), IF(Table2[[#This Row],[zigbee_type]]="Device", HYPERLINK(_xlfn.CONCAT("https://zigbee2mqtt.janeandgraham.com/#/device/", Table2[[#This Row],[connection_mac]])), ))</f>
-        <v>https://zigbee2mqtt.janeandgraham.com/#/device/0x00158d0005d9d088</v>
-      </c>
+      <c r="AL407" s="34"/>
       <c r="AM407" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="AN407" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="AO407" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="AP407" s="9" t="s">
-        <v>690</v>
+        <v>787</v>
+      </c>
+      <c r="AN407" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="AO407" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="AP407" s="6" t="s">
+        <v>785</v>
       </c>
       <c r="AQ407" s="6" t="s">
-        <v>654</v>
+        <v>784</v>
       </c>
       <c r="AS407" s="6" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="AU407" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="AV407" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="AW407" s="6"/>
+        <v>783</v>
+      </c>
+      <c r="AW407" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="AX407" s="12"/>
+      <c r="AY407" s="12"/>
       <c r="AZ407" s="6" t="str">
         <f>IF(AND(ISBLANK(AV407), ISBLANK(AW407)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV407), "", _xlfn.CONCAT("[""mac"", """, AV407, """]")), IF(ISBLANK(AW407), "", _xlfn.CONCAT(", [""ip"", """, AW407, """]")), "]"))</f>
-        <v>[["mac", "0x00158d0005d9d088"]]</v>
+        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
     <row r="408" spans="1:52" ht="16" customHeight="1">
       <c r="A408" s="6">
-        <v>6000</v>
-      </c>
-      <c r="B408" s="6" t="s">
+        <v>5014</v>
+      </c>
+      <c r="B408" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="F408" s="6" t="str">
-        <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="E408" s="12"/>
+      <c r="I408" s="12"/>
       <c r="T408" s="6"/>
       <c r="V408" s="8"/>
       <c r="W408" s="8"/>
@@ -38760,31 +38977,63 @@
       <c r="AK408" s="6"/>
       <c r="AL408" s="34"/>
       <c r="AM408" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="AN408" s="8"/>
+        <v>491</v>
+      </c>
+      <c r="AN408" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AO408" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AP408" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AQ408" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AS408" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="AU408" s="6" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="AV408" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="AW408" s="6"/>
+        <v>487</v>
+      </c>
+      <c r="AW408" s="62" t="s">
+        <v>615</v>
+      </c>
       <c r="AZ408" s="6" t="str">
         <f>IF(AND(ISBLANK(AV408), ISBLANK(AW408)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV408), "", _xlfn.CONCAT("[""mac"", """, AV408, """]")), IF(ISBLANK(AW408), "", _xlfn.CONCAT(", [""ip"", """, AW408, """]")), "]"))</f>
-        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
+        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
     <row r="409" spans="1:52" ht="16" customHeight="1">
+      <c r="A409" s="6">
+        <v>5015</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E409" s="12"/>
       <c r="F409" s="6" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="I409" s="12"/>
       <c r="T409" s="6"/>
       <c r="V409" s="8"/>
-      <c r="W409" s="8"/>
+      <c r="W409" s="8" t="s">
+        <v>701</v>
+      </c>
       <c r="X409" s="8"/>
-      <c r="Y409" s="8"/>
+      <c r="Y409" s="14" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Z409" s="14"/>
       <c r="AF409" s="8"/>
       <c r="AH409" s="6" t="str">
         <f>IF(ISBLANK(AG409),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C409), "/", E409, "/config"))</f>
@@ -38795,31 +39044,51 @@
         <v/>
       </c>
       <c r="AK409" s="6"/>
-      <c r="AL409" s="34"/>
-      <c r="AM409" s="6"/>
-      <c r="AN409" s="8"/>
-      <c r="AV409" s="6"/>
-      <c r="AW409" s="6"/>
+      <c r="AL409" s="35" t="str">
+        <f>IF(Table2[[#This Row],[zigbee_type]]="Group", HYPERLINK(_xlfn.CONCAT("https://zigbee2mqtt.janeandgraham.com/#/group/", Table2[[#This Row],[zigbee_group]])), IF(Table2[[#This Row],[zigbee_type]]="Device", HYPERLINK(_xlfn.CONCAT("https://zigbee2mqtt.janeandgraham.com/#/device/", Table2[[#This Row],[connection_mac]])), ))</f>
+        <v>https://zigbee2mqtt.janeandgraham.com/#/device/0x00158d0005d9d088</v>
+      </c>
+      <c r="AM409" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="AN409" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="AO409" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="AP409" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="AQ409" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="AS409" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV409" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AW409" s="62"/>
       <c r="AZ409" s="6" t="str">
         <f>IF(AND(ISBLANK(AV409), ISBLANK(AW409)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV409), "", _xlfn.CONCAT("[""mac"", """, AV409, """]")), IF(ISBLANK(AW409), "", _xlfn.CONCAT(", [""ip"", """, AW409, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
     <row r="410" spans="1:52" ht="16" customHeight="1">
-      <c r="B410" s="12"/>
-      <c r="C410" s="12"/>
-      <c r="D410" s="12"/>
-      <c r="E410" s="12"/>
+      <c r="A410" s="6">
+        <v>6000</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>769</v>
+      </c>
       <c r="F410" s="6" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G410" s="12"/>
-      <c r="H410" s="12"/>
-      <c r="I410" s="12"/>
-      <c r="K410" s="12"/>
-      <c r="L410" s="12"/>
-      <c r="M410" s="12"/>
       <c r="T410" s="6"/>
       <c r="V410" s="8"/>
       <c r="W410" s="8"/>
@@ -38836,13 +39105,20 @@
       </c>
       <c r="AK410" s="6"/>
       <c r="AL410" s="34"/>
-      <c r="AM410" s="6"/>
+      <c r="AM410" s="6" t="s">
+        <v>616</v>
+      </c>
       <c r="AN410" s="8"/>
-      <c r="AV410" s="6"/>
+      <c r="AU410" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV410" s="6" t="s">
+        <v>617</v>
+      </c>
       <c r="AW410" s="6"/>
       <c r="AZ410" s="6" t="str">
         <f>IF(AND(ISBLANK(AV410), ISBLANK(AW410)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV410), "", _xlfn.CONCAT("[""mac"", """, AV410, """]")), IF(ISBLANK(AW410), "", _xlfn.CONCAT(", [""ip"", """, AW410, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
     <row r="411" spans="1:52" ht="16" customHeight="1">
@@ -38876,10 +39152,20 @@
       </c>
     </row>
     <row r="412" spans="1:52" ht="16" customHeight="1">
+      <c r="B412" s="12"/>
+      <c r="C412" s="12"/>
+      <c r="D412" s="12"/>
+      <c r="E412" s="12"/>
       <c r="F412" s="6" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G412" s="12"/>
+      <c r="H412" s="12"/>
+      <c r="I412" s="12"/>
+      <c r="K412" s="12"/>
+      <c r="L412" s="12"/>
+      <c r="M412" s="12"/>
       <c r="T412" s="6"/>
       <c r="V412" s="8"/>
       <c r="W412" s="8"/>
@@ -38966,7 +39252,6 @@
       </c>
     </row>
     <row r="415" spans="1:52" ht="16" customHeight="1">
-      <c r="E415" s="10"/>
       <c r="F415" s="6" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38997,7 +39282,6 @@
       </c>
     </row>
     <row r="416" spans="1:52" ht="16" customHeight="1">
-      <c r="E416" s="10"/>
       <c r="F416" s="6" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39027,7 +39311,8 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:52" ht="16" customHeight="1">
+    <row r="417" spans="5:52" ht="16" customHeight="1">
+      <c r="E417" s="10"/>
       <c r="F417" s="6" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39057,7 +39342,8 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:52" ht="16" customHeight="1">
+    <row r="418" spans="5:52" ht="16" customHeight="1">
+      <c r="E418" s="10"/>
       <c r="F418" s="6" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39087,7 +39373,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:52" ht="16" customHeight="1">
+    <row r="419" spans="5:52" ht="16" customHeight="1">
       <c r="F419" s="6" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39117,7 +39403,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:52" ht="16" customHeight="1">
+    <row r="420" spans="5:52" ht="16" customHeight="1">
       <c r="F420" s="6" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39147,7 +39433,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:52" ht="16" customHeight="1">
+    <row r="421" spans="5:52" ht="16" customHeight="1">
       <c r="F421" s="6" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39177,7 +39463,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:52" ht="16" customHeight="1">
+    <row r="422" spans="5:52" ht="16" customHeight="1">
       <c r="F422" s="6" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39207,7 +39493,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:52" ht="16" customHeight="1">
+    <row r="423" spans="5:52" ht="16" customHeight="1">
       <c r="F423" s="6" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39237,7 +39523,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:52" ht="16" customHeight="1">
+    <row r="424" spans="5:52" ht="16" customHeight="1">
       <c r="F424" s="6" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39267,7 +39553,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:52" ht="16" customHeight="1">
+    <row r="425" spans="5:52" ht="16" customHeight="1">
       <c r="F425" s="6" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39297,7 +39583,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:52" ht="16" customHeight="1">
+    <row r="426" spans="5:52" ht="16" customHeight="1">
       <c r="F426" s="6" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39327,7 +39613,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:52" ht="16" customHeight="1">
+    <row r="427" spans="5:52" ht="16" customHeight="1">
       <c r="F427" s="6" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39357,7 +39643,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:52" ht="16" customHeight="1">
+    <row r="428" spans="5:52" ht="16" customHeight="1">
       <c r="F428" s="6" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39387,7 +39673,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:52" ht="16" customHeight="1">
+    <row r="429" spans="5:52" ht="16" customHeight="1">
       <c r="F429" s="6" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39417,7 +39703,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:52" ht="16" customHeight="1">
+    <row r="430" spans="5:52" ht="16" customHeight="1">
       <c r="F430" s="6" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39447,7 +39733,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:52" ht="16" customHeight="1">
+    <row r="431" spans="5:52" ht="16" customHeight="1">
       <c r="F431" s="6" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39477,7 +39763,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:52" ht="16" customHeight="1">
+    <row r="432" spans="5:52" ht="16" customHeight="1">
       <c r="F432" s="6" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39977,7 +40263,7 @@
         <v/>
       </c>
       <c r="AK448" s="6"/>
-      <c r="AL448" s="33"/>
+      <c r="AL448" s="34"/>
       <c r="AM448" s="6"/>
       <c r="AN448" s="8"/>
       <c r="AV448" s="6"/>
@@ -40067,7 +40353,7 @@
         <v/>
       </c>
       <c r="AK451" s="6"/>
-      <c r="AL451" s="33"/>
+      <c r="AL451" s="34"/>
       <c r="AM451" s="6"/>
       <c r="AN451" s="8"/>
       <c r="AV451" s="6"/>
@@ -40127,7 +40413,7 @@
         <v/>
       </c>
       <c r="AK453" s="6"/>
-      <c r="AL453" s="34"/>
+      <c r="AL453" s="33"/>
       <c r="AM453" s="6"/>
       <c r="AN453" s="8"/>
       <c r="AV453" s="6"/>
@@ -40217,7 +40503,7 @@
         <v/>
       </c>
       <c r="AK456" s="6"/>
-      <c r="AL456" s="34"/>
+      <c r="AL456" s="33"/>
       <c r="AM456" s="6"/>
       <c r="AN456" s="8"/>
       <c r="AV456" s="6"/>
@@ -42542,7 +42828,6 @@
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H534" s="10"/>
       <c r="T534" s="6"/>
       <c r="V534" s="8"/>
       <c r="W534" s="8"/>
@@ -42573,7 +42858,6 @@
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H535" s="10"/>
       <c r="T535" s="6"/>
       <c r="V535" s="8"/>
       <c r="W535" s="8"/>
@@ -42604,6 +42888,7 @@
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H536" s="10"/>
       <c r="T536" s="6"/>
       <c r="V536" s="8"/>
       <c r="W536" s="8"/>
@@ -42634,6 +42919,7 @@
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H537" s="10"/>
       <c r="T537" s="6"/>
       <c r="V537" s="8"/>
       <c r="W537" s="8"/>
@@ -42729,6 +43015,7 @@
       <c r="W540" s="8"/>
       <c r="X540" s="8"/>
       <c r="Y540" s="8"/>
+      <c r="AF540" s="8"/>
       <c r="AH540" s="6" t="str">
         <f>IF(ISBLANK(AG540),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C540), "/", E540, "/config"))</f>
         <v/>
@@ -42758,6 +43045,7 @@
       <c r="W541" s="8"/>
       <c r="X541" s="8"/>
       <c r="Y541" s="8"/>
+      <c r="AF541" s="8"/>
       <c r="AH541" s="6" t="str">
         <f>IF(ISBLANK(AG541),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C541), "/", E541, "/config"))</f>
         <v/>
@@ -42840,7 +43128,6 @@
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G544" s="10"/>
       <c r="T544" s="6"/>
       <c r="V544" s="8"/>
       <c r="W544" s="8"/>
@@ -42899,6 +43186,7 @@
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G546" s="10"/>
       <c r="T546" s="6"/>
       <c r="V546" s="8"/>
       <c r="W546" s="8"/>
@@ -48372,6 +48660,64 @@
       <c r="AW734" s="6"/>
       <c r="AZ734" s="6" t="str">
         <f>IF(AND(ISBLANK(AV734), ISBLANK(AW734)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV734), "", _xlfn.CONCAT("[""mac"", """, AV734, """]")), IF(ISBLANK(AW734), "", _xlfn.CONCAT(", [""ip"", """, AW734, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="735" spans="6:52" ht="16" customHeight="1">
+      <c r="F735" s="6" t="str">
+        <f>IF(ISBLANK(E735), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="T735" s="6"/>
+      <c r="V735" s="8"/>
+      <c r="W735" s="8"/>
+      <c r="X735" s="8"/>
+      <c r="Y735" s="8"/>
+      <c r="AH735" s="6" t="str">
+        <f>IF(ISBLANK(AG735),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C735), "/", E735, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AI735" s="6" t="str">
+        <f>IF(ISBLANK(AG735),  "", _xlfn.CONCAT(LOWER(C735), "/", E735))</f>
+        <v/>
+      </c>
+      <c r="AK735" s="6"/>
+      <c r="AL735" s="34"/>
+      <c r="AM735" s="6"/>
+      <c r="AN735" s="8"/>
+      <c r="AV735" s="6"/>
+      <c r="AW735" s="6"/>
+      <c r="AZ735" s="6" t="str">
+        <f>IF(AND(ISBLANK(AV735), ISBLANK(AW735)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV735), "", _xlfn.CONCAT("[""mac"", """, AV735, """]")), IF(ISBLANK(AW735), "", _xlfn.CONCAT(", [""ip"", """, AW735, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="736" spans="6:52" ht="16" customHeight="1">
+      <c r="F736" s="6" t="str">
+        <f>IF(ISBLANK(E736), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="T736" s="6"/>
+      <c r="V736" s="8"/>
+      <c r="W736" s="8"/>
+      <c r="X736" s="8"/>
+      <c r="Y736" s="8"/>
+      <c r="AH736" s="6" t="str">
+        <f>IF(ISBLANK(AG736),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C736), "/", E736, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AI736" s="6" t="str">
+        <f>IF(ISBLANK(AG736),  "", _xlfn.CONCAT(LOWER(C736), "/", E736))</f>
+        <v/>
+      </c>
+      <c r="AK736" s="6"/>
+      <c r="AL736" s="34"/>
+      <c r="AM736" s="6"/>
+      <c r="AN736" s="8"/>
+      <c r="AV736" s="6"/>
+      <c r="AW736" s="6"/>
+      <c r="AZ736" s="6" t="str">
+        <f>IF(AND(ISBLANK(AV736), ISBLANK(AW736)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV736), "", _xlfn.CONCAT("[""mac"", """, AV736, """]")), IF(ISBLANK(AW736), "", _xlfn.CONCAT(", [""ip"", """, AW736, """]")), "]"))</f>
         <v/>
       </c>
     </row>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525276B3-11ED-C340-B6FB-D789B16AF836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A69E14-E86F-6F46-9B20-692614F4915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5738,7 +5738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F179" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="M219" sqref="M219"/>
     </sheetView>
   </sheetViews>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A69E14-E86F-6F46-9B20-692614F4915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498004E1-7CD8-8140-A8F2-8CABD481BC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5997" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5959" uniqueCount="1250">
   <si>
     <t>index</t>
   </si>
@@ -3133,9 +3133,6 @@
     <t>Garden Repeater</t>
   </si>
   <si>
-    <t>https://weewx.janeandgraham.com</t>
-  </si>
-  <si>
     <t>garden-repeater</t>
   </si>
   <si>
@@ -3212,9 +3209,6 @@
   </si>
   <si>
     <t>telegraf/macmini-mae/internet</t>
-  </si>
-  <si>
-    <t>https://grafana.janeandgraham.com/d/internet-desktop/internet?orgId=2</t>
   </si>
   <si>
     <t>1.25.3</t>
@@ -4100,7 +4094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4260,39 +4254,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5739,7 +5700,7 @@
   <dimension ref="A1:AZ739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="M219" sqref="M219"/>
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -5840,22 +5801,22 @@
         <v>287</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="U1" s="18" t="s">
         <v>286</v>
@@ -5927,7 +5888,7 @@
         <v>630</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AS1" s="20" t="s">
         <v>630</v>
@@ -5998,22 +5959,22 @@
         <v>655</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="Q2" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>1103</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>1103</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>1104</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>1105</v>
       </c>
       <c r="U2" s="17" t="s">
         <v>657</v>
@@ -6085,7 +6046,7 @@
         <v>168</v>
       </c>
       <c r="AR2" s="23" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AS2" s="23" t="s">
         <v>169</v>
@@ -6156,22 +6117,22 @@
         <v>652</v>
       </c>
       <c r="O3" s="49" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>1106</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="46" t="s">
         <v>1107</v>
       </c>
-      <c r="R3" s="46" t="s">
-        <v>1108</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>1109</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>653</v>
@@ -6243,7 +6204,7 @@
         <v>22</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AS3" s="4" t="s">
         <v>23</v>
@@ -6341,9 +6302,7 @@
       </c>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL4" s="32"/>
       <c r="AM4" s="6" t="s">
         <v>454</v>
       </c>
@@ -6451,9 +6410,7 @@
       <c r="AK5" s="6">
         <v>1</v>
       </c>
-      <c r="AL5" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL5" s="32"/>
       <c r="AM5" s="6" t="s">
         <v>454</v>
       </c>
@@ -6509,7 +6466,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="T6" s="6"/>
       <c r="V6" s="8"/>
@@ -6673,7 +6630,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="T8" s="6"/>
       <c r="V8" s="8"/>
@@ -8163,9 +8120,7 @@
         <v/>
       </c>
       <c r="AK26" s="6"/>
-      <c r="AL26" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL26" s="32"/>
       <c r="AM26" s="6" t="s">
         <v>454</v>
       </c>
@@ -8265,9 +8220,7 @@
       <c r="AK27" s="6">
         <v>1</v>
       </c>
-      <c r="AL27" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL27" s="32"/>
       <c r="AM27" s="6" t="s">
         <v>454</v>
       </c>
@@ -8364,9 +8317,7 @@
       <c r="AK28" s="6">
         <v>1</v>
       </c>
-      <c r="AL28" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL28" s="32"/>
       <c r="AM28" s="6" t="s">
         <v>454</v>
       </c>
@@ -8463,9 +8414,7 @@
       <c r="AK29" s="6">
         <v>1</v>
       </c>
-      <c r="AL29" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL29" s="32"/>
       <c r="AM29" s="6" t="s">
         <v>454</v>
       </c>
@@ -8562,9 +8511,7 @@
       <c r="AK30" s="6">
         <v>1</v>
       </c>
-      <c r="AL30" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL30" s="32"/>
       <c r="AM30" s="6" t="s">
         <v>454</v>
       </c>
@@ -8661,9 +8608,7 @@
       <c r="AK31" s="6">
         <v>1</v>
       </c>
-      <c r="AL31" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL31" s="32"/>
       <c r="AM31" s="6" t="s">
         <v>454</v>
       </c>
@@ -8760,9 +8705,7 @@
       <c r="AK32" s="6">
         <v>1</v>
       </c>
-      <c r="AL32" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL32" s="32"/>
       <c r="AM32" s="6" t="s">
         <v>454</v>
       </c>
@@ -8859,9 +8802,7 @@
       <c r="AK33" s="6">
         <v>1</v>
       </c>
-      <c r="AL33" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL33" s="32"/>
       <c r="AM33" s="6" t="s">
         <v>454</v>
       </c>
@@ -9202,9 +9143,7 @@
       <c r="AK38" s="6">
         <v>1</v>
       </c>
-      <c r="AL38" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL38" s="32"/>
       <c r="AM38" s="6" t="s">
         <v>454</v>
       </c>
@@ -9555,7 +9494,7 @@
         <v>Parents</v>
       </c>
       <c r="AV42" s="6"/>
-      <c r="AW42" s="64"/>
+      <c r="AW42" s="6"/>
       <c r="AZ42" s="6" t="str">
         <f>IF(AND(ISBLANK(AV42), ISBLANK(AW42)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV42), "", _xlfn.CONCAT("[""mac"", """, AV42, """]")), IF(ISBLANK(AW42), "", _xlfn.CONCAT(", [""ip"", """, AW42, """]")), "]"))</f>
         <v/>
@@ -10130,9 +10069,7 @@
       <c r="AK49" s="6">
         <v>1</v>
       </c>
-      <c r="AL49" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL49" s="32"/>
       <c r="AM49" s="6" t="s">
         <v>454</v>
       </c>
@@ -11561,9 +11498,7 @@
       <c r="AK67" s="6">
         <v>1</v>
       </c>
-      <c r="AL67" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL67" s="32"/>
       <c r="AM67" s="6" t="s">
         <v>454</v>
       </c>
@@ -11655,9 +11590,7 @@
       <c r="AK68" s="6">
         <v>1</v>
       </c>
-      <c r="AL68" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL68" s="32"/>
       <c r="AM68" s="6" t="s">
         <v>454</v>
       </c>
@@ -11749,9 +11682,7 @@
       <c r="AK69" s="6">
         <v>1</v>
       </c>
-      <c r="AL69" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL69" s="32"/>
       <c r="AM69" s="6" t="s">
         <v>454</v>
       </c>
@@ -11843,9 +11774,7 @@
       <c r="AK70" s="6">
         <v>1</v>
       </c>
-      <c r="AL70" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL70" s="32"/>
       <c r="AM70" s="6" t="s">
         <v>454</v>
       </c>
@@ -11937,9 +11866,7 @@
       <c r="AK71" s="6">
         <v>1</v>
       </c>
-      <c r="AL71" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL71" s="32"/>
       <c r="AM71" s="6" t="s">
         <v>454</v>
       </c>
@@ -12031,9 +11958,7 @@
       <c r="AK72" s="6">
         <v>1</v>
       </c>
-      <c r="AL72" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL72" s="32"/>
       <c r="AM72" s="6" t="s">
         <v>454</v>
       </c>
@@ -12088,7 +12013,6 @@
       <c r="I73" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J73" s="64"/>
       <c r="T73" s="6"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8"/>
@@ -12126,9 +12050,7 @@
       <c r="AK73" s="6">
         <v>1</v>
       </c>
-      <c r="AL73" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL73" s="32"/>
       <c r="AM73" s="6" t="s">
         <v>454</v>
       </c>
@@ -12220,9 +12142,7 @@
       <c r="AK74" s="6">
         <v>1</v>
       </c>
-      <c r="AL74" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL74" s="32"/>
       <c r="AM74" s="6" t="s">
         <v>454</v>
       </c>
@@ -12311,9 +12231,7 @@
       <c r="AK75" s="6">
         <v>1</v>
       </c>
-      <c r="AL75" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL75" s="32"/>
       <c r="AM75" s="6" t="s">
         <v>454</v>
       </c>
@@ -12405,9 +12323,7 @@
       <c r="AK76" s="6">
         <v>1</v>
       </c>
-      <c r="AL76" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL76" s="32"/>
       <c r="AM76" s="6" t="s">
         <v>454</v>
       </c>
@@ -12499,9 +12415,7 @@
       <c r="AK77" s="6">
         <v>1</v>
       </c>
-      <c r="AL77" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL77" s="32"/>
       <c r="AM77" s="6" t="s">
         <v>454</v>
       </c>
@@ -12596,9 +12510,7 @@
       <c r="AK78" s="6">
         <v>1</v>
       </c>
-      <c r="AL78" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL78" s="32"/>
       <c r="AM78" s="6" t="s">
         <v>454</v>
       </c>
@@ -12653,7 +12565,6 @@
       <c r="I79" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="J79" s="64"/>
       <c r="M79" s="6" t="s">
         <v>136</v>
       </c>
@@ -12697,9 +12608,7 @@
       <c r="AK79" s="6">
         <v>1</v>
       </c>
-      <c r="AL79" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL79" s="32"/>
       <c r="AM79" s="6" t="s">
         <v>454</v>
       </c>
@@ -12854,9 +12763,7 @@
       <c r="AK81" s="6">
         <v>1</v>
       </c>
-      <c r="AL81" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL81" s="32"/>
       <c r="AM81" s="6" t="s">
         <v>454</v>
       </c>
@@ -12919,7 +12826,7 @@
       <c r="AA82" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AB82" s="64" t="s">
+      <c r="AB82" s="6" t="s">
         <v>247</v>
       </c>
       <c r="AD82" s="6" t="s">
@@ -12948,9 +12855,7 @@
       <c r="AK82" s="6">
         <v>1</v>
       </c>
-      <c r="AL82" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL82" s="32"/>
       <c r="AM82" s="6" t="s">
         <v>454</v>
       </c>
@@ -13102,9 +13007,7 @@
       <c r="AK84" s="6">
         <v>1</v>
       </c>
-      <c r="AL84" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL84" s="32"/>
       <c r="AM84" s="6" t="s">
         <v>454</v>
       </c>
@@ -13259,9 +13162,7 @@
       <c r="AK86" s="6">
         <v>1</v>
       </c>
-      <c r="AL86" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL86" s="32"/>
       <c r="AM86" s="6" t="s">
         <v>454</v>
       </c>
@@ -13353,9 +13254,7 @@
       <c r="AK87" s="6">
         <v>1</v>
       </c>
-      <c r="AL87" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL87" s="32"/>
       <c r="AM87" s="6" t="s">
         <v>454</v>
       </c>
@@ -13447,9 +13346,7 @@
       <c r="AK88" s="6">
         <v>1</v>
       </c>
-      <c r="AL88" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL88" s="32"/>
       <c r="AM88" s="6" t="s">
         <v>454</v>
       </c>
@@ -14091,19 +13988,19 @@
         <v>132</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="M98" s="6" t="s">
         <v>136</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P98" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R98" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -14114,7 +14011,7 @@
         <v>Ada Fans</v>
       </c>
       <c r="T98" s="9" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
@@ -14198,19 +14095,19 @@
         <v>132</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="M99" s="6" t="s">
         <v>136</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P99" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q99" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R99" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -14221,7 +14118,7 @@
         <v>Edwin Fans</v>
       </c>
       <c r="T99" s="9" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
@@ -14311,13 +14208,13 @@
         <v>136</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P100" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q100" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R100" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -14328,7 +14225,7 @@
         <v>Parents Fans</v>
       </c>
       <c r="T100" s="9" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
@@ -14390,7 +14287,7 @@
         <v>26</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>149</v>
@@ -14413,13 +14310,13 @@
         <v>132</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P101" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R101" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -14477,7 +14374,7 @@
         <v>134</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F102" s="6" t="str">
         <f>IF(ISBLANK(E102), "", Table2[[#This Row],[unique_id]])</f>
@@ -14499,13 +14396,13 @@
         <v>136</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P102" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R102" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -14557,7 +14454,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR102" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS102" s="6" t="s">
         <v>215</v>
@@ -14614,13 +14511,13 @@
         <v>136</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P103" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q103" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R103" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -14631,7 +14528,7 @@
         <v>Lounge Fans</v>
       </c>
       <c r="T103" s="9" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
@@ -14715,7 +14612,7 @@
         <v>132</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="M104" s="6" t="s">
         <v>136</v>
@@ -14781,13 +14678,13 @@
         <v>132</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P105" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q105" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R105" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -14798,7 +14695,7 @@
         <v>Deck Fans</v>
       </c>
       <c r="T105" s="9" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
@@ -14882,13 +14779,13 @@
         <v>132</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P106" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q106" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R106" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -14899,7 +14796,7 @@
         <v>Deck Fans</v>
       </c>
       <c r="T106" s="9" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
@@ -15047,19 +14944,19 @@
         <v>132</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="M108" s="6" t="s">
         <v>136</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P108" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q108" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R108" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -15070,7 +14967,7 @@
         <v>Ada Lights</v>
       </c>
       <c r="T108" s="9" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
@@ -15149,7 +15046,7 @@
         <v>703</v>
       </c>
       <c r="Y109" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z109" s="14" t="s">
         <v>763</v>
@@ -15225,13 +15122,13 @@
         <v>139</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P110" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q110" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R110" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -15250,7 +15147,7 @@
         <v>703</v>
       </c>
       <c r="Y110" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z110" s="14" t="s">
         <v>763</v>
@@ -15347,7 +15244,7 @@
         <v>704</v>
       </c>
       <c r="Y111" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z111" s="14" t="s">
         <v>764</v>
@@ -15423,13 +15320,13 @@
         <v>139</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P112" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q112" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R112" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -15448,7 +15345,7 @@
         <v>704</v>
       </c>
       <c r="Y112" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z112" s="14" t="s">
         <v>764</v>
@@ -15528,19 +15425,19 @@
         <v>132</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="M113" s="6" t="s">
         <v>136</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P113" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q113" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R113" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -15551,7 +15448,7 @@
         <v>Edwin Lights</v>
       </c>
       <c r="T113" s="9" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="V113" s="8"/>
       <c r="W113" s="8"/>
@@ -15630,7 +15527,7 @@
         <v>300</v>
       </c>
       <c r="Y114" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z114" s="14" t="s">
         <v>763</v>
@@ -15706,13 +15603,13 @@
         <v>139</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P115" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q115" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R115" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -15731,7 +15628,7 @@
         <v>300</v>
       </c>
       <c r="Y115" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z115" s="14" t="s">
         <v>763</v>
@@ -15811,7 +15708,7 @@
         <v>132</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="K116" s="6" t="s">
         <v>992</v>
@@ -15828,7 +15725,7 @@
         <v>400</v>
       </c>
       <c r="Y116" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z116" s="14" t="s">
         <v>762</v>
@@ -15901,13 +15798,13 @@
         <v>139</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P117" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q117" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R117" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -15926,7 +15823,7 @@
         <v>400</v>
       </c>
       <c r="Y117" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z117" s="14" t="s">
         <v>762</v>
@@ -15998,13 +15895,13 @@
         <v>139</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P118" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q118" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R118" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -16023,7 +15920,7 @@
         <v>400</v>
       </c>
       <c r="Y118" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z118" s="14" t="s">
         <v>762</v>
@@ -16095,13 +15992,13 @@
         <v>139</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P119" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q119" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R119" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -16120,7 +16017,7 @@
         <v>400</v>
       </c>
       <c r="Y119" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z119" s="14" t="s">
         <v>762</v>
@@ -16192,13 +16089,13 @@
         <v>139</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P120" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q120" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R120" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -16217,7 +16114,7 @@
         <v>400</v>
       </c>
       <c r="Y120" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z120" s="14" t="s">
         <v>762</v>
@@ -16294,7 +16191,7 @@
         <v>132</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="K121" s="6" t="s">
         <v>991</v>
@@ -16311,7 +16208,7 @@
         <v>500</v>
       </c>
       <c r="Y121" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z121" s="14" t="s">
         <v>764</v>
@@ -16384,13 +16281,13 @@
         <v>139</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P122" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q122" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R122" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -16409,7 +16306,7 @@
         <v>500</v>
       </c>
       <c r="Y122" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z122" s="14" t="s">
         <v>764</v>
@@ -16481,13 +16378,13 @@
         <v>139</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P123" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q123" s="64" t="s">
-        <v>1115</v>
+      <c r="Q123" s="6" t="s">
+        <v>1113</v>
       </c>
       <c r="R123" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -16506,7 +16403,7 @@
         <v>500</v>
       </c>
       <c r="Y123" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z123" s="14" t="s">
         <v>764</v>
@@ -16578,13 +16475,13 @@
         <v>139</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P124" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q124" s="64" t="s">
-        <v>1115</v>
+      <c r="Q124" s="6" t="s">
+        <v>1113</v>
       </c>
       <c r="R124" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -16603,7 +16500,7 @@
         <v>500</v>
       </c>
       <c r="Y124" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z124" s="14" t="s">
         <v>764</v>
@@ -16675,13 +16572,13 @@
         <v>139</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P125" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q125" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R125" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -16700,7 +16597,7 @@
         <v>500</v>
       </c>
       <c r="Y125" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z125" s="14" t="s">
         <v>764</v>
@@ -16772,13 +16669,13 @@
         <v>139</v>
       </c>
       <c r="O126" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P126" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R126" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -16797,7 +16694,7 @@
         <v>500</v>
       </c>
       <c r="Y126" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z126" s="14" t="s">
         <v>764</v>
@@ -16869,13 +16766,13 @@
         <v>139</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P127" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q127" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R127" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -16894,7 +16791,7 @@
         <v>500</v>
       </c>
       <c r="Y127" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z127" s="14" t="s">
         <v>764</v>
@@ -16971,7 +16868,7 @@
         <v>132</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="K128" s="6" t="s">
         <v>991</v>
@@ -16988,7 +16885,7 @@
         <v>600</v>
       </c>
       <c r="Y128" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z128" s="14" t="s">
         <v>764</v>
@@ -17061,13 +16958,13 @@
         <v>139</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P129" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q129" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R129" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -17086,7 +16983,7 @@
         <v>600</v>
       </c>
       <c r="Y129" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z129" s="14" t="s">
         <v>764</v>
@@ -17158,13 +17055,13 @@
         <v>139</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P130" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q130" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R130" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -17183,7 +17080,7 @@
         <v>600</v>
       </c>
       <c r="Y130" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z130" s="14" t="s">
         <v>764</v>
@@ -17255,13 +17152,13 @@
         <v>139</v>
       </c>
       <c r="O131" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P131" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q131" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R131" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -17280,7 +17177,7 @@
         <v>600</v>
       </c>
       <c r="Y131" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z131" s="14" t="s">
         <v>764</v>
@@ -17357,19 +17254,19 @@
         <v>132</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="M132" s="6" t="s">
         <v>136</v>
       </c>
       <c r="O132" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P132" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q132" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R132" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -17380,7 +17277,7 @@
         <v>Lounge Lights</v>
       </c>
       <c r="T132" s="9" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="V132" s="8"/>
       <c r="W132" s="8"/>
@@ -17462,7 +17359,7 @@
         <v>776</v>
       </c>
       <c r="Y133" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z133" s="14" t="s">
         <v>764</v>
@@ -17538,13 +17435,13 @@
         <v>139</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P134" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q134" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R134" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -17563,7 +17460,7 @@
         <v>776</v>
       </c>
       <c r="Y134" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z134" s="14" t="s">
         <v>763</v>
@@ -17643,7 +17540,7 @@
         <v>132</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="K135" s="6" t="s">
         <v>992</v>
@@ -17660,7 +17557,7 @@
         <v>700</v>
       </c>
       <c r="Y135" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z135" s="14" t="s">
         <v>762</v>
@@ -17712,16 +17609,16 @@
       <c r="A136" s="6">
         <v>1628</v>
       </c>
-      <c r="B136" s="64" t="s">
+      <c r="B136" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D136" s="64" t="s">
+      <c r="D136" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E136" s="64" t="str">
+      <c r="E136" s="6" t="str">
         <f>SUBSTITUTE(Table2[[#This Row],[device_name]], "-", "_")</f>
         <v>parents_main_bulb_1</v>
       </c>
@@ -17729,22 +17626,17 @@
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_main_bulb_1</v>
       </c>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64" t="s">
+      <c r="H136" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I136" s="64"/>
-      <c r="K136" s="64"/>
-      <c r="L136" s="64"/>
-      <c r="M136" s="64"/>
       <c r="O136" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P136" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q136" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R136" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -17763,7 +17655,7 @@
         <v>700</v>
       </c>
       <c r="Y136" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z136" s="14" t="s">
         <v>762</v>
@@ -17814,16 +17706,16 @@
       <c r="A137" s="6">
         <v>1629</v>
       </c>
-      <c r="B137" s="64" t="s">
+      <c r="B137" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D137" s="64" t="s">
+      <c r="D137" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E137" s="64" t="str">
+      <c r="E137" s="6" t="str">
         <f>SUBSTITUTE(Table2[[#This Row],[device_name]], "-", "_")</f>
         <v>parents_main_bulb_2</v>
       </c>
@@ -17831,22 +17723,17 @@
         <f>IF(ISBLANK(E137), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_main_bulb_2</v>
       </c>
-      <c r="G137" s="64"/>
-      <c r="H137" s="64" t="s">
+      <c r="H137" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I137" s="64"/>
-      <c r="K137" s="64"/>
-      <c r="L137" s="64"/>
-      <c r="M137" s="64"/>
       <c r="O137" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P137" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q137" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R137" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -17865,7 +17752,7 @@
         <v>700</v>
       </c>
       <c r="Y137" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z137" s="14" t="s">
         <v>762</v>
@@ -17937,13 +17824,13 @@
         <v>139</v>
       </c>
       <c r="O138" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P138" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q138" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R138" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -17962,7 +17849,7 @@
         <v>700</v>
       </c>
       <c r="Y138" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z138" s="14" t="s">
         <v>762</v>
@@ -18023,14 +17910,14 @@
         <v>137</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F139" s="6" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
         <v>study_lamp</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>139</v>
@@ -18053,10 +17940,10 @@
         <v>686</v>
       </c>
       <c r="X139" s="53" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="Y139" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z139" s="14" t="s">
         <v>764</v>
@@ -18132,13 +18019,13 @@
         <v>139</v>
       </c>
       <c r="O140" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P140" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q140" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R140" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -18154,10 +18041,10 @@
         <v>685</v>
       </c>
       <c r="X140" s="53" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="Y140" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z140" s="14" t="s">
         <v>763</v>
@@ -18199,7 +18086,7 @@
         <v>1009</v>
       </c>
       <c r="AV140" s="6" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AW140" s="6"/>
       <c r="AZ140" s="6" t="str">
@@ -18211,39 +18098,38 @@
       <c r="A141" s="6">
         <v>1633</v>
       </c>
-      <c r="B141" s="64" t="s">
+      <c r="B141" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D141" s="64" t="s">
+      <c r="D141" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E141" s="64" t="s">
+      <c r="E141" s="6" t="s">
         <v>341</v>
       </c>
       <c r="F141" s="6" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_main</v>
       </c>
-      <c r="G141" s="64" t="s">
+      <c r="G141" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H141" s="64" t="s">
+      <c r="H141" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I141" s="64" t="s">
+      <c r="I141" s="6" t="s">
         <v>132</v>
       </c>
       <c r="J141" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="K141" s="64" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="L141" s="64"/>
-      <c r="M141" s="64" t="s">
+      <c r="M141" s="6" t="s">
         <v>136</v>
       </c>
       <c r="T141" s="6"/>
@@ -18255,7 +18141,7 @@
         <v>800</v>
       </c>
       <c r="Y141" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z141" s="14" t="s">
         <v>764</v>
@@ -18313,10 +18199,10 @@
       <c r="C142" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D142" s="64" t="s">
+      <c r="D142" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E142" s="64" t="str">
+      <c r="E142" s="6" t="str">
         <f>SUBSTITUTE(Table2[[#This Row],[device_name]], "-", "_")</f>
         <v>kitchen_main_bulb_1</v>
       </c>
@@ -18324,22 +18210,17 @@
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_main_bulb_1</v>
       </c>
-      <c r="G142" s="64"/>
-      <c r="H142" s="64" t="s">
+      <c r="H142" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I142" s="64"/>
-      <c r="K142" s="64"/>
-      <c r="L142" s="64"/>
-      <c r="M142" s="64"/>
       <c r="O142" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P142" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q142" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R142" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -18358,7 +18239,7 @@
         <v>800</v>
       </c>
       <c r="Y142" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z142" s="14" t="s">
         <v>764</v>
@@ -18430,13 +18311,13 @@
         <v>139</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P143" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q143" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R143" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -18455,7 +18336,7 @@
         <v>800</v>
       </c>
       <c r="Y143" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z143" s="14" t="s">
         <v>764</v>
@@ -18527,13 +18408,13 @@
         <v>139</v>
       </c>
       <c r="O144" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P144" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q144" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R144" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -18552,7 +18433,7 @@
         <v>800</v>
       </c>
       <c r="Y144" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z144" s="14" t="s">
         <v>764</v>
@@ -18625,13 +18506,13 @@
         <v>139</v>
       </c>
       <c r="O145" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P145" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q145" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R145" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -18650,7 +18531,7 @@
         <v>800</v>
       </c>
       <c r="Y145" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z145" s="14" t="s">
         <v>764</v>
@@ -18705,7 +18586,7 @@
         <v>26</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>149</v>
@@ -18728,13 +18609,13 @@
         <v>132</v>
       </c>
       <c r="O146" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P146" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q146" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R146" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -18802,7 +18683,7 @@
         <v>134</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F147" s="6" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
@@ -18818,19 +18699,19 @@
         <v>132</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="M147" s="6" t="s">
         <v>136</v>
       </c>
       <c r="O147" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P147" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q147" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R147" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -18882,7 +18763,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR147" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS147" s="6" t="s">
         <v>215</v>
@@ -18931,7 +18812,7 @@
         <v>132</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K148" s="6" t="s">
         <v>991</v>
@@ -18948,7 +18829,7 @@
         <v>900</v>
       </c>
       <c r="Y148" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z148" s="14" t="s">
         <v>764</v>
@@ -19021,13 +18902,13 @@
         <v>139</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P149" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q149" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R149" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -19046,7 +18927,7 @@
         <v>900</v>
       </c>
       <c r="Y149" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z149" s="14" t="s">
         <v>764</v>
@@ -19123,7 +19004,7 @@
         <v>132</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K150" s="6" t="s">
         <v>991</v>
@@ -19140,7 +19021,7 @@
         <v>1000</v>
       </c>
       <c r="Y150" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z150" s="14" t="s">
         <v>764</v>
@@ -19213,13 +19094,13 @@
         <v>139</v>
       </c>
       <c r="O151" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P151" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q151" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R151" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -19238,7 +19119,7 @@
         <v>1000</v>
       </c>
       <c r="Y151" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z151" s="14" t="s">
         <v>764</v>
@@ -19315,7 +19196,7 @@
         <v>132</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="M152" s="6" t="s">
         <v>136</v>
@@ -19329,7 +19210,7 @@
         <v>1100</v>
       </c>
       <c r="Y152" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z152" s="14" t="s">
         <v>765</v>
@@ -19402,13 +19283,13 @@
         <v>139</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P153" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q153" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R153" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -19427,7 +19308,7 @@
         <v>1100</v>
       </c>
       <c r="Y153" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z153" s="14" t="s">
         <v>765</v>
@@ -19504,7 +19385,7 @@
         <v>132</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K154" s="6" t="s">
         <v>992</v>
@@ -19521,7 +19402,7 @@
         <v>1200</v>
       </c>
       <c r="Y154" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z154" s="14" t="s">
         <v>762</v>
@@ -19594,13 +19475,13 @@
         <v>139</v>
       </c>
       <c r="O155" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P155" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q155" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R155" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -19619,7 +19500,7 @@
         <v>1200</v>
       </c>
       <c r="Y155" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z155" s="14" t="s">
         <v>762</v>
@@ -19696,7 +19577,7 @@
         <v>132</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K156" s="6" t="s">
         <v>992</v>
@@ -19713,7 +19594,7 @@
         <v>1300</v>
       </c>
       <c r="Y156" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z156" s="14" t="s">
         <v>762</v>
@@ -19786,13 +19667,13 @@
         <v>139</v>
       </c>
       <c r="O157" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P157" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q157" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R157" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -19811,7 +19692,7 @@
         <v>1300</v>
       </c>
       <c r="Y157" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z157" s="14" t="s">
         <v>762</v>
@@ -19888,7 +19769,7 @@
         <v>132</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K158" s="6" t="s">
         <v>992</v>
@@ -19905,7 +19786,7 @@
         <v>1400</v>
       </c>
       <c r="Y158" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Z158" s="14" t="s">
         <v>762</v>
@@ -19954,7 +19835,7 @@
       </c>
     </row>
     <row r="159" spans="1:52" ht="16" customHeight="1">
-      <c r="A159" s="64">
+      <c r="A159" s="6">
         <v>1651</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -19978,13 +19859,13 @@
         <v>139</v>
       </c>
       <c r="O159" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P159" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q159" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R159" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -20003,7 +19884,7 @@
         <v>1400</v>
       </c>
       <c r="Y159" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z159" s="14" t="s">
         <v>762</v>
@@ -20058,7 +19939,7 @@
         <v>26</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>149</v>
@@ -20081,13 +19962,13 @@
         <v>132</v>
       </c>
       <c r="O160" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P160" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q160" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R160" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -20155,7 +20036,7 @@
         <v>134</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F161" s="6" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
@@ -20171,19 +20052,19 @@
         <v>132</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="M161" s="6" t="s">
         <v>136</v>
       </c>
       <c r="O161" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P161" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q161" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R161" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -20235,7 +20116,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR161" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS161" s="6" t="s">
         <v>422</v>
@@ -20262,7 +20143,7 @@
         <v>26</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>149</v>
@@ -20285,13 +20166,13 @@
         <v>132</v>
       </c>
       <c r="O162" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P162" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q162" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R162" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -20359,7 +20240,7 @@
         <v>134</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F163" s="6" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
@@ -20375,19 +20256,19 @@
         <v>132</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="M163" s="6" t="s">
         <v>136</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P163" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q163" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R163" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -20439,7 +20320,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR163" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS163" s="6" t="s">
         <v>778</v>
@@ -20488,7 +20369,7 @@
         <v>132</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="M164" s="6" t="s">
         <v>136</v>
@@ -20502,7 +20383,7 @@
         <v>789</v>
       </c>
       <c r="Y164" s="14" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="Z164" s="14" t="s">
         <v>788</v>
@@ -20575,13 +20456,13 @@
         <v>139</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P165" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q165" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R165" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -20600,7 +20481,7 @@
         <v>789</v>
       </c>
       <c r="Y165" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z165" s="14" t="s">
         <v>788</v>
@@ -20668,18 +20549,17 @@
         <f>IF(ISBLANK(E166), "", Table2[[#This Row],[unique_id]])</f>
         <v>garden_pedestals_bulb_2</v>
       </c>
-      <c r="G166" s="64"/>
       <c r="H166" s="6" t="s">
         <v>139</v>
       </c>
       <c r="O166" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P166" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q166" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R166" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -20698,7 +20578,7 @@
         <v>789</v>
       </c>
       <c r="Y166" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z166" s="14" t="s">
         <v>788</v>
@@ -20766,18 +20646,17 @@
         <f>IF(ISBLANK(E167), "", Table2[[#This Row],[unique_id]])</f>
         <v>garden_pedestals_bulb_3</v>
       </c>
-      <c r="G167" s="64"/>
       <c r="H167" s="6" t="s">
         <v>139</v>
       </c>
       <c r="O167" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P167" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q167" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R167" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -20796,7 +20675,7 @@
         <v>789</v>
       </c>
       <c r="Y167" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z167" s="14" t="s">
         <v>788</v>
@@ -20868,13 +20747,13 @@
         <v>139</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P168" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q168" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R168" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -20893,7 +20772,7 @@
         <v>789</v>
       </c>
       <c r="Y168" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z168" s="14" t="s">
         <v>788</v>
@@ -20981,7 +20860,7 @@
         <v>789</v>
       </c>
       <c r="Y169" s="30" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z169" s="30" t="s">
         <v>788</v>
@@ -21081,7 +20960,7 @@
         <v>789</v>
       </c>
       <c r="Y170" s="30" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z170" s="30" t="s">
         <v>788</v>
@@ -21181,7 +21060,7 @@
         <v>789</v>
       </c>
       <c r="Y171" s="30" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z171" s="30" t="s">
         <v>788</v>
@@ -21281,7 +21160,7 @@
         <v>789</v>
       </c>
       <c r="Y172" s="30" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z172" s="30" t="s">
         <v>788</v>
@@ -21370,7 +21249,7 @@
         <v>132</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="M173" s="6" t="s">
         <v>136</v>
@@ -21384,7 +21263,7 @@
         <v>796</v>
       </c>
       <c r="Y173" s="14" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="Z173" s="14" t="s">
         <v>788</v>
@@ -21457,13 +21336,13 @@
         <v>139</v>
       </c>
       <c r="O174" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P174" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q174" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R174" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -21482,7 +21361,7 @@
         <v>796</v>
       </c>
       <c r="Y174" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z174" s="14" t="s">
         <v>788</v>
@@ -21554,13 +21433,13 @@
         <v>139</v>
       </c>
       <c r="O175" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P175" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q175" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R175" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -21579,7 +21458,7 @@
         <v>796</v>
       </c>
       <c r="Y175" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z175" s="14" t="s">
         <v>788</v>
@@ -21667,7 +21546,7 @@
         <v>796</v>
       </c>
       <c r="Y176" s="30" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z176" s="30" t="s">
         <v>788</v>
@@ -21794,7 +21673,7 @@
         <v>26</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>149</v>
@@ -21817,13 +21696,13 @@
         <v>132</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P178" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q178" s="11" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R178" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -21891,7 +21770,7 @@
         <v>134</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F179" s="6" t="str">
         <f>IF(ISBLANK(E179), "", Table2[[#This Row],[unique_id]])</f>
@@ -21913,13 +21792,13 @@
         <v>275</v>
       </c>
       <c r="O179" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P179" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q179" s="11" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R179" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -21971,7 +21850,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR179" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS179" s="6" t="s">
         <v>423</v>
@@ -22071,7 +21950,7 @@
         <v>615</v>
       </c>
       <c r="AW180" s="6" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AX180" s="7"/>
       <c r="AY180" s="7"/>
@@ -22117,13 +21996,13 @@
         <v>275</v>
       </c>
       <c r="O181" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P181" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q181" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R181" s="6" t="str">
         <f>Table2[[#This Row],[entity_domain]]</f>
@@ -22208,7 +22087,7 @@
       </c>
       <c r="X182" s="8"/>
       <c r="Y182" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z182" s="14"/>
       <c r="AD182" s="6" t="s">
@@ -22263,13 +22142,13 @@
         <v>26</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E183" s="55" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F183" s="6" t="str">
         <f>IF(ISBLANK(E183), "", Table2[[#This Row],[unique_id]])</f>
@@ -22285,13 +22164,13 @@
         <v>132</v>
       </c>
       <c r="O183" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P183" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q183" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R183" s="6" t="s">
         <v>131</v>
@@ -22301,7 +22180,7 @@
         <v>Lounge Fans</v>
       </c>
       <c r="T183" s="9" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="V183" s="8"/>
       <c r="W183" s="8"/>
@@ -22370,7 +22249,7 @@
       </c>
       <c r="X184" s="8"/>
       <c r="Y184" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z184" s="14"/>
       <c r="AD184" s="6" t="s">
@@ -22425,13 +22304,13 @@
         <v>26</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E185" s="55" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F185" s="6" t="str">
         <f>IF(ISBLANK(E185), "", Table2[[#This Row],[unique_id]])</f>
@@ -22447,13 +22326,13 @@
         <v>132</v>
       </c>
       <c r="O185" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P185" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q185" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R185" s="6" t="s">
         <v>131</v>
@@ -22463,7 +22342,7 @@
         <v>Dining Fans</v>
       </c>
       <c r="T185" s="9" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="V185" s="8"/>
       <c r="W185" s="8"/>
@@ -22498,7 +22377,7 @@
         <v>26</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>27</v>
@@ -22564,20 +22443,20 @@
         <v>26</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F187" s="6" t="str">
         <f>IF(ISBLANK(E187), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_peak_power</v>
+        <v>home_base_power</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>257</v>
@@ -22630,20 +22509,20 @@
         <v>26</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F188" s="6" t="str">
         <f>IF(ISBLANK(E188), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_base_power</v>
+        <v>home_peak_power</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>257</v>
@@ -22749,34 +22628,32 @@
       <c r="A190" s="6">
         <v>2104</v>
       </c>
-      <c r="B190" s="64" t="s">
+      <c r="B190" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D190" s="64" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D190" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E190" s="64" t="s">
-        <v>1118</v>
+      <c r="E190" s="6" t="s">
+        <v>1116</v>
       </c>
       <c r="F190" s="6" t="str">
         <f>IF(ISBLANK(E190), "", Table2[[#This Row],[unique_id]])</f>
         <v>lights_power</v>
       </c>
-      <c r="G190" s="64" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H190" s="64" t="s">
+      <c r="G190" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H190" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="I190" s="64" t="s">
+      <c r="I190" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K190" s="64"/>
-      <c r="L190" s="64"/>
-      <c r="M190" s="64" t="s">
+      <c r="M190" s="6" t="s">
         <v>136</v>
       </c>
       <c r="T190" s="6"/>
@@ -22821,20 +22698,20 @@
         <v>26</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F191" s="6" t="str">
         <f>IF(ISBLANK(E191), "", Table2[[#This Row],[unique_id]])</f>
         <v>fans_power</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H191" s="10" t="s">
         <v>257</v>
@@ -22889,20 +22766,20 @@
         <v>26</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F192" s="6" t="str">
         <f>IF(ISBLANK(E192), "", Table2[[#This Row],[unique_id]])</f>
         <v>all_standby_power</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H192" s="10" t="s">
         <v>257</v>
@@ -22957,13 +22834,13 @@
         <v>26</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F193" s="6" t="str">
         <f>IF(ISBLANK(E193), "", Table2[[#This Row],[unique_id]])</f>
@@ -23023,13 +22900,13 @@
         <v>26</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F194" s="6" t="str">
         <f>IF(ISBLANK(E194), "", Table2[[#This Row],[unique_id]])</f>
@@ -23089,13 +22966,13 @@
         <v>26</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F195" s="6" t="str">
         <f>IF(ISBLANK(E195), "", Table2[[#This Row],[unique_id]])</f>
@@ -23291,13 +23168,13 @@
         <v>26</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F198" s="6" t="str">
         <f>IF(ISBLANK(E198), "", Table2[[#This Row],[unique_id]])</f>
@@ -23357,13 +23234,13 @@
         <v>26</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F199" s="6" t="str">
         <f>IF(ISBLANK(E199), "", Table2[[#This Row],[unique_id]])</f>
@@ -23423,13 +23300,13 @@
         <v>26</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F200" s="6" t="str">
         <f>IF(ISBLANK(E200), "", Table2[[#This Row],[unique_id]])</f>
@@ -23489,13 +23366,13 @@
         <v>26</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F201" s="6" t="str">
         <f>IF(ISBLANK(E201), "", Table2[[#This Row],[unique_id]])</f>
@@ -23555,13 +23432,13 @@
         <v>26</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F202" s="6" t="str">
         <f>IF(ISBLANK(E202), "", Table2[[#This Row],[unique_id]])</f>
@@ -23621,13 +23498,13 @@
         <v>26</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F203" s="6" t="str">
         <f>IF(ISBLANK(E203), "", Table2[[#This Row],[unique_id]])</f>
@@ -23687,13 +23564,13 @@
         <v>26</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F204" s="6" t="str">
         <f>IF(ISBLANK(E204), "", Table2[[#This Row],[unique_id]])</f>
@@ -23753,13 +23630,13 @@
         <v>26</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F205" s="6" t="str">
         <f>IF(ISBLANK(E205), "", Table2[[#This Row],[unique_id]])</f>
@@ -23819,20 +23696,20 @@
         <v>26</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F206" s="6" t="str">
         <f>IF(ISBLANK(E206), "", Table2[[#This Row],[unique_id]])</f>
         <v>audio_visual_devices_power</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>257</v>
@@ -23885,20 +23762,20 @@
         <v>26</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F207" s="6" t="str">
         <f>IF(ISBLANK(E207), "", Table2[[#This Row],[unique_id]])</f>
         <v>servers_network_power</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>257</v>
@@ -24007,13 +23884,13 @@
         <v>26</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F209" s="6" t="str">
         <f>IF(ISBLANK(E209), "", Table2[[#This Row],[unique_id]])</f>
@@ -24064,13 +23941,13 @@
         <v>26</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F210" s="6" t="str">
         <f>IF(ISBLANK(E210), "", Table2[[#This Row],[unique_id]])</f>
@@ -24121,13 +23998,13 @@
         <v>26</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F211" s="6" t="str">
         <f>IF(ISBLANK(E211), "", Table2[[#This Row],[unique_id]])</f>
@@ -24178,13 +24055,13 @@
         <v>26</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F212" s="6" t="str">
         <f>IF(ISBLANK(E212), "", Table2[[#This Row],[unique_id]])</f>
@@ -24235,7 +24112,7 @@
         <v>26</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>27</v>
@@ -24301,20 +24178,20 @@
         <v>26</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F214" s="6" t="str">
         <f>IF(ISBLANK(E214), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_peak_energy_daily</v>
+        <v>home_base_energy_daily</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>229</v>
@@ -24340,6 +24217,10 @@
         <v>259</v>
       </c>
       <c r="AF214" s="8"/>
+      <c r="AH214" s="6" t="str">
+        <f>IF(ISBLANK(AG214),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C214), "/", E214, "/config"))</f>
+        <v/>
+      </c>
       <c r="AI214" s="6" t="str">
         <f>IF(ISBLANK(AG214),  "", _xlfn.CONCAT(LOWER(C214), "/", E214))</f>
         <v/>
@@ -24348,7 +24229,6 @@
       <c r="AL214" s="34"/>
       <c r="AM214" s="6"/>
       <c r="AN214" s="8"/>
-      <c r="AP214" s="64"/>
       <c r="AV214" s="6"/>
       <c r="AW214" s="6"/>
       <c r="AZ214" s="6" t="str">
@@ -24356,66 +24236,64 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="215" spans="1:52" ht="16" customHeight="1">
       <c r="A215" s="6">
         <v>2129</v>
       </c>
-      <c r="B215" s="57" t="s">
+      <c r="B215" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C215" s="57" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D215" s="57" t="s">
+      <c r="C215" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D215" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E215" s="57" t="s">
-        <v>382</v>
-      </c>
-      <c r="F215" s="57" t="str">
+      <c r="E215" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F215" s="6" t="str">
         <f>IF(ISBLANK(E215), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_base_energy_daily</v>
-      </c>
-      <c r="G215" s="57" t="s">
-        <v>378</v>
-      </c>
-      <c r="H215" s="57" t="s">
+        <v>home_peak_energy_daily</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H215" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="I215" s="57" t="s">
+      <c r="I215" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="M215" s="57" t="s">
+      <c r="M215" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="O215" s="58"/>
-      <c r="U215" s="57" t="s">
+      <c r="T215" s="6"/>
+      <c r="U215" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="V215" s="58"/>
-      <c r="W215" s="58"/>
-      <c r="X215" s="58"/>
-      <c r="Y215" s="58"/>
-      <c r="Z215" s="58"/>
-      <c r="AB215" s="57" t="s">
+      <c r="V215" s="8"/>
+      <c r="W215" s="8"/>
+      <c r="X215" s="8"/>
+      <c r="Y215" s="8"/>
+      <c r="AB215" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="AD215" s="57" t="s">
+      <c r="AD215" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AF215" s="58"/>
-      <c r="AH215" s="57" t="str">
-        <f>IF(ISBLANK(AG215),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C215), "/", E215, "/config"))</f>
-        <v/>
-      </c>
-      <c r="AI215" s="57" t="str">
+      <c r="AF215" s="8"/>
+      <c r="AI215" s="6" t="str">
         <f>IF(ISBLANK(AG215),  "", _xlfn.CONCAT(LOWER(C215), "/", E215))</f>
         <v/>
       </c>
-      <c r="AL215" s="59"/>
-      <c r="AN215" s="58"/>
-      <c r="AP215" s="67"/>
-      <c r="AZ215" s="57" t="str">
+      <c r="AK215" s="6"/>
+      <c r="AL215" s="34"/>
+      <c r="AM215" s="6"/>
+      <c r="AN215" s="8"/>
+      <c r="AV215" s="6"/>
+      <c r="AW215" s="6"/>
+      <c r="AZ215" s="6" t="str">
         <f>IF(AND(ISBLANK(AV215), ISBLANK(AW215)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV215), "", _xlfn.CONCAT("[""mac"", """, AV215, """]")), IF(ISBLANK(AW215), "", _xlfn.CONCAT(", [""ip"", """, AW215, """]")), "]"))</f>
         <v/>
       </c>
@@ -24470,7 +24348,6 @@
       <c r="AL216" s="34"/>
       <c r="AM216" s="6"/>
       <c r="AN216" s="8"/>
-      <c r="AP216" s="64"/>
       <c r="AV216" s="6"/>
       <c r="AW216" s="6"/>
       <c r="AZ216" s="6" t="str">
@@ -24486,20 +24363,20 @@
         <v>26</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F217" s="6" t="str">
         <f>IF(ISBLANK(E217), "", Table2[[#This Row],[unique_id]])</f>
         <v>lights_energy_daily</v>
       </c>
-      <c r="G217" s="64" t="s">
-        <v>1169</v>
+      <c r="G217" s="6" t="s">
+        <v>1167</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>229</v>
@@ -24537,7 +24414,6 @@
       <c r="AL217" s="34"/>
       <c r="AM217" s="6"/>
       <c r="AN217" s="8"/>
-      <c r="AP217" s="64"/>
       <c r="AV217" s="6"/>
       <c r="AW217" s="6"/>
       <c r="AZ217" s="6" t="str">
@@ -24553,20 +24429,20 @@
         <v>26</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F218" s="6" t="str">
         <f>IF(ISBLANK(E218), "", Table2[[#This Row],[unique_id]])</f>
         <v>fans_energy_daily</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>229</v>
@@ -24604,7 +24480,6 @@
       <c r="AL218" s="34"/>
       <c r="AM218" s="6"/>
       <c r="AN218" s="8"/>
-      <c r="AP218" s="64"/>
       <c r="AV218" s="6"/>
       <c r="AW218" s="6"/>
       <c r="AZ218" s="6" t="str">
@@ -24620,20 +24495,20 @@
         <v>26</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F219" s="6" t="str">
         <f>IF(ISBLANK(E219), "", Table2[[#This Row],[unique_id]])</f>
         <v>all_standby_energy_daily</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>229</v>
@@ -24667,7 +24542,6 @@
       <c r="AL219" s="34"/>
       <c r="AM219" s="6"/>
       <c r="AN219" s="8"/>
-      <c r="AP219" s="64"/>
       <c r="AV219" s="6"/>
       <c r="AW219" s="6"/>
       <c r="AZ219" s="6" t="str">
@@ -24683,13 +24557,13 @@
         <v>26</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F220" s="6" t="str">
         <f>IF(ISBLANK(E220), "", Table2[[#This Row],[unique_id]])</f>
@@ -24749,13 +24623,13 @@
         <v>26</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F221" s="6" t="str">
         <f>IF(ISBLANK(E221), "", Table2[[#This Row],[unique_id]])</f>
@@ -24815,13 +24689,13 @@
         <v>26</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F222" s="6" t="str">
         <f>IF(ISBLANK(E222), "", Table2[[#This Row],[unique_id]])</f>
@@ -25013,13 +24887,13 @@
         <v>26</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F225" s="6" t="str">
         <f>IF(ISBLANK(E225), "", Table2[[#This Row],[unique_id]])</f>
@@ -25079,13 +24953,13 @@
         <v>26</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F226" s="6" t="str">
         <f>IF(ISBLANK(E226), "", Table2[[#This Row],[unique_id]])</f>
@@ -25145,13 +25019,13 @@
         <v>26</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F227" s="6" t="str">
         <f>IF(ISBLANK(E227), "", Table2[[#This Row],[unique_id]])</f>
@@ -25211,13 +25085,13 @@
         <v>26</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F228" s="6" t="str">
         <f>IF(ISBLANK(E228), "", Table2[[#This Row],[unique_id]])</f>
@@ -25277,13 +25151,13 @@
         <v>26</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F229" s="6" t="str">
         <f>IF(ISBLANK(E229), "", Table2[[#This Row],[unique_id]])</f>
@@ -25343,13 +25217,13 @@
         <v>26</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F230" s="6" t="str">
         <f>IF(ISBLANK(E230), "", Table2[[#This Row],[unique_id]])</f>
@@ -25409,13 +25283,13 @@
         <v>26</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F231" s="6" t="str">
         <f>IF(ISBLANK(E231), "", Table2[[#This Row],[unique_id]])</f>
@@ -25475,13 +25349,13 @@
         <v>26</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F232" s="6" t="str">
         <f>IF(ISBLANK(E232), "", Table2[[#This Row],[unique_id]])</f>
@@ -25541,13 +25415,13 @@
         <v>26</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F233" s="6" t="str">
         <f>IF(ISBLANK(E233), "", Table2[[#This Row],[unique_id]])</f>
@@ -25598,13 +25472,13 @@
         <v>26</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F234" s="6" t="str">
         <f>IF(ISBLANK(E234), "", Table2[[#This Row],[unique_id]])</f>
@@ -25655,20 +25529,20 @@
         <v>26</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F235" s="6" t="str">
         <f>IF(ISBLANK(E235), "", Table2[[#This Row],[unique_id]])</f>
         <v>audio_visual_devices_energy_daily</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H235" s="6" t="s">
         <v>229</v>
@@ -25721,20 +25595,20 @@
         <v>26</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F236" s="6" t="str">
         <f>IF(ISBLANK(E236), "", Table2[[#This Row],[unique_id]])</f>
         <v>servers_network_energy_daily</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H236" s="6" t="s">
         <v>229</v>
@@ -25787,13 +25661,13 @@
         <v>26</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F237" s="6" t="str">
         <f>IF(ISBLANK(E237), "", Table2[[#This Row],[unique_id]])</f>
@@ -25844,13 +25718,13 @@
         <v>26</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F238" s="6" t="str">
         <f>IF(ISBLANK(E238), "", Table2[[#This Row],[unique_id]])</f>
@@ -25942,7 +25816,6 @@
       <c r="AL239" s="34"/>
       <c r="AM239" s="6"/>
       <c r="AN239" s="8"/>
-      <c r="AP239" s="64"/>
       <c r="AV239" s="6"/>
       <c r="AW239" s="6"/>
       <c r="AZ239" s="6" t="str">
@@ -25958,7 +25831,7 @@
         <v>228</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>27</v>
@@ -26024,7 +25897,7 @@
         <v>228</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>27</v>
@@ -26090,7 +25963,7 @@
         <v>228</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>27</v>
@@ -26156,7 +26029,7 @@
         <v>228</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>27</v>
@@ -26222,7 +26095,7 @@
         <v>228</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>27</v>
@@ -26288,7 +26161,7 @@
         <v>228</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>27</v>
@@ -26354,7 +26227,7 @@
         <v>228</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>27</v>
@@ -26420,7 +26293,7 @@
         <v>228</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>27</v>
@@ -26486,7 +26359,7 @@
         <v>228</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>27</v>
@@ -26538,7 +26411,7 @@
       <c r="AM248" s="6"/>
       <c r="AN248" s="8"/>
       <c r="AV248" s="6"/>
-      <c r="AW248" s="64"/>
+      <c r="AW248" s="6"/>
       <c r="AZ248" s="6" t="str">
         <f>IF(AND(ISBLANK(AV248), ISBLANK(AW248)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV248), "", _xlfn.CONCAT("[""mac"", """, AV248, """]")), IF(ISBLANK(AW248), "", _xlfn.CONCAT(", [""ip"", """, AW248, """]")), "]"))</f>
         <v/>
@@ -26643,7 +26516,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I250" s="6" t="s">
         <v>321</v>
@@ -26679,25 +26552,23 @@
         <v>haas/entity/sensor/internet/network_internet_uptime/config</v>
       </c>
       <c r="AI250" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AK250" s="6">
         <v>1</v>
       </c>
-      <c r="AL250" s="32" t="s">
+      <c r="AL250" s="32"/>
+      <c r="AM250" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AN250" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AO250" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="AM250" s="6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AN250" s="8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AO250" s="6" t="s">
+      <c r="AP250" s="6" t="s">
         <v>1062</v>
-      </c>
-      <c r="AP250" s="6" t="s">
-        <v>1064</v>
       </c>
       <c r="AQ250" s="6" t="s">
         <v>301</v>
@@ -26706,7 +26577,7 @@
         <v>172</v>
       </c>
       <c r="AV250" s="6"/>
-      <c r="AW250" s="64"/>
+      <c r="AW250" s="6"/>
       <c r="AZ250" s="6" t="str">
         <f>IF(AND(ISBLANK(AV250), ISBLANK(AW250)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV250), "", _xlfn.CONCAT("[""mac"", """, AV250, """]")), IF(ISBLANK(AW250), "", _xlfn.CONCAT(", [""ip"", """, AW250, """]")), "]"))</f>
         <v/>
@@ -26736,7 +26607,7 @@
         <v>294</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I251" s="6" t="s">
         <v>321</v>
@@ -26756,7 +26627,7 @@
         <v>299</v>
       </c>
       <c r="AC251" s="6" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AD251" s="6" t="s">
         <v>317</v>
@@ -26775,28 +26646,26 @@
         <v>haas/entity/sensor/internet/network_internet_ping/config</v>
       </c>
       <c r="AI251" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AJ251" s="45" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AK251" s="6">
         <v>1</v>
       </c>
-      <c r="AL251" s="32" t="s">
+      <c r="AL251" s="32"/>
+      <c r="AM251" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AN251" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AO251" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="AM251" s="6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AN251" s="8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AO251" s="6" t="s">
+      <c r="AP251" s="6" t="s">
         <v>1062</v>
-      </c>
-      <c r="AP251" s="6" t="s">
-        <v>1064</v>
       </c>
       <c r="AQ251" s="6" t="s">
         <v>301</v>
@@ -26835,7 +26704,7 @@
         <v>295</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I252" s="6" t="s">
         <v>321</v>
@@ -26855,7 +26724,7 @@
         <v>300</v>
       </c>
       <c r="AC252" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AD252" s="6" t="s">
         <v>319</v>
@@ -26874,28 +26743,26 @@
         <v>haas/entity/sensor/internet/network_internet_upload/config</v>
       </c>
       <c r="AI252" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AJ252" s="45" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AK252" s="6">
         <v>1</v>
       </c>
-      <c r="AL252" s="32" t="s">
+      <c r="AL252" s="32"/>
+      <c r="AM252" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AN252" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AO252" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="AM252" s="6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AN252" s="8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AO252" s="6" t="s">
+      <c r="AP252" s="6" t="s">
         <v>1062</v>
-      </c>
-      <c r="AP252" s="6" t="s">
-        <v>1064</v>
       </c>
       <c r="AQ252" s="6" t="s">
         <v>301</v>
@@ -26934,7 +26801,7 @@
         <v>296</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I253" s="6" t="s">
         <v>321</v>
@@ -26954,7 +26821,7 @@
         <v>300</v>
       </c>
       <c r="AC253" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AD253" s="6" t="s">
         <v>320</v>
@@ -26973,28 +26840,26 @@
         <v>haas/entity/sensor/internet/network_internet_download/config</v>
       </c>
       <c r="AI253" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AJ253" s="45" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AK253" s="6">
         <v>1</v>
       </c>
-      <c r="AL253" s="32" t="s">
+      <c r="AL253" s="32"/>
+      <c r="AM253" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AN253" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AO253" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="AM253" s="6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AN253" s="8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AO253" s="6" t="s">
+      <c r="AP253" s="6" t="s">
         <v>1062</v>
-      </c>
-      <c r="AP253" s="6" t="s">
-        <v>1064</v>
       </c>
       <c r="AQ253" s="6" t="s">
         <v>301</v>
@@ -27023,17 +26888,17 @@
         <v>27</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F254" s="6" t="str">
         <f>IF(ISBLANK(E254), "", Table2[[#This Row],[unique_id]])</f>
         <v>network_certifcate_expiry</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H254" s="6" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I254" s="6" t="s">
         <v>321</v>
@@ -27053,7 +26918,7 @@
         <v>298</v>
       </c>
       <c r="AD254" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AE254" s="6">
         <v>200</v>
@@ -27062,35 +26927,33 @@
         <v>34</v>
       </c>
       <c r="AG254" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AH254" s="6" t="str">
         <f>IF(ISBLANK(AG254),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C254), "/", E254, "/config"))</f>
         <v>haas/entity/sensor/internet/network_certifcate_expiry/config</v>
       </c>
       <c r="AI254" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AJ254" s="45" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AK254" s="6">
         <v>1</v>
       </c>
-      <c r="AL254" s="32" t="s">
+      <c r="AL254" s="32"/>
+      <c r="AM254" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AN254" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AO254" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="AM254" s="6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AN254" s="8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AO254" s="6" t="s">
+      <c r="AP254" s="6" t="s">
         <v>1062</v>
-      </c>
-      <c r="AP254" s="6" t="s">
-        <v>1064</v>
       </c>
       <c r="AQ254" s="6" t="s">
         <v>301</v>
@@ -27119,17 +26982,17 @@
         <v>355</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F255" s="6" t="str">
         <f>IF(ISBLANK(E255), "", Table2[[#This Row],[unique_id]])</f>
         <v>network_refresh_zigbee_router_lqi</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H255" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I255" s="6" t="s">
         <v>321</v>
@@ -27143,7 +27006,7 @@
       <c r="X255" s="8"/>
       <c r="Y255" s="8"/>
       <c r="AD255" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AF255" s="8"/>
       <c r="AH255" s="6" t="str">
@@ -27180,17 +27043,17 @@
         <v>27</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F256" s="6" t="str">
         <f>IF(ISBLANK(E256), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_driveway_repeater_linkquality_percentage</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I256" s="6" t="s">
         <v>321</v>
@@ -27238,17 +27101,17 @@
         <v>27</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F257" s="6" t="str">
         <f>IF(ISBLANK(E257), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_landing_repeater_linkquality_percentage</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H257" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I257" s="6" t="s">
         <v>321</v>
@@ -27296,17 +27159,17 @@
         <v>27</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F258" s="6" t="str">
         <f>IF(ISBLANK(E258), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_garden_repeater_linkquality_percentage</v>
       </c>
-      <c r="G258" s="64" t="s">
+      <c r="G258" s="6" t="s">
         <v>1032</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I258" s="6" t="s">
         <v>321</v>
@@ -27354,17 +27217,17 @@
         <v>27</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F259" s="6" t="str">
         <f>IF(ISBLANK(E259), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_kitchen_fan_outlet_linkquality_percentage</v>
       </c>
-      <c r="G259" s="64" t="s">
+      <c r="G259" s="6" t="s">
         <v>909</v>
       </c>
       <c r="H259" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I259" s="6" t="s">
         <v>321</v>
@@ -27412,7 +27275,7 @@
         <v>27</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F260" s="6" t="str">
         <f>IF(ISBLANK(E260), "", Table2[[#This Row],[unique_id]])</f>
@@ -27422,7 +27285,7 @@
         <v>910</v>
       </c>
       <c r="H260" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I260" s="6" t="s">
         <v>321</v>
@@ -27470,17 +27333,17 @@
         <v>27</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F261" s="6" t="str">
         <f>IF(ISBLANK(E261), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_edwin_wardrobe_outlet_linkquality_percentage</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H261" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I261" s="6" t="s">
         <v>321</v>
@@ -27538,7 +27401,7 @@
         <v>972</v>
       </c>
       <c r="H262" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I262" s="6" t="s">
         <v>321</v>
@@ -27571,9 +27434,7 @@
       <c r="AK262" s="6">
         <v>1</v>
       </c>
-      <c r="AL262" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL262" s="32"/>
       <c r="AM262" s="6" t="s">
         <v>454</v>
       </c>
@@ -27613,7 +27474,7 @@
         <v>27</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F263" s="6" t="str">
         <f>IF(ISBLANK(E263), "", Table2[[#This Row],[unique_id]])</f>
@@ -27623,7 +27484,7 @@
         <v>972</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I263" s="6" t="s">
         <v>321</v>
@@ -27669,7 +27530,7 @@
         <v>391</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I264" s="6" t="s">
         <v>321</v>
@@ -28117,9 +27978,7 @@
       <c r="AK271" s="6">
         <v>1</v>
       </c>
-      <c r="AL271" s="32" t="s">
-        <v>1033</v>
-      </c>
+      <c r="AL271" s="32"/>
       <c r="AM271" s="6" t="s">
         <v>454</v>
       </c>
@@ -28451,7 +28310,7 @@
         <v>27</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F276" s="6" t="str">
         <f>IF(ISBLANK(E276), "", Table2[[#This Row],[unique_id]])</f>
@@ -28508,7 +28367,7 @@
         <v>27</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F277" s="6" t="str">
         <f>IF(ISBLANK(E277), "", Table2[[#This Row],[unique_id]])</f>
@@ -28616,20 +28475,20 @@
         <v>26</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F279" s="6" t="str">
         <f>IF(ISBLANK(E279), "", Table2[[#This Row],[unique_id]])</f>
         <v>all_standby</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H279" s="6" t="s">
         <v>734</v>
@@ -28638,11 +28497,11 @@
         <v>321</v>
       </c>
       <c r="O279" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R279" s="47"/>
       <c r="T279" s="9" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="V279" s="8"/>
       <c r="W279" s="8"/>
@@ -28676,7 +28535,7 @@
         <v>26</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>149</v>
@@ -28699,16 +28558,16 @@
         <v>321</v>
       </c>
       <c r="O280" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P280" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q280" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R280" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S280" s="6" t="str">
         <f>S281</f>
@@ -28773,7 +28632,7 @@
         <v>134</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F281" s="6" t="str">
         <f>IF(ISBLANK(E281), "", Table2[[#This Row],[unique_id]])</f>
@@ -28792,16 +28651,16 @@
         <v>275</v>
       </c>
       <c r="O281" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P281" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q281" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R281" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S281" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -28849,7 +28708,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR281" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS281" s="6" t="s">
         <v>203</v>
@@ -28876,7 +28735,7 @@
         <v>26</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>149</v>
@@ -28890,7 +28749,7 @@
         <v>template_lounge_sub_plug_proxy</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H282" s="6" t="s">
         <v>734</v>
@@ -28899,16 +28758,16 @@
         <v>321</v>
       </c>
       <c r="O282" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P282" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q282" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R282" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S282" s="6" t="str">
         <f>S283</f>
@@ -28973,14 +28832,14 @@
         <v>134</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F283" s="6" t="str">
         <f>IF(ISBLANK(E283), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_sub_plug</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H283" s="6" t="s">
         <v>734</v>
@@ -28992,16 +28851,16 @@
         <v>275</v>
       </c>
       <c r="O283" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P283" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q283" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R283" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S283" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -29018,7 +28877,7 @@
       <c r="X283" s="8"/>
       <c r="Y283" s="8"/>
       <c r="AD283" s="6" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AF283" s="8"/>
       <c r="AH283" s="6" t="str">
@@ -29039,7 +28898,7 @@
         <v>426</v>
       </c>
       <c r="AO283" s="6" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AP283" s="12" t="s">
         <v>425</v>
@@ -29049,7 +28908,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR283" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS283" s="6" t="s">
         <v>203</v>
@@ -29076,7 +28935,7 @@
         <v>26</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>149</v>
@@ -29099,13 +28958,13 @@
         <v>321</v>
       </c>
       <c r="O284" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P284" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q284" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R284" s="6" t="s">
         <v>734</v>
@@ -29135,7 +28994,6 @@
         <f>IF(ISBLANK(AG284),  "", _xlfn.CONCAT(LOWER(C284), "/", E284))</f>
         <v/>
       </c>
-      <c r="AJ284" s="64"/>
       <c r="AK284" s="6"/>
       <c r="AL284" s="34"/>
       <c r="AM284" s="6"/>
@@ -29173,7 +29031,7 @@
         <v>134</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F285" s="6" t="str">
         <f>IF(ISBLANK(E285), "", Table2[[#This Row],[unique_id]])</f>
@@ -29192,13 +29050,13 @@
         <v>275</v>
       </c>
       <c r="O285" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P285" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q285" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R285" s="6" t="s">
         <v>734</v>
@@ -29249,7 +29107,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR285" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS285" s="6" t="s">
         <v>421</v>
@@ -29276,7 +29134,7 @@
         <v>26</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>149</v>
@@ -29299,13 +29157,13 @@
         <v>321</v>
       </c>
       <c r="O286" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P286" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q286" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R286" s="6" t="s">
         <v>734</v>
@@ -29372,7 +29230,7 @@
         <v>134</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="F287" s="6" t="str">
         <f>IF(ISBLANK(E287), "", Table2[[#This Row],[unique_id]])</f>
@@ -29391,13 +29249,13 @@
         <v>275</v>
       </c>
       <c r="O287" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P287" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q287" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R287" s="6" t="s">
         <v>734</v>
@@ -29448,7 +29306,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR287" s="6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AS287" s="6" t="s">
         <v>222</v>
@@ -29475,7 +29333,7 @@
         <v>26</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>149</v>
@@ -29498,16 +29356,16 @@
         <v>321</v>
       </c>
       <c r="O288" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P288" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q288" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R288" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="S288" s="6" t="str">
         <f>S289</f>
@@ -29534,7 +29392,6 @@
         <f>IF(ISBLANK(AG288),  "", _xlfn.CONCAT(LOWER(C288), "/", E288))</f>
         <v/>
       </c>
-      <c r="AJ288" s="64"/>
       <c r="AK288" s="6"/>
       <c r="AL288" s="34"/>
       <c r="AM288" s="6"/>
@@ -29572,7 +29429,7 @@
         <v>134</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F289" s="6" t="str">
         <f>IF(ISBLANK(E289), "", Table2[[#This Row],[unique_id]])</f>
@@ -29591,16 +29448,16 @@
         <v>275</v>
       </c>
       <c r="O289" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P289" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q289" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R289" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="S289" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
@@ -29648,7 +29505,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR289" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS289" s="6" t="s">
         <v>215</v>
@@ -29675,7 +29532,7 @@
         <v>26</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>149</v>
@@ -29698,16 +29555,16 @@
         <v>321</v>
       </c>
       <c r="O290" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P290" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q290" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R290" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="S290" s="6" t="str">
         <f>S291</f>
@@ -29771,7 +29628,7 @@
         <v>134</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F291" s="6" t="str">
         <f>IF(ISBLANK(E291), "", Table2[[#This Row],[unique_id]])</f>
@@ -29790,16 +29647,16 @@
         <v>275</v>
       </c>
       <c r="O291" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P291" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q291" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R291" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="S291" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
@@ -29847,7 +29704,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR291" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS291" s="6" t="s">
         <v>223</v>
@@ -29874,7 +29731,7 @@
         <v>26</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>149</v>
@@ -29897,16 +29754,16 @@
         <v>321</v>
       </c>
       <c r="O292" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P292" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q292" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R292" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="S292" s="6" t="str">
         <f>S293</f>
@@ -29958,7 +29815,7 @@
         <v>134</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F293" s="6" t="str">
         <f>IF(ISBLANK(E293), "", Table2[[#This Row],[unique_id]])</f>
@@ -29977,16 +29834,16 @@
         <v>275</v>
       </c>
       <c r="O293" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P293" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q293" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R293" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="S293" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
@@ -30034,7 +29891,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR293" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS293" s="6" t="s">
         <v>223</v>
@@ -30054,14 +29911,14 @@
       </c>
     </row>
     <row r="294" spans="1:52" ht="16" customHeight="1">
-      <c r="A294" s="64">
+      <c r="A294" s="6">
         <v>2565</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>149</v>
@@ -30084,16 +29941,16 @@
         <v>321</v>
       </c>
       <c r="O294" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P294" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q294" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R294" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="S294" s="6" t="str">
         <f>S295</f>
@@ -30157,7 +30014,7 @@
         <v>134</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="F295" s="6" t="str">
         <f>IF(ISBLANK(E295), "", Table2[[#This Row],[unique_id]])</f>
@@ -30176,16 +30033,16 @@
         <v>275</v>
       </c>
       <c r="O295" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P295" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q295" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R295" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="S295" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[friendly_name]])</f>
@@ -30233,7 +30090,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR295" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS295" s="6" t="s">
         <v>215</v>
@@ -30253,14 +30110,14 @@
       </c>
     </row>
     <row r="296" spans="1:52" ht="16" customHeight="1">
-      <c r="A296" s="64">
+      <c r="A296" s="6">
         <v>2567</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>149</v>
@@ -30283,16 +30140,16 @@
         <v>321</v>
       </c>
       <c r="O296" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P296" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q296" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R296" s="6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="S296" s="6" t="str">
         <f>S297</f>
@@ -30356,7 +30213,7 @@
         <v>134</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F297" s="6" t="str">
         <f>IF(ISBLANK(E297), "", Table2[[#This Row],[unique_id]])</f>
@@ -30375,16 +30232,16 @@
         <v>275</v>
       </c>
       <c r="O297" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P297" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q297" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R297" s="6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="S297" s="6" t="str">
         <f>Table2[[#This Row],[friendly_name]]</f>
@@ -30432,7 +30289,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR297" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS297" s="6" t="s">
         <v>215</v>
@@ -30452,14 +30309,14 @@
       </c>
     </row>
     <row r="298" spans="1:52" ht="16" customHeight="1">
-      <c r="A298" s="64">
+      <c r="A298" s="6">
         <v>2569</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>149</v>
@@ -30482,16 +30339,16 @@
         <v>321</v>
       </c>
       <c r="O298" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P298" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q298" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R298" s="6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="S298" s="6" t="str">
         <f>S299</f>
@@ -30555,7 +30412,7 @@
         <v>134</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F299" s="6" t="str">
         <f>IF(ISBLANK(E299), "", Table2[[#This Row],[unique_id]])</f>
@@ -30574,16 +30431,16 @@
         <v>275</v>
       </c>
       <c r="O299" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P299" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q299" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R299" s="6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="S299" s="6" t="str">
         <f>Table2[[#This Row],[friendly_name]]</f>
@@ -30631,7 +30488,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR299" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS299" s="6" t="s">
         <v>422</v>
@@ -30651,14 +30508,14 @@
       </c>
     </row>
     <row r="300" spans="1:52" ht="16" customHeight="1">
-      <c r="A300" s="64">
+      <c r="A300" s="6">
         <v>2571</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>149</v>
@@ -30681,13 +30538,13 @@
         <v>321</v>
       </c>
       <c r="O300" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P300" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q300" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R300" s="6" t="s">
         <v>734</v>
@@ -30717,7 +30574,6 @@
         <f>IF(ISBLANK(AG300),  "", _xlfn.CONCAT(LOWER(C300), "/", E300))</f>
         <v/>
       </c>
-      <c r="AJ300" s="64"/>
       <c r="AK300" s="6"/>
       <c r="AL300" s="34"/>
       <c r="AM300" s="6"/>
@@ -30755,7 +30611,7 @@
         <v>134</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F301" s="6" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
@@ -30774,13 +30630,13 @@
         <v>275</v>
       </c>
       <c r="O301" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P301" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q301" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R301" s="6" t="s">
         <v>734</v>
@@ -30831,7 +30687,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR301" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS301" s="6" t="s">
         <v>421</v>
@@ -30851,14 +30707,14 @@
       </c>
     </row>
     <row r="302" spans="1:52" ht="16" customHeight="1">
-      <c r="A302" s="64">
+      <c r="A302" s="6">
         <v>2573</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>149</v>
@@ -30881,13 +30737,13 @@
         <v>321</v>
       </c>
       <c r="O302" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P302" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q302" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R302" s="6" t="s">
         <v>734</v>
@@ -30954,7 +30810,7 @@
         <v>134</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F303" s="6" t="str">
         <f>IF(ISBLANK(E303), "", Table2[[#This Row],[unique_id]])</f>
@@ -30973,13 +30829,13 @@
         <v>275</v>
       </c>
       <c r="O303" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P303" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q303" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R303" s="6" t="s">
         <v>734</v>
@@ -31030,7 +30886,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR303" s="6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AS303" s="6" t="s">
         <v>223</v>
@@ -31050,14 +30906,14 @@
       </c>
     </row>
     <row r="304" spans="1:52" ht="16" customHeight="1">
-      <c r="A304" s="64">
+      <c r="A304" s="6">
         <v>2575</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>149</v>
@@ -31071,7 +30927,7 @@
         <v>template_ada_tablet_outlet_plug_proxy</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H304" s="6" t="s">
         <v>734</v>
@@ -31080,16 +30936,16 @@
         <v>321</v>
       </c>
       <c r="O304" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P304" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q304" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R304" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S304" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31150,14 +31006,14 @@
         <v>134</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F305" s="6" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada_tablet_outlet_plug</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H305" s="6" t="s">
         <v>734</v>
@@ -31169,16 +31025,16 @@
         <v>275</v>
       </c>
       <c r="O305" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P305" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q305" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R305" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S305" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31195,7 +31051,7 @@
       <c r="X305" s="8"/>
       <c r="Y305" s="8"/>
       <c r="AD305" s="6" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="AF305" s="8"/>
       <c r="AH305" s="6" t="str">
@@ -31217,7 +31073,7 @@
         <v>426</v>
       </c>
       <c r="AO305" s="6" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="AP305" s="12" t="s">
         <v>425</v>
@@ -31227,7 +31083,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR305" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS305" s="6" t="s">
         <v>203</v>
@@ -31236,7 +31092,7 @@
         <v>553</v>
       </c>
       <c r="AV305" s="6" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AW305" s="6" t="s">
         <v>836</v>
@@ -31247,14 +31103,14 @@
       </c>
     </row>
     <row r="306" spans="1:52" ht="16" customHeight="1">
-      <c r="A306" s="64">
+      <c r="A306" s="6">
         <v>2577</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>149</v>
@@ -31268,7 +31124,7 @@
         <v>template_server_flo_outlet_plug_proxy</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="H306" s="6" t="s">
         <v>734</v>
@@ -31277,10 +31133,10 @@
         <v>321</v>
       </c>
       <c r="O306" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R306" s="6" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="S306" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31345,14 +31201,14 @@
         <v>134</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="F307" s="6" t="str">
         <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
         <v>server_flo_outlet_plug</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="H307" s="6" t="s">
         <v>734</v>
@@ -31364,10 +31220,10 @@
         <v>275</v>
       </c>
       <c r="O307" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R307" s="6" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="S307" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31416,7 +31272,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR307" s="6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AS307" s="6" t="s">
         <v>28</v>
@@ -31425,10 +31281,10 @@
         <v>553</v>
       </c>
       <c r="AV307" s="6" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AW307" s="6" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="AZ307" s="6" t="str">
         <f>IF(AND(ISBLANK(AV307), ISBLANK(AW307)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV307), "", _xlfn.CONCAT("[""mac"", """, AV307, """]")), IF(ISBLANK(AW307), "", _xlfn.CONCAT(", [""ip"", """, AW307, """]")), "]"))</f>
@@ -31436,14 +31292,14 @@
       </c>
     </row>
     <row r="308" spans="1:52" ht="16" customHeight="1">
-      <c r="A308" s="64">
+      <c r="A308" s="6">
         <v>2579</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>149</v>
@@ -31457,7 +31313,7 @@
         <v>template_server_meg_outlet_plug_proxy</v>
       </c>
       <c r="G308" s="11" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="H308" s="6" t="s">
         <v>734</v>
@@ -31466,10 +31322,10 @@
         <v>321</v>
       </c>
       <c r="O308" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R308" s="6" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="S308" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31534,14 +31390,14 @@
         <v>134</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F309" s="6" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
         <v>server_meg_outlet_plug</v>
       </c>
       <c r="G309" s="11" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="H309" s="6" t="s">
         <v>734</v>
@@ -31553,10 +31409,10 @@
         <v>275</v>
       </c>
       <c r="O309" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R309" s="6" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="S309" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31605,7 +31461,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR309" s="6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AS309" s="6" t="s">
         <v>28</v>
@@ -31614,10 +31470,10 @@
         <v>553</v>
       </c>
       <c r="AV309" s="6" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AW309" s="6" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AZ309" s="6" t="str">
         <f>IF(AND(ISBLANK(AV309), ISBLANK(AW309)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV309), "", _xlfn.CONCAT("[""mac"", """, AV309, """]")), IF(ISBLANK(AW309), "", _xlfn.CONCAT(", [""ip"", """, AW309, """]")), "]"))</f>
@@ -31625,14 +31481,14 @@
       </c>
     </row>
     <row r="310" spans="1:52" ht="16" customHeight="1">
-      <c r="A310" s="64">
+      <c r="A310" s="6">
         <v>2581</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>149</v>
@@ -31655,16 +31511,16 @@
         <v>321</v>
       </c>
       <c r="O310" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P310" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q310" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R310" s="6" t="s">
         <v>1115</v>
-      </c>
-      <c r="R310" s="6" t="s">
-        <v>1117</v>
       </c>
       <c r="S310" s="6" t="str">
         <f>S311</f>
@@ -31728,7 +31584,7 @@
         <v>134</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="F311" s="6" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
@@ -31747,16 +31603,16 @@
         <v>275</v>
       </c>
       <c r="O311" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P311" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q311" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R311" s="6" t="s">
         <v>1115</v>
-      </c>
-      <c r="R311" s="6" t="s">
-        <v>1117</v>
       </c>
       <c r="S311" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -31804,7 +31660,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR311" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS311" s="6" t="s">
         <v>28</v>
@@ -31824,14 +31680,14 @@
       </c>
     </row>
     <row r="312" spans="1:52" ht="16" customHeight="1">
-      <c r="A312" s="64">
+      <c r="A312" s="6">
         <v>2583</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>149</v>
@@ -31854,16 +31710,16 @@
         <v>321</v>
       </c>
       <c r="O312" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P312" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q312" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R312" s="6" t="s">
         <v>1115</v>
-      </c>
-      <c r="R312" s="6" t="s">
-        <v>1117</v>
       </c>
       <c r="S312" s="6" t="str">
         <f>S313</f>
@@ -31927,7 +31783,7 @@
         <v>134</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F313" s="6" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
@@ -31946,16 +31802,16 @@
         <v>275</v>
       </c>
       <c r="O313" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P313" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q313" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R313" s="6" t="s">
         <v>1115</v>
-      </c>
-      <c r="R313" s="6" t="s">
-        <v>1117</v>
       </c>
       <c r="S313" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -32003,7 +31859,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR313" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS313" s="6" t="s">
         <v>38</v>
@@ -32023,14 +31879,14 @@
       </c>
     </row>
     <row r="314" spans="1:52" ht="16" customHeight="1">
-      <c r="A314" s="64">
+      <c r="A314" s="6">
         <v>2585</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>149</v>
@@ -32053,10 +31909,10 @@
         <v>321</v>
       </c>
       <c r="O314" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R314" s="6" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="S314" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -32120,7 +31976,7 @@
         <v>134</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F315" s="6" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
@@ -32139,10 +31995,10 @@
         <v>275</v>
       </c>
       <c r="O315" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R315" s="6" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="S315" s="6" t="str">
         <f>_xlfn.CONCAT( "", "",Table2[[#This Row],[friendly_name]])</f>
@@ -32190,7 +32046,7 @@
         <v>TPLink</v>
       </c>
       <c r="AR315" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AS315" s="6" t="s">
         <v>28</v>
@@ -32210,7 +32066,7 @@
       </c>
     </row>
     <row r="316" spans="1:52" ht="16" customHeight="1">
-      <c r="A316" s="64">
+      <c r="A316" s="6">
         <v>2587</v>
       </c>
       <c r="B316" s="6" t="s">
@@ -32242,22 +32098,22 @@
         <v>275</v>
       </c>
       <c r="O316" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P316" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q316" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R316" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="R316" s="6" t="s">
-        <v>1117</v>
-      </c>
       <c r="S316" s="6" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="T316" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="V316" s="8"/>
       <c r="W316" s="8" t="s">
@@ -32265,7 +32121,7 @@
       </c>
       <c r="X316" s="8"/>
       <c r="Y316" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AD316" s="6" t="s">
         <v>269</v>
@@ -32313,7 +32169,7 @@
       </c>
     </row>
     <row r="317" spans="1:52" ht="16" customHeight="1">
-      <c r="A317" s="64">
+      <c r="A317" s="6">
         <v>2588</v>
       </c>
       <c r="B317" s="6" t="s">
@@ -32345,22 +32201,22 @@
         <v>275</v>
       </c>
       <c r="O317" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P317" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q317" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R317" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="R317" s="6" t="s">
-        <v>1117</v>
-      </c>
       <c r="S317" s="6" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="T317" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="V317" s="8"/>
       <c r="W317" s="8" t="s">
@@ -32368,7 +32224,7 @@
       </c>
       <c r="X317" s="8"/>
       <c r="Y317" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AD317" s="6" t="s">
         <v>269</v>
@@ -32416,7 +32272,7 @@
       </c>
     </row>
     <row r="318" spans="1:52" ht="16" customHeight="1">
-      <c r="A318" s="64">
+      <c r="A318" s="6">
         <v>2589</v>
       </c>
       <c r="B318" s="6" t="s">
@@ -32448,22 +32304,22 @@
         <v>275</v>
       </c>
       <c r="O318" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P318" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q318" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R318" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="R318" s="6" t="s">
-        <v>1117</v>
-      </c>
       <c r="S318" s="6" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="T318" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="V318" s="8"/>
       <c r="W318" s="8" t="s">
@@ -32471,7 +32327,7 @@
       </c>
       <c r="X318" s="8"/>
       <c r="Y318" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="Z318" s="14"/>
       <c r="AD318" s="6" t="s">
@@ -32581,7 +32437,7 @@
         <v>833</v>
       </c>
       <c r="AP319" s="12" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="AQ319" s="6" t="s">
         <v>396</v>
@@ -32596,7 +32452,7 @@
         <v>832</v>
       </c>
       <c r="AW319" s="6" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AZ319" s="6" t="str">
         <f>IF(AND(ISBLANK(AV319), ISBLANK(AW319)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV319), "", _xlfn.CONCAT("[""mac"", """, AV319, """]")), IF(ISBLANK(AW319), "", _xlfn.CONCAT(", [""ip"", """, AW319, """]")), "]"))</f>
@@ -32604,7 +32460,7 @@
       </c>
     </row>
     <row r="320" spans="1:52" ht="16" customHeight="1">
-      <c r="A320" s="64">
+      <c r="A320" s="6">
         <v>2591</v>
       </c>
       <c r="B320" s="6" t="s">
@@ -32617,7 +32473,7 @@
         <v>27</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F320" s="6" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
@@ -32633,22 +32489,22 @@
         <v>321</v>
       </c>
       <c r="O320" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P320" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q320" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R320" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="R320" s="6" t="s">
-        <v>1117</v>
-      </c>
       <c r="S320" s="6" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="T320" s="9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="V320" s="8"/>
       <c r="W320" s="8" t="s">
@@ -32656,7 +32512,7 @@
       </c>
       <c r="X320" s="8"/>
       <c r="Y320" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AF320" s="8"/>
       <c r="AH320" s="6" t="str">
@@ -32673,7 +32529,7 @@
         <v>https://zigbee2mqtt.janeandgraham.com/#/device/0x2c1165fffec5a3f6</v>
       </c>
       <c r="AM320" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AN320" s="8" t="s">
         <v>1028</v>
@@ -32700,7 +32556,7 @@
       </c>
     </row>
     <row r="321" spans="1:52" ht="16" customHeight="1">
-      <c r="A321" s="64">
+      <c r="A321" s="6">
         <v>2592</v>
       </c>
       <c r="B321" s="6" t="s">
@@ -32713,14 +32569,14 @@
         <v>27</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F321" s="6" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v>landing_repeater_linkquality</v>
       </c>
       <c r="G321" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H321" s="6" t="s">
         <v>734</v>
@@ -32729,22 +32585,22 @@
         <v>321</v>
       </c>
       <c r="O321" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P321" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q321" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R321" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="R321" s="6" t="s">
-        <v>1117</v>
-      </c>
       <c r="S321" s="6" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="T321" s="9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="V321" s="8"/>
       <c r="W321" s="8" t="s">
@@ -32752,7 +32608,7 @@
       </c>
       <c r="X321" s="8"/>
       <c r="Y321" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AF321" s="8"/>
       <c r="AH321" s="6" t="str">
@@ -32769,7 +32625,7 @@
         <v>https://zigbee2mqtt.janeandgraham.com/#/device/0x2c1165fffebaa93c</v>
       </c>
       <c r="AM321" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AN321" s="8" t="s">
         <v>1028</v>
@@ -32787,7 +32643,7 @@
         <v>778</v>
       </c>
       <c r="AV321" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AW321" s="6"/>
       <c r="AZ321" s="6" t="str">
@@ -32796,7 +32652,7 @@
       </c>
     </row>
     <row r="322" spans="1:52" ht="16" customHeight="1">
-      <c r="A322" s="64">
+      <c r="A322" s="6">
         <v>2593</v>
       </c>
       <c r="B322" s="6" t="s">
@@ -32809,14 +32665,14 @@
         <v>27</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F322" s="6" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v>driveway_repeater_linkquality</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H322" s="6" t="s">
         <v>734</v>
@@ -32825,22 +32681,22 @@
         <v>321</v>
       </c>
       <c r="O322" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P322" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q322" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R322" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="R322" s="6" t="s">
-        <v>1117</v>
-      </c>
       <c r="S322" s="6" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="T322" s="9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="V322" s="8"/>
       <c r="W322" s="8" t="s">
@@ -32848,7 +32704,7 @@
       </c>
       <c r="X322" s="8"/>
       <c r="Y322" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AF322" s="8"/>
       <c r="AH322" s="6" t="str">
@@ -32865,7 +32721,7 @@
         <v>https://zigbee2mqtt.janeandgraham.com/#/device/0x50325ffffe47b8fa</v>
       </c>
       <c r="AM322" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AN322" s="8" t="s">
         <v>1028</v>
@@ -32880,10 +32736,10 @@
         <v>631</v>
       </c>
       <c r="AS322" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AV322" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AW322" s="6"/>
       <c r="AZ322" s="6" t="str">
@@ -32940,7 +32796,6 @@
       <c r="AL323" s="34"/>
       <c r="AM323" s="6"/>
       <c r="AN323" s="8"/>
-      <c r="AP323" s="64"/>
       <c r="AV323" s="6"/>
       <c r="AW323" s="6"/>
       <c r="AZ323" s="6" t="str">
@@ -33416,7 +33271,7 @@
         <v>1009</v>
       </c>
       <c r="AV330" s="6"/>
-      <c r="AW330" s="64"/>
+      <c r="AW330" s="6"/>
       <c r="AZ330" s="6" t="str">
         <f>IF(AND(ISBLANK(AV330), ISBLANK(AW330)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV330), "", _xlfn.CONCAT("[""mac"", """, AV330, """]")), IF(ISBLANK(AW330), "", _xlfn.CONCAT(", [""ip"", """, AW330, """]")), "]"))</f>
         <v/>
@@ -33682,7 +33537,7 @@
         <v>221</v>
       </c>
       <c r="AV334" s="6"/>
-      <c r="AW334" s="64"/>
+      <c r="AW334" s="6"/>
       <c r="AZ334" s="6" t="str">
         <f>IF(AND(ISBLANK(AV334), ISBLANK(AW334)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV334), "", _xlfn.CONCAT("[""mac"", """, AV334, """]")), IF(ISBLANK(AW334), "", _xlfn.CONCAT(", [""ip"", """, AW334, """]")), "]"))</f>
         <v/>
@@ -33814,7 +33669,7 @@
         <v>423</v>
       </c>
       <c r="AV336" s="6"/>
-      <c r="AW336" s="64"/>
+      <c r="AW336" s="6"/>
       <c r="AZ336" s="6" t="str">
         <f>IF(AND(ISBLANK(AV336), ISBLANK(AW336)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV336), "", _xlfn.CONCAT("[""mac"", """, AV336, """]")), IF(ISBLANK(AW336), "", _xlfn.CONCAT(", [""ip"", """, AW336, """]")), "]"))</f>
         <v/>
@@ -33880,7 +33735,7 @@
         <v>496</v>
       </c>
       <c r="AV337" s="6"/>
-      <c r="AW337" s="64"/>
+      <c r="AW337" s="6"/>
       <c r="AZ337" s="6" t="str">
         <f>IF(AND(ISBLANK(AV337), ISBLANK(AW337)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV337), "", _xlfn.CONCAT("[""mac"", """, AV337, """]")), IF(ISBLANK(AW337), "", _xlfn.CONCAT(", [""ip"", """, AW337, """]")), "]"))</f>
         <v/>
@@ -33946,7 +33801,7 @@
         <v>693</v>
       </c>
       <c r="AV338" s="6"/>
-      <c r="AW338" s="64"/>
+      <c r="AW338" s="6"/>
       <c r="AZ338" s="6" t="str">
         <f>IF(AND(ISBLANK(AV338), ISBLANK(AW338)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV338), "", _xlfn.CONCAT("[""mac"", """, AV338, """]")), IF(ISBLANK(AW338), "", _xlfn.CONCAT(", [""ip"", """, AW338, """]")), "]"))</f>
         <v/>
@@ -34003,7 +33858,7 @@
       <c r="AM339" s="6"/>
       <c r="AN339" s="8"/>
       <c r="AV339" s="6"/>
-      <c r="AW339" s="64"/>
+      <c r="AW339" s="6"/>
       <c r="AZ339" s="6" t="str">
         <f>IF(AND(ISBLANK(AV339), ISBLANK(AW339)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV339), "", _xlfn.CONCAT("[""mac"", """, AV339, """]")), IF(ISBLANK(AW339), "", _xlfn.CONCAT(", [""ip"", """, AW339, """]")), "]"))</f>
         <v/>
@@ -34060,7 +33915,7 @@
       <c r="AM340" s="6"/>
       <c r="AN340" s="8"/>
       <c r="AV340" s="6"/>
-      <c r="AW340" s="64"/>
+      <c r="AW340" s="6"/>
       <c r="AZ340" s="6" t="str">
         <f>IF(AND(ISBLANK(AV340), ISBLANK(AW340)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV340), "", _xlfn.CONCAT("[""mac"", """, AV340, """]")), IF(ISBLANK(AW340), "", _xlfn.CONCAT(", [""ip"", """, AW340, """]")), "]"))</f>
         <v/>
@@ -34225,7 +34080,7 @@
       <c r="AM343" s="6"/>
       <c r="AN343" s="8"/>
       <c r="AV343" s="6"/>
-      <c r="AW343" s="64"/>
+      <c r="AW343" s="6"/>
       <c r="AZ343" s="6" t="str">
         <f>IF(AND(ISBLANK(AV343), ISBLANK(AW343)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV343), "", _xlfn.CONCAT("[""mac"", """, AV343, """]")), IF(ISBLANK(AW343), "", _xlfn.CONCAT(", [""ip"", """, AW343, """]")), "]"))</f>
         <v/>
@@ -34822,7 +34677,7 @@
         <v>194</v>
       </c>
       <c r="H354" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I354" s="6" t="s">
         <v>144</v>
@@ -34834,16 +34689,16 @@
         <v>288</v>
       </c>
       <c r="O354" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P354" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q354" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R354" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S354" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
@@ -34927,7 +34782,7 @@
         <v>277</v>
       </c>
       <c r="H355" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I355" s="6" t="s">
         <v>144</v>
@@ -34939,16 +34794,16 @@
         <v>288</v>
       </c>
       <c r="O355" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P355" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q355" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R355" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S355" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
@@ -35032,7 +34887,7 @@
         <v>278</v>
       </c>
       <c r="H356" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I356" s="6" t="s">
         <v>144</v>
@@ -35044,23 +34899,23 @@
         <v>288</v>
       </c>
       <c r="O356" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P356" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q356" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R356" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S356" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Parents Audio Visual Devices</v>
       </c>
       <c r="T356" s="6" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="V356" s="8"/>
       <c r="W356" s="8"/>
@@ -35136,7 +34991,7 @@
         <v>279</v>
       </c>
       <c r="H357" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I357" s="6" t="s">
         <v>144</v>
@@ -35148,23 +35003,23 @@
         <v>288</v>
       </c>
       <c r="O357" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P357" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q357" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R357" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S357" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Kitchen Audio Visual Devices</v>
       </c>
       <c r="T357" s="6" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="V357" s="8"/>
       <c r="W357" s="8"/>
@@ -35204,10 +35059,10 @@
         <v>533</v>
       </c>
       <c r="AV357" s="13" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AW357" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AX357" s="12"/>
       <c r="AY357" s="12"/>
@@ -35240,7 +35095,7 @@
         <v>899</v>
       </c>
       <c r="H358" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I358" s="6" t="s">
         <v>144</v>
@@ -35252,16 +35107,16 @@
         <v>288</v>
       </c>
       <c r="O358" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P358" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q358" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R358" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S358" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
@@ -35345,7 +35200,7 @@
         <v>955</v>
       </c>
       <c r="H359" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I359" s="6" t="s">
         <v>144</v>
@@ -35357,16 +35212,16 @@
         <v>288</v>
       </c>
       <c r="O359" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P359" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q359" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R359" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S359" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
@@ -35440,17 +35295,17 @@
         <v>145</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F360" s="6" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada_tablet</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H360" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I360" s="6" t="s">
         <v>144</v>
@@ -35483,13 +35338,13 @@
         <v>google-ada-tablet</v>
       </c>
       <c r="AN360" s="8" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="AO360" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AP360" s="6" t="s">
         <v>1212</v>
-      </c>
-      <c r="AP360" s="6" t="s">
-        <v>1214</v>
       </c>
       <c r="AQ360" s="6" t="s">
         <v>246</v>
@@ -35501,10 +35356,10 @@
         <v>533</v>
       </c>
       <c r="AV360" s="13" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="AW360" s="11" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="AX360" s="12"/>
       <c r="AY360" s="12"/>
@@ -35537,7 +35392,7 @@
         <v>391</v>
       </c>
       <c r="H361" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I361" s="6" t="s">
         <v>144</v>
@@ -35594,7 +35449,7 @@
         <v>187</v>
       </c>
       <c r="H362" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I362" s="6" t="s">
         <v>144</v>
@@ -35699,7 +35554,7 @@
         <v>281</v>
       </c>
       <c r="H363" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I363" s="6" t="s">
         <v>144</v>
@@ -35780,89 +35635,89 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="364" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
-      <c r="A364" s="57">
+    <row r="364" spans="1:52" ht="16" customHeight="1">
+      <c r="A364" s="6">
         <v>2660</v>
       </c>
-      <c r="B364" s="57" t="s">
+      <c r="B364" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C364" s="57" t="s">
+      <c r="C364" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D364" s="57" t="s">
+      <c r="D364" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E364" s="57" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F364" s="57" t="str">
+      <c r="E364" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F364" s="6" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_tablet</v>
       </c>
-      <c r="G364" s="57" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H364" s="57" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I364" s="57" t="s">
+      <c r="G364" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H364" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I364" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M364" s="57" t="s">
+      <c r="M364" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="N364" s="57" t="s">
+      <c r="N364" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="O364" s="58"/>
-      <c r="R364" s="61"/>
-      <c r="V364" s="58"/>
-      <c r="W364" s="58"/>
-      <c r="X364" s="58"/>
-      <c r="Y364" s="58"/>
-      <c r="Z364" s="58"/>
-      <c r="AF364" s="58"/>
-      <c r="AH364" s="57" t="str">
+      <c r="R364" s="47"/>
+      <c r="T364" s="6"/>
+      <c r="V364" s="8"/>
+      <c r="W364" s="8"/>
+      <c r="X364" s="8"/>
+      <c r="Y364" s="8"/>
+      <c r="AF364" s="8"/>
+      <c r="AH364" s="6" t="str">
         <f>IF(ISBLANK(AG364),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C364), "/", E364, "/config"))</f>
         <v/>
       </c>
-      <c r="AI364" s="57" t="str">
+      <c r="AI364" s="6" t="str">
         <f>IF(ISBLANK(AG364),  "", _xlfn.CONCAT(LOWER(C364), "/", E364))</f>
         <v/>
       </c>
-      <c r="AL364" s="59"/>
-      <c r="AM364" s="57" t="str">
+      <c r="AK364" s="6"/>
+      <c r="AL364" s="34"/>
+      <c r="AM364" s="6" t="str">
         <f>IF(OR(ISBLANK(AV364), ISBLANK(AW364)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]],  "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-edwin-tablet</v>
       </c>
-      <c r="AN364" s="58" t="s">
-        <v>1218</v>
-      </c>
-      <c r="AO364" s="57" t="s">
-        <v>1221</v>
-      </c>
-      <c r="AP364" s="57" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AQ364" s="57" t="s">
+      <c r="AN364" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AO364" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AP364" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AQ364" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AS364" s="57" t="s">
+      <c r="AS364" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AU364" s="57" t="s">
+      <c r="AU364" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="AV364" s="62" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AW364" s="63" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AX364" s="60"/>
-      <c r="AY364" s="60"/>
-      <c r="AZ364" s="57" t="str">
+      <c r="AV364" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AW364" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AX364" s="12"/>
+      <c r="AY364" s="12"/>
+      <c r="AZ364" s="6" t="str">
         <f>IF(AND(ISBLANK(AV364), ISBLANK(AW364)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV364), "", _xlfn.CONCAT("[""mac"", """, AV364, """]")), IF(ISBLANK(AW364), "", _xlfn.CONCAT(", [""ip"", """, AW364, """]")), "]"))</f>
         <v>[["mac", "12:93:f0:d4:3f:cb"], ["ip", "10.0.4.58"]]</v>
       </c>
@@ -35891,7 +35746,7 @@
         <v>1008</v>
       </c>
       <c r="H365" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I365" s="6" t="s">
         <v>144</v>
@@ -35977,7 +35832,7 @@
         <v>391</v>
       </c>
       <c r="H366" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I366" s="6" t="s">
         <v>144</v>
@@ -36022,18 +35877,18 @@
       <c r="D367" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E367" s="64" t="s">
-        <v>1088</v>
+      <c r="E367" s="6" t="s">
+        <v>1086</v>
       </c>
       <c r="F367" s="6" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_arc</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H367" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I367" s="6" t="s">
         <v>144</v>
@@ -36045,7 +35900,7 @@
         <v>288</v>
       </c>
       <c r="O367" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R367" s="47"/>
       <c r="T367" s="6" t="str">
@@ -36075,7 +35930,7 @@
         <v>440</v>
       </c>
       <c r="AO367" s="6" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AP367" s="6" t="s">
         <v>819</v>
@@ -36111,45 +35966,45 @@
         <v>813</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F368" s="6" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_kitchen_move_proxy</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H368" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I368" s="6" t="s">
         <v>144</v>
       </c>
       <c r="O368" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P368" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q368" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R368" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S368" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Kitchen Audio Visual Devices</v>
       </c>
       <c r="T368" s="9" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="V368" s="8"/>
       <c r="W368" s="8"/>
@@ -36164,7 +36019,6 @@
         <f>IF(ISBLANK(AG368),  "", _xlfn.CONCAT(LOWER(C368), "/", E368))</f>
         <v/>
       </c>
-      <c r="AJ368" s="64"/>
       <c r="AK368" s="6"/>
       <c r="AL368" s="34"/>
       <c r="AM368" s="6"/>
@@ -36199,18 +36053,18 @@
       <c r="D369" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E369" s="64" t="s">
-        <v>1087</v>
+      <c r="E369" s="6" t="s">
+        <v>1085</v>
       </c>
       <c r="F369" s="6" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_move</v>
       </c>
       <c r="G369" s="6" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H369" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I369" s="6" t="s">
         <v>144</v>
@@ -36222,16 +36076,16 @@
         <v>288</v>
       </c>
       <c r="O369" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P369" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q369" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R369" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S369" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
@@ -36264,7 +36118,7 @@
         <v>440</v>
       </c>
       <c r="AO369" s="6" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="AP369" s="6" t="s">
         <v>442</v>
@@ -36305,18 +36159,18 @@
       <c r="D370" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E370" s="64" t="s">
-        <v>1086</v>
+      <c r="E370" s="6" t="s">
+        <v>1084</v>
       </c>
       <c r="F370" s="6" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_five</v>
       </c>
       <c r="G370" s="6" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H370" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I370" s="6" t="s">
         <v>144</v>
@@ -36328,16 +36182,16 @@
         <v>288</v>
       </c>
       <c r="O370" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P370" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q370" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R370" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S370" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
@@ -36370,10 +36224,10 @@
         <v>440</v>
       </c>
       <c r="AO370" s="6" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="AP370" s="6" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AQ370" s="6" t="str">
         <f>IF(OR(ISBLANK(AV370), ISBLANK(AW370)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -36406,45 +36260,45 @@
         <v>813</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F371" s="6" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v>template_parents_move_proxy</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H371" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I371" s="6" t="s">
         <v>144</v>
       </c>
       <c r="O371" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P371" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q371" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R371" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S371" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
         <v>Parents Audio Visual Devices</v>
       </c>
       <c r="T371" s="9" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="V371" s="8"/>
       <c r="W371" s="8"/>
@@ -36494,17 +36348,17 @@
         <v>145</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F372" s="6" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_move</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H372" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I372" s="6" t="s">
         <v>144</v>
@@ -36516,16 +36370,16 @@
         <v>288</v>
       </c>
       <c r="O372" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P372" s="6" t="s">
         <v>172</v>
       </c>
       <c r="Q372" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R372" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S372" s="6" t="str">
         <f>_xlfn.CONCAT( Table2[[#This Row],[device_suggested_area]], " ",Table2[[#This Row],[powercalc_group_3]])</f>
@@ -36558,7 +36412,7 @@
         <v>440</v>
       </c>
       <c r="AO372" s="6" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="AP372" s="6" t="s">
         <v>442</v>
@@ -36610,7 +36464,7 @@
         <v>950</v>
       </c>
       <c r="H373" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I373" s="6" t="s">
         <v>144</v>
@@ -36777,7 +36631,6 @@
         <f>IF(ISBLANK(AG375),  "", _xlfn.CONCAT(LOWER(C375), "/", E375))</f>
         <v/>
       </c>
-      <c r="AJ375" s="64"/>
       <c r="AK375" s="6"/>
       <c r="AL375" s="34"/>
       <c r="AM375" s="6"/>
@@ -36830,7 +36683,7 @@
       </c>
       <c r="X376" s="8"/>
       <c r="Y376" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AF376" s="8"/>
       <c r="AH376" s="6" t="str">
@@ -36909,7 +36762,7 @@
       </c>
       <c r="X377" s="8"/>
       <c r="Y377" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AF377" s="8"/>
       <c r="AH377" s="6" t="str">
@@ -37008,7 +36861,7 @@
         <f>IF(ISBLANK(AG378),  "", _xlfn.CONCAT(LOWER(C378), "/", E378))</f>
         <v/>
       </c>
-      <c r="AJ378" s="66"/>
+      <c r="AJ378" s="36"/>
       <c r="AK378" s="36"/>
       <c r="AL378" s="38"/>
       <c r="AM378" s="36"/>
@@ -37078,7 +36931,6 @@
         <f>IF(ISBLANK(AG379),  "", _xlfn.CONCAT(LOWER(C379), "/", E379))</f>
         <v/>
       </c>
-      <c r="AJ379" s="64"/>
       <c r="AK379" s="6"/>
       <c r="AL379" s="34"/>
       <c r="AM379" s="6"/>
@@ -37187,7 +37039,7 @@
       </c>
       <c r="X381" s="8"/>
       <c r="Y381" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AF381" s="8"/>
       <c r="AH381" s="6" t="str">
@@ -37266,7 +37118,7 @@
       </c>
       <c r="X382" s="8"/>
       <c r="Y382" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AF382" s="8"/>
       <c r="AH382" s="6" t="str">
@@ -38117,7 +37969,7 @@
       <c r="AM395" s="6"/>
       <c r="AN395" s="8"/>
       <c r="AV395" s="6"/>
-      <c r="AW395" s="64"/>
+      <c r="AW395" s="6"/>
       <c r="AZ395" s="6" t="str">
         <f>IF(AND(ISBLANK(AV395), ISBLANK(AW395)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV395), "", _xlfn.CONCAT("[""mac"", """, AV395, """]")), IF(ISBLANK(AW395), "", _xlfn.CONCAT(", [""ip"", """, AW395, """]")), "]"))</f>
         <v/>
@@ -38174,7 +38026,7 @@
       <c r="AM396" s="6"/>
       <c r="AN396" s="8"/>
       <c r="AV396" s="6"/>
-      <c r="AW396" s="64"/>
+      <c r="AW396" s="6"/>
       <c r="AZ396" s="6" t="str">
         <f>IF(AND(ISBLANK(AV396), ISBLANK(AW396)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV396), "", _xlfn.CONCAT("[""mac"", """, AV396, """]")), IF(ISBLANK(AW396), "", _xlfn.CONCAT(", [""ip"", """, AW396, """]")), "]"))</f>
         <v/>
@@ -38682,7 +38534,7 @@
         <v>511</v>
       </c>
       <c r="AV404" s="6" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="AW404" s="6" t="s">
         <v>506</v>
@@ -38766,7 +38618,7 @@
       <c r="A406" s="6">
         <v>5009</v>
       </c>
-      <c r="B406" s="65" t="s">
+      <c r="B406" s="12" t="s">
         <v>813</v>
       </c>
       <c r="C406" s="12" t="s">
@@ -38817,7 +38669,7 @@
       <c r="AV406" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="AW406" s="64"/>
+      <c r="AW406" s="6"/>
       <c r="AZ406" s="6" t="str">
         <f>IF(AND(ISBLANK(AV406), ISBLANK(AW406)), "", _xlfn.CONCAT("[", IF(ISBLANK(AV406), "", _xlfn.CONCAT("[""mac"", """, AV406, """]")), IF(ISBLANK(AW406), "", _xlfn.CONCAT(", [""ip"", """, AW406, """]")), "]"))</f>
         <v>[["mac", "00:e0:4c:68:04:21"]]</v>
@@ -39005,7 +38857,7 @@
         <v>828</v>
       </c>
       <c r="AW409" s="11" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AX409" s="12"/>
       <c r="AY409" s="12"/>
@@ -39111,7 +38963,7 @@
         <v>477</v>
       </c>
       <c r="AN411" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AO411" s="6" t="s">
         <v>475</v>
@@ -39162,7 +39014,7 @@
       </c>
       <c r="X412" s="8"/>
       <c r="Y412" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Z412" s="14"/>
       <c r="AF412" s="8"/>
@@ -48860,23 +48712,11 @@
     <hyperlink ref="AJ2" r:id="rId3" display="Template" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="AB2" r:id="rId4" location="L460" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="Y2" r:id="rId5" xr:uid="{83FD6FC4-4E06-7C48-824E-8F1F33D727AC}"/>
-    <hyperlink ref="AL4" r:id="rId6" display="http://raspbpi-lia:8092" xr:uid="{1019D9EA-8924-9748-B15B-E710E57CBDE1}"/>
-    <hyperlink ref="AL5" r:id="rId7" display="http://raspbpi-lia:8092" xr:uid="{190ABC8E-6E31-5C43-A10C-43173F6B4612}"/>
-    <hyperlink ref="AL26" r:id="rId8" display="http://raspbpi-lia:8092" xr:uid="{6A49E1CF-70B5-3B48-941A-D1082EF18E64}"/>
-    <hyperlink ref="AL27:AL33" r:id="rId9" display="http://raspbpi-lia:8092" xr:uid="{9733FF98-4638-AB47-907F-4E045F53E55F}"/>
-    <hyperlink ref="AL38" r:id="rId10" display="http://raspbpi-lia:8092" xr:uid="{A009FF7B-0745-3448-A358-14D69832EBBC}"/>
-    <hyperlink ref="AL49" r:id="rId11" display="http://raspbpi-lia:8092" xr:uid="{74F8C0E1-29D2-3C4A-83AF-D0864A3F6C09}"/>
-    <hyperlink ref="AL67:AL79" r:id="rId12" display="http://raspbpi-lia:8092" xr:uid="{8B9A0817-431A-3B4E-8B91-318FF7578007}"/>
-    <hyperlink ref="AL81:AL82" r:id="rId13" display="http://raspbpi-lia:8092" xr:uid="{D7DC29B9-C3B8-4E46-AEC7-7A808BB3DABC}"/>
-    <hyperlink ref="AL84" r:id="rId14" display="http://raspbpi-lia:8092" xr:uid="{0147C993-55B6-D247-A373-B692B0268166}"/>
-    <hyperlink ref="AL86:AL88" r:id="rId15" display="http://raspbpi-lia:8092" xr:uid="{519FA820-0ABF-D64F-8E88-4EB3E9D97777}"/>
-    <hyperlink ref="AL271" r:id="rId16" display="http://raspbpi-lia:8092" xr:uid="{4190FF35-D7F2-1F4C-9886-0DAB50833142}"/>
-    <hyperlink ref="AL262" r:id="rId17" display="http://raspbpi-lia:8092" xr:uid="{4A196AEF-1A6F-524F-9909-6B116A59382E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462C09B0-90F0-FB4A-A1BB-181584D313EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD6688-011F-FB43-A174-AEED463666CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="2800" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5812,8 +5812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -13042,7 +13042,7 @@
         <v>1613</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>26</v>
+        <v>808</v>
       </c>
       <c r="C71" s="56" t="s">
         <v>631</v>
@@ -13151,7 +13151,7 @@
         <v>1614</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>26</v>
+        <v>808</v>
       </c>
       <c r="C72" s="56" t="s">
         <v>631</v>
@@ -13262,7 +13262,7 @@
         <v>1615</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>26</v>
+        <v>808</v>
       </c>
       <c r="C73" s="56" t="s">
         <v>631</v>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD6688-011F-FB43-A174-AEED463666CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF75954-34FB-384B-A130-E624DAB36DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="2800" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5813,7 +5813,7 @@
   <dimension ref="A1:AZ749"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -13042,7 +13042,7 @@
         <v>1613</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>808</v>
+        <v>26</v>
       </c>
       <c r="C71" s="56" t="s">
         <v>631</v>
@@ -13151,7 +13151,7 @@
         <v>1614</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>808</v>
+        <v>26</v>
       </c>
       <c r="C72" s="56" t="s">
         <v>631</v>
@@ -13262,7 +13262,7 @@
         <v>1615</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>808</v>
+        <v>26</v>
       </c>
       <c r="C73" s="56" t="s">
         <v>631</v>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF75954-34FB-384B-A130-E624DAB36DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810DD538-BB46-8C49-8ABB-5609AF2DE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="2800" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5813,7 +5813,7 @@
   <dimension ref="A1:AZ749"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -13337,13 +13337,13 @@
       <c r="AL73" s="59"/>
       <c r="AM73" s="56" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>hallway-sconces-bulb-1</v>
+        <v>hallway-sconces-bulb-2</v>
       </c>
       <c r="AN73" s="58" t="s">
         <v>1250</v>
       </c>
       <c r="AO73" s="56" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="AP73" s="56" t="s">
         <v>1256</v>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599AB623-3DE9-274C-8124-AC63C1307982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD64BCE-FE8D-354E-B7A9-A35993BB8B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="2800" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5429,7 +5429,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AZ749" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
-  <autoFilter ref="A3:AZ749" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A3:AZ749" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Disabled"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Lights"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AZ749">
     <sortCondition ref="A3:A749"/>
   </sortState>
@@ -5798,8 +5809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D389" sqref="D389"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -6331,7 +6342,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="7" customFormat="1" ht="16" customHeight="1">
+    <row r="4" spans="1:52" s="7" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A4" s="66">
         <v>1000</v>
       </c>
@@ -6433,7 +6444,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="16" customHeight="1">
+    <row r="5" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A5" s="53">
         <v>1001</v>
       </c>
@@ -6551,7 +6562,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="16" customHeight="1">
+    <row r="6" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A6" s="66">
         <v>1002</v>
       </c>
@@ -6650,7 +6661,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="16" customHeight="1">
+    <row r="7" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A7" s="6">
         <v>1003</v>
       </c>
@@ -6737,7 +6748,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="16" customHeight="1">
+    <row r="8" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A8" s="27">
         <v>1004</v>
       </c>
@@ -6814,7 +6825,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16" customHeight="1">
+    <row r="9" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A9" s="6">
         <v>1005</v>
       </c>
@@ -6901,7 +6912,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="16" customHeight="1">
+    <row r="10" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A10" s="27">
         <v>1006</v>
       </c>
@@ -6978,7 +6989,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="16" customHeight="1">
+    <row r="11" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A11" s="6">
         <v>1007</v>
       </c>
@@ -7060,7 +7071,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="16" customHeight="1">
+    <row r="12" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A12" s="27">
         <v>1008</v>
       </c>
@@ -7138,7 +7149,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="16" customHeight="1">
+    <row r="13" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A13" s="6">
         <v>1009</v>
       </c>
@@ -7226,7 +7237,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="16" customHeight="1">
+    <row r="14" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A14" s="27">
         <v>1010</v>
       </c>
@@ -7304,7 +7315,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="16" customHeight="1">
+    <row r="15" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A15" s="6">
         <v>1011</v>
       </c>
@@ -7392,7 +7403,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="16" customHeight="1">
+    <row r="16" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A16" s="27">
         <v>1012</v>
       </c>
@@ -7470,7 +7481,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="16" customHeight="1">
+    <row r="17" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A17" s="6">
         <v>1013</v>
       </c>
@@ -7558,7 +7569,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="16" customHeight="1">
+    <row r="18" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A18" s="27">
         <v>1014</v>
       </c>
@@ -7635,7 +7646,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="16" customHeight="1">
+    <row r="19" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A19" s="6">
         <v>1015</v>
       </c>
@@ -7717,7 +7728,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="16" customHeight="1">
+    <row r="20" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A20" s="27">
         <v>1016</v>
       </c>
@@ -7794,7 +7805,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="16" customHeight="1">
+    <row r="21" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A21" s="6">
         <v>1017</v>
       </c>
@@ -7876,7 +7887,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="16" customHeight="1">
+    <row r="22" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A22" s="27">
         <v>1018</v>
       </c>
@@ -7954,7 +7965,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="16" customHeight="1">
+    <row r="23" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A23" s="6">
         <v>1019</v>
       </c>
@@ -8042,7 +8053,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="16" customHeight="1">
+    <row r="24" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A24" s="27">
         <v>1020</v>
       </c>
@@ -8119,7 +8130,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="16" customHeight="1">
+    <row r="25" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A25" s="6">
         <v>1021</v>
       </c>
@@ -8201,7 +8212,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="16" customHeight="1">
+    <row r="26" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A26" s="27">
         <v>1022</v>
       </c>
@@ -8283,7 +8294,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="16" customHeight="1">
+    <row r="27" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A27" s="6">
         <v>1023</v>
       </c>
@@ -8383,7 +8394,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="16" customHeight="1">
+    <row r="28" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A28" s="27">
         <v>1024</v>
       </c>
@@ -8480,7 +8491,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="16" customHeight="1">
+    <row r="29" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A29" s="6">
         <v>1025</v>
       </c>
@@ -8577,7 +8588,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="16" customHeight="1">
+    <row r="30" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A30" s="27">
         <v>1026</v>
       </c>
@@ -8674,7 +8685,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="16" customHeight="1">
+    <row r="31" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A31" s="6">
         <v>1027</v>
       </c>
@@ -8771,7 +8782,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="16" customHeight="1">
+    <row r="32" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A32" s="27">
         <v>1028</v>
       </c>
@@ -8868,7 +8879,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:52" ht="16" customHeight="1">
+    <row r="33" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A33" s="6">
         <v>1029</v>
       </c>
@@ -8965,7 +8976,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:52" ht="16" customHeight="1">
+    <row r="34" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A34" s="27">
         <v>1030</v>
       </c>
@@ -9021,7 +9032,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="16" customHeight="1">
+    <row r="35" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A35" s="6">
         <v>1040</v>
       </c>
@@ -9083,7 +9094,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:52" ht="16" customHeight="1">
+    <row r="36" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A36" s="6">
         <v>1041</v>
       </c>
@@ -9145,7 +9156,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:52" ht="16" customHeight="1">
+    <row r="37" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A37" s="6">
         <v>1042</v>
       </c>
@@ -9203,7 +9214,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:52" ht="16" customHeight="1">
+    <row r="38" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A38" s="6">
         <v>1050</v>
       </c>
@@ -9306,7 +9317,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:52" ht="16" customHeight="1">
+    <row r="39" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A39" s="6">
         <v>1051</v>
       </c>
@@ -9389,7 +9400,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:52" ht="16" customHeight="1">
+    <row r="40" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A40" s="6">
         <v>1052</v>
       </c>
@@ -9472,7 +9483,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:52" ht="16" customHeight="1">
+    <row r="41" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A41" s="6">
         <v>1053</v>
       </c>
@@ -9554,7 +9565,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:52" ht="16" customHeight="1">
+    <row r="42" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A42" s="6">
         <v>1054</v>
       </c>
@@ -9637,7 +9648,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:52" ht="16" customHeight="1">
+    <row r="43" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A43" s="6">
         <v>1055</v>
       </c>
@@ -9720,7 +9731,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:52" ht="16" customHeight="1">
+    <row r="44" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A44" s="6">
         <v>1056</v>
       </c>
@@ -9803,7 +9814,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:52" ht="16" customHeight="1">
+    <row r="45" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A45" s="6">
         <v>1057</v>
       </c>
@@ -9885,7 +9896,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:52" ht="16" customHeight="1">
+    <row r="46" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A46" s="6">
         <v>1058</v>
       </c>
@@ -9967,7 +9978,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:52" ht="16" customHeight="1">
+    <row r="47" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A47" s="6">
         <v>1059</v>
       </c>
@@ -10050,7 +10061,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:52" ht="16" customHeight="1">
+    <row r="48" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A48" s="6">
         <v>1060</v>
       </c>
@@ -10132,7 +10143,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:52" ht="16" customHeight="1">
+    <row r="49" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A49" s="6">
         <v>1061</v>
       </c>
@@ -10232,7 +10243,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:52" ht="16" customHeight="1">
+    <row r="50" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A50" s="6">
         <v>1062</v>
       </c>
@@ -10288,7 +10299,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:52" ht="16" customHeight="1">
+    <row r="51" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A51" s="6">
         <v>1100</v>
       </c>
@@ -10365,7 +10376,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:52" ht="16" customHeight="1">
+    <row r="52" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A52" s="6">
         <v>1101</v>
       </c>
@@ -10447,7 +10458,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:52" ht="16" customHeight="1">
+    <row r="53" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A53" s="6">
         <v>1102</v>
       </c>
@@ -10529,7 +10540,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:52" ht="16" customHeight="1">
+    <row r="54" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A54" s="6">
         <v>1103</v>
       </c>
@@ -10611,7 +10622,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:52" ht="16" customHeight="1">
+    <row r="55" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A55" s="6">
         <v>1104</v>
       </c>
@@ -10692,7 +10703,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:52" ht="16" customHeight="1">
+    <row r="56" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A56" s="6">
         <v>1105</v>
       </c>
@@ -10774,7 +10785,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:52" ht="16" customHeight="1">
+    <row r="57" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A57" s="6">
         <v>1106</v>
       </c>
@@ -10855,7 +10866,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:52" ht="16" customHeight="1">
+    <row r="58" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A58" s="6">
         <v>1107</v>
       </c>
@@ -10936,7 +10947,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="59" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A59" s="6">
         <v>1108</v>
       </c>
@@ -11036,7 +11047,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="60" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A60" s="6">
         <v>1109</v>
       </c>
@@ -11122,7 +11133,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="61" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A61" s="6">
         <v>1150</v>
       </c>
@@ -11226,7 +11237,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="62" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A62" s="6">
         <v>1151</v>
       </c>
@@ -11330,7 +11341,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="63" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A63" s="6">
         <v>1152</v>
       </c>
@@ -11434,7 +11445,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="64" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A64" s="6">
         <v>1153</v>
       </c>
@@ -11538,7 +11549,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="65" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A65" s="6">
         <v>1154</v>
       </c>
@@ -11642,7 +11653,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="66" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A66" s="6">
         <v>1155</v>
       </c>
@@ -11746,7 +11757,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="67" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A67" s="6">
         <v>1200</v>
       </c>
@@ -11856,7 +11867,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="68" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A68" s="6">
         <v>1201</v>
       </c>
@@ -11966,7 +11977,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="69" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A69" s="6">
         <v>1250</v>
       </c>
@@ -12076,7 +12087,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="70" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A70" s="6">
         <v>1251</v>
       </c>
@@ -12186,7 +12197,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="71" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A71" s="6">
         <v>1300</v>
       </c>
@@ -12296,7 +12307,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="72" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A72" s="6">
         <v>1301</v>
       </c>
@@ -12406,7 +12417,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="73" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A73" s="6">
         <v>1302</v>
       </c>
@@ -12516,7 +12527,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="74" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A74" s="6">
         <v>1303</v>
       </c>
@@ -12626,7 +12637,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="75" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A75" s="6">
         <v>1304</v>
       </c>
@@ -12734,7 +12745,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="76" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A76" s="6">
         <v>1305</v>
       </c>
@@ -12844,7 +12855,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:52" ht="16" customHeight="1">
+    <row r="77" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A77" s="6">
         <v>1306</v>
       </c>
@@ -12937,7 +12948,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:52" ht="16" customHeight="1">
+    <row r="78" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A78" s="6">
         <v>1350</v>
       </c>
@@ -13032,7 +13043,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:52" ht="16" customHeight="1">
+    <row r="79" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A79" s="6">
         <v>1351</v>
       </c>
@@ -13130,7 +13141,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:52" ht="16" customHeight="1">
+    <row r="80" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A80" s="6">
         <v>1352</v>
       </c>
@@ -13188,7 +13199,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:52" ht="16" customHeight="1">
+    <row r="81" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A81" s="6">
         <v>1353</v>
       </c>
@@ -13286,7 +13297,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:52" ht="16" customHeight="1">
+    <row r="82" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A82" s="6">
         <v>1354</v>
       </c>
@@ -13378,7 +13389,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:52" ht="16" customHeight="1">
+    <row r="83" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A83" s="6">
         <v>1355</v>
       </c>
@@ -13435,7 +13446,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:52" ht="16" customHeight="1">
+    <row r="84" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A84" s="6">
         <v>1356</v>
       </c>
@@ -13530,7 +13541,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:52" ht="16" customHeight="1">
+    <row r="85" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A85" s="6">
         <v>1357</v>
       </c>
@@ -13587,7 +13598,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:52" ht="16" customHeight="1">
+    <row r="86" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A86" s="6">
         <v>1358</v>
       </c>
@@ -13685,7 +13696,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:52" ht="16" customHeight="1">
+    <row r="87" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A87" s="6">
         <v>1359</v>
       </c>
@@ -13777,7 +13788,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:52" ht="16" customHeight="1">
+    <row r="88" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A88" s="6">
         <v>1360</v>
       </c>
@@ -13869,7 +13880,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:52" ht="16" customHeight="1">
+    <row r="89" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A89" s="6">
         <v>1400</v>
       </c>
@@ -13940,7 +13951,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:52" ht="16" customHeight="1">
+    <row r="90" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A90" s="6">
         <v>1401</v>
       </c>
@@ -14009,7 +14020,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:52" ht="16" customHeight="1">
+    <row r="91" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A91" s="6">
         <v>1402</v>
       </c>
@@ -14078,7 +14089,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:52" ht="16" customHeight="1">
+    <row r="92" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A92" s="6">
         <v>1403</v>
       </c>
@@ -14147,7 +14158,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:52" ht="16" customHeight="1">
+    <row r="93" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A93" s="6">
         <v>1404</v>
       </c>
@@ -14210,7 +14221,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:52" ht="16" customHeight="1">
+    <row r="94" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A94" s="6">
         <v>1405</v>
       </c>
@@ -14273,7 +14284,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:52" ht="16" customHeight="1">
+    <row r="95" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A95" s="6">
         <v>1406</v>
       </c>
@@ -14336,7 +14347,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:52" ht="16" customHeight="1">
+    <row r="96" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A96" s="6">
         <v>1407</v>
       </c>
@@ -14399,7 +14410,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:52" ht="16" customHeight="1">
+    <row r="97" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A97" s="6">
         <v>1408</v>
       </c>
@@ -14455,7 +14466,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:52" ht="16" customHeight="1">
+    <row r="98" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A98" s="6">
         <v>1500</v>
       </c>
@@ -14563,7 +14574,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:52" ht="16" customHeight="1">
+    <row r="99" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A99" s="6">
         <v>1501</v>
       </c>
@@ -14670,7 +14681,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="100" spans="1:52" ht="16" customHeight="1">
+    <row r="100" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A100" s="6">
         <v>1502</v>
       </c>
@@ -14777,7 +14788,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:52" ht="16" customHeight="1">
+    <row r="101" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A101" s="6">
         <v>1503</v>
       </c>
@@ -14858,7 +14869,7 @@
       <c r="AX101" s="7"/>
       <c r="AY101" s="7"/>
     </row>
-    <row r="102" spans="1:52" ht="16" customHeight="1">
+    <row r="102" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A102" s="6">
         <v>1504</v>
       </c>
@@ -14973,7 +14984,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="103" spans="1:52" ht="16" customHeight="1">
+    <row r="103" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A103" s="6">
         <v>1505</v>
       </c>
@@ -15080,7 +15091,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:52" ht="16" customHeight="1">
+    <row r="104" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A104" s="6">
         <v>1506</v>
       </c>
@@ -15146,7 +15157,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:52" ht="16" customHeight="1">
+    <row r="105" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A105" s="6">
         <v>1507</v>
       </c>
@@ -15247,7 +15258,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:52" ht="16" customHeight="1">
+    <row r="106" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A106" s="6">
         <v>1508</v>
       </c>
@@ -15350,7 +15361,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="107" spans="1:52" ht="16" customHeight="1">
+    <row r="107" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A107" s="6">
         <v>1509</v>
       </c>
@@ -15412,7 +15423,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:52" ht="16" customHeight="1">
+    <row r="108" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A108" s="6">
         <v>1600</v>
       </c>
@@ -15497,7 +15508,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:52" ht="16" customHeight="1">
+    <row r="109" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A109" s="6">
         <v>1601</v>
       </c>
@@ -15595,7 +15606,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:52" ht="16" customHeight="1">
+    <row r="110" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A110" s="6">
         <v>1602</v>
       </c>
@@ -15695,7 +15706,7 @@
         <v>[["mac", "0x0017880103433075"]]</v>
       </c>
     </row>
-    <row r="111" spans="1:52" ht="16" customHeight="1">
+    <row r="111" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A111" s="53">
         <v>1603</v>
       </c>
@@ -15811,7 +15822,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:52" ht="16" customHeight="1">
+    <row r="112" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A112" s="53">
         <v>1604</v>
       </c>
@@ -15930,7 +15941,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="113" spans="1:52" ht="16" customHeight="1">
+    <row r="113" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A113" s="6">
         <v>1605</v>
       </c>
@@ -16015,7 +16026,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:52" ht="16" customHeight="1">
+    <row r="114" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A114" s="6">
         <v>1606</v>
       </c>
@@ -16113,7 +16124,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:52" ht="16" customHeight="1">
+    <row r="115" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A115" s="6">
         <v>1607</v>
       </c>
@@ -16213,7 +16224,7 @@
         <v>[["mac", "0x001788010343c36f"]]</v>
       </c>
     </row>
-    <row r="116" spans="1:52" ht="16" customHeight="1">
+    <row r="116" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A116" s="6">
         <v>1608</v>
       </c>
@@ -16308,7 +16319,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:52" ht="16" customHeight="1">
+    <row r="117" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A117" s="6">
         <v>1609</v>
       </c>
@@ -16405,7 +16416,7 @@
         <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
-    <row r="118" spans="1:52" ht="16" customHeight="1">
+    <row r="118" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A118" s="6">
         <v>1610</v>
       </c>
@@ -16502,7 +16513,7 @@
         <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
-    <row r="119" spans="1:52" ht="16" customHeight="1">
+    <row r="119" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A119" s="6">
         <v>1611</v>
       </c>
@@ -16599,7 +16610,7 @@
         <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
-    <row r="120" spans="1:52" ht="16" customHeight="1">
+    <row r="120" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A120" s="6">
         <v>1612</v>
       </c>
@@ -16696,7 +16707,7 @@
         <v>[["mac", "0x001788010444db4e"]]</v>
       </c>
     </row>
-    <row r="121" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="121" spans="1:52" s="57" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A121" s="53">
         <v>1613</v>
       </c>
@@ -16805,7 +16816,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="122" spans="1:52" s="57" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A122" s="53">
         <v>1614</v>
       </c>
@@ -16916,7 +16927,7 @@
         <v>[["mac", "0x2c1165fffe12d5c4"]]</v>
       </c>
     </row>
-    <row r="123" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="123" spans="1:52" s="57" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A123" s="53">
         <v>1615</v>
       </c>
@@ -17027,7 +17038,7 @@
         <v>[["mac", "0x2c1165fffe109407"]]</v>
       </c>
     </row>
-    <row r="124" spans="1:52" ht="16" customHeight="1">
+    <row r="124" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A124" s="6">
         <v>1616</v>
       </c>
@@ -17122,7 +17133,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:52" ht="16" customHeight="1">
+    <row r="125" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A125" s="6">
         <v>1617</v>
       </c>
@@ -17219,7 +17230,7 @@
         <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
-    <row r="126" spans="1:52" ht="16" customHeight="1">
+    <row r="126" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A126" s="6">
         <v>1618</v>
       </c>
@@ -17316,7 +17327,7 @@
         <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
-    <row r="127" spans="1:52" ht="16" customHeight="1">
+    <row r="127" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A127" s="6">
         <v>1619</v>
       </c>
@@ -17413,7 +17424,7 @@
         <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
-    <row r="128" spans="1:52" ht="16" customHeight="1">
+    <row r="128" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A128" s="6">
         <v>1620</v>
       </c>
@@ -17510,7 +17521,7 @@
         <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
-    <row r="129" spans="1:52" ht="16" customHeight="1">
+    <row r="129" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A129" s="6">
         <v>1621</v>
       </c>
@@ -17607,7 +17618,7 @@
         <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
-    <row r="130" spans="1:52" ht="16" customHeight="1">
+    <row r="130" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A130" s="6">
         <v>1622</v>
       </c>
@@ -17704,7 +17715,7 @@
         <v>[["mac", "0x00178801039f4eed"]]</v>
       </c>
     </row>
-    <row r="131" spans="1:52" ht="16" customHeight="1">
+    <row r="131" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A131" s="6">
         <v>1623</v>
       </c>
@@ -17799,7 +17810,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:52" ht="16" customHeight="1">
+    <row r="132" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A132" s="6">
         <v>1624</v>
       </c>
@@ -17896,7 +17907,7 @@
         <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
-    <row r="133" spans="1:52" ht="16" customHeight="1">
+    <row r="133" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A133" s="6">
         <v>1625</v>
       </c>
@@ -17993,7 +18004,7 @@
         <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
-    <row r="134" spans="1:52" ht="16" customHeight="1">
+    <row r="134" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A134" s="6">
         <v>1626</v>
       </c>
@@ -18090,7 +18101,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:52" ht="16" customHeight="1">
+    <row r="135" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A135" s="6">
         <v>1627</v>
       </c>
@@ -18178,7 +18189,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:52" ht="16" customHeight="1">
+    <row r="136" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A136" s="6">
         <v>1628</v>
       </c>
@@ -18276,7 +18287,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:52" ht="16" customHeight="1">
+    <row r="137" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A137" s="6">
         <v>1629</v>
       </c>
@@ -18376,7 +18387,7 @@
         <v>[["mac", "0x0017880106bc4f2d"]]</v>
       </c>
     </row>
-    <row r="138" spans="1:52" ht="16" customHeight="1">
+    <row r="138" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A138" s="6">
         <v>1630</v>
       </c>
@@ -18471,7 +18482,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:52" ht="16" customHeight="1">
+    <row r="139" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A139" s="6">
         <v>1631</v>
       </c>
@@ -18568,7 +18579,7 @@
         <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
-    <row r="140" spans="1:52" ht="16" customHeight="1">
+    <row r="140" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A140" s="6">
         <v>1632</v>
       </c>
@@ -18665,7 +18676,7 @@
         <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
-    <row r="141" spans="1:52" ht="16" customHeight="1">
+    <row r="141" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A141" s="6">
         <v>1633</v>
       </c>
@@ -18762,7 +18773,7 @@
         <v>[["mac", "0x001788010432a064"]]</v>
       </c>
     </row>
-    <row r="142" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="142" spans="1:52" s="57" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A142" s="53">
         <v>1634</v>
       </c>
@@ -18871,7 +18882,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="143" spans="1:52" s="57" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A143" s="53">
         <v>1635</v>
       </c>
@@ -18982,7 +18993,7 @@
         <v>[["mac", "0x2c1165fffeb07271"]]</v>
       </c>
     </row>
-    <row r="144" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="144" spans="1:52" s="57" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A144" s="53">
         <v>1636</v>
       </c>
@@ -19093,7 +19104,7 @@
         <v>[["mac", "0x2c1165fffea8c4d8"]]</v>
       </c>
     </row>
-    <row r="145" spans="1:52" ht="16" customHeight="1">
+    <row r="145" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A145" s="53">
         <v>1637</v>
       </c>
@@ -19209,7 +19220,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:52" ht="16" customHeight="1">
+    <row r="146" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A146" s="53">
         <v>1638</v>
       </c>
@@ -19328,7 +19339,7 @@
         <v>[["mac", "0x00178801040e2034"]]</v>
       </c>
     </row>
-    <row r="147" spans="1:52" ht="16" customHeight="1">
+    <row r="147" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A147" s="6">
         <v>1639</v>
       </c>
@@ -19423,7 +19434,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:52" ht="16" customHeight="1">
+    <row r="148" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A148" s="6">
         <v>1640</v>
       </c>
@@ -19520,7 +19531,7 @@
         <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
-    <row r="149" spans="1:52" ht="16" customHeight="1">
+    <row r="149" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A149" s="6">
         <v>1641</v>
       </c>
@@ -19617,7 +19628,7 @@
         <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
-    <row r="150" spans="1:52" ht="16" customHeight="1">
+    <row r="150" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A150" s="6">
         <v>1642</v>
       </c>
@@ -19715,7 +19726,7 @@
         <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
-    <row r="151" spans="1:52" ht="16" customHeight="1">
+    <row r="151" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A151" s="6">
         <v>1643</v>
       </c>
@@ -19812,7 +19823,7 @@
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:52" ht="16" customHeight="1">
+    <row r="152" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A152" s="6">
         <v>1644</v>
       </c>
@@ -19903,7 +19914,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:52" ht="16" customHeight="1">
+    <row r="153" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A153" s="6">
         <v>1645</v>
       </c>
@@ -20016,7 +20027,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="154" spans="1:52" ht="16" customHeight="1">
+    <row r="154" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A154" s="6">
         <v>1646</v>
       </c>
@@ -20111,7 +20122,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:52" ht="16" customHeight="1">
+    <row r="155" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A155" s="6">
         <v>1647</v>
       </c>
@@ -20208,7 +20219,7 @@
         <v>[["mac", "0x0017880104eaa288"]]</v>
       </c>
     </row>
-    <row r="156" spans="1:52" ht="16" customHeight="1">
+    <row r="156" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A156" s="6">
         <v>1648</v>
       </c>
@@ -20303,7 +20314,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:52" ht="16" customHeight="1">
+    <row r="157" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A157" s="6">
         <v>1649</v>
       </c>
@@ -20400,7 +20411,7 @@
         <v>[["mac", "0x0017880104eaa272"]]</v>
       </c>
     </row>
-    <row r="158" spans="1:52" ht="16" customHeight="1">
+    <row r="158" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A158" s="6">
         <v>1650</v>
       </c>
@@ -20492,7 +20503,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:52" ht="16" customHeight="1">
+    <row r="159" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A159" s="6">
         <v>1651</v>
       </c>
@@ -20589,7 +20600,7 @@
         <v>[["mac", "0x00178801040edfae"]]</v>
       </c>
     </row>
-    <row r="160" spans="1:52" ht="16" customHeight="1">
+    <row r="160" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A160" s="6">
         <v>1652</v>
       </c>
@@ -20684,7 +20695,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:52" ht="16" customHeight="1">
+    <row r="161" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A161" s="6">
         <v>1653</v>
       </c>
@@ -20781,7 +20792,7 @@
         <v>[["mac", "0x00178801040edcad"]]</v>
       </c>
     </row>
-    <row r="162" spans="1:52" ht="16" customHeight="1">
+    <row r="162" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A162" s="6">
         <v>1654</v>
       </c>
@@ -20876,7 +20887,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:52" ht="16" customHeight="1">
+    <row r="163" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A163" s="6">
         <v>1655</v>
       </c>
@@ -20973,7 +20984,7 @@
         <v>[["mac", "0x00178801040eddb2"]]</v>
       </c>
     </row>
-    <row r="164" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="164" spans="1:52" s="57" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A164" s="53">
         <v>1656</v>
       </c>
@@ -21082,7 +21093,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="165" spans="1:52" s="57" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A165" s="53">
         <v>1657</v>
       </c>
@@ -21193,7 +21204,7 @@
         <v>[["mac", "0x2c1165fffe168c7e"]]</v>
       </c>
     </row>
-    <row r="166" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="166" spans="1:52" s="57" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A166" s="53">
         <v>1658</v>
       </c>
@@ -21304,7 +21315,7 @@
         <v>[["mac", "0x2c1165fffea5cd4b"]]</v>
       </c>
     </row>
-    <row r="167" spans="1:52" s="57" customFormat="1" ht="16" customHeight="1">
+    <row r="167" spans="1:52" s="57" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A167" s="53">
         <v>1659</v>
       </c>
@@ -21415,7 +21426,7 @@
         <v>[["mac", "0x2c1165fffea89f5f"]]</v>
       </c>
     </row>
-    <row r="168" spans="1:52" ht="16" customHeight="1">
+    <row r="168" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A168" s="6">
         <v>1660</v>
       </c>
@@ -21510,7 +21521,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:52" ht="16" customHeight="1">
+    <row r="169" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A169" s="6">
         <v>1661</v>
       </c>
@@ -21607,7 +21618,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="170" spans="1:52" ht="16" customHeight="1">
+    <row r="170" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A170" s="6">
         <v>1662</v>
       </c>
@@ -21698,7 +21709,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:52" ht="16" customHeight="1">
+    <row r="171" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A171" s="6">
         <v>1663</v>
       </c>
@@ -21811,7 +21822,7 @@
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="172" spans="1:52" ht="16" customHeight="1">
+    <row r="172" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A172" s="6">
         <v>1664</v>
       </c>
@@ -21902,7 +21913,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:52" ht="16" customHeight="1">
+    <row r="173" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A173" s="6">
         <v>1665</v>
       </c>
@@ -22020,7 +22031,7 @@
         <v>1666</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>808</v>
+        <v>26</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>462</v>
@@ -22112,7 +22123,7 @@
         <v>1667</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>808</v>
+        <v>26</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>462</v>
@@ -22209,7 +22220,7 @@
         <v>1668</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>808</v>
+        <v>26</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>462</v>
@@ -22306,7 +22317,7 @@
         <v>1669</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>808</v>
+        <v>26</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>462</v>
@@ -22403,7 +22414,7 @@
         <v>1670</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>808</v>
+        <v>26</v>
       </c>
       <c r="C178" s="53" t="s">
         <v>462</v>
@@ -22492,7 +22503,7 @@
         <v>[["mac", "0x001788010c692144"]]</v>
       </c>
     </row>
-    <row r="179" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="179" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A179" s="6">
         <v>1671</v>
       </c>
@@ -22563,7 +22574,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="180" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="180" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A180" s="6">
         <v>1672</v>
       </c>
@@ -22634,7 +22645,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="181" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="181" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A181" s="6">
         <v>1673</v>
       </c>
@@ -22705,7 +22716,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="182" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="182" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A182" s="6">
         <v>1674</v>
       </c>
@@ -22780,8 +22791,8 @@
       <c r="A183" s="6">
         <v>1675</v>
       </c>
-      <c r="B183" s="53" t="s">
-        <v>808</v>
+      <c r="B183" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C183" s="53" t="s">
         <v>462</v>
@@ -22869,8 +22880,8 @@
       <c r="A184" s="6">
         <v>1676</v>
       </c>
-      <c r="B184" s="53" t="s">
-        <v>808</v>
+      <c r="B184" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C184" s="53" t="s">
         <v>462</v>
@@ -22963,8 +22974,8 @@
       <c r="A185" s="6">
         <v>1677</v>
       </c>
-      <c r="B185" s="53" t="s">
-        <v>808</v>
+      <c r="B185" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C185" s="53" t="s">
         <v>462</v>
@@ -23053,7 +23064,7 @@
         <v>[["mac", "0x0017880109c40c33"]]</v>
       </c>
     </row>
-    <row r="186" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="186" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A186" s="53">
         <v>1678</v>
       </c>
@@ -23124,7 +23135,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="187" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="187" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A187" s="53">
         <v>1700</v>
       </c>
@@ -23181,7 +23192,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:52" s="53" customFormat="1" ht="16" customHeight="1">
+    <row r="188" spans="1:52" s="53" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A188" s="53">
         <v>1701</v>
       </c>
@@ -23269,7 +23280,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:52" ht="16" customHeight="1">
+    <row r="189" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A189" s="6">
         <v>1702</v>
       </c>
@@ -23382,7 +23393,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="190" spans="1:52" ht="16" customHeight="1">
+    <row r="190" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A190" s="6">
         <v>1703</v>
       </c>
@@ -23472,7 +23483,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.94"]]</v>
       </c>
     </row>
-    <row r="191" spans="1:52" ht="16" customHeight="1">
+    <row r="191" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A191" s="6">
         <v>1704</v>
       </c>
@@ -23558,7 +23569,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:52" ht="16" customHeight="1">
+    <row r="192" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A192" s="6">
         <v>2000</v>
       </c>
@@ -23647,7 +23658,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="193" spans="1:52" ht="16" customHeight="1">
+    <row r="193" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A193" s="6">
         <v>2001</v>
       </c>
@@ -23720,7 +23731,7 @@
       <c r="AV193" s="6"/>
       <c r="AW193" s="6"/>
     </row>
-    <row r="194" spans="1:52" ht="16" customHeight="1">
+    <row r="194" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A194" s="6">
         <v>2002</v>
       </c>
@@ -23809,7 +23820,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="195" spans="1:52" ht="16" customHeight="1">
+    <row r="195" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A195" s="6">
         <v>2003</v>
       </c>
@@ -23882,7 +23893,7 @@
       <c r="AV195" s="6"/>
       <c r="AW195" s="6"/>
     </row>
-    <row r="196" spans="1:52" ht="16" customHeight="1">
+    <row r="196" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A196" s="6">
         <v>2100</v>
       </c>
@@ -23948,7 +23959,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:52" ht="16" customHeight="1">
+    <row r="197" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A197" s="6">
         <v>2101</v>
       </c>
@@ -24014,7 +24025,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:52" ht="16" customHeight="1">
+    <row r="198" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A198" s="6">
         <v>2102</v>
       </c>
@@ -24080,7 +24091,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:52" ht="16" customHeight="1">
+    <row r="199" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A199" s="6">
         <v>2103</v>
       </c>
@@ -24137,7 +24148,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:52" ht="16" customHeight="1">
+    <row r="200" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A200" s="6">
         <v>2104</v>
       </c>
@@ -24203,7 +24214,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:52" ht="16" customHeight="1">
+    <row r="201" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A201" s="6">
         <v>2105</v>
       </c>
@@ -24271,7 +24282,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:52" ht="16" customHeight="1">
+    <row r="202" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A202" s="6">
         <v>2106</v>
       </c>
@@ -24339,7 +24350,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:52" ht="16" customHeight="1">
+    <row r="203" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A203" s="6">
         <v>2107</v>
       </c>
@@ -24405,7 +24416,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:52" ht="16" customHeight="1">
+    <row r="204" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A204" s="6">
         <v>2108</v>
       </c>
@@ -24471,7 +24482,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:52" ht="16" customHeight="1">
+    <row r="205" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A205" s="6">
         <v>2109</v>
       </c>
@@ -24537,7 +24548,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:52" ht="16" customHeight="1">
+    <row r="206" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A206" s="6">
         <v>2110</v>
       </c>
@@ -24605,7 +24616,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:52" ht="16" customHeight="1">
+    <row r="207" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A207" s="6">
         <v>2111</v>
       </c>
@@ -24673,7 +24684,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:52" ht="16" customHeight="1">
+    <row r="208" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A208" s="6">
         <v>2112</v>
       </c>
@@ -24739,7 +24750,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:52" ht="16" customHeight="1">
+    <row r="209" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A209" s="6">
         <v>2113</v>
       </c>
@@ -24805,7 +24816,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:52" ht="16" customHeight="1">
+    <row r="210" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A210" s="6">
         <v>2114</v>
       </c>
@@ -24871,7 +24882,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:52" ht="16" customHeight="1">
+    <row r="211" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A211" s="6">
         <v>2115</v>
       </c>
@@ -24937,7 +24948,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:52" ht="16" customHeight="1">
+    <row r="212" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A212" s="6">
         <v>2116</v>
       </c>
@@ -25003,7 +25014,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:52" ht="16" customHeight="1">
+    <row r="213" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A213" s="6">
         <v>2117</v>
       </c>
@@ -25069,7 +25080,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:52" ht="16" customHeight="1">
+    <row r="214" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A214" s="6">
         <v>2118</v>
       </c>
@@ -25135,7 +25146,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:52" ht="16" customHeight="1">
+    <row r="215" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A215" s="6">
         <v>2119</v>
       </c>
@@ -25201,7 +25212,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:52" ht="16" customHeight="1">
+    <row r="216" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A216" s="6">
         <v>2120</v>
       </c>
@@ -25267,7 +25278,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:52" ht="16" customHeight="1">
+    <row r="217" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A217" s="6">
         <v>2121</v>
       </c>
@@ -25333,7 +25344,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:52" ht="16" customHeight="1">
+    <row r="218" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A218" s="6">
         <v>2122</v>
       </c>
@@ -25389,7 +25400,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:52" ht="16" customHeight="1">
+    <row r="219" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A219" s="6">
         <v>2123</v>
       </c>
@@ -25446,7 +25457,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:52" ht="16" customHeight="1">
+    <row r="220" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A220" s="6">
         <v>2124</v>
       </c>
@@ -25503,7 +25514,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:52" ht="16" customHeight="1">
+    <row r="221" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A221" s="6">
         <v>2125</v>
       </c>
@@ -25560,7 +25571,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:52" ht="16" customHeight="1">
+    <row r="222" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A222" s="6">
         <v>2126</v>
       </c>
@@ -25617,7 +25628,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:52" ht="16" customHeight="1">
+    <row r="223" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A223" s="6">
         <v>2127</v>
       </c>
@@ -25683,7 +25694,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:52" ht="16" customHeight="1">
+    <row r="224" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A224" s="6">
         <v>2128</v>
       </c>
@@ -25749,7 +25760,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:52" ht="16" customHeight="1">
+    <row r="225" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A225" s="6">
         <v>2129</v>
       </c>
@@ -25811,7 +25822,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:52" ht="16" customHeight="1">
+    <row r="226" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A226" s="6">
         <v>2130</v>
       </c>
@@ -25868,7 +25879,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:52" ht="16" customHeight="1">
+    <row r="227" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A227" s="6">
         <v>2131</v>
       </c>
@@ -25934,7 +25945,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:52" ht="16" customHeight="1">
+    <row r="228" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A228" s="6">
         <v>2132</v>
       </c>
@@ -26000,7 +26011,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:52" ht="16" customHeight="1">
+    <row r="229" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A229" s="6">
         <v>2133</v>
       </c>
@@ -26062,7 +26073,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:52" ht="16" customHeight="1">
+    <row r="230" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A230" s="6">
         <v>2134</v>
       </c>
@@ -26128,7 +26139,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:52" ht="16" customHeight="1">
+    <row r="231" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A231" s="6">
         <v>2135</v>
       </c>
@@ -26194,7 +26205,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:52" ht="16" customHeight="1">
+    <row r="232" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A232" s="6">
         <v>2136</v>
       </c>
@@ -26260,7 +26271,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:52" ht="16" customHeight="1">
+    <row r="233" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A233" s="6">
         <v>2137</v>
       </c>
@@ -26326,7 +26337,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:52" ht="16" customHeight="1">
+    <row r="234" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A234" s="6">
         <v>2138</v>
       </c>
@@ -26392,7 +26403,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:52" ht="16" customHeight="1">
+    <row r="235" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A235" s="6">
         <v>2139</v>
       </c>
@@ -26458,7 +26469,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:52" ht="16" customHeight="1">
+    <row r="236" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A236" s="6">
         <v>2140</v>
       </c>
@@ -26524,7 +26535,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:52" ht="16" customHeight="1">
+    <row r="237" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A237" s="6">
         <v>2141</v>
       </c>
@@ -26590,7 +26601,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:52" ht="16" customHeight="1">
+    <row r="238" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A238" s="6">
         <v>2142</v>
       </c>
@@ -26656,7 +26667,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:52" ht="16" customHeight="1">
+    <row r="239" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A239" s="6">
         <v>2143</v>
       </c>
@@ -26722,7 +26733,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:52" ht="16" customHeight="1">
+    <row r="240" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A240" s="6">
         <v>2144</v>
       </c>
@@ -26788,7 +26799,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:52" ht="16" customHeight="1">
+    <row r="241" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A241" s="6">
         <v>2145</v>
       </c>
@@ -26854,7 +26865,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:52" ht="16" customHeight="1">
+    <row r="242" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A242" s="6">
         <v>2146</v>
       </c>
@@ -26920,7 +26931,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:52" ht="16" customHeight="1">
+    <row r="243" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A243" s="6">
         <v>2147</v>
       </c>
@@ -26977,7 +26988,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:52" ht="16" customHeight="1">
+    <row r="244" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A244" s="6">
         <v>2148</v>
       </c>
@@ -27034,7 +27045,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:52" ht="16" customHeight="1">
+    <row r="245" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A245" s="6">
         <v>2149</v>
       </c>
@@ -27100,7 +27111,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:52" ht="16" customHeight="1">
+    <row r="246" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A246" s="6">
         <v>2150</v>
       </c>
@@ -27166,7 +27177,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:52" ht="16" customHeight="1">
+    <row r="247" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A247" s="6">
         <v>2151</v>
       </c>
@@ -27223,7 +27234,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:52" ht="16" customHeight="1">
+    <row r="248" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A248" s="6">
         <v>2152</v>
       </c>
@@ -27280,7 +27291,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:52" ht="16" customHeight="1">
+    <row r="249" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A249" s="6">
         <v>2153</v>
       </c>
@@ -27336,7 +27347,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:52" ht="16" customHeight="1">
+    <row r="250" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A250" s="6">
         <v>2154</v>
       </c>
@@ -27402,7 +27413,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:52" ht="16" customHeight="1">
+    <row r="251" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A251" s="6">
         <v>2155</v>
       </c>
@@ -27468,7 +27479,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:52" ht="16" customHeight="1">
+    <row r="252" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A252" s="6">
         <v>2156</v>
       </c>
@@ -27534,7 +27545,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:52" ht="16" customHeight="1">
+    <row r="253" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A253" s="6">
         <v>2157</v>
       </c>
@@ -27600,7 +27611,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:52" ht="16" customHeight="1">
+    <row r="254" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A254" s="6">
         <v>2158</v>
       </c>
@@ -27666,7 +27677,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:52" ht="16" customHeight="1">
+    <row r="255" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A255" s="6">
         <v>2159</v>
       </c>
@@ -27732,7 +27743,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:52" ht="16" customHeight="1">
+    <row r="256" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A256" s="6">
         <v>2160</v>
       </c>
@@ -27798,7 +27809,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:52" ht="16" customHeight="1">
+    <row r="257" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A257" s="6">
         <v>2161</v>
       </c>
@@ -27864,7 +27875,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:52" ht="16" customHeight="1">
+    <row r="258" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A258" s="6">
         <v>2162</v>
       </c>
@@ -27930,7 +27941,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:52" ht="16" customHeight="1">
+    <row r="259" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A259" s="6">
         <v>2400</v>
       </c>
@@ -28005,7 +28016,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="260" spans="1:52" ht="16" customHeight="1">
+    <row r="260" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A260" s="6">
         <v>2500</v>
       </c>
@@ -28096,7 +28107,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:52" ht="16" customHeight="1">
+    <row r="261" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A261" s="6">
         <v>2501</v>
       </c>
@@ -28193,7 +28204,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:52" ht="16" customHeight="1">
+    <row r="262" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A262" s="6">
         <v>2502</v>
       </c>
@@ -28290,7 +28301,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:52" ht="16" customHeight="1">
+    <row r="263" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A263" s="6">
         <v>2503</v>
       </c>
@@ -28387,7 +28398,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:52" ht="16" customHeight="1">
+    <row r="264" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A264" s="6">
         <v>2504</v>
       </c>
@@ -28481,7 +28492,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:52" ht="16" customHeight="1">
+    <row r="265" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A265" s="6">
         <v>2505</v>
       </c>
@@ -28542,7 +28553,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:52" ht="16" customHeight="1">
+    <row r="266" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A266" s="6">
         <v>2506</v>
       </c>
@@ -28600,7 +28611,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:52" ht="16" customHeight="1">
+    <row r="267" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A267" s="6">
         <v>2507</v>
       </c>
@@ -28658,7 +28669,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:52" ht="16" customHeight="1">
+    <row r="268" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A268" s="6">
         <v>2508</v>
       </c>
@@ -28716,7 +28727,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:52" ht="16" customHeight="1">
+    <row r="269" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A269" s="6">
         <v>2509</v>
       </c>
@@ -28774,7 +28785,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:52" ht="16" customHeight="1">
+    <row r="270" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A270" s="6">
         <v>2510</v>
       </c>
@@ -28832,7 +28843,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:52" ht="16" customHeight="1">
+    <row r="271" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A271" s="6">
         <v>2511</v>
       </c>
@@ -28890,7 +28901,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:52" ht="16" customHeight="1">
+    <row r="272" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A272" s="6">
         <v>2512</v>
       </c>
@@ -28973,7 +28984,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:52" ht="16" customHeight="1">
+    <row r="273" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A273" s="6">
         <v>2513</v>
       </c>
@@ -29019,7 +29030,7 @@
       <c r="AV273" s="6"/>
       <c r="AW273" s="6"/>
     </row>
-    <row r="274" spans="1:52" ht="16" customHeight="1">
+    <row r="274" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A274" s="6">
         <v>2514</v>
       </c>
@@ -29077,7 +29088,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:52" ht="16" customHeight="1">
+    <row r="275" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A275" s="6">
         <v>2520</v>
       </c>
@@ -29135,7 +29146,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:52" ht="16" customHeight="1">
+    <row r="276" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A276" s="6">
         <v>2521</v>
       </c>
@@ -29193,7 +29204,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:52" ht="16" customHeight="1">
+    <row r="277" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A277" s="6">
         <v>2522</v>
       </c>
@@ -29251,7 +29262,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:52" ht="16" customHeight="1">
+    <row r="278" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A278" s="6">
         <v>2523</v>
       </c>
@@ -29309,7 +29320,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:52" ht="16" customHeight="1">
+    <row r="279" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A279" s="6">
         <v>2524</v>
       </c>
@@ -29367,7 +29378,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:52" ht="16" customHeight="1">
+    <row r="280" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A280" s="6">
         <v>2525</v>
       </c>
@@ -29422,7 +29433,7 @@
       <c r="AV280" s="6"/>
       <c r="AW280" s="6"/>
     </row>
-    <row r="281" spans="1:52" ht="16" customHeight="1">
+    <row r="281" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A281" s="6">
         <v>2526</v>
       </c>
@@ -29517,7 +29528,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:52" ht="16" customHeight="1">
+    <row r="282" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A282" s="6">
         <v>2527</v>
       </c>
@@ -29590,7 +29601,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:52" ht="16" customHeight="1">
+    <row r="283" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A283" s="6">
         <v>2528</v>
       </c>
@@ -29663,7 +29674,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:52" ht="16" customHeight="1">
+    <row r="284" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A284" s="6">
         <v>2529</v>
       </c>
@@ -29736,7 +29747,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:52" ht="16" customHeight="1">
+    <row r="285" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A285" s="6">
         <v>2530</v>
       </c>
@@ -29809,7 +29820,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:52" ht="16" customHeight="1">
+    <row r="286" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A286" s="6">
         <v>2531</v>
       </c>
@@ -29866,7 +29877,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:52" ht="16" customHeight="1">
+    <row r="287" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A287" s="6">
         <v>2532</v>
       </c>
@@ -29923,7 +29934,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:52" ht="16" customHeight="1">
+    <row r="288" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A288" s="6">
         <v>2533</v>
       </c>
@@ -29980,7 +29991,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:52" ht="16" customHeight="1">
+    <row r="289" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A289" s="6">
         <v>2550</v>
       </c>
@@ -30040,7 +30051,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:52" ht="16" customHeight="1">
+    <row r="290" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A290" s="6">
         <v>2551</v>
       </c>
@@ -30131,7 +30142,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:52" ht="16" customHeight="1">
+    <row r="291" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A291" s="6">
         <v>2552</v>
       </c>
@@ -30240,7 +30251,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="292" spans="1:52" ht="16" customHeight="1">
+    <row r="292" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A292" s="6">
         <v>2553</v>
       </c>
@@ -30331,7 +30342,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:52" ht="16" customHeight="1">
+    <row r="293" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A293" s="6">
         <v>2554</v>
       </c>
@@ -30440,7 +30451,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="294" spans="1:52" ht="16" customHeight="1">
+    <row r="294" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A294" s="6">
         <v>2555</v>
       </c>
@@ -30530,7 +30541,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:52" ht="16" customHeight="1">
+    <row r="295" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A295" s="6">
         <v>2556</v>
       </c>
@@ -30639,7 +30650,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="296" spans="1:52" ht="16" customHeight="1">
+    <row r="296" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A296" s="6">
         <v>2557</v>
       </c>
@@ -30729,7 +30740,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:52" ht="16" customHeight="1">
+    <row r="297" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A297" s="6">
         <v>2558</v>
       </c>
@@ -30838,7 +30849,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="298" spans="1:52" ht="16" customHeight="1">
+    <row r="298" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A298" s="6">
         <v>2559</v>
       </c>
@@ -30928,7 +30939,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:52" ht="16" customHeight="1">
+    <row r="299" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A299" s="6">
         <v>2560</v>
       </c>
@@ -31037,7 +31048,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="300" spans="1:52" ht="16" customHeight="1">
+    <row r="300" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A300" s="6">
         <v>2561</v>
       </c>
@@ -31127,7 +31138,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:52" ht="16" customHeight="1">
+    <row r="301" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A301" s="6">
         <v>2562</v>
       </c>
@@ -31236,7 +31247,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="302" spans="1:52" ht="16" customHeight="1">
+    <row r="302" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A302" s="6">
         <v>2563</v>
       </c>
@@ -31314,7 +31325,7 @@
       <c r="AV302" s="6"/>
       <c r="AW302" s="6"/>
     </row>
-    <row r="303" spans="1:52" ht="16" customHeight="1">
+    <row r="303" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A303" s="6">
         <v>2564</v>
       </c>
@@ -31423,7 +31434,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="304" spans="1:52" ht="16" customHeight="1">
+    <row r="304" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A304" s="6">
         <v>2565</v>
       </c>
@@ -31513,7 +31524,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:52" ht="16" customHeight="1">
+    <row r="305" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A305" s="6">
         <v>2566</v>
       </c>
@@ -31622,7 +31633,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="306" spans="1:52" ht="16" customHeight="1">
+    <row r="306" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A306" s="6">
         <v>2567</v>
       </c>
@@ -31712,7 +31723,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:52" ht="16" customHeight="1">
+    <row r="307" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A307" s="6">
         <v>2568</v>
       </c>
@@ -31821,7 +31832,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:52" ht="16" customHeight="1">
+    <row r="308" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A308" s="6">
         <v>2569</v>
       </c>
@@ -31911,7 +31922,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:52" ht="16" customHeight="1">
+    <row r="309" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A309" s="6">
         <v>2570</v>
       </c>
@@ -32020,7 +32031,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="310" spans="1:52" ht="16" customHeight="1">
+    <row r="310" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A310" s="6">
         <v>2571</v>
       </c>
@@ -32110,7 +32121,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:52" ht="16" customHeight="1">
+    <row r="311" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A311" s="6">
         <v>2572</v>
       </c>
@@ -32219,7 +32230,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="312" spans="1:52" ht="16" customHeight="1">
+    <row r="312" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A312" s="6">
         <v>2573</v>
       </c>
@@ -32309,7 +32320,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:52" ht="16" customHeight="1">
+    <row r="313" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A313" s="6">
         <v>2574</v>
       </c>
@@ -32418,7 +32429,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="314" spans="1:52" ht="16" customHeight="1">
+    <row r="314" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A314" s="6">
         <v>2575</v>
       </c>
@@ -32505,7 +32516,7 @@
       <c r="AV314" s="6"/>
       <c r="AW314" s="6"/>
     </row>
-    <row r="315" spans="1:52" ht="16" customHeight="1">
+    <row r="315" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A315" s="6">
         <v>2576</v>
       </c>
@@ -32615,7 +32626,7 @@
         <v>[["mac", "5c:a6:e6:25:59:03"], ["ip", "10.0.6.90"]]</v>
       </c>
     </row>
-    <row r="316" spans="1:52" ht="16" customHeight="1">
+    <row r="316" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A316" s="6">
         <v>2577</v>
       </c>
@@ -32700,7 +32711,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:52" ht="16" customHeight="1">
+    <row r="317" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A317" s="6">
         <v>2578</v>
       </c>
@@ -32804,7 +32815,7 @@
         <v>[["mac", "5c:a6:e6:25:56:a7"], ["ip", "10.0.6.91"]]</v>
       </c>
     </row>
-    <row r="318" spans="1:52" ht="16" customHeight="1">
+    <row r="318" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A318" s="6">
         <v>2579</v>
       </c>
@@ -32889,7 +32900,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:52" ht="16" customHeight="1">
+    <row r="319" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A319" s="6">
         <v>2580</v>
       </c>
@@ -32993,7 +33004,7 @@
         <v>[["mac", "5c:a6:e6:25:59:c0"], ["ip", "10.0.6.92"]]</v>
       </c>
     </row>
-    <row r="320" spans="1:52" ht="16" customHeight="1">
+    <row r="320" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A320" s="6">
         <v>2581</v>
       </c>
@@ -33083,7 +33094,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:52" ht="16" customHeight="1">
+    <row r="321" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A321" s="6">
         <v>2582</v>
       </c>
@@ -33192,7 +33203,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="322" spans="1:52" ht="16" customHeight="1">
+    <row r="322" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A322" s="6">
         <v>2583</v>
       </c>
@@ -33282,7 +33293,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:52" ht="16" customHeight="1">
+    <row r="323" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A323" s="6">
         <v>2584</v>
       </c>
@@ -33391,7 +33402,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="324" spans="1:52" ht="16" customHeight="1">
+    <row r="324" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A324" s="6">
         <v>2585</v>
       </c>
@@ -33475,7 +33486,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:52" ht="16" customHeight="1">
+    <row r="325" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A325" s="6">
         <v>2586</v>
       </c>
@@ -33578,7 +33589,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="326" spans="1:52" ht="16" customHeight="1">
+    <row r="326" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A326" s="6">
         <v>2587</v>
       </c>
@@ -33681,7 +33692,7 @@
         <v>[["mac", "0x00178801086168ac"]]</v>
       </c>
     </row>
-    <row r="327" spans="1:52" ht="16" customHeight="1">
+    <row r="327" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A327" s="6">
         <v>2588</v>
       </c>
@@ -33784,7 +33795,7 @@
         <v>[["mac", "0x0017880109d4659c"]]</v>
       </c>
     </row>
-    <row r="328" spans="1:52" ht="16" customHeight="1">
+    <row r="328" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A328" s="6">
         <v>2589</v>
       </c>
@@ -33888,7 +33899,7 @@
         <v>[["mac", "0x0017880108fd8633"]]</v>
       </c>
     </row>
-    <row r="329" spans="1:52" ht="16" customHeight="1">
+    <row r="329" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A329" s="6">
         <v>2590</v>
       </c>
@@ -33972,7 +33983,7 @@
         <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.93"]]</v>
       </c>
     </row>
-    <row r="330" spans="1:52" ht="16" customHeight="1">
+    <row r="330" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A330" s="6">
         <v>2591</v>
       </c>
@@ -34068,7 +34079,7 @@
         <v>[["mac", "0x2c1165fffec5a3f6"]]</v>
       </c>
     </row>
-    <row r="331" spans="1:52" ht="16" customHeight="1">
+    <row r="331" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A331" s="6">
         <v>2592</v>
       </c>
@@ -34164,7 +34175,7 @@
         <v>[["mac", "0x2c1165fffebaa93c"]]</v>
       </c>
     </row>
-    <row r="332" spans="1:52" ht="16" customHeight="1">
+    <row r="332" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A332" s="6">
         <v>2593</v>
       </c>
@@ -34260,7 +34271,7 @@
         <v>[["mac", "0x50325ffffe47b8fa"]]</v>
       </c>
     </row>
-    <row r="333" spans="1:52" ht="16" customHeight="1">
+    <row r="333" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A333" s="6">
         <v>2594</v>
       </c>
@@ -34316,7 +34327,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:52" ht="16" customHeight="1">
+    <row r="334" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A334" s="12">
         <v>2600</v>
       </c>
@@ -34385,7 +34396,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:52" ht="16" customHeight="1">
+    <row r="335" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A335" s="41">
         <v>2601</v>
       </c>
@@ -34454,7 +34465,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:52" ht="16" customHeight="1">
+    <row r="336" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A336" s="12">
         <v>2602</v>
       </c>
@@ -34523,7 +34534,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:52" ht="16" customHeight="1">
+    <row r="337" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A337" s="12">
         <v>2603</v>
       </c>
@@ -34589,7 +34600,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:52" ht="16" customHeight="1">
+    <row r="338" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A338" s="41">
         <v>2604</v>
       </c>
@@ -34655,7 +34666,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:52" ht="16" customHeight="1">
+    <row r="339" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A339" s="12">
         <v>2605</v>
       </c>
@@ -34721,7 +34732,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:52" ht="16" customHeight="1">
+    <row r="340" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A340" s="12">
         <v>2606</v>
       </c>
@@ -34790,7 +34801,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:52" ht="16" customHeight="1">
+    <row r="341" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A341" s="41">
         <v>2607</v>
       </c>
@@ -34857,7 +34868,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:52" ht="16" customHeight="1">
+    <row r="342" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A342" s="12">
         <v>2608</v>
       </c>
@@ -34923,7 +34934,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:52" ht="16" customHeight="1">
+    <row r="343" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A343" s="12">
         <v>2609</v>
       </c>
@@ -34990,7 +35001,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:52" ht="16" customHeight="1">
+    <row r="344" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A344" s="41">
         <v>2610</v>
       </c>
@@ -35056,7 +35067,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:52" ht="16" customHeight="1">
+    <row r="345" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A345" s="12">
         <v>2611</v>
       </c>
@@ -35122,7 +35133,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:52" ht="16" customHeight="1">
+    <row r="346" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A346" s="38">
         <v>2612</v>
       </c>
@@ -35188,7 +35199,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:52" ht="16" customHeight="1">
+    <row r="347" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A347" s="39">
         <v>2613</v>
       </c>
@@ -35254,7 +35265,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:52" ht="16" customHeight="1">
+    <row r="348" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A348" s="38">
         <v>2614</v>
       </c>
@@ -35320,7 +35331,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:52" ht="16" customHeight="1">
+    <row r="349" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A349" s="38">
         <v>2615</v>
       </c>
@@ -35377,7 +35388,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:52" ht="16" customHeight="1">
+    <row r="350" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A350" s="40">
         <v>2620</v>
       </c>
@@ -35434,7 +35445,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:52" ht="16" customHeight="1">
+    <row r="351" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A351" s="40">
         <v>2621</v>
       </c>
@@ -35491,7 +35502,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:52" ht="16" customHeight="1">
+    <row r="352" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A352" s="40">
         <v>2622</v>
       </c>
@@ -35545,7 +35556,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:52" ht="16" customHeight="1">
+    <row r="353" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A353" s="40">
         <v>2623</v>
       </c>
@@ -35599,7 +35610,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:52" ht="16" customHeight="1">
+    <row r="354" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A354" s="40">
         <v>2624</v>
       </c>
@@ -35656,7 +35667,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:52" ht="16" customHeight="1">
+    <row r="355" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A355" s="40">
         <v>2625</v>
       </c>
@@ -35713,7 +35724,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:52" ht="16" customHeight="1">
+    <row r="356" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A356" s="40">
         <v>2626</v>
       </c>
@@ -35767,7 +35778,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:52" ht="16" customHeight="1">
+    <row r="357" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A357" s="40">
         <v>2627</v>
       </c>
@@ -35821,7 +35832,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:52" ht="16" customHeight="1">
+    <row r="358" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A358" s="40">
         <v>2628</v>
       </c>
@@ -35880,7 +35891,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:52" ht="16" customHeight="1">
+    <row r="359" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A359" s="40">
         <v>2629</v>
       </c>
@@ -35939,7 +35950,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:52" ht="16" customHeight="1">
+    <row r="360" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A360" s="40">
         <v>2630</v>
       </c>
@@ -35995,7 +36006,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:52" ht="16" customHeight="1">
+    <row r="361" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A361" s="40">
         <v>2631</v>
       </c>
@@ -36051,7 +36062,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:52" ht="16" customHeight="1">
+    <row r="362" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A362" s="38">
         <v>2631</v>
       </c>
@@ -36107,7 +36118,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:52" ht="16" customHeight="1">
+    <row r="363" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A363" s="6">
         <v>2640</v>
       </c>
@@ -36166,7 +36177,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:52" ht="16" customHeight="1">
+    <row r="364" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A364" s="6">
         <v>2650</v>
       </c>
@@ -36271,7 +36282,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="365" spans="1:52" ht="16" customHeight="1">
+    <row r="365" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A365" s="6">
         <v>2651</v>
       </c>
@@ -36376,7 +36387,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="366" spans="1:52" ht="16" customHeight="1">
+    <row r="366" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A366" s="6">
         <v>2652</v>
       </c>
@@ -36480,7 +36491,7 @@
         <v>[["mac", "dc:e5:5b:a5:a3:0d"], ["ip", "10.0.4.55"]]</v>
       </c>
     </row>
-    <row r="367" spans="1:52" ht="16" customHeight="1">
+    <row r="367" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A367" s="6">
         <v>2653</v>
       </c>
@@ -36584,7 +36595,7 @@
         <v>[["mac", "dc:e5:5b:4c:e9:69"], ["ip", "10.0.4.56"]]</v>
       </c>
     </row>
-    <row r="368" spans="1:52" ht="16" customHeight="1">
+    <row r="368" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A368" s="6">
         <v>2654</v>
       </c>
@@ -36689,7 +36700,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="369" spans="1:52" ht="16" customHeight="1">
+    <row r="369" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A369" s="6">
         <v>2655</v>
       </c>
@@ -36794,7 +36805,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="370" spans="1:52" ht="16" customHeight="1">
+    <row r="370" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A370" s="6">
         <v>2656</v>
       </c>
@@ -36881,7 +36892,7 @@
         <v>[["mac", "32:4c:57:35:08:8d"], ["ip", "10.0.4.57"]]</v>
       </c>
     </row>
-    <row r="371" spans="1:52" ht="16" customHeight="1">
+    <row r="371" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A371" s="6">
         <v>2657</v>
       </c>
@@ -36938,7 +36949,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:52" s="52" customFormat="1" ht="16" customHeight="1">
+    <row r="372" spans="1:52" s="52" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A372" s="6">
         <v>2658</v>
       </c>
@@ -37043,7 +37054,7 @@
         <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
-    <row r="373" spans="1:52" s="52" customFormat="1" ht="16" customHeight="1">
+    <row r="373" spans="1:52" s="52" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A373" s="6">
         <v>2659</v>
       </c>
@@ -37148,7 +37159,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="374" spans="1:52" ht="16" customHeight="1">
+    <row r="374" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A374" s="6">
         <v>2660</v>
       </c>
@@ -37235,7 +37246,7 @@
         <v>[["mac", "12:93:f0:d4:3f:cb"], ["ip", "10.0.4.58"]]</v>
       </c>
     </row>
-    <row r="375" spans="1:52" ht="16" customHeight="1">
+    <row r="375" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A375" s="6">
         <v>2661</v>
       </c>
@@ -37321,7 +37332,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="376" spans="1:52" ht="16" customHeight="1">
+    <row r="376" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A376" s="6">
         <v>2662</v>
       </c>
@@ -37377,7 +37388,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:52" ht="16" customHeight="1">
+    <row r="377" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A377" s="6">
         <v>2663</v>
       </c>
@@ -37471,7 +37482,7 @@
         <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
-    <row r="378" spans="1:52" ht="16" customHeight="1">
+    <row r="378" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A378" s="6">
         <v>2664</v>
       </c>
@@ -37553,7 +37564,7 @@
       <c r="AX378" s="12"/>
       <c r="AY378" s="12"/>
     </row>
-    <row r="379" spans="1:52" ht="16" customHeight="1">
+    <row r="379" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A379" s="6">
         <v>2665</v>
       </c>
@@ -37659,7 +37670,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="380" spans="1:52" ht="16" customHeight="1">
+    <row r="380" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A380" s="6">
         <v>2666</v>
       </c>
@@ -37765,7 +37776,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="381" spans="1:52" ht="16" customHeight="1">
+    <row r="381" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A381" s="6">
         <v>2667</v>
       </c>
@@ -37847,7 +37858,7 @@
       <c r="AX381" s="12"/>
       <c r="AY381" s="12"/>
     </row>
-    <row r="382" spans="1:52" ht="16" customHeight="1">
+    <row r="382" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A382" s="6">
         <v>2668</v>
       </c>
@@ -37953,7 +37964,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="383" spans="1:52" ht="16" customHeight="1">
+    <row r="383" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A383" s="6">
         <v>2669</v>
       </c>
@@ -38039,7 +38050,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="384" spans="1:52" ht="16" customHeight="1">
+    <row r="384" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A384" s="6">
         <v>2700</v>
       </c>
@@ -38101,7 +38112,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:52" ht="16" customHeight="1">
+    <row r="385" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A385" s="6">
         <v>2701</v>
       </c>
@@ -38157,7 +38168,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:52" ht="16" customHeight="1">
+    <row r="386" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A386" s="6">
         <v>2702</v>
       </c>
@@ -38236,7 +38247,7 @@
         <v>[["mac", "0x000d6f0011274420"]]</v>
       </c>
     </row>
-    <row r="387" spans="1:52" ht="16" customHeight="1">
+    <row r="387" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A387" s="6">
         <v>2703</v>
       </c>
@@ -38315,7 +38326,7 @@
         <v>[["mac", "0x00124b0029119f9a"]]</v>
       </c>
     </row>
-    <row r="388" spans="1:52" ht="16" customHeight="1">
+    <row r="388" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A388" s="33">
         <v>2704</v>
       </c>
@@ -38395,7 +38406,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:52" ht="16" customHeight="1">
+    <row r="389" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A389" s="6">
         <v>2705</v>
       </c>
@@ -38457,7 +38468,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:52" ht="16" customHeight="1">
+    <row r="390" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A390" s="6">
         <v>2706</v>
       </c>
@@ -38513,7 +38524,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:52" ht="16" customHeight="1">
+    <row r="391" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A391" s="6">
         <v>2707</v>
       </c>
@@ -38592,7 +38603,7 @@
         <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
-    <row r="392" spans="1:52" ht="16" customHeight="1">
+    <row r="392" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A392" s="6">
         <v>2708</v>
       </c>
@@ -38671,7 +38682,7 @@
         <v>[["mac", "0x00124b0029113713"]]</v>
       </c>
     </row>
-    <row r="393" spans="1:52" ht="16" customHeight="1">
+    <row r="393" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A393" s="33">
         <v>2709</v>
       </c>
@@ -38751,7 +38762,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:52" ht="16" customHeight="1">
+    <row r="394" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A394" s="6">
         <v>2710</v>
       </c>
@@ -38807,7 +38818,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:52" ht="16" customHeight="1">
+    <row r="395" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A395" s="6">
         <v>2711</v>
       </c>
@@ -38864,7 +38875,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:52" ht="16" customHeight="1">
+    <row r="396" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A396" s="6">
         <v>2712</v>
       </c>
@@ -38948,7 +38959,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="397" spans="1:52" ht="16" customHeight="1">
+    <row r="397" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A397" s="6">
         <v>2713</v>
       </c>
@@ -39004,7 +39015,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:52" ht="16" customHeight="1">
+    <row r="398" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A398" s="6">
         <v>2714</v>
       </c>
@@ -39061,7 +39072,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:52" ht="16" customHeight="1">
+    <row r="399" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A399" s="6">
         <v>2715</v>
       </c>
@@ -39145,7 +39156,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="400" spans="1:52" ht="16" customHeight="1">
+    <row r="400" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A400" s="6">
         <v>2716</v>
       </c>
@@ -39201,7 +39212,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:52" ht="16" customHeight="1">
+    <row r="401" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A401" s="6">
         <v>2717</v>
       </c>
@@ -39258,7 +39269,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:52" ht="16" customHeight="1">
+    <row r="402" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A402" s="6">
         <v>2718</v>
       </c>
@@ -39316,7 +39327,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:52" ht="16" customHeight="1">
+    <row r="403" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A403" s="6">
         <v>2719</v>
       </c>
@@ -39374,7 +39385,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:52" ht="16" customHeight="1">
+    <row r="404" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A404" s="6">
         <v>2720</v>
       </c>
@@ -39431,7 +39442,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:52" ht="16" customHeight="1">
+    <row r="405" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A405" s="6">
         <v>2721</v>
       </c>
@@ -39488,7 +39499,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:52" ht="16" customHeight="1">
+    <row r="406" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A406" s="6">
         <v>2722</v>
       </c>
@@ -39545,7 +39556,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:52" ht="16" customHeight="1">
+    <row r="407" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A407" s="6">
         <v>5000</v>
       </c>
@@ -39607,7 +39618,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="408" spans="1:52" ht="16" customHeight="1">
+    <row r="408" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A408" s="6">
         <v>5001</v>
       </c>
@@ -39669,7 +39680,7 @@
         <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="409" spans="1:52" ht="16" customHeight="1">
+    <row r="409" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A409" s="6">
         <v>5002</v>
       </c>
@@ -39731,7 +39742,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="410" spans="1:52" ht="16" customHeight="1">
+    <row r="410" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A410" s="6">
         <v>5003</v>
       </c>
@@ -39793,7 +39804,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="411" spans="1:52" ht="16" customHeight="1">
+    <row r="411" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A411" s="6">
         <v>5004</v>
       </c>
@@ -39855,7 +39866,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
-    <row r="412" spans="1:52" ht="16" customHeight="1">
+    <row r="412" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A412" s="6">
         <v>5005</v>
       </c>
@@ -39921,7 +39932,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="413" spans="1:52" ht="16" customHeight="1">
+    <row r="413" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A413" s="6">
         <v>5006</v>
       </c>
@@ -39987,7 +39998,7 @@
         <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="414" spans="1:52" ht="16" customHeight="1">
+    <row r="414" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A414" s="6">
         <v>5007</v>
       </c>
@@ -40057,7 +40068,7 @@
         <v>[["mac", "2a:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="415" spans="1:52" ht="16" customHeight="1">
+    <row r="415" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A415" s="6">
         <v>5008</v>
       </c>
@@ -40127,7 +40138,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="416" spans="1:52" ht="16" customHeight="1">
+    <row r="416" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A416" s="6">
         <v>5009</v>
       </c>
@@ -40188,7 +40199,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"]]</v>
       </c>
     </row>
-    <row r="417" spans="1:52" ht="16" customHeight="1">
+    <row r="417" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A417" s="6">
         <v>5010</v>
       </c>
@@ -40251,7 +40262,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"]]</v>
       </c>
     </row>
-    <row r="418" spans="1:52" ht="16" customHeight="1">
+    <row r="418" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A418" s="6">
         <v>5011</v>
       </c>
@@ -40314,7 +40325,7 @@
         <v>[["mac", "40:6c:8f:2a:da:9c"]]</v>
       </c>
     </row>
-    <row r="419" spans="1:52" ht="16" customHeight="1">
+    <row r="419" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A419" s="6">
         <v>5012</v>
       </c>
@@ -40379,7 +40390,7 @@
         <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="420" spans="1:52" ht="16" customHeight="1">
+    <row r="420" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A420" s="6">
         <v>5013</v>
       </c>
@@ -40444,7 +40455,7 @@
         <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="421" spans="1:52" ht="16" customHeight="1">
+    <row r="421" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A421" s="6">
         <v>5014</v>
       </c>
@@ -40504,7 +40515,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="422" spans="1:52" ht="16" customHeight="1">
+    <row r="422" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A422" s="6">
         <v>5015</v>
       </c>
@@ -40571,7 +40582,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="423" spans="1:52" ht="16" customHeight="1">
+    <row r="423" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A423" s="6">
         <v>6000</v>
       </c>
@@ -40617,7 +40628,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="424" spans="1:52" ht="16" customHeight="1">
+    <row r="424" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="F424" s="6" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40647,7 +40658,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:52" ht="16" customHeight="1">
+    <row r="425" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
       <c r="D425" s="12"/>
@@ -40687,7 +40698,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:52" ht="16" customHeight="1">
+    <row r="426" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="F426" s="6" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40717,7 +40728,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:52" ht="16" customHeight="1">
+    <row r="427" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="F427" s="6" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40747,7 +40758,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:52" ht="16" customHeight="1">
+    <row r="428" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="F428" s="6" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40777,7 +40788,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:52" ht="16" customHeight="1">
+    <row r="429" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="F429" s="6" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40807,7 +40818,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:52" ht="16" customHeight="1">
+    <row r="430" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="E430" s="10"/>
       <c r="F430" s="6" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
@@ -40838,7 +40849,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:52" ht="16" customHeight="1">
+    <row r="431" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="E431" s="10"/>
       <c r="F431" s="6" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
@@ -40869,7 +40880,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:52" ht="16" customHeight="1">
+    <row r="432" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="F432" s="6" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40899,7 +40910,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:52" ht="16" customHeight="1">
+    <row r="433" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F433" s="6" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40929,7 +40940,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:52" ht="16" customHeight="1">
+    <row r="434" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F434" s="6" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40959,7 +40970,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:52" ht="16" customHeight="1">
+    <row r="435" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F435" s="6" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40989,7 +41000,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:52" ht="16" customHeight="1">
+    <row r="436" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F436" s="6" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41019,7 +41030,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:52" ht="16" customHeight="1">
+    <row r="437" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F437" s="6" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41049,7 +41060,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:52" ht="16" customHeight="1">
+    <row r="438" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F438" s="6" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41079,7 +41090,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:52" ht="16" customHeight="1">
+    <row r="439" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F439" s="6" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41109,7 +41120,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:52" ht="16" customHeight="1">
+    <row r="440" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F440" s="6" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41139,7 +41150,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:52" ht="16" customHeight="1">
+    <row r="441" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F441" s="6" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41169,7 +41180,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:52" ht="16" customHeight="1">
+    <row r="442" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F442" s="6" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41199,7 +41210,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:52" ht="16" customHeight="1">
+    <row r="443" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F443" s="6" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41229,7 +41240,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:52" ht="16" customHeight="1">
+    <row r="444" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F444" s="6" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41259,7 +41270,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:52" ht="16" customHeight="1">
+    <row r="445" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F445" s="6" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41289,7 +41300,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:52" ht="16" customHeight="1">
+    <row r="446" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F446" s="6" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41319,7 +41330,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:52" ht="16" customHeight="1">
+    <row r="447" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F447" s="6" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41349,7 +41360,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:52" ht="16" customHeight="1">
+    <row r="448" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F448" s="6" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41379,7 +41390,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:52" ht="16" customHeight="1">
+    <row r="449" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F449" s="6" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41409,7 +41420,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:52" ht="16" customHeight="1">
+    <row r="450" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F450" s="6" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41439,7 +41450,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:52" ht="16" customHeight="1">
+    <row r="451" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F451" s="6" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41469,7 +41480,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:52" ht="16" customHeight="1">
+    <row r="452" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F452" s="6" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41499,7 +41510,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:52" ht="16" customHeight="1">
+    <row r="453" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F453" s="6" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41529,7 +41540,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:52" ht="16" customHeight="1">
+    <row r="454" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F454" s="6" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41559,7 +41570,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:52" ht="16" customHeight="1">
+    <row r="455" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F455" s="6" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41589,7 +41600,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:52" ht="16" customHeight="1">
+    <row r="456" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F456" s="6" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41619,7 +41630,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:52" ht="16" customHeight="1">
+    <row r="457" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F457" s="6" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41649,7 +41660,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:52" ht="16" customHeight="1">
+    <row r="458" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F458" s="6" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41679,7 +41690,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:52" ht="16" customHeight="1">
+    <row r="459" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F459" s="6" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41709,7 +41720,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:52" ht="16" customHeight="1">
+    <row r="460" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F460" s="6" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41739,7 +41750,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:52" ht="16" customHeight="1">
+    <row r="461" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F461" s="6" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41769,7 +41780,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:52" ht="16" customHeight="1">
+    <row r="462" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F462" s="6" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41799,7 +41810,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:52" ht="16" customHeight="1">
+    <row r="463" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F463" s="6" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41829,7 +41840,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:52" ht="16" customHeight="1">
+    <row r="464" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F464" s="6" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41859,7 +41870,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:52" ht="16" customHeight="1">
+    <row r="465" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F465" s="6" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41889,7 +41900,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:52" ht="16" customHeight="1">
+    <row r="466" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F466" s="6" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41919,7 +41930,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:52" ht="16" customHeight="1">
+    <row r="467" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F467" s="6" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41949,7 +41960,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:52" ht="16" customHeight="1">
+    <row r="468" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F468" s="6" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41979,7 +41990,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:52" ht="16" customHeight="1">
+    <row r="469" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F469" s="6" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42009,7 +42020,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:52" ht="16" customHeight="1">
+    <row r="470" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F470" s="6" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42039,7 +42050,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:52" ht="16" customHeight="1">
+    <row r="471" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F471" s="6" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42069,7 +42080,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:52" ht="16" customHeight="1">
+    <row r="472" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F472" s="6" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42099,7 +42110,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:52" ht="16" customHeight="1">
+    <row r="473" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F473" s="6" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42129,7 +42140,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:52" ht="16" customHeight="1">
+    <row r="474" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F474" s="6" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42159,7 +42170,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:52" ht="16" customHeight="1">
+    <row r="475" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F475" s="6" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42189,7 +42200,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:52" ht="16" customHeight="1">
+    <row r="476" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F476" s="6" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42219,7 +42230,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:52" ht="16" customHeight="1">
+    <row r="477" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F477" s="6" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42249,7 +42260,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:52" ht="16" customHeight="1">
+    <row r="478" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F478" s="6" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42279,7 +42290,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:52" ht="16" customHeight="1">
+    <row r="479" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F479" s="6" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42309,7 +42320,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:52" ht="16" customHeight="1">
+    <row r="480" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F480" s="6" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42339,7 +42350,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:52" ht="16" customHeight="1">
+    <row r="481" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F481" s="6" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42369,7 +42380,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:52" ht="16" customHeight="1">
+    <row r="482" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F482" s="6" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42399,7 +42410,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:52" ht="16" customHeight="1">
+    <row r="483" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F483" s="6" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42429,7 +42440,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:52" ht="16" customHeight="1">
+    <row r="484" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F484" s="6" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42459,7 +42470,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:52" ht="16" customHeight="1">
+    <row r="485" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F485" s="6" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42489,7 +42500,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:52" ht="16" customHeight="1">
+    <row r="486" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F486" s="6" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42519,7 +42530,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:52" ht="16" customHeight="1">
+    <row r="487" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F487" s="6" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42549,7 +42560,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:52" ht="16" customHeight="1">
+    <row r="488" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F488" s="6" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42579,7 +42590,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:52" ht="16" customHeight="1">
+    <row r="489" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F489" s="6" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42609,7 +42620,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:52" ht="16" customHeight="1">
+    <row r="490" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F490" s="6" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42639,7 +42650,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:52" ht="16" customHeight="1">
+    <row r="491" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F491" s="6" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42669,7 +42680,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:52" ht="16" customHeight="1">
+    <row r="492" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F492" s="6" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42699,7 +42710,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:52" ht="16" customHeight="1">
+    <row r="493" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F493" s="6" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42729,7 +42740,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:52" ht="16" customHeight="1">
+    <row r="494" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F494" s="6" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42759,7 +42770,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:52" ht="16" customHeight="1">
+    <row r="495" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F495" s="6" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42789,7 +42800,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:52" ht="16" customHeight="1">
+    <row r="496" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F496" s="6" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42819,7 +42830,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:52" ht="16" customHeight="1">
+    <row r="497" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F497" s="6" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42849,7 +42860,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:52" ht="16" customHeight="1">
+    <row r="498" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F498" s="6" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42879,7 +42890,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:52" ht="16" customHeight="1">
+    <row r="499" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F499" s="6" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42909,7 +42920,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:52" ht="16" customHeight="1">
+    <row r="500" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F500" s="6" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42939,7 +42950,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:52" ht="16" customHeight="1">
+    <row r="501" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F501" s="6" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42969,7 +42980,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:52" ht="16" customHeight="1">
+    <row r="502" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F502" s="6" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42999,7 +43010,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:52" ht="16" customHeight="1">
+    <row r="503" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F503" s="6" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43029,7 +43040,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:52" ht="16" customHeight="1">
+    <row r="504" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F504" s="6" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43059,7 +43070,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:52" ht="16" customHeight="1">
+    <row r="505" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F505" s="6" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43089,7 +43100,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:52" ht="16" customHeight="1">
+    <row r="506" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F506" s="6" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43119,7 +43130,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:52" ht="16" customHeight="1">
+    <row r="507" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F507" s="6" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43149,7 +43160,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:52" ht="16" customHeight="1">
+    <row r="508" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F508" s="6" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43179,7 +43190,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:52" ht="16" customHeight="1">
+    <row r="509" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F509" s="6" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43209,7 +43220,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:52" ht="16" customHeight="1">
+    <row r="510" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F510" s="6" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43239,7 +43250,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:52" ht="16" customHeight="1">
+    <row r="511" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F511" s="6" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43269,7 +43280,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:52" ht="16" customHeight="1">
+    <row r="512" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F512" s="6" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43299,7 +43310,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:52" ht="16" customHeight="1">
+    <row r="513" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F513" s="6" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43329,7 +43340,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:52" ht="16" customHeight="1">
+    <row r="514" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F514" s="6" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43359,7 +43370,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:52" ht="16" customHeight="1">
+    <row r="515" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F515" s="6" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43389,7 +43400,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:52" ht="16" customHeight="1">
+    <row r="516" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F516" s="6" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43419,7 +43430,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:52" ht="16" customHeight="1">
+    <row r="517" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F517" s="6" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43449,7 +43460,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:52" ht="16" customHeight="1">
+    <row r="518" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F518" s="6" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43479,7 +43490,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:52" ht="16" customHeight="1">
+    <row r="519" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F519" s="6" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43509,7 +43520,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:52" ht="16" customHeight="1">
+    <row r="520" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F520" s="6" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43539,7 +43550,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:52" ht="16" customHeight="1">
+    <row r="521" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F521" s="6" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43569,7 +43580,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:52" ht="16" customHeight="1">
+    <row r="522" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F522" s="6" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43599,7 +43610,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:52" ht="16" customHeight="1">
+    <row r="523" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F523" s="6" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43629,7 +43640,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:52" ht="16" customHeight="1">
+    <row r="524" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F524" s="6" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43659,7 +43670,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:52" ht="16" customHeight="1">
+    <row r="525" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F525" s="6" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43689,7 +43700,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:52" ht="16" customHeight="1">
+    <row r="526" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F526" s="6" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43719,7 +43730,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:52" ht="16" customHeight="1">
+    <row r="527" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F527" s="6" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43749,7 +43760,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:52" ht="16" customHeight="1">
+    <row r="528" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F528" s="6" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43779,7 +43790,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:52" ht="16" customHeight="1">
+    <row r="529" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F529" s="6" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43809,7 +43820,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:52" ht="16" customHeight="1">
+    <row r="530" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F530" s="6" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43839,7 +43850,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:52" ht="16" customHeight="1">
+    <row r="531" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F531" s="6" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43869,7 +43880,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:52" ht="16" customHeight="1">
+    <row r="532" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F532" s="6" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43899,7 +43910,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:52" ht="16" customHeight="1">
+    <row r="533" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F533" s="6" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43929,7 +43940,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:52" ht="16" customHeight="1">
+    <row r="534" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F534" s="6" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43959,7 +43970,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:52" ht="16" customHeight="1">
+    <row r="535" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F535" s="6" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43989,7 +44000,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:52" ht="16" customHeight="1">
+    <row r="536" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F536" s="6" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44019,7 +44030,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:52" ht="16" customHeight="1">
+    <row r="537" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F537" s="6" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44049,7 +44060,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:52" ht="16" customHeight="1">
+    <row r="538" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F538" s="6" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44079,7 +44090,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:52" ht="16" customHeight="1">
+    <row r="539" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F539" s="6" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44109,7 +44120,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:52" ht="16" customHeight="1">
+    <row r="540" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F540" s="6" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44139,7 +44150,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:52" ht="16" customHeight="1">
+    <row r="541" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F541" s="6" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44169,7 +44180,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:52" ht="16" customHeight="1">
+    <row r="542" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F542" s="6" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44199,7 +44210,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:52" ht="16" customHeight="1">
+    <row r="543" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F543" s="6" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44229,7 +44240,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:52" ht="16" customHeight="1">
+    <row r="544" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F544" s="6" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44259,7 +44270,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:52" ht="16" customHeight="1">
+    <row r="545" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F545" s="6" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44289,7 +44300,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:52" ht="16" customHeight="1">
+    <row r="546" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F546" s="6" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44319,7 +44330,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:52" ht="16" customHeight="1">
+    <row r="547" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F547" s="6" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44349,7 +44360,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:52" ht="16" customHeight="1">
+    <row r="548" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F548" s="6" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44379,7 +44390,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:52" ht="16" customHeight="1">
+    <row r="549" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F549" s="6" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44410,7 +44421,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:52" ht="16" customHeight="1">
+    <row r="550" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F550" s="6" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44441,7 +44452,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:52" ht="16" customHeight="1">
+    <row r="551" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F551" s="6" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44471,7 +44482,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:52" ht="16" customHeight="1">
+    <row r="552" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F552" s="6" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44501,7 +44512,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:52" ht="16" customHeight="1">
+    <row r="553" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F553" s="6" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44531,7 +44542,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:52" ht="16" customHeight="1">
+    <row r="554" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F554" s="6" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44561,7 +44572,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:52" ht="16" customHeight="1">
+    <row r="555" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F555" s="6" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44590,7 +44601,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:52" ht="16" customHeight="1">
+    <row r="556" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F556" s="6" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44619,7 +44630,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:52" ht="16" customHeight="1">
+    <row r="557" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F557" s="6" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44648,7 +44659,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:52" ht="16" customHeight="1">
+    <row r="558" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F558" s="6" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44677,7 +44688,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:52" ht="16" customHeight="1">
+    <row r="559" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F559" s="6" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44707,7 +44718,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:52" ht="16" customHeight="1">
+    <row r="560" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F560" s="6" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44736,7 +44747,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:52" ht="16" customHeight="1">
+    <row r="561" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F561" s="6" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44765,7 +44776,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:52" ht="16" customHeight="1">
+    <row r="562" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F562" s="6" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44794,7 +44805,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:52" ht="16" customHeight="1">
+    <row r="563" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F563" s="6" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44823,7 +44834,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:52" ht="16" customHeight="1">
+    <row r="564" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F564" s="6" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44852,7 +44863,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:52" ht="16" customHeight="1">
+    <row r="565" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F565" s="6" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44881,7 +44892,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:52" ht="16" customHeight="1">
+    <row r="566" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F566" s="6" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44910,7 +44921,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:52" ht="16" customHeight="1">
+    <row r="567" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F567" s="6" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44939,7 +44950,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:52" ht="16" customHeight="1">
+    <row r="568" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F568" s="6" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44968,7 +44979,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:52" ht="16" customHeight="1">
+    <row r="569" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F569" s="6" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44997,7 +45008,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:52" ht="16" customHeight="1">
+    <row r="570" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F570" s="6" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45026,7 +45037,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:52" ht="16" customHeight="1">
+    <row r="571" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F571" s="6" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45055,7 +45066,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:52" ht="16" customHeight="1">
+    <row r="572" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F572" s="6" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45084,7 +45095,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:52" ht="16" customHeight="1">
+    <row r="573" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F573" s="6" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45113,7 +45124,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:52" ht="16" customHeight="1">
+    <row r="574" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F574" s="6" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45142,7 +45153,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:52" ht="16" customHeight="1">
+    <row r="575" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F575" s="6" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45171,7 +45182,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:52" ht="16" customHeight="1">
+    <row r="576" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F576" s="6" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45200,7 +45211,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:52" ht="16" customHeight="1">
+    <row r="577" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F577" s="6" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45229,7 +45240,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:52" ht="16" customHeight="1">
+    <row r="578" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F578" s="6" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45258,7 +45269,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:52" ht="16" customHeight="1">
+    <row r="579" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F579" s="6" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45287,7 +45298,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:52" ht="16" customHeight="1">
+    <row r="580" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F580" s="6" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45316,7 +45327,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:52" ht="16" customHeight="1">
+    <row r="581" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F581" s="6" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45345,7 +45356,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:52" ht="16" customHeight="1">
+    <row r="582" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F582" s="6" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45374,7 +45385,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:52" ht="16" customHeight="1">
+    <row r="583" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F583" s="6" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45403,7 +45414,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:52" ht="16" customHeight="1">
+    <row r="584" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F584" s="6" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45432,7 +45443,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:52" ht="16" customHeight="1">
+    <row r="585" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F585" s="6" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45461,7 +45472,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:52" ht="16" customHeight="1">
+    <row r="586" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F586" s="6" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45490,7 +45501,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:52" ht="16" customHeight="1">
+    <row r="587" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F587" s="6" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45519,7 +45530,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:52" ht="16" customHeight="1">
+    <row r="588" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F588" s="6" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45548,7 +45559,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:52" ht="16" customHeight="1">
+    <row r="589" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F589" s="6" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45577,7 +45588,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:52" ht="16" customHeight="1">
+    <row r="590" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F590" s="6" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45606,7 +45617,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:52" ht="16" customHeight="1">
+    <row r="591" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F591" s="6" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45635,7 +45646,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:52" ht="16" customHeight="1">
+    <row r="592" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F592" s="6" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45664,7 +45675,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:52" ht="16" customHeight="1">
+    <row r="593" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F593" s="6" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45693,7 +45704,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:52" ht="16" customHeight="1">
+    <row r="594" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F594" s="6" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45722,7 +45733,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:52" ht="16" customHeight="1">
+    <row r="595" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F595" s="6" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45751,7 +45762,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:52" ht="16" customHeight="1">
+    <row r="596" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F596" s="6" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45780,7 +45791,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:52" ht="16" customHeight="1">
+    <row r="597" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F597" s="6" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45809,7 +45820,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:52" ht="16" customHeight="1">
+    <row r="598" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F598" s="6" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45838,7 +45849,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:52" ht="16" customHeight="1">
+    <row r="599" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F599" s="6" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45867,7 +45878,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:52" ht="16" customHeight="1">
+    <row r="600" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F600" s="6" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45896,7 +45907,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:52" ht="16" customHeight="1">
+    <row r="601" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F601" s="6" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45925,7 +45936,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:52" ht="16" customHeight="1">
+    <row r="602" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F602" s="6" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45954,7 +45965,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:52" ht="16" customHeight="1">
+    <row r="603" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F603" s="6" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45983,7 +45994,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:52" ht="16" customHeight="1">
+    <row r="604" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F604" s="6" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46012,7 +46023,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:52" ht="16" customHeight="1">
+    <row r="605" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F605" s="6" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46041,7 +46052,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:52" ht="16" customHeight="1">
+    <row r="606" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F606" s="6" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46070,7 +46081,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:52" ht="16" customHeight="1">
+    <row r="607" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F607" s="6" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46099,7 +46110,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:52" ht="16" customHeight="1">
+    <row r="608" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F608" s="6" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46128,7 +46139,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:52" ht="16" customHeight="1">
+    <row r="609" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F609" s="6" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46157,7 +46168,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:52" ht="16" customHeight="1">
+    <row r="610" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F610" s="6" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46186,7 +46197,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:52" ht="16" customHeight="1">
+    <row r="611" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F611" s="6" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46215,7 +46226,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:52" ht="16" customHeight="1">
+    <row r="612" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F612" s="6" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46244,7 +46255,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:52" ht="16" customHeight="1">
+    <row r="613" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F613" s="6" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46273,7 +46284,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:52" ht="16" customHeight="1">
+    <row r="614" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F614" s="6" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46302,7 +46313,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:52" ht="16" customHeight="1">
+    <row r="615" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F615" s="6" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46331,7 +46342,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:52" ht="16" customHeight="1">
+    <row r="616" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F616" s="6" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46360,7 +46371,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:52" ht="16" customHeight="1">
+    <row r="617" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F617" s="6" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46389,7 +46400,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:52" ht="16" customHeight="1">
+    <row r="618" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F618" s="6" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46418,7 +46429,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:52" ht="16" customHeight="1">
+    <row r="619" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F619" s="6" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46447,7 +46458,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:52" ht="16" customHeight="1">
+    <row r="620" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F620" s="6" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46476,7 +46487,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:52" ht="16" customHeight="1">
+    <row r="621" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F621" s="6" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46505,7 +46516,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:52" ht="16" customHeight="1">
+    <row r="622" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F622" s="6" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46534,7 +46545,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:52" ht="16" customHeight="1">
+    <row r="623" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F623" s="6" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46563,7 +46574,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:52" ht="16" customHeight="1">
+    <row r="624" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F624" s="6" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46592,7 +46603,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:52" ht="16" customHeight="1">
+    <row r="625" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F625" s="6" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46621,7 +46632,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:52" ht="16" customHeight="1">
+    <row r="626" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F626" s="6" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46650,7 +46661,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:52" ht="16" customHeight="1">
+    <row r="627" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F627" s="6" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46679,7 +46690,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:52" ht="16" customHeight="1">
+    <row r="628" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F628" s="6" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46708,7 +46719,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:52" ht="16" customHeight="1">
+    <row r="629" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F629" s="6" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46737,7 +46748,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="6:52" ht="16" customHeight="1">
+    <row r="630" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F630" s="6" t="str">
         <f>IF(ISBLANK(E630), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46766,7 +46777,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="6:52" ht="16" customHeight="1">
+    <row r="631" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F631" s="6" t="str">
         <f>IF(ISBLANK(E631), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46795,7 +46806,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="6:52" ht="16" customHeight="1">
+    <row r="632" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F632" s="6" t="str">
         <f>IF(ISBLANK(E632), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46824,7 +46835,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="6:52" ht="16" customHeight="1">
+    <row r="633" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F633" s="6" t="str">
         <f>IF(ISBLANK(E633), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46853,7 +46864,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="6:52" ht="16" customHeight="1">
+    <row r="634" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F634" s="6" t="str">
         <f>IF(ISBLANK(E634), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46882,7 +46893,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="6:52" ht="16" customHeight="1">
+    <row r="635" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F635" s="6" t="str">
         <f>IF(ISBLANK(E635), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46911,7 +46922,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="6:52" ht="16" customHeight="1">
+    <row r="636" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F636" s="6" t="str">
         <f>IF(ISBLANK(E636), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46940,7 +46951,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="6:52" ht="16" customHeight="1">
+    <row r="637" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F637" s="6" t="str">
         <f>IF(ISBLANK(E637), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46969,7 +46980,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="6:52" ht="16" customHeight="1">
+    <row r="638" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F638" s="6" t="str">
         <f>IF(ISBLANK(E638), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46998,7 +47009,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="6:52" ht="16" customHeight="1">
+    <row r="639" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F639" s="6" t="str">
         <f>IF(ISBLANK(E639), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47027,7 +47038,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="6:52" ht="16" customHeight="1">
+    <row r="640" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F640" s="6" t="str">
         <f>IF(ISBLANK(E640), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47056,7 +47067,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="6:52" ht="16" customHeight="1">
+    <row r="641" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F641" s="6" t="str">
         <f>IF(ISBLANK(E641), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47085,7 +47096,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="6:52" ht="16" customHeight="1">
+    <row r="642" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F642" s="6" t="str">
         <f>IF(ISBLANK(E642), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47114,7 +47125,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="6:52" ht="16" customHeight="1">
+    <row r="643" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F643" s="6" t="str">
         <f>IF(ISBLANK(E643), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47143,7 +47154,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="6:52" ht="16" customHeight="1">
+    <row r="644" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F644" s="6" t="str">
         <f>IF(ISBLANK(E644), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47172,7 +47183,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="6:52" ht="16" customHeight="1">
+    <row r="645" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F645" s="6" t="str">
         <f>IF(ISBLANK(E645), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47201,7 +47212,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="6:52" ht="16" customHeight="1">
+    <row r="646" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F646" s="6" t="str">
         <f>IF(ISBLANK(E646), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47230,7 +47241,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="6:52" ht="16" customHeight="1">
+    <row r="647" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F647" s="6" t="str">
         <f>IF(ISBLANK(E647), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47259,7 +47270,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="6:52" ht="16" customHeight="1">
+    <row r="648" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F648" s="6" t="str">
         <f>IF(ISBLANK(E648), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47288,7 +47299,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="6:52" ht="16" customHeight="1">
+    <row r="649" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F649" s="6" t="str">
         <f>IF(ISBLANK(E649), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47317,7 +47328,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="6:52" ht="16" customHeight="1">
+    <row r="650" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F650" s="6" t="str">
         <f>IF(ISBLANK(E650), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47346,7 +47357,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="6:52" ht="16" customHeight="1">
+    <row r="651" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F651" s="6" t="str">
         <f>IF(ISBLANK(E651), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47375,7 +47386,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="6:52" ht="16" customHeight="1">
+    <row r="652" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F652" s="6" t="str">
         <f>IF(ISBLANK(E652), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47404,7 +47415,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="6:52" ht="16" customHeight="1">
+    <row r="653" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F653" s="6" t="str">
         <f>IF(ISBLANK(E653), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47433,7 +47444,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="6:52" ht="16" customHeight="1">
+    <row r="654" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F654" s="6" t="str">
         <f>IF(ISBLANK(E654), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47462,7 +47473,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="6:52" ht="16" customHeight="1">
+    <row r="655" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F655" s="6" t="str">
         <f>IF(ISBLANK(E655), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47491,7 +47502,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="6:52" ht="16" customHeight="1">
+    <row r="656" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F656" s="6" t="str">
         <f>IF(ISBLANK(E656), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47520,7 +47531,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="6:52" ht="16" customHeight="1">
+    <row r="657" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F657" s="6" t="str">
         <f>IF(ISBLANK(E657), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47549,7 +47560,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="6:52" ht="16" customHeight="1">
+    <row r="658" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F658" s="6" t="str">
         <f>IF(ISBLANK(E658), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47578,7 +47589,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="6:52" ht="16" customHeight="1">
+    <row r="659" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F659" s="6" t="str">
         <f>IF(ISBLANK(E659), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47607,7 +47618,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="6:52" ht="16" customHeight="1">
+    <row r="660" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F660" s="6" t="str">
         <f>IF(ISBLANK(E660), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47636,7 +47647,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="6:52" ht="16" customHeight="1">
+    <row r="661" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F661" s="6" t="str">
         <f>IF(ISBLANK(E661), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47665,7 +47676,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="6:52" ht="16" customHeight="1">
+    <row r="662" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F662" s="6" t="str">
         <f>IF(ISBLANK(E662), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47694,7 +47705,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="6:52" ht="16" customHeight="1">
+    <row r="663" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F663" s="6" t="str">
         <f>IF(ISBLANK(E663), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47723,7 +47734,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="6:52" ht="16" customHeight="1">
+    <row r="664" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F664" s="6" t="str">
         <f>IF(ISBLANK(E664), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47752,7 +47763,7 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="6:52" ht="16" customHeight="1">
+    <row r="665" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F665" s="6" t="str">
         <f>IF(ISBLANK(E665), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47781,7 +47792,7 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="6:52" ht="16" customHeight="1">
+    <row r="666" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F666" s="6" t="str">
         <f>IF(ISBLANK(E666), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47810,7 +47821,7 @@
         <v/>
       </c>
     </row>
-    <row r="667" spans="6:52" ht="16" customHeight="1">
+    <row r="667" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F667" s="6" t="str">
         <f>IF(ISBLANK(E667), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47839,7 +47850,7 @@
         <v/>
       </c>
     </row>
-    <row r="668" spans="6:52" ht="16" customHeight="1">
+    <row r="668" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F668" s="6" t="str">
         <f>IF(ISBLANK(E668), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47868,7 +47879,7 @@
         <v/>
       </c>
     </row>
-    <row r="669" spans="6:52" ht="16" customHeight="1">
+    <row r="669" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F669" s="6" t="str">
         <f>IF(ISBLANK(E669), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47897,7 +47908,7 @@
         <v/>
       </c>
     </row>
-    <row r="670" spans="6:52" ht="16" customHeight="1">
+    <row r="670" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F670" s="6" t="str">
         <f>IF(ISBLANK(E670), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47926,7 +47937,7 @@
         <v/>
       </c>
     </row>
-    <row r="671" spans="6:52" ht="16" customHeight="1">
+    <row r="671" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F671" s="6" t="str">
         <f>IF(ISBLANK(E671), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47955,7 +47966,7 @@
         <v/>
       </c>
     </row>
-    <row r="672" spans="6:52" ht="16" customHeight="1">
+    <row r="672" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F672" s="6" t="str">
         <f>IF(ISBLANK(E672), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47984,7 +47995,7 @@
         <v/>
       </c>
     </row>
-    <row r="673" spans="6:52" ht="16" customHeight="1">
+    <row r="673" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F673" s="6" t="str">
         <f>IF(ISBLANK(E673), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48013,7 +48024,7 @@
         <v/>
       </c>
     </row>
-    <row r="674" spans="6:52" ht="16" customHeight="1">
+    <row r="674" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F674" s="6" t="str">
         <f>IF(ISBLANK(E674), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48042,7 +48053,7 @@
         <v/>
       </c>
     </row>
-    <row r="675" spans="6:52" ht="16" customHeight="1">
+    <row r="675" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F675" s="6" t="str">
         <f>IF(ISBLANK(E675), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48071,7 +48082,7 @@
         <v/>
       </c>
     </row>
-    <row r="676" spans="6:52" ht="16" customHeight="1">
+    <row r="676" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F676" s="6" t="str">
         <f>IF(ISBLANK(E676), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48100,7 +48111,7 @@
         <v/>
       </c>
     </row>
-    <row r="677" spans="6:52" ht="16" customHeight="1">
+    <row r="677" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F677" s="6" t="str">
         <f>IF(ISBLANK(E677), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48129,7 +48140,7 @@
         <v/>
       </c>
     </row>
-    <row r="678" spans="6:52" ht="16" customHeight="1">
+    <row r="678" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F678" s="6" t="str">
         <f>IF(ISBLANK(E678), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48158,7 +48169,7 @@
         <v/>
       </c>
     </row>
-    <row r="679" spans="6:52" ht="16" customHeight="1">
+    <row r="679" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F679" s="6" t="str">
         <f>IF(ISBLANK(E679), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48187,7 +48198,7 @@
         <v/>
       </c>
     </row>
-    <row r="680" spans="6:52" ht="16" customHeight="1">
+    <row r="680" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F680" s="6" t="str">
         <f>IF(ISBLANK(E680), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48216,7 +48227,7 @@
         <v/>
       </c>
     </row>
-    <row r="681" spans="6:52" ht="16" customHeight="1">
+    <row r="681" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F681" s="6" t="str">
         <f>IF(ISBLANK(E681), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48245,7 +48256,7 @@
         <v/>
       </c>
     </row>
-    <row r="682" spans="6:52" ht="16" customHeight="1">
+    <row r="682" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F682" s="6" t="str">
         <f>IF(ISBLANK(E682), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48274,7 +48285,7 @@
         <v/>
       </c>
     </row>
-    <row r="683" spans="6:52" ht="16" customHeight="1">
+    <row r="683" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F683" s="6" t="str">
         <f>IF(ISBLANK(E683), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48303,7 +48314,7 @@
         <v/>
       </c>
     </row>
-    <row r="684" spans="6:52" ht="16" customHeight="1">
+    <row r="684" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F684" s="6" t="str">
         <f>IF(ISBLANK(E684), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48332,7 +48343,7 @@
         <v/>
       </c>
     </row>
-    <row r="685" spans="6:52" ht="16" customHeight="1">
+    <row r="685" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F685" s="6" t="str">
         <f>IF(ISBLANK(E685), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48361,7 +48372,7 @@
         <v/>
       </c>
     </row>
-    <row r="686" spans="6:52" ht="16" customHeight="1">
+    <row r="686" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F686" s="6" t="str">
         <f>IF(ISBLANK(E686), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48390,7 +48401,7 @@
         <v/>
       </c>
     </row>
-    <row r="687" spans="6:52" ht="16" customHeight="1">
+    <row r="687" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F687" s="6" t="str">
         <f>IF(ISBLANK(E687), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48419,7 +48430,7 @@
         <v/>
       </c>
     </row>
-    <row r="688" spans="6:52" ht="16" customHeight="1">
+    <row r="688" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F688" s="6" t="str">
         <f>IF(ISBLANK(E688), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48448,7 +48459,7 @@
         <v/>
       </c>
     </row>
-    <row r="689" spans="6:52" ht="16" customHeight="1">
+    <row r="689" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F689" s="6" t="str">
         <f>IF(ISBLANK(E689), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48477,7 +48488,7 @@
         <v/>
       </c>
     </row>
-    <row r="690" spans="6:52" ht="16" customHeight="1">
+    <row r="690" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F690" s="6" t="str">
         <f>IF(ISBLANK(E690), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48506,7 +48517,7 @@
         <v/>
       </c>
     </row>
-    <row r="691" spans="6:52" ht="16" customHeight="1">
+    <row r="691" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F691" s="6" t="str">
         <f>IF(ISBLANK(E691), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48535,7 +48546,7 @@
         <v/>
       </c>
     </row>
-    <row r="692" spans="6:52" ht="16" customHeight="1">
+    <row r="692" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F692" s="6" t="str">
         <f>IF(ISBLANK(E692), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48564,7 +48575,7 @@
         <v/>
       </c>
     </row>
-    <row r="693" spans="6:52" ht="16" customHeight="1">
+    <row r="693" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F693" s="6" t="str">
         <f>IF(ISBLANK(E693), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48593,7 +48604,7 @@
         <v/>
       </c>
     </row>
-    <row r="694" spans="6:52" ht="16" customHeight="1">
+    <row r="694" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F694" s="6" t="str">
         <f>IF(ISBLANK(E694), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48622,7 +48633,7 @@
         <v/>
       </c>
     </row>
-    <row r="695" spans="6:52" ht="16" customHeight="1">
+    <row r="695" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F695" s="6" t="str">
         <f>IF(ISBLANK(E695), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48651,7 +48662,7 @@
         <v/>
       </c>
     </row>
-    <row r="696" spans="6:52" ht="16" customHeight="1">
+    <row r="696" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F696" s="6" t="str">
         <f>IF(ISBLANK(E696), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48680,7 +48691,7 @@
         <v/>
       </c>
     </row>
-    <row r="697" spans="6:52" ht="16" customHeight="1">
+    <row r="697" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F697" s="6" t="str">
         <f>IF(ISBLANK(E697), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48709,7 +48720,7 @@
         <v/>
       </c>
     </row>
-    <row r="698" spans="6:52" ht="16" customHeight="1">
+    <row r="698" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F698" s="6" t="str">
         <f>IF(ISBLANK(E698), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48738,7 +48749,7 @@
         <v/>
       </c>
     </row>
-    <row r="699" spans="6:52" ht="16" customHeight="1">
+    <row r="699" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F699" s="6" t="str">
         <f>IF(ISBLANK(E699), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48767,7 +48778,7 @@
         <v/>
       </c>
     </row>
-    <row r="700" spans="6:52" ht="16" customHeight="1">
+    <row r="700" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F700" s="6" t="str">
         <f>IF(ISBLANK(E700), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48796,7 +48807,7 @@
         <v/>
       </c>
     </row>
-    <row r="701" spans="6:52" ht="16" customHeight="1">
+    <row r="701" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F701" s="6" t="str">
         <f>IF(ISBLANK(E701), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48825,7 +48836,7 @@
         <v/>
       </c>
     </row>
-    <row r="702" spans="6:52" ht="16" customHeight="1">
+    <row r="702" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F702" s="6" t="str">
         <f>IF(ISBLANK(E702), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48854,7 +48865,7 @@
         <v/>
       </c>
     </row>
-    <row r="703" spans="6:52" ht="16" customHeight="1">
+    <row r="703" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F703" s="6" t="str">
         <f>IF(ISBLANK(E703), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48883,7 +48894,7 @@
         <v/>
       </c>
     </row>
-    <row r="704" spans="6:52" ht="16" customHeight="1">
+    <row r="704" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F704" s="6" t="str">
         <f>IF(ISBLANK(E704), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48912,7 +48923,7 @@
         <v/>
       </c>
     </row>
-    <row r="705" spans="6:52" ht="16" customHeight="1">
+    <row r="705" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F705" s="6" t="str">
         <f>IF(ISBLANK(E705), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48941,7 +48952,7 @@
         <v/>
       </c>
     </row>
-    <row r="706" spans="6:52" ht="16" customHeight="1">
+    <row r="706" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F706" s="6" t="str">
         <f>IF(ISBLANK(E706), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48970,7 +48981,7 @@
         <v/>
       </c>
     </row>
-    <row r="707" spans="6:52" ht="16" customHeight="1">
+    <row r="707" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F707" s="6" t="str">
         <f>IF(ISBLANK(E707), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48999,7 +49010,7 @@
         <v/>
       </c>
     </row>
-    <row r="708" spans="6:52" ht="16" customHeight="1">
+    <row r="708" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F708" s="6" t="str">
         <f>IF(ISBLANK(E708), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49028,7 +49039,7 @@
         <v/>
       </c>
     </row>
-    <row r="709" spans="6:52" ht="16" customHeight="1">
+    <row r="709" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F709" s="6" t="str">
         <f>IF(ISBLANK(E709), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49057,7 +49068,7 @@
         <v/>
       </c>
     </row>
-    <row r="710" spans="6:52" ht="16" customHeight="1">
+    <row r="710" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F710" s="6" t="str">
         <f>IF(ISBLANK(E710), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49086,7 +49097,7 @@
         <v/>
       </c>
     </row>
-    <row r="711" spans="6:52" ht="16" customHeight="1">
+    <row r="711" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F711" s="6" t="str">
         <f>IF(ISBLANK(E711), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49115,7 +49126,7 @@
         <v/>
       </c>
     </row>
-    <row r="712" spans="6:52" ht="16" customHeight="1">
+    <row r="712" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F712" s="6" t="str">
         <f>IF(ISBLANK(E712), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49144,7 +49155,7 @@
         <v/>
       </c>
     </row>
-    <row r="713" spans="6:52" ht="16" customHeight="1">
+    <row r="713" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F713" s="6" t="str">
         <f>IF(ISBLANK(E713), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49173,7 +49184,7 @@
         <v/>
       </c>
     </row>
-    <row r="714" spans="6:52" ht="16" customHeight="1">
+    <row r="714" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F714" s="6" t="str">
         <f>IF(ISBLANK(E714), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49202,7 +49213,7 @@
         <v/>
       </c>
     </row>
-    <row r="715" spans="6:52" ht="16" customHeight="1">
+    <row r="715" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F715" s="6" t="str">
         <f>IF(ISBLANK(E715), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49231,7 +49242,7 @@
         <v/>
       </c>
     </row>
-    <row r="716" spans="6:52" ht="16" customHeight="1">
+    <row r="716" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F716" s="6" t="str">
         <f>IF(ISBLANK(E716), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49260,7 +49271,7 @@
         <v/>
       </c>
     </row>
-    <row r="717" spans="6:52" ht="16" customHeight="1">
+    <row r="717" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F717" s="6" t="str">
         <f>IF(ISBLANK(E717), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49289,7 +49300,7 @@
         <v/>
       </c>
     </row>
-    <row r="718" spans="6:52" ht="16" customHeight="1">
+    <row r="718" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F718" s="6" t="str">
         <f>IF(ISBLANK(E718), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49318,7 +49329,7 @@
         <v/>
       </c>
     </row>
-    <row r="719" spans="6:52" ht="16" customHeight="1">
+    <row r="719" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F719" s="6" t="str">
         <f>IF(ISBLANK(E719), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49347,7 +49358,7 @@
         <v/>
       </c>
     </row>
-    <row r="720" spans="6:52" ht="16" customHeight="1">
+    <row r="720" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F720" s="6" t="str">
         <f>IF(ISBLANK(E720), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49376,7 +49387,7 @@
         <v/>
       </c>
     </row>
-    <row r="721" spans="6:52" ht="16" customHeight="1">
+    <row r="721" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F721" s="6" t="str">
         <f>IF(ISBLANK(E721), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49405,7 +49416,7 @@
         <v/>
       </c>
     </row>
-    <row r="722" spans="6:52" ht="16" customHeight="1">
+    <row r="722" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F722" s="6" t="str">
         <f>IF(ISBLANK(E722), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49434,7 +49445,7 @@
         <v/>
       </c>
     </row>
-    <row r="723" spans="6:52" ht="16" customHeight="1">
+    <row r="723" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F723" s="6" t="str">
         <f>IF(ISBLANK(E723), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49463,7 +49474,7 @@
         <v/>
       </c>
     </row>
-    <row r="724" spans="6:52" ht="16" customHeight="1">
+    <row r="724" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F724" s="6" t="str">
         <f>IF(ISBLANK(E724), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49492,7 +49503,7 @@
         <v/>
       </c>
     </row>
-    <row r="725" spans="6:52" ht="16" customHeight="1">
+    <row r="725" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F725" s="6" t="str">
         <f>IF(ISBLANK(E725), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49521,7 +49532,7 @@
         <v/>
       </c>
     </row>
-    <row r="726" spans="6:52" ht="16" customHeight="1">
+    <row r="726" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F726" s="6" t="str">
         <f>IF(ISBLANK(E726), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49550,7 +49561,7 @@
         <v/>
       </c>
     </row>
-    <row r="727" spans="6:52" ht="16" customHeight="1">
+    <row r="727" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F727" s="6" t="str">
         <f>IF(ISBLANK(E727), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49579,7 +49590,7 @@
         <v/>
       </c>
     </row>
-    <row r="728" spans="6:52" ht="16" customHeight="1">
+    <row r="728" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F728" s="6" t="str">
         <f>IF(ISBLANK(E728), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49608,7 +49619,7 @@
         <v/>
       </c>
     </row>
-    <row r="729" spans="6:52" ht="16" customHeight="1">
+    <row r="729" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F729" s="6" t="str">
         <f>IF(ISBLANK(E729), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49637,7 +49648,7 @@
         <v/>
       </c>
     </row>
-    <row r="730" spans="6:52" ht="16" customHeight="1">
+    <row r="730" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F730" s="6" t="str">
         <f>IF(ISBLANK(E730), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49666,7 +49677,7 @@
         <v/>
       </c>
     </row>
-    <row r="731" spans="6:52" ht="16" customHeight="1">
+    <row r="731" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F731" s="6" t="str">
         <f>IF(ISBLANK(E731), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49695,7 +49706,7 @@
         <v/>
       </c>
     </row>
-    <row r="732" spans="6:52" ht="16" customHeight="1">
+    <row r="732" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F732" s="6" t="str">
         <f>IF(ISBLANK(E732), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49724,7 +49735,7 @@
         <v/>
       </c>
     </row>
-    <row r="733" spans="6:52" ht="16" customHeight="1">
+    <row r="733" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F733" s="6" t="str">
         <f>IF(ISBLANK(E733), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49753,7 +49764,7 @@
         <v/>
       </c>
     </row>
-    <row r="734" spans="6:52" ht="16" customHeight="1">
+    <row r="734" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F734" s="6" t="str">
         <f>IF(ISBLANK(E734), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49782,7 +49793,7 @@
         <v/>
       </c>
     </row>
-    <row r="735" spans="6:52" ht="16" customHeight="1">
+    <row r="735" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F735" s="6" t="str">
         <f>IF(ISBLANK(E735), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49811,7 +49822,7 @@
         <v/>
       </c>
     </row>
-    <row r="736" spans="6:52" ht="16" customHeight="1">
+    <row r="736" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F736" s="6" t="str">
         <f>IF(ISBLANK(E736), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49840,7 +49851,7 @@
         <v/>
       </c>
     </row>
-    <row r="737" spans="6:52" ht="16" customHeight="1">
+    <row r="737" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F737" s="6" t="str">
         <f>IF(ISBLANK(E737), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49869,7 +49880,7 @@
         <v/>
       </c>
     </row>
-    <row r="738" spans="6:52" ht="16" customHeight="1">
+    <row r="738" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F738" s="6" t="str">
         <f>IF(ISBLANK(E738), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49898,7 +49909,7 @@
         <v/>
       </c>
     </row>
-    <row r="739" spans="6:52" ht="16" customHeight="1">
+    <row r="739" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F739" s="6" t="str">
         <f>IF(ISBLANK(E739), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49927,7 +49938,7 @@
         <v/>
       </c>
     </row>
-    <row r="740" spans="6:52" ht="16" customHeight="1">
+    <row r="740" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F740" s="6" t="str">
         <f>IF(ISBLANK(E740), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49956,7 +49967,7 @@
         <v/>
       </c>
     </row>
-    <row r="741" spans="6:52" ht="16" customHeight="1">
+    <row r="741" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F741" s="6" t="str">
         <f>IF(ISBLANK(E741), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49985,7 +49996,7 @@
         <v/>
       </c>
     </row>
-    <row r="742" spans="6:52" ht="16" customHeight="1">
+    <row r="742" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F742" s="6" t="str">
         <f>IF(ISBLANK(E742), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -50014,7 +50025,7 @@
         <v/>
       </c>
     </row>
-    <row r="743" spans="6:52" ht="16" customHeight="1">
+    <row r="743" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F743" s="6" t="str">
         <f>IF(ISBLANK(E743), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -50043,7 +50054,7 @@
         <v/>
       </c>
     </row>
-    <row r="744" spans="6:52" ht="16" customHeight="1">
+    <row r="744" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F744" s="6" t="str">
         <f>IF(ISBLANK(E744), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -50072,7 +50083,7 @@
         <v/>
       </c>
     </row>
-    <row r="745" spans="6:52" ht="16" customHeight="1">
+    <row r="745" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F745" s="6" t="str">
         <f>IF(ISBLANK(E745), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -50101,7 +50112,7 @@
         <v/>
       </c>
     </row>
-    <row r="746" spans="6:52" ht="16" customHeight="1">
+    <row r="746" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F746" s="6" t="str">
         <f>IF(ISBLANK(E746), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -50130,7 +50141,7 @@
         <v/>
       </c>
     </row>
-    <row r="747" spans="6:52" ht="16" customHeight="1">
+    <row r="747" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F747" s="6" t="str">
         <f>IF(ISBLANK(E747), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -50159,7 +50170,7 @@
         <v/>
       </c>
     </row>
-    <row r="748" spans="6:52" ht="16" customHeight="1">
+    <row r="748" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F748" s="6" t="str">
         <f>IF(ISBLANK(E748), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -50188,7 +50199,7 @@
         <v/>
       </c>
     </row>
-    <row r="749" spans="6:52" ht="16" customHeight="1">
+    <row r="749" spans="6:52" ht="16" hidden="1" customHeight="1">
       <c r="F749" s="6" t="str">
         <f>IF(ISBLANK(E749), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC74861-35A5-4F4B-AC11-B0C743A40675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A3C657-66A4-EF49-9C11-8D5BE1DD8FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="2800" windowWidth="41120" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5452,15 +5452,15 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AZ753" totalsRowShown="0" headerRowDxfId="54" dataDxfId="0" headerRowBorderDxfId="53">
   <autoFilter ref="A3:AZ753" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="IKEA"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="Lights"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="18">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AZ753">
@@ -5832,7 +5832,7 @@
   <dimension ref="A1:AZ753"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+      <selection activeCell="S147" sqref="S147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -15054,7 +15054,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="108" spans="1:52" ht="16" customHeight="1">
       <c r="A108" s="29">
         <v>1600</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="110" spans="1:52" ht="16" customHeight="1">
       <c r="A110" s="29">
         <v>1602</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="112" spans="1:52" ht="16" customHeight="1">
       <c r="A112" s="29">
         <v>1604</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="113" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="113" spans="1:52" ht="16" customHeight="1">
       <c r="A113" s="29">
         <v>1605</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="115" spans="1:52" ht="16" customHeight="1">
       <c r="A115" s="29">
         <v>1607</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="117" spans="1:52" ht="16" customHeight="1">
       <c r="A117" s="29">
         <v>1609</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
-    <row r="118" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="118" spans="1:52" ht="16" customHeight="1">
       <c r="A118" s="29">
         <v>1610</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
-    <row r="119" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="119" spans="1:52" ht="16" customHeight="1">
       <c r="A119" s="29">
         <v>1611</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
-    <row r="120" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="120" spans="1:52" ht="16" customHeight="1">
       <c r="A120" s="29">
         <v>1612</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>[["mac", "0x001788010444db4e"]]</v>
       </c>
     </row>
-    <row r="121" spans="1:52" ht="16" customHeight="1">
+    <row r="121" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A121" s="29">
         <v>1613</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="125" spans="1:52" ht="16" customHeight="1">
       <c r="A125" s="29">
         <v>1617</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
-    <row r="126" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="126" spans="1:52" ht="16" customHeight="1">
       <c r="A126" s="29">
         <v>1618</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
-    <row r="127" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="127" spans="1:52" ht="16" customHeight="1">
       <c r="A127" s="29">
         <v>1619</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
-    <row r="128" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="128" spans="1:52" ht="16" customHeight="1">
       <c r="A128" s="29">
         <v>1620</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
-    <row r="129" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="129" spans="1:52" ht="16" customHeight="1">
       <c r="A129" s="29">
         <v>1621</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
-    <row r="130" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="130" spans="1:52" ht="16" customHeight="1">
       <c r="A130" s="29">
         <v>1622</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="132" spans="1:52" ht="16" customHeight="1">
       <c r="A132" s="29">
         <v>1624</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
-    <row r="133" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="133" spans="1:52" ht="16" customHeight="1">
       <c r="A133" s="29">
         <v>1625</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
-    <row r="134" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="134" spans="1:52" ht="16" customHeight="1">
       <c r="A134" s="29">
         <v>1626</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="135" spans="1:52" ht="16" customHeight="1">
       <c r="A135" s="29">
         <v>1627</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="137" spans="1:52" ht="16" customHeight="1">
       <c r="A137" s="29">
         <v>1629</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="139" spans="1:52" ht="16" customHeight="1">
       <c r="A139" s="29">
         <v>1631</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
-    <row r="140" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="140" spans="1:52" ht="16" customHeight="1">
       <c r="A140" s="29">
         <v>1632</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
-    <row r="141" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="141" spans="1:52" ht="16" customHeight="1">
       <c r="A141" s="29">
         <v>1633</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>[["mac", "0x001788010432a064"]]</v>
       </c>
     </row>
-    <row r="142" spans="1:52" ht="16" customHeight="1">
+    <row r="142" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A142" s="29">
         <v>1634</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>[["mac", "0x2c1165fffeb07271"]]</v>
       </c>
     </row>
-    <row r="144" spans="1:52" ht="16" customHeight="1">
+    <row r="144" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A144" s="29">
         <v>1636</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="147" spans="1:52" ht="16" customHeight="1">
       <c r="A147" s="29">
         <v>1639</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="149" spans="1:52" ht="16" customHeight="1">
       <c r="A149" s="29">
         <v>1641</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
-    <row r="150" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="150" spans="1:52" ht="16" customHeight="1">
       <c r="A150" s="29">
         <v>1642</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
-    <row r="151" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="151" spans="1:52" ht="16" customHeight="1">
       <c r="A151" s="29">
         <v>1643</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="152" spans="1:52" ht="16" customHeight="1">
       <c r="A152" s="29">
         <v>1644</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="153" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="153" spans="1:52" ht="16" customHeight="1">
       <c r="A153" s="29">
         <v>1645</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="154" spans="1:52" ht="16" customHeight="1">
       <c r="A154" s="29">
         <v>1646</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="156" spans="1:52" ht="16" customHeight="1">
       <c r="A156" s="29">
         <v>1648</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="158" spans="1:52" ht="16" customHeight="1">
       <c r="A158" s="29">
         <v>1650</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="160" spans="1:52" ht="16" customHeight="1">
       <c r="A160" s="29">
         <v>1652</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="162" spans="1:52" ht="16" customHeight="1">
       <c r="A162" s="29">
         <v>1654</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>[["mac", "0x00178801040edcad"]]</v>
       </c>
     </row>
-    <row r="163" spans="1:52" ht="16" customHeight="1">
+    <row r="163" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A163" s="29">
         <v>1655</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="167" spans="1:52" ht="16" customHeight="1">
       <c r="A167" s="29">
         <v>1659</v>
       </c>
@@ -20775,7 +20775,7 @@
         <v>[["mac", "0x00178801040eddb2"]]</v>
       </c>
     </row>
-    <row r="168" spans="1:52" ht="16" customHeight="1">
+    <row r="168" spans="1:52" ht="16" hidden="1" customHeight="1">
       <c r="A168" s="29">
         <v>1660</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="173" spans="1:52" ht="16" customHeight="1">
       <c r="A173" s="29">
         <v>1665</v>
       </c>
@@ -21326,7 +21326,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="174" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="174" spans="1:52" ht="16" customHeight="1">
       <c r="A174" s="29">
         <v>1666</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="175" spans="1:52" ht="16" customHeight="1">
       <c r="A175" s="29">
         <v>1667</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="176" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="176" spans="1:52" ht="16" customHeight="1">
       <c r="A176" s="29">
         <v>1668</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="177" spans="1:52" ht="16" customHeight="1">
       <c r="A177" s="29">
         <v>1669</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="179" spans="1:52" ht="16" customHeight="1">
       <c r="A179" s="29">
         <v>1671</v>
       </c>
@@ -21919,7 +21919,7 @@
         <v>[["mac", "0x001788010c692175"]]</v>
       </c>
     </row>
-    <row r="180" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="180" spans="1:52" ht="16" customHeight="1">
       <c r="A180" s="29">
         <v>1672</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>[["mac", "0x001788010c69214a"]]</v>
       </c>
     </row>
-    <row r="181" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="181" spans="1:52" ht="16" customHeight="1">
       <c r="A181" s="29">
         <v>1673</v>
       </c>
@@ -22109,7 +22109,7 @@
         <v>[["mac", "0x001788010c5c4266"]]</v>
       </c>
     </row>
-    <row r="182" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="182" spans="1:52" ht="16" customHeight="1">
       <c r="A182" s="29">
         <v>1674</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="188" spans="1:52" ht="16" customHeight="1">
       <c r="A188" s="29">
         <v>1680</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>[["mac", "0x00178801097ed42c"]]</v>
       </c>
     </row>
-    <row r="189" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="189" spans="1:52" ht="16" customHeight="1">
       <c r="A189" s="29">
         <v>1681</v>
       </c>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A3CBC5-654F-3447-9168-EA537F0A49D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD28EF90-81C4-9647-A764-B93306D62E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="940" windowWidth="47720" windowHeight="27420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6238" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6238" uniqueCount="1294">
   <si>
     <t>index</t>
   </si>
@@ -3970,6 +3970,12 @@
   </si>
   <si>
     <t>{ "power_on_behavior": "on", "color_temp_startup": 65535 }</t>
+  </si>
+  <si>
+    <t>Sconces,Bedside,Jane,Jane Bedside</t>
+  </si>
+  <si>
+    <t>Sconces,Bedside,Graham,Graham Bedside</t>
   </si>
 </sst>
 </file>
@@ -5850,8 +5856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ759"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G125" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Z178" sqref="Z178:Z189"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -18082,7 +18088,7 @@
         <v>132</v>
       </c>
       <c r="J142" s="34" t="s">
-        <v>1249</v>
+        <v>1292</v>
       </c>
       <c r="K142" s="34" t="s">
         <v>986</v>
@@ -18261,7 +18267,7 @@
         <v>132</v>
       </c>
       <c r="J144" s="34" t="s">
-        <v>1249</v>
+        <v>1293</v>
       </c>
       <c r="K144" s="34" t="s">
         <v>986</v>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD28EF90-81C4-9647-A764-B93306D62E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE211941-B1C5-1648-9E58-7568A97D50D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="940" windowWidth="47720" windowHeight="27420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5475,19 +5475,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AZ759" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
-  <autoFilter ref="A3:AZ759" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="IKEA"/>
-        <filter val="Phillips"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Lights"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AZ759" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AZ759">
     <sortCondition ref="A3:A759"/>
   </sortState>
@@ -5856,7 +5844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ759"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
@@ -6389,7 +6377,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="38" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="4" spans="1:52" s="38" customFormat="1" ht="16" customHeight="1">
       <c r="A4" s="37">
         <v>1000</v>
       </c>
@@ -6491,7 +6479,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="5" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A5" s="34">
         <v>1001</v>
       </c>
@@ -6593,7 +6581,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="6" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A6" s="37">
         <v>1002</v>
       </c>
@@ -6668,7 +6656,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="7" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A7" s="34">
         <v>1003</v>
       </c>
@@ -6754,7 +6742,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="8" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="37">
         <v>1004</v>
       </c>
@@ -6829,7 +6817,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="9" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A9" s="34">
         <v>1005</v>
       </c>
@@ -6915,7 +6903,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="10" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A10" s="37">
         <v>1006</v>
       </c>
@@ -6990,7 +6978,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="11" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="34">
         <v>1007</v>
       </c>
@@ -7070,7 +7058,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="12" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="37">
         <v>1008</v>
       </c>
@@ -7146,7 +7134,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="13" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="34">
         <v>1009</v>
       </c>
@@ -7233,7 +7221,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="14" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A14" s="37">
         <v>1010</v>
       </c>
@@ -7309,7 +7297,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="15" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A15" s="34">
         <v>1011</v>
       </c>
@@ -7396,7 +7384,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="16" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A16" s="37">
         <v>1012</v>
       </c>
@@ -7472,7 +7460,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="17" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A17" s="34">
         <v>1013</v>
       </c>
@@ -7559,7 +7547,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="18" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A18" s="37">
         <v>1014</v>
       </c>
@@ -7634,7 +7622,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="19" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A19" s="34">
         <v>1015</v>
       </c>
@@ -7714,7 +7702,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="20" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A20" s="37">
         <v>1016</v>
       </c>
@@ -7789,7 +7777,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="21" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A21" s="34">
         <v>1017</v>
       </c>
@@ -7869,7 +7857,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="22" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A22" s="37">
         <v>1018</v>
       </c>
@@ -7945,7 +7933,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="23" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A23" s="34">
         <v>1019</v>
       </c>
@@ -8032,7 +8020,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="24" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A24" s="37">
         <v>1020</v>
       </c>
@@ -8107,7 +8095,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="25" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A25" s="34">
         <v>1021</v>
       </c>
@@ -8187,7 +8175,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="26" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A26" s="37">
         <v>1022</v>
       </c>
@@ -8267,7 +8255,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="27" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A27" s="34">
         <v>1023</v>
       </c>
@@ -8366,7 +8354,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="28" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A28" s="37">
         <v>1024</v>
       </c>
@@ -8462,7 +8450,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="29" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A29" s="34">
         <v>1025</v>
       </c>
@@ -8558,7 +8546,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="30" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A30" s="37">
         <v>1026</v>
       </c>
@@ -8654,7 +8642,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="31" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A31" s="34">
         <v>1027</v>
       </c>
@@ -8750,7 +8738,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="32" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A32" s="37">
         <v>1028</v>
       </c>
@@ -8846,7 +8834,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="33" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A33" s="34">
         <v>1029</v>
       </c>
@@ -8942,7 +8930,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="34" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A34" s="37">
         <v>1030</v>
       </c>
@@ -8995,7 +8983,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="35" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A35" s="34">
         <v>1040</v>
       </c>
@@ -9054,7 +9042,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="36" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A36" s="34">
         <v>1041</v>
       </c>
@@ -9113,7 +9101,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="37" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A37" s="34">
         <v>1042</v>
       </c>
@@ -9168,7 +9156,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="38" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A38" s="34">
         <v>1050</v>
       </c>
@@ -9270,7 +9258,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="39" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A39" s="34">
         <v>1051</v>
       </c>
@@ -9351,7 +9339,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="40" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A40" s="34">
         <v>1052</v>
       </c>
@@ -9432,7 +9420,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="41" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="34">
         <v>1053</v>
       </c>
@@ -9512,7 +9500,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="42" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A42" s="34">
         <v>1054</v>
       </c>
@@ -9593,7 +9581,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="43" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A43" s="34">
         <v>1055</v>
       </c>
@@ -9674,7 +9662,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="44" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A44" s="34">
         <v>1056</v>
       </c>
@@ -9755,7 +9743,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="45" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A45" s="34">
         <v>1057</v>
       </c>
@@ -9835,7 +9823,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="46" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="34">
         <v>1058</v>
       </c>
@@ -9915,7 +9903,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="47" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A47" s="34">
         <v>1059</v>
       </c>
@@ -9996,7 +9984,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="48" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A48" s="34">
         <v>1060</v>
       </c>
@@ -10076,7 +10064,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="49" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A49" s="34">
         <v>1061</v>
       </c>
@@ -10175,7 +10163,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="50" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A50" s="34">
         <v>1062</v>
       </c>
@@ -10228,7 +10216,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="51" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="34">
         <v>1100</v>
       </c>
@@ -10303,7 +10291,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="52" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A52" s="34">
         <v>1101</v>
       </c>
@@ -10383,7 +10371,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="53" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A53" s="34">
         <v>1102</v>
       </c>
@@ -10463,7 +10451,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="54" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A54" s="34">
         <v>1103</v>
       </c>
@@ -10543,7 +10531,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="55" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A55" s="34">
         <v>1104</v>
       </c>
@@ -10622,7 +10610,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="56" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A56" s="34">
         <v>1105</v>
       </c>
@@ -10702,7 +10690,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="57" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A57" s="34">
         <v>1106</v>
       </c>
@@ -10781,7 +10769,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="58" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A58" s="34">
         <v>1107</v>
       </c>
@@ -10860,7 +10848,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="59" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A59" s="34">
         <v>1108</v>
       </c>
@@ -10934,7 +10922,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="60" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A60" s="34">
         <v>1109</v>
       </c>
@@ -10990,7 +10978,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="61" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A61" s="34">
         <v>1150</v>
       </c>
@@ -11071,7 +11059,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="62" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A62" s="34">
         <v>1151</v>
       </c>
@@ -11152,7 +11140,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="63" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A63" s="34">
         <v>1152</v>
       </c>
@@ -11233,7 +11221,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="64" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A64" s="34">
         <v>1153</v>
       </c>
@@ -11314,7 +11302,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="65" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A65" s="34">
         <v>1154</v>
       </c>
@@ -11395,7 +11383,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="66" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A66" s="34">
         <v>1155</v>
       </c>
@@ -11476,7 +11464,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="67" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A67" s="34">
         <v>1200</v>
       </c>
@@ -11567,7 +11555,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="68" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A68" s="34">
         <v>1201</v>
       </c>
@@ -11658,7 +11646,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="69" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A69" s="34">
         <v>1250</v>
       </c>
@@ -11749,7 +11737,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="70" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A70" s="34">
         <v>1251</v>
       </c>
@@ -11840,7 +11828,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="71" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A71" s="34">
         <v>1300</v>
       </c>
@@ -11931,7 +11919,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="72" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A72" s="34">
         <v>1301</v>
       </c>
@@ -12022,7 +12010,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="73" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A73" s="34">
         <v>1302</v>
       </c>
@@ -12113,7 +12101,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="74" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A74" s="34">
         <v>1303</v>
       </c>
@@ -12204,7 +12192,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="75" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A75" s="34">
         <v>1304</v>
       </c>
@@ -12292,7 +12280,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="76" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A76" s="34">
         <v>1305</v>
       </c>
@@ -12383,7 +12371,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="77" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A77" s="34">
         <v>1306</v>
       </c>
@@ -12474,7 +12462,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="78" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A78" s="34">
         <v>1350</v>
       </c>
@@ -12568,7 +12556,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="79" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A79" s="34">
         <v>1351</v>
       </c>
@@ -12665,7 +12653,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="80" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A80" s="34">
         <v>1352</v>
       </c>
@@ -12719,7 +12707,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="81" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A81" s="34">
         <v>1353</v>
       </c>
@@ -12816,7 +12804,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="82" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A82" s="34">
         <v>1354</v>
       </c>
@@ -12907,7 +12895,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="83" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A83" s="34">
         <v>1355</v>
       </c>
@@ -12961,7 +12949,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="84" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A84" s="34">
         <v>1356</v>
       </c>
@@ -13055,7 +13043,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="85" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A85" s="34">
         <v>1357</v>
       </c>
@@ -13109,7 +13097,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="86" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A86" s="34">
         <v>1358</v>
       </c>
@@ -13206,7 +13194,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="87" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A87" s="34">
         <v>1359</v>
       </c>
@@ -13297,7 +13285,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="88" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A88" s="34">
         <v>1360</v>
       </c>
@@ -13388,7 +13376,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="89" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A89" s="34">
         <v>1400</v>
       </c>
@@ -13458,7 +13446,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="90" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A90" s="34">
         <v>1401</v>
       </c>
@@ -13524,7 +13512,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="91" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A91" s="34">
         <v>1402</v>
       </c>
@@ -13590,7 +13578,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="92" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A92" s="34">
         <v>1403</v>
       </c>
@@ -13656,7 +13644,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="93" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A93" s="34">
         <v>1404</v>
       </c>
@@ -13716,7 +13704,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="94" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A94" s="34">
         <v>1405</v>
       </c>
@@ -13776,7 +13764,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="95" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A95" s="34">
         <v>1406</v>
       </c>
@@ -13836,7 +13824,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="96" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A96" s="34">
         <v>1407</v>
       </c>
@@ -13896,7 +13884,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="97" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A97" s="34">
         <v>1408</v>
       </c>
@@ -13949,7 +13937,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="98" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A98" s="34">
         <v>1500</v>
       </c>
@@ -14056,7 +14044,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="99" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A99" s="34">
         <v>1501</v>
       </c>
@@ -14163,7 +14151,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="100" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="100" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A100" s="34">
         <v>1502</v>
       </c>
@@ -14270,7 +14258,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="101" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A101" s="34">
         <v>1503</v>
       </c>
@@ -14350,7 +14338,7 @@
       <c r="AX101" s="38"/>
       <c r="AY101" s="38"/>
     </row>
-    <row r="102" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="102" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A102" s="34">
         <v>1504</v>
       </c>
@@ -14465,7 +14453,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="103" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="103" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A103" s="34">
         <v>1505</v>
       </c>
@@ -14572,7 +14560,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="104" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A104" s="34">
         <v>1506</v>
       </c>
@@ -14636,7 +14624,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="105" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A105" s="34">
         <v>1507</v>
       </c>
@@ -14737,7 +14725,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="106" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A106" s="34">
         <v>1508</v>
       </c>
@@ -14840,7 +14828,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="107" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="107" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A107" s="34">
         <v>1509</v>
       </c>
@@ -14900,7 +14888,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="108" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A108" s="34">
         <v>1600</v>
       </c>
@@ -15366,7 +15354,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="113" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="113" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A113" s="34">
         <v>1605</v>
       </c>
@@ -17407,7 +17395,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="135" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A135" s="34">
         <v>1627</v>
       </c>
@@ -19077,7 +19065,7 @@
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="153" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="153" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A153" s="34">
         <v>1645</v>
       </c>
@@ -19165,7 +19153,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="154" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A154" s="34">
         <v>1646</v>
       </c>
@@ -21019,7 +21007,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="174" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="174" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A174" s="34">
         <v>1666</v>
       </c>
@@ -21107,7 +21095,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="175" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A175" s="34">
         <v>1667</v>
       </c>
@@ -21220,7 +21208,7 @@
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="176" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="176" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A176" s="34">
         <v>1668</v>
       </c>
@@ -21308,7 +21296,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="177" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A177" s="34">
         <v>1669</v>
       </c>
@@ -21865,7 +21853,7 @@
         <v>[["mac", "0x001788010c692144"]]</v>
       </c>
     </row>
-    <row r="183" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="183" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A183" s="34">
         <v>1675</v>
       </c>
@@ -21936,7 +21924,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="184" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="184" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A184" s="34">
         <v>1676</v>
       </c>
@@ -22007,7 +21995,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="185" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="185" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A185" s="34">
         <v>1677</v>
       </c>
@@ -22078,7 +22066,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="186" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="186" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A186" s="34">
         <v>1678</v>
       </c>
@@ -22417,7 +22405,7 @@
         <v>[["mac", "0x0017880109c40c33"]]</v>
       </c>
     </row>
-    <row r="190" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="190" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A190" s="34">
         <v>1682</v>
       </c>
@@ -22488,7 +22476,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="191" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="191" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A191" s="34">
         <v>1700</v>
       </c>
@@ -22545,7 +22533,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="192" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A192" s="34">
         <v>1701</v>
       </c>
@@ -22633,7 +22621,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="193" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A193" s="34">
         <v>1702</v>
       </c>
@@ -22746,7 +22734,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="194" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="194" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A194" s="34">
         <v>1703</v>
       </c>
@@ -22836,7 +22824,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.94"]]</v>
       </c>
     </row>
-    <row r="195" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="195" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A195" s="34">
         <v>1704</v>
       </c>
@@ -22920,7 +22908,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="196" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A196" s="34">
         <v>2000</v>
       </c>
@@ -23008,7 +22996,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="197" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="197" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A197" s="34">
         <v>2001</v>
       </c>
@@ -23077,7 +23065,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="198" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="198" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A198" s="34">
         <v>2002</v>
       </c>
@@ -23165,7 +23153,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="199" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="199" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A199" s="34">
         <v>2003</v>
       </c>
@@ -23234,7 +23222,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="200" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A200" s="34">
         <v>2100</v>
       </c>
@@ -23297,7 +23285,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="201" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A201" s="34">
         <v>2101</v>
       </c>
@@ -23360,7 +23348,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="202" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A202" s="34">
         <v>2102</v>
       </c>
@@ -23423,7 +23411,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="203" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A203" s="34">
         <v>2103</v>
       </c>
@@ -23477,7 +23465,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="204" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A204" s="34">
         <v>2104</v>
       </c>
@@ -23540,7 +23528,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="205" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A205" s="34">
         <v>2105</v>
       </c>
@@ -23605,7 +23593,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="206" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A206" s="34">
         <v>2106</v>
       </c>
@@ -23670,7 +23658,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="207" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A207" s="34">
         <v>2107</v>
       </c>
@@ -23733,7 +23721,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="208" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A208" s="34">
         <v>2108</v>
       </c>
@@ -23796,7 +23784,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="209" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A209" s="34">
         <v>2109</v>
       </c>
@@ -23859,7 +23847,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="210" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A210" s="34">
         <v>2110</v>
       </c>
@@ -23924,7 +23912,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="211" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A211" s="34">
         <v>2111</v>
       </c>
@@ -23989,7 +23977,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="212" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A212" s="34">
         <v>2112</v>
       </c>
@@ -24052,7 +24040,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="213" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A213" s="34">
         <v>2113</v>
       </c>
@@ -24115,7 +24103,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="214" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A214" s="34">
         <v>2114</v>
       </c>
@@ -24178,7 +24166,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="215" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A215" s="34">
         <v>2115</v>
       </c>
@@ -24241,7 +24229,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="216" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A216" s="34">
         <v>2116</v>
       </c>
@@ -24304,7 +24292,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="217" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A217" s="34">
         <v>2117</v>
       </c>
@@ -24367,7 +24355,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="218" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A218" s="34">
         <v>2118</v>
       </c>
@@ -24430,7 +24418,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="219" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A219" s="34">
         <v>2119</v>
       </c>
@@ -24493,7 +24481,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="220" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A220" s="34">
         <v>2120</v>
       </c>
@@ -24556,7 +24544,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="221" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A221" s="34">
         <v>2121</v>
       </c>
@@ -24619,7 +24607,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="222" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A222" s="34">
         <v>2122</v>
       </c>
@@ -24672,7 +24660,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="223" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A223" s="34">
         <v>2123</v>
       </c>
@@ -24726,7 +24714,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="224" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A224" s="34">
         <v>2124</v>
       </c>
@@ -24780,7 +24768,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="225" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A225" s="34">
         <v>2125</v>
       </c>
@@ -24834,7 +24822,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="226" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A226" s="34">
         <v>2126</v>
       </c>
@@ -24888,7 +24876,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="227" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A227" s="34">
         <v>2127</v>
       </c>
@@ -24951,7 +24939,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="228" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A228" s="34">
         <v>2128</v>
       </c>
@@ -25014,7 +25002,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="229" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A229" s="34">
         <v>2129</v>
       </c>
@@ -25073,7 +25061,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="230" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A230" s="34">
         <v>2130</v>
       </c>
@@ -25127,7 +25115,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="231" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A231" s="34">
         <v>2131</v>
       </c>
@@ -25190,7 +25178,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="232" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A232" s="34">
         <v>2132</v>
       </c>
@@ -25253,7 +25241,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="233" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A233" s="34">
         <v>2133</v>
       </c>
@@ -25312,7 +25300,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="234" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A234" s="34">
         <v>2134</v>
       </c>
@@ -25375,7 +25363,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="235" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A235" s="34">
         <v>2135</v>
       </c>
@@ -25438,7 +25426,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="236" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A236" s="34">
         <v>2136</v>
       </c>
@@ -25501,7 +25489,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="237" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A237" s="34">
         <v>2137</v>
       </c>
@@ -25564,7 +25552,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="238" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A238" s="34">
         <v>2138</v>
       </c>
@@ -25627,7 +25615,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="239" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A239" s="34">
         <v>2139</v>
       </c>
@@ -25690,7 +25678,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="240" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A240" s="34">
         <v>2140</v>
       </c>
@@ -25753,7 +25741,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="241" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A241" s="34">
         <v>2141</v>
       </c>
@@ -25816,7 +25804,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="242" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A242" s="34">
         <v>2142</v>
       </c>
@@ -25879,7 +25867,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="243" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A243" s="34">
         <v>2143</v>
       </c>
@@ -25942,7 +25930,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="244" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A244" s="34">
         <v>2144</v>
       </c>
@@ -26005,7 +25993,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="245" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A245" s="34">
         <v>2145</v>
       </c>
@@ -26068,7 +26056,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="246" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A246" s="34">
         <v>2146</v>
       </c>
@@ -26131,7 +26119,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="247" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A247" s="34">
         <v>2147</v>
       </c>
@@ -26185,7 +26173,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="248" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A248" s="34">
         <v>2148</v>
       </c>
@@ -26239,7 +26227,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="249" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A249" s="34">
         <v>2149</v>
       </c>
@@ -26302,7 +26290,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="250" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A250" s="34">
         <v>2150</v>
       </c>
@@ -26365,7 +26353,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="251" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A251" s="34">
         <v>2151</v>
       </c>
@@ -26419,7 +26407,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="252" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A252" s="34">
         <v>2152</v>
       </c>
@@ -26473,7 +26461,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="253" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A253" s="34">
         <v>2153</v>
       </c>
@@ -26526,7 +26514,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="254" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A254" s="34">
         <v>2154</v>
       </c>
@@ -26589,7 +26577,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="255" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A255" s="34">
         <v>2155</v>
       </c>
@@ -26652,7 +26640,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="256" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A256" s="34">
         <v>2156</v>
       </c>
@@ -26715,7 +26703,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="257" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A257" s="34">
         <v>2157</v>
       </c>
@@ -26778,7 +26766,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="258" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A258" s="34">
         <v>2158</v>
       </c>
@@ -26841,7 +26829,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="259" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A259" s="34">
         <v>2159</v>
       </c>
@@ -26904,7 +26892,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="260" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A260" s="34">
         <v>2160</v>
       </c>
@@ -26967,7 +26955,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="261" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A261" s="34">
         <v>2161</v>
       </c>
@@ -27030,7 +27018,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="262" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A262" s="34">
         <v>2162</v>
       </c>
@@ -27093,7 +27081,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="263" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A263" s="34">
         <v>2400</v>
       </c>
@@ -27167,7 +27155,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="264" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="264" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A264" s="34">
         <v>2500</v>
       </c>
@@ -27257,7 +27245,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="265" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A265" s="34">
         <v>2501</v>
       </c>
@@ -27353,7 +27341,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="266" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A266" s="34">
         <v>2502</v>
       </c>
@@ -27449,7 +27437,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="267" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A267" s="34">
         <v>2503</v>
       </c>
@@ -27545,7 +27533,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="268" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A268" s="34">
         <v>2504</v>
       </c>
@@ -27638,7 +27626,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="269" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A269" s="34">
         <v>2505</v>
       </c>
@@ -27696,7 +27684,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="270" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A270" s="34">
         <v>2506</v>
       </c>
@@ -27751,7 +27739,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="271" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A271" s="34">
         <v>2507</v>
       </c>
@@ -27806,7 +27794,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="272" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A272" s="34">
         <v>2508</v>
       </c>
@@ -27861,7 +27849,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="273" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A273" s="34">
         <v>2509</v>
       </c>
@@ -27916,7 +27904,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="274" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A274" s="34">
         <v>2510</v>
       </c>
@@ -27971,7 +27959,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="275" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A275" s="34">
         <v>2511</v>
       </c>
@@ -28026,7 +28014,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="276" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A276" s="34">
         <v>2512</v>
       </c>
@@ -28108,7 +28096,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="277" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A277" s="34">
         <v>2513</v>
       </c>
@@ -28151,7 +28139,7 @@
       <c r="AL277" s="18"/>
       <c r="AN277" s="35"/>
     </row>
-    <row r="278" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="278" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A278" s="34">
         <v>2514</v>
       </c>
@@ -28206,7 +28194,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="279" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A279" s="34">
         <v>2520</v>
       </c>
@@ -28261,7 +28249,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="280" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A280" s="34">
         <v>2521</v>
       </c>
@@ -28316,7 +28304,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="281" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A281" s="34">
         <v>2522</v>
       </c>
@@ -28371,7 +28359,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="282" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A282" s="34">
         <v>2523</v>
       </c>
@@ -28426,7 +28414,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="283" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A283" s="34">
         <v>2524</v>
       </c>
@@ -28481,7 +28469,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="284" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A284" s="34">
         <v>2525</v>
       </c>
@@ -28533,7 +28521,7 @@
       <c r="AL284" s="18"/>
       <c r="AN284" s="35"/>
     </row>
-    <row r="285" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="285" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A285" s="34">
         <v>2526</v>
       </c>
@@ -28627,7 +28615,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="286" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A286" s="34">
         <v>2527</v>
       </c>
@@ -28698,7 +28686,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="287" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A287" s="34">
         <v>2528</v>
       </c>
@@ -28769,7 +28757,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="288" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A288" s="34">
         <v>2529</v>
       </c>
@@ -28840,7 +28828,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="289" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A289" s="34">
         <v>2530</v>
       </c>
@@ -28911,7 +28899,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="290" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A290" s="34">
         <v>2531</v>
       </c>
@@ -28965,7 +28953,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="291" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A291" s="34">
         <v>2532</v>
       </c>
@@ -29019,7 +29007,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="292" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A292" s="34">
         <v>2533</v>
       </c>
@@ -29073,7 +29061,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="293" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A293" s="34">
         <v>2550</v>
       </c>
@@ -29130,7 +29118,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="294" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A294" s="34">
         <v>2551</v>
       </c>
@@ -29218,7 +29206,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="295" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A295" s="34">
         <v>2552</v>
       </c>
@@ -29327,7 +29315,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="296" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="296" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A296" s="34">
         <v>2553</v>
       </c>
@@ -29415,7 +29403,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="297" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A297" s="34">
         <v>2554</v>
       </c>
@@ -29524,7 +29512,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="298" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="298" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A298" s="34">
         <v>2555</v>
       </c>
@@ -29611,7 +29599,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="299" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A299" s="34">
         <v>2556</v>
       </c>
@@ -29720,7 +29708,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="300" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="300" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A300" s="34">
         <v>2557</v>
       </c>
@@ -29807,7 +29795,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="301" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A301" s="34">
         <v>2558</v>
       </c>
@@ -29916,7 +29904,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="302" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="302" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A302" s="34">
         <v>2559</v>
       </c>
@@ -30003,7 +29991,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="303" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A303" s="34">
         <v>2560</v>
       </c>
@@ -30112,7 +30100,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="304" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="304" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A304" s="34">
         <v>2561</v>
       </c>
@@ -30199,7 +30187,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="305" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A305" s="34">
         <v>2562</v>
       </c>
@@ -30308,7 +30296,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="306" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="306" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A306" s="34">
         <v>2563</v>
       </c>
@@ -30383,7 +30371,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="307" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="307" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A307" s="34">
         <v>2564</v>
       </c>
@@ -30492,7 +30480,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="308" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A308" s="34">
         <v>2565</v>
       </c>
@@ -30579,7 +30567,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="309" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A309" s="34">
         <v>2566</v>
       </c>
@@ -30688,7 +30676,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="310" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="310" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A310" s="34">
         <v>2567</v>
       </c>
@@ -30775,7 +30763,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="311" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A311" s="34">
         <v>2568</v>
       </c>
@@ -30884,7 +30872,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="312" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="312" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A312" s="34">
         <v>2569</v>
       </c>
@@ -30972,7 +30960,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="313" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A313" s="34">
         <v>2570</v>
       </c>
@@ -31081,7 +31069,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="314" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="314" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A314" s="34">
         <v>2571</v>
       </c>
@@ -31169,7 +31157,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="315" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A315" s="34">
         <v>2572</v>
       </c>
@@ -31278,7 +31266,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="316" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="316" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A316" s="34">
         <v>2573</v>
       </c>
@@ -31365,7 +31353,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="317" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A317" s="34">
         <v>2574</v>
       </c>
@@ -31474,7 +31462,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="318" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="318" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A318" s="34">
         <v>2575</v>
       </c>
@@ -31558,7 +31546,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="319" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="319" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A319" s="34">
         <v>2576</v>
       </c>
@@ -31668,7 +31656,7 @@
         <v>[["mac", "5c:a6:e6:25:59:03"], ["ip", "10.0.6.90"]]</v>
       </c>
     </row>
-    <row r="320" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="320" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A320" s="34">
         <v>2577</v>
       </c>
@@ -31750,7 +31738,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="321" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A321" s="34">
         <v>2578</v>
       </c>
@@ -31854,7 +31842,7 @@
         <v>[["mac", "5c:a6:e6:25:56:a7"], ["ip", "10.0.6.91"]]</v>
       </c>
     </row>
-    <row r="322" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="322" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A322" s="34">
         <v>2579</v>
       </c>
@@ -31936,7 +31924,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="323" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A323" s="34">
         <v>2580</v>
       </c>
@@ -32040,7 +32028,7 @@
         <v>[["mac", "5c:a6:e6:25:59:c0"], ["ip", "10.0.6.92"]]</v>
       </c>
     </row>
-    <row r="324" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="324" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A324" s="34">
         <v>2581</v>
       </c>
@@ -32127,7 +32115,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="325" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A325" s="34">
         <v>2582</v>
       </c>
@@ -32236,7 +32224,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="326" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="326" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A326" s="34">
         <v>2583</v>
       </c>
@@ -32323,7 +32311,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="327" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A327" s="34">
         <v>2584</v>
       </c>
@@ -32432,7 +32420,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="328" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="328" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A328" s="34">
         <v>2585</v>
       </c>
@@ -32513,7 +32501,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="329" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A329" s="34">
         <v>2586</v>
       </c>
@@ -32616,7 +32604,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="330" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="330" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A330" s="34">
         <v>2587</v>
       </c>
@@ -32718,7 +32706,7 @@
         <v>[["mac", "0x00178801086168ac"]]</v>
       </c>
     </row>
-    <row r="331" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="331" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A331" s="34">
         <v>2588</v>
       </c>
@@ -32820,7 +32808,7 @@
         <v>[["mac", "0x0017880109d4659c"]]</v>
       </c>
     </row>
-    <row r="332" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="332" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A332" s="34">
         <v>2589</v>
       </c>
@@ -32922,7 +32910,7 @@
         <v>[["mac", "0x0017880108fd8633"]]</v>
       </c>
     </row>
-    <row r="333" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="333" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A333" s="34">
         <v>2590</v>
       </c>
@@ -33006,7 +32994,7 @@
         <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.93"]]</v>
       </c>
     </row>
-    <row r="334" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="334" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A334" s="34">
         <v>2591</v>
       </c>
@@ -33101,7 +33089,7 @@
         <v>[["mac", "0x2c1165fffec5a3f6"]]</v>
       </c>
     </row>
-    <row r="335" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="335" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A335" s="34">
         <v>2592</v>
       </c>
@@ -33196,7 +33184,7 @@
         <v>[["mac", "0x2c1165fffebaa93c"]]</v>
       </c>
     </row>
-    <row r="336" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="336" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A336" s="34">
         <v>2593</v>
       </c>
@@ -33291,7 +33279,7 @@
         <v>[["mac", "0x50325ffffe47b8fa"]]</v>
       </c>
     </row>
-    <row r="337" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="337" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A337" s="34">
         <v>2594</v>
       </c>
@@ -33344,7 +33332,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="338" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A338" s="33">
         <v>2600</v>
       </c>
@@ -33410,7 +33398,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="339" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A339" s="33">
         <v>2601</v>
       </c>
@@ -33476,7 +33464,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="340" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A340" s="33">
         <v>2602</v>
       </c>
@@ -33542,7 +33530,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="341" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A341" s="33">
         <v>2603</v>
       </c>
@@ -33605,7 +33593,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="342" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A342" s="33">
         <v>2604</v>
       </c>
@@ -33668,7 +33656,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="343" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A343" s="33">
         <v>2605</v>
       </c>
@@ -33731,7 +33719,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="344" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A344" s="33">
         <v>2606</v>
       </c>
@@ -33794,7 +33782,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="345" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A345" s="33">
         <v>2607</v>
       </c>
@@ -33860,7 +33848,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="346" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A346" s="33">
         <v>2608</v>
       </c>
@@ -33924,7 +33912,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="347" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A347" s="33">
         <v>2609</v>
       </c>
@@ -33987,7 +33975,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="348" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A348" s="33">
         <v>2610</v>
       </c>
@@ -34050,7 +34038,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="349" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A349" s="33">
         <v>2611</v>
       </c>
@@ -34113,7 +34101,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="350" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A350" s="33">
         <v>2612</v>
       </c>
@@ -34176,7 +34164,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="351" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A351" s="33">
         <v>2613</v>
       </c>
@@ -34240,7 +34228,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="352" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A352" s="33">
         <v>2614</v>
       </c>
@@ -34303,7 +34291,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="353" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A353" s="33">
         <v>2615</v>
       </c>
@@ -34366,7 +34354,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="354" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A354" s="33">
         <v>2616</v>
       </c>
@@ -34429,7 +34417,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="355" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A355" s="33">
         <v>2617</v>
       </c>
@@ -34492,7 +34480,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="356" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A356" s="33">
         <v>2618</v>
       </c>
@@ -34555,7 +34543,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="357" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A357" s="33">
         <v>2619</v>
       </c>
@@ -34618,7 +34606,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="358" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A358" s="33">
         <v>2620</v>
       </c>
@@ -34681,7 +34669,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="359" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A359" s="33">
         <v>2621</v>
       </c>
@@ -34735,7 +34723,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="360" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A360" s="33">
         <v>2622</v>
       </c>
@@ -34789,7 +34777,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="361" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A361" s="33">
         <v>2623</v>
       </c>
@@ -34843,7 +34831,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="362" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A362" s="33">
         <v>2624</v>
       </c>
@@ -34894,7 +34882,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="363" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A363" s="33">
         <v>2625</v>
       </c>
@@ -34945,7 +34933,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="364" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A364" s="33">
         <v>2626</v>
       </c>
@@ -34999,7 +34987,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="365" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A365" s="33">
         <v>2627</v>
       </c>
@@ -35053,7 +35041,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="366" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A366" s="33">
         <v>2628</v>
       </c>
@@ -35104,7 +35092,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="367" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A367" s="33">
         <v>2629</v>
       </c>
@@ -35155,7 +35143,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="368" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A368" s="33">
         <v>2630</v>
       </c>
@@ -35211,7 +35199,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="369" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A369" s="33">
         <v>2631</v>
       </c>
@@ -35267,7 +35255,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="370" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A370" s="33">
         <v>2632</v>
       </c>
@@ -35320,7 +35308,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="371" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A371" s="33">
         <v>2633</v>
       </c>
@@ -35373,7 +35361,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="372" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A372" s="33">
         <v>2634</v>
       </c>
@@ -35426,7 +35414,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="373" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A373" s="34">
         <v>2640</v>
       </c>
@@ -35482,7 +35470,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="374" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A374" s="34">
         <v>2650</v>
       </c>
@@ -35587,7 +35575,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="375" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="375" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A375" s="34">
         <v>2651</v>
       </c>
@@ -35692,7 +35680,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="376" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="376" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A376" s="34">
         <v>2652</v>
       </c>
@@ -35796,7 +35784,7 @@
         <v>[["mac", "dc:e5:5b:a5:a3:0d"], ["ip", "10.0.4.55"]]</v>
       </c>
     </row>
-    <row r="377" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="377" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A377" s="34">
         <v>2653</v>
       </c>
@@ -35900,7 +35888,7 @@
         <v>[["mac", "dc:e5:5b:4c:e9:69"], ["ip", "10.0.4.56"]]</v>
       </c>
     </row>
-    <row r="378" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="378" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A378" s="34">
         <v>2654</v>
       </c>
@@ -36005,7 +35993,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="379" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="379" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A379" s="34">
         <v>2655</v>
       </c>
@@ -36110,7 +36098,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="380" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="380" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A380" s="34">
         <v>2656</v>
       </c>
@@ -36197,7 +36185,7 @@
         <v>[["mac", "32:4c:57:35:08:8d"], ["ip", "10.0.4.57"]]</v>
       </c>
     </row>
-    <row r="381" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="381" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A381" s="34">
         <v>2657</v>
       </c>
@@ -36250,7 +36238,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="382" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A382" s="34">
         <v>2658</v>
       </c>
@@ -36337,7 +36325,7 @@
         <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
-    <row r="383" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="383" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A383" s="34">
         <v>2659</v>
       </c>
@@ -36423,7 +36411,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="384" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="384" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A384" s="34">
         <v>2660</v>
       </c>
@@ -36510,7 +36498,7 @@
         <v>[["mac", "12:93:f0:d4:3f:cb"], ["ip", "10.0.4.58"]]</v>
       </c>
     </row>
-    <row r="385" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="385" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A385" s="34">
         <v>2661</v>
       </c>
@@ -36596,7 +36584,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="386" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="386" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A386" s="34">
         <v>2662</v>
       </c>
@@ -36650,7 +36638,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="387" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A387" s="34">
         <v>2663</v>
       </c>
@@ -36744,7 +36732,7 @@
         <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
-    <row r="388" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="388" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A388" s="34">
         <v>2664</v>
       </c>
@@ -36824,7 +36812,7 @@
       <c r="AX388" s="33"/>
       <c r="AY388" s="33"/>
     </row>
-    <row r="389" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="389" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A389" s="34">
         <v>2665</v>
       </c>
@@ -36930,7 +36918,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="390" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="390" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A390" s="34">
         <v>2666</v>
       </c>
@@ -37036,7 +37024,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="391" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="391" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A391" s="34">
         <v>2667</v>
       </c>
@@ -37116,7 +37104,7 @@
       <c r="AX391" s="33"/>
       <c r="AY391" s="33"/>
     </row>
-    <row r="392" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="392" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A392" s="34">
         <v>2668</v>
       </c>
@@ -37222,7 +37210,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="393" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="393" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A393" s="34">
         <v>2669</v>
       </c>
@@ -37308,7 +37296,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="394" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="394" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A394" s="34">
         <v>2700</v>
       </c>
@@ -37369,7 +37357,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="395" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A395" s="34">
         <v>2701</v>
       </c>
@@ -37424,7 +37412,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="396" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A396" s="34">
         <v>2702</v>
       </c>
@@ -37502,7 +37490,7 @@
         <v>[["mac", "0x000d6f0011274420"]]</v>
       </c>
     </row>
-    <row r="397" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="397" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A397" s="34">
         <v>2703</v>
       </c>
@@ -37580,7 +37568,7 @@
         <v>[["mac", "0x00124b0029119f9a"]]</v>
       </c>
     </row>
-    <row r="398" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="398" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A398" s="34">
         <v>2704</v>
       </c>
@@ -37629,7 +37617,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="399" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A399" s="34">
         <v>2705</v>
       </c>
@@ -37690,7 +37678,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="400" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A400" s="34">
         <v>2706</v>
       </c>
@@ -37745,7 +37733,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="401" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A401" s="34">
         <v>2707</v>
       </c>
@@ -37823,7 +37811,7 @@
         <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
-    <row r="402" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="402" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A402" s="34">
         <v>2708</v>
       </c>
@@ -37901,7 +37889,7 @@
         <v>[["mac", "0x00124b0029113713"]]</v>
       </c>
     </row>
-    <row r="403" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="403" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A403" s="34">
         <v>2709</v>
       </c>
@@ -37950,7 +37938,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="404" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A404" s="34">
         <v>2710</v>
       </c>
@@ -38003,7 +37991,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="405" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A405" s="34">
         <v>2711</v>
       </c>
@@ -38057,7 +38045,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="406" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A406" s="34">
         <v>2712</v>
       </c>
@@ -38141,7 +38129,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="407" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="407" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A407" s="34">
         <v>2713</v>
       </c>
@@ -38194,7 +38182,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="408" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A408" s="34">
         <v>2714</v>
       </c>
@@ -38248,7 +38236,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="409" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A409" s="34">
         <v>2715</v>
       </c>
@@ -38332,7 +38320,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="410" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="410" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A410" s="34">
         <v>2716</v>
       </c>
@@ -38385,7 +38373,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="411" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A411" s="34">
         <v>2717</v>
       </c>
@@ -38439,7 +38427,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="412" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A412" s="34">
         <v>2718</v>
       </c>
@@ -38494,7 +38482,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="413" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A413" s="34">
         <v>2719</v>
       </c>
@@ -38549,7 +38537,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="414" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A414" s="34">
         <v>2720</v>
       </c>
@@ -38603,7 +38591,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="415" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A415" s="34">
         <v>2721</v>
       </c>
@@ -38657,7 +38645,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="416" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A416" s="34">
         <v>2722</v>
       </c>
@@ -38711,7 +38699,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="417" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A417" s="34">
         <v>5000</v>
       </c>
@@ -38773,7 +38761,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="418" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="418" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A418" s="34">
         <v>5001</v>
       </c>
@@ -38835,7 +38823,7 @@
         <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="419" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="419" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A419" s="34">
         <v>5002</v>
       </c>
@@ -38897,7 +38885,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="420" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="420" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A420" s="34">
         <v>5003</v>
       </c>
@@ -38959,7 +38947,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="421" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="421" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A421" s="34">
         <v>5004</v>
       </c>
@@ -39021,7 +39009,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
-    <row r="422" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="422" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A422" s="34">
         <v>5005</v>
       </c>
@@ -39087,7 +39075,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="423" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="423" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A423" s="34">
         <v>5006</v>
       </c>
@@ -39153,7 +39141,7 @@
         <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="424" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="424" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A424" s="34">
         <v>5007</v>
       </c>
@@ -39223,7 +39211,7 @@
         <v>[["mac", "2a:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="425" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="425" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A425" s="34">
         <v>5008</v>
       </c>
@@ -39293,7 +39281,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="426" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="426" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A426" s="34">
         <v>5009</v>
       </c>
@@ -39353,7 +39341,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"]]</v>
       </c>
     </row>
-    <row r="427" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="427" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A427" s="34">
         <v>5010</v>
       </c>
@@ -39416,7 +39404,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"]]</v>
       </c>
     </row>
-    <row r="428" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="428" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A428" s="34">
         <v>5011</v>
       </c>
@@ -39479,7 +39467,7 @@
         <v>[["mac", "40:6c:8f:2a:da:9c"]]</v>
       </c>
     </row>
-    <row r="429" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="429" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A429" s="34">
         <v>5012</v>
       </c>
@@ -39544,7 +39532,7 @@
         <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="430" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="430" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A430" s="34">
         <v>5013</v>
       </c>
@@ -39609,7 +39597,7 @@
         <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="431" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="431" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A431" s="34">
         <v>5014</v>
       </c>
@@ -39669,7 +39657,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="432" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="432" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A432" s="34">
         <v>5015</v>
       </c>
@@ -39734,7 +39722,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="433" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="433" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
       <c r="A433" s="34">
         <v>6000</v>
       </c>
@@ -39779,7 +39767,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="434" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="434" spans="1:52" ht="16" customHeight="1">
       <c r="F434" s="27" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39809,7 +39797,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="435" spans="1:52" ht="16" customHeight="1">
       <c r="B435" s="30"/>
       <c r="C435" s="30"/>
       <c r="D435" s="30"/>
@@ -39849,7 +39837,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="436" spans="1:52" ht="16" customHeight="1">
       <c r="F436" s="27" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39879,7 +39867,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="437" spans="1:52" ht="16" customHeight="1">
       <c r="F437" s="27" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39909,7 +39897,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="438" spans="1:52" ht="16" customHeight="1">
       <c r="F438" s="27" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39939,7 +39927,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="439" spans="1:52" ht="16" customHeight="1">
       <c r="F439" s="27" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -39969,7 +39957,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="440" spans="1:52" ht="16" customHeight="1">
       <c r="E440" s="32"/>
       <c r="F440" s="27" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
@@ -40000,7 +39988,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="441" spans="1:52" ht="16" customHeight="1">
       <c r="E441" s="32"/>
       <c r="F441" s="27" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
@@ -40031,7 +40019,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="442" spans="1:52" ht="16" customHeight="1">
       <c r="F442" s="27" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40061,7 +40049,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="443" spans="1:52" ht="16" customHeight="1">
       <c r="F443" s="27" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40091,7 +40079,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="444" spans="1:52" ht="16" customHeight="1">
       <c r="F444" s="27" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40121,7 +40109,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="445" spans="1:52" ht="16" customHeight="1">
       <c r="F445" s="27" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40151,7 +40139,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="446" spans="1:52" ht="16" customHeight="1">
       <c r="F446" s="27" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40181,7 +40169,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="447" spans="1:52" ht="16" customHeight="1">
       <c r="F447" s="27" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40211,7 +40199,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:52" ht="16" hidden="1" customHeight="1">
+    <row r="448" spans="1:52" ht="16" customHeight="1">
       <c r="F448" s="27" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40241,7 +40229,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="449" spans="6:52" ht="16" customHeight="1">
       <c r="F449" s="27" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40271,7 +40259,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="450" spans="6:52" ht="16" customHeight="1">
       <c r="F450" s="27" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40301,7 +40289,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="451" spans="6:52" ht="16" customHeight="1">
       <c r="F451" s="27" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40331,7 +40319,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="452" spans="6:52" ht="16" customHeight="1">
       <c r="F452" s="27" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40361,7 +40349,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="453" spans="6:52" ht="16" customHeight="1">
       <c r="F453" s="27" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40391,7 +40379,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="454" spans="6:52" ht="16" customHeight="1">
       <c r="F454" s="27" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40421,7 +40409,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="455" spans="6:52" ht="16" customHeight="1">
       <c r="F455" s="27" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40451,7 +40439,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="456" spans="6:52" ht="16" customHeight="1">
       <c r="F456" s="27" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40481,7 +40469,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="457" spans="6:52" ht="16" customHeight="1">
       <c r="F457" s="27" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40511,7 +40499,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="458" spans="6:52" ht="16" customHeight="1">
       <c r="F458" s="27" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40541,7 +40529,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="459" spans="6:52" ht="16" customHeight="1">
       <c r="F459" s="27" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40571,7 +40559,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="460" spans="6:52" ht="16" customHeight="1">
       <c r="F460" s="27" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40601,7 +40589,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="461" spans="6:52" ht="16" customHeight="1">
       <c r="F461" s="27" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40631,7 +40619,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="462" spans="6:52" ht="16" customHeight="1">
       <c r="F462" s="27" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40661,7 +40649,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="463" spans="6:52" ht="16" customHeight="1">
       <c r="F463" s="27" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40691,7 +40679,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="464" spans="6:52" ht="16" customHeight="1">
       <c r="F464" s="27" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40721,7 +40709,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="465" spans="6:52" ht="16" customHeight="1">
       <c r="F465" s="27" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40751,7 +40739,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="466" spans="6:52" ht="16" customHeight="1">
       <c r="F466" s="27" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40781,7 +40769,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="467" spans="6:52" ht="16" customHeight="1">
       <c r="F467" s="27" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40811,7 +40799,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="468" spans="6:52" ht="16" customHeight="1">
       <c r="F468" s="27" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40841,7 +40829,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="469" spans="6:52" ht="16" customHeight="1">
       <c r="F469" s="27" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40871,7 +40859,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="470" spans="6:52" ht="16" customHeight="1">
       <c r="F470" s="27" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40901,7 +40889,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="471" spans="6:52" ht="16" customHeight="1">
       <c r="F471" s="27" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40931,7 +40919,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="472" spans="6:52" ht="16" customHeight="1">
       <c r="F472" s="27" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40961,7 +40949,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="473" spans="6:52" ht="16" customHeight="1">
       <c r="F473" s="27" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -40991,7 +40979,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="474" spans="6:52" ht="16" customHeight="1">
       <c r="F474" s="27" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41021,7 +41009,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="475" spans="6:52" ht="16" customHeight="1">
       <c r="F475" s="27" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41051,7 +41039,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="476" spans="6:52" ht="16" customHeight="1">
       <c r="F476" s="27" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41081,7 +41069,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="477" spans="6:52" ht="16" customHeight="1">
       <c r="F477" s="27" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41111,7 +41099,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="478" spans="6:52" ht="16" customHeight="1">
       <c r="F478" s="27" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41141,7 +41129,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="479" spans="6:52" ht="16" customHeight="1">
       <c r="F479" s="27" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41171,7 +41159,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="480" spans="6:52" ht="16" customHeight="1">
       <c r="F480" s="27" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41201,7 +41189,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="481" spans="6:52" ht="16" customHeight="1">
       <c r="F481" s="27" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41231,7 +41219,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="482" spans="6:52" ht="16" customHeight="1">
       <c r="F482" s="27" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41261,7 +41249,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="483" spans="6:52" ht="16" customHeight="1">
       <c r="F483" s="27" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41291,7 +41279,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="484" spans="6:52" ht="16" customHeight="1">
       <c r="F484" s="27" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41321,7 +41309,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="485" spans="6:52" ht="16" customHeight="1">
       <c r="F485" s="27" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41351,7 +41339,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="486" spans="6:52" ht="16" customHeight="1">
       <c r="F486" s="27" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41381,7 +41369,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="487" spans="6:52" ht="16" customHeight="1">
       <c r="F487" s="27" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41411,7 +41399,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="488" spans="6:52" ht="16" customHeight="1">
       <c r="F488" s="27" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41441,7 +41429,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="489" spans="6:52" ht="16" customHeight="1">
       <c r="F489" s="27" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41471,7 +41459,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="490" spans="6:52" ht="16" customHeight="1">
       <c r="F490" s="27" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41501,7 +41489,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="491" spans="6:52" ht="16" customHeight="1">
       <c r="F491" s="27" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41531,7 +41519,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="492" spans="6:52" ht="16" customHeight="1">
       <c r="F492" s="27" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41561,7 +41549,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="493" spans="6:52" ht="16" customHeight="1">
       <c r="F493" s="27" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41591,7 +41579,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="494" spans="6:52" ht="16" customHeight="1">
       <c r="F494" s="27" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41621,7 +41609,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="495" spans="6:52" ht="16" customHeight="1">
       <c r="F495" s="27" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41651,7 +41639,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="496" spans="6:52" ht="16" customHeight="1">
       <c r="F496" s="27" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41681,7 +41669,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="497" spans="6:52" ht="16" customHeight="1">
       <c r="F497" s="27" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41711,7 +41699,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="498" spans="6:52" ht="16" customHeight="1">
       <c r="F498" s="27" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41741,7 +41729,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="499" spans="6:52" ht="16" customHeight="1">
       <c r="F499" s="27" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41771,7 +41759,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="500" spans="6:52" ht="16" customHeight="1">
       <c r="F500" s="27" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41801,7 +41789,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="501" spans="6:52" ht="16" customHeight="1">
       <c r="F501" s="27" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41831,7 +41819,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="502" spans="6:52" ht="16" customHeight="1">
       <c r="F502" s="27" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41861,7 +41849,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="503" spans="6:52" ht="16" customHeight="1">
       <c r="F503" s="27" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41891,7 +41879,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="504" spans="6:52" ht="16" customHeight="1">
       <c r="F504" s="27" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41921,7 +41909,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="505" spans="6:52" ht="16" customHeight="1">
       <c r="F505" s="27" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41951,7 +41939,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="506" spans="6:52" ht="16" customHeight="1">
       <c r="F506" s="27" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -41981,7 +41969,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="507" spans="6:52" ht="16" customHeight="1">
       <c r="F507" s="27" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42011,7 +41999,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="508" spans="6:52" ht="16" customHeight="1">
       <c r="F508" s="27" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42041,7 +42029,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="509" spans="6:52" ht="16" customHeight="1">
       <c r="F509" s="27" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42071,7 +42059,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="510" spans="6:52" ht="16" customHeight="1">
       <c r="F510" s="27" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42101,7 +42089,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="511" spans="6:52" ht="16" customHeight="1">
       <c r="F511" s="27" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42131,7 +42119,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="512" spans="6:52" ht="16" customHeight="1">
       <c r="F512" s="27" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42161,7 +42149,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="513" spans="6:52" ht="16" customHeight="1">
       <c r="F513" s="27" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42191,7 +42179,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="514" spans="6:52" ht="16" customHeight="1">
       <c r="F514" s="27" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42221,7 +42209,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="515" spans="6:52" ht="16" customHeight="1">
       <c r="F515" s="27" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42251,7 +42239,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="516" spans="6:52" ht="16" customHeight="1">
       <c r="F516" s="27" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42281,7 +42269,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="517" spans="6:52" ht="16" customHeight="1">
       <c r="F517" s="27" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42311,7 +42299,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="518" spans="6:52" ht="16" customHeight="1">
       <c r="F518" s="27" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42341,7 +42329,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="519" spans="6:52" ht="16" customHeight="1">
       <c r="F519" s="27" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42371,7 +42359,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="520" spans="6:52" ht="16" customHeight="1">
       <c r="F520" s="27" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42401,7 +42389,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="521" spans="6:52" ht="16" customHeight="1">
       <c r="F521" s="27" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42431,7 +42419,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="522" spans="6:52" ht="16" customHeight="1">
       <c r="F522" s="27" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42461,7 +42449,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="523" spans="6:52" ht="16" customHeight="1">
       <c r="F523" s="27" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42491,7 +42479,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="524" spans="6:52" ht="16" customHeight="1">
       <c r="F524" s="27" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42521,7 +42509,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="525" spans="6:52" ht="16" customHeight="1">
       <c r="F525" s="27" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42551,7 +42539,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="526" spans="6:52" ht="16" customHeight="1">
       <c r="F526" s="27" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42581,7 +42569,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="527" spans="6:52" ht="16" customHeight="1">
       <c r="F527" s="27" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42611,7 +42599,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="528" spans="6:52" ht="16" customHeight="1">
       <c r="F528" s="27" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42641,7 +42629,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="529" spans="6:52" ht="16" customHeight="1">
       <c r="F529" s="27" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42671,7 +42659,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="530" spans="6:52" ht="16" customHeight="1">
       <c r="F530" s="27" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42701,7 +42689,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="531" spans="6:52" ht="16" customHeight="1">
       <c r="F531" s="27" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42731,7 +42719,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="532" spans="6:52" ht="16" customHeight="1">
       <c r="F532" s="27" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42761,7 +42749,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="533" spans="6:52" ht="16" customHeight="1">
       <c r="F533" s="27" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42791,7 +42779,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="534" spans="6:52" ht="16" customHeight="1">
       <c r="F534" s="27" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42821,7 +42809,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="535" spans="6:52" ht="16" customHeight="1">
       <c r="F535" s="27" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42851,7 +42839,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="536" spans="6:52" ht="16" customHeight="1">
       <c r="F536" s="27" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42881,7 +42869,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="537" spans="6:52" ht="16" customHeight="1">
       <c r="F537" s="27" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42911,7 +42899,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="538" spans="6:52" ht="16" customHeight="1">
       <c r="F538" s="27" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42941,7 +42929,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="539" spans="6:52" ht="16" customHeight="1">
       <c r="F539" s="27" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -42971,7 +42959,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="540" spans="6:52" ht="16" customHeight="1">
       <c r="F540" s="27" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43001,7 +42989,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="541" spans="6:52" ht="16" customHeight="1">
       <c r="F541" s="27" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43031,7 +43019,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="542" spans="6:52" ht="16" customHeight="1">
       <c r="F542" s="27" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43061,7 +43049,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="543" spans="6:52" ht="16" customHeight="1">
       <c r="F543" s="27" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43091,7 +43079,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="544" spans="6:52" ht="16" customHeight="1">
       <c r="F544" s="27" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43121,7 +43109,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="545" spans="6:52" ht="16" customHeight="1">
       <c r="F545" s="27" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43151,7 +43139,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="546" spans="6:52" ht="16" customHeight="1">
       <c r="F546" s="27" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43181,7 +43169,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="547" spans="6:52" ht="16" customHeight="1">
       <c r="F547" s="27" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43211,7 +43199,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="548" spans="6:52" ht="16" customHeight="1">
       <c r="F548" s="27" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43241,7 +43229,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="549" spans="6:52" ht="16" customHeight="1">
       <c r="F549" s="27" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43271,7 +43259,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="550" spans="6:52" ht="16" customHeight="1">
       <c r="F550" s="27" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43301,7 +43289,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="551" spans="6:52" ht="16" customHeight="1">
       <c r="F551" s="27" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43331,7 +43319,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="552" spans="6:52" ht="16" customHeight="1">
       <c r="F552" s="27" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43361,7 +43349,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="553" spans="6:52" ht="16" customHeight="1">
       <c r="F553" s="27" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43391,7 +43379,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="554" spans="6:52" ht="16" customHeight="1">
       <c r="F554" s="27" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43421,7 +43409,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="555" spans="6:52" ht="16" customHeight="1">
       <c r="F555" s="27" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43451,7 +43439,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="556" spans="6:52" ht="16" customHeight="1">
       <c r="F556" s="27" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43481,7 +43469,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="557" spans="6:52" ht="16" customHeight="1">
       <c r="F557" s="27" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43511,7 +43499,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="558" spans="6:52" ht="16" customHeight="1">
       <c r="F558" s="27" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43541,7 +43529,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="559" spans="6:52" ht="16" customHeight="1">
       <c r="F559" s="27" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43572,7 +43560,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="560" spans="6:52" ht="16" customHeight="1">
       <c r="F560" s="27" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43603,7 +43591,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="561" spans="6:52" ht="16" customHeight="1">
       <c r="F561" s="27" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43633,7 +43621,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="562" spans="6:52" ht="16" customHeight="1">
       <c r="F562" s="27" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43663,7 +43651,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="563" spans="6:52" ht="16" customHeight="1">
       <c r="F563" s="27" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43693,7 +43681,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="564" spans="6:52" ht="16" customHeight="1">
       <c r="F564" s="27" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43723,7 +43711,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="565" spans="6:52" ht="16" customHeight="1">
       <c r="F565" s="27" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43752,7 +43740,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="566" spans="6:52" ht="16" customHeight="1">
       <c r="F566" s="27" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43781,7 +43769,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="567" spans="6:52" ht="16" customHeight="1">
       <c r="F567" s="27" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43810,7 +43798,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="568" spans="6:52" ht="16" customHeight="1">
       <c r="F568" s="27" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43839,7 +43827,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="569" spans="6:52" ht="16" customHeight="1">
       <c r="F569" s="27" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43869,7 +43857,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="570" spans="6:52" ht="16" customHeight="1">
       <c r="F570" s="27" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43898,7 +43886,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="571" spans="6:52" ht="16" customHeight="1">
       <c r="F571" s="27" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43927,7 +43915,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="572" spans="6:52" ht="16" customHeight="1">
       <c r="F572" s="27" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43956,7 +43944,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="573" spans="6:52" ht="16" customHeight="1">
       <c r="F573" s="27" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -43985,7 +43973,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="574" spans="6:52" ht="16" customHeight="1">
       <c r="F574" s="27" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44014,7 +44002,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="575" spans="6:52" ht="16" customHeight="1">
       <c r="F575" s="27" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44043,7 +44031,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="576" spans="6:52" ht="16" customHeight="1">
       <c r="F576" s="27" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44072,7 +44060,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="577" spans="6:52" ht="16" customHeight="1">
       <c r="F577" s="27" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44101,7 +44089,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="578" spans="6:52" ht="16" customHeight="1">
       <c r="F578" s="27" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44130,7 +44118,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="579" spans="6:52" ht="16" customHeight="1">
       <c r="F579" s="27" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44159,7 +44147,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="580" spans="6:52" ht="16" customHeight="1">
       <c r="F580" s="27" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44188,7 +44176,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="581" spans="6:52" ht="16" customHeight="1">
       <c r="F581" s="27" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44217,7 +44205,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="582" spans="6:52" ht="16" customHeight="1">
       <c r="F582" s="27" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44246,7 +44234,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="583" spans="6:52" ht="16" customHeight="1">
       <c r="F583" s="27" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44275,7 +44263,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="584" spans="6:52" ht="16" customHeight="1">
       <c r="F584" s="27" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44304,7 +44292,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="585" spans="6:52" ht="16" customHeight="1">
       <c r="F585" s="27" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44333,7 +44321,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="586" spans="6:52" ht="16" customHeight="1">
       <c r="F586" s="27" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44362,7 +44350,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="587" spans="6:52" ht="16" customHeight="1">
       <c r="F587" s="27" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44391,7 +44379,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="588" spans="6:52" ht="16" customHeight="1">
       <c r="F588" s="27" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44420,7 +44408,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="589" spans="6:52" ht="16" customHeight="1">
       <c r="F589" s="27" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44449,7 +44437,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="590" spans="6:52" ht="16" customHeight="1">
       <c r="F590" s="27" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44478,7 +44466,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="591" spans="6:52" ht="16" customHeight="1">
       <c r="F591" s="27" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44507,7 +44495,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="592" spans="6:52" ht="16" customHeight="1">
       <c r="F592" s="27" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44536,7 +44524,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="593" spans="6:52" ht="16" customHeight="1">
       <c r="F593" s="27" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44565,7 +44553,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="594" spans="6:52" ht="16" customHeight="1">
       <c r="F594" s="27" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44594,7 +44582,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="595" spans="6:52" ht="16" customHeight="1">
       <c r="F595" s="27" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44623,7 +44611,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="596" spans="6:52" ht="16" customHeight="1">
       <c r="F596" s="27" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44652,7 +44640,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="597" spans="6:52" ht="16" customHeight="1">
       <c r="F597" s="27" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44681,7 +44669,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="598" spans="6:52" ht="16" customHeight="1">
       <c r="F598" s="27" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44710,7 +44698,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="599" spans="6:52" ht="16" customHeight="1">
       <c r="F599" s="27" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44739,7 +44727,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="600" spans="6:52" ht="16" customHeight="1">
       <c r="F600" s="27" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44768,7 +44756,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="601" spans="6:52" ht="16" customHeight="1">
       <c r="F601" s="27" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44797,7 +44785,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="602" spans="6:52" ht="16" customHeight="1">
       <c r="F602" s="27" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44826,7 +44814,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="603" spans="6:52" ht="16" customHeight="1">
       <c r="F603" s="27" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44855,7 +44843,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="604" spans="6:52" ht="16" customHeight="1">
       <c r="F604" s="27" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44884,7 +44872,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="605" spans="6:52" ht="16" customHeight="1">
       <c r="F605" s="27" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44913,7 +44901,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="606" spans="6:52" ht="16" customHeight="1">
       <c r="F606" s="27" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44942,7 +44930,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="607" spans="6:52" ht="16" customHeight="1">
       <c r="F607" s="27" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -44971,7 +44959,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="608" spans="6:52" ht="16" customHeight="1">
       <c r="F608" s="27" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45000,7 +44988,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="609" spans="6:52" ht="16" customHeight="1">
       <c r="F609" s="27" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45029,7 +45017,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="610" spans="6:52" ht="16" customHeight="1">
       <c r="F610" s="27" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45058,7 +45046,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="611" spans="6:52" ht="16" customHeight="1">
       <c r="F611" s="27" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45087,7 +45075,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="612" spans="6:52" ht="16" customHeight="1">
       <c r="F612" s="27" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45116,7 +45104,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="613" spans="6:52" ht="16" customHeight="1">
       <c r="F613" s="27" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45145,7 +45133,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="614" spans="6:52" ht="16" customHeight="1">
       <c r="F614" s="27" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45174,7 +45162,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="615" spans="6:52" ht="16" customHeight="1">
       <c r="F615" s="27" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45203,7 +45191,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="616" spans="6:52" ht="16" customHeight="1">
       <c r="F616" s="27" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45232,7 +45220,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="617" spans="6:52" ht="16" customHeight="1">
       <c r="F617" s="27" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45261,7 +45249,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="618" spans="6:52" ht="16" customHeight="1">
       <c r="F618" s="27" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45290,7 +45278,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="619" spans="6:52" ht="16" customHeight="1">
       <c r="F619" s="27" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45319,7 +45307,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="620" spans="6:52" ht="16" customHeight="1">
       <c r="F620" s="27" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45348,7 +45336,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="621" spans="6:52" ht="16" customHeight="1">
       <c r="F621" s="27" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45377,7 +45365,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="622" spans="6:52" ht="16" customHeight="1">
       <c r="F622" s="27" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45406,7 +45394,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="623" spans="6:52" ht="16" customHeight="1">
       <c r="F623" s="27" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45435,7 +45423,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="624" spans="6:52" ht="16" customHeight="1">
       <c r="F624" s="27" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45464,7 +45452,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="625" spans="6:52" ht="16" customHeight="1">
       <c r="F625" s="27" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45493,7 +45481,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="626" spans="6:52" ht="16" customHeight="1">
       <c r="F626" s="27" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45522,7 +45510,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="627" spans="6:52" ht="16" customHeight="1">
       <c r="F627" s="27" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45551,7 +45539,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="628" spans="6:52" ht="16" customHeight="1">
       <c r="F628" s="27" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45580,7 +45568,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="629" spans="6:52" ht="16" customHeight="1">
       <c r="F629" s="27" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45609,7 +45597,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="630" spans="6:52" ht="16" customHeight="1">
       <c r="F630" s="27" t="str">
         <f>IF(ISBLANK(E630), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45638,7 +45626,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="631" spans="6:52" ht="16" customHeight="1">
       <c r="F631" s="27" t="str">
         <f>IF(ISBLANK(E631), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45667,7 +45655,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="632" spans="6:52" ht="16" customHeight="1">
       <c r="F632" s="27" t="str">
         <f>IF(ISBLANK(E632), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45696,7 +45684,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="633" spans="6:52" ht="16" customHeight="1">
       <c r="F633" s="27" t="str">
         <f>IF(ISBLANK(E633), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45725,7 +45713,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="634" spans="6:52" ht="16" customHeight="1">
       <c r="F634" s="27" t="str">
         <f>IF(ISBLANK(E634), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45754,7 +45742,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="635" spans="6:52" ht="16" customHeight="1">
       <c r="F635" s="27" t="str">
         <f>IF(ISBLANK(E635), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45783,7 +45771,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="636" spans="6:52" ht="16" customHeight="1">
       <c r="F636" s="27" t="str">
         <f>IF(ISBLANK(E636), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45812,7 +45800,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="637" spans="6:52" ht="16" customHeight="1">
       <c r="F637" s="27" t="str">
         <f>IF(ISBLANK(E637), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45841,7 +45829,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="638" spans="6:52" ht="16" customHeight="1">
       <c r="F638" s="27" t="str">
         <f>IF(ISBLANK(E638), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45870,7 +45858,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="639" spans="6:52" ht="16" customHeight="1">
       <c r="F639" s="27" t="str">
         <f>IF(ISBLANK(E639), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45899,7 +45887,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="640" spans="6:52" ht="16" customHeight="1">
       <c r="F640" s="27" t="str">
         <f>IF(ISBLANK(E640), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45928,7 +45916,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="641" spans="6:52" ht="16" customHeight="1">
       <c r="F641" s="27" t="str">
         <f>IF(ISBLANK(E641), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45957,7 +45945,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="642" spans="6:52" ht="16" customHeight="1">
       <c r="F642" s="27" t="str">
         <f>IF(ISBLANK(E642), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -45986,7 +45974,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="643" spans="6:52" ht="16" customHeight="1">
       <c r="F643" s="27" t="str">
         <f>IF(ISBLANK(E643), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46015,7 +46003,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="644" spans="6:52" ht="16" customHeight="1">
       <c r="F644" s="27" t="str">
         <f>IF(ISBLANK(E644), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46044,7 +46032,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="645" spans="6:52" ht="16" customHeight="1">
       <c r="F645" s="27" t="str">
         <f>IF(ISBLANK(E645), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46073,7 +46061,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="646" spans="6:52" ht="16" customHeight="1">
       <c r="F646" s="27" t="str">
         <f>IF(ISBLANK(E646), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46102,7 +46090,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="647" spans="6:52" ht="16" customHeight="1">
       <c r="F647" s="27" t="str">
         <f>IF(ISBLANK(E647), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46131,7 +46119,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="648" spans="6:52" ht="16" customHeight="1">
       <c r="F648" s="27" t="str">
         <f>IF(ISBLANK(E648), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46160,7 +46148,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="649" spans="6:52" ht="16" customHeight="1">
       <c r="F649" s="27" t="str">
         <f>IF(ISBLANK(E649), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46189,7 +46177,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="650" spans="6:52" ht="16" customHeight="1">
       <c r="F650" s="27" t="str">
         <f>IF(ISBLANK(E650), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46218,7 +46206,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="651" spans="6:52" ht="16" customHeight="1">
       <c r="F651" s="27" t="str">
         <f>IF(ISBLANK(E651), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46247,7 +46235,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="652" spans="6:52" ht="16" customHeight="1">
       <c r="F652" s="27" t="str">
         <f>IF(ISBLANK(E652), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46276,7 +46264,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="653" spans="6:52" ht="16" customHeight="1">
       <c r="F653" s="27" t="str">
         <f>IF(ISBLANK(E653), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46305,7 +46293,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="654" spans="6:52" ht="16" customHeight="1">
       <c r="F654" s="27" t="str">
         <f>IF(ISBLANK(E654), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46334,7 +46322,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="655" spans="6:52" ht="16" customHeight="1">
       <c r="F655" s="27" t="str">
         <f>IF(ISBLANK(E655), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46363,7 +46351,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="656" spans="6:52" ht="16" customHeight="1">
       <c r="F656" s="27" t="str">
         <f>IF(ISBLANK(E656), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46392,7 +46380,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="657" spans="6:52" ht="16" customHeight="1">
       <c r="F657" s="27" t="str">
         <f>IF(ISBLANK(E657), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46421,7 +46409,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="658" spans="6:52" ht="16" customHeight="1">
       <c r="F658" s="27" t="str">
         <f>IF(ISBLANK(E658), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46450,7 +46438,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="659" spans="6:52" ht="16" customHeight="1">
       <c r="F659" s="27" t="str">
         <f>IF(ISBLANK(E659), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46479,7 +46467,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="660" spans="6:52" ht="16" customHeight="1">
       <c r="F660" s="27" t="str">
         <f>IF(ISBLANK(E660), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46508,7 +46496,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="661" spans="6:52" ht="16" customHeight="1">
       <c r="F661" s="27" t="str">
         <f>IF(ISBLANK(E661), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46537,7 +46525,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="662" spans="6:52" ht="16" customHeight="1">
       <c r="F662" s="27" t="str">
         <f>IF(ISBLANK(E662), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46566,7 +46554,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="663" spans="6:52" ht="16" customHeight="1">
       <c r="F663" s="27" t="str">
         <f>IF(ISBLANK(E663), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46595,7 +46583,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="664" spans="6:52" ht="16" customHeight="1">
       <c r="F664" s="27" t="str">
         <f>IF(ISBLANK(E664), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46624,7 +46612,7 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="665" spans="6:52" ht="16" customHeight="1">
       <c r="F665" s="27" t="str">
         <f>IF(ISBLANK(E665), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46653,7 +46641,7 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="666" spans="6:52" ht="16" customHeight="1">
       <c r="F666" s="27" t="str">
         <f>IF(ISBLANK(E666), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46682,7 +46670,7 @@
         <v/>
       </c>
     </row>
-    <row r="667" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="667" spans="6:52" ht="16" customHeight="1">
       <c r="F667" s="27" t="str">
         <f>IF(ISBLANK(E667), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46711,7 +46699,7 @@
         <v/>
       </c>
     </row>
-    <row r="668" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="668" spans="6:52" ht="16" customHeight="1">
       <c r="F668" s="27" t="str">
         <f>IF(ISBLANK(E668), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46740,7 +46728,7 @@
         <v/>
       </c>
     </row>
-    <row r="669" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="669" spans="6:52" ht="16" customHeight="1">
       <c r="F669" s="27" t="str">
         <f>IF(ISBLANK(E669), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46769,7 +46757,7 @@
         <v/>
       </c>
     </row>
-    <row r="670" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="670" spans="6:52" ht="16" customHeight="1">
       <c r="F670" s="27" t="str">
         <f>IF(ISBLANK(E670), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46798,7 +46786,7 @@
         <v/>
       </c>
     </row>
-    <row r="671" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="671" spans="6:52" ht="16" customHeight="1">
       <c r="F671" s="27" t="str">
         <f>IF(ISBLANK(E671), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46827,7 +46815,7 @@
         <v/>
       </c>
     </row>
-    <row r="672" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="672" spans="6:52" ht="16" customHeight="1">
       <c r="F672" s="27" t="str">
         <f>IF(ISBLANK(E672), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46856,7 +46844,7 @@
         <v/>
       </c>
     </row>
-    <row r="673" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="673" spans="6:52" ht="16" customHeight="1">
       <c r="F673" s="27" t="str">
         <f>IF(ISBLANK(E673), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46885,7 +46873,7 @@
         <v/>
       </c>
     </row>
-    <row r="674" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="674" spans="6:52" ht="16" customHeight="1">
       <c r="F674" s="27" t="str">
         <f>IF(ISBLANK(E674), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46914,7 +46902,7 @@
         <v/>
       </c>
     </row>
-    <row r="675" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="675" spans="6:52" ht="16" customHeight="1">
       <c r="F675" s="27" t="str">
         <f>IF(ISBLANK(E675), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46943,7 +46931,7 @@
         <v/>
       </c>
     </row>
-    <row r="676" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="676" spans="6:52" ht="16" customHeight="1">
       <c r="F676" s="27" t="str">
         <f>IF(ISBLANK(E676), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -46972,7 +46960,7 @@
         <v/>
       </c>
     </row>
-    <row r="677" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="677" spans="6:52" ht="16" customHeight="1">
       <c r="F677" s="27" t="str">
         <f>IF(ISBLANK(E677), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47001,7 +46989,7 @@
         <v/>
       </c>
     </row>
-    <row r="678" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="678" spans="6:52" ht="16" customHeight="1">
       <c r="F678" s="27" t="str">
         <f>IF(ISBLANK(E678), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47030,7 +47018,7 @@
         <v/>
       </c>
     </row>
-    <row r="679" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="679" spans="6:52" ht="16" customHeight="1">
       <c r="F679" s="27" t="str">
         <f>IF(ISBLANK(E679), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47059,7 +47047,7 @@
         <v/>
       </c>
     </row>
-    <row r="680" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="680" spans="6:52" ht="16" customHeight="1">
       <c r="F680" s="27" t="str">
         <f>IF(ISBLANK(E680), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47088,7 +47076,7 @@
         <v/>
       </c>
     </row>
-    <row r="681" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="681" spans="6:52" ht="16" customHeight="1">
       <c r="F681" s="27" t="str">
         <f>IF(ISBLANK(E681), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47117,7 +47105,7 @@
         <v/>
       </c>
     </row>
-    <row r="682" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="682" spans="6:52" ht="16" customHeight="1">
       <c r="F682" s="27" t="str">
         <f>IF(ISBLANK(E682), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47146,7 +47134,7 @@
         <v/>
       </c>
     </row>
-    <row r="683" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="683" spans="6:52" ht="16" customHeight="1">
       <c r="F683" s="27" t="str">
         <f>IF(ISBLANK(E683), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47175,7 +47163,7 @@
         <v/>
       </c>
     </row>
-    <row r="684" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="684" spans="6:52" ht="16" customHeight="1">
       <c r="F684" s="27" t="str">
         <f>IF(ISBLANK(E684), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47204,7 +47192,7 @@
         <v/>
       </c>
     </row>
-    <row r="685" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="685" spans="6:52" ht="16" customHeight="1">
       <c r="F685" s="27" t="str">
         <f>IF(ISBLANK(E685), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47233,7 +47221,7 @@
         <v/>
       </c>
     </row>
-    <row r="686" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="686" spans="6:52" ht="16" customHeight="1">
       <c r="F686" s="27" t="str">
         <f>IF(ISBLANK(E686), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47262,7 +47250,7 @@
         <v/>
       </c>
     </row>
-    <row r="687" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="687" spans="6:52" ht="16" customHeight="1">
       <c r="F687" s="27" t="str">
         <f>IF(ISBLANK(E687), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47291,7 +47279,7 @@
         <v/>
       </c>
     </row>
-    <row r="688" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="688" spans="6:52" ht="16" customHeight="1">
       <c r="F688" s="27" t="str">
         <f>IF(ISBLANK(E688), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47320,7 +47308,7 @@
         <v/>
       </c>
     </row>
-    <row r="689" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="689" spans="6:52" ht="16" customHeight="1">
       <c r="F689" s="27" t="str">
         <f>IF(ISBLANK(E689), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47349,7 +47337,7 @@
         <v/>
       </c>
     </row>
-    <row r="690" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="690" spans="6:52" ht="16" customHeight="1">
       <c r="F690" s="27" t="str">
         <f>IF(ISBLANK(E690), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47378,7 +47366,7 @@
         <v/>
       </c>
     </row>
-    <row r="691" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="691" spans="6:52" ht="16" customHeight="1">
       <c r="F691" s="27" t="str">
         <f>IF(ISBLANK(E691), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47407,7 +47395,7 @@
         <v/>
       </c>
     </row>
-    <row r="692" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="692" spans="6:52" ht="16" customHeight="1">
       <c r="F692" s="27" t="str">
         <f>IF(ISBLANK(E692), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47436,7 +47424,7 @@
         <v/>
       </c>
     </row>
-    <row r="693" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="693" spans="6:52" ht="16" customHeight="1">
       <c r="F693" s="27" t="str">
         <f>IF(ISBLANK(E693), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47465,7 +47453,7 @@
         <v/>
       </c>
     </row>
-    <row r="694" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="694" spans="6:52" ht="16" customHeight="1">
       <c r="F694" s="27" t="str">
         <f>IF(ISBLANK(E694), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47494,7 +47482,7 @@
         <v/>
       </c>
     </row>
-    <row r="695" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="695" spans="6:52" ht="16" customHeight="1">
       <c r="F695" s="27" t="str">
         <f>IF(ISBLANK(E695), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47523,7 +47511,7 @@
         <v/>
       </c>
     </row>
-    <row r="696" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="696" spans="6:52" ht="16" customHeight="1">
       <c r="F696" s="27" t="str">
         <f>IF(ISBLANK(E696), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47552,7 +47540,7 @@
         <v/>
       </c>
     </row>
-    <row r="697" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="697" spans="6:52" ht="16" customHeight="1">
       <c r="F697" s="27" t="str">
         <f>IF(ISBLANK(E697), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47581,7 +47569,7 @@
         <v/>
       </c>
     </row>
-    <row r="698" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="698" spans="6:52" ht="16" customHeight="1">
       <c r="F698" s="27" t="str">
         <f>IF(ISBLANK(E698), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47610,7 +47598,7 @@
         <v/>
       </c>
     </row>
-    <row r="699" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="699" spans="6:52" ht="16" customHeight="1">
       <c r="F699" s="27" t="str">
         <f>IF(ISBLANK(E699), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47639,7 +47627,7 @@
         <v/>
       </c>
     </row>
-    <row r="700" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="700" spans="6:52" ht="16" customHeight="1">
       <c r="F700" s="27" t="str">
         <f>IF(ISBLANK(E700), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47668,7 +47656,7 @@
         <v/>
       </c>
     </row>
-    <row r="701" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="701" spans="6:52" ht="16" customHeight="1">
       <c r="F701" s="27" t="str">
         <f>IF(ISBLANK(E701), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47697,7 +47685,7 @@
         <v/>
       </c>
     </row>
-    <row r="702" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="702" spans="6:52" ht="16" customHeight="1">
       <c r="F702" s="27" t="str">
         <f>IF(ISBLANK(E702), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47726,7 +47714,7 @@
         <v/>
       </c>
     </row>
-    <row r="703" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="703" spans="6:52" ht="16" customHeight="1">
       <c r="F703" s="27" t="str">
         <f>IF(ISBLANK(E703), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47755,7 +47743,7 @@
         <v/>
       </c>
     </row>
-    <row r="704" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="704" spans="6:52" ht="16" customHeight="1">
       <c r="F704" s="27" t="str">
         <f>IF(ISBLANK(E704), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47784,7 +47772,7 @@
         <v/>
       </c>
     </row>
-    <row r="705" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="705" spans="6:52" ht="16" customHeight="1">
       <c r="F705" s="27" t="str">
         <f>IF(ISBLANK(E705), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47813,7 +47801,7 @@
         <v/>
       </c>
     </row>
-    <row r="706" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="706" spans="6:52" ht="16" customHeight="1">
       <c r="F706" s="27" t="str">
         <f>IF(ISBLANK(E706), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47842,7 +47830,7 @@
         <v/>
       </c>
     </row>
-    <row r="707" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="707" spans="6:52" ht="16" customHeight="1">
       <c r="F707" s="27" t="str">
         <f>IF(ISBLANK(E707), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47871,7 +47859,7 @@
         <v/>
       </c>
     </row>
-    <row r="708" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="708" spans="6:52" ht="16" customHeight="1">
       <c r="F708" s="27" t="str">
         <f>IF(ISBLANK(E708), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47900,7 +47888,7 @@
         <v/>
       </c>
     </row>
-    <row r="709" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="709" spans="6:52" ht="16" customHeight="1">
       <c r="F709" s="27" t="str">
         <f>IF(ISBLANK(E709), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47929,7 +47917,7 @@
         <v/>
       </c>
     </row>
-    <row r="710" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="710" spans="6:52" ht="16" customHeight="1">
       <c r="F710" s="27" t="str">
         <f>IF(ISBLANK(E710), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47958,7 +47946,7 @@
         <v/>
       </c>
     </row>
-    <row r="711" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="711" spans="6:52" ht="16" customHeight="1">
       <c r="F711" s="27" t="str">
         <f>IF(ISBLANK(E711), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -47987,7 +47975,7 @@
         <v/>
       </c>
     </row>
-    <row r="712" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="712" spans="6:52" ht="16" customHeight="1">
       <c r="F712" s="27" t="str">
         <f>IF(ISBLANK(E712), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48016,7 +48004,7 @@
         <v/>
       </c>
     </row>
-    <row r="713" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="713" spans="6:52" ht="16" customHeight="1">
       <c r="F713" s="27" t="str">
         <f>IF(ISBLANK(E713), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48045,7 +48033,7 @@
         <v/>
       </c>
     </row>
-    <row r="714" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="714" spans="6:52" ht="16" customHeight="1">
       <c r="F714" s="27" t="str">
         <f>IF(ISBLANK(E714), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48074,7 +48062,7 @@
         <v/>
       </c>
     </row>
-    <row r="715" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="715" spans="6:52" ht="16" customHeight="1">
       <c r="F715" s="27" t="str">
         <f>IF(ISBLANK(E715), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48103,7 +48091,7 @@
         <v/>
       </c>
     </row>
-    <row r="716" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="716" spans="6:52" ht="16" customHeight="1">
       <c r="F716" s="27" t="str">
         <f>IF(ISBLANK(E716), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48132,7 +48120,7 @@
         <v/>
       </c>
     </row>
-    <row r="717" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="717" spans="6:52" ht="16" customHeight="1">
       <c r="F717" s="27" t="str">
         <f>IF(ISBLANK(E717), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48161,7 +48149,7 @@
         <v/>
       </c>
     </row>
-    <row r="718" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="718" spans="6:52" ht="16" customHeight="1">
       <c r="F718" s="27" t="str">
         <f>IF(ISBLANK(E718), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48190,7 +48178,7 @@
         <v/>
       </c>
     </row>
-    <row r="719" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="719" spans="6:52" ht="16" customHeight="1">
       <c r="F719" s="27" t="str">
         <f>IF(ISBLANK(E719), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48219,7 +48207,7 @@
         <v/>
       </c>
     </row>
-    <row r="720" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="720" spans="6:52" ht="16" customHeight="1">
       <c r="F720" s="27" t="str">
         <f>IF(ISBLANK(E720), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48248,7 +48236,7 @@
         <v/>
       </c>
     </row>
-    <row r="721" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="721" spans="6:52" ht="16" customHeight="1">
       <c r="F721" s="27" t="str">
         <f>IF(ISBLANK(E721), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48277,7 +48265,7 @@
         <v/>
       </c>
     </row>
-    <row r="722" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="722" spans="6:52" ht="16" customHeight="1">
       <c r="F722" s="27" t="str">
         <f>IF(ISBLANK(E722), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48306,7 +48294,7 @@
         <v/>
       </c>
     </row>
-    <row r="723" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="723" spans="6:52" ht="16" customHeight="1">
       <c r="F723" s="27" t="str">
         <f>IF(ISBLANK(E723), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48335,7 +48323,7 @@
         <v/>
       </c>
     </row>
-    <row r="724" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="724" spans="6:52" ht="16" customHeight="1">
       <c r="F724" s="27" t="str">
         <f>IF(ISBLANK(E724), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48364,7 +48352,7 @@
         <v/>
       </c>
     </row>
-    <row r="725" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="725" spans="6:52" ht="16" customHeight="1">
       <c r="F725" s="27" t="str">
         <f>IF(ISBLANK(E725), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48393,7 +48381,7 @@
         <v/>
       </c>
     </row>
-    <row r="726" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="726" spans="6:52" ht="16" customHeight="1">
       <c r="F726" s="27" t="str">
         <f>IF(ISBLANK(E726), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48422,7 +48410,7 @@
         <v/>
       </c>
     </row>
-    <row r="727" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="727" spans="6:52" ht="16" customHeight="1">
       <c r="F727" s="27" t="str">
         <f>IF(ISBLANK(E727), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48451,7 +48439,7 @@
         <v/>
       </c>
     </row>
-    <row r="728" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="728" spans="6:52" ht="16" customHeight="1">
       <c r="F728" s="27" t="str">
         <f>IF(ISBLANK(E728), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48480,7 +48468,7 @@
         <v/>
       </c>
     </row>
-    <row r="729" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="729" spans="6:52" ht="16" customHeight="1">
       <c r="F729" s="27" t="str">
         <f>IF(ISBLANK(E729), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48509,7 +48497,7 @@
         <v/>
       </c>
     </row>
-    <row r="730" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="730" spans="6:52" ht="16" customHeight="1">
       <c r="F730" s="27" t="str">
         <f>IF(ISBLANK(E730), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48538,7 +48526,7 @@
         <v/>
       </c>
     </row>
-    <row r="731" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="731" spans="6:52" ht="16" customHeight="1">
       <c r="F731" s="27" t="str">
         <f>IF(ISBLANK(E731), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48567,7 +48555,7 @@
         <v/>
       </c>
     </row>
-    <row r="732" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="732" spans="6:52" ht="16" customHeight="1">
       <c r="F732" s="27" t="str">
         <f>IF(ISBLANK(E732), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48596,7 +48584,7 @@
         <v/>
       </c>
     </row>
-    <row r="733" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="733" spans="6:52" ht="16" customHeight="1">
       <c r="F733" s="27" t="str">
         <f>IF(ISBLANK(E733), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48625,7 +48613,7 @@
         <v/>
       </c>
     </row>
-    <row r="734" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="734" spans="6:52" ht="16" customHeight="1">
       <c r="F734" s="27" t="str">
         <f>IF(ISBLANK(E734), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48654,7 +48642,7 @@
         <v/>
       </c>
     </row>
-    <row r="735" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="735" spans="6:52" ht="16" customHeight="1">
       <c r="F735" s="27" t="str">
         <f>IF(ISBLANK(E735), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48683,7 +48671,7 @@
         <v/>
       </c>
     </row>
-    <row r="736" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="736" spans="6:52" ht="16" customHeight="1">
       <c r="F736" s="27" t="str">
         <f>IF(ISBLANK(E736), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48712,7 +48700,7 @@
         <v/>
       </c>
     </row>
-    <row r="737" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="737" spans="6:52" ht="16" customHeight="1">
       <c r="F737" s="27" t="str">
         <f>IF(ISBLANK(E737), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48741,7 +48729,7 @@
         <v/>
       </c>
     </row>
-    <row r="738" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="738" spans="6:52" ht="16" customHeight="1">
       <c r="F738" s="27" t="str">
         <f>IF(ISBLANK(E738), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48770,7 +48758,7 @@
         <v/>
       </c>
     </row>
-    <row r="739" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="739" spans="6:52" ht="16" customHeight="1">
       <c r="F739" s="27" t="str">
         <f>IF(ISBLANK(E739), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48799,7 +48787,7 @@
         <v/>
       </c>
     </row>
-    <row r="740" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="740" spans="6:52" ht="16" customHeight="1">
       <c r="F740" s="27" t="str">
         <f>IF(ISBLANK(E740), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48828,7 +48816,7 @@
         <v/>
       </c>
     </row>
-    <row r="741" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="741" spans="6:52" ht="16" customHeight="1">
       <c r="F741" s="27" t="str">
         <f>IF(ISBLANK(E741), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48857,7 +48845,7 @@
         <v/>
       </c>
     </row>
-    <row r="742" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="742" spans="6:52" ht="16" customHeight="1">
       <c r="F742" s="27" t="str">
         <f>IF(ISBLANK(E742), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48886,7 +48874,7 @@
         <v/>
       </c>
     </row>
-    <row r="743" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="743" spans="6:52" ht="16" customHeight="1">
       <c r="F743" s="27" t="str">
         <f>IF(ISBLANK(E743), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48915,7 +48903,7 @@
         <v/>
       </c>
     </row>
-    <row r="744" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="744" spans="6:52" ht="16" customHeight="1">
       <c r="F744" s="27" t="str">
         <f>IF(ISBLANK(E744), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48944,7 +48932,7 @@
         <v/>
       </c>
     </row>
-    <row r="745" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="745" spans="6:52" ht="16" customHeight="1">
       <c r="F745" s="27" t="str">
         <f>IF(ISBLANK(E745), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -48973,7 +48961,7 @@
         <v/>
       </c>
     </row>
-    <row r="746" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="746" spans="6:52" ht="16" customHeight="1">
       <c r="F746" s="27" t="str">
         <f>IF(ISBLANK(E746), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49002,7 +48990,7 @@
         <v/>
       </c>
     </row>
-    <row r="747" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="747" spans="6:52" ht="16" customHeight="1">
       <c r="F747" s="27" t="str">
         <f>IF(ISBLANK(E747), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49031,7 +49019,7 @@
         <v/>
       </c>
     </row>
-    <row r="748" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="748" spans="6:52" ht="16" customHeight="1">
       <c r="F748" s="27" t="str">
         <f>IF(ISBLANK(E748), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49060,7 +49048,7 @@
         <v/>
       </c>
     </row>
-    <row r="749" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="749" spans="6:52" ht="16" customHeight="1">
       <c r="F749" s="27" t="str">
         <f>IF(ISBLANK(E749), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49089,7 +49077,7 @@
         <v/>
       </c>
     </row>
-    <row r="750" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="750" spans="6:52" ht="16" customHeight="1">
       <c r="F750" s="27" t="str">
         <f>IF(ISBLANK(E750), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49118,7 +49106,7 @@
         <v/>
       </c>
     </row>
-    <row r="751" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="751" spans="6:52" ht="16" customHeight="1">
       <c r="F751" s="27" t="str">
         <f>IF(ISBLANK(E751), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49147,7 +49135,7 @@
         <v/>
       </c>
     </row>
-    <row r="752" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="752" spans="6:52" ht="16" customHeight="1">
       <c r="F752" s="27" t="str">
         <f>IF(ISBLANK(E752), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49176,7 +49164,7 @@
         <v/>
       </c>
     </row>
-    <row r="753" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="753" spans="6:52" ht="16" customHeight="1">
       <c r="F753" s="27" t="str">
         <f>IF(ISBLANK(E753), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49205,7 +49193,7 @@
         <v/>
       </c>
     </row>
-    <row r="754" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="754" spans="6:52" ht="16" customHeight="1">
       <c r="F754" s="27" t="str">
         <f>IF(ISBLANK(E754), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49234,7 +49222,7 @@
         <v/>
       </c>
     </row>
-    <row r="755" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="755" spans="6:52" ht="16" customHeight="1">
       <c r="F755" s="27" t="str">
         <f>IF(ISBLANK(E755), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49263,7 +49251,7 @@
         <v/>
       </c>
     </row>
-    <row r="756" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="756" spans="6:52" ht="16" customHeight="1">
       <c r="F756" s="27" t="str">
         <f>IF(ISBLANK(E756), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49292,7 +49280,7 @@
         <v/>
       </c>
     </row>
-    <row r="757" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="757" spans="6:52" ht="16" customHeight="1">
       <c r="F757" s="27" t="str">
         <f>IF(ISBLANK(E757), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49321,7 +49309,7 @@
         <v/>
       </c>
     </row>
-    <row r="758" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="758" spans="6:52" ht="16" customHeight="1">
       <c r="F758" s="27" t="str">
         <f>IF(ISBLANK(E758), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -49350,7 +49338,7 @@
         <v/>
       </c>
     </row>
-    <row r="759" spans="6:52" ht="16" hidden="1" customHeight="1">
+    <row r="759" spans="6:52" ht="16" customHeight="1">
       <c r="F759" s="27" t="str">
         <f>IF(ISBLANK(E759), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/src/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64092D79-2B8E-AF4C-A9D1-AE3B3EC8E172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3CC2A0-6BDE-DE44-9376-C592A152D72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="940" windowWidth="47720" windowHeight="27420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6238" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6238" uniqueCount="1295">
   <si>
     <t>index</t>
   </si>
@@ -3976,6 +3976,9 @@
   </si>
   <si>
     <t>Sconces,Bedside,Graham,Graham Bedside</t>
+  </si>
+  <si>
+    <t>switch.adaptive_lighting_ambient</t>
   </si>
 </sst>
 </file>
@@ -5475,7 +5478,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AZ759" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
-  <autoFilter ref="A3:AZ759" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A3:AZ759" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="switch.adaptive_lighting_bedroom"/>
+        <filter val="switch.adaptive_lighting_default"/>
+        <filter val="switch.adaptive_lighting_night_light"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AZ759">
     <sortCondition ref="A3:A759"/>
   </sortState>
@@ -5844,8 +5855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ759"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J145" sqref="J145"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -5860,19 +5871,19 @@
     <col min="9" max="9" width="17.6640625" style="27" customWidth="1"/>
     <col min="10" max="10" width="38.5" style="27" customWidth="1"/>
     <col min="11" max="11" width="34.1640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="33.5" style="27" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.1640625" style="27" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5" style="27" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.83203125" style="28" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="21.83203125" style="27" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5" style="27" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26" style="27" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="63.83203125" style="31" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="39.6640625" style="27" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="40.33203125" style="27" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" style="27" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="25" style="27" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="25.1640625" style="27" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.5" style="27" customWidth="1"/>
+    <col min="13" max="13" width="37.1640625" style="27" customWidth="1"/>
+    <col min="14" max="14" width="28.5" style="27" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" style="28" customWidth="1"/>
+    <col min="16" max="17" width="21.83203125" style="27" customWidth="1"/>
+    <col min="18" max="18" width="25.5" style="27" customWidth="1"/>
+    <col min="19" max="19" width="26" style="27" customWidth="1"/>
+    <col min="20" max="20" width="63.83203125" style="31" customWidth="1"/>
+    <col min="21" max="21" width="39.6640625" style="27" customWidth="1"/>
+    <col min="22" max="22" width="40.33203125" style="27" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" style="27" customWidth="1"/>
+    <col min="24" max="24" width="25" style="27" customWidth="1"/>
+    <col min="25" max="25" width="25.1640625" style="27" customWidth="1"/>
     <col min="26" max="26" width="123.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="32.83203125" style="27" bestFit="1" customWidth="1"/>
@@ -6377,7 +6388,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="38" customFormat="1" ht="16" customHeight="1">
+    <row r="4" spans="1:52" s="38" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A4" s="37">
         <v>1000</v>
       </c>
@@ -6479,7 +6490,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="5" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A5" s="34">
         <v>1001</v>
       </c>
@@ -6581,7 +6592,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="6" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A6" s="37">
         <v>1002</v>
       </c>
@@ -6656,7 +6667,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A7" s="34">
         <v>1003</v>
       </c>
@@ -6742,7 +6753,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A8" s="37">
         <v>1004</v>
       </c>
@@ -6817,7 +6828,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="9" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A9" s="34">
         <v>1005</v>
       </c>
@@ -6903,7 +6914,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="10" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A10" s="37">
         <v>1006</v>
       </c>
@@ -6978,7 +6989,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="11" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A11" s="34">
         <v>1007</v>
       </c>
@@ -7058,7 +7069,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="12" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A12" s="37">
         <v>1008</v>
       </c>
@@ -7134,7 +7145,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="13" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A13" s="34">
         <v>1009</v>
       </c>
@@ -7221,7 +7232,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="14" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A14" s="37">
         <v>1010</v>
       </c>
@@ -7297,7 +7308,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="15" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A15" s="34">
         <v>1011</v>
       </c>
@@ -7384,7 +7395,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="16" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A16" s="37">
         <v>1012</v>
       </c>
@@ -7460,7 +7471,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="17" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A17" s="34">
         <v>1013</v>
       </c>
@@ -7547,7 +7558,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="18" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A18" s="37">
         <v>1014</v>
       </c>
@@ -7622,7 +7633,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="19" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A19" s="34">
         <v>1015</v>
       </c>
@@ -7702,7 +7713,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="20" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A20" s="37">
         <v>1016</v>
       </c>
@@ -7777,7 +7788,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="21" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A21" s="34">
         <v>1017</v>
       </c>
@@ -7857,7 +7868,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="22" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A22" s="37">
         <v>1018</v>
       </c>
@@ -7933,7 +7944,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="23" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A23" s="34">
         <v>1019</v>
       </c>
@@ -8020,7 +8031,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="24" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A24" s="37">
         <v>1020</v>
       </c>
@@ -8095,7 +8106,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="25" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A25" s="34">
         <v>1021</v>
       </c>
@@ -8175,7 +8186,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="26" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A26" s="37">
         <v>1022</v>
       </c>
@@ -8255,7 +8266,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="27" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A27" s="34">
         <v>1023</v>
       </c>
@@ -8354,7 +8365,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="28" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A28" s="37">
         <v>1024</v>
       </c>
@@ -8450,7 +8461,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="29" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A29" s="34">
         <v>1025</v>
       </c>
@@ -8546,7 +8557,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="30" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A30" s="37">
         <v>1026</v>
       </c>
@@ -8642,7 +8653,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="31" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A31" s="34">
         <v>1027</v>
       </c>
@@ -8738,7 +8749,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="32" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A32" s="37">
         <v>1028</v>
       </c>
@@ -8834,7 +8845,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="33" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A33" s="34">
         <v>1029</v>
       </c>
@@ -8930,7 +8941,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="34" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A34" s="37">
         <v>1030</v>
       </c>
@@ -8983,7 +8994,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="35" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A35" s="34">
         <v>1040</v>
       </c>
@@ -9042,7 +9053,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="36" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A36" s="34">
         <v>1041</v>
       </c>
@@ -9101,7 +9112,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="37" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A37" s="34">
         <v>1042</v>
       </c>
@@ -9156,7 +9167,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="38" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A38" s="34">
         <v>1050</v>
       </c>
@@ -9258,7 +9269,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="39" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A39" s="34">
         <v>1051</v>
       </c>
@@ -9339,7 +9350,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="40" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A40" s="34">
         <v>1052</v>
       </c>
@@ -9420,7 +9431,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="41" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A41" s="34">
         <v>1053</v>
       </c>
@@ -9500,7 +9511,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="42" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A42" s="34">
         <v>1054</v>
       </c>
@@ -9581,7 +9592,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="43" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A43" s="34">
         <v>1055</v>
       </c>
@@ -9662,7 +9673,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="44" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A44" s="34">
         <v>1056</v>
       </c>
@@ -9743,7 +9754,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="45" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A45" s="34">
         <v>1057</v>
       </c>
@@ -9823,7 +9834,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="46" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A46" s="34">
         <v>1058</v>
       </c>
@@ -9903,7 +9914,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="47" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A47" s="34">
         <v>1059</v>
       </c>
@@ -9984,7 +9995,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="48" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A48" s="34">
         <v>1060</v>
       </c>
@@ -10064,7 +10075,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="49" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A49" s="34">
         <v>1061</v>
       </c>
@@ -10163,7 +10174,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="50" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A50" s="34">
         <v>1062</v>
       </c>
@@ -10216,7 +10227,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="51" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A51" s="34">
         <v>1100</v>
       </c>
@@ -10291,7 +10302,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="52" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A52" s="34">
         <v>1101</v>
       </c>
@@ -10371,7 +10382,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="53" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A53" s="34">
         <v>1102</v>
       </c>
@@ -10451,7 +10462,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="54" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A54" s="34">
         <v>1103</v>
       </c>
@@ -10531,7 +10542,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="55" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A55" s="34">
         <v>1104</v>
       </c>
@@ -10610,7 +10621,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="56" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A56" s="34">
         <v>1105</v>
       </c>
@@ -10690,7 +10701,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="57" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A57" s="34">
         <v>1106</v>
       </c>
@@ -10769,7 +10780,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="58" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A58" s="34">
         <v>1107</v>
       </c>
@@ -10848,7 +10859,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="59" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A59" s="34">
         <v>1108</v>
       </c>
@@ -10922,7 +10933,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="60" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A60" s="34">
         <v>1109</v>
       </c>
@@ -10978,7 +10989,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="61" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A61" s="34">
         <v>1150</v>
       </c>
@@ -11059,7 +11070,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="62" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A62" s="34">
         <v>1151</v>
       </c>
@@ -11140,7 +11151,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="63" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A63" s="34">
         <v>1152</v>
       </c>
@@ -11221,7 +11232,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="64" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A64" s="34">
         <v>1153</v>
       </c>
@@ -11302,7 +11313,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="65" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A65" s="34">
         <v>1154</v>
       </c>
@@ -11383,7 +11394,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="66" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A66" s="34">
         <v>1155</v>
       </c>
@@ -11464,7 +11475,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="67" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A67" s="34">
         <v>1200</v>
       </c>
@@ -11555,7 +11566,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="68" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A68" s="34">
         <v>1201</v>
       </c>
@@ -11646,7 +11657,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="69" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A69" s="34">
         <v>1250</v>
       </c>
@@ -11737,7 +11748,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="70" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A70" s="34">
         <v>1251</v>
       </c>
@@ -11828,7 +11839,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="71" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A71" s="34">
         <v>1300</v>
       </c>
@@ -11919,7 +11930,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="72" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A72" s="34">
         <v>1301</v>
       </c>
@@ -12010,7 +12021,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="73" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A73" s="34">
         <v>1302</v>
       </c>
@@ -12101,7 +12112,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="74" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A74" s="34">
         <v>1303</v>
       </c>
@@ -12192,7 +12203,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="75" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A75" s="34">
         <v>1304</v>
       </c>
@@ -12280,7 +12291,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="76" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A76" s="34">
         <v>1305</v>
       </c>
@@ -12371,7 +12382,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="77" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A77" s="34">
         <v>1306</v>
       </c>
@@ -12462,7 +12473,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="78" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A78" s="34">
         <v>1350</v>
       </c>
@@ -12556,7 +12567,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="79" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A79" s="34">
         <v>1351</v>
       </c>
@@ -12653,7 +12664,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="80" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A80" s="34">
         <v>1352</v>
       </c>
@@ -12707,7 +12718,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="81" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A81" s="34">
         <v>1353</v>
       </c>
@@ -12804,7 +12815,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="82" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A82" s="34">
         <v>1354</v>
       </c>
@@ -12895,7 +12906,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="83" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A83" s="34">
         <v>1355</v>
       </c>
@@ -12949,7 +12960,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="84" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A84" s="34">
         <v>1356</v>
       </c>
@@ -13043,7 +13054,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="85" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A85" s="34">
         <v>1357</v>
       </c>
@@ -13097,7 +13108,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="86" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A86" s="34">
         <v>1358</v>
       </c>
@@ -13194,7 +13205,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="87" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A87" s="34">
         <v>1359</v>
       </c>
@@ -13285,7 +13296,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="88" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A88" s="34">
         <v>1360</v>
       </c>
@@ -13376,7 +13387,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="89" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A89" s="34">
         <v>1400</v>
       </c>
@@ -13446,7 +13457,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="90" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A90" s="34">
         <v>1401</v>
       </c>
@@ -13512,7 +13523,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="91" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A91" s="34">
         <v>1402</v>
       </c>
@@ -13578,7 +13589,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="92" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A92" s="34">
         <v>1403</v>
       </c>
@@ -13644,7 +13655,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="93" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A93" s="34">
         <v>1404</v>
       </c>
@@ -13704,7 +13715,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="94" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A94" s="34">
         <v>1405</v>
       </c>
@@ -13764,7 +13775,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="95" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A95" s="34">
         <v>1406</v>
       </c>
@@ -13824,7 +13835,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="96" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A96" s="34">
         <v>1407</v>
       </c>
@@ -13884,7 +13895,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="97" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A97" s="34">
         <v>1408</v>
       </c>
@@ -13937,7 +13948,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="98" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A98" s="34">
         <v>1500</v>
       </c>
@@ -14044,7 +14055,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="99" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A99" s="34">
         <v>1501</v>
       </c>
@@ -14151,7 +14162,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="100" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="100" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A100" s="34">
         <v>1502</v>
       </c>
@@ -14258,7 +14269,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="101" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A101" s="34">
         <v>1503</v>
       </c>
@@ -14338,7 +14349,7 @@
       <c r="AX101" s="38"/>
       <c r="AY101" s="38"/>
     </row>
-    <row r="102" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="102" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A102" s="34">
         <v>1504</v>
       </c>
@@ -14453,7 +14464,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="103" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="103" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A103" s="34">
         <v>1505</v>
       </c>
@@ -14560,7 +14571,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="104" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A104" s="34">
         <v>1506</v>
       </c>
@@ -14624,7 +14635,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="105" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A105" s="34">
         <v>1507</v>
       </c>
@@ -14725,7 +14736,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="106" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A106" s="34">
         <v>1508</v>
       </c>
@@ -14828,7 +14839,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="107" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="107" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A107" s="34">
         <v>1509</v>
       </c>
@@ -14888,7 +14899,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="108" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A108" s="34">
         <v>1600</v>
       </c>
@@ -15065,7 +15076,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="110" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A110" s="34">
         <v>1602</v>
       </c>
@@ -15257,7 +15268,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="112" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A112" s="34">
         <v>1604</v>
       </c>
@@ -15354,7 +15365,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="113" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="113" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A113" s="34">
         <v>1605</v>
       </c>
@@ -15531,7 +15542,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="115" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A115" s="34">
         <v>1607</v>
       </c>
@@ -15661,7 +15672,7 @@
         <v>1069</v>
       </c>
       <c r="K116" s="34" t="s">
-        <v>986</v>
+        <v>1294</v>
       </c>
       <c r="M116" s="34" t="s">
         <v>136</v>
@@ -15720,7 +15731,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="117" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A117" s="34">
         <v>1609</v>
       </c>
@@ -15814,7 +15825,7 @@
         <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
-    <row r="118" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="118" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A118" s="34">
         <v>1610</v>
       </c>
@@ -15908,7 +15919,7 @@
         <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
-    <row r="119" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="119" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A119" s="34">
         <v>1611</v>
       </c>
@@ -16002,7 +16013,7 @@
         <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
-    <row r="120" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="120" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A120" s="34">
         <v>1612</v>
       </c>
@@ -16129,7 +16140,7 @@
         <v>1249</v>
       </c>
       <c r="K121" s="34" t="s">
-        <v>987</v>
+        <v>1294</v>
       </c>
       <c r="M121" s="34" t="s">
         <v>136</v>
@@ -16185,7 +16196,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="122" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A122" s="34">
         <v>1614</v>
       </c>
@@ -16275,7 +16286,7 @@
         <v>[["mac", "0x2c1165fffe12d5c4"]]</v>
       </c>
     </row>
-    <row r="123" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="123" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A123" s="34">
         <v>1615</v>
       </c>
@@ -16457,7 +16468,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="125" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A125" s="34">
         <v>1617</v>
       </c>
@@ -16551,7 +16562,7 @@
         <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
-    <row r="126" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="126" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A126" s="34">
         <v>1618</v>
       </c>
@@ -16645,7 +16656,7 @@
         <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
-    <row r="127" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="127" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A127" s="34">
         <v>1619</v>
       </c>
@@ -16739,7 +16750,7 @@
         <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
-    <row r="128" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="128" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A128" s="34">
         <v>1620</v>
       </c>
@@ -16833,7 +16844,7 @@
         <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
-    <row r="129" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="129" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A129" s="34">
         <v>1621</v>
       </c>
@@ -16927,7 +16938,7 @@
         <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
-    <row r="130" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="130" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A130" s="34">
         <v>1622</v>
       </c>
@@ -17113,7 +17124,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="132" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A132" s="34">
         <v>1624</v>
       </c>
@@ -17207,7 +17218,7 @@
         <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
-    <row r="133" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="133" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A133" s="34">
         <v>1625</v>
       </c>
@@ -17301,7 +17312,7 @@
         <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
-    <row r="134" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="134" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A134" s="34">
         <v>1626</v>
       </c>
@@ -17395,7 +17406,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="135" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A135" s="34">
         <v>1627</v>
       </c>
@@ -17575,7 +17586,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="137" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A137" s="34">
         <v>1629</v>
       </c>
@@ -17764,7 +17775,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="139" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A139" s="34">
         <v>1631</v>
       </c>
@@ -17858,7 +17869,7 @@
         <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
-    <row r="140" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="140" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A140" s="34">
         <v>1632</v>
       </c>
@@ -17952,7 +17963,7 @@
         <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
-    <row r="141" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="141" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A141" s="34">
         <v>1633</v>
       </c>
@@ -18079,7 +18090,7 @@
         <v>1292</v>
       </c>
       <c r="K142" s="34" t="s">
-        <v>986</v>
+        <v>1294</v>
       </c>
       <c r="M142" s="34" t="s">
         <v>136</v>
@@ -18135,7 +18146,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="143" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A143" s="34">
         <v>1635</v>
       </c>
@@ -18258,7 +18269,7 @@
         <v>1293</v>
       </c>
       <c r="K144" s="34" t="s">
-        <v>986</v>
+        <v>1294</v>
       </c>
       <c r="M144" s="34" t="s">
         <v>136</v>
@@ -18314,7 +18325,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="145" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A145" s="34">
         <v>1637</v>
       </c>
@@ -18499,7 +18510,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="147" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A147" s="34">
         <v>1639</v>
       </c>
@@ -18688,7 +18699,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="149" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A149" s="34">
         <v>1641</v>
       </c>
@@ -18782,7 +18793,7 @@
         <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
-    <row r="150" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="150" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A150" s="34">
         <v>1642</v>
       </c>
@@ -18876,7 +18887,7 @@
         <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
-    <row r="151" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="151" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A151" s="34">
         <v>1643</v>
       </c>
@@ -18971,7 +18982,7 @@
         <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="152" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A152" s="34">
         <v>1644</v>
       </c>
@@ -19065,7 +19076,7 @@
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="153" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="153" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A153" s="34">
         <v>1645</v>
       </c>
@@ -19153,7 +19164,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="154" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A154" s="34">
         <v>1646</v>
       </c>
@@ -19358,7 +19369,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="156" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A156" s="34">
         <v>1648</v>
       </c>
@@ -19544,7 +19555,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="158" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A158" s="34">
         <v>1650</v>
       </c>
@@ -19638,7 +19649,7 @@
         <v>[["mac", "0x0017880104eaa272"]]</v>
       </c>
     </row>
-    <row r="159" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="159" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A159" s="34">
         <v>1651</v>
       </c>
@@ -19727,7 +19738,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="160" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A160" s="34">
         <v>1652</v>
       </c>
@@ -19913,7 +19924,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="162" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A162" s="34">
         <v>1654</v>
       </c>
@@ -20040,7 +20051,7 @@
         <v>1249</v>
       </c>
       <c r="K163" s="34" t="s">
-        <v>986</v>
+        <v>1294</v>
       </c>
       <c r="M163" s="34" t="s">
         <v>136</v>
@@ -20096,7 +20107,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="164" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A164" s="34">
         <v>1656</v>
       </c>
@@ -20186,7 +20197,7 @@
         <v>[["mac", "0x2c1165fffe2787f0"]]</v>
       </c>
     </row>
-    <row r="165" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="165" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A165" s="34">
         <v>1657</v>
       </c>
@@ -20368,7 +20379,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="167" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A167" s="34">
         <v>1659</v>
       </c>
@@ -20495,7 +20506,7 @@
         <v>1249</v>
       </c>
       <c r="K168" s="34" t="s">
-        <v>986</v>
+        <v>1294</v>
       </c>
       <c r="M168" s="34" t="s">
         <v>136</v>
@@ -20551,7 +20562,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="169" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A169" s="34">
         <v>1661</v>
       </c>
@@ -20641,7 +20652,7 @@
         <v>[["mac", "0x2c1165fffe168c7e"]]</v>
       </c>
     </row>
-    <row r="170" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="170" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A170" s="34">
         <v>1662</v>
       </c>
@@ -20731,7 +20742,7 @@
         <v>[["mac", "0x2c1165fffea5cd4b"]]</v>
       </c>
     </row>
-    <row r="171" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="171" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A171" s="34">
         <v>1663</v>
       </c>
@@ -20913,7 +20924,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="173" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A173" s="34">
         <v>1665</v>
       </c>
@@ -21007,7 +21018,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="174" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="174" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A174" s="34">
         <v>1666</v>
       </c>
@@ -21095,7 +21106,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="175" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A175" s="34">
         <v>1667</v>
       </c>
@@ -21208,7 +21219,7 @@
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="176" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="176" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A176" s="34">
         <v>1668</v>
       </c>
@@ -21296,7 +21307,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="177" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A177" s="34">
         <v>1669</v>
       </c>
@@ -21409,7 +21420,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:0c"], ["ip", "10.0.6.89"]]</v>
       </c>
     </row>
-    <row r="178" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="178" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A178" s="34">
         <v>1670</v>
       </c>
@@ -21493,7 +21504,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="179" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A179" s="34">
         <v>1671</v>
       </c>
@@ -21583,7 +21594,7 @@
         <v>[["mac", "0x001788010c692175"]]</v>
       </c>
     </row>
-    <row r="180" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="180" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A180" s="34">
         <v>1672</v>
       </c>
@@ -21673,7 +21684,7 @@
         <v>[["mac", "0x001788010c69214a"]]</v>
       </c>
     </row>
-    <row r="181" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="181" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A181" s="34">
         <v>1673</v>
       </c>
@@ -21763,7 +21774,7 @@
         <v>[["mac", "0x001788010c5c4266"]]</v>
       </c>
     </row>
-    <row r="182" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="182" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A182" s="34">
         <v>1674</v>
       </c>
@@ -21853,7 +21864,7 @@
         <v>[["mac", "0x001788010c692144"]]</v>
       </c>
     </row>
-    <row r="183" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="183" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A183" s="34">
         <v>1675</v>
       </c>
@@ -21924,7 +21935,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="184" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="184" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A184" s="34">
         <v>1676</v>
       </c>
@@ -21995,7 +22006,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="185" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="185" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A185" s="34">
         <v>1677</v>
       </c>
@@ -22066,7 +22077,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="186" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="186" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A186" s="34">
         <v>1678</v>
       </c>
@@ -22137,7 +22148,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="187" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="187" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A187" s="34">
         <v>1679</v>
       </c>
@@ -22221,7 +22232,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="188" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A188" s="34">
         <v>1680</v>
       </c>
@@ -22313,7 +22324,7 @@
         <v>[["mac", "0x00178801097ed42c"]]</v>
       </c>
     </row>
-    <row r="189" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="189" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A189" s="34">
         <v>1681</v>
       </c>
@@ -22405,7 +22416,7 @@
         <v>[["mac", "0x0017880109c40c33"]]</v>
       </c>
     </row>
-    <row r="190" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="190" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A190" s="34">
         <v>1682</v>
       </c>
@@ -22476,7 +22487,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="191" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="191" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A191" s="34">
         <v>1700</v>
       </c>
@@ -22533,7 +22544,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="192" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A192" s="34">
         <v>1701</v>
       </c>
@@ -22621,7 +22632,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="193" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A193" s="34">
         <v>1702</v>
       </c>
@@ -22734,7 +22745,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="194" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="194" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A194" s="34">
         <v>1703</v>
       </c>
@@ -22824,7 +22835,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.94"]]</v>
       </c>
     </row>
-    <row r="195" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="195" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A195" s="34">
         <v>1704</v>
       </c>
@@ -22908,7 +22919,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="196" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A196" s="34">
         <v>2000</v>
       </c>
@@ -22996,7 +23007,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="197" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="197" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A197" s="34">
         <v>2001</v>
       </c>
@@ -23065,7 +23076,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="198" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="198" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A198" s="34">
         <v>2002</v>
       </c>
@@ -23153,7 +23164,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="199" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="199" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A199" s="34">
         <v>2003</v>
       </c>
@@ -23222,7 +23233,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="200" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A200" s="34">
         <v>2100</v>
       </c>
@@ -23285,7 +23296,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="201" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A201" s="34">
         <v>2101</v>
       </c>
@@ -23348,7 +23359,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="202" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A202" s="34">
         <v>2102</v>
       </c>
@@ -23411,7 +23422,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="203" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A203" s="34">
         <v>2103</v>
       </c>
@@ -23465,7 +23476,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="204" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A204" s="34">
         <v>2104</v>
       </c>
@@ -23528,7 +23539,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="205" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A205" s="34">
         <v>2105</v>
       </c>
@@ -23593,7 +23604,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="206" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A206" s="34">
         <v>2106</v>
       </c>
@@ -23658,7 +23669,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="207" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A207" s="34">
         <v>2107</v>
       </c>
@@ -23721,7 +23732,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="208" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A208" s="34">
         <v>2108</v>
       </c>
@@ -23784,7 +23795,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="209" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A209" s="34">
         <v>2109</v>
       </c>
@@ -23847,7 +23858,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="210" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A210" s="34">
         <v>2110</v>
       </c>
@@ -23912,7 +23923,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="211" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A211" s="34">
         <v>2111</v>
       </c>
@@ -23977,7 +23988,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="212" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A212" s="34">
         <v>2112</v>
       </c>
@@ -24040,7 +24051,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="213" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A213" s="34">
         <v>2113</v>
       </c>
@@ -24103,7 +24114,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="214" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A214" s="34">
         <v>2114</v>
       </c>
@@ -24166,7 +24177,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="215" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A215" s="34">
         <v>2115</v>
       </c>
@@ -24229,7 +24240,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="216" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A216" s="34">
         <v>2116</v>
       </c>
@@ -24292,7 +24303,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="217" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A217" s="34">
         <v>2117</v>
       </c>
@@ -24355,7 +24366,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="218" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A218" s="34">
         <v>2118</v>
       </c>
@@ -24418,7 +24429,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="219" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A219" s="34">
         <v>2119</v>
       </c>
@@ -24481,7 +24492,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="220" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A220" s="34">
         <v>2120</v>
       </c>
@@ -24544,7 +24555,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="221" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A221" s="34">
         <v>2121</v>
       </c>
@@ -24607,7 +24618,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="222" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A222" s="34">
         <v>2122</v>
       </c>
@@ -24660,7 +24671,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="223" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A223" s="34">
         <v>2123</v>
       </c>
@@ -24714,7 +24725,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="224" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A224" s="34">
         <v>2124</v>
       </c>
@@ -24768,7 +24779,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="225" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A225" s="34">
         <v>2125</v>
       </c>
@@ -24822,7 +24833,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="226" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A226" s="34">
         <v>2126</v>
       </c>
@@ -24876,7 +24887,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="227" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A227" s="34">
         <v>2127</v>
       </c>
@@ -24939,7 +24950,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="228" spans="1:52" s="34" customFormat="1" ht="16" hidden="1" customHeight="1">
       <c r="A228" s="34">
         <v>2128</v>
       </c>
@@ -25002,7 +25013,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:52" s="34" customFormat="1" ht="16" customHeight="1">
+    <row r="229" spans="1:52" s="34" cus